--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/static/input_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08902B72-E04A-144F-B1C3-BBB17CF0206E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C33A139-C6DA-1646-974A-71E2D7B9E120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="834" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1220" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="834" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -19,21 +19,36 @@
     <sheet name="Statement of Net Position" sheetId="9" r:id="rId4"/>
     <sheet name="Statement of Activities" sheetId="19" r:id="rId5"/>
     <sheet name="GovFund Stmt of Rev Exp and Chg" sheetId="15" r:id="rId6"/>
+    <sheet name="Prop Funds - Net Position" sheetId="21" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'GovFund Stmt of Rev Exp and Chg'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Label Dropdowns'!$A$1:$C$522</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Prop Funds - Net Position'!$B$26:$B$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Statement of Activities'!$B$25:$B$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Statement of Net Position'!$B$25:$B$36</definedName>
+    <definedName name="current_assets" localSheetId="6">'[1]Label Dropdowns'!$B$2:$B$204</definedName>
     <definedName name="current_assets">'Label Dropdowns'!$B$2:$B$204</definedName>
+    <definedName name="current_liabilities" localSheetId="6">'[1]Label Dropdowns'!$B$205:$B$319</definedName>
     <definedName name="current_liabilities">'Label Dropdowns'!$B$205:$B$319</definedName>
+    <definedName name="deferred_inflows" localSheetId="6">'[1]Label Dropdowns'!$B$320:$B$342</definedName>
     <definedName name="deferred_inflows">'Label Dropdowns'!$B$320:$B$342</definedName>
+    <definedName name="deferred_outflows" localSheetId="6">'[1]Label Dropdowns'!$B$343:$B$359</definedName>
     <definedName name="deferred_outflows">'Label Dropdowns'!$B$343:$B$359</definedName>
+    <definedName name="general_revenues" localSheetId="6">'[1]Statement of activities labels'!$B$112:$B$203</definedName>
     <definedName name="general_revenues">'Statement of activities labels'!$B$112:$B$203</definedName>
+    <definedName name="net_position" localSheetId="6">'[1]Label Dropdowns'!$B$360:$B$381</definedName>
     <definedName name="net_position">'Label Dropdowns'!$B$360:$B$381</definedName>
+    <definedName name="noncurrent_assets" localSheetId="6">'[1]Label Dropdowns'!$B$382:$B$475</definedName>
     <definedName name="noncurrent_assets">'Label Dropdowns'!$B$382:$B$475</definedName>
+    <definedName name="noncurrent_liabilities" localSheetId="6">'[1]Label Dropdowns'!$B$476:$B$522</definedName>
     <definedName name="noncurrent_liabilities">'Label Dropdowns'!$B$476:$B$522</definedName>
+    <definedName name="program_revenues" localSheetId="6">'[1]Statement of activities labels'!$B$2:$B$111</definedName>
     <definedName name="program_revenues">'Statement of activities labels'!$B$2:$B$111</definedName>
+    <definedName name="transfers" localSheetId="6">'[1]Statement of activities labels'!$B$204:$B$217</definedName>
     <definedName name="transfers">'Statement of activities labels'!$B$204:$B$217</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -54,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="1735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="1738">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -5259,6 +5274,15 @@
   </si>
   <si>
     <t>acfr:GeneralRevenuesAndTransfers</t>
+  </si>
+  <si>
+    <t>Proprietary Funds</t>
+  </si>
+  <si>
+    <t>Internal Service Funds</t>
+  </si>
+  <si>
+    <t>Business-Type Activities - Enterprise Funds</t>
   </si>
 </sst>
 </file>
@@ -5269,7 +5293,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5393,6 +5417,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -5474,7 +5511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -5699,13 +5736,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5878,13 +5934,321 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="13" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="1" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Currency 2" xfId="3" xr:uid="{8E32DCCE-912B-2345-802E-1F34AAFD7463}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="48">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -6035,6 +6399,5304 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Label Dropdowns"/>
+      <sheetName val="Statement of activities labels"/>
+      <sheetName val="Master Info"/>
+      <sheetName val="Statement of Net Position"/>
+      <sheetName val="Statement of Activities"/>
+      <sheetName val="GovFund Balance Sheet"/>
+      <sheetName val="GovFund Stmt of Rev Exp and Chg"/>
+      <sheetName val="Prop Fund Stmt of Net Position"/>
+      <sheetName val="Prop Fund Stmt of Rev Exp Bal"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Accounts Receivable</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>acfr:AccountsReceivable</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Accounts Receivable Allowance</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>acfr:AccountsReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Accounts Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>acfr:AccountsReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Accounts Receivable Unbilled</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>acfr:AccountsReceivableUnbilled</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Accounts Receivable Unbilled Allowance</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>acfr:AccountsReceivableUnbilledAllowance</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Accounts Receivable Unbilled Net Of Allowance</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>acfr:AccountsReceivableUnbilledNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Accrued Interest Receivable</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>acfr:AccruedInterestReceivable</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Accrued Interest Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>acfr:AccruedInterestReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Advances Receivable</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>acfr:AdvancesReceivable</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Advances To Developers</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>acfr:AdvancesToDevelopers</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Allowance For Receivables</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>acfr:AllowanceForReceivables</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Assessments Receivable</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>acfr:AssessmentsReceivable</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>Assessments Receivable Allowance</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>acfr:AssessmentsReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>Assessments Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>acfr:AssessmentsReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>Asset Retirement Obligations Principal Due Within One Year</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>acfr:AssetRetirementObligationsPrincipalDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>Assets Held For Sale</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>acfr:AssetsHeldForSale</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>Bond Premium Principal Due Within One Year</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>acfr:BondPremiumPrincipalDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>Bonds Payable Due Within One Year</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>acfr:BondsPayableDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>Cash</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>acfr:Cash</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>Cash And Cash Equivalents</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>acfr:CashAndCashEquivalents</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>Cash And Cash Equivalents And Investments</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>acfr:CashAndCashEquivalentsAndInvestments</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>Cash And Cash Equivalents And Investments Abtract _ 1</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>acfr:CashAndCashEquivalentsAndInvestmentsAbtract_1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>Cash And Cash Equivalents Others</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>acfr:CashAndCashEquivalentsOthers</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>Cash And Cash Equivalents With Fiscal And Escrow And Other Agents</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>acfr:CashAndCashEquivalentsWithFiscalAndEscrowAndOtherAgents</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>Cash And Cash Equivalents With Treasurer</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>acfr:CashAndCashEquivalentsWithTreasurer</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>Cash And Cash Equivalents With Trustee</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>acfr:CashAndCashEquivalentsWithTrustee</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>Cash Checking</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>acfr:CashChecking</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>Cash Equivalents</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>acfr:CashEquivalents</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>Cash In Bank</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>acfr:CashInBank</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>Cash On Hand</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>acfr:CashOnHand</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>Cash Payroll Bank Account</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>acfr:CashPayrollBankAccount</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>Cash Savings</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>acfr:CashSavings</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>Certificates Of Deposit</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>acfr:CertificatesOfDeposit</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>Claims And Judgments Payable Due Within One Year</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>acfr:ClaimsAndJudgmentsPayableDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>Claims And Judgments Receivable</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>acfr:ClaimsAndJudgmentsReceivable</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>Claims And Judgments Receivable Allowance</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>acfr:ClaimsAndJudgmentsReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>Claims And Judgments Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>acfr:ClaimsAndJudgmentsReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>Computer Software</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>acfr:ComputerSoftware</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>Connection Fees Receivable</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>acfr:ConnectionFeesReceivable</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>Connection Fees Receivable Allowance</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>acfr:ConnectionFeesReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>Connection Fees Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>acfr:ConnectionFeesReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>Contractors Advances</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>acfr:ContractorsAdvances</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>Contracts Payable Due Within One Year</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>acfr:ContractsPayableDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>Court Orders Receivable</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>acfr:CourtOrdersReceivable</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>Current Assets</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>acfr:CurrentAssets</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>Current Assets Custom</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>acfr:CurrentAssetsCustom</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>Customer And Other Government Receivable Allowance</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>acfr:CustomerAndOtherGovernmentReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>Customer And Other Government Receivables</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>acfr:CustomerAndOtherGovernmentReceivables</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>Customer And Other Government Receivables Net Of Allowance</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>acfr:CustomerAndOtherGovernmentReceivablesNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>Delinquent Taxes Receivable</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>acfr:DelinquentTaxesReceivable</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>Delinquent Utility Bills Receivable</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>acfr:DelinquentUtilityBillsReceivable</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>Deposits Receivable</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>acfr:DepositsReceivable</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>Deposits Receivable Allowance</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>acfr:DepositsReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>Deposits Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>acfr:DepositsReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>Deposits With Fiscal Agents</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>acfr:DepositsWithFiscalAgents</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>Derivative Instruments Assets Current</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>acfr:DerivativeInstrumentsAssetsCurrent</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>Derivative Instruments Liability Current</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>acfr:DerivativeInstrumentsLiabilityCurrent</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>Due From Cities</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>acfr:DueFromCities</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>Due From Component Unit</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>acfr:DueFromComponentUnit</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>Due From Counties</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>acfr:DueFromCounties</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>Due From Custodial Funds</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>acfr:DueFromCustodialFunds</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>Due From Employees</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>acfr:DueFromEmployees</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>Due From Enterprise Funds</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>acfr:DueFromEnterpriseFunds</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>Due From Federal Government</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>acfr:DueFromFederalGovernment</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>Due From Fiduciary Funds</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>acfr:DueFromFiduciaryFunds</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>Due From Government</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>acfr:DueFromGovernment</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>Due From Libraries</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>acfr:DueFromLibraries</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>Due From Other Funds</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>acfr:DueFromOtherFunds</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>Due From Other Governments</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>acfr:DueFromOtherGovernments</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>Due From Primary Government</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>acfr:DueFromPrimaryGovernment</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>Due From Related Parties</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>acfr:DueFromRelatedParties</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>Due From Retirement System</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>acfr:DueFromRetirementSystem</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>Due From Road Commissions</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>acfr:DueFromRoadCommissions</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>Due From Schools</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>acfr:DueFromSchools</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>Due From State Government</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>acfr:DueFromStateGovernment</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>Due From Tax Collection Funds</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>acfr:DueFromTaxCollectionFunds</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>Due From Townships Except Road Agreements</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>acfr:DueFromTownshipsExceptRoadAgreements</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>Due From Townships Road Agreements</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>acfr:DueFromTownshipsRoadAgreements</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>Due From Villages</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>acfr:DueFromVillages</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>Easements Right Of Way</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>acfr:EasementsRightOfWay</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>Forfeiture Certificate Recording Fees Receivable</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>acfr:ForfeitureCertificateRecordingFeesReceivable</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v>General Obligation Bonds Payable Due Within One Year</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>acfr:GeneralObligationBondsPayableDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84" t="str">
+            <v>Government Claims Receivable</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>acfr:GovernmentClaimsReceivable</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v>Government Claims Receivable Allowance</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>acfr:GovernmentClaimsReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86" t="str">
+            <v>Government Claims Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>acfr:GovernmentClaimsReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87" t="str">
+            <v>Grants And Contracts Receivable</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>acfr:GrantsAndContractsReceivable</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v>Grants And Contracts Receivable Allowance</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>acfr:GrantsAndContractsReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89" t="str">
+            <v>Grants And Contracts Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>acfr:GrantsAndContractsReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90" t="str">
+            <v>Income Tax Receivable</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>acfr:IncomeTaxReceivable</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91" t="str">
+            <v>Installment Debt Principal Due Within One Year</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v>acfr:InstallmentDebtPrincipalDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92" t="str">
+            <v>Intangible Assets</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v>acfr:IntangibleAssets</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93" t="str">
+            <v>Intangible Assets Net Of Accumulated Amortization</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v>acfr:IntangibleAssetsNetOfAccumulatedAmortization</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94" t="str">
+            <v>Inter Governmental Receivable</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>acfr:InterGovernmentalReceivable</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95" t="str">
+            <v>Inter Governmental Receivable Allowance</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>acfr:InterGovernmentalReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96" t="str">
+            <v>Inter Governmental Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v>acfr:InterGovernmentalReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97" t="str">
+            <v>Interest And Penalties Receivable On Taxes</v>
+          </cell>
+          <cell r="C97" t="str">
+            <v>acfr:InterestAndPenaltiesReceivableOnTaxes</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98" t="str">
+            <v>Interest Receivable Allowances</v>
+          </cell>
+          <cell r="C98" t="str">
+            <v>acfr:InterestReceivableAllowances</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99" t="str">
+            <v>Intergovernmental Agreement Payable Principal Due Within One Year</v>
+          </cell>
+          <cell r="C99" t="str">
+            <v>acfr:IntergovernmentalAgreementPayablePrincipalDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100" t="str">
+            <v>Internal Balance</v>
+          </cell>
+          <cell r="C100" t="str">
+            <v>acfr:InternalBalance</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101" t="str">
+            <v>Inventory</v>
+          </cell>
+          <cell r="C101" t="str">
+            <v>acfr:Inventory</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102" t="str">
+            <v>Inventory Equipment Materials And Parts</v>
+          </cell>
+          <cell r="C102" t="str">
+            <v>acfr:InventoryEquipmentMaterialsAndParts</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103" t="str">
+            <v>Inventory Road Materials</v>
+          </cell>
+          <cell r="C103" t="str">
+            <v>acfr:InventoryRoadMaterials</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104" t="str">
+            <v>Investments Abtract</v>
+          </cell>
+          <cell r="C104" t="str">
+            <v>acfr:InvestmentsAbtract</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105" t="str">
+            <v>Investments Current</v>
+          </cell>
+          <cell r="C105" t="str">
+            <v>acfr:InvestmentsCurrent</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106" t="str">
+            <v>Investments Held By Third Parties</v>
+          </cell>
+          <cell r="C106" t="str">
+            <v>acfr:InvestmentsHeldByThirdParties</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107" t="str">
+            <v>Investments Restricted</v>
+          </cell>
+          <cell r="C107" t="str">
+            <v>acfr:InvestmentsRestricted</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108" t="str">
+            <v>Investments With Fiscal Agents</v>
+          </cell>
+          <cell r="C108" t="str">
+            <v>acfr:InvestmentsWithFiscalAgents</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109" t="str">
+            <v>Investments With State Treasury</v>
+          </cell>
+          <cell r="C109" t="str">
+            <v>acfr:InvestmentsWithStateTreasury</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110" t="str">
+            <v>Land Contracts Payable</v>
+          </cell>
+          <cell r="C110" t="str">
+            <v>acfr:LandContractsPayable</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111" t="str">
+            <v>Land Contracts Receivable</v>
+          </cell>
+          <cell r="C111" t="str">
+            <v>acfr:LandContractsReceivable</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112" t="str">
+            <v>Land Contracts Receivables Allowance</v>
+          </cell>
+          <cell r="C112" t="str">
+            <v>acfr:LandContractsReceivablesAllowance</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113" t="str">
+            <v>Land Contracts Receivables Net Of Allowance</v>
+          </cell>
+          <cell r="C113" t="str">
+            <v>acfr:LandContractsReceivablesNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114" t="str">
+            <v>Lease Assets Right Of Use</v>
+          </cell>
+          <cell r="C114" t="str">
+            <v>acfr:LeaseAssetsRightOfUse</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115" t="str">
+            <v>Leases Payable Due Within One Year</v>
+          </cell>
+          <cell r="C115" t="str">
+            <v>acfr:LeasesPayableDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116" t="str">
+            <v>Leases Receivable</v>
+          </cell>
+          <cell r="C116" t="str">
+            <v>acfr:LeasesReceivable</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117" t="str">
+            <v>Leases Receivable Allowance</v>
+          </cell>
+          <cell r="C117" t="str">
+            <v>acfr:LeasesReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118" t="str">
+            <v>Leases Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C118" t="str">
+            <v>acfr:LeasesReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119" t="str">
+            <v>Limited Tax Bonds Principal Due Within One Year</v>
+          </cell>
+          <cell r="C119" t="str">
+            <v>acfr:LimitedTaxBondsPrincipalDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120" t="str">
+            <v>Loans And Notes Receivable</v>
+          </cell>
+          <cell r="C120" t="str">
+            <v>acfr:LoansAndNotesReceivable</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121" t="str">
+            <v>Loans And Notes Receivable Allowance</v>
+          </cell>
+          <cell r="C121" t="str">
+            <v>acfr:LoansAndNotesReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122" t="str">
+            <v>Loans And Notes Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C122" t="str">
+            <v>acfr:LoansAndNotesReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123" t="str">
+            <v>Loans Payable Due Within One Year</v>
+          </cell>
+          <cell r="C123" t="str">
+            <v>acfr:LoansPayableDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124" t="str">
+            <v>Loans Receivable</v>
+          </cell>
+          <cell r="C124" t="str">
+            <v>acfr:LoansReceivable</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125" t="str">
+            <v>Loans Receivable Allowance</v>
+          </cell>
+          <cell r="C125" t="str">
+            <v>acfr:LoansReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126" t="str">
+            <v>Loans Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C126" t="str">
+            <v>acfr:LoansReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127" t="str">
+            <v>Local Unit Share Of Assessment Improvement Costs Receivable</v>
+          </cell>
+          <cell r="C127" t="str">
+            <v>acfr:LocalUnitShareOfAssessmentImprovementCostsReceivable</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128" t="str">
+            <v>Long Term Debt Due Within One Year</v>
+          </cell>
+          <cell r="C128" t="str">
+            <v>acfr:LongTermDebtDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129" t="str">
+            <v>Lottery Ticket Inventories</v>
+          </cell>
+          <cell r="C129" t="str">
+            <v>acfr:LotteryTicketInventories</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130" t="str">
+            <v>Notes Payable Due Within One Year</v>
+          </cell>
+          <cell r="C130" t="str">
+            <v>acfr:NotesPayableDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131" t="str">
+            <v>Notes Receivable</v>
+          </cell>
+          <cell r="C131" t="str">
+            <v>acfr:NotesReceivable</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132" t="str">
+            <v>Notes Receivable Allowance</v>
+          </cell>
+          <cell r="C132" t="str">
+            <v>acfr:NotesReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133" t="str">
+            <v>Notes Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C133" t="str">
+            <v>acfr:NotesReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134" t="str">
+            <v>Other Accounts Receivable</v>
+          </cell>
+          <cell r="C134" t="str">
+            <v>acfr:OtherAccountsReceivable</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135" t="str">
+            <v>Other Accounts Receivable Allowance</v>
+          </cell>
+          <cell r="C135" t="str">
+            <v>acfr:OtherAccountsReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136" t="str">
+            <v>Other Accounts Receivable Net</v>
+          </cell>
+          <cell r="C136" t="str">
+            <v>acfr:OtherAccountsReceivableNet</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137" t="str">
+            <v>Other Current Assets</v>
+          </cell>
+          <cell r="C137" t="str">
+            <v>acfr:OtherCurrentAssets</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138" t="str">
+            <v>Other Current Investments</v>
+          </cell>
+          <cell r="C138" t="str">
+            <v>acfr:OtherCurrentInvestments</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139" t="str">
+            <v>Other Receivables</v>
+          </cell>
+          <cell r="C139" t="str">
+            <v>acfr:OtherReceivables</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140" t="str">
+            <v>Other Restricted Assets</v>
+          </cell>
+          <cell r="C140" t="str">
+            <v>acfr:OtherRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141" t="str">
+            <v>Other Taxes Receivable</v>
+          </cell>
+          <cell r="C141" t="str">
+            <v>acfr:OtherTaxesReceivable</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142" t="str">
+            <v>Patents</v>
+          </cell>
+          <cell r="C142" t="str">
+            <v>acfr:Patents</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143" t="str">
+            <v>Payments In Lieu Of Taxes Receivable</v>
+          </cell>
+          <cell r="C143" t="str">
+            <v>acfr:PaymentsInLieuOfTaxesReceivable</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144" t="str">
+            <v>Penalties Receivable</v>
+          </cell>
+          <cell r="C144" t="str">
+            <v>acfr:PenaltiesReceivable</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145" t="str">
+            <v>Penalties Receivable Allowance</v>
+          </cell>
+          <cell r="C145" t="str">
+            <v>acfr:PenaltiesReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146" t="str">
+            <v>Penalties Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C146" t="str">
+            <v>acfr:PenaltiesReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147" t="str">
+            <v>Performance Bonds Payable Due Within One Year</v>
+          </cell>
+          <cell r="C147" t="str">
+            <v>acfr:PerformanceBondsPayableDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148" t="str">
+            <v>Pooled Cash And Investments</v>
+          </cell>
+          <cell r="C148" t="str">
+            <v>acfr:PooledCashAndInvestments</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149" t="str">
+            <v>Prepaid Deposits</v>
+          </cell>
+          <cell r="C149" t="str">
+            <v>acfr:PrepaidDeposits</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150" t="str">
+            <v>Prepaid Expenses</v>
+          </cell>
+          <cell r="C150" t="str">
+            <v>acfr:PrepaidExpenses</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151" t="str">
+            <v>Prepaids And Other Assets</v>
+          </cell>
+          <cell r="C151" t="str">
+            <v>acfr:PrepaidsAndOtherAssets</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152" t="str">
+            <v>Property Taxes Receivable</v>
+          </cell>
+          <cell r="C152" t="str">
+            <v>acfr:PropertyTaxesReceivable</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153" t="str">
+            <v>Property Taxes Receivable Allowance</v>
+          </cell>
+          <cell r="C153" t="str">
+            <v>acfr:PropertyTaxesReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154" t="str">
+            <v>Property Taxes Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C154" t="str">
+            <v>acfr:PropertyTaxesReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155" t="str">
+            <v>Receivable</v>
+          </cell>
+          <cell r="C155" t="str">
+            <v>acfr:Receivable</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156" t="str">
+            <v>Receivables</v>
+          </cell>
+          <cell r="C156" t="str">
+            <v>acfr:Receivables</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157" t="str">
+            <v>Regulatory Assets Current</v>
+          </cell>
+          <cell r="C157" t="str">
+            <v>acfr:RegulatoryAssetsCurrent</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158" t="str">
+            <v>Restricted Accounts Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C158" t="str">
+            <v>acfr:RestrictedAccountsReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159" t="str">
+            <v>Restricted Assets</v>
+          </cell>
+          <cell r="C159" t="str">
+            <v>acfr:RestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160" t="str">
+            <v>Restricted Assets Custom</v>
+          </cell>
+          <cell r="C160" t="str">
+            <v>acfr:RestrictedAssetsCustom</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161" t="str">
+            <v>Restricted Bond And Interest Redemption</v>
+          </cell>
+          <cell r="C161" t="str">
+            <v>acfr:RestrictedBondAndInterestRedemption</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162" t="str">
+            <v>Restricted Bond Reserve</v>
+          </cell>
+          <cell r="C162" t="str">
+            <v>acfr:RestrictedBondReserve</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163" t="str">
+            <v>Restricted Cash</v>
+          </cell>
+          <cell r="C163" t="str">
+            <v>acfr:RestrictedCash</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="B164" t="str">
+            <v>Restricted Cash And Cash Equivalents</v>
+          </cell>
+          <cell r="C164" t="str">
+            <v>acfr:RestrictedCashAndCashEquivalents</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="B165" t="str">
+            <v>Restricted Cash And Investments</v>
+          </cell>
+          <cell r="C165" t="str">
+            <v>acfr:RestrictedCashAndInvestments</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="B166" t="str">
+            <v>Restricted Cash Debt Retirement</v>
+          </cell>
+          <cell r="C166" t="str">
+            <v>acfr:RestrictedCashDebtRetirement</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="B167" t="str">
+            <v>Restricted Cash Debt Service</v>
+          </cell>
+          <cell r="C167" t="str">
+            <v>acfr:RestrictedCashDebtService</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="B168" t="str">
+            <v>Restricted Cash Repairs Replacement And Improvements Reserve</v>
+          </cell>
+          <cell r="C168" t="str">
+            <v>acfr:RestrictedCashRepairsReplacementAndImprovementsReserve</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169" t="str">
+            <v>Restricted Certificates Of Deposit</v>
+          </cell>
+          <cell r="C169" t="str">
+            <v>acfr:RestrictedCertificatesOfDeposit</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="B170" t="str">
+            <v>Restricted Receivables And Deposits</v>
+          </cell>
+          <cell r="C170" t="str">
+            <v>acfr:RestrictedReceivablesAndDeposits</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171" t="str">
+            <v>Revenue Bonds Payable Due Within One Year</v>
+          </cell>
+          <cell r="C171" t="str">
+            <v>acfr:RevenueBondsPayableDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="B172" t="str">
+            <v>Sales Tax Receivable</v>
+          </cell>
+          <cell r="C172" t="str">
+            <v>acfr:SalesTaxReceivable</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="B173" t="str">
+            <v>Securities Lending Collateral Assets</v>
+          </cell>
+          <cell r="C173" t="str">
+            <v>acfr:SecuritiesLendingCollateralAssets</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="B174" t="str">
+            <v>Securities Lending Obligations Liability</v>
+          </cell>
+          <cell r="C174" t="str">
+            <v>acfr:SecuritiesLendingObligationsLiability</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="B175" t="str">
+            <v>Self Insurance Liabilities Current Portion</v>
+          </cell>
+          <cell r="C175" t="str">
+            <v>acfr:SelfInsuranceLiabilitiesCurrentPortion</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="B176" t="str">
+            <v>Service Fees Receivable</v>
+          </cell>
+          <cell r="C176" t="str">
+            <v>acfr:ServiceFeesReceivable</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="B177" t="str">
+            <v>Special Assessment Taxes Receivable</v>
+          </cell>
+          <cell r="C177" t="str">
+            <v>acfr:SpecialAssessmentTaxesReceivable</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178" t="str">
+            <v>Special Assessment Taxes Receivable Unavailable</v>
+          </cell>
+          <cell r="C178" t="str">
+            <v>acfr:SpecialAssessmentTaxesReceivableUnavailable</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="B179" t="str">
+            <v>Special Assessments Receivable Delinquent</v>
+          </cell>
+          <cell r="C179" t="str">
+            <v>acfr:SpecialAssessmentsReceivableDelinquent</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="B180" t="str">
+            <v>Taxes Receivable</v>
+          </cell>
+          <cell r="C180" t="str">
+            <v>acfr:TaxesReceivable</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="B181" t="str">
+            <v>Taxes Receivable Delinquent Personal Property</v>
+          </cell>
+          <cell r="C181" t="str">
+            <v>acfr:TaxesReceivableDelinquentPersonalProperty</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182" t="str">
+            <v>Taxes Receivable Delinquent Real Property</v>
+          </cell>
+          <cell r="C182" t="str">
+            <v>acfr:TaxesReceivableDelinquentRealProperty</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="B183" t="str">
+            <v>Taxes Receivable Personal Property Current Levy</v>
+          </cell>
+          <cell r="C183" t="str">
+            <v>acfr:TaxesReceivablePersonalPropertyCurrentLevy</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="B184" t="str">
+            <v>Taxes Receivable Real Property Current Levy</v>
+          </cell>
+          <cell r="C184" t="str">
+            <v>acfr:TaxesReceivableRealPropertyCurrentLevy</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="B185" t="str">
+            <v>Tenant Accounts Receivable</v>
+          </cell>
+          <cell r="C185" t="str">
+            <v>acfr:TenantAccountsReceivable</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="B186" t="str">
+            <v>Tenant Accounts Receivable Allowance</v>
+          </cell>
+          <cell r="C186" t="str">
+            <v>acfr:TenantAccountsReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="B187" t="str">
+            <v>Tenant Accounts Receivable Net Of Allowances</v>
+          </cell>
+          <cell r="C187" t="str">
+            <v>acfr:TenantAccountsReceivableNetOfAllowances</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="B188" t="str">
+            <v>Timber Rights</v>
+          </cell>
+          <cell r="C188" t="str">
+            <v>acfr:TimberRights</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="B189" t="str">
+            <v>Trade Receivable</v>
+          </cell>
+          <cell r="C189" t="str">
+            <v>acfr:TradeReceivable</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="B190" t="str">
+            <v>Trade Receivable Allowance</v>
+          </cell>
+          <cell r="C190" t="str">
+            <v>acfr:TradeReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="B191" t="str">
+            <v>Trade Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C191" t="str">
+            <v>acfr:TradeReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="B192" t="str">
+            <v>Trademarks</v>
+          </cell>
+          <cell r="C192" t="str">
+            <v>acfr:Trademarks</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="B193" t="str">
+            <v>Tuition And Fees Allowances</v>
+          </cell>
+          <cell r="C193" t="str">
+            <v>acfr:TuitionAndFeesAllowances</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="B194" t="str">
+            <v>Tuition And Fees Receivable</v>
+          </cell>
+          <cell r="C194" t="str">
+            <v>acfr:TuitionAndFeesReceivable</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="B195" t="str">
+            <v>Tuition And Fees Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C195" t="str">
+            <v>acfr:TuitionAndFeesReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="B196" t="str">
+            <v>Unamortized Premium On Bonds Principal Due Within One Year</v>
+          </cell>
+          <cell r="C196" t="str">
+            <v>acfr:UnamortizedPremiumOnBondsPrincipalDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="B197" t="str">
+            <v>Unbilled Revenue</v>
+          </cell>
+          <cell r="C197" t="str">
+            <v>acfr:UnbilledRevenue</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="B198" t="str">
+            <v>Uninsured Claim Liability Current Portion</v>
+          </cell>
+          <cell r="C198" t="str">
+            <v>acfr:UninsuredClaimLiabilityCurrentPortion</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="B199" t="str">
+            <v>Unlimited Tax Bonds Principal Due Within One Year</v>
+          </cell>
+          <cell r="C199" t="str">
+            <v>acfr:UnlimitedTaxBondsPrincipalDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="B200" t="str">
+            <v>Utilities And Water Receivable</v>
+          </cell>
+          <cell r="C200" t="str">
+            <v>acfr:UtilitiesAndWaterReceivable</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="B201" t="str">
+            <v>Utilities And Water Receivable Allowance</v>
+          </cell>
+          <cell r="C201" t="str">
+            <v>acfr:UtilitiesAndWaterReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="B202" t="str">
+            <v>Utilities And Water Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C202" t="str">
+            <v>acfr:UtilitiesAndWaterReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="B203" t="str">
+            <v>Vested Employee Benefits Payable Due Within One Year</v>
+          </cell>
+          <cell r="C203" t="str">
+            <v>acfr:VestedEmployeeBenefitsPayableDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="B204" t="str">
+            <v>Water Rights</v>
+          </cell>
+          <cell r="C204" t="str">
+            <v>acfr:WaterRights</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="B205" t="str">
+            <v>Accounts Payable</v>
+          </cell>
+          <cell r="C205" t="str">
+            <v>acfr:AccountsPayable</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="B206" t="str">
+            <v>Accounts Payable And Accrued Liabilities</v>
+          </cell>
+          <cell r="C206" t="str">
+            <v>acfr:AccountsPayableAndAccruedLiabilities</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="B207" t="str">
+            <v>Accounts Payable Noncurrent Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C207" t="str">
+            <v>acfr:AccountsPayableNoncurrentPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="B208" t="str">
+            <v>Accounts Payable Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C208" t="str">
+            <v>acfr:AccountsPayablePayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="B209" t="str">
+            <v>Accrued Connection Fees</v>
+          </cell>
+          <cell r="C209" t="str">
+            <v>acfr:AccruedConnectionFees</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="B210" t="str">
+            <v>Accrued Expenses Payable</v>
+          </cell>
+          <cell r="C210" t="str">
+            <v>acfr:AccruedExpensesPayable</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="B211" t="str">
+            <v>Accrued Interest And Penalties</v>
+          </cell>
+          <cell r="C211" t="str">
+            <v>acfr:AccruedInterestAndPenalties</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="B212" t="str">
+            <v>Accrued Interest Payable</v>
+          </cell>
+          <cell r="C212" t="str">
+            <v>acfr:AccruedInterestPayable</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="B213" t="str">
+            <v>Accrued Interest Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C213" t="str">
+            <v>acfr:AccruedInterestPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="B214" t="str">
+            <v>Accrued Liabilities</v>
+          </cell>
+          <cell r="C214" t="str">
+            <v>acfr:AccruedLiabilities</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="B215" t="str">
+            <v>Accrued Sick Leave Payable</v>
+          </cell>
+          <cell r="C215" t="str">
+            <v>acfr:AccruedSickLeavePayable</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="B216" t="str">
+            <v>Accrued Tuition And Fees</v>
+          </cell>
+          <cell r="C216" t="str">
+            <v>acfr:AccruedTuitionAndFees</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="B217" t="str">
+            <v>Accrued Vacation Payable</v>
+          </cell>
+          <cell r="C217" t="str">
+            <v>acfr:AccruedVacationPayable</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="B218" t="str">
+            <v>Accrued Wages And Related Liabilities Payable</v>
+          </cell>
+          <cell r="C218" t="str">
+            <v>acfr:AccruedWagesAndRelatedLiabilitiesPayable</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="B219" t="str">
+            <v>Accrued Wages Payable</v>
+          </cell>
+          <cell r="C219" t="str">
+            <v>acfr:AccruedWagesPayable</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="B220" t="str">
+            <v>Advances Current</v>
+          </cell>
+          <cell r="C220" t="str">
+            <v>acfr:AdvancesCurrent</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="B221" t="str">
+            <v>Advances From Federal Government Noncurrent</v>
+          </cell>
+          <cell r="C221" t="str">
+            <v>acfr:AdvancesFromFederalGovernmentNoncurrent</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="B222" t="str">
+            <v>Advances From Grantors</v>
+          </cell>
+          <cell r="C222" t="str">
+            <v>acfr:AdvancesFromGrantors</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="B223" t="str">
+            <v>Advances From Other Funds</v>
+          </cell>
+          <cell r="C223" t="str">
+            <v>acfr:AdvancesFromOtherFunds</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="B224" t="str">
+            <v>Advances From Other Funds Noncurrent</v>
+          </cell>
+          <cell r="C224" t="str">
+            <v>acfr:AdvancesFromOtherFundsNoncurrent</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="B225" t="str">
+            <v>Advances From Other Funds Noncurrent Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C225" t="str">
+            <v>acfr:AdvancesFromOtherFundsNoncurrentPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="B226" t="str">
+            <v>Advances From Other Funds Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C226" t="str">
+            <v>acfr:AdvancesFromOtherFundsPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="B227" t="str">
+            <v>Advances From Other Governments</v>
+          </cell>
+          <cell r="C227" t="str">
+            <v>acfr:AdvancesFromOtherGovernments</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="B228" t="str">
+            <v>Advances From Other Governments Noncurrent</v>
+          </cell>
+          <cell r="C228" t="str">
+            <v>acfr:AdvancesFromOtherGovernmentsNoncurrent</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="B229" t="str">
+            <v>Advances From Primary Government Noncurrent</v>
+          </cell>
+          <cell r="C229" t="str">
+            <v>acfr:AdvancesFromPrimaryGovernmentNoncurrent</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="B230" t="str">
+            <v>Advances From State Noncurrent</v>
+          </cell>
+          <cell r="C230" t="str">
+            <v>acfr:AdvancesFromStateNoncurrent</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="B231" t="str">
+            <v>Advances Received Noncurrent</v>
+          </cell>
+          <cell r="C231" t="str">
+            <v>acfr:AdvancesReceivedNoncurrent</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="B232" t="str">
+            <v>Advances Special Assessment Districts</v>
+          </cell>
+          <cell r="C232" t="str">
+            <v>acfr:AdvancesSpecialAssessmentDistricts</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="B233" t="str">
+            <v>Annuities Payable</v>
+          </cell>
+          <cell r="C233" t="str">
+            <v>acfr:AnnuitiesPayable</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="B234" t="str">
+            <v>Bond Interest Payable</v>
+          </cell>
+          <cell r="C234" t="str">
+            <v>acfr:BondInterestPayable</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="B235" t="str">
+            <v>Bonds Payable Due In More Than One Year Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C235" t="str">
+            <v>acfr:BondsPayableDueInMoreThanOneYearPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="B236" t="str">
+            <v>Bonds Payable Due Within One Year Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C236" t="str">
+            <v>acfr:BondsPayableDueWithinOneYearPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="B237" t="str">
+            <v>Cash Bonds Payable</v>
+          </cell>
+          <cell r="C237" t="str">
+            <v>acfr:CashBondsPayable</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="B238" t="str">
+            <v>Cash Overdrafts</v>
+          </cell>
+          <cell r="C238" t="str">
+            <v>acfr:CashOverdrafts</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="B239" t="str">
+            <v>Checks Written Against Future Deposits</v>
+          </cell>
+          <cell r="C239" t="str">
+            <v>acfr:ChecksWrittenAgainstFutureDeposits</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="B240" t="str">
+            <v>Compensated Absences Payable Current</v>
+          </cell>
+          <cell r="C240" t="str">
+            <v>acfr:CompensatedAbsencesPayableCurrent</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="B241" t="str">
+            <v>Contracts Payable Due Within One Year Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C241" t="str">
+            <v>acfr:ContractsPayableDueWithinOneYearPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="B242" t="str">
+            <v>Court Orders Payable</v>
+          </cell>
+          <cell r="C242" t="str">
+            <v>acfr:CourtOrdersPayable</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="B243" t="str">
+            <v>Current Liabilities</v>
+          </cell>
+          <cell r="C243" t="str">
+            <v>acfr:CurrentLiabilities</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="B244" t="str">
+            <v>Current Liabilities Custom</v>
+          </cell>
+          <cell r="C244" t="str">
+            <v>acfr:CurrentLiabilitiesCustom</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="B245" t="str">
+            <v>Current Liabilities Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C245" t="str">
+            <v>acfr:CurrentLiabilitiesPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="B246" t="str">
+            <v>Customer Deposits</v>
+          </cell>
+          <cell r="C246" t="str">
+            <v>acfr:CustomerDeposits</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="B247" t="str">
+            <v>Customer Deposits Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C247" t="str">
+            <v>acfr:CustomerDepositsPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="B248" t="str">
+            <v>Deposits Heldfor Others</v>
+          </cell>
+          <cell r="C248" t="str">
+            <v>acfr:DepositsHeldforOthers</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="B249" t="str">
+            <v>Drain Orders Payable</v>
+          </cell>
+          <cell r="C249" t="str">
+            <v>acfr:DrainOrdersPayable</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="B250" t="str">
+            <v>Due To Cities</v>
+          </cell>
+          <cell r="C250" t="str">
+            <v>acfr:DueToCities</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="B251" t="str">
+            <v>Due To Community College</v>
+          </cell>
+          <cell r="C251" t="str">
+            <v>acfr:DueToCommunityCollege</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="B252" t="str">
+            <v>Due To Component Unit</v>
+          </cell>
+          <cell r="C252" t="str">
+            <v>acfr:DueToComponentUnit</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="B253" t="str">
+            <v>Due To Counties</v>
+          </cell>
+          <cell r="C253" t="str">
+            <v>acfr:DueToCounties</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="B254" t="str">
+            <v>Due To Court Wards</v>
+          </cell>
+          <cell r="C254" t="str">
+            <v>acfr:DueToCourtWards</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="B255" t="str">
+            <v>Due To Education</v>
+          </cell>
+          <cell r="C255" t="str">
+            <v>acfr:DueToEducation</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="B256" t="str">
+            <v>Due To Employees</v>
+          </cell>
+          <cell r="C256" t="str">
+            <v>acfr:DueToEmployees</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="B257" t="str">
+            <v>Due To Federal Government</v>
+          </cell>
+          <cell r="C257" t="str">
+            <v>acfr:DueToFederalGovernment</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="B258" t="str">
+            <v>Due To Fiduciary Funds</v>
+          </cell>
+          <cell r="C258" t="str">
+            <v>acfr:DueToFiduciaryFunds</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="B259" t="str">
+            <v>Due To Fiscal Agent</v>
+          </cell>
+          <cell r="C259" t="str">
+            <v>acfr:DueToFiscalAgent</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="B260" t="str">
+            <v>Due To Former Employees</v>
+          </cell>
+          <cell r="C260" t="str">
+            <v>acfr:DueToFormerEmployees</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="B261" t="str">
+            <v>Due To General Fund</v>
+          </cell>
+          <cell r="C261" t="str">
+            <v>acfr:DueToGeneralFund</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="B262" t="str">
+            <v>Due To Intermediate School Districts</v>
+          </cell>
+          <cell r="C262" t="str">
+            <v>acfr:DueToIntermediateSchoolDistricts</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="B263" t="str">
+            <v>Due To Libraries</v>
+          </cell>
+          <cell r="C263" t="str">
+            <v>acfr:DueToLibraries</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="B264" t="str">
+            <v>Due To Other Agencies Payable From Resticted Assets</v>
+          </cell>
+          <cell r="C264" t="str">
+            <v>acfr:DueToOtherAgenciesPayableFromRestictedAssets</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="B265" t="str">
+            <v>Due To Other Funds</v>
+          </cell>
+          <cell r="C265" t="str">
+            <v>acfr:DueToOtherFunds</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="B266" t="str">
+            <v>Due To Other Governments</v>
+          </cell>
+          <cell r="C266" t="str">
+            <v>acfr:DueToOtherGovernments</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="B267" t="str">
+            <v>Due To Others</v>
+          </cell>
+          <cell r="C267" t="str">
+            <v>acfr:DueToOthers</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="B268" t="str">
+            <v>Due To Primary Government</v>
+          </cell>
+          <cell r="C268" t="str">
+            <v>acfr:DueToPrimaryGovernment</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="B269" t="str">
+            <v>Due To Proprietary Funds</v>
+          </cell>
+          <cell r="C269" t="str">
+            <v>acfr:DueToProprietaryFunds</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="B270" t="str">
+            <v>Due To Related Parties</v>
+          </cell>
+          <cell r="C270" t="str">
+            <v>acfr:DueToRelatedParties</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="B271" t="str">
+            <v>Due To Road Commissions</v>
+          </cell>
+          <cell r="C271" t="str">
+            <v>acfr:DueToRoadCommissions</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="B272" t="str">
+            <v>Due To Schools</v>
+          </cell>
+          <cell r="C272" t="str">
+            <v>acfr:DueToSchools</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="B273" t="str">
+            <v>Due To Special Education</v>
+          </cell>
+          <cell r="C273" t="str">
+            <v>acfr:DueToSpecialEducation</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="B274" t="str">
+            <v>Due To State Government</v>
+          </cell>
+          <cell r="C274" t="str">
+            <v>acfr:DueToStateGovernment</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="B275" t="str">
+            <v>Due To Taxpayers Tax Overpayments And Duplicate Payments</v>
+          </cell>
+          <cell r="C275" t="str">
+            <v>acfr:DueToTaxpayersTaxOverpaymentsAndDuplicatePayments</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="B276" t="str">
+            <v>Due To Townships</v>
+          </cell>
+          <cell r="C276" t="str">
+            <v>acfr:DueToTownships</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="B277" t="str">
+            <v>Due To Villages</v>
+          </cell>
+          <cell r="C277" t="str">
+            <v>acfr:DueToVillages</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="B278" t="str">
+            <v>Dup _ 1 _ Due To Governments</v>
+          </cell>
+          <cell r="C278" t="str">
+            <v>acfr:Dup_1_DueToGovernments</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="B279" t="str">
+            <v>Escrow Deposits</v>
+          </cell>
+          <cell r="C279" t="str">
+            <v>acfr:EscrowDeposits</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="B280" t="str">
+            <v>Family Self Suffciency Escrows</v>
+          </cell>
+          <cell r="C280" t="str">
+            <v>acfr:FamilySelfSuffciencyEscrows</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="B281" t="str">
+            <v>Garnishments Payable</v>
+          </cell>
+          <cell r="C281" t="str">
+            <v>acfr:GarnishmentsPayable</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="B282" t="str">
+            <v>Grants Payable</v>
+          </cell>
+          <cell r="C282" t="str">
+            <v>acfr:GrantsPayable</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="B283" t="str">
+            <v>Internal Balances Payable</v>
+          </cell>
+          <cell r="C283" t="str">
+            <v>acfr:InternalBalancesPayable</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="B284" t="str">
+            <v>Long Term Debt Due In More Than One Year Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C284" t="str">
+            <v>acfr:LongTermDebtDueInMoreThanOneYearPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="B285" t="str">
+            <v>Long Term Debt Due Within One Year Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C285" t="str">
+            <v>acfr:LongTermDebtDueWithinOneYearPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="B286" t="str">
+            <v>Lottery Prize Liability Current</v>
+          </cell>
+          <cell r="C286" t="str">
+            <v>acfr:LotteryPrizeLiabilityCurrent</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="B287" t="str">
+            <v>Lottery Prizes Payable</v>
+          </cell>
+          <cell r="C287" t="str">
+            <v>acfr:LotteryPrizesPayable</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="B288" t="str">
+            <v>Net Pension Liability Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C288" t="str">
+            <v>acfr:NetPensionLiabilityPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="B289" t="str">
+            <v>Noncurrent Liabilities Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C289" t="str">
+            <v>acfr:NoncurrentLiabilitiesPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="B290" t="str">
+            <v>Other Accounts Payable</v>
+          </cell>
+          <cell r="C290" t="str">
+            <v>acfr:OtherAccountsPayable</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="B291" t="str">
+            <v>Other Accounts Payable And Accrued Liabilities</v>
+          </cell>
+          <cell r="C291" t="str">
+            <v>acfr:OtherAccountsPayableAndAccruedLiabilities</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="B292" t="str">
+            <v>Other Accrued Expenses</v>
+          </cell>
+          <cell r="C292" t="str">
+            <v>acfr:OtherAccruedExpenses</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="B293" t="str">
+            <v>Other Advances</v>
+          </cell>
+          <cell r="C293" t="str">
+            <v>acfr:OtherAdvances</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="B294" t="str">
+            <v>Other Current Liabilities</v>
+          </cell>
+          <cell r="C294" t="str">
+            <v>acfr:OtherCurrentLiabilities</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="B295" t="str">
+            <v>Other Current Liabilities Payable From Resticted Assets</v>
+          </cell>
+          <cell r="C295" t="str">
+            <v>acfr:OtherCurrentLiabilitiesPayableFromRestictedAssets</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="B296" t="str">
+            <v>Other Noncurrent Liabilities Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C296" t="str">
+            <v>acfr:OtherNoncurrentLiabilitiesPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="B297" t="str">
+            <v>Patients Or Inmates Trust Money Payable</v>
+          </cell>
+          <cell r="C297" t="str">
+            <v>acfr:PatientsOrInmatesTrustMoneyPayable</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="B298" t="str">
+            <v>Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C298" t="str">
+            <v>acfr:PayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="B299" t="str">
+            <v>Payable From Restricted Assets Custom</v>
+          </cell>
+          <cell r="C299" t="str">
+            <v>acfr:PayableFromRestrictedAssetsCustom</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="B300" t="str">
+            <v>Payroll Deductions Payable</v>
+          </cell>
+          <cell r="C300" t="str">
+            <v>acfr:PayrollDeductionsPayable</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="B301" t="str">
+            <v>Payroll Taxes Payable</v>
+          </cell>
+          <cell r="C301" t="str">
+            <v>acfr:PayrollTaxesPayable</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="B302" t="str">
+            <v>Penalties Payable</v>
+          </cell>
+          <cell r="C302" t="str">
+            <v>acfr:PenaltiesPayable</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="B303" t="str">
+            <v>Performance Deposits Payable</v>
+          </cell>
+          <cell r="C303" t="str">
+            <v>acfr:PerformanceDepositsPayable</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="B304" t="str">
+            <v>Receipts Refundable</v>
+          </cell>
+          <cell r="C304" t="str">
+            <v>acfr:ReceiptsRefundable</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="B305" t="str">
+            <v>Refundable Deposits Bonds</v>
+          </cell>
+          <cell r="C305" t="str">
+            <v>acfr:RefundableDepositsBonds</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="B306" t="str">
+            <v>Regulatory Liability Current</v>
+          </cell>
+          <cell r="C306" t="str">
+            <v>acfr:RegulatoryLiabilityCurrent</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="B307" t="str">
+            <v>Restitutions Payable</v>
+          </cell>
+          <cell r="C307" t="str">
+            <v>acfr:RestitutionsPayable</v>
+          </cell>
+        </row>
+        <row r="308">
+          <cell r="B308" t="str">
+            <v>Retainage Payable</v>
+          </cell>
+          <cell r="C308" t="str">
+            <v>acfr:RetainagePayable</v>
+          </cell>
+        </row>
+        <row r="309">
+          <cell r="B309" t="str">
+            <v>Revenue Bonds Payable Due Within One Year Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C309" t="str">
+            <v>acfr:RevenueBondsPayableDueWithinOneYearPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="310">
+          <cell r="B310" t="str">
+            <v>Short Term Debt Payable</v>
+          </cell>
+          <cell r="C310" t="str">
+            <v>acfr:ShortTermDebtPayable</v>
+          </cell>
+        </row>
+        <row r="311">
+          <cell r="B311" t="str">
+            <v>Taxes Payable</v>
+          </cell>
+          <cell r="C311" t="str">
+            <v>acfr:TaxesPayable</v>
+          </cell>
+        </row>
+        <row r="312">
+          <cell r="B312" t="str">
+            <v>Tenant Security Deposits Payable From Resticted Assets</v>
+          </cell>
+          <cell r="C312" t="str">
+            <v>acfr:TenantSecurityDepositsPayableFromRestictedAssets</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="B313" t="str">
+            <v>Unclaimed Money</v>
+          </cell>
+          <cell r="C313" t="str">
+            <v>acfr:UnclaimedMoney</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="B314" t="str">
+            <v>Undistributed Receipts</v>
+          </cell>
+          <cell r="C314" t="str">
+            <v>acfr:UndistributedReceipts</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="B315" t="str">
+            <v>Undistributed Tax Collections</v>
+          </cell>
+          <cell r="C315" t="str">
+            <v>acfr:UndistributedTaxCollections</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="B316" t="str">
+            <v>Unearned Revenue</v>
+          </cell>
+          <cell r="C316" t="str">
+            <v>acfr:UnearnedRevenue</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="B317" t="str">
+            <v>Unearned Revenue Payable From Resticted Assets</v>
+          </cell>
+          <cell r="C317" t="str">
+            <v>acfr:UnearnedRevenuePayableFromRestictedAssets</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="B318" t="str">
+            <v>Unearned Ticket Sales</v>
+          </cell>
+          <cell r="C318" t="str">
+            <v>acfr:UnearnedTicketSales</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="B319" t="str">
+            <v>Vouchers Payable</v>
+          </cell>
+          <cell r="C319" t="str">
+            <v>acfr:VouchersPayable</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="B320" t="str">
+            <v>Deferred Inflows From Deferred Amount On Refunding</v>
+          </cell>
+          <cell r="C320" t="str">
+            <v>acfr:DeferredInflowsFromDeferredAmountOnRefunding</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="B321" t="str">
+            <v>Deferred Inflows From OPEB Changes In Proportion</v>
+          </cell>
+          <cell r="C321" t="str">
+            <v>acfr:DeferredInflowsFromOPEBChangesInProportion</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="B322" t="str">
+            <v>Deferred Inflows From Pension Changes In Proportion</v>
+          </cell>
+          <cell r="C322" t="str">
+            <v>acfr:DeferredInflowsFromPensionChangesInProportion</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="B323" t="str">
+            <v>Deferred Inflows Of Resources</v>
+          </cell>
+          <cell r="C323" t="str">
+            <v>acfr:DeferredInflowsOfResources</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="B324" t="str">
+            <v>Deferred Inflows Of Resources Custom</v>
+          </cell>
+          <cell r="C324" t="str">
+            <v>acfr:DeferredInflowsOfResourcesCustom</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="B325" t="str">
+            <v>Deferred Inflows Of Resources Debt</v>
+          </cell>
+          <cell r="C325" t="str">
+            <v>acfr:DeferredInflowsOfResourcesDebt</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="B326" t="str">
+            <v>Deferred Inflows Of Resources Drain Orders</v>
+          </cell>
+          <cell r="C326" t="str">
+            <v>acfr:DeferredInflowsOfResourcesDrainOrders</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="B327" t="str">
+            <v>Deferred Inflows Of Resources Leases</v>
+          </cell>
+          <cell r="C327" t="str">
+            <v>acfr:DeferredInflowsOfResourcesLeases</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="B328" t="str">
+            <v>Deferred Inflows Of Resources OPEB</v>
+          </cell>
+          <cell r="C328" t="str">
+            <v>acfr:DeferredInflowsOfResourcesOPEB</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="B329" t="str">
+            <v>Deferred Inflows Of Resources OPEB Changes In Assumptions</v>
+          </cell>
+          <cell r="C329" t="str">
+            <v>acfr:DeferredInflowsOfResourcesOPEBChangesInAssumptions</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="B330" t="str">
+            <v>Deferred Inflows Of Resources OPEB Contributions Made After Measurement Date</v>
+          </cell>
+          <cell r="C330" t="str">
+            <v>acfr:DeferredInflowsOfResourcesOPEBContributionsMadeAfterMeasurementDate</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="B331" t="str">
+            <v>Deferred Inflows Of Resources Pension</v>
+          </cell>
+          <cell r="C331" t="str">
+            <v>acfr:DeferredInflowsOfResourcesPension</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="B332" t="str">
+            <v>Deferred Inflows Of Resources Pension And OPEB Items</v>
+          </cell>
+          <cell r="C332" t="str">
+            <v>acfr:DeferredInflowsOfResourcesPensionAndOPEBItems</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="B333" t="str">
+            <v>Deferred Inflows Of Resources Pension Changes In Assumptions</v>
+          </cell>
+          <cell r="C333" t="str">
+            <v>acfr:DeferredInflowsOfResourcesPensionChangesInAssumptions</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="B334" t="str">
+            <v>Deferred Inflows Of Resources Pension Contributions Made After Measurement Date</v>
+          </cell>
+          <cell r="C334" t="str">
+            <v>acfr:DeferredInflowsOfResourcesPensionContributionsMadeAfterMeasurementDate</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="B335" t="str">
+            <v>Deferred Inflows Of Resources Property Taxes</v>
+          </cell>
+          <cell r="C335" t="str">
+            <v>acfr:DeferredInflowsOfResourcesPropertyTaxes</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="B336" t="str">
+            <v>Deferred Inflows Of Resources Sales Of Future Revenues</v>
+          </cell>
+          <cell r="C336" t="str">
+            <v>acfr:DeferredInflowsOfResourcesSalesOfFutureRevenues</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="B337" t="str">
+            <v>Deferred Inflows Of Resources Taxes Levied For A Subsequent Period</v>
+          </cell>
+          <cell r="C337" t="str">
+            <v>acfr:DeferredInflowsOfResourcesTaxesLeviedForASubsequentPeriod</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="B338" t="str">
+            <v>Deferred Inflowsof Resources OPEB Difference Expected And Actual</v>
+          </cell>
+          <cell r="C338" t="str">
+            <v>acfr:DeferredInflowsofResourcesOPEBDifferenceExpectedAndActual</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="B339" t="str">
+            <v>Deferred Inflowsof Resources OPEB Net Dif Projected And Actual Earnings Pension Plan Investments</v>
+          </cell>
+          <cell r="C339" t="str">
+            <v>acfr:DeferredInflowsofResourcesOPEBNetDifProjectedAndActualEarningsPensionPlanInvestments</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="B340" t="str">
+            <v>Deferred Inflowsof Resources Pension Difference Expected And Actual</v>
+          </cell>
+          <cell r="C340" t="str">
+            <v>acfr:DeferredInflowsofResourcesPensionDifferenceExpectedAndActual</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="B341" t="str">
+            <v>Deferred Inflowsof Resources Pension Net Dif Projected And Actual Earnings Pension Plan Investments</v>
+          </cell>
+          <cell r="C341" t="str">
+            <v>acfr:DeferredInflowsofResourcesPensionNetDifProjectedAndActualEarningsPensionPlanInvestments</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="B342" t="str">
+            <v>Other Deferred Inflows Of Resources</v>
+          </cell>
+          <cell r="C342" t="str">
+            <v>acfr:OtherDeferredInflowsOfResources</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="B343" t="str">
+            <v>Deferred Outflows From OPEB Changes In Proportion</v>
+          </cell>
+          <cell r="C343" t="str">
+            <v>acfr:DeferredOutflowsFromOPEBChangesInProportion</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="B344" t="str">
+            <v>Deferred Outflows From Pension Changes In Proportion</v>
+          </cell>
+          <cell r="C344" t="str">
+            <v>acfr:DeferredOutflowsFromPensionChangesInProportion</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="B345" t="str">
+            <v>Deferred Outflows Of Resources</v>
+          </cell>
+          <cell r="C345" t="str">
+            <v>acfr:DeferredOutflowsOfResources</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="B346" t="str">
+            <v>Deferred Outflows Of Resources Custom</v>
+          </cell>
+          <cell r="C346" t="str">
+            <v>acfr:DeferredOutflowsOfResourcesCustom</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="B347" t="str">
+            <v>Deferred Outflows Of Resources Debt</v>
+          </cell>
+          <cell r="C347" t="str">
+            <v>acfr:DeferredOutflowsOfResourcesDebt</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="B348" t="str">
+            <v>Deferred Outflows Of Resources OPEB</v>
+          </cell>
+          <cell r="C348" t="str">
+            <v>acfr:DeferredOutflowsOfResourcesOPEB</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="B349" t="str">
+            <v>Deferred Outflows Of Resources OPEB Changes In Assumptions</v>
+          </cell>
+          <cell r="C349" t="str">
+            <v>acfr:DeferredOutflowsOfResourcesOPEBChangesInAssumptions</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="B350" t="str">
+            <v>Deferred Outflows Of Resources OPEB Contributions Made After Measurement Date</v>
+          </cell>
+          <cell r="C350" t="str">
+            <v>acfr:DeferredOutflowsOfResourcesOPEBContributionsMadeAfterMeasurementDate</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="B351" t="str">
+            <v>Deferred Outflows Of Resources OPEB Net Dif Projected And Actual Earnings Pension Plan Investments</v>
+          </cell>
+          <cell r="C351" t="str">
+            <v>acfr:DeferredOutflowsOfResourcesOPEBNetDifProjectedAndActualEarningsPensionPlanInvestments</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="B352" t="str">
+            <v>Deferred Outflows Of Resources Other</v>
+          </cell>
+          <cell r="C352" t="str">
+            <v>acfr:DeferredOutflowsOfResourcesOther</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="B353" t="str">
+            <v>Deferred Outflows Of Resources Pension</v>
+          </cell>
+          <cell r="C353" t="str">
+            <v>acfr:DeferredOutflowsOfResourcesPension</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="B354" t="str">
+            <v>Deferred Outflows Of Resources Pension Changes In Assumptions</v>
+          </cell>
+          <cell r="C354" t="str">
+            <v>acfr:DeferredOutflowsOfResourcesPensionChangesInAssumptions</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="B355" t="str">
+            <v>Deferred Outflows Of Resources Pension Contributions Made After Measurement Date</v>
+          </cell>
+          <cell r="C355" t="str">
+            <v>acfr:DeferredOutflowsOfResourcesPensionContributionsMadeAfterMeasurementDate</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="B356" t="str">
+            <v>Deferred Outflows Of Resources Pension Net Dif Projected And Actual Earnings Pension Plan Investments</v>
+          </cell>
+          <cell r="C356" t="str">
+            <v>acfr:DeferredOutflowsOfResourcesPensionNetDifProjectedAndActualEarningsPensionPlanInvestments</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="B357" t="str">
+            <v>Deferred Outflowsof Resources OPEB Difference Expected And Actual</v>
+          </cell>
+          <cell r="C357" t="str">
+            <v>acfr:DeferredOutflowsofResourcesOPEBDifferenceExpectedAndActual</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="B358" t="str">
+            <v>Deferred Outflowsof Resources Pension Difference Expected And Actual</v>
+          </cell>
+          <cell r="C358" t="str">
+            <v>acfr:DeferredOutflowsofResourcesPensionDifferenceExpectedAndActual</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="B359" t="str">
+            <v>Other Deferred Outflows Of Resources</v>
+          </cell>
+          <cell r="C359" t="str">
+            <v>acfr:OtherDeferredOutflowsOfResources</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="B360" t="str">
+            <v>Net Investment In Capital Assets</v>
+          </cell>
+          <cell r="C360" t="str">
+            <v>acfr:NetInvestmentInCapitalAssets</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="B361" t="str">
+            <v>Net Position</v>
+          </cell>
+          <cell r="C361" t="str">
+            <v>acfr:NetPosition</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="B362" t="str">
+            <v>Other Restricted Components Of Net Position</v>
+          </cell>
+          <cell r="C362" t="str">
+            <v>acfr:OtherRestrictedComponentsOfNetPosition</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="B363" t="str">
+            <v>Restricted Components Of Net Position Custom</v>
+          </cell>
+          <cell r="C363" t="str">
+            <v>acfr:RestrictedComponentsOfNetPositionCustom</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="B364" t="str">
+            <v>Restricted Net Position</v>
+          </cell>
+          <cell r="C364" t="str">
+            <v>acfr:RestrictedNetPosition</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="B365" t="str">
+            <v>Restricted Net Position For Capital Projects</v>
+          </cell>
+          <cell r="C365" t="str">
+            <v>acfr:RestrictedNetPositionForCapitalProjects</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="B366" t="str">
+            <v>Restricted Net Position For Community Development</v>
+          </cell>
+          <cell r="C366" t="str">
+            <v>acfr:RestrictedNetPositionForCommunityDevelopment</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="B367" t="str">
+            <v>Restricted Net Position For Debt Service</v>
+          </cell>
+          <cell r="C367" t="str">
+            <v>acfr:RestrictedNetPositionForDebtService</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368" t="str">
+            <v>Restricted Net Position For Donor Restricted</v>
+          </cell>
+          <cell r="C368" t="str">
+            <v>acfr:RestrictedNetPositionForDonorRestricted</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369" t="str">
+            <v>Restricted Net Position For General Government</v>
+          </cell>
+          <cell r="C369" t="str">
+            <v>acfr:RestrictedNetPositionForGeneralGovernment</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370" t="str">
+            <v>Restricted Net Position For Grants</v>
+          </cell>
+          <cell r="C370" t="str">
+            <v>acfr:RestrictedNetPositionForGrants</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="B371" t="str">
+            <v>Restricted Net Position For Health And Sanitation</v>
+          </cell>
+          <cell r="C371" t="str">
+            <v>acfr:RestrictedNetPositionForHealthAndSanitation</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="B372" t="str">
+            <v>Restricted Net Position For Housing Services</v>
+          </cell>
+          <cell r="C372" t="str">
+            <v>acfr:RestrictedNetPositionForHousingServices</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373" t="str">
+            <v>Restricted Net Position For Law Enforcement</v>
+          </cell>
+          <cell r="C373" t="str">
+            <v>acfr:RestrictedNetPositionForLawEnforcement</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374" t="str">
+            <v>Restricted Net Position For Other</v>
+          </cell>
+          <cell r="C374" t="str">
+            <v>acfr:RestrictedNetPositionForOther</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375" t="str">
+            <v>Restricted Net Position For Parks And Recreation</v>
+          </cell>
+          <cell r="C375" t="str">
+            <v>acfr:RestrictedNetPositionForParksAndRecreation</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376" t="str">
+            <v>Restricted Net Position For Prizes</v>
+          </cell>
+          <cell r="C376" t="str">
+            <v>acfr:RestrictedNetPositionForPrizes</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="B377" t="str">
+            <v>Restricted Net Position For Public Safety</v>
+          </cell>
+          <cell r="C377" t="str">
+            <v>acfr:RestrictedNetPositionForPublicSafety</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="B378" t="str">
+            <v>Restricted Net Position For Public Ways And Facilities</v>
+          </cell>
+          <cell r="C378" t="str">
+            <v>acfr:RestrictedNetPositionForPublicWaysAndFacilities</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="B379" t="str">
+            <v>Restricted Net Position For Public Works</v>
+          </cell>
+          <cell r="C379" t="str">
+            <v>acfr:RestrictedNetPositionForPublicWorks</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="B380" t="str">
+            <v>Restricted Net Position For Recreation And Culture</v>
+          </cell>
+          <cell r="C380" t="str">
+            <v>acfr:RestrictedNetPositionForRecreationAndCulture</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="B381" t="str">
+            <v>Unrestricted Net Position</v>
+          </cell>
+          <cell r="C381" t="str">
+            <v>acfr:UnrestrictedNetPosition</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="B382" t="str">
+            <v>Accounts Receivable Net Noncurrent</v>
+          </cell>
+          <cell r="C382" t="str">
+            <v>acfr:AccountsReceivableNetNoncurrent</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="B383" t="str">
+            <v>Accounts Receivable Noncurrent</v>
+          </cell>
+          <cell r="C383" t="str">
+            <v>acfr:AccountsReceivableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="B384" t="str">
+            <v>Accounts Receivable Noncurrent Allowance</v>
+          </cell>
+          <cell r="C384" t="str">
+            <v>acfr:AccountsReceivableNoncurrentAllowance</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="B385" t="str">
+            <v>Accrued Interest On Delinquent Taxes</v>
+          </cell>
+          <cell r="C385" t="str">
+            <v>acfr:AccruedInterestOnDelinquentTaxes</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="B386" t="str">
+            <v>Accumulated Amortization</v>
+          </cell>
+          <cell r="C386" t="str">
+            <v>acfr:AccumulatedAmortization</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="B387" t="str">
+            <v>Accumulated Depreciation</v>
+          </cell>
+          <cell r="C387" t="str">
+            <v>acfr:AccumulatedDepreciation</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="B388" t="str">
+            <v>Accumulated Depreciation Books And Related Materials</v>
+          </cell>
+          <cell r="C388" t="str">
+            <v>acfr:AccumulatedDepreciationBooksAndRelatedMaterials</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="B389" t="str">
+            <v>Accumulated Depreciation Buildings Building Additions And Improvements</v>
+          </cell>
+          <cell r="C389" t="str">
+            <v>acfr:AccumulatedDepreciationBuildingsBuildingAdditionsAndImprovements</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="B390" t="str">
+            <v>Accumulated Depreciation Depletable Assets ISTHISTHERIGHTPLACE</v>
+          </cell>
+          <cell r="C390" t="str">
+            <v>acfr:AccumulatedDepreciationDepletableAssetsISTHISTHERIGHTPLACE</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="B391" t="str">
+            <v>Accumulated Depreciation Engineering Equipment</v>
+          </cell>
+          <cell r="C391" t="str">
+            <v>acfr:AccumulatedDepreciationEngineeringEquipment</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="B392" t="str">
+            <v>Accumulated Depreciation Land Improvements</v>
+          </cell>
+          <cell r="C392" t="str">
+            <v>acfr:AccumulatedDepreciationLandImprovements</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="B393" t="str">
+            <v>Accumulated Depreciation Office Equipment And Furniture</v>
+          </cell>
+          <cell r="C393" t="str">
+            <v>acfr:AccumulatedDepreciationOfficeEquipmentAndFurniture</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="B394" t="str">
+            <v>Accumulated Depreciation Road Equipment</v>
+          </cell>
+          <cell r="C394" t="str">
+            <v>acfr:AccumulatedDepreciationRoadEquipment</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="B395" t="str">
+            <v>Accumulated Depreciation Sewer System</v>
+          </cell>
+          <cell r="C395" t="str">
+            <v>acfr:AccumulatedDepreciationSewerSystem</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="B396" t="str">
+            <v>Accumulated Depreciation Shop Equipment</v>
+          </cell>
+          <cell r="C396" t="str">
+            <v>acfr:AccumulatedDepreciationShopEquipment</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="B397" t="str">
+            <v>Accumulated Depreciation Vehicles</v>
+          </cell>
+          <cell r="C397" t="str">
+            <v>acfr:AccumulatedDepreciationVehicles</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="B398" t="str">
+            <v>Accumulated Depreciation Water System</v>
+          </cell>
+          <cell r="C398" t="str">
+            <v>acfr:AccumulatedDepreciationWaterSystem</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="B399" t="str">
+            <v>Accumulated Depreciation Yard And Storage Equipment</v>
+          </cell>
+          <cell r="C399" t="str">
+            <v>acfr:AccumulatedDepreciationYardAndStorageEquipment</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="B400" t="str">
+            <v>Accumulated Depreciationand Amortization</v>
+          </cell>
+          <cell r="C400" t="str">
+            <v>acfr:AccumulatedDepreciationandAmortization</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="B401" t="str">
+            <v>Allowance For Grants And Contracts Receivable Noncurrent</v>
+          </cell>
+          <cell r="C401" t="str">
+            <v>acfr:AllowanceForGrantsAndContractsReceivableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="B402" t="str">
+            <v>Allowance For Leases Receivable Noncurrent</v>
+          </cell>
+          <cell r="C402" t="str">
+            <v>acfr:AllowanceForLeasesReceivableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="B403" t="str">
+            <v>Allowance For Notes And Loans Receivable Noncurrent</v>
+          </cell>
+          <cell r="C403" t="str">
+            <v>acfr:AllowanceForNotesAndLoansReceivableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="B404" t="str">
+            <v>Assets Held By Other Governments</v>
+          </cell>
+          <cell r="C404" t="str">
+            <v>acfr:AssetsHeldByOtherGovernments</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="B405" t="str">
+            <v>Assets Held For Sale Noncurrent</v>
+          </cell>
+          <cell r="C405" t="str">
+            <v>acfr:AssetsHeldForSaleNoncurrent</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="B406" t="str">
+            <v>Buildings</v>
+          </cell>
+          <cell r="C406" t="str">
+            <v>acfr:Buildings</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="B407" t="str">
+            <v>Buildings And Equipment</v>
+          </cell>
+          <cell r="C407" t="str">
+            <v>acfr:BuildingsAndEquipment</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="B408" t="str">
+            <v>Buildings And Improvements</v>
+          </cell>
+          <cell r="C408" t="str">
+            <v>acfr:BuildingsAndImprovements</v>
+          </cell>
+        </row>
+        <row r="409">
+          <cell r="B409" t="str">
+            <v>Capital And Lateral Assets Receivable</v>
+          </cell>
+          <cell r="C409" t="str">
+            <v>acfr:CapitalAndLateralAssetsReceivable</v>
+          </cell>
+        </row>
+        <row r="410">
+          <cell r="B410" t="str">
+            <v>Capital Assets Being Depreciated Net</v>
+          </cell>
+          <cell r="C410" t="str">
+            <v>acfr:CapitalAssetsBeingDepreciatedNet</v>
+          </cell>
+        </row>
+        <row r="411">
+          <cell r="B411" t="str">
+            <v>Capital Assets Being Depreciated Net Of Accumulated Depreciation And Amortization Custom</v>
+          </cell>
+          <cell r="C411" t="str">
+            <v>acfr:CapitalAssetsBeingDepreciatedNetOfAccumulatedDepreciationAndAmortizationCustom</v>
+          </cell>
+        </row>
+        <row r="412">
+          <cell r="B412" t="str">
+            <v>Capital Assets Not Being Depreciated</v>
+          </cell>
+          <cell r="C412" t="str">
+            <v>acfr:CapitalAssetsNotBeingDepreciated</v>
+          </cell>
+        </row>
+        <row r="413">
+          <cell r="B413" t="str">
+            <v>Capital Assets Not Being Depreciated Custom</v>
+          </cell>
+          <cell r="C413" t="str">
+            <v>acfr:CapitalAssetsNotBeingDepreciatedCustom</v>
+          </cell>
+        </row>
+        <row r="414">
+          <cell r="B414" t="str">
+            <v>Certificates Of Deposit Noncurrent</v>
+          </cell>
+          <cell r="C414" t="str">
+            <v>acfr:CertificatesOfDepositNoncurrent</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="B415" t="str">
+            <v>Connection Fees Receivable Noncurrent</v>
+          </cell>
+          <cell r="C415" t="str">
+            <v>acfr:ConnectionFeesReceivableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="B416" t="str">
+            <v>Construction In Progress</v>
+          </cell>
+          <cell r="C416" t="str">
+            <v>acfr:ConstructionInProgress</v>
+          </cell>
+        </row>
+        <row r="417">
+          <cell r="B417" t="str">
+            <v>Delinquent Taxes Receivable Noncurrent</v>
+          </cell>
+          <cell r="C417" t="str">
+            <v>acfr:DelinquentTaxesReceivableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="B418" t="str">
+            <v>Derivative Instruments Assets Non Current</v>
+          </cell>
+          <cell r="C418" t="str">
+            <v>acfr:DerivativeInstrumentsAssetsNonCurrent</v>
+          </cell>
+        </row>
+        <row r="419">
+          <cell r="B419" t="str">
+            <v>Due From Component Unit Noncurrent</v>
+          </cell>
+          <cell r="C419" t="str">
+            <v>acfr:DueFromComponentUnitNoncurrent</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="B420" t="str">
+            <v>Due From Federal Government Noncurrent</v>
+          </cell>
+          <cell r="C420" t="str">
+            <v>acfr:DueFromFederalGovernmentNoncurrent</v>
+          </cell>
+        </row>
+        <row r="421">
+          <cell r="B421" t="str">
+            <v>Due From Other Governments Noncurrent</v>
+          </cell>
+          <cell r="C421" t="str">
+            <v>acfr:DueFromOtherGovernmentsNoncurrent</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="B422" t="str">
+            <v>Due From State Government Noncurrent</v>
+          </cell>
+          <cell r="C422" t="str">
+            <v>acfr:DueFromStateGovernmentNoncurrent</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="B423" t="str">
+            <v>Engineering Equipment</v>
+          </cell>
+          <cell r="C423" t="str">
+            <v>acfr:EngineeringEquipment</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="B424" t="str">
+            <v>Equipment</v>
+          </cell>
+          <cell r="C424" t="str">
+            <v>acfr:Equipment</v>
+          </cell>
+        </row>
+        <row r="425">
+          <cell r="B425" t="str">
+            <v>Grants And Contracts Receivable Net Of Allowance Noncurrent</v>
+          </cell>
+          <cell r="C425" t="str">
+            <v>acfr:GrantsAndContractsReceivableNetOfAllowanceNoncurrent</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="B426" t="str">
+            <v>Grants And Contracts Receivable Noncurrent</v>
+          </cell>
+          <cell r="C426" t="str">
+            <v>acfr:GrantsAndContractsReceivableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="B427" t="str">
+            <v>Improvements Other Than Buildings</v>
+          </cell>
+          <cell r="C427" t="str">
+            <v>acfr:ImprovementsOtherThanBuildings</v>
+          </cell>
+        </row>
+        <row r="428">
+          <cell r="B428" t="str">
+            <v>Infrastructure</v>
+          </cell>
+          <cell r="C428" t="str">
+            <v>acfr:Infrastructure</v>
+          </cell>
+        </row>
+        <row r="429">
+          <cell r="B429" t="str">
+            <v>Installment Receivable Noncurrent</v>
+          </cell>
+          <cell r="C429" t="str">
+            <v>acfr:InstallmentReceivableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="430">
+          <cell r="B430" t="str">
+            <v>Inventory Non Current</v>
+          </cell>
+          <cell r="C430" t="str">
+            <v>acfr:InventoryNonCurrent</v>
+          </cell>
+        </row>
+        <row r="431">
+          <cell r="B431" t="str">
+            <v>Investments Endowment</v>
+          </cell>
+          <cell r="C431" t="str">
+            <v>acfr:InvestmentsEndowment</v>
+          </cell>
+        </row>
+        <row r="432">
+          <cell r="B432" t="str">
+            <v>Investments In Associates</v>
+          </cell>
+          <cell r="C432" t="str">
+            <v>acfr:InvestmentsInAssociates</v>
+          </cell>
+        </row>
+        <row r="433">
+          <cell r="B433" t="str">
+            <v>Investments In Joint Ventures</v>
+          </cell>
+          <cell r="C433" t="str">
+            <v>acfr:InvestmentsInJointVentures</v>
+          </cell>
+        </row>
+        <row r="434">
+          <cell r="B434" t="str">
+            <v>Investments In Subsidiaries</v>
+          </cell>
+          <cell r="C434" t="str">
+            <v>acfr:InvestmentsInSubsidiaries</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="B435" t="str">
+            <v>Investments Of Surplus Funds</v>
+          </cell>
+          <cell r="C435" t="str">
+            <v>acfr:InvestmentsOfSurplusFunds</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="B436" t="str">
+            <v>Land</v>
+          </cell>
+          <cell r="C436" t="str">
+            <v>acfr:Land</v>
+          </cell>
+        </row>
+        <row r="437">
+          <cell r="B437" t="str">
+            <v>Land And Construction In Progress</v>
+          </cell>
+          <cell r="C437" t="str">
+            <v>acfr:LandAndConstructionInProgress</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="B438" t="str">
+            <v>Land And Improvements</v>
+          </cell>
+          <cell r="C438" t="str">
+            <v>acfr:LandAndImprovements</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="B439" t="str">
+            <v>Land Construction In Progress And Other Non Depreciable Assets</v>
+          </cell>
+          <cell r="C439" t="str">
+            <v>acfr:LandConstructionInProgressAndOtherNonDepreciableAssets</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="B440" t="str">
+            <v>Land Held For Resale</v>
+          </cell>
+          <cell r="C440" t="str">
+            <v>acfr:LandHeldForResale</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="B441" t="str">
+            <v>Land Improvements Depreciating</v>
+          </cell>
+          <cell r="C441" t="str">
+            <v>acfr:LandImprovementsDepreciating</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="B442" t="str">
+            <v>Land Improvements Non Depreciating</v>
+          </cell>
+          <cell r="C442" t="str">
+            <v>acfr:LandImprovementsNonDepreciating</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="B443" t="str">
+            <v>Leasehold Improvements</v>
+          </cell>
+          <cell r="C443" t="str">
+            <v>acfr:LeaseholdImprovements</v>
+          </cell>
+        </row>
+        <row r="444">
+          <cell r="B444" t="str">
+            <v>Leases Accumulated Amortization</v>
+          </cell>
+          <cell r="C444" t="str">
+            <v>acfr:LeasesAccumulatedAmortization</v>
+          </cell>
+        </row>
+        <row r="445">
+          <cell r="B445" t="str">
+            <v>Leases Receivable Net Noncurrent</v>
+          </cell>
+          <cell r="C445" t="str">
+            <v>acfr:LeasesReceivableNetNoncurrent</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="B446" t="str">
+            <v>Leases Receivable Noncurrent</v>
+          </cell>
+          <cell r="C446" t="str">
+            <v>acfr:LeasesReceivableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="447">
+          <cell r="B447" t="str">
+            <v>Long Term Contracts Receivable</v>
+          </cell>
+          <cell r="C447" t="str">
+            <v>acfr:LongTermContractsReceivable</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="B448" t="str">
+            <v>Long Term Investments</v>
+          </cell>
+          <cell r="C448" t="str">
+            <v>acfr:LongTermInvestments</v>
+          </cell>
+        </row>
+        <row r="449">
+          <cell r="B449" t="str">
+            <v>Lottery Prize Reserves</v>
+          </cell>
+          <cell r="C449" t="str">
+            <v>acfr:LotteryPrizeReserves</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="B450" t="str">
+            <v>Machinery And Equipment</v>
+          </cell>
+          <cell r="C450" t="str">
+            <v>acfr:MachineryAndEquipment</v>
+          </cell>
+        </row>
+        <row r="451">
+          <cell r="B451" t="str">
+            <v>Mains And Connections</v>
+          </cell>
+          <cell r="C451" t="str">
+            <v>acfr:MainsAndConnections</v>
+          </cell>
+        </row>
+        <row r="452">
+          <cell r="B452" t="str">
+            <v>Meters</v>
+          </cell>
+          <cell r="C452" t="str">
+            <v>acfr:Meters</v>
+          </cell>
+        </row>
+        <row r="453">
+          <cell r="B453" t="str">
+            <v>Net OPEB Asset</v>
+          </cell>
+          <cell r="C453" t="str">
+            <v>acfr:NetOPEBAsset</v>
+          </cell>
+        </row>
+        <row r="454">
+          <cell r="B454" t="str">
+            <v>Net Pension Asset</v>
+          </cell>
+          <cell r="C454" t="str">
+            <v>acfr:NetPensionAsset</v>
+          </cell>
+        </row>
+        <row r="455">
+          <cell r="B455" t="str">
+            <v>Noncurrent Assets</v>
+          </cell>
+          <cell r="C455" t="str">
+            <v>acfr:NoncurrentAssets</v>
+          </cell>
+        </row>
+        <row r="456">
+          <cell r="B456" t="str">
+            <v>Noncurrent Assets Custom</v>
+          </cell>
+          <cell r="C456" t="str">
+            <v>acfr:NoncurrentAssetsCustom</v>
+          </cell>
+        </row>
+        <row r="457">
+          <cell r="B457" t="str">
+            <v>Noncurrent Liabilities Due Within One Year</v>
+          </cell>
+          <cell r="C457" t="str">
+            <v>acfr:NoncurrentLiabilitiesDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="458">
+          <cell r="B458" t="str">
+            <v>Notes And Loans Receivable Net Noncurrent</v>
+          </cell>
+          <cell r="C458" t="str">
+            <v>acfr:NotesAndLoansReceivableNetNoncurrent</v>
+          </cell>
+        </row>
+        <row r="459">
+          <cell r="B459" t="str">
+            <v>Notes And Loans Receivable Noncurrent</v>
+          </cell>
+          <cell r="C459" t="str">
+            <v>acfr:NotesAndLoansReceivableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="460">
+          <cell r="B460" t="str">
+            <v>Office Equipment And Furniture</v>
+          </cell>
+          <cell r="C460" t="str">
+            <v>acfr:OfficeEquipmentAndFurniture</v>
+          </cell>
+        </row>
+        <row r="461">
+          <cell r="B461" t="str">
+            <v>Other Assets</v>
+          </cell>
+          <cell r="C461" t="str">
+            <v>acfr:OtherAssets</v>
+          </cell>
+        </row>
+        <row r="462">
+          <cell r="B462" t="str">
+            <v>Other Capital Assets</v>
+          </cell>
+          <cell r="C462" t="str">
+            <v>acfr:OtherCapitalAssets</v>
+          </cell>
+        </row>
+        <row r="463">
+          <cell r="B463" t="str">
+            <v>Other Capital Assets Being Depreciated Net Of Accumulated Depreciation And Amortization</v>
+          </cell>
+          <cell r="C463" t="str">
+            <v>acfr:OtherCapitalAssetsBeingDepreciatedNetOfAccumulatedDepreciationAndAmortization</v>
+          </cell>
+        </row>
+        <row r="464">
+          <cell r="B464" t="str">
+            <v>Other Capital Assets Not Being Depreciated</v>
+          </cell>
+          <cell r="C464" t="str">
+            <v>acfr:OtherCapitalAssetsNotBeingDepreciated</v>
+          </cell>
+        </row>
+        <row r="465">
+          <cell r="B465" t="str">
+            <v>Other Investments</v>
+          </cell>
+          <cell r="C465" t="str">
+            <v>acfr:OtherInvestments</v>
+          </cell>
+        </row>
+        <row r="466">
+          <cell r="B466" t="str">
+            <v>Other Noncurrent Assets</v>
+          </cell>
+          <cell r="C466" t="str">
+            <v>acfr:OtherNoncurrentAssets</v>
+          </cell>
+        </row>
+        <row r="467">
+          <cell r="B467" t="str">
+            <v>Property Plant And Equipment Net Of Depreciation</v>
+          </cell>
+          <cell r="C467" t="str">
+            <v>acfr:PropertyPlantAndEquipmentNetOfDepreciation</v>
+          </cell>
+        </row>
+        <row r="468">
+          <cell r="B468" t="str">
+            <v>Regulatory Assets Non Current</v>
+          </cell>
+          <cell r="C468" t="str">
+            <v>acfr:RegulatoryAssetsNonCurrent</v>
+          </cell>
+        </row>
+        <row r="469">
+          <cell r="B469" t="str">
+            <v>Road Equipment</v>
+          </cell>
+          <cell r="C469" t="str">
+            <v>acfr:RoadEquipment</v>
+          </cell>
+        </row>
+        <row r="470">
+          <cell r="B470" t="str">
+            <v>Shop Equipment</v>
+          </cell>
+          <cell r="C470" t="str">
+            <v>acfr:ShopEquipment</v>
+          </cell>
+        </row>
+        <row r="471">
+          <cell r="B471" t="str">
+            <v>Special Assessment Receivable Noncurrent</v>
+          </cell>
+          <cell r="C471" t="str">
+            <v>acfr:SpecialAssessmentReceivableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="472">
+          <cell r="B472" t="str">
+            <v>Unamortized Discounts On Bonds Sold By Local Unit</v>
+          </cell>
+          <cell r="C472" t="str">
+            <v>acfr:UnamortizedDiscountsOnBondsSoldByLocalUnit</v>
+          </cell>
+        </row>
+        <row r="473">
+          <cell r="B473" t="str">
+            <v>Utility</v>
+          </cell>
+          <cell r="C473" t="str">
+            <v>acfr:Utility</v>
+          </cell>
+        </row>
+        <row r="474">
+          <cell r="B474" t="str">
+            <v>Works Of Art</v>
+          </cell>
+          <cell r="C474" t="str">
+            <v>acfr:WorksOfArt</v>
+          </cell>
+        </row>
+        <row r="475">
+          <cell r="B475" t="str">
+            <v>Yard And Storage Equipment</v>
+          </cell>
+          <cell r="C475" t="str">
+            <v>acfr:YardAndStorageEquipment</v>
+          </cell>
+        </row>
+        <row r="476">
+          <cell r="B476" t="str">
+            <v>Accrued Expenses Noncurrent</v>
+          </cell>
+          <cell r="C476" t="str">
+            <v>acfr:AccruedExpensesNoncurrent</v>
+          </cell>
+        </row>
+        <row r="477">
+          <cell r="B477" t="str">
+            <v>Accrued Landfill Closure And Postclosure Care Costs</v>
+          </cell>
+          <cell r="C477" t="str">
+            <v>acfr:AccruedLandfillClosureAndPostclosureCareCosts</v>
+          </cell>
+        </row>
+        <row r="478">
+          <cell r="B478" t="str">
+            <v>Accrued Liabilities Noncurrent</v>
+          </cell>
+          <cell r="C478" t="str">
+            <v>acfr:AccruedLiabilitiesNoncurrent</v>
+          </cell>
+        </row>
+        <row r="479">
+          <cell r="B479" t="str">
+            <v>Accrued Unemployment</v>
+          </cell>
+          <cell r="C479" t="str">
+            <v>acfr:AccruedUnemployment</v>
+          </cell>
+        </row>
+        <row r="480">
+          <cell r="B480" t="str">
+            <v>Advances Noncurrent</v>
+          </cell>
+          <cell r="C480" t="str">
+            <v>acfr:AdvancesNoncurrent</v>
+          </cell>
+        </row>
+        <row r="481">
+          <cell r="B481" t="str">
+            <v>Advances To Component Unit</v>
+          </cell>
+          <cell r="C481" t="str">
+            <v>acfr:AdvancesToComponentUnit</v>
+          </cell>
+        </row>
+        <row r="482">
+          <cell r="B482" t="str">
+            <v>Advances To Other Funds</v>
+          </cell>
+          <cell r="C482" t="str">
+            <v>acfr:AdvancesToOtherFunds</v>
+          </cell>
+        </row>
+        <row r="483">
+          <cell r="B483" t="str">
+            <v>Advances To Other Governments</v>
+          </cell>
+          <cell r="C483" t="str">
+            <v>acfr:AdvancesToOtherGovernments</v>
+          </cell>
+        </row>
+        <row r="484">
+          <cell r="B484" t="str">
+            <v>Advances To Primary Government</v>
+          </cell>
+          <cell r="C484" t="str">
+            <v>acfr:AdvancesToPrimaryGovernment</v>
+          </cell>
+        </row>
+        <row r="485">
+          <cell r="B485" t="str">
+            <v>Asset Retirement Obligations Due In More Than One Year</v>
+          </cell>
+          <cell r="C485" t="str">
+            <v>acfr:AssetRetirementObligationsDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="486">
+          <cell r="B486" t="str">
+            <v>Bond Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C486" t="str">
+            <v>acfr:BondPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="487">
+          <cell r="B487" t="str">
+            <v>Bond Premiums Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C487" t="str">
+            <v>acfr:BondPremiumsPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="488">
+          <cell r="B488" t="str">
+            <v>Claims And Judgments Payable Noncurrent</v>
+          </cell>
+          <cell r="C488" t="str">
+            <v>acfr:ClaimsAndJudgmentsPayableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="489">
+          <cell r="B489" t="str">
+            <v>Compensated Absences Payable Non Current</v>
+          </cell>
+          <cell r="C489" t="str">
+            <v>acfr:CompensatedAbsencesPayableNonCurrent</v>
+          </cell>
+        </row>
+        <row r="490">
+          <cell r="B490" t="str">
+            <v>Contracts Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C490" t="str">
+            <v>acfr:ContractsPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="491">
+          <cell r="B491" t="str">
+            <v>Customer Deposits Noncurrent</v>
+          </cell>
+          <cell r="C491" t="str">
+            <v>acfr:CustomerDepositsNoncurrent</v>
+          </cell>
+        </row>
+        <row r="492">
+          <cell r="B492" t="str">
+            <v>Deferred Revenue</v>
+          </cell>
+          <cell r="C492" t="str">
+            <v>acfr:DeferredRevenue</v>
+          </cell>
+        </row>
+        <row r="493">
+          <cell r="B493" t="str">
+            <v>Derivative Instruments Liability Non Current</v>
+          </cell>
+          <cell r="C493" t="str">
+            <v>acfr:DerivativeInstrumentsLiabilityNonCurrent</v>
+          </cell>
+        </row>
+        <row r="494">
+          <cell r="B494" t="str">
+            <v>Due To State Due In More Than One Year</v>
+          </cell>
+          <cell r="C494" t="str">
+            <v>acfr:DueToStateDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="495">
+          <cell r="B495" t="str">
+            <v>Environmental And Disposal Liabilities</v>
+          </cell>
+          <cell r="C495" t="str">
+            <v>acfr:EnvironmentalAndDisposalLiabilities</v>
+          </cell>
+        </row>
+        <row r="496">
+          <cell r="B496" t="str">
+            <v>Estimated Liability For Landfill Post Closure Care Costs</v>
+          </cell>
+          <cell r="C496" t="str">
+            <v>acfr:EstimatedLiabilityForLandfillPostClosureCareCosts</v>
+          </cell>
+        </row>
+        <row r="497">
+          <cell r="B497" t="str">
+            <v>General Obligation Bonds Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C497" t="str">
+            <v>acfr:GeneralObligationBondsPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="498">
+          <cell r="B498" t="str">
+            <v>Installment Debt Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C498" t="str">
+            <v>acfr:InstallmentDebtPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="499">
+          <cell r="B499" t="str">
+            <v>Intergovernmental Agreement Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C499" t="str">
+            <v>acfr:IntergovernmentalAgreementPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="500">
+          <cell r="B500" t="str">
+            <v>Leases Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C500" t="str">
+            <v>acfr:LeasesPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="501">
+          <cell r="B501" t="str">
+            <v>Limited Tax Bonds Principal Due In More Than One Year</v>
+          </cell>
+          <cell r="C501" t="str">
+            <v>acfr:LimitedTaxBondsPrincipalDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="502">
+          <cell r="B502" t="str">
+            <v>Loan Guarantee Liabilities</v>
+          </cell>
+          <cell r="C502" t="str">
+            <v>acfr:LoanGuaranteeLiabilities</v>
+          </cell>
+        </row>
+        <row r="503">
+          <cell r="B503" t="str">
+            <v>Loans Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C503" t="str">
+            <v>acfr:LoansPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="504">
+          <cell r="B504" t="str">
+            <v>Long Term Debt Due In More Than One Year</v>
+          </cell>
+          <cell r="C504" t="str">
+            <v>acfr:LongTermDebtDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="505">
+          <cell r="B505" t="str">
+            <v>Lottery Prize Liability Noncurrent</v>
+          </cell>
+          <cell r="C505" t="str">
+            <v>acfr:LotteryPrizeLiabilityNoncurrent</v>
+          </cell>
+        </row>
+        <row r="506">
+          <cell r="B506" t="str">
+            <v>Net OPEB Liability</v>
+          </cell>
+          <cell r="C506" t="str">
+            <v>acfr:NetOPEBLiability</v>
+          </cell>
+        </row>
+        <row r="507">
+          <cell r="B507" t="str">
+            <v>Net Pension Liability</v>
+          </cell>
+          <cell r="C507" t="str">
+            <v>acfr:NetPensionLiability</v>
+          </cell>
+        </row>
+        <row r="508">
+          <cell r="B508" t="str">
+            <v>Noncurrent Liabilities</v>
+          </cell>
+          <cell r="C508" t="str">
+            <v>acfr:NoncurrentLiabilities</v>
+          </cell>
+        </row>
+        <row r="509">
+          <cell r="B509" t="str">
+            <v>Noncurrent Liabilities Custom</v>
+          </cell>
+          <cell r="C509" t="str">
+            <v>acfr:NoncurrentLiabilitiesCustom</v>
+          </cell>
+        </row>
+        <row r="510">
+          <cell r="B510" t="str">
+            <v>Noncurrent Portion Of Uninsured Claim Liability</v>
+          </cell>
+          <cell r="C510" t="str">
+            <v>acfr:NoncurrentPortionOfUninsuredClaimLiability</v>
+          </cell>
+        </row>
+        <row r="511">
+          <cell r="B511" t="str">
+            <v>Notes Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C511" t="str">
+            <v>acfr:NotesPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="512">
+          <cell r="B512" t="str">
+            <v>Other Noncurrent Liabilities</v>
+          </cell>
+          <cell r="C512" t="str">
+            <v>acfr:OtherNoncurrentLiabilities</v>
+          </cell>
+        </row>
+        <row r="513">
+          <cell r="B513" t="str">
+            <v>Performance Bonds Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C513" t="str">
+            <v>acfr:PerformanceBondsPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="514">
+          <cell r="B514" t="str">
+            <v>Pollution Remediation Obligation</v>
+          </cell>
+          <cell r="C514" t="str">
+            <v>acfr:PollutionRemediationObligation</v>
+          </cell>
+        </row>
+        <row r="515">
+          <cell r="B515" t="str">
+            <v>Regulatory Liability Non Current</v>
+          </cell>
+          <cell r="C515" t="str">
+            <v>acfr:RegulatoryLiabilityNonCurrent</v>
+          </cell>
+        </row>
+        <row r="516">
+          <cell r="B516" t="str">
+            <v>Retainage Payable Noncurrent</v>
+          </cell>
+          <cell r="C516" t="str">
+            <v>acfr:RetainagePayableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="517">
+          <cell r="B517" t="str">
+            <v>Revenue Bonds Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C517" t="str">
+            <v>acfr:RevenueBondsPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="518">
+          <cell r="B518" t="str">
+            <v>Self Insurance Liabilities Net Of Current Portion</v>
+          </cell>
+          <cell r="C518" t="str">
+            <v>acfr:SelfInsuranceLiabilitiesNetOfCurrentPortion</v>
+          </cell>
+        </row>
+        <row r="519">
+          <cell r="B519" t="str">
+            <v>Unamortized Premium On Bonds Due In More Than One Year</v>
+          </cell>
+          <cell r="C519" t="str">
+            <v>acfr:UnamortizedPremiumOnBondsDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="520">
+          <cell r="B520" t="str">
+            <v>Unearned Revenue Noncurrent</v>
+          </cell>
+          <cell r="C520" t="str">
+            <v>acfr:UnearnedRevenueNoncurrent</v>
+          </cell>
+        </row>
+        <row r="521">
+          <cell r="B521" t="str">
+            <v>Unlimited Tax Bonds Principal Due In More Than One Year</v>
+          </cell>
+          <cell r="C521" t="str">
+            <v>acfr:UnlimitedTaxBondsPrincipalDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="522">
+          <cell r="B522" t="str">
+            <v>Vested Employee Benefits Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C522" t="str">
+            <v>acfr:VestedEmployeeBenefitsPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Legislative and Executive</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Judicial</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>General Government Administration</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>General Government Services, Other</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>General Government</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Security of Persons and Property Services</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Court Equity</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Drug Case Information Management</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Drunk Driving Case Flow Assistance</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Crime Victims Rights</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Indigent Defense</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Public Safety Services</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>Highways and Streets</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>Public Health and Sanitation Services</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>Medical Care Facility</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>Ambulance</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>State Health Benefit</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>Health</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>Welfare</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>Health and Welfare</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>Electricity and Power Services</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>Public Utilities</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>Community Services</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>Community Development</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>Economic Development Services</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>Other Development Services</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>Community Development Block Grants</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>Local Community Stabilization Share</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>Community and Economic Development Services</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>Library</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>Golf</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>Harbor Services</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>Convention Center Services</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>Parks and Recreation</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>Revenues for Cultural Activities</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>Recreation and Culture</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>Conservation Services</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>Airport Services</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>Transportation Services</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>Sanitary Sewer Services</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>Water Supply Services</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>Storm Sewer Services</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>Sanitation</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>Public Works Services</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>Court Related Charges</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>Fees</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>Court Filing Fees</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>Jury Demand Fees</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>Writ of Garnishment, Restitution, Attachment or Execution</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>Attorney Fee Reimbursement</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>Guardian Ad Litem Reimbursement</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>Probation Oversight Fee</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>Estate Inventory Fee</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>Friend of the Court Statutory Handling Fee</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>Friend of the Court Service Fee</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>Miscellaneous Court Costs and Fees</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>Services Rendered</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>Building Inspection Fees</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>Ambulance Transport Fees</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>Title Search Fee</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>Pre Forfeiture Mailing Notice Cost</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>Sales</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>Use and Admission Fees</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>Parking Fees</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>Charges for Services</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>Traffic Violations</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>Ordinance Fines and Costs</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>Statute Costs</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>Bond Forfeitures and Bond Costs</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>Revenues from Fines and Forfeitures and Penalties</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>Business Licenses and Permits</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>Cable TV Franchise Fees</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>Non Business Licenses and Permits</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>Licenses and Permits and Franchise Fees</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>Public Schools Services</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>Public Ways and Facilities Services</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>Public Assistance Services</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>Special Election Reimbursement</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>Elections</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>Survey and Remonumentation</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>Planning and Zoning</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v>Cemetery</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84" t="str">
+            <v>Equipment and Equipment Rental</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v>Property Maintenance</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86" t="str">
+            <v>Homestead</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87" t="str">
+            <v>Building Authority</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v>Telecommunications</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89" t="str">
+            <v>Facilities Maintenance</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90" t="str">
+            <v>Township Properties</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91" t="str">
+            <v>Education Services</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92" t="str">
+            <v>Higher Education</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93" t="str">
+            <v>Unemployment Compensation</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94" t="str">
+            <v>Garage Services</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95" t="str">
+            <v>Jail Stores Commissary Services</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96" t="str">
+            <v>Contingency Services</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97" t="str">
+            <v>Other Public Services</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98" t="str">
+            <v>Revenue Sharing</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99" t="str">
+            <v>Other Programs</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100" t="str">
+            <v>Program Revenues</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101" t="str">
+            <v>Information Technology</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102" t="str">
+            <v>Housing and Community Development</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103" t="str">
+            <v>Lottery Prize Awards</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104" t="str">
+            <v>Capital Outlay</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105" t="str">
+            <v>Depreciation Expense</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106" t="str">
+            <v>Debt Service, Principal Repayment</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107" t="str">
+            <v>Debt Service, Interest and Fiscal Charges</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108" t="str">
+            <v>Debt Service</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109" t="str">
+            <v>Depreciation Unallocated</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110" t="str">
+            <v>Cost of Issue of Bonds and Securities</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112" t="str">
+            <v>National Forest Reserve Taxes</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113" t="str">
+            <v>Trailer Tax</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114" t="str">
+            <v>Accommodations Tax (PA 263 of 1974)</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115" t="str">
+            <v>Parking Occupancy Tax</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116" t="str">
+            <v>Industrial Facilities Tax</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117" t="str">
+            <v>Commercial Facilities Tax</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118" t="str">
+            <v>Income Tax</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119" t="str">
+            <v>Transaction Privilege Tax</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120" t="str">
+            <v>Current Property Taxes, Extra or Special Voted</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121" t="str">
+            <v>Current Personal Property Tax</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122" t="str">
+            <v>Current Real Property Tax</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123" t="str">
+            <v>Property Tax</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124" t="str">
+            <v>Delinquent Real Property Tax</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125" t="str">
+            <v>Delinquent Personal Property Tax</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126" t="str">
+            <v>Marijuana Tax</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127" t="str">
+            <v>City Utility Users Tax</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128" t="str">
+            <v>Motor Fuel Tax</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129" t="str">
+            <v>Lottery for Education, Lottery Proceeds</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130" t="str">
+            <v>Corporate Tax</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131" t="str">
+            <v>Usage of Utilities Tax</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132" t="str">
+            <v>Convention Tax</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133" t="str">
+            <v>Sales and Use Tax</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134" t="str">
+            <v>Sales Tax</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135" t="str">
+            <v>Unclaimed Property</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136" t="str">
+            <v>Nursing Home and Hospital Provider Fees</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137" t="str">
+            <v>Business License Tax</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138" t="str">
+            <v>Property Transfer Tax</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139" t="str">
+            <v>Documents Transfer Tax</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140" t="str">
+            <v>Transfer Stamps Tax</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141" t="str">
+            <v>Hotel and Motel Tax</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142" t="str">
+            <v>Vehicles Tax</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143" t="str">
+            <v>Parking Occupancy Tax</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144" t="str">
+            <v>Meals Tax</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145" t="str">
+            <v>Franchise Income Tax</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146" t="str">
+            <v>Other Tax for General Purpose</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147" t="str">
+            <v>Taxes</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148" t="str">
+            <v>Allowance for Chargebacks</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149" t="str">
+            <v>Allowance for Refunds</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150" t="str">
+            <v>Collection Fees</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151" t="str">
+            <v>Interest and Penalties on Taxes</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152" t="str">
+            <v>Community Wide Special Assessments</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153" t="str">
+            <v>Redemptions and Reconveyance</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154" t="str">
+            <v>County Expense of Sale</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155" t="str">
+            <v>Commercial Forest Reserve</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156" t="str">
+            <v>Sub Marginal Land Act</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157" t="str">
+            <v>Tax Reverted Property</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158" t="str">
+            <v>Payment in Lieu of Taxes</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159" t="str">
+            <v>Property Tax Administration Fee</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160" t="str">
+            <v>Taxes and Tax Related Revenues</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161" t="str">
+            <v>Interest and Penalties on Special Assessments</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162" t="str">
+            <v>Special Assessments</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163" t="str">
+            <v>Revenue for Business Licenses and Permits</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="B164" t="str">
+            <v>Revenue for Cable TV Franchise Fees</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="B165" t="str">
+            <v>Revenue for Non Business Licenses and Permits</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="B166" t="str">
+            <v>Revenue for Licenses and Permits and Franchise Fees</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="B167" t="str">
+            <v>Revenue for Traffic Violations</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="B168" t="str">
+            <v>Revenue for Ordinance Fines and Costs</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169" t="str">
+            <v>Revenue for Statute Costs</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="B170" t="str">
+            <v>Revenue for Bond Forfeitures and Bond Costs</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171" t="str">
+            <v>Fines and Forfeitures and Penalties</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="B172" t="str">
+            <v>Dividends</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="B173" t="str">
+            <v>Interest</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="B174" t="str">
+            <v>Interest and Dividends</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="B175" t="str">
+            <v>Investment Gains (Losses)</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="B176" t="str">
+            <v>Interest and Dividends</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="B177" t="str">
+            <v>Investment Income</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178" t="str">
+            <v>Interest, Dividends, Royalties and Rent</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="B179" t="str">
+            <v>Lease Investment Income</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="B180" t="str">
+            <v>Investment Income and Rentals</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="B181" t="str">
+            <v>Rent</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182" t="str">
+            <v>Royalties</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="B183" t="str">
+            <v>Rents and Royalties</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="B184" t="str">
+            <v>Shared Revenue</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="B185" t="str">
+            <v>Use of Money and Property</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="B186" t="str">
+            <v>Gas and Oil Royalties</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="B187" t="str">
+            <v>Casino Revenue Sharing</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="B188" t="str">
+            <v>Recreation Fees</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="B189" t="str">
+            <v>Refunds and Rebates</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="B190" t="str">
+            <v>Reimbursements</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="B191" t="str">
+            <v>Grants and Entitlements Not Restricted for Specific Programs</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="B192" t="str">
+            <v>Grants, Contributions and Donations from Federal Governmental Entities</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="B193" t="str">
+            <v>Grants, Contributions and Donations from State Governmental Entities</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="B194" t="str">
+            <v>Grants, Contributions and Donations from Local Units</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="B195" t="str">
+            <v>Grants, Contributions and Donations from Others</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="B196" t="str">
+            <v>Public and Private Contributions</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="B197" t="str">
+            <v>Proceeds from Bond and Note Issuance</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="B198" t="str">
+            <v>Private Contributions and Donations</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="B199" t="str">
+            <v>Cash Over or Short</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="B200" t="str">
+            <v>Gain (Loss) on Sale of Capital Assets</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="B201" t="str">
+            <v>Recovery of Cost Incurred</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="B202" t="str">
+            <v>Other General Revenues</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="B203" t="str">
+            <v>General Revenues, Net</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="B204" t="str">
+            <v>Transfers, Net</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="B205" t="str">
+            <v>Transfer of Capital Assets In</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="B206" t="str">
+            <v>Transfers of Capital Assets Out</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="B207" t="str">
+            <v>Internal Transfers</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="B208" t="str">
+            <v>Transfer to Escrow for Bond Refunding</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="B209" t="str">
+            <v>Other Financing Sources, Lease Financing</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="B210" t="str">
+            <v>Discounts on Bonds or Notes</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="B211" t="str">
+            <v>Premium on Bonds or Notes</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="B212" t="str">
+            <v>Bond or Insurance Recoveries</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="B213" t="str">
+            <v>Special Items</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="B214" t="str">
+            <v>Extraordinary Items</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="B215" t="str">
+            <v>Adjustments for Transfer of Revenues Within Activities</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="B216" t="str">
+            <v>Proceeds from Bond and Note Issuance</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="B217" t="str">
+            <v>General Revenues and Transfers</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>City of Clayton</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>California</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>44742</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15878,7 +21540,7 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -16412,19 +22074,19 @@
         <v>19</v>
       </c>
       <c r="C38" s="19">
-        <f>SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,C:C)))</f>
+        <f>IF(C$6="","",C23+C37)</f>
         <v>0</v>
       </c>
       <c r="D38" s="19">
-        <f>IF(D6="", "", IF(D$6="", "",SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,D:D),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,D:D)))))</f>
+        <f t="shared" ref="D38:E38" si="4">IF(D$6="","",D23+D37)</f>
         <v>0</v>
       </c>
       <c r="E38" s="19">
-        <f>IF(E6="", "", IF(E$6="", "",SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,E:E),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,E:E)))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F38" s="19">
-        <f>IF(F$6="", "",SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,F:F),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,F:F))))</f>
+        <f>IF(F$6="","",F23+F37)</f>
         <v>0</v>
       </c>
     </row>
@@ -16454,7 +22116,7 @@
       <c r="C41" s="17"/>
       <c r="D41" s="18"/>
       <c r="E41" s="15" t="str">
-        <f t="shared" ref="E41:E45" si="4">IF(OR($E$6="", B41=""),"",SUM(C41:D41))</f>
+        <f t="shared" ref="E41:E45" si="5">IF(OR($E$6="", B41=""),"",SUM(C41:D41))</f>
         <v/>
       </c>
       <c r="F41" s="18"/>
@@ -16468,7 +22130,7 @@
       <c r="C42" s="17"/>
       <c r="D42" s="18"/>
       <c r="E42" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F42" s="18"/>
@@ -16482,7 +22144,7 @@
       <c r="C43" s="17"/>
       <c r="D43" s="18"/>
       <c r="E43" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F43" s="18"/>
@@ -16496,7 +22158,7 @@
       <c r="C44" s="17"/>
       <c r="D44" s="18"/>
       <c r="E44" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F44" s="18"/>
@@ -16510,7 +22172,7 @@
       <c r="C45" s="17"/>
       <c r="D45" s="18"/>
       <c r="E45" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F45" s="18"/>
@@ -16524,7 +22186,7 @@
       <c r="C46" s="17"/>
       <c r="D46" s="18"/>
       <c r="E46" s="15">
-        <f t="shared" ref="E46:E48" si="5">SUM(C46:D46)</f>
+        <f t="shared" ref="E46:E48" si="6">SUM(C46:D46)</f>
         <v>0</v>
       </c>
       <c r="F46" s="18"/>
@@ -16538,7 +22200,7 @@
       <c r="C47" s="17"/>
       <c r="D47" s="18"/>
       <c r="E47" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F47" s="18"/>
@@ -16552,7 +22214,7 @@
       <c r="C48" s="17"/>
       <c r="D48" s="18"/>
       <c r="E48" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F48" s="18"/>
@@ -16566,7 +22228,7 @@
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
       <c r="E49" s="15">
-        <f t="shared" ref="E49" si="6">SUM(C49:D49)</f>
+        <f t="shared" ref="E49" si="7">SUM(C49:D49)</f>
         <v>0</v>
       </c>
       <c r="F49" s="18"/>
@@ -16587,11 +22249,11 @@
         <v>0</v>
       </c>
       <c r="E50" s="21">
-        <f t="shared" ref="E50:F50" si="7">IF(E6="","",SUM(E41:E49))</f>
+        <f t="shared" ref="E50:F50" si="8">IF(E6="","",SUM(E41:E49))</f>
         <v>0</v>
       </c>
       <c r="F50" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16631,7 +22293,7 @@
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
       <c r="E54" s="15" t="str">
-        <f t="shared" ref="E54:E59" si="8">IF(OR($E$6="", B54=""),"",SUM(C54:D54))</f>
+        <f t="shared" ref="E54:E59" si="9">IF(OR($E$6="", B54=""),"",SUM(C54:D54))</f>
         <v/>
       </c>
       <c r="F54" s="17"/>
@@ -16645,7 +22307,7 @@
       <c r="C55" s="18"/>
       <c r="D55" s="17"/>
       <c r="E55" s="15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F55" s="17"/>
@@ -16659,7 +22321,7 @@
       <c r="C56" s="17"/>
       <c r="D56" s="18"/>
       <c r="E56" s="15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F56" s="18"/>
@@ -16673,7 +22335,7 @@
       <c r="C57" s="17"/>
       <c r="D57" s="18"/>
       <c r="E57" s="15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F57" s="18"/>
@@ -16687,7 +22349,7 @@
       <c r="C58" s="17"/>
       <c r="D58" s="18"/>
       <c r="E58" s="15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F58" s="18"/>
@@ -16701,7 +22363,7 @@
       <c r="C59" s="17"/>
       <c r="D59" s="18"/>
       <c r="E59" s="15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F59" s="18"/>
@@ -16715,7 +22377,7 @@
       <c r="C60" s="17"/>
       <c r="D60" s="18"/>
       <c r="E60" s="15">
-        <f t="shared" ref="E60:E77" si="9">IF($E$6="","",SUM(C60:D60))</f>
+        <f t="shared" ref="E60:E77" si="10">IF($E$6="","",SUM(C60:D60))</f>
         <v>0</v>
       </c>
       <c r="F60" s="18"/>
@@ -16729,7 +22391,7 @@
       <c r="C61" s="17"/>
       <c r="D61" s="18"/>
       <c r="E61" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F61" s="18"/>
@@ -16743,7 +22405,7 @@
       <c r="C62" s="17"/>
       <c r="D62" s="18"/>
       <c r="E62" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F62" s="18"/>
@@ -16757,7 +22419,7 @@
       <c r="C63" s="17"/>
       <c r="D63" s="18"/>
       <c r="E63" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F63" s="18"/>
@@ -16771,7 +22433,7 @@
       <c r="C64" s="17"/>
       <c r="D64" s="18"/>
       <c r="E64" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F64" s="18"/>
@@ -16818,7 +22480,7 @@
       <c r="C67" s="17"/>
       <c r="D67" s="18"/>
       <c r="E67" s="15" t="str">
-        <f t="shared" ref="E67:E70" si="10">IF(OR($E$6="", B67=""),"",SUM(C67:D67))</f>
+        <f t="shared" ref="E67:E70" si="11">IF(OR($E$6="", B67=""),"",SUM(C67:D67))</f>
         <v/>
       </c>
       <c r="F67" s="18"/>
@@ -16832,7 +22494,7 @@
       <c r="C68" s="17"/>
       <c r="D68" s="18"/>
       <c r="E68" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F68" s="18"/>
@@ -16846,7 +22508,7 @@
       <c r="C69" s="17"/>
       <c r="D69" s="18"/>
       <c r="E69" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F69" s="18"/>
@@ -16860,7 +22522,7 @@
       <c r="C70" s="17"/>
       <c r="D70" s="18"/>
       <c r="E70" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F70" s="18"/>
@@ -16874,7 +22536,7 @@
       <c r="C71" s="17"/>
       <c r="D71" s="18"/>
       <c r="E71" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F71" s="18"/>
@@ -16888,7 +22550,7 @@
       <c r="C72" s="17"/>
       <c r="D72" s="18"/>
       <c r="E72" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F72" s="18"/>
@@ -16902,7 +22564,7 @@
       <c r="C73" s="17"/>
       <c r="D73" s="18"/>
       <c r="E73" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F73" s="18"/>
@@ -16916,7 +22578,7 @@
       <c r="C74" s="17"/>
       <c r="D74" s="18"/>
       <c r="E74" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F74" s="18"/>
@@ -16930,7 +22592,7 @@
       <c r="C75" s="17"/>
       <c r="D75" s="18"/>
       <c r="E75" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F75" s="18"/>
@@ -16955,7 +22617,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="15">
-        <f t="shared" ref="F76" si="11">IF(F6="","",SUM(F67:F75))</f>
+        <f t="shared" ref="F76" si="12">IF(F6="","",SUM(F67:F75))</f>
         <v>0</v>
       </c>
     </row>
@@ -16967,19 +22629,19 @@
         <v>40</v>
       </c>
       <c r="C77" s="19">
-        <f>SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,C:C)))</f>
+        <f>IF(C$6="","",C65+C76)</f>
         <v>0</v>
       </c>
       <c r="D77" s="19">
-        <f>IF(D$6="","", SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,D:D),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,D:D))))</f>
+        <f t="shared" ref="D77:F77" si="13">IF(D$6="","",D65+D76)</f>
         <v>0</v>
       </c>
-      <c r="E77" s="22">
-        <f t="shared" si="9"/>
+      <c r="E77" s="19">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F77" s="19">
-        <f>IF(F$6="","", SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,F:F),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,F:F))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17009,7 +22671,7 @@
       <c r="C80" s="17"/>
       <c r="D80" s="18"/>
       <c r="E80" s="15" t="str">
-        <f t="shared" ref="E80:E83" si="12">IF(OR($E$6="", B80=""),"",SUM(C80:D80))</f>
+        <f t="shared" ref="E80:E83" si="14">IF(OR($E$6="", B80=""),"",SUM(C80:D80))</f>
         <v/>
       </c>
       <c r="F80" s="18"/>
@@ -17023,7 +22685,7 @@
       <c r="C81" s="17"/>
       <c r="D81" s="18"/>
       <c r="E81" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F81" s="18"/>
@@ -17037,7 +22699,7 @@
       <c r="C82" s="17"/>
       <c r="D82" s="18"/>
       <c r="E82" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F82" s="18"/>
@@ -17051,7 +22713,7 @@
       <c r="C83" s="17"/>
       <c r="D83" s="18"/>
       <c r="E83" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F83" s="18"/>
@@ -17065,7 +22727,7 @@
       <c r="C84" s="17"/>
       <c r="D84" s="18"/>
       <c r="E84" s="24">
-        <f t="shared" ref="E84:E87" si="13">SUM(C84:D84)</f>
+        <f t="shared" ref="E84:E87" si="15">SUM(C84:D84)</f>
         <v>0</v>
       </c>
       <c r="F84" s="18"/>
@@ -17079,7 +22741,7 @@
       <c r="C85" s="17"/>
       <c r="D85" s="18"/>
       <c r="E85" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F85" s="18"/>
@@ -17093,7 +22755,7 @@
       <c r="C86" s="17"/>
       <c r="D86" s="18"/>
       <c r="E86" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F86" s="18"/>
@@ -17107,7 +22769,7 @@
       <c r="C87" s="17"/>
       <c r="D87" s="18"/>
       <c r="E87" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F87" s="18"/>
@@ -17121,7 +22783,7 @@
       <c r="C88" s="18"/>
       <c r="D88" s="18"/>
       <c r="E88" s="24">
-        <f t="shared" ref="E88" si="14">SUM(C88:D88)</f>
+        <f t="shared" ref="E88" si="16">SUM(C88:D88)</f>
         <v>0</v>
       </c>
       <c r="F88" s="18"/>
@@ -17142,11 +22804,11 @@
         <v>0</v>
       </c>
       <c r="E89" s="22">
-        <f t="shared" ref="E89:F89" si="15">IF(E6="","",SUM(E80:E88))</f>
+        <f t="shared" ref="E89:F89" si="17">IF(E6="","",SUM(E80:E88))</f>
         <v>0</v>
       </c>
       <c r="F89" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17176,7 +22838,7 @@
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
       <c r="E92" s="15" t="str">
-        <f t="shared" ref="E92:E95" si="16">IF(OR($E$6="", B92=""),"",SUM(C92:D92))</f>
+        <f t="shared" ref="E92:E95" si="18">IF(OR($E$6="", B92=""),"",SUM(C92:D92))</f>
         <v/>
       </c>
       <c r="F92" s="17"/>
@@ -17190,7 +22852,7 @@
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
       <c r="E93" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F93" s="17"/>
@@ -17204,7 +22866,7 @@
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
       <c r="E94" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F94" s="17"/>
@@ -17218,7 +22880,7 @@
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
       <c r="E95" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F95" s="17"/>
@@ -17232,7 +22894,7 @@
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
       <c r="E96" s="15">
-        <f t="shared" ref="E96:E98" si="17">SUM(C96:D96)</f>
+        <f t="shared" ref="E96:E98" si="19">SUM(C96:D96)</f>
         <v>0</v>
       </c>
       <c r="F96" s="17"/>
@@ -17246,7 +22908,7 @@
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
       <c r="E97" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F97" s="17"/>
@@ -17260,7 +22922,7 @@
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
       <c r="E98" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F98" s="17"/>
@@ -17274,7 +22936,7 @@
       <c r="C99" s="17"/>
       <c r="D99" s="18"/>
       <c r="E99" s="15">
-        <f t="shared" ref="E99:E100" si="18">SUM(C99:D99)</f>
+        <f t="shared" ref="E99:E100" si="20">SUM(C99:D99)</f>
         <v>0</v>
       </c>
       <c r="F99" s="18"/>
@@ -17288,7 +22950,7 @@
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
       <c r="E100" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F100" s="17"/>
@@ -17309,11 +22971,11 @@
         <v>0</v>
       </c>
       <c r="E101" s="19">
-        <f t="shared" ref="E101:F101" si="19">IF(E6="","",SUM(E92:E100))</f>
+        <f t="shared" ref="E101:F101" si="21">IF(E6="","",SUM(E92:E100))</f>
         <v>0</v>
       </c>
       <c r="F101" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17324,18 +22986,18 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <conditionalFormatting sqref="C101:F101">
-    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="18" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="notEqual">
+    <cfRule type="cellIs" dxfId="45" priority="20" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:F101 C23 C37 C50 C65 C76:C77 C89 C101">
-    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="D6:F37 C23 C37 C50 C65 C76:C77 C89 C101 D39:F101">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17365,7 +23027,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="E76:E77" formula="1"/>
+    <ignoredError sqref="E76" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -17377,7 +23039,7 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
@@ -19005,62 +24667,62 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <conditionalFormatting sqref="C23 C37 C50 D53:G63 D74:H77 J74:J77">
-    <cfRule type="expression" dxfId="12" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="49" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:J64">
-    <cfRule type="expression" dxfId="11" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="34" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:J72">
-    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="10" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F6 D52:F52">
-    <cfRule type="expression" dxfId="9" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="46" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:G51">
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="6" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:J70">
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="2" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H50">
-    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="5" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:I38">
-    <cfRule type="expression" dxfId="5" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="43" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:J6 D7:I37 I39:I51">
-    <cfRule type="expression" dxfId="4" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:J63">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="3" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74:I99">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="1" stopIfTrue="1">
       <formula>I$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J50">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="4" stopIfTrue="1">
       <formula>J$6=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19088,7 +24750,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D7" sqref="D7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -19721,31 +25383,31 @@
         <v>1087</v>
       </c>
       <c r="C35" s="21">
-        <f>IF(C7="","",SUM(C26:C34))</f>
+        <f t="shared" ref="C35:I35" si="3">IF(C7="","",SUM(C26:C34))</f>
         <v>0</v>
       </c>
       <c r="D35" s="21">
-        <f>IF(D7="","",SUM(D26:D34))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E35" s="21">
-        <f>IF(E7="","",SUM(E26:E34))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F35" s="21">
-        <f>IF(F7="","",SUM(F26:F34))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G35" s="21">
-        <f>IF(G7="","",SUM(G26:G34))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H35" s="21">
-        <f>IF(H7="","",SUM(H26:H34))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I35" s="21">
-        <f>IF(I7="","",SUM(I26:I34))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J35" s="53">
@@ -19761,31 +25423,31 @@
         <v>1089</v>
       </c>
       <c r="C36" s="24">
-        <f>C23-C35</f>
+        <f t="shared" ref="C36:I36" si="4">C23-C35</f>
         <v>0</v>
       </c>
       <c r="D36" s="24">
-        <f>D23-D35</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E36" s="24">
-        <f>E23-E35</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F36" s="24">
-        <f>F23-F35</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G36" s="24">
-        <f>G23-G35</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H36" s="24">
-        <f>H23-H35</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I36" s="24">
-        <f>I23-I35</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J36" s="51">
@@ -19833,7 +25495,7 @@
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
       <c r="J39" s="52">
-        <f t="shared" ref="J39:J58" si="3">SUM(C39:I39)</f>
+        <f t="shared" ref="J39:J58" si="5">SUM(C39:I39)</f>
         <v>0</v>
       </c>
     </row>
@@ -19851,7 +25513,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
       <c r="J40" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -19869,7 +25531,7 @@
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
       <c r="J41" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -19887,7 +25549,7 @@
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
       <c r="J42" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -19905,7 +25567,7 @@
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
       <c r="J43" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -19923,7 +25585,7 @@
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
       <c r="J44" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -19941,7 +25603,7 @@
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
       <c r="J45" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -19959,7 +25621,7 @@
       <c r="H46" s="18"/>
       <c r="I46" s="18"/>
       <c r="J46" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -19977,7 +25639,7 @@
       <c r="H47" s="18"/>
       <c r="I47" s="18"/>
       <c r="J47" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -19995,7 +25657,7 @@
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
       <c r="J48" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -20013,7 +25675,7 @@
       <c r="H49" s="18"/>
       <c r="I49" s="18"/>
       <c r="J49" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -20031,7 +25693,7 @@
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
       <c r="J50" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -20049,7 +25711,7 @@
       <c r="H51" s="18"/>
       <c r="I51" s="18"/>
       <c r="J51" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -20067,7 +25729,7 @@
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
       <c r="J52" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -20085,7 +25747,7 @@
       <c r="H53" s="18"/>
       <c r="I53" s="18"/>
       <c r="J53" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -20103,7 +25765,7 @@
       <c r="H54" s="18"/>
       <c r="I54" s="18"/>
       <c r="J54" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -20121,7 +25783,7 @@
       <c r="H55" s="18"/>
       <c r="I55" s="18"/>
       <c r="J55" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -20139,7 +25801,7 @@
       <c r="H56" s="18"/>
       <c r="I56" s="18"/>
       <c r="J56" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -20157,7 +25819,7 @@
       <c r="H57" s="18"/>
       <c r="I57" s="18"/>
       <c r="J57" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -20175,7 +25837,7 @@
       <c r="H58" s="18"/>
       <c r="I58" s="18"/>
       <c r="J58" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -20187,35 +25849,35 @@
         <v>1092</v>
       </c>
       <c r="C59" s="21">
-        <f>IF(C6="","",SUM(C39:C58))</f>
+        <f t="shared" ref="C59:I59" si="6">IF(C6="","",SUM(C39:C58))</f>
         <v>0</v>
       </c>
       <c r="D59" s="21">
-        <f>IF(D6="","",SUM(D39:D58))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E59" s="21">
-        <f>IF(E6="","",SUM(E39:E58))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F59" s="21">
-        <f>IF(F6="","",SUM(F39:F58))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G59" s="21">
-        <f>IF(G6="","",SUM(G39:G58))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H59" s="21">
-        <f>IF(H6="","",SUM(H39:H58))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I59" s="21">
-        <f>IF(I6="","",SUM(I39:I58))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J59" s="21">
-        <f t="shared" ref="J59" si="4">IF(J30="","",SUM(J39:J58))</f>
+        <f t="shared" ref="J59" si="7">IF(J30="","",SUM(J39:J58))</f>
         <v>0</v>
       </c>
     </row>
@@ -20260,7 +25922,7 @@
       <c r="H62" s="18"/>
       <c r="I62" s="18"/>
       <c r="J62" s="52">
-        <f t="shared" ref="J62:J68" si="5">SUM(C62:I62)</f>
+        <f t="shared" ref="J62:J68" si="8">SUM(C62:I62)</f>
         <v>0</v>
       </c>
     </row>
@@ -20279,7 +25941,7 @@
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
       <c r="J63" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20297,7 +25959,7 @@
       <c r="H64" s="18"/>
       <c r="I64" s="18"/>
       <c r="J64" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20315,7 +25977,7 @@
       <c r="H65" s="18"/>
       <c r="I65" s="18"/>
       <c r="J65" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20333,7 +25995,7 @@
       <c r="H66" s="18"/>
       <c r="I66" s="18"/>
       <c r="J66" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20351,7 +26013,7 @@
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
       <c r="J67" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20369,7 +26031,7 @@
       <c r="H68" s="18"/>
       <c r="I68" s="18"/>
       <c r="J68" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20385,31 +26047,31 @@
         <v>0</v>
       </c>
       <c r="D69" s="22">
-        <f t="shared" ref="D69:J69" si="6">D63-D62</f>
+        <f t="shared" ref="D69:J69" si="9">D63-D62</f>
         <v>0</v>
       </c>
       <c r="E69" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F69" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G69" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H69" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I69" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J69" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20428,8 +26090,8 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="D7:I7 D8:J23 C23 C35 C36:J36 D37:J70 C59:J59 C69 D25:J35">
-    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+  <conditionalFormatting sqref="D7:I7 D8:J23 C23 D25:J35 C35 C36:J36 D37:J70 C59:J59 C69">
+    <cfRule type="expression" dxfId="32" priority="17" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20459,4 +26121,1686 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A538FC-637A-3241-965A-F24FF6BE86B7}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:K106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" style="90" customWidth="1"/>
+    <col min="2" max="2" width="41.5" style="90" customWidth="1"/>
+    <col min="3" max="10" width="18.6640625" style="90" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16">
+      <c r="A1" s="118" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B1" s="117" t="str">
+        <f>_xlfn.CONCAT('[1]Master Info'!C2, ", ", '[1]Master Info'!$C$3)</f>
+        <v>City of Clayton, California</v>
+      </c>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="111"/>
+    </row>
+    <row r="2" spans="1:11" ht="16">
+      <c r="A2" s="116" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B2" s="115" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="111"/>
+    </row>
+    <row r="3" spans="1:11" ht="16">
+      <c r="A3" s="116" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B3" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="111"/>
+    </row>
+    <row r="4" spans="1:11" ht="17" thickBot="1">
+      <c r="A4" s="114" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B4" s="113">
+        <f>'[1]Master Info'!C4</f>
+        <v>44742</v>
+      </c>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+    </row>
+    <row r="5" spans="1:11" s="123" customFormat="1" ht="16">
+      <c r="A5" s="119"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="121"/>
+    </row>
+    <row r="6" spans="1:11" s="105" customFormat="1" ht="26" customHeight="1">
+      <c r="A6" s="110"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="129" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" ht="37" customHeight="1">
+      <c r="A7" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="107"/>
+      <c r="C7" s="125" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F7" s="86" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G7" s="86" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H7" s="86" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I7" s="86" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J7" s="126" t="str">
+        <f>IF((COUNTIF(D7:I7, "Type fund name") + COUNTIF(D7:I7, "")) &lt;5, "Totals", "")</f>
+        <v/>
+      </c>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" ht="15">
+      <c r="A8" s="99"/>
+      <c r="B8" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="15">
+      <c r="A9" s="99"/>
+      <c r="B9" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" ht="15">
+      <c r="A10" s="96" t="str">
+        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B10" s="95"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="15" t="str">
+        <f>IF(J$7="","",SUM(D10:I10))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15">
+      <c r="A11" s="96" t="str">
+        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B11" s="95"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="15" t="str">
+        <f t="shared" ref="J11:J23" si="0">IF(J$7="","",SUM(D11:I11))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15">
+      <c r="A12" s="96" t="str">
+        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B12" s="95"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15">
+      <c r="A13" s="96" t="str">
+        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B13" s="95"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15">
+      <c r="A14" s="96" t="str">
+        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B14" s="95"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15">
+      <c r="A15" s="96" t="str">
+        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B15" s="95"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15">
+      <c r="A16" s="96" t="str">
+        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B16" s="95"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15">
+      <c r="A17" s="96" t="str">
+        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B17" s="95"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15">
+      <c r="A18" s="96" t="str">
+        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B18" s="95"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" hidden="1">
+      <c r="A19" s="96" t="str">
+        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B19" s="95"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" hidden="1">
+      <c r="A20" s="96" t="str">
+        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B20" s="95"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" hidden="1">
+      <c r="A21" s="96" t="str">
+        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B21" s="95"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" hidden="1">
+      <c r="A22" s="96" t="str">
+        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B22" s="95"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15">
+      <c r="A23" s="96" t="str">
+        <f>IF(B23="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B23,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B23" s="95"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15">
+      <c r="A24" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="102">
+        <f>SUM(C10:C23)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="102" t="str">
+        <f>IF(D$7="Type fund name","",SUM(D10:D23))</f>
+        <v/>
+      </c>
+      <c r="E24" s="102" t="str">
+        <f t="shared" ref="E24:I24" si="1">IF(E$7="Type fund name","",SUM(E10:E23))</f>
+        <v/>
+      </c>
+      <c r="F24" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G24" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H24" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I24" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J24" s="15" t="str">
+        <f>IF(J7="","",SUM(J10:J23))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15">
+      <c r="A25" s="99"/>
+      <c r="B25" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" ht="15">
+      <c r="A26" s="96" t="str">
+        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B26" s="95"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="15" t="str">
+        <f>IF(J$7="","",SUM(D26:I26))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15">
+      <c r="A27" s="96" t="str">
+        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B27" s="95"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="15" t="str">
+        <f t="shared" ref="J27:J32" si="2">IF(J$7="","",SUM(D27:I27))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15">
+      <c r="A28" s="96" t="str">
+        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15">
+      <c r="A29" s="96" t="str">
+        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15">
+      <c r="A30" s="96" t="str">
+        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15">
+      <c r="A31" s="96" t="str">
+        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B31" s="95"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15">
+      <c r="A32" s="96" t="str">
+        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B32" s="95"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" hidden="1">
+      <c r="A33" s="96" t="str">
+        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B33" s="95"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="15">
+        <f t="shared" ref="J33:J37" si="3">SUM(H33:I33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" hidden="1">
+      <c r="A34" s="96" t="str">
+        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B34" s="95"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" hidden="1">
+      <c r="A35" s="96" t="str">
+        <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B35,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B35" s="95"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" hidden="1">
+      <c r="A36" s="96" t="str">
+        <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B36,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B36" s="95"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" hidden="1">
+      <c r="A37" s="96" t="str">
+        <f>IF(B37="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B37,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B37" s="95"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="105" customFormat="1" ht="15">
+      <c r="A38" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="102">
+        <f>SUM(C26:C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="102" t="str">
+        <f>IF(D$7="Type fund name","",SUM(D26:D32))</f>
+        <v/>
+      </c>
+      <c r="E38" s="102" t="str">
+        <f t="shared" ref="E38:I38" si="4">IF(E$7="Type fund name","",SUM(E26:E32))</f>
+        <v/>
+      </c>
+      <c r="F38" s="102" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G38" s="102" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H38" s="102" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I38" s="102" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J38" s="15" t="str">
+        <f t="shared" ref="J38" si="5">IF(J7="","",SUM(J26:J37))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15">
+      <c r="A39" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="92">
+        <f>C24+C38</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="127" t="str">
+        <f>IF(D$7="Type fund name","",D24+D38)</f>
+        <v/>
+      </c>
+      <c r="E39" s="127" t="str">
+        <f t="shared" ref="E39:I39" si="6">IF(E$7="Type fund name","",E24+E38)</f>
+        <v/>
+      </c>
+      <c r="F39" s="127" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G39" s="127" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H39" s="127" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I39" s="127" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J39" s="19" t="str">
+        <f>IF(J7="","",J24+J38)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15">
+      <c r="A40" s="99"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="1:10" ht="15">
+      <c r="A41" s="99"/>
+      <c r="B41" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="11"/>
+    </row>
+    <row r="42" spans="1:10" ht="15">
+      <c r="A42" s="99"/>
+      <c r="B42" s="103" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="63"/>
+    </row>
+    <row r="43" spans="1:10" ht="15">
+      <c r="A43" s="96" t="str">
+        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B43" s="95"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="15" t="str">
+        <f t="shared" ref="J43:J66" si="7">IF(J$7="","",SUM(D43:I43))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15">
+      <c r="A44" s="96" t="str">
+        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B44" s="95"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15">
+      <c r="A45" s="96" t="str">
+        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B45" s="95"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="94"/>
+      <c r="J45" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="16" customHeight="1">
+      <c r="A46" s="96" t="str">
+        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B46" s="95"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="16" customHeight="1">
+      <c r="A47" s="96" t="str">
+        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B47" s="95"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="16" customHeight="1">
+      <c r="A48" s="96" t="str">
+        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B48" s="95"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="16" hidden="1" customHeight="1">
+      <c r="A49" s="96" t="str">
+        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B49" s="95"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="16" hidden="1" customHeight="1">
+      <c r="A50" s="96" t="str">
+        <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B50" s="95"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" hidden="1">
+      <c r="A51" s="96" t="str">
+        <f>IF(B51="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B51,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B51" s="95"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="94"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15" hidden="1">
+      <c r="A52" s="96" t="str">
+        <f>IF(B52="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B52,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B52" s="95"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="94"/>
+      <c r="I52" s="94"/>
+      <c r="J52" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" hidden="1">
+      <c r="A53" s="96" t="str">
+        <f>IF(B53="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B53,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B53" s="95"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="94"/>
+      <c r="F53" s="94"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="94"/>
+      <c r="I53" s="94"/>
+      <c r="J53" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15">
+      <c r="A54" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="102">
+        <f>IF(C$7="","",SUM(C43:C53))</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="102" t="str">
+        <f>IF(D$7="Type fund name","",SUM(D43:D53))</f>
+        <v/>
+      </c>
+      <c r="E54" s="102" t="str">
+        <f t="shared" ref="E54:I54" si="8">IF(E$7="Type fund name","",SUM(E43:E53))</f>
+        <v/>
+      </c>
+      <c r="F54" s="102" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G54" s="102" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H54" s="102" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I54" s="102" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J54" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15">
+      <c r="A55" s="99"/>
+      <c r="B55" s="103" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C55" s="103"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="103"/>
+      <c r="F55" s="103"/>
+      <c r="G55" s="103"/>
+      <c r="H55" s="103"/>
+      <c r="I55" s="103"/>
+      <c r="J55" s="14"/>
+    </row>
+    <row r="56" spans="1:10" ht="15">
+      <c r="A56" s="96" t="str">
+        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B56" s="95"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15">
+      <c r="A57" s="96" t="str">
+        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B57" s="95"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="94"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15">
+      <c r="A58" s="96" t="str">
+        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B58" s="95"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="94"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="94"/>
+      <c r="I58" s="94"/>
+      <c r="J58" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15">
+      <c r="A59" s="96" t="str">
+        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B59" s="95"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="94"/>
+      <c r="E59" s="94"/>
+      <c r="F59" s="94"/>
+      <c r="G59" s="94"/>
+      <c r="H59" s="94"/>
+      <c r="I59" s="94"/>
+      <c r="J59" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15" hidden="1">
+      <c r="A60" s="96" t="str">
+        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B60" s="95"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="94"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="94"/>
+      <c r="G60" s="94"/>
+      <c r="H60" s="94"/>
+      <c r="I60" s="94"/>
+      <c r="J60" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15" hidden="1">
+      <c r="A61" s="96" t="str">
+        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B61" s="95"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="94"/>
+      <c r="F61" s="94"/>
+      <c r="G61" s="94"/>
+      <c r="H61" s="94"/>
+      <c r="I61" s="94"/>
+      <c r="J61" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15" hidden="1">
+      <c r="A62" s="96" t="str">
+        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B62" s="95"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="94"/>
+      <c r="F62" s="94"/>
+      <c r="G62" s="94"/>
+      <c r="H62" s="94"/>
+      <c r="I62" s="94"/>
+      <c r="J62" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15" hidden="1">
+      <c r="A63" s="96" t="str">
+        <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B63" s="95"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="94"/>
+      <c r="F63" s="94"/>
+      <c r="G63" s="94"/>
+      <c r="H63" s="94"/>
+      <c r="I63" s="94"/>
+      <c r="J63" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15" hidden="1">
+      <c r="A64" s="96" t="str">
+        <f>IF(B64="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B64,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B64" s="95"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="94"/>
+      <c r="E64" s="94"/>
+      <c r="F64" s="94"/>
+      <c r="G64" s="94"/>
+      <c r="H64" s="94"/>
+      <c r="I64" s="94"/>
+      <c r="J64" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15">
+      <c r="A65" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="102">
+        <f>SUM(C56:C64)</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="102" t="str">
+        <f>IF(D$7="Type fund name","",SUM(D56:D64))</f>
+        <v/>
+      </c>
+      <c r="E65" s="102" t="str">
+        <f t="shared" ref="E65:I65" si="9">IF(E$7="Type fund name","",SUM(E56:E64))</f>
+        <v/>
+      </c>
+      <c r="F65" s="102" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G65" s="102" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H65" s="102" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I65" s="102" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J65" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15">
+      <c r="A66" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="92">
+        <f>C54+C65</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="92" t="str">
+        <f>IF(D$7 = "Type fund name", "", D54+D65)</f>
+        <v/>
+      </c>
+      <c r="E66" s="92" t="str">
+        <f t="shared" ref="E66:I66" si="10">IF(E$7 = "Type fund name", "", E54+E65)</f>
+        <v/>
+      </c>
+      <c r="F66" s="92" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G66" s="92" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H66" s="92" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I66" s="92" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J66" s="22" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15">
+      <c r="A67" s="99"/>
+      <c r="B67" s="99"/>
+      <c r="C67" s="100"/>
+      <c r="D67" s="100"/>
+      <c r="E67" s="100"/>
+      <c r="F67" s="100"/>
+      <c r="G67" s="100"/>
+      <c r="H67" s="100"/>
+      <c r="I67" s="100"/>
+      <c r="J67" s="13"/>
+    </row>
+    <row r="68" spans="1:10" ht="15">
+      <c r="A68" s="99"/>
+      <c r="B68" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="98"/>
+      <c r="D68" s="98"/>
+      <c r="E68" s="98"/>
+      <c r="F68" s="98"/>
+      <c r="G68" s="98"/>
+      <c r="H68" s="98"/>
+      <c r="I68" s="98"/>
+      <c r="J68" s="130"/>
+    </row>
+    <row r="69" spans="1:10" ht="15">
+      <c r="A69" s="96" t="str">
+        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B69" s="95"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="94"/>
+      <c r="E69" s="94"/>
+      <c r="F69" s="94"/>
+      <c r="G69" s="94"/>
+      <c r="H69" s="94"/>
+      <c r="I69" s="94"/>
+      <c r="J69" s="15" t="str">
+        <f t="shared" ref="J69:J78" si="11">IF(J$7="","",SUM(D69:I69))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15">
+      <c r="A70" s="96" t="str">
+        <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B70" s="95"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="94"/>
+      <c r="E70" s="94"/>
+      <c r="F70" s="94"/>
+      <c r="G70" s="94"/>
+      <c r="H70" s="94"/>
+      <c r="I70" s="94"/>
+      <c r="J70" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15">
+      <c r="A71" s="96" t="str">
+        <f>IF(B71="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B71,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B71" s="95"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="94"/>
+      <c r="H71" s="94"/>
+      <c r="I71" s="94"/>
+      <c r="J71" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15">
+      <c r="A72" s="96" t="str">
+        <f>IF(B72="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B72,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B72" s="95"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="94"/>
+      <c r="H72" s="94"/>
+      <c r="I72" s="94"/>
+      <c r="J72" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15" hidden="1">
+      <c r="A73" s="96" t="str">
+        <f>IF(B73="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B73,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B73" s="95"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15" hidden="1">
+      <c r="A74" s="96" t="str">
+        <f>IF(B74="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B74,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B74" s="95"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="94"/>
+      <c r="E74" s="94"/>
+      <c r="F74" s="94"/>
+      <c r="G74" s="94"/>
+      <c r="H74" s="94"/>
+      <c r="I74" s="94"/>
+      <c r="J74" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15" hidden="1">
+      <c r="A75" s="96" t="str">
+        <f>IF(B75="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B75,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B75" s="95"/>
+      <c r="C75" s="94"/>
+      <c r="D75" s="94"/>
+      <c r="E75" s="94"/>
+      <c r="F75" s="94"/>
+      <c r="G75" s="94"/>
+      <c r="H75" s="94"/>
+      <c r="I75" s="94"/>
+      <c r="J75" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15" hidden="1">
+      <c r="A76" s="96" t="str">
+        <f>IF(B76="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B76,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B76" s="95"/>
+      <c r="C76" s="94"/>
+      <c r="D76" s="94"/>
+      <c r="E76" s="94"/>
+      <c r="F76" s="94"/>
+      <c r="G76" s="94"/>
+      <c r="H76" s="94"/>
+      <c r="I76" s="94"/>
+      <c r="J76" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15" hidden="1">
+      <c r="A77" s="96" t="str">
+        <f>IF(B77="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B77,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B77" s="95"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="94"/>
+      <c r="F77" s="94"/>
+      <c r="G77" s="94"/>
+      <c r="H77" s="94"/>
+      <c r="I77" s="94"/>
+      <c r="J77" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15">
+      <c r="A78" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="92">
+        <f>IF(C7="","",SUM(C69:C77))</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="92" t="str">
+        <f>IF(D7="Type fund name","",SUM(D69:D77))</f>
+        <v/>
+      </c>
+      <c r="E78" s="92" t="str">
+        <f t="shared" ref="E78:I78" si="12">IF(E7="Type fund name","",SUM(E69:E77))</f>
+        <v/>
+      </c>
+      <c r="F78" s="92" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G78" s="92" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H78" s="92" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I78" s="92" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="J78" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="16">
+      <c r="C79" s="91"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="91"/>
+      <c r="F79" s="91"/>
+      <c r="G79" s="91"/>
+      <c r="H79" s="91"/>
+      <c r="I79" s="91"/>
+      <c r="J79" s="20"/>
+    </row>
+    <row r="80" spans="1:10" ht="15">
+      <c r="J80" s="20"/>
+    </row>
+    <row r="81" spans="10:10" ht="15">
+      <c r="J81" s="20"/>
+    </row>
+    <row r="82" spans="10:10" ht="15">
+      <c r="J82" s="20"/>
+    </row>
+    <row r="83" spans="10:10" ht="15">
+      <c r="J83" s="20"/>
+    </row>
+    <row r="84" spans="10:10" ht="15">
+      <c r="J84" s="20"/>
+    </row>
+    <row r="85" spans="10:10" ht="15">
+      <c r="J85" s="20"/>
+    </row>
+    <row r="86" spans="10:10" ht="15">
+      <c r="J86" s="20"/>
+    </row>
+    <row r="87" spans="10:10" ht="15">
+      <c r="J87" s="20"/>
+    </row>
+    <row r="88" spans="10:10" ht="15">
+      <c r="J88" s="20"/>
+    </row>
+    <row r="89" spans="10:10" ht="15">
+      <c r="J89" s="20"/>
+    </row>
+    <row r="90" spans="10:10" ht="15">
+      <c r="J90" s="20"/>
+    </row>
+    <row r="91" spans="10:10" ht="15">
+      <c r="J91" s="20"/>
+    </row>
+    <row r="92" spans="10:10" ht="15">
+      <c r="J92" s="20"/>
+    </row>
+    <row r="93" spans="10:10" ht="15">
+      <c r="J93" s="20"/>
+    </row>
+    <row r="94" spans="10:10" ht="15">
+      <c r="J94" s="20"/>
+    </row>
+    <row r="95" spans="10:10" ht="15">
+      <c r="J95" s="20"/>
+    </row>
+    <row r="96" spans="10:10" ht="15">
+      <c r="J96" s="20"/>
+    </row>
+    <row r="97" spans="10:10" ht="15">
+      <c r="J97" s="20"/>
+    </row>
+    <row r="98" spans="10:10" ht="15">
+      <c r="J98" s="20"/>
+    </row>
+    <row r="99" spans="10:10" ht="15">
+      <c r="J99" s="20"/>
+    </row>
+    <row r="100" spans="10:10" ht="15">
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="10:10" ht="15">
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="10:10" ht="15">
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="10:10" ht="15">
+      <c r="J103" s="20"/>
+    </row>
+    <row r="104" spans="10:10" ht="15">
+      <c r="J104" s="20"/>
+    </row>
+    <row r="105" spans="10:10" ht="15">
+      <c r="J105" s="20"/>
+    </row>
+    <row r="106" spans="10:10" ht="15">
+      <c r="J106" s="20"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <conditionalFormatting sqref="C24 C38 C65:C66 C54:I54 C78:I78">
+    <cfRule type="expression" dxfId="15" priority="11" stopIfTrue="1">
+      <formula>C$7=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J3 J107:J1048576">
+    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+      <formula>COUNTA(D2:I2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65:I65">
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
+      <formula>D$7=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J106">
+    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
+      <formula>J$7=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="expression" dxfId="11" priority="2" stopIfTrue="1">
+      <formula>K$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:J7">
+    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
+      <formula>J$7=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:B53" xr:uid="{A09DF45D-000F-084D-9A3D-7620B2077E7C}">
+      <formula1>current_liabilities</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56:B64" xr:uid="{537F271F-BE04-EA40-A07A-DAF7A262A683}">
+      <formula1>noncurrent_liabilities</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69:B77" xr:uid="{65B0B3CB-CAE4-9F49-9204-BCF554447293}">
+      <formula1>net_position</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26:B37" xr:uid="{50343035-3D84-CE4B-BD07-B450B6534013}">
+      <formula1>noncurrent_assets</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B23" xr:uid="{4ACEF289-BA82-0D45-BE07-7C664A3BFA9F}">
+      <formula1>current_assets</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
 </file>
--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C33A139-C6DA-1646-974A-71E2D7B9E120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CBA805-B69A-E84F-BACE-D277747A4E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="834" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26131,7 +26131,7 @@
   <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>

--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CBA805-B69A-E84F-BACE-D277747A4E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACB9FFC-0412-0142-BA23-5AD404D5281E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="834" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="834" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Statement of Net Position" sheetId="9" r:id="rId4"/>
     <sheet name="Statement of Activities" sheetId="19" r:id="rId5"/>
     <sheet name="GovFund Stmt of Rev Exp and Chg" sheetId="15" r:id="rId6"/>
-    <sheet name="Prop Funds - Net Position" sheetId="21" r:id="rId7"/>
+    <sheet name="Prop Funds - Net Position" sheetId="22" r:id="rId7"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
@@ -30,25 +30,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Prop Funds - Net Position'!$B$26:$B$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Statement of Activities'!$B$25:$B$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Statement of Net Position'!$B$25:$B$36</definedName>
-    <definedName name="current_assets" localSheetId="6">'[1]Label Dropdowns'!$B$2:$B$204</definedName>
     <definedName name="current_assets">'Label Dropdowns'!$B$2:$B$204</definedName>
-    <definedName name="current_liabilities" localSheetId="6">'[1]Label Dropdowns'!$B$205:$B$319</definedName>
     <definedName name="current_liabilities">'Label Dropdowns'!$B$205:$B$319</definedName>
-    <definedName name="deferred_inflows" localSheetId="6">'[1]Label Dropdowns'!$B$320:$B$342</definedName>
     <definedName name="deferred_inflows">'Label Dropdowns'!$B$320:$B$342</definedName>
-    <definedName name="deferred_outflows" localSheetId="6">'[1]Label Dropdowns'!$B$343:$B$359</definedName>
     <definedName name="deferred_outflows">'Label Dropdowns'!$B$343:$B$359</definedName>
-    <definedName name="general_revenues" localSheetId="6">'[1]Statement of activities labels'!$B$112:$B$203</definedName>
     <definedName name="general_revenues">'Statement of activities labels'!$B$112:$B$203</definedName>
-    <definedName name="net_position" localSheetId="6">'[1]Label Dropdowns'!$B$360:$B$381</definedName>
     <definedName name="net_position">'Label Dropdowns'!$B$360:$B$381</definedName>
-    <definedName name="noncurrent_assets" localSheetId="6">'[1]Label Dropdowns'!$B$382:$B$475</definedName>
     <definedName name="noncurrent_assets">'Label Dropdowns'!$B$382:$B$475</definedName>
-    <definedName name="noncurrent_liabilities" localSheetId="6">'[1]Label Dropdowns'!$B$476:$B$522</definedName>
     <definedName name="noncurrent_liabilities">'Label Dropdowns'!$B$476:$B$522</definedName>
-    <definedName name="program_revenues" localSheetId="6">'[1]Statement of activities labels'!$B$2:$B$111</definedName>
     <definedName name="program_revenues">'Statement of activities labels'!$B$2:$B$111</definedName>
-    <definedName name="transfers" localSheetId="6">'[1]Statement of activities labels'!$B$204:$B$217</definedName>
     <definedName name="transfers">'Statement of activities labels'!$B$204:$B$217</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -5279,10 +5269,10 @@
     <t>Proprietary Funds</t>
   </si>
   <si>
+    <t>Business-Type Activities - Enterprise Funds</t>
+  </si>
+  <si>
     <t>Internal Service Funds</t>
-  </si>
-  <si>
-    <t>Business-Type Activities - Enterprise Funds</t>
   </si>
 </sst>
 </file>
@@ -5420,15 +5410,15 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -5761,7 +5751,7 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5934,60 +5924,66 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="13" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="13" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="44" fontId="1" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="1" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="44" fontId="1" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -5995,105 +5991,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -6130,122 +6028,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6415,6 +6197,7 @@
       <sheetName val="Statement of Activities"/>
       <sheetName val="GovFund Balance Sheet"/>
       <sheetName val="GovFund Stmt of Rev Exp and Chg"/>
+      <sheetName val="Net pos- Prop Funds"/>
       <sheetName val="Prop Fund Stmt of Net Position"/>
       <sheetName val="Prop Fund Stmt of Rev Exp Bal"/>
     </sheetNames>
@@ -10595,1081 +10378,6 @@
             <v>Legislative and Executive</v>
           </cell>
         </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Judicial</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>General Government Administration</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>General Government Services, Other</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>General Government</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Security of Persons and Property Services</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>Court Equity</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>Drug Case Information Management</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>Drunk Driving Case Flow Assistance</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>Crime Victims Rights</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>Indigent Defense</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>Public Safety Services</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>Highways and Streets</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>Public Health and Sanitation Services</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>Medical Care Facility</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>Ambulance</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>State Health Benefit</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>Health</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>Welfare</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>Health and Welfare</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>Electricity and Power Services</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>Public Utilities</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>Community Services</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>Community Development</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>Economic Development Services</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>Other Development Services</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>Community Development Block Grants</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>Local Community Stabilization Share</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>Community and Economic Development Services</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>Library</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v>Golf</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>Harbor Services</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>Convention Center Services</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35" t="str">
-            <v>Parks and Recreation</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="str">
-            <v>Revenues for Cultural Activities</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>Recreation and Culture</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v>Conservation Services</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39" t="str">
-            <v>Airport Services</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>Transportation Services</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>Sanitary Sewer Services</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42" t="str">
-            <v>Water Supply Services</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43" t="str">
-            <v>Storm Sewer Services</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44" t="str">
-            <v>Sanitation</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45" t="str">
-            <v>Public Works Services</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46" t="str">
-            <v>Court Related Charges</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47" t="str">
-            <v>Fees</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48" t="str">
-            <v>Court Filing Fees</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49" t="str">
-            <v>Jury Demand Fees</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50" t="str">
-            <v>Writ of Garnishment, Restitution, Attachment or Execution</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51" t="str">
-            <v>Attorney Fee Reimbursement</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52" t="str">
-            <v>Guardian Ad Litem Reimbursement</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53" t="str">
-            <v>Probation Oversight Fee</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54" t="str">
-            <v>Estate Inventory Fee</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55" t="str">
-            <v>Friend of the Court Statutory Handling Fee</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56" t="str">
-            <v>Friend of the Court Service Fee</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57" t="str">
-            <v>Miscellaneous Court Costs and Fees</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58" t="str">
-            <v>Services Rendered</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59" t="str">
-            <v>Building Inspection Fees</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60" t="str">
-            <v>Ambulance Transport Fees</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61" t="str">
-            <v>Title Search Fee</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62" t="str">
-            <v>Pre Forfeiture Mailing Notice Cost</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63" t="str">
-            <v>Sales</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64" t="str">
-            <v>Use and Admission Fees</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65" t="str">
-            <v>Parking Fees</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66" t="str">
-            <v>Charges for Services</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67" t="str">
-            <v>Traffic Violations</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68" t="str">
-            <v>Ordinance Fines and Costs</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69" t="str">
-            <v>Statute Costs</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70" t="str">
-            <v>Bond Forfeitures and Bond Costs</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71" t="str">
-            <v>Revenues from Fines and Forfeitures and Penalties</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72" t="str">
-            <v>Business Licenses and Permits</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73" t="str">
-            <v>Cable TV Franchise Fees</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74" t="str">
-            <v>Non Business Licenses and Permits</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75" t="str">
-            <v>Licenses and Permits and Franchise Fees</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76" t="str">
-            <v>Public Schools Services</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77" t="str">
-            <v>Public Ways and Facilities Services</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78" t="str">
-            <v>Public Assistance Services</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79" t="str">
-            <v>Special Election Reimbursement</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80" t="str">
-            <v>Elections</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81" t="str">
-            <v>Survey and Remonumentation</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82" t="str">
-            <v>Planning and Zoning</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83" t="str">
-            <v>Cemetery</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84" t="str">
-            <v>Equipment and Equipment Rental</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85" t="str">
-            <v>Property Maintenance</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86" t="str">
-            <v>Homestead</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87" t="str">
-            <v>Building Authority</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88" t="str">
-            <v>Telecommunications</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89" t="str">
-            <v>Facilities Maintenance</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90" t="str">
-            <v>Township Properties</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91" t="str">
-            <v>Education Services</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92" t="str">
-            <v>Higher Education</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93" t="str">
-            <v>Unemployment Compensation</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94" t="str">
-            <v>Garage Services</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95" t="str">
-            <v>Jail Stores Commissary Services</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96" t="str">
-            <v>Contingency Services</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97" t="str">
-            <v>Other Public Services</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98" t="str">
-            <v>Revenue Sharing</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99" t="str">
-            <v>Other Programs</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100" t="str">
-            <v>Program Revenues</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101" t="str">
-            <v>Information Technology</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="B102" t="str">
-            <v>Housing and Community Development</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="B103" t="str">
-            <v>Lottery Prize Awards</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="B104" t="str">
-            <v>Capital Outlay</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="B105" t="str">
-            <v>Depreciation Expense</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106" t="str">
-            <v>Debt Service, Principal Repayment</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="B107" t="str">
-            <v>Debt Service, Interest and Fiscal Charges</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="B108" t="str">
-            <v>Debt Service</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="B109" t="str">
-            <v>Depreciation Unallocated</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="B110" t="str">
-            <v>Cost of Issue of Bonds and Securities</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="B111" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="B112" t="str">
-            <v>National Forest Reserve Taxes</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="B113" t="str">
-            <v>Trailer Tax</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="B114" t="str">
-            <v>Accommodations Tax (PA 263 of 1974)</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="B115" t="str">
-            <v>Parking Occupancy Tax</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="B116" t="str">
-            <v>Industrial Facilities Tax</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="B117" t="str">
-            <v>Commercial Facilities Tax</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="B118" t="str">
-            <v>Income Tax</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="B119" t="str">
-            <v>Transaction Privilege Tax</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="B120" t="str">
-            <v>Current Property Taxes, Extra or Special Voted</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="B121" t="str">
-            <v>Current Personal Property Tax</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="B122" t="str">
-            <v>Current Real Property Tax</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="B123" t="str">
-            <v>Property Tax</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="B124" t="str">
-            <v>Delinquent Real Property Tax</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="B125" t="str">
-            <v>Delinquent Personal Property Tax</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="B126" t="str">
-            <v>Marijuana Tax</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="B127" t="str">
-            <v>City Utility Users Tax</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="B128" t="str">
-            <v>Motor Fuel Tax</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="B129" t="str">
-            <v>Lottery for Education, Lottery Proceeds</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="B130" t="str">
-            <v>Corporate Tax</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="B131" t="str">
-            <v>Usage of Utilities Tax</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="B132" t="str">
-            <v>Convention Tax</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="B133" t="str">
-            <v>Sales and Use Tax</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="B134" t="str">
-            <v>Sales Tax</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="B135" t="str">
-            <v>Unclaimed Property</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="B136" t="str">
-            <v>Nursing Home and Hospital Provider Fees</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="B137" t="str">
-            <v>Business License Tax</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="B138" t="str">
-            <v>Property Transfer Tax</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="B139" t="str">
-            <v>Documents Transfer Tax</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="B140" t="str">
-            <v>Transfer Stamps Tax</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="B141" t="str">
-            <v>Hotel and Motel Tax</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="B142" t="str">
-            <v>Vehicles Tax</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="B143" t="str">
-            <v>Parking Occupancy Tax</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="B144" t="str">
-            <v>Meals Tax</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="B145" t="str">
-            <v>Franchise Income Tax</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="B146" t="str">
-            <v>Other Tax for General Purpose</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="B147" t="str">
-            <v>Taxes</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="B148" t="str">
-            <v>Allowance for Chargebacks</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="B149" t="str">
-            <v>Allowance for Refunds</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="B150" t="str">
-            <v>Collection Fees</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="B151" t="str">
-            <v>Interest and Penalties on Taxes</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="B152" t="str">
-            <v>Community Wide Special Assessments</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="B153" t="str">
-            <v>Redemptions and Reconveyance</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="B154" t="str">
-            <v>County Expense of Sale</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="B155" t="str">
-            <v>Commercial Forest Reserve</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="B156" t="str">
-            <v>Sub Marginal Land Act</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="B157" t="str">
-            <v>Tax Reverted Property</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="B158" t="str">
-            <v>Payment in Lieu of Taxes</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="B159" t="str">
-            <v>Property Tax Administration Fee</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="B160" t="str">
-            <v>Taxes and Tax Related Revenues</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="B161" t="str">
-            <v>Interest and Penalties on Special Assessments</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="B162" t="str">
-            <v>Special Assessments</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="B163" t="str">
-            <v>Revenue for Business Licenses and Permits</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="B164" t="str">
-            <v>Revenue for Cable TV Franchise Fees</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="B165" t="str">
-            <v>Revenue for Non Business Licenses and Permits</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="B166" t="str">
-            <v>Revenue for Licenses and Permits and Franchise Fees</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="B167" t="str">
-            <v>Revenue for Traffic Violations</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="B168" t="str">
-            <v>Revenue for Ordinance Fines and Costs</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="B169" t="str">
-            <v>Revenue for Statute Costs</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="B170" t="str">
-            <v>Revenue for Bond Forfeitures and Bond Costs</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="B171" t="str">
-            <v>Fines and Forfeitures and Penalties</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="B172" t="str">
-            <v>Dividends</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="B173" t="str">
-            <v>Interest</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="B174" t="str">
-            <v>Interest and Dividends</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="B175" t="str">
-            <v>Investment Gains (Losses)</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="B176" t="str">
-            <v>Interest and Dividends</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="B177" t="str">
-            <v>Investment Income</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="B178" t="str">
-            <v>Interest, Dividends, Royalties and Rent</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="B179" t="str">
-            <v>Lease Investment Income</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="B180" t="str">
-            <v>Investment Income and Rentals</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="B181" t="str">
-            <v>Rent</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="B182" t="str">
-            <v>Royalties</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="B183" t="str">
-            <v>Rents and Royalties</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="B184" t="str">
-            <v>Shared Revenue</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="B185" t="str">
-            <v>Use of Money and Property</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="B186" t="str">
-            <v>Gas and Oil Royalties</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="B187" t="str">
-            <v>Casino Revenue Sharing</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="B188" t="str">
-            <v>Recreation Fees</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="B189" t="str">
-            <v>Refunds and Rebates</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="B190" t="str">
-            <v>Reimbursements</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="B191" t="str">
-            <v>Grants and Entitlements Not Restricted for Specific Programs</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="B192" t="str">
-            <v>Grants, Contributions and Donations from Federal Governmental Entities</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="B193" t="str">
-            <v>Grants, Contributions and Donations from State Governmental Entities</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="B194" t="str">
-            <v>Grants, Contributions and Donations from Local Units</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="B195" t="str">
-            <v>Grants, Contributions and Donations from Others</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="B196" t="str">
-            <v>Public and Private Contributions</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="B197" t="str">
-            <v>Proceeds from Bond and Note Issuance</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="B198" t="str">
-            <v>Private Contributions and Donations</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="B199" t="str">
-            <v>Cash Over or Short</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="B200" t="str">
-            <v>Gain (Loss) on Sale of Capital Assets</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="B201" t="str">
-            <v>Recovery of Cost Incurred</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="B202" t="str">
-            <v>Other General Revenues</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="B203" t="str">
-            <v>General Revenues, Net</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="B204" t="str">
-            <v>Transfers, Net</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="B205" t="str">
-            <v>Transfer of Capital Assets In</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="B206" t="str">
-            <v>Transfers of Capital Assets Out</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="B207" t="str">
-            <v>Internal Transfers</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="B208" t="str">
-            <v>Transfer to Escrow for Bond Refunding</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="B209" t="str">
-            <v>Other Financing Sources, Lease Financing</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="B210" t="str">
-            <v>Discounts on Bonds or Notes</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="B211" t="str">
-            <v>Premium on Bonds or Notes</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="B212" t="str">
-            <v>Bond or Insurance Recoveries</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="B213" t="str">
-            <v>Special Items</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="B214" t="str">
-            <v>Extraordinary Items</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="B215" t="str">
-            <v>Adjustments for Transfer of Revenues Within Activities</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="B216" t="str">
-            <v>Proceeds from Bond and Note Issuance</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="B217" t="str">
-            <v>General Revenues and Transfers</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="2">
@@ -11694,6 +10402,7 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11989,8 +10698,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C522"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -21540,7 +20249,7 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -22377,7 +21086,7 @@
       <c r="C60" s="17"/>
       <c r="D60" s="18"/>
       <c r="E60" s="15">
-        <f t="shared" ref="E60:E77" si="10">IF($E$6="","",SUM(C60:D60))</f>
+        <f t="shared" ref="E60:E75" si="10">IF($E$6="","",SUM(C60:D60))</f>
         <v>0</v>
       </c>
       <c r="F60" s="18"/>
@@ -22986,18 +21695,18 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <conditionalFormatting sqref="C101:F101">
-    <cfRule type="cellIs" dxfId="47" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="18" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="20" operator="notEqual">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:F37 C23 C37 C50 C65 C76:C77 C89 C101 D39:F101">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="D6:F37 C23 C37 D39:F101 C50 C65 C76:C77 C89 C101">
+    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24667,62 +23376,62 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <conditionalFormatting sqref="C23 C37 C50 D53:G63 D74:H77 J74:J77">
-    <cfRule type="expression" dxfId="44" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="49" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:J64">
-    <cfRule type="expression" dxfId="43" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="34" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:J72">
-    <cfRule type="expression" dxfId="42" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="10" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F6 D52:F52">
-    <cfRule type="expression" dxfId="41" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="46" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:G51">
-    <cfRule type="expression" dxfId="40" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:J70">
-    <cfRule type="expression" dxfId="39" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H50">
-    <cfRule type="expression" dxfId="38" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:I38">
-    <cfRule type="expression" dxfId="37" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="43" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:J6 D7:I37 I39:I51">
-    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="39" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:J63">
-    <cfRule type="expression" dxfId="35" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74:I99">
-    <cfRule type="expression" dxfId="34" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>I$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J50">
-    <cfRule type="expression" dxfId="33" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>J$6=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24750,7 +23459,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:I7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -26091,7 +24800,7 @@
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="D7:I7 D8:J23 C23 D25:J35 C35 C36:J36 D37:J70 C59:J59 C69">
-    <cfRule type="expression" dxfId="32" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="17" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26124,1679 +24833,1665 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A538FC-637A-3241-965A-F24FF6BE86B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA739A8-4FAE-F64F-B086-A6B9C4373AEE}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="90" customWidth="1"/>
-    <col min="2" max="2" width="41.5" style="90" customWidth="1"/>
-    <col min="3" max="10" width="18.6640625" style="90" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="90"/>
+    <col min="1" max="1" width="23.6640625" style="94" customWidth="1"/>
+    <col min="2" max="2" width="41.5" style="94" customWidth="1"/>
+    <col min="3" max="10" width="18.6640625" style="94" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="94"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="90" t="s">
         <v>1073</v>
       </c>
-      <c r="B1" s="117" t="str">
+      <c r="B1" s="91" t="str">
         <f>_xlfn.CONCAT('[1]Master Info'!C2, ", ", '[1]Master Info'!$C$3)</f>
         <v>City of Clayton, California</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="93"/>
     </row>
     <row r="2" spans="1:11" ht="16">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="95" t="s">
         <v>1099</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="96" t="s">
         <v>1735</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="111"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="93"/>
     </row>
     <row r="3" spans="1:11" ht="16">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="95" t="s">
         <v>1074</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="111"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="93"/>
     </row>
     <row r="4" spans="1:11" ht="17" thickBot="1">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="97" t="s">
         <v>1075</v>
       </c>
-      <c r="B4" s="113">
+      <c r="B4" s="98">
         <f>'[1]Master Info'!C4</f>
         <v>44742</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-    </row>
-    <row r="5" spans="1:11" s="123" customFormat="1" ht="16">
-      <c r="A5" s="119"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="121"/>
-    </row>
-    <row r="6" spans="1:11" s="105" customFormat="1" ht="26" customHeight="1">
-      <c r="A6" s="110"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="124" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+    </row>
+    <row r="5" spans="1:11" ht="16">
+      <c r="A5" s="99"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="92"/>
+    </row>
+    <row r="6" spans="1:11" s="108" customFormat="1" ht="26" customHeight="1">
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="105" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="107"/>
+    </row>
+    <row r="7" spans="1:11" ht="37" customHeight="1">
+      <c r="A7" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="110"/>
+      <c r="C7" s="111" t="s">
         <v>1737</v>
       </c>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" ht="37" customHeight="1">
-      <c r="A7" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="125" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="112" t="s">
         <v>1106</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="112" t="s">
         <v>1106</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="112" t="s">
         <v>1106</v>
       </c>
-      <c r="G7" s="86" t="s">
+      <c r="G7" s="112" t="s">
         <v>1106</v>
       </c>
-      <c r="H7" s="86" t="s">
+      <c r="H7" s="112" t="s">
         <v>1106</v>
       </c>
-      <c r="I7" s="86" t="s">
+      <c r="I7" s="112" t="s">
         <v>1106</v>
       </c>
-      <c r="J7" s="126" t="str">
+      <c r="J7" s="113" t="str">
         <f>IF((COUNTIF(D7:I7, "Type fund name") + COUNTIF(D7:I7, "")) &lt;5, "Totals", "")</f>
         <v/>
       </c>
-      <c r="K7" s="10"/>
+      <c r="K7" s="114"/>
     </row>
     <row r="8" spans="1:11" ht="15">
-      <c r="A8" s="99"/>
-      <c r="B8" s="98" t="s">
+      <c r="A8" s="115"/>
+      <c r="B8" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="11"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="116"/>
     </row>
     <row r="9" spans="1:11" ht="15">
-      <c r="A9" s="99"/>
-      <c r="B9" s="103" t="s">
+      <c r="A9" s="115"/>
+      <c r="B9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="14"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
     </row>
     <row r="10" spans="1:11" ht="15">
-      <c r="A10" s="96" t="str">
-        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A10" s="119" t="str">
+        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="15" t="str">
+      <c r="B10" s="16"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="122" t="str">
         <f>IF(J$7="","",SUM(D10:I10))</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15">
-      <c r="A11" s="96" t="str">
-        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A11" s="119" t="str">
+        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="15" t="str">
-        <f t="shared" ref="J11:J23" si="0">IF(J$7="","",SUM(D11:I11))</f>
+      <c r="B11" s="16"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="122" t="str">
+        <f>IF(J$7="","",SUM(D11:I11))</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15">
-      <c r="A12" s="96" t="str">
-        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A12" s="119" t="str">
+        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="15" t="str">
-        <f t="shared" si="0"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="122" t="str">
+        <f>IF(J$7="","",SUM(D12:I12))</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="A13" s="96" t="str">
-        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A13" s="119" t="str">
+        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="15" t="str">
-        <f t="shared" si="0"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="122" t="str">
+        <f>IF(J$7="","",SUM(D13:I13))</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="96" t="str">
-        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A14" s="119" t="str">
+        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="15" t="str">
-        <f t="shared" si="0"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="122" t="str">
+        <f>IF(J$7="","",SUM(D14:I14))</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="96" t="str">
-        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A15" s="119" t="str">
+        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="15" t="str">
-        <f t="shared" si="0"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="122" t="str">
+        <f>IF(J$7="","",SUM(D15:I15))</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="96" t="str">
-        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A16" s="119" t="str">
+        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="15" t="str">
-        <f t="shared" si="0"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="122" t="str">
+        <f>IF(J$7="","",SUM(D16:I16))</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="96" t="str">
-        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A17" s="119" t="str">
+        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="15" t="str">
-        <f t="shared" si="0"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="122" t="str">
+        <f>IF(J$7="","",SUM(D17:I17))</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15">
-      <c r="A18" s="96" t="str">
-        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A18" s="119" t="str">
+        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="15" t="str">
-        <f t="shared" si="0"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="122" t="str">
+        <f>IF(J$7="","",SUM(D18:I18))</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" hidden="1">
-      <c r="A19" s="96" t="str">
-        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A19" s="119" t="str">
+        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="15" t="str">
-        <f t="shared" si="0"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="122" t="str">
+        <f>IF(J$7="","",SUM(D19:I19))</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" hidden="1">
-      <c r="A20" s="96" t="str">
-        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A20" s="119" t="str">
+        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="15" t="str">
-        <f t="shared" si="0"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="122" t="str">
+        <f>IF(J$7="","",SUM(D20:I20))</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" hidden="1">
-      <c r="A21" s="96" t="str">
-        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A21" s="119" t="str">
+        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="15" t="str">
-        <f t="shared" si="0"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="122" t="str">
+        <f>IF(J$7="","",SUM(D21:I21))</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" hidden="1">
-      <c r="A22" s="96" t="str">
-        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A22" s="119" t="str">
+        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="15" t="str">
-        <f t="shared" si="0"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122" t="str">
+        <f>IF(J$7="","",SUM(D22:I22))</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15">
-      <c r="A23" s="96" t="str">
-        <f>IF(B23="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B23,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A23" s="119" t="str">
+        <f>IF(B23="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B23,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B23" s="95"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="15" t="str">
-        <f t="shared" si="0"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="122" t="str">
+        <f>IF(J$7="","",SUM(D23:I23))</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15">
-      <c r="A24" s="96" t="s">
+      <c r="A24" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="102">
+      <c r="C24" s="122">
         <f>SUM(C10:C23)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="102" t="str">
+      <c r="D24" s="122" t="str">
         <f>IF(D$7="Type fund name","",SUM(D10:D23))</f>
         <v/>
       </c>
-      <c r="E24" s="102" t="str">
-        <f t="shared" ref="E24:I24" si="1">IF(E$7="Type fund name","",SUM(E10:E23))</f>
+      <c r="E24" s="122" t="str">
+        <f>IF(E$7="Type fund name","",SUM(E10:E23))</f>
         <v/>
       </c>
-      <c r="F24" s="102" t="str">
-        <f t="shared" si="1"/>
+      <c r="F24" s="122" t="str">
+        <f>IF(F$7="Type fund name","",SUM(F10:F23))</f>
         <v/>
       </c>
-      <c r="G24" s="102" t="str">
-        <f t="shared" si="1"/>
+      <c r="G24" s="122" t="str">
+        <f>IF(G$7="Type fund name","",SUM(G10:G23))</f>
         <v/>
       </c>
-      <c r="H24" s="102" t="str">
-        <f t="shared" si="1"/>
+      <c r="H24" s="122" t="str">
+        <f>IF(H$7="Type fund name","",SUM(H10:H23))</f>
         <v/>
       </c>
-      <c r="I24" s="102" t="str">
-        <f t="shared" si="1"/>
+      <c r="I24" s="122" t="str">
+        <f>IF(I$7="Type fund name","",SUM(I10:I23))</f>
         <v/>
       </c>
-      <c r="J24" s="15" t="str">
+      <c r="J24" s="122" t="str">
         <f>IF(J7="","",SUM(J10:J23))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15">
-      <c r="A25" s="99"/>
-      <c r="B25" s="103" t="s">
+      <c r="A25" s="115"/>
+      <c r="B25" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="13"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="118"/>
     </row>
     <row r="26" spans="1:10" ht="15">
-      <c r="A26" s="96" t="str">
-        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A26" s="119" t="str">
+        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="15" t="str">
+      <c r="B26" s="120"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="122" t="str">
         <f>IF(J$7="","",SUM(D26:I26))</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15">
-      <c r="A27" s="96" t="str">
-        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A27" s="119" t="str">
+        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B27" s="95"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="15" t="str">
-        <f t="shared" ref="J27:J32" si="2">IF(J$7="","",SUM(D27:I27))</f>
+      <c r="B27" s="120"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="122" t="str">
+        <f>IF(J$7="","",SUM(D27:I27))</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15">
-      <c r="A28" s="96" t="str">
-        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A28" s="119" t="str">
+        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="122" t="str">
+        <f>IF(J$7="","",SUM(D28:I28))</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15">
-      <c r="A29" s="96" t="str">
-        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A29" s="119" t="str">
+        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="122" t="str">
+        <f>IF(J$7="","",SUM(D29:I29))</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15">
-      <c r="A30" s="96" t="str">
-        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A30" s="119" t="str">
+        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="122" t="str">
+        <f>IF(J$7="","",SUM(D30:I30))</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15">
-      <c r="A31" s="96" t="str">
-        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A31" s="119" t="str">
+        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B31" s="95"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="B31" s="120"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="122" t="str">
+        <f>IF(J$7="","",SUM(D31:I31))</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15">
-      <c r="A32" s="96" t="str">
-        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A32" s="119" t="str">
+        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B32" s="95"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="B32" s="120"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="121"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="122" t="str">
+        <f>IF(J$7="","",SUM(D32:I32))</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" hidden="1">
-      <c r="A33" s="96" t="str">
+      <c r="A33" s="119" t="str">
         <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B33" s="95"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="15">
-        <f t="shared" ref="J33:J37" si="3">SUM(H33:I33)</f>
+      <c r="B33" s="120"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="122">
+        <f>SUM(H33:I33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" hidden="1">
-      <c r="A34" s="96" t="str">
+      <c r="A34" s="119" t="str">
         <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B34" s="95"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="15">
-        <f t="shared" si="3"/>
+      <c r="B34" s="120"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="122">
+        <f>SUM(H34:I34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" hidden="1">
-      <c r="A35" s="96" t="str">
+      <c r="A35" s="119" t="str">
         <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B35,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B35" s="95"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="15">
-        <f t="shared" si="3"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="122">
+        <f>SUM(H35:I35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" hidden="1">
-      <c r="A36" s="96" t="str">
+      <c r="A36" s="119" t="str">
         <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B36,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B36" s="95"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="15">
-        <f t="shared" si="3"/>
+      <c r="B36" s="120"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="122">
+        <f>SUM(H36:I36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" hidden="1">
-      <c r="A37" s="96" t="str">
+      <c r="A37" s="119" t="str">
         <f>IF(B37="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B37,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B37" s="95"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="15">
-        <f t="shared" si="3"/>
+      <c r="B37" s="120"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="122">
+        <f>SUM(H37:I37)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="105" customFormat="1" ht="15">
-      <c r="A38" s="96" t="s">
+    <row r="38" spans="1:10" s="108" customFormat="1" ht="15">
+      <c r="A38" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="102">
+      <c r="C38" s="122">
         <f>SUM(C26:C32)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="102" t="str">
+      <c r="D38" s="122" t="str">
         <f>IF(D$7="Type fund name","",SUM(D26:D32))</f>
         <v/>
       </c>
-      <c r="E38" s="102" t="str">
-        <f t="shared" ref="E38:I38" si="4">IF(E$7="Type fund name","",SUM(E26:E32))</f>
+      <c r="E38" s="122" t="str">
+        <f>IF(E$7="Type fund name","",SUM(E26:E32))</f>
         <v/>
       </c>
-      <c r="F38" s="102" t="str">
-        <f t="shared" si="4"/>
+      <c r="F38" s="122" t="str">
+        <f>IF(F$7="Type fund name","",SUM(F26:F32))</f>
         <v/>
       </c>
-      <c r="G38" s="102" t="str">
-        <f t="shared" si="4"/>
+      <c r="G38" s="122" t="str">
+        <f>IF(G$7="Type fund name","",SUM(G26:G32))</f>
         <v/>
       </c>
-      <c r="H38" s="102" t="str">
-        <f t="shared" si="4"/>
+      <c r="H38" s="122" t="str">
+        <f>IF(H$7="Type fund name","",SUM(H26:H32))</f>
         <v/>
       </c>
-      <c r="I38" s="102" t="str">
-        <f t="shared" si="4"/>
+      <c r="I38" s="122" t="str">
+        <f>IF(I$7="Type fund name","",SUM(I26:I32))</f>
         <v/>
       </c>
-      <c r="J38" s="15" t="str">
-        <f t="shared" ref="J38" si="5">IF(J7="","",SUM(J26:J37))</f>
+      <c r="J38" s="122" t="str">
+        <f>IF(J7="","",SUM(J26:J37))</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15">
-      <c r="A39" s="96" t="s">
+      <c r="A39" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="92">
+      <c r="C39" s="124">
         <f>C24+C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="127" t="str">
+      <c r="D39" s="125" t="str">
         <f>IF(D$7="Type fund name","",D24+D38)</f>
         <v/>
       </c>
-      <c r="E39" s="127" t="str">
-        <f t="shared" ref="E39:I39" si="6">IF(E$7="Type fund name","",E24+E38)</f>
+      <c r="E39" s="125" t="str">
+        <f>IF(E$7="Type fund name","",E24+E38)</f>
         <v/>
       </c>
-      <c r="F39" s="127" t="str">
-        <f t="shared" si="6"/>
+      <c r="F39" s="125" t="str">
+        <f>IF(F$7="Type fund name","",F24+F38)</f>
         <v/>
       </c>
-      <c r="G39" s="127" t="str">
-        <f t="shared" si="6"/>
+      <c r="G39" s="125" t="str">
+        <f>IF(G$7="Type fund name","",G24+G38)</f>
         <v/>
       </c>
-      <c r="H39" s="127" t="str">
-        <f t="shared" si="6"/>
+      <c r="H39" s="125" t="str">
+        <f>IF(H$7="Type fund name","",H24+H38)</f>
         <v/>
       </c>
-      <c r="I39" s="127" t="str">
-        <f t="shared" si="6"/>
+      <c r="I39" s="125" t="str">
+        <f>IF(I$7="Type fund name","",I24+I38)</f>
         <v/>
       </c>
-      <c r="J39" s="19" t="str">
+      <c r="J39" s="124" t="str">
         <f>IF(J7="","",J24+J38)</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15">
-      <c r="A40" s="99"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="20"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="126"/>
     </row>
     <row r="41" spans="1:10" ht="15">
-      <c r="A41" s="99"/>
-      <c r="B41" s="98" t="s">
+      <c r="A41" s="115"/>
+      <c r="B41" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="98"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="11"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="116"/>
     </row>
     <row r="42" spans="1:10" ht="15">
-      <c r="A42" s="99"/>
-      <c r="B42" s="103" t="s">
+      <c r="A42" s="115"/>
+      <c r="B42" s="118" t="s">
         <v>1076</v>
       </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="63"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="127"/>
     </row>
     <row r="43" spans="1:10" ht="15">
-      <c r="A43" s="96" t="str">
-        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A43" s="119" t="str">
+        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B43" s="95"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="15" t="str">
-        <f t="shared" ref="J43:J66" si="7">IF(J$7="","",SUM(D43:I43))</f>
+      <c r="B43" s="120"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="122" t="str">
+        <f>IF(J$7="","",SUM(D43:I43))</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15">
-      <c r="A44" s="96" t="str">
-        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A44" s="119" t="str">
+        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B44" s="95"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="15" t="str">
-        <f t="shared" si="7"/>
+      <c r="B44" s="120"/>
+      <c r="C44" s="128"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="128"/>
+      <c r="J44" s="122" t="str">
+        <f>IF(J$7="","",SUM(D44:I44))</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15">
-      <c r="A45" s="96" t="str">
-        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A45" s="119" t="str">
+        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B45" s="95"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="15" t="str">
-        <f t="shared" si="7"/>
+      <c r="B45" s="120"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="121"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="121"/>
+      <c r="H45" s="121"/>
+      <c r="I45" s="121"/>
+      <c r="J45" s="122" t="str">
+        <f>IF(J$7="","",SUM(D45:I45))</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16" customHeight="1">
-      <c r="A46" s="96" t="str">
-        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A46" s="119" t="str">
+        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B46" s="95"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="15" t="str">
-        <f t="shared" si="7"/>
+      <c r="B46" s="120"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="121"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="121"/>
+      <c r="H46" s="121"/>
+      <c r="I46" s="121"/>
+      <c r="J46" s="122" t="str">
+        <f>IF(J$7="","",SUM(D46:I46))</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16" customHeight="1">
-      <c r="A47" s="96" t="str">
-        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A47" s="119" t="str">
+        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B47" s="95"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="15" t="str">
-        <f t="shared" si="7"/>
+      <c r="B47" s="120"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="121"/>
+      <c r="H47" s="121"/>
+      <c r="I47" s="121"/>
+      <c r="J47" s="122" t="str">
+        <f>IF(J$7="","",SUM(D47:I47))</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16" customHeight="1">
-      <c r="A48" s="96" t="str">
-        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A48" s="119" t="str">
+        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B48" s="95"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="15" t="str">
-        <f t="shared" si="7"/>
+      <c r="B48" s="120"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="122" t="str">
+        <f>IF(J$7="","",SUM(D48:I48))</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16" hidden="1" customHeight="1">
-      <c r="A49" s="96" t="str">
+      <c r="A49" s="119" t="str">
         <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B49" s="95"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="15" t="str">
-        <f t="shared" si="7"/>
+      <c r="B49" s="120"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="121"/>
+      <c r="H49" s="121"/>
+      <c r="I49" s="121"/>
+      <c r="J49" s="122" t="str">
+        <f>IF(J$7="","",SUM(D49:I49))</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16" hidden="1" customHeight="1">
-      <c r="A50" s="96" t="str">
+      <c r="A50" s="119" t="str">
         <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B50" s="95"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="94"/>
-      <c r="I50" s="94"/>
-      <c r="J50" s="15" t="str">
-        <f t="shared" si="7"/>
+      <c r="B50" s="120"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="121"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="121"/>
+      <c r="H50" s="121"/>
+      <c r="I50" s="121"/>
+      <c r="J50" s="122" t="str">
+        <f>IF(J$7="","",SUM(D50:I50))</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15" hidden="1">
-      <c r="A51" s="96" t="str">
+      <c r="A51" s="119" t="str">
         <f>IF(B51="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B51,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B51" s="95"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="94"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="15" t="str">
-        <f t="shared" si="7"/>
+      <c r="B51" s="120"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="121"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="121"/>
+      <c r="I51" s="121"/>
+      <c r="J51" s="122" t="str">
+        <f>IF(J$7="","",SUM(D51:I51))</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15" hidden="1">
-      <c r="A52" s="96" t="str">
+      <c r="A52" s="119" t="str">
         <f>IF(B52="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B52,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B52" s="95"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="15" t="str">
-        <f t="shared" si="7"/>
+      <c r="B52" s="120"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="121"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="121"/>
+      <c r="H52" s="121"/>
+      <c r="I52" s="121"/>
+      <c r="J52" s="122" t="str">
+        <f>IF(J$7="","",SUM(D52:I52))</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15" hidden="1">
-      <c r="A53" s="96" t="str">
+      <c r="A53" s="119" t="str">
         <f>IF(B53="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B53,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B53" s="95"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="94"/>
-      <c r="I53" s="94"/>
-      <c r="J53" s="15" t="str">
-        <f t="shared" si="7"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="121"/>
+      <c r="F53" s="121"/>
+      <c r="G53" s="121"/>
+      <c r="H53" s="121"/>
+      <c r="I53" s="121"/>
+      <c r="J53" s="122" t="str">
+        <f>IF(J$7="","",SUM(D53:I53))</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15">
-      <c r="A54" s="96" t="s">
+      <c r="A54" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="96" t="s">
+      <c r="B54" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="102">
+      <c r="C54" s="122">
         <f>IF(C$7="","",SUM(C43:C53))</f>
         <v>0</v>
       </c>
-      <c r="D54" s="102" t="str">
+      <c r="D54" s="122" t="str">
         <f>IF(D$7="Type fund name","",SUM(D43:D53))</f>
         <v/>
       </c>
-      <c r="E54" s="102" t="str">
-        <f t="shared" ref="E54:I54" si="8">IF(E$7="Type fund name","",SUM(E43:E53))</f>
+      <c r="E54" s="122" t="str">
+        <f>IF(E$7="Type fund name","",SUM(E43:E53))</f>
         <v/>
       </c>
-      <c r="F54" s="102" t="str">
-        <f t="shared" si="8"/>
+      <c r="F54" s="122" t="str">
+        <f>IF(F$7="Type fund name","",SUM(F43:F53))</f>
         <v/>
       </c>
-      <c r="G54" s="102" t="str">
-        <f t="shared" si="8"/>
+      <c r="G54" s="122" t="str">
+        <f>IF(G$7="Type fund name","",SUM(G43:G53))</f>
         <v/>
       </c>
-      <c r="H54" s="102" t="str">
-        <f t="shared" si="8"/>
+      <c r="H54" s="122" t="str">
+        <f>IF(H$7="Type fund name","",SUM(H43:H53))</f>
         <v/>
       </c>
-      <c r="I54" s="102" t="str">
-        <f t="shared" si="8"/>
+      <c r="I54" s="122" t="str">
+        <f>IF(I$7="Type fund name","",SUM(I43:I53))</f>
         <v/>
       </c>
-      <c r="J54" s="15" t="str">
-        <f t="shared" si="7"/>
+      <c r="J54" s="122" t="str">
+        <f>IF(J$7="","",SUM(D54:I54))</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15">
-      <c r="A55" s="99"/>
-      <c r="B55" s="103" t="s">
+      <c r="A55" s="115"/>
+      <c r="B55" s="118" t="s">
         <v>1077</v>
       </c>
-      <c r="C55" s="103"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="103"/>
-      <c r="F55" s="103"/>
-      <c r="G55" s="103"/>
-      <c r="H55" s="103"/>
-      <c r="I55" s="103"/>
-      <c r="J55" s="14"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="118"/>
+      <c r="H55" s="118"/>
+      <c r="I55" s="118"/>
+      <c r="J55" s="107"/>
     </row>
     <row r="56" spans="1:10" ht="15">
-      <c r="A56" s="96" t="str">
-        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A56" s="119" t="str">
+        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B56" s="95"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="94"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="15" t="str">
-        <f t="shared" si="7"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="121"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="121"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="121"/>
+    </row>
+    <row r="57" spans="1:10" ht="15">
+      <c r="A57" s="119" t="str">
+        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B57" s="120"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="121"/>
+      <c r="F57" s="121"/>
+      <c r="G57" s="121"/>
+      <c r="H57" s="121"/>
+      <c r="I57" s="121"/>
+      <c r="J57" s="122" t="str">
+        <f>IF(J$7="","",SUM(D57:I57))</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15">
-      <c r="A57" s="96" t="str">
-        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+    <row r="58" spans="1:10" ht="15">
+      <c r="A58" s="119" t="str">
+        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B57" s="95"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="94"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="15" t="str">
-        <f t="shared" si="7"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="121"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="121"/>
+      <c r="F58" s="121"/>
+      <c r="G58" s="121"/>
+      <c r="H58" s="121"/>
+      <c r="I58" s="121"/>
+      <c r="J58" s="122" t="str">
+        <f>IF(J$7="","",SUM(D58:I58))</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15">
-      <c r="A58" s="96" t="str">
-        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+    <row r="59" spans="1:10" ht="15">
+      <c r="A59" s="119" t="str">
+        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B58" s="95"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="94"/>
-      <c r="I58" s="94"/>
-      <c r="J58" s="15" t="str">
-        <f t="shared" si="7"/>
+      <c r="B59" s="120"/>
+      <c r="C59" s="121"/>
+      <c r="D59" s="121"/>
+      <c r="E59" s="121"/>
+      <c r="F59" s="121"/>
+      <c r="G59" s="121"/>
+      <c r="H59" s="121"/>
+      <c r="I59" s="121"/>
+      <c r="J59" s="122" t="str">
+        <f>IF(J$7="","",SUM(D59:I59))</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15">
-      <c r="A59" s="96" t="str">
-        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+    <row r="60" spans="1:10" ht="15" hidden="1">
+      <c r="A60" s="119" t="str">
+        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B59" s="95"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="94"/>
-      <c r="I59" s="94"/>
-      <c r="J59" s="15" t="str">
-        <f t="shared" si="7"/>
+      <c r="B60" s="120"/>
+      <c r="C60" s="121"/>
+      <c r="D60" s="121"/>
+      <c r="E60" s="121"/>
+      <c r="F60" s="121"/>
+      <c r="G60" s="121"/>
+      <c r="H60" s="121"/>
+      <c r="I60" s="121"/>
+      <c r="J60" s="122" t="str">
+        <f>IF(J$7="","",SUM(D60:I60))</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" hidden="1">
-      <c r="A60" s="96" t="str">
-        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+    <row r="61" spans="1:10" ht="15" hidden="1">
+      <c r="A61" s="119" t="str">
+        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B60" s="95"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="94"/>
-      <c r="H60" s="94"/>
-      <c r="I60" s="94"/>
-      <c r="J60" s="15" t="str">
-        <f t="shared" si="7"/>
+      <c r="B61" s="120"/>
+      <c r="C61" s="121"/>
+      <c r="D61" s="121"/>
+      <c r="E61" s="121"/>
+      <c r="F61" s="121"/>
+      <c r="G61" s="121"/>
+      <c r="H61" s="121"/>
+      <c r="I61" s="121"/>
+      <c r="J61" s="122" t="str">
+        <f>IF(J$7="","",SUM(D61:I61))</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" hidden="1">
-      <c r="A61" s="96" t="str">
-        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+    <row r="62" spans="1:10" ht="15" hidden="1">
+      <c r="A62" s="119" t="str">
+        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B61" s="95"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="94"/>
-      <c r="F61" s="94"/>
-      <c r="G61" s="94"/>
-      <c r="H61" s="94"/>
-      <c r="I61" s="94"/>
-      <c r="J61" s="15" t="str">
-        <f t="shared" si="7"/>
+      <c r="B62" s="120"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="121"/>
+      <c r="E62" s="121"/>
+      <c r="F62" s="121"/>
+      <c r="G62" s="121"/>
+      <c r="H62" s="121"/>
+      <c r="I62" s="121"/>
+      <c r="J62" s="122" t="str">
+        <f>IF(J$7="","",SUM(D62:I62))</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" hidden="1">
-      <c r="A62" s="96" t="str">
-        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+    <row r="63" spans="1:10" ht="15" hidden="1">
+      <c r="A63" s="119" t="str">
+        <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B62" s="95"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="94"/>
-      <c r="I62" s="94"/>
-      <c r="J62" s="15" t="str">
-        <f t="shared" si="7"/>
+      <c r="B63" s="120"/>
+      <c r="C63" s="121"/>
+      <c r="D63" s="121"/>
+      <c r="E63" s="121"/>
+      <c r="F63" s="121"/>
+      <c r="G63" s="121"/>
+      <c r="H63" s="121"/>
+      <c r="I63" s="121"/>
+      <c r="J63" s="122" t="str">
+        <f>IF(J$7="","",SUM(D63:I63))</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" hidden="1">
-      <c r="A63" s="96" t="str">
-        <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+    <row r="64" spans="1:10" ht="15" hidden="1">
+      <c r="A64" s="119" t="str">
+        <f>IF(B64="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B64,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B63" s="95"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="94"/>
-      <c r="G63" s="94"/>
-      <c r="H63" s="94"/>
-      <c r="I63" s="94"/>
-      <c r="J63" s="15" t="str">
-        <f t="shared" si="7"/>
+      <c r="B64" s="120"/>
+      <c r="C64" s="121"/>
+      <c r="D64" s="121"/>
+      <c r="E64" s="121"/>
+      <c r="F64" s="121"/>
+      <c r="G64" s="121"/>
+      <c r="H64" s="121"/>
+      <c r="I64" s="121"/>
+      <c r="J64" s="122" t="str">
+        <f>IF(J$7="","",SUM(D64:I64))</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" hidden="1">
-      <c r="A64" s="96" t="str">
-        <f>IF(B64="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B64,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B64" s="95"/>
-      <c r="C64" s="94"/>
-      <c r="D64" s="94"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="94"/>
-      <c r="H64" s="94"/>
-      <c r="I64" s="94"/>
-      <c r="J64" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
     <row r="65" spans="1:10" ht="15">
-      <c r="A65" s="96" t="s">
+      <c r="A65" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="96" t="s">
+      <c r="B65" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="102">
+      <c r="C65" s="122">
         <f>SUM(C56:C64)</f>
         <v>0</v>
       </c>
-      <c r="D65" s="102" t="str">
+      <c r="D65" s="122" t="str">
         <f>IF(D$7="Type fund name","",SUM(D56:D64))</f>
         <v/>
       </c>
-      <c r="E65" s="102" t="str">
-        <f t="shared" ref="E65:I65" si="9">IF(E$7="Type fund name","",SUM(E56:E64))</f>
+      <c r="E65" s="122" t="str">
+        <f>IF(E$7="Type fund name","",SUM(E56:E64))</f>
         <v/>
       </c>
-      <c r="F65" s="102" t="str">
-        <f t="shared" si="9"/>
+      <c r="F65" s="122" t="str">
+        <f>IF(F$7="Type fund name","",SUM(F56:F64))</f>
         <v/>
       </c>
-      <c r="G65" s="102" t="str">
-        <f t="shared" si="9"/>
+      <c r="G65" s="122" t="str">
+        <f>IF(G$7="Type fund name","",SUM(G56:G64))</f>
         <v/>
       </c>
-      <c r="H65" s="102" t="str">
-        <f t="shared" si="9"/>
+      <c r="H65" s="122" t="str">
+        <f>IF(H$7="Type fund name","",SUM(H56:H64))</f>
         <v/>
       </c>
-      <c r="I65" s="102" t="str">
-        <f t="shared" si="9"/>
+      <c r="I65" s="122" t="str">
+        <f>IF(I$7="Type fund name","",SUM(I56:I64))</f>
         <v/>
       </c>
-      <c r="J65" s="15" t="str">
-        <f t="shared" si="7"/>
+      <c r="J65" s="122" t="str">
+        <f>IF(J$7="","",SUM(D65:I65))</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15">
-      <c r="A66" s="101" t="s">
+      <c r="A66" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="93" t="s">
+      <c r="B66" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="92">
+      <c r="C66" s="124">
         <f>C54+C65</f>
         <v>0</v>
       </c>
-      <c r="D66" s="92" t="str">
+      <c r="D66" s="124" t="str">
         <f>IF(D$7 = "Type fund name", "", D54+D65)</f>
         <v/>
       </c>
-      <c r="E66" s="92" t="str">
-        <f t="shared" ref="E66:I66" si="10">IF(E$7 = "Type fund name", "", E54+E65)</f>
+      <c r="E66" s="124" t="str">
+        <f>IF(E$7 = "Type fund name", "", E54+E65)</f>
         <v/>
       </c>
-      <c r="F66" s="92" t="str">
-        <f t="shared" si="10"/>
+      <c r="F66" s="124" t="str">
+        <f>IF(F$7 = "Type fund name", "", F54+F65)</f>
         <v/>
       </c>
-      <c r="G66" s="92" t="str">
-        <f t="shared" si="10"/>
+      <c r="G66" s="124" t="str">
+        <f>IF(G$7 = "Type fund name", "", G54+G65)</f>
         <v/>
       </c>
-      <c r="H66" s="92" t="str">
-        <f t="shared" si="10"/>
+      <c r="H66" s="124" t="str">
+        <f>IF(H$7 = "Type fund name", "", H54+H65)</f>
         <v/>
       </c>
-      <c r="I66" s="92" t="str">
-        <f t="shared" si="10"/>
+      <c r="I66" s="124" t="str">
+        <f>IF(I$7 = "Type fund name", "", I54+I65)</f>
         <v/>
       </c>
-      <c r="J66" s="22" t="str">
-        <f t="shared" si="7"/>
+      <c r="J66" s="130" t="str">
+        <f>IF(J$7="","",SUM(D66:I66))</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15">
-      <c r="A67" s="99"/>
-      <c r="B67" s="99"/>
-      <c r="C67" s="100"/>
-      <c r="D67" s="100"/>
-      <c r="E67" s="100"/>
-      <c r="F67" s="100"/>
-      <c r="G67" s="100"/>
-      <c r="H67" s="100"/>
-      <c r="I67" s="100"/>
-      <c r="J67" s="13"/>
+      <c r="A67" s="115"/>
+      <c r="B67" s="115"/>
+      <c r="C67" s="126"/>
+      <c r="D67" s="126"/>
+      <c r="E67" s="126"/>
+      <c r="F67" s="126"/>
+      <c r="G67" s="126"/>
+      <c r="H67" s="126"/>
+      <c r="I67" s="126"/>
+      <c r="J67" s="118"/>
     </row>
     <row r="68" spans="1:10" ht="15">
-      <c r="A68" s="99"/>
-      <c r="B68" s="98" t="s">
+      <c r="A68" s="115"/>
+      <c r="B68" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="98"/>
-      <c r="D68" s="98"/>
-      <c r="E68" s="98"/>
-      <c r="F68" s="98"/>
-      <c r="G68" s="98"/>
-      <c r="H68" s="98"/>
-      <c r="I68" s="98"/>
-      <c r="J68" s="130"/>
+      <c r="C68" s="116"/>
+      <c r="D68" s="116"/>
+      <c r="E68" s="116"/>
+      <c r="F68" s="116"/>
+      <c r="G68" s="116"/>
+      <c r="H68" s="116"/>
+      <c r="I68" s="116"/>
+      <c r="J68" s="131"/>
     </row>
     <row r="69" spans="1:10" ht="15">
-      <c r="A69" s="96" t="str">
-        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A69" s="119" t="str">
+        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B69" s="95"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="94"/>
-      <c r="F69" s="94"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="94"/>
-      <c r="I69" s="94"/>
-      <c r="J69" s="15" t="str">
-        <f t="shared" ref="J69:J78" si="11">IF(J$7="","",SUM(D69:I69))</f>
+      <c r="B69" s="120"/>
+      <c r="C69" s="121"/>
+      <c r="D69" s="121"/>
+      <c r="E69" s="121"/>
+      <c r="F69" s="121"/>
+      <c r="G69" s="121"/>
+      <c r="H69" s="121"/>
+      <c r="I69" s="121"/>
+      <c r="J69" s="122" t="str">
+        <f>IF(J$7="","",SUM(D69:I69))</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15">
-      <c r="A70" s="96" t="str">
-        <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A70" s="119" t="str">
+        <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B70" s="95"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="94"/>
-      <c r="F70" s="94"/>
-      <c r="G70" s="94"/>
-      <c r="H70" s="94"/>
-      <c r="I70" s="94"/>
-      <c r="J70" s="15" t="str">
-        <f t="shared" si="11"/>
+      <c r="B70" s="120"/>
+      <c r="C70" s="121"/>
+      <c r="D70" s="121"/>
+      <c r="E70" s="121"/>
+      <c r="F70" s="121"/>
+      <c r="G70" s="121"/>
+      <c r="H70" s="121"/>
+      <c r="I70" s="121"/>
+      <c r="J70" s="122" t="str">
+        <f>IF(J$7="","",SUM(D70:I70))</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15">
-      <c r="A71" s="96" t="str">
-        <f>IF(B71="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B71,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A71" s="119" t="str">
+        <f>IF(B71="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B71,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B71" s="95"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="94"/>
-      <c r="H71" s="94"/>
-      <c r="I71" s="94"/>
-      <c r="J71" s="15" t="str">
-        <f t="shared" si="11"/>
+      <c r="B71" s="120"/>
+      <c r="C71" s="121"/>
+      <c r="D71" s="121"/>
+      <c r="E71" s="121"/>
+      <c r="F71" s="121"/>
+      <c r="G71" s="121"/>
+      <c r="H71" s="121"/>
+      <c r="I71" s="121"/>
+      <c r="J71" s="122" t="str">
+        <f>IF(J$7="","",SUM(D71:I71))</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15">
-      <c r="A72" s="96" t="str">
-        <f>IF(B72="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B72,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
+      <c r="A72" s="119" t="str">
+        <f>IF(B72="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B72,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B72" s="95"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="94"/>
-      <c r="H72" s="94"/>
-      <c r="I72" s="94"/>
-      <c r="J72" s="15" t="str">
-        <f t="shared" si="11"/>
+      <c r="B72" s="120"/>
+      <c r="C72" s="121"/>
+      <c r="D72" s="121"/>
+      <c r="E72" s="121"/>
+      <c r="F72" s="121"/>
+      <c r="G72" s="121"/>
+      <c r="H72" s="121"/>
+      <c r="I72" s="121"/>
+      <c r="J72" s="122" t="str">
+        <f>IF(J$7="","",SUM(D72:I72))</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15" hidden="1">
-      <c r="A73" s="96" t="str">
+      <c r="A73" s="119" t="str">
         <f>IF(B73="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B73,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B73" s="95"/>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="94"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="15" t="str">
-        <f t="shared" si="11"/>
+      <c r="B73" s="120"/>
+      <c r="C73" s="121"/>
+      <c r="D73" s="121"/>
+      <c r="E73" s="121"/>
+      <c r="F73" s="121"/>
+      <c r="G73" s="121"/>
+      <c r="H73" s="121"/>
+      <c r="I73" s="121"/>
+      <c r="J73" s="122" t="str">
+        <f>IF(J$7="","",SUM(D73:I73))</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15" hidden="1">
-      <c r="A74" s="96" t="str">
+      <c r="A74" s="119" t="str">
         <f>IF(B74="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B74,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B74" s="95"/>
-      <c r="C74" s="94"/>
-      <c r="D74" s="94"/>
-      <c r="E74" s="94"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="94"/>
-      <c r="H74" s="94"/>
-      <c r="I74" s="94"/>
-      <c r="J74" s="15" t="str">
-        <f t="shared" si="11"/>
+      <c r="B74" s="120"/>
+      <c r="C74" s="121"/>
+      <c r="D74" s="121"/>
+      <c r="E74" s="121"/>
+      <c r="F74" s="121"/>
+      <c r="G74" s="121"/>
+      <c r="H74" s="121"/>
+      <c r="I74" s="121"/>
+      <c r="J74" s="122" t="str">
+        <f>IF(J$7="","",SUM(D74:I74))</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" hidden="1">
-      <c r="A75" s="96" t="str">
+      <c r="A75" s="119" t="str">
         <f>IF(B75="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B75,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B75" s="95"/>
-      <c r="C75" s="94"/>
-      <c r="D75" s="94"/>
-      <c r="E75" s="94"/>
-      <c r="F75" s="94"/>
-      <c r="G75" s="94"/>
-      <c r="H75" s="94"/>
-      <c r="I75" s="94"/>
-      <c r="J75" s="15" t="str">
-        <f t="shared" si="11"/>
+      <c r="B75" s="120"/>
+      <c r="C75" s="121"/>
+      <c r="D75" s="121"/>
+      <c r="E75" s="121"/>
+      <c r="F75" s="121"/>
+      <c r="G75" s="121"/>
+      <c r="H75" s="121"/>
+      <c r="I75" s="121"/>
+      <c r="J75" s="122" t="str">
+        <f>IF(J$7="","",SUM(D75:I75))</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15" hidden="1">
-      <c r="A76" s="96" t="str">
+      <c r="A76" s="119" t="str">
         <f>IF(B76="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B76,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B76" s="95"/>
-      <c r="C76" s="94"/>
-      <c r="D76" s="94"/>
-      <c r="E76" s="94"/>
-      <c r="F76" s="94"/>
-      <c r="G76" s="94"/>
-      <c r="H76" s="94"/>
-      <c r="I76" s="94"/>
-      <c r="J76" s="15" t="str">
-        <f t="shared" si="11"/>
+      <c r="B76" s="120"/>
+      <c r="C76" s="121"/>
+      <c r="D76" s="121"/>
+      <c r="E76" s="121"/>
+      <c r="F76" s="121"/>
+      <c r="G76" s="121"/>
+      <c r="H76" s="121"/>
+      <c r="I76" s="121"/>
+      <c r="J76" s="122" t="str">
+        <f>IF(J$7="","",SUM(D76:I76))</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15" hidden="1">
-      <c r="A77" s="96" t="str">
+      <c r="A77" s="119" t="str">
         <f>IF(B77="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B77,'[1]Label Dropdowns'!$B$2:$B$522,'[1]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B77" s="95"/>
-      <c r="C77" s="94"/>
-      <c r="D77" s="94"/>
-      <c r="E77" s="94"/>
-      <c r="F77" s="94"/>
-      <c r="G77" s="94"/>
-      <c r="H77" s="94"/>
-      <c r="I77" s="94"/>
-      <c r="J77" s="15" t="str">
-        <f t="shared" si="11"/>
+      <c r="B77" s="120"/>
+      <c r="C77" s="121"/>
+      <c r="D77" s="121"/>
+      <c r="E77" s="121"/>
+      <c r="F77" s="121"/>
+      <c r="G77" s="121"/>
+      <c r="H77" s="121"/>
+      <c r="I77" s="121"/>
+      <c r="J77" s="122" t="str">
+        <f>IF(J$7="","",SUM(D77:I77))</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15">
-      <c r="A78" s="93" t="s">
+      <c r="A78" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="B78" s="93" t="s">
+      <c r="B78" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="92">
+      <c r="C78" s="124">
         <f>IF(C7="","",SUM(C69:C77))</f>
         <v>0</v>
       </c>
-      <c r="D78" s="92" t="str">
+      <c r="D78" s="124" t="str">
         <f>IF(D7="Type fund name","",SUM(D69:D77))</f>
         <v/>
       </c>
-      <c r="E78" s="92" t="str">
-        <f t="shared" ref="E78:I78" si="12">IF(E7="Type fund name","",SUM(E69:E77))</f>
+      <c r="E78" s="124" t="str">
+        <f>IF(E7="Type fund name","",SUM(E69:E77))</f>
         <v/>
       </c>
-      <c r="F78" s="92" t="str">
-        <f t="shared" si="12"/>
+      <c r="F78" s="124" t="str">
+        <f>IF(F7="Type fund name","",SUM(F69:F77))</f>
         <v/>
       </c>
-      <c r="G78" s="92" t="str">
-        <f t="shared" si="12"/>
+      <c r="G78" s="124" t="str">
+        <f>IF(G7="Type fund name","",SUM(G69:G77))</f>
         <v/>
       </c>
-      <c r="H78" s="92" t="str">
-        <f t="shared" si="12"/>
+      <c r="H78" s="124" t="str">
+        <f>IF(H7="Type fund name","",SUM(H69:H77))</f>
         <v/>
       </c>
-      <c r="I78" s="92" t="str">
-        <f t="shared" si="12"/>
+      <c r="I78" s="124" t="str">
+        <f>IF(I7="Type fund name","",SUM(I69:I77))</f>
         <v/>
       </c>
-      <c r="J78" s="21" t="str">
-        <f t="shared" si="11"/>
+      <c r="J78" s="125" t="str">
+        <f>IF(J$7="","",SUM(D78:I78))</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:10" ht="16">
-      <c r="C79" s="91"/>
-      <c r="D79" s="91"/>
-      <c r="E79" s="91"/>
-      <c r="F79" s="91"/>
-      <c r="G79" s="91"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="91"/>
-      <c r="J79" s="20"/>
+      <c r="C79" s="132"/>
+      <c r="D79" s="132"/>
+      <c r="E79" s="132"/>
+      <c r="F79" s="132"/>
+      <c r="G79" s="132"/>
+      <c r="H79" s="132"/>
+      <c r="I79" s="132"/>
+      <c r="J79" s="126"/>
     </row>
     <row r="80" spans="1:10" ht="15">
-      <c r="J80" s="20"/>
+      <c r="J80" s="126"/>
     </row>
     <row r="81" spans="10:10" ht="15">
-      <c r="J81" s="20"/>
+      <c r="J81" s="126"/>
     </row>
     <row r="82" spans="10:10" ht="15">
-      <c r="J82" s="20"/>
+      <c r="J82" s="126"/>
     </row>
     <row r="83" spans="10:10" ht="15">
-      <c r="J83" s="20"/>
+      <c r="J83" s="126"/>
     </row>
     <row r="84" spans="10:10" ht="15">
-      <c r="J84" s="20"/>
+      <c r="J84" s="126"/>
     </row>
     <row r="85" spans="10:10" ht="15">
-      <c r="J85" s="20"/>
+      <c r="J85" s="126"/>
     </row>
     <row r="86" spans="10:10" ht="15">
-      <c r="J86" s="20"/>
+      <c r="J86" s="126"/>
     </row>
     <row r="87" spans="10:10" ht="15">
-      <c r="J87" s="20"/>
+      <c r="J87" s="126"/>
     </row>
     <row r="88" spans="10:10" ht="15">
-      <c r="J88" s="20"/>
+      <c r="J88" s="126"/>
     </row>
     <row r="89" spans="10:10" ht="15">
-      <c r="J89" s="20"/>
+      <c r="J89" s="126"/>
     </row>
     <row r="90" spans="10:10" ht="15">
-      <c r="J90" s="20"/>
+      <c r="J90" s="126"/>
     </row>
     <row r="91" spans="10:10" ht="15">
-      <c r="J91" s="20"/>
+      <c r="J91" s="126"/>
     </row>
     <row r="92" spans="10:10" ht="15">
-      <c r="J92" s="20"/>
+      <c r="J92" s="126"/>
     </row>
     <row r="93" spans="10:10" ht="15">
-      <c r="J93" s="20"/>
+      <c r="J93" s="126"/>
     </row>
     <row r="94" spans="10:10" ht="15">
-      <c r="J94" s="20"/>
+      <c r="J94" s="126"/>
     </row>
     <row r="95" spans="10:10" ht="15">
-      <c r="J95" s="20"/>
+      <c r="J95" s="126"/>
     </row>
     <row r="96" spans="10:10" ht="15">
-      <c r="J96" s="20"/>
+      <c r="J96" s="126"/>
     </row>
     <row r="97" spans="10:10" ht="15">
-      <c r="J97" s="20"/>
+      <c r="J97" s="126"/>
     </row>
     <row r="98" spans="10:10" ht="15">
-      <c r="J98" s="20"/>
+      <c r="J98" s="126"/>
     </row>
     <row r="99" spans="10:10" ht="15">
-      <c r="J99" s="20"/>
+      <c r="J99" s="126"/>
     </row>
     <row r="100" spans="10:10" ht="15">
-      <c r="J100" s="20"/>
+      <c r="J100" s="126"/>
     </row>
     <row r="101" spans="10:10" ht="15">
-      <c r="J101" s="20"/>
+      <c r="J101" s="126"/>
     </row>
     <row r="102" spans="10:10" ht="15">
-      <c r="J102" s="20"/>
+      <c r="J102" s="126"/>
     </row>
     <row r="103" spans="10:10" ht="15">
-      <c r="J103" s="20"/>
+      <c r="J103" s="126"/>
     </row>
     <row r="104" spans="10:10" ht="15">
-      <c r="J104" s="20"/>
+      <c r="J104" s="126"/>
     </row>
     <row r="105" spans="10:10" ht="15">
-      <c r="J105" s="20"/>
+      <c r="J105" s="126"/>
     </row>
     <row r="106" spans="10:10" ht="15">
-      <c r="J106" s="20"/>
+      <c r="J106" s="126"/>
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
-  <conditionalFormatting sqref="C24 C38 C65:C66 C54:I54 C78:I78">
-    <cfRule type="expression" dxfId="15" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="C24 C38 C54:I54 C65:C66 C78:I78 J6:J55 J57:J106">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D65:I65">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>D$7=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J1:J3 J107:J1048576">
-    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
       <formula>COUNTA(D2:I2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65:I65">
-    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
-      <formula>D$7=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J106">
-    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
-      <formula>J$7=""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="11" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>K$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J7">
-    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
-      <formula>J$7=""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:B53" xr:uid="{A09DF45D-000F-084D-9A3D-7620B2077E7C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:B53" xr:uid="{3020B3D5-A2C3-4F4B-8EFD-A19414110BEC}">
       <formula1>current_liabilities</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56:B64" xr:uid="{537F271F-BE04-EA40-A07A-DAF7A262A683}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56:B64" xr:uid="{0AF5B33B-114A-5D47-AC98-0EF208D28A50}">
       <formula1>noncurrent_liabilities</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69:B77" xr:uid="{65B0B3CB-CAE4-9F49-9204-BCF554447293}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69:B77" xr:uid="{62718926-C752-384A-817F-8A854F7BD996}">
       <formula1>net_position</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26:B37" xr:uid="{50343035-3D84-CE4B-BD07-B450B6534013}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26:B37" xr:uid="{E796ED53-BB10-BA41-A5DA-36CA177F44A2}">
       <formula1>noncurrent_assets</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B23" xr:uid="{4ACEF289-BA82-0D45-BE07-7C664A3BFA9F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B23" xr:uid="{BEF100DB-73F2-E445-82C4-2C8C8EBF4AB4}">
       <formula1>current_assets</formula1>
     </dataValidation>
   </dataValidations>

--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60491F8-56B5-6745-B7DB-D5CC36320469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A484448C-2984-784A-9513-B25EF6972768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="834" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lookup Net Position" sheetId="8" state="hidden" r:id="rId1"/>
+    <sheet name="Lookup Net Position" sheetId="8" r:id="rId1"/>
     <sheet name="Lookup GovWide Stmt Activities" sheetId="20" state="hidden" r:id="rId2"/>
     <sheet name="Lookup PropFunds" sheetId="23" state="hidden" r:id="rId3"/>
     <sheet name="Lookup PropFunds CashFlows" sheetId="26" state="hidden" r:id="rId4"/>
@@ -19174,8 +19174,8 @@
   </sheetPr>
   <dimension ref="A1:G616"/>
   <sheetViews>
-    <sheetView topLeftCell="A578" workbookViewId="0">
-      <selection activeCell="B616" sqref="B616"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -36194,8 +36194,8 @@
   </sheetPr>
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>

--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A484448C-2984-784A-9513-B25EF6972768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EB14E6-B5AD-304C-945E-21424B028E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="834" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Net Position" sheetId="8" r:id="rId1"/>
@@ -19174,7 +19174,7 @@
   </sheetPr>
   <dimension ref="A1:G616"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
@@ -34792,8 +34792,8 @@
   </sheetPr>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:XFD64"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -56230,7 +56230,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -1,44 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/app/static/input_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarrahahmed/Desktop/CLOSUP/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A484448C-2984-784A-9513-B25EF6972768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46C8758-762C-624D-BD03-67DC3FEA3AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="17280" tabRatio="834" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Net Position" sheetId="8" r:id="rId1"/>
     <sheet name="Lookup GovWide Stmt Activities" sheetId="20" state="hidden" r:id="rId2"/>
-    <sheet name="Lookup PropFunds" sheetId="23" state="hidden" r:id="rId3"/>
-    <sheet name="Lookup PropFunds CashFlows" sheetId="26" state="hidden" r:id="rId4"/>
+    <sheet name="Lookup PropFunds" sheetId="23" r:id="rId3"/>
+    <sheet name="Lookup PropFunds CashFlows" sheetId="26" r:id="rId4"/>
     <sheet name="Master Info" sheetId="13" r:id="rId5"/>
     <sheet name="Statement of Net Position" sheetId="9" r:id="rId6"/>
     <sheet name="Statement of Activities" sheetId="19" r:id="rId7"/>
     <sheet name="GovFund Balance Sheet" sheetId="29" r:id="rId8"/>
     <sheet name="Reconciliation Balance Sheet" sheetId="28" r:id="rId9"/>
-    <sheet name="GovFund Stmt of Rev Exp and Chg" sheetId="15" r:id="rId10"/>
-    <sheet name="Prop Funds - Net Position" sheetId="22" r:id="rId11"/>
-    <sheet name="PropFund Stmt of Rev Exp and Ch" sheetId="24" r:id="rId12"/>
-    <sheet name="Prop Fund Cash Flows" sheetId="27" r:id="rId13"/>
+    <sheet name="Reconciliation of Govt Funds" sheetId="30" r:id="rId10"/>
+    <sheet name="GovFund Stmt of Rev Exp and Chg" sheetId="15" r:id="rId11"/>
+    <sheet name="Lookup GovFund Stmt Rev Exp Ch" sheetId="31" r:id="rId12"/>
+    <sheet name="Prop Funds - Net Position" sheetId="22" r:id="rId13"/>
+    <sheet name="PropFund Stmt of Rev Exp and Ch" sheetId="24" r:id="rId14"/>
+    <sheet name="Prop Fund Cash Flows" sheetId="27" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
-    <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'GovFund Stmt of Rev Exp and Chg'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'GovFund Stmt of Rev Exp and Chg'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Lookup Net Position'!$A$1:$C$522</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Prop Fund Cash Flows'!$B$26:$B$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Prop Funds - Net Position'!$B$26:$B$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'PropFund Stmt of Rev Exp and Ch'!$B$26:$B$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Prop Fund Cash Flows'!$B$26:$B$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Prop Funds - Net Position'!$B$26:$B$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'PropFund Stmt of Rev Exp and Ch'!$B$26:$B$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Statement of Activities'!$B$25:$B$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Statement of Net Position'!$B$25:$B$36</definedName>
     <definedName name="capital_contributions">'Lookup PropFunds'!$E$286:$E$293</definedName>
@@ -105,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4901" uniqueCount="2897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5704" uniqueCount="3667">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -8797,6 +8799,2316 @@
   </si>
   <si>
     <t>acfr:FundBalanceUnassigned</t>
+  </si>
+  <si>
+    <t>ACCRUAL OF NON-CURRENT ITEMS</t>
+  </si>
+  <si>
+    <t>CAPITAL ASSET TRANSACTIONS</t>
+  </si>
+  <si>
+    <t>ALLOCATION OF INTERNAL SERVICE FUND ACTIVITY</t>
+  </si>
+  <si>
+    <t>Change in Net Position of Governmental Activities on Statement of Activities</t>
+  </si>
+  <si>
+    <t>Reconciliation of Governmental Funds Statement of Revenues, Expenditures, and Changes in Fund Balances to the Statement of Activities and Changes in Net Position</t>
+  </si>
+  <si>
+    <t>Net Change in Fund Balances- Total Governmental Funds</t>
+  </si>
+  <si>
+    <t>Revenues from National Forest Reserve Taxes, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Commercial Facilities Tax, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Trailer Tax, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Accommodations Tax, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Parking Occupancy Tax, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Meals Tax, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Industrial Facilities Tax, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Income Tax, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Property Tax, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Current Property Taxes, Extra or Special Voted, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Current Personal Property Tax, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Delinquent Personal Property Tax, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Delinquent Real Property Tax, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Sales Tax, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from City Utility Users Tax, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Sales and Use Tax, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Business License Tax, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Property Transfer Tax, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Documents Transfer Tax, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Transfer Stamps Tax, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Vehicles Tax, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Marijuana Tax, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Other Taxes, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Taxes, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Allowance for Chargebacks, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Allowance for Refunds, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Tax-Related Revenues [Abstract]</t>
+  </si>
+  <si>
+    <t>Tax Collection Fees, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Community Wide Special Assessments, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Redemptions and Reconveyance, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from County Expense of Sale, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Commercial Forest Reserve, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Sub Marginal Land Act, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Tax Reverted Property, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Payment in Lieu of Taxes, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Property Tax Administration Fees, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Tax Revenues and Tax-Related Revenues, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Special Assessments Revenues [Abstract]</t>
+  </si>
+  <si>
+    <t>Revenues from Interest and Penalties on Special Assessments, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Special Assessments, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Business Licenses and Permits, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Non Business Licenses and Permits, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Cable Franchise Fees, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Licenses and Permits and Franchise Fees, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Federal Grants, General Government, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Federal Grants, Public Safety, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Federal Grants, Sanitation, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Federal Grants, Health and Hospital, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Federal Grants, Welfare, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Federal Grants, Culture and Recreation, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Federal Grants, Community Development Block Grant, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Federal Capital Grants, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Grants, Contributions and Donations from Federal Governmental Entities, Modified Accrual</t>
+  </si>
+  <si>
+    <t>State Grants, Public Safety, Modified Accrual</t>
+  </si>
+  <si>
+    <t>State Grants, Drunk Driving Case Flow Assistance, Modified Accrual</t>
+  </si>
+  <si>
+    <t>State Grants, Drug Case Information Management, Modified Accrual</t>
+  </si>
+  <si>
+    <t>State Grants, Highway and Streets, Modified Accrual</t>
+  </si>
+  <si>
+    <t>State Grants, Court Equity, Modified Accrual</t>
+  </si>
+  <si>
+    <t>State Grants, Sanitation, Modified Accrual</t>
+  </si>
+  <si>
+    <t>State Grants, Health, Modified Accrual</t>
+  </si>
+  <si>
+    <t>State Grants, Welfare, Modified Accrual</t>
+  </si>
+  <si>
+    <t>State Grants, Culture and Recreation Modified Accrual</t>
+  </si>
+  <si>
+    <t>State Grants, Crime Victims Rights, Modified Accrual</t>
+  </si>
+  <si>
+    <t>State Grants, Indigent Defense, Modified Accrual</t>
+  </si>
+  <si>
+    <t>State Grants, State Revenue Sharing, Modified Accrual</t>
+  </si>
+  <si>
+    <t>State Grants, Local Community Stabilization Share, Modified Accrual</t>
+  </si>
+  <si>
+    <t>State Grants, Survey and Remonumentation, Modified Accrual</t>
+  </si>
+  <si>
+    <t>State Grants, Special Election Reimbursement, Modified Accrual</t>
+  </si>
+  <si>
+    <t>State Capital Grants, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Grants, Contributions and Donations from State Governmental Entities, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Contributions from Local Units, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Charges for Services, Court Related Charges, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Charges for Services, Fees, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Charges for Services, Court Filing Fees, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Charges for Services, Jury Demand Fees, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Charges for Services, Writ of Garnishment, Restitution, Attachment or Execution, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Charges for Services, Attorney Fee Reimbursement, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Charges for Services, Guardian Ad Litem Reimbursement, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Charges for Services, Probation Oversight Fee, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Charges for Services, Estate Inventory Fee, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Charges for Services, Friend of the Court Statutory Handling Fee, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Charges for Services, Friend of the Court Service Fee, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Charges for Services, Miscellaneous Court Costs and Fees, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Charges for Services, Services Rendered, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Charges for Services, Building Inspection Fees, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Charges for Services, Ambulance Transport Fees, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Charges for Services, Title Search Fee, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Charges for Services, Pre Forfeiture Mailing Notice Cost, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Charges for Services, Sales, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Charges for Services, Use and Admission Fees, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Charges for Services, Parking Fees, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Charges for Services and Sales, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Fines, Forfeitures and Penalties [Abstract]</t>
+  </si>
+  <si>
+    <t>Revenues from Traffic Violations, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Ordinance Fines and Costs, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Statute Costs, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Bond Forfeitures and Bond Costs, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Fines and Forfeitures and Penalties, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Dividends, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Interest, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Interest and Dividends, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Use of Money and Property, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Interest and Rents, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Investment Gains (Losses), Modified Accrual</t>
+  </si>
+  <si>
+    <t>Lease Investment Income, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Investment Income and Rentals, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Royalties, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Rents, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Rents and Royalties, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Judicial [Abstract]</t>
+  </si>
+  <si>
+    <t>Revenues from Circuit Court, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from District And Municipal Court, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Judicial, Friend of the Court, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Law Library, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Probate Court, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Probation, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Judicial, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Financial and Tax Administration [Abstract]</t>
+  </si>
+  <si>
+    <t>Revenues from Clerk, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Information Technology, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Property Description, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Treasurer, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Delinquent Tax Property Sales, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Financial and Tax Administration, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Other General Government [Abstract]</t>
+  </si>
+  <si>
+    <t>Revenues from Retirement Board, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Building Authority, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Other General Government, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Public Works [Abstract]</t>
+  </si>
+  <si>
+    <t>Revenues from Department of Public Works, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Water and Sewer Systems, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Airport Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Transportation Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Public Works Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Health and Welfare [Abstract]</t>
+  </si>
+  <si>
+    <t>Revenues from Health Department, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Mosquito Control, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from State Institutions, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Ambulance and Emergency Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Child Care, Family Division of Circuit Court, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Child Care, Department of Human Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Department of Human Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Agency on Aging, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Health and Welfare, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Public Safety [Abstract]</t>
+  </si>
+  <si>
+    <t>Revenues from Public Safety, Police, Sheriff and Constable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Public Safety, Fire Department, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Animal Shelter, Dog Warden, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Public Safety Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Community and Economic Development [Abstract]</t>
+  </si>
+  <si>
+    <t>Revenues from Abstract Department, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Community And Economic Development Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Recreation and Culture [Abstract]</t>
+  </si>
+  <si>
+    <t>Revenues from Parks and Recreation Department, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Library, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Recreation and Culture, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Other Revenues [Abstract]</t>
+  </si>
+  <si>
+    <t>Grants, Contributions and Donations from Others, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Grants and Entitlements Restricted for Specific Programs, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Grants and Entitlements Not Restricted for Specific Programs, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues from Shared Revenue, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Private Contributions and Donations, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Cash Over or Short, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Refunds and Rebates, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Reimbursements, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Contributions from Primary Government, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Contributions to Permanent Fund, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Changes in Fair Value of Investments, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Recovery of Cost Incurred, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Other Revenues, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Revenues, Modified Accrual</t>
+  </si>
+  <si>
+    <t>TaxesNationalForestReserveModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromCommercialFacilitiesTaxModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromTrailerTaxModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromAccomodationsTaxModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromParkingOccupancyTaxModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromMealsTaxModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromIndustrialFacilitiesTaxModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromIncomeTaxModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromPropertyTaxModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromCurrentPropertyTaxesExtraOrSpecialVotedModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromCurrentPersonalPropertyTaxModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromDelinquentPersonalPropertyTaxModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromDelinquentRealPropertyTaxModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromSalesTaxModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromCityUtilityUsersTaxModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromSalesAndUseTaxModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromBusinessLicenseTaxModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromPropertyTransferTaxModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromDocumentsTransferTaxModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromTransferStampsTaxModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromVehiclesTaxModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromMarijuanaTaxModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromOtherTaxesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromTaxesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>AllowanceForChargebacksModifiedAccrual</t>
+  </si>
+  <si>
+    <t>AllowanceForRefundsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>TaxRelatedRevenuesAbstract</t>
+  </si>
+  <si>
+    <t>TaxCollectionFeesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromCommunityWideSpecialAssessmentsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RedemptionsAndReconveyanceModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromCountyExpenseOfSaleModifiedAccrual</t>
+  </si>
+  <si>
+    <t>CommercialForestReserveModifiedAccrual</t>
+  </si>
+  <si>
+    <t>SubMarginalLandActModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromTaxRevertedPropertyModifiedAccrual</t>
+  </si>
+  <si>
+    <t>PaymentInLieuOfTaxesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>PropertyTaxAdministrationFeesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>TaxRevenuesAndTaxRelatedRevenuesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>SpecialAssessmentsRevenuesAbstract</t>
+  </si>
+  <si>
+    <t>RevenueFromInterestAndPenaltiesOnSpecialAssessmentsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromSpecialAssessmentsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromBusinessLicensesAndPermitsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromNonBusinessLicensesAndPermitsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromCableFranchiseFeesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromLicensesAndPermitsAndFranchiseFeesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>FederalAidGrantsAndContributionsGeneralGovernmentModifiedAccrual</t>
+  </si>
+  <si>
+    <t>FederalAidGrantsAndContributionsPublicSafetyModifiedAccrual</t>
+  </si>
+  <si>
+    <t>FederalAidGrantsAndContributionsSanitationModifiedAccrual</t>
+  </si>
+  <si>
+    <t>FederalAidGrantsAndContributionsHealthAndHospitalModifiedAccrual</t>
+  </si>
+  <si>
+    <t>FederalAidGrantsAndContributionsWelfareModifiedAccrual</t>
+  </si>
+  <si>
+    <t>FederalAidGrantsAndContributionsCultureAndRecreationModifiedAccrual</t>
+  </si>
+  <si>
+    <t>FederalAidGrantsAndContributionsCDBGModifiedAccrual</t>
+  </si>
+  <si>
+    <t>FederalCapitalGrantsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>GrantsContributionsAndDonationsFromFederalGovernmentalEntitiesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>IntergovernmentalRevenueFromStatePublicSafetyModifiedAccrual</t>
+  </si>
+  <si>
+    <t>IntergovernmentalRevenueFromStateDrunkDrivingCaseFlowAssistanceModifiedAccrual</t>
+  </si>
+  <si>
+    <t>IntergovernmentalRevenueFromStateDrugCaseInformationManagementModifiedAccrual</t>
+  </si>
+  <si>
+    <t>IntergovernmentalRevenueFromStateStreetsAndHighwaysModifiedAccrual</t>
+  </si>
+  <si>
+    <t>IntergovernmentalRevenueFromStateCourtOfEquityModifiedAccrual</t>
+  </si>
+  <si>
+    <t>IntergovernmentalRevenueFromStateSanitationModifiedAccrual</t>
+  </si>
+  <si>
+    <t>IntergovernmentalRevenueFromStateHealthAndHospitalsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>IntergovernmentalRevenueFromStateWelfareModifiedAccrual</t>
+  </si>
+  <si>
+    <t>IntergovernmentalRevenueFromStateCultureAndRecreationModifiedAccrual</t>
+  </si>
+  <si>
+    <t>IntergovernmentalRevenueFromStateCrimeVictimsRightsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>IntergovernmentalRevenueFromStateIndigentDefenseModifiedAccrual</t>
+  </si>
+  <si>
+    <t>IntergovernmentalRevenueFromStateStateRevenueSharingModifiedAccrual</t>
+  </si>
+  <si>
+    <t>StateGrantsLocalCommunityStabilizationShareModifiedAccrual</t>
+  </si>
+  <si>
+    <t>IntergovernmentalRevenueFromStateSurveyAndRemonumentationModifiedAccrual</t>
+  </si>
+  <si>
+    <t>IntergovernmentalRevenueFromStateSpecialElectionReimbursementModifiedAccrual</t>
+  </si>
+  <si>
+    <t>StateCapitalGrantsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>GrantsContributionsAndDonationsFromStateGovernmentalEntitiesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ContributionsFromLocalUnitsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>CourtRelatedChargesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>FeesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>CourtFilingFeesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>JuryDemandFeesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>WritOfGarnishmentRestitutionAttachmentOrExecutionModifiedAccrual</t>
+  </si>
+  <si>
+    <t>AttorneyFeeReimbursementModifiedAccrual</t>
+  </si>
+  <si>
+    <t>GuardianAdLitemReimbursementModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ProbationOversightFeeModifiedAccrual</t>
+  </si>
+  <si>
+    <t>EstateInventoryFeeModifiedAccrual</t>
+  </si>
+  <si>
+    <t>FriendOfTheCourtStatutoryHandlingFeeModifiedAccrual</t>
+  </si>
+  <si>
+    <t>FriendOfTheCourtServiceFeeModifiedAccrual</t>
+  </si>
+  <si>
+    <t>MiscellaneousCourtCostsAndFeesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ServicesRenderedModifiedAccrual</t>
+  </si>
+  <si>
+    <t>BuildingInspectionFeesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>AmbulanceTransportFeesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>TitleSearchFeeModifiedAccrual</t>
+  </si>
+  <si>
+    <t>PreForfeitureMailingNoticeCostModifiedAccrual</t>
+  </si>
+  <si>
+    <t>SalesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>UseAndAdmissionFeesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ParkingFeesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ChargesForServicesAndSalesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>FinesForfeituresAndPenaltiesAbstract</t>
+  </si>
+  <si>
+    <t>RevenueFromFinesAndForfeituresTrafficViolationsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromFinesAndForfeituresOrdinanceFinesAndCostsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromFinesAndForfeituresStatuteCostsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromFinesAndForfeituresBondForfeituresAndBondCostsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromFinesAndForfeituresAndPenaltiesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>InvestmentIncomeAndRentalsAbstract</t>
+  </si>
+  <si>
+    <t>RevenuesFromDividendsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromInterestModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromInterestAndDividendsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromUseOfMoneyAndPropertyModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromInterestAndRentsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>InvestmentGainsLossesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>LeaseInvestmentIncomeModifiedAccrual</t>
+  </si>
+  <si>
+    <t>InvestmentIncomeAndRentalsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromRoyaltiesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromRentsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromRentsAndRoyaltiesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromJudicialAbstract</t>
+  </si>
+  <si>
+    <t>RevenuesFromJudicialCircuitCourtModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromJudicialDistrictAndMunicipalCourtModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromJudicialFriendOfTheCourtModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromJudicialLawLibraryModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromJudicialProbateCourtModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromJudicialProbationModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromJudicialActivitiesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromFinancialAndTaxAdministrationAbstract</t>
+  </si>
+  <si>
+    <t>RevenuesFromFinancialAndTaxAdministrationClerkModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromFinancialAndTaxAdministrationInformationTechnologyModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromFinancialAndTaxAdministrationPropertyDescriptionModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromFinancialAndTaxAdministrationTreasurerModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromFinancialAndTaxAdministrationDelinquentTaxPropertySalesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromFinancialAndTaxAdministrationModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromOtherGeneralGovernmentAbstract</t>
+  </si>
+  <si>
+    <t>RevenuesFromOtherGeneralGovernmentRetirementBoardModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromOtherGeneralGovernmentBuildingAuthorityModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromOtherGeneralGovernmentModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromPublicWorksAbstract</t>
+  </si>
+  <si>
+    <t>RevenuesFromDepartmentOfPublicWorksModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromPublicWorksWaterAndSewerSystemsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromPublicWorksAirportServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromPublicWorksTransportationServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromPublicWorksServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromHealthAndWelfareAbstract</t>
+  </si>
+  <si>
+    <t>RevenuesFromHealthAndWelfareHealthDepartmentModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromHealthAndWelfareMosquitoControlModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromStateInstitutionsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesForAmbulanceAndEmergencyModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromHealthAndWelfareChildCareFamilyDivisionOfCircuitCourtModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromHealthAndWelfareChildCareDepartmentOfHumanServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromHealthAndWelfareDepartmentOfHumanServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromHealthAndWelfareAgencyOnAgingModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromHealthAndWelfareModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromPublicSafetyAbstract</t>
+  </si>
+  <si>
+    <t>RevenueFromPublicSafetyPoliceSheriffAndConstableModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromPublicSafetyFireDepartmentModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromPublicSafetyAnimalShelterDogWardenModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromPublicSafetyServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromCommunityAndEconomicDevelopmentAbstract</t>
+  </si>
+  <si>
+    <t>RevenuesFromCommunityEconomicDevelopmentAbstractDepartmentModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromCommunityAndEconomicDevelopmentServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromRecreationAndCultureAbstract</t>
+  </si>
+  <si>
+    <t>RevenuesFromRecreationAndCultureParksAndRecreationDepartmentModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromRecreationAndCultureLibraryModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesFromRecreationAndCultureModifiedAccrual</t>
+  </si>
+  <si>
+    <t>OtherRevenuesAbstract</t>
+  </si>
+  <si>
+    <t>GrantsContributionsAndDonationsFromOthersModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromGrantsAndEntitlementsRestrictedForSpecificProgramsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromGrantsAndEntitlementsNotRestrictedForSpecificProgramsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenueFromSharedRevenueModifiedAccrual</t>
+  </si>
+  <si>
+    <t>PublicAndPrivateContributionsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>CashOverOrShortModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RefundsAndRebatesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ReimbursementsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ContributionsFromPrimaryGovernmentModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ContributionsToPermanentFundModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ChangesInFairValueOfInvestmentsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RecoveryOfCostIncurredModifiedAccrual</t>
+  </si>
+  <si>
+    <t>OtherRevenuesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>RevenuesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>Expenditures for General Government [Abstract]</t>
+  </si>
+  <si>
+    <t>Expenditures for General Government Services, Administration, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Legislative [Abstract]</t>
+  </si>
+  <si>
+    <t>Expenditures for Governing Body, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Legislative Committee, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Legislative, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Chief Executive [Abstract]</t>
+  </si>
+  <si>
+    <t>Expenditures for Chief Executive, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Chief Executive, Administrator, Manager, Superintendent, Controller, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenses for Chief Executive, Organization Unit</t>
+  </si>
+  <si>
+    <t>Expenditures for Financial and Tax Administration [Abstract]</t>
+  </si>
+  <si>
+    <t>Expenditures for Accounting Department, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Budget Department, Director, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Clerk, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Internal Audit, External Audit, Board of Auditors, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Information Technology, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Purchasing, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Property Description, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for County Survey and Remonumentation, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Board of Review, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Treasurer, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Delinquent Tax Property Sales, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Equalization Department, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Financial and Tax Administration, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Other General Government [Abstract]</t>
+  </si>
+  <si>
+    <t>Expenditures for Elections, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Building and Grounds, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Attorney, Corporation Counsel, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Civil Service, Merit System, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Human Resources Department, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Building Authority, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Retirement Board, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for General Government Services, Other, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for General Government Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Judicial [Abstract]</t>
+  </si>
+  <si>
+    <t>Expenditures for Trial Court, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Circuit Court, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for District And Municipal Court, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Friend of the Court, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Friend of the Court Cooperative Reimbursement Program, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Law Library, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Probate Court, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Probation, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Prosecuting Attorney, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Grand Jury, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Family Counseling Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Judicial Activities, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Public Safety [Abstract]</t>
+  </si>
+  <si>
+    <t>Expenditures for Police, Sheriff and Constable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Administration, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Crime Control and Investigation, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Traffic and Safety Program, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Training, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Communications, Dispatch, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Liquor Law Enforcement, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Marine Law Enforcement, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Snowmobile Law Enforcement, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Fire Department [Abstract]</t>
+  </si>
+  <si>
+    <t>Expenditures for Fire Department Administration, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Fire Fighting, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Fire Prevention, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Fire Training, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Fire Department Communication, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Fire Department, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Combined Public Safety Department, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Corrections Jail, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Juvenile Correctional Institute, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Corrections, Training, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Parole, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Building Inspections, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Emergency Management, Homeland Security, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Water Safety Council, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Animal Shelter, Dog Warden, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Security of Persons and Property Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Public Safety Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Public Works [Abstract]</t>
+  </si>
+  <si>
+    <t>Expenditures for Infrastructure, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Department of Public Works, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Drain Commissioner, Water Resource Commissioner, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Sidewalks, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Drains, Public Benefit, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Roads, Streets, Bridges, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Engineering and Engineering, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Street Lighting, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Road Commission, Street Department, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Sanitation Department, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Street Cleaning, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Sanitary Landfill, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Sewage Disposal, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Rubbish Collection, Disposal, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Water and Sewer Systems, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Cemetery, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Soil Conservation, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Watershed Council, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Lake Improvements, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Sanitary Sewer Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Storm Sewer Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Electricity and Power Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Airport Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Transportation Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Harbor, Marina, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Public Works Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Health and Welfare [Abstract]</t>
+  </si>
+  <si>
+    <t>Expenditures for Health Department, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Contagious Diseases, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Health Board, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Health Clinics, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Mosquito Control, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Pollution Control, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Alcoholism and Substance Abuse, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Hospital, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Medical Examiner, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Mental Health, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for State Institutions, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Emergency Services and Ambulance, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Child Care, Family Division of Circuit Court, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Child Care, Department of Human Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Department of Human Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Medical Care Facility, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Agency on Aging, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Veterans Burials, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Veterans Counselor, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Veterans Trust Board, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Veterans Relief, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Redevelopment And Housing, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Public Housing, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Community Action Program, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Community Development Block Grant, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Health and Welfare, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Public Health and Sanitation Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Community and Economic Development [Abstract]</t>
+  </si>
+  <si>
+    <t>Expenditures for Planning, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Zoning Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Cooperative Extension, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Register of Deeds, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Abstract Department, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Surveyor, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Economic Development, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Home Demolition, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Home Renovation, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Blight Removal, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Other Development Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Community Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Community And Economic Development Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Recreation and Culture [Abstract]</t>
+  </si>
+  <si>
+    <t>Expenditures for Parks and Recreation Department, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Parks Administration, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Parks Facilities, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Parks Supervision, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Parks Policing, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Parks Lighting, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Parks Maintenance, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Library, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Library Board, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Historical Society, Commission or Program, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Museum, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Cultural Activities, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Auditorium, Civic Center, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Convention Center Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Conservation Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Conservation, Recreation, Parks and Cultural Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Recreation and Culture, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Other [Abstract]</t>
+  </si>
+  <si>
+    <t>Cost of Issue of Bonds and Securities, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Public Schools Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Public Ways and Facilities Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Public Assistance Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Professional and Contractual Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Communications, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Community Promotion, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Repairs, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Refunds and Rebates, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Facilities Maintenance, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Project Costs, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Utilities, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Printing and Publishing, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Rentals, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Other Welfare Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Retirement Benefits to Retirees, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for State Trunkline Overhead, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Contributions to Other Governments, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Health Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Hospitalization, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Education Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Garage Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Jail Stores Commissary Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Contingency Services, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Inter Governmental Activities, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures for Capital Outlay, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Debt Service, Principal, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Debt Service, Interest and Other Charges, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Debt Service, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Depreciation Expense, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Depreciation, Depletion and Amortization Expense, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Other Expenditures, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Expenditures, Modified Accrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForGeneralGovernmentAbstract</t>
+  </si>
+  <si>
+    <t>ExpendituresForGeneralGovernmentServicesAdministrationModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForLegislativeAbstract</t>
+  </si>
+  <si>
+    <t>ExpendituresForLegislativeGoverningBodyModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForLegislativeCommitteeModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForGeneralGovernmentServicesLegislativeAndExecutiveModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForChiefExecutiveAbstract</t>
+  </si>
+  <si>
+    <t>ExpendituresForGeneralGovernmentServicesChiefExecutiveModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForChiefExecutiveAdministratorManagerSuperintendentControllerModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpensesForChiefExecutiveOrganizationUnit</t>
+  </si>
+  <si>
+    <t>ExpendituresForFinancialAndTaxAdministrationAbstract</t>
+  </si>
+  <si>
+    <t>ExpendituresForFinancialAndTaxAdministrationAccountingDepartmentModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForFinancialAndTaxAdministrationBudgetDepartmentDirectorModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForClerkModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForFinancialAndTaxAdministrationInternalAuditExternalAuditBoardOfAuditorsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForFinancialAndTaxAdministrationInformationTechnologyModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForFinancialAndTaxAdministrationPurchasingModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForFinancialAndTaxAdministrationPropertyDescriptionModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForFinancialAndTaxAdministrationCountySurveyAndRemonumentationModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForFinancialAndTaxAdministrationBoardOfReviewModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForGeneralGovernmentServicesTreasurerModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForFinancialAndTaxAdministrationDelinquentTaxPropertySalesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForGeneralGovernmentServicesAssessingEqualizationModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForGeneralGovernmentServicesFinanceAndTaxAdministrationModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForOtherGeneralGovernmentAbstract</t>
+  </si>
+  <si>
+    <t>ExpendituresForOtherGeneralGovernmentElectionsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForOtherGeneralGovernmentBuildingAndGroundsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForOtherGeneralGovernmentAttorneyCorporationCounselModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForOtherGeneralGovernmentCivilServiceMeritSystemModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForOtherGeneralGovernmentHumanResourcesDepartmentModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForOtherGeneralGovernmentBuildingAuthorityModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForOtherGeneralGovernmentRetirementBoardModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForGeneralGovernmentServicesOthersModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForGeneralGovernmentServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForJudicialAbstract</t>
+  </si>
+  <si>
+    <t>ExpendituresForJudicialTrialCourtModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForJudicialCircuitCourtModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForJudicialDistrictAndMunicipalCourtModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForJudicialFriendOfTheCourtModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForJudicialFriendOfTheCourtCooperativeReimbursementProgramModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForJudicialLawLibraryModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForJudicialProbateCourtModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForJudicialProbationModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForJudicialProsecutingAttorneyModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForJudicialGrandJuryModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForJudicialFamilyCounselingServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForJudicialActivitiesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicSafetyAbstract</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicSafetyPoliceSheriffAndConstableModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicSafetyAdministrationModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForCrimeControlAndInvestigationModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForTrafficAndSafetyProgramModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForTrainingModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForCommunicationsDispatchModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForLiquorLawEnforcementModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForMarineLawEnforcementModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForSnowmobileLawEnforcementModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForFireDepartmentAbstract</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicSafetyFireDepartmentAdministrationModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicSafetyFireFightingModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicSafetyFirePreventionModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicSafetyFireTrainingModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicSafetyFireDepartmentCommunicationModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicSafetyFireDepartmentModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicSafetyCombinedPublicSafetyDepartmentModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicSafetyCorrectionsJailModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicSafetyJuvenileCorrectionalInstituteModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForCorrectionsTrainingModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicSafetyParoleModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicSafetyBuildingInspectionsActivitiesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicSafetyEmergencyManagementHomelandSecurityModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicSafetyWaterSafetyCouncilModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicSafetyAnimalShelterDogWardenModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForSecurityOfPersonsAndPropertyServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicSafetyServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicWorksAbstract</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicWorksInfrastructureModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicWorksDepartmentOfPublicWorksModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicWorksDrainCommissionerWaterResourceCommissionerModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicWorksSidewalksModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicWorksDrainsPublicBenefitModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicWorksRoadsStreetsBridgesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicWorksEngineeringModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicWorksStreetLightingModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicWorksRoadCommissionStreetDepartmentModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicWorksSanitationDepartmentModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicWorksStreetCleaningModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicWorksSanitaryLandfillModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicWorksSewageDisposalModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicWorksRubbishCollectionDisposalModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicWorksWaterAndSewerSystemsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicWorksCemeteryModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicWorksSoilConservationModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicWorksWatershedCouncilModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicWorksLakeImprovementsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForSanitarySewerServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForStormSewerServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForElectricityAndPowerServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForAirportServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForTransportationServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHarborMarinaModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicWorksServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareAbstract</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareHealthDepartmentModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareContagiousDiseasesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareHealthBoardModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareHealthClinicsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareMosquitoControlModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfarePollutionControlModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareAlcoholismAndSubstanceAbuseModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareHospitalModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareMedicalExaminerModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareMentalHealthModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareStateInstitutionsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareEmergencyServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareChildCareModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareChildCareDepartmentOfHumanServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareHumanServicesMedicalCareModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareMedicalCareFacilityModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareAreaAgencyOnAgingModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareVeteransBurialsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareVeteransCounselorModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareVeteransTrustBoardModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareVeteransReliefModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareRedevelopmentAndHousingModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfarePublicHousingModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareCommunityActionProgramModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareCommunityDevelopmentBlockGrantModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthAndWelfareModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicHealthAndSanitationServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForCommunityAndEconomicDevelopmentAbstract</t>
+  </si>
+  <si>
+    <t>ExpendituresForCommunityEconomicDevelopmentPlanningModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForCommunityEconomicDevelopmentZoningModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForCommunityEconomicDevelopmentCooperativeExtensionModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForCommunityEconomicDevelopmentRegisterOfDeedsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForCommunityEconomicDevelopmentAbstractDepartmentModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForCommunityEconomicDevelopmentSurveyorModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForEconomicDevelopmentServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForCommunityEconomicDevelopmentHomeDemolitionModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForCommunityEconomicDevelopmentHomeRenovationModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForCommunityEconomicDevelopmentBlightRemovalModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForOtherDevelopmentServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForCommunityServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForCommunityAndEconomicDevelopmentServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForRecreationAndCultureAbstract</t>
+  </si>
+  <si>
+    <t>ExpendituresForRecreationAndCultureParksAndRecreationModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForRecreationAndCultureParksAdministrationModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForRecreationAndCultureParksFacilitiesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForRecreationAndCultureParksSupervisionModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForRecreationAndCultureParksPolicingModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForRecreationAndCultureParksLightingModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForRecreationAndCultureParksMaintenanceModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForLibraryServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForRecreationAndCultureLibraryBoardModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForRecreationAndCultureHistoricalSocietyCommissionOrProgramModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForRecreationAndCultureMuseumModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForRecreationAndCultureCulturalActivitiesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForRecreationAndCultureAuditoriumCivicCenterModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForConventionCenterServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForConservationServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForConservationRecreationParksAndCulturalServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForRecreationAndCultureModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForOtherAbstract</t>
+  </si>
+  <si>
+    <t>CostOfIssueOfBondsAndSecuritiesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicSchoolsServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicWaysAndFacilitiesServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPublicAssistanceServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForProfessionalAndContractualServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForCommunicationsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForCommunityPromotionModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForRepairsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForRefundsAndRebatesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForFacilitiesMaintenanceModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForProjectCostsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForUtilitiesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForPrintingAndPublishingModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForRentalsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForOtherWelfareServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForRetirementBenefitsToRetireesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForStateTrunklineOverheadModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForContributionsToOtherGovernmentsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHealthServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForHospitalizationModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForEducationServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForGarageServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForJailStoresCommissaryServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForContingencyServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForInterGovernmentalActivitiesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresForCapitalOutlayModifiedAccrual</t>
+  </si>
+  <si>
+    <t>DebtServicePrincipalRepaymentModifiedAccrual</t>
+  </si>
+  <si>
+    <t>DebtServiceInterestAndFiscalChargesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>DebtServiceModifiedAccrual</t>
+  </si>
+  <si>
+    <t>DepreciationExpenseModifiedAccrual</t>
+  </si>
+  <si>
+    <t>DepreciationDepletionAndAmortizationExpenseModifiedAccrual</t>
+  </si>
+  <si>
+    <t>OtherExpendituresModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExpendituresModifiedAccrual</t>
+  </si>
+  <si>
+    <t>ExcessDeficiencyOfRevenuesOverUnderExpenditures</t>
+  </si>
+  <si>
+    <t>Revenues [Abstract]</t>
+  </si>
+  <si>
+    <t>RevenuesAbstract</t>
+  </si>
+  <si>
+    <t>Expenditures [Abstract]</t>
+  </si>
+  <si>
+    <t>ExpendituresAbstract</t>
+  </si>
+  <si>
+    <t>OtherFinancingSourcesUsesAbstract</t>
+  </si>
+  <si>
+    <t>ProceedsFromBondAndNoteIssuanceModifiedAccrual</t>
+  </si>
+  <si>
+    <t>PremiumOnIssuanceOfLongTermDebtModifiedAccrual</t>
+  </si>
+  <si>
+    <t>BondOrInsuranceRecoveriesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>PaymentsToRefundedBondEscrowAgentModifiedAccrual</t>
+  </si>
+  <si>
+    <t>DiscountsOnBondsOrNotesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>SaleOfCapitalAssetsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>TransfersOutModifiedAccrual</t>
+  </si>
+  <si>
+    <t>TransfersInModifiedAccrual</t>
+  </si>
+  <si>
+    <t>OtherFinancingSourcesLeaseFinancingModifiedAccrual</t>
+  </si>
+  <si>
+    <t>AdditionalOtherFinancingSourcesUses</t>
+  </si>
+  <si>
+    <t>OtherFinancingSourcesUses</t>
+  </si>
+  <si>
+    <t>Other Financing Sources (Uses) [Abstract]</t>
+  </si>
+  <si>
+    <t>Proceeds from Bond and Note Issuance, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Premium on Issuance of Long Term Debt, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Bond or Insurance Recoveries, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Payments to Refunded Bond Escrow Agent, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Discounts on Bonds or Notes, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Sale of Capital Assets, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Transfers Out, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Transfers In, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Other Financing Sources, Lease Financing, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Additional Other Financing Sources (Uses)</t>
+  </si>
+  <si>
+    <t>Other Financing Sources (Uses)</t>
   </si>
 </sst>
 </file>
@@ -9427,7 +11739,7 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9860,6 +12172,8 @@
     <xf numFmtId="44" fontId="1" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -19174,8 +21488,8 @@
   </sheetPr>
   <dimension ref="A1:G616"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -34786,14 +37100,168 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C1090A-A3A8-5745-801D-C4B46E858924}">
+  <sheetPr>
+    <tabColor theme="6"/>
+  </sheetPr>
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="31" style="133" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" style="133" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="133"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17">
+      <c r="A1" s="87" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1" s="173" t="str">
+        <f>_xlfn.CONCAT('[1]Master Info'!C2, ", ", '[1]Master Info'!$C$3)</f>
+        <v>City of Clayton, California</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
+      <c r="A2" s="92" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B2" s="134" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="92" customHeight="1">
+      <c r="A3" s="92" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B3" s="134" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17" thickBot="1">
+      <c r="A4" s="94" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B4" s="174" t="str">
+        <f>_xlfn.CONCAT("For the year ended ", TEXT('Master Info'!C4, "mmmm dd, yyyy"))</f>
+        <v>For the year ended June 30, 2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="32">
+      <c r="A6" s="199" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B6" s="200">
+        <f>'GovFund Balance Sheet'!J59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="198"/>
+      <c r="B7" s="198"/>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" s="175" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B8" s="175"/>
+    </row>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="176"/>
+      <c r="B9" s="176"/>
+    </row>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="176"/>
+      <c r="B10" s="176"/>
+    </row>
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="176"/>
+      <c r="B11" s="176"/>
+    </row>
+    <row r="12" spans="1:2" ht="15">
+      <c r="A12" s="176"/>
+      <c r="B12" s="176"/>
+    </row>
+    <row r="13" spans="1:2" ht="15">
+      <c r="A13" s="176"/>
+      <c r="B13" s="176"/>
+    </row>
+    <row r="14" spans="1:2" ht="16">
+      <c r="A14" s="175" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B14" s="175"/>
+    </row>
+    <row r="15" spans="1:2" ht="15">
+      <c r="A15" s="176"/>
+      <c r="B15" s="176"/>
+    </row>
+    <row r="16" spans="1:2" ht="15">
+      <c r="A16" s="176"/>
+      <c r="B16" s="176"/>
+    </row>
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="176"/>
+      <c r="B17" s="176"/>
+    </row>
+    <row r="18" spans="1:2" ht="15">
+      <c r="A18" s="176"/>
+      <c r="B18" s="176"/>
+    </row>
+    <row r="19" spans="1:2" ht="15">
+      <c r="A19" s="176"/>
+      <c r="B19" s="176"/>
+    </row>
+    <row r="20" spans="1:2" ht="32">
+      <c r="A20" s="175" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B20" s="175"/>
+    </row>
+    <row r="21" spans="1:2" ht="15">
+      <c r="A21" s="176"/>
+      <c r="B21" s="176"/>
+    </row>
+    <row r="22" spans="1:2" ht="15">
+      <c r="A22" s="176"/>
+      <c r="B22" s="176"/>
+    </row>
+    <row r="23" spans="1:2" ht="15">
+      <c r="A23" s="176"/>
+      <c r="B23" s="176"/>
+    </row>
+    <row r="24" spans="1:2" ht="15">
+      <c r="A24" s="176"/>
+      <c r="B24" s="176"/>
+    </row>
+    <row r="25" spans="1:2" ht="15">
+      <c r="A25" s="176"/>
+      <c r="B25" s="176"/>
+    </row>
+    <row r="26" spans="1:2" ht="48">
+      <c r="A26" s="202" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B26" s="201"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A741F4-D4C9-9A45-AFFB-14EF6B58F69B}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:XFD64"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -34952,7 +37420,7 @@
     </row>
     <row r="9" spans="1:10" ht="15">
       <c r="A9" s="6" t="str">
-        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B9" s="16"/>
@@ -34970,7 +37438,7 @@
     </row>
     <row r="10" spans="1:10" ht="15">
       <c r="A10" s="6" t="str">
-        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B10" s="16"/>
@@ -34988,7 +37456,7 @@
     </row>
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="6" t="str">
-        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B11" s="16"/>
@@ -35006,7 +37474,7 @@
     </row>
     <row r="12" spans="1:10" ht="15">
       <c r="A12" s="6" t="str">
-        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B12" s="16"/>
@@ -35024,7 +37492,7 @@
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="6" t="str">
-        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B13" s="16"/>
@@ -35042,7 +37510,7 @@
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="6" t="str">
-        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B14" s="16"/>
@@ -35060,7 +37528,7 @@
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="6" t="str">
-        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B15" s="16"/>
@@ -35078,7 +37546,7 @@
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="6" t="str">
-        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B16" s="16"/>
@@ -35096,7 +37564,7 @@
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="6" t="str">
-        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B17" s="16"/>
@@ -35114,7 +37582,7 @@
     </row>
     <row r="18" spans="1:10" ht="15" hidden="1">
       <c r="A18" s="6" t="str">
-        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B18" s="16"/>
@@ -35132,7 +37600,7 @@
     </row>
     <row r="19" spans="1:10" ht="15" hidden="1">
       <c r="A19" s="6" t="str">
-        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B19" s="16"/>
@@ -35150,7 +37618,7 @@
     </row>
     <row r="20" spans="1:10" ht="15" hidden="1">
       <c r="A20" s="6" t="str">
-        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B20" s="16"/>
@@ -35168,7 +37636,7 @@
     </row>
     <row r="21" spans="1:10" ht="15" hidden="1">
       <c r="A21" s="6" t="str">
-        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B21" s="16"/>
@@ -35186,7 +37654,7 @@
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="6" t="str">
-        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B22" s="16"/>
@@ -35258,7 +37726,7 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="6" t="str">
-        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B26" s="16"/>
@@ -35276,7 +37744,7 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="6" t="str">
-        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B27" s="16"/>
@@ -35294,7 +37762,7 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="6" t="str">
-        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B28" s="16"/>
@@ -35312,7 +37780,7 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="6" t="str">
-        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B29" s="16"/>
@@ -35330,7 +37798,7 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="6" t="str">
-        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B30" s="16"/>
@@ -35348,7 +37816,7 @@
     </row>
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="6" t="str">
-        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B31" s="16"/>
@@ -35366,7 +37834,7 @@
     </row>
     <row r="32" spans="1:10" ht="15">
       <c r="A32" s="6" t="str">
-        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B32" s="16"/>
@@ -35384,7 +37852,7 @@
     </row>
     <row r="33" spans="1:10" ht="15">
       <c r="A33" s="6" t="str">
-        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B33" s="16"/>
@@ -35402,7 +37870,7 @@
     </row>
     <row r="34" spans="1:10" ht="15">
       <c r="A34" s="6" t="str">
-        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B34" s="16"/>
@@ -35526,7 +37994,7 @@
     </row>
     <row r="39" spans="1:10" ht="15">
       <c r="A39" s="6" t="str">
-        <f>IF(B39="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B39,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B39="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B39,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B39" s="16"/>
@@ -35544,7 +38012,7 @@
     </row>
     <row r="40" spans="1:10" ht="15">
       <c r="A40" s="6" t="str">
-        <f>IF(B40="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B40,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B40="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B40,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B40" s="16"/>
@@ -35562,7 +38030,7 @@
     </row>
     <row r="41" spans="1:10" ht="15">
       <c r="A41" s="6" t="str">
-        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B41,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B41,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B41" s="16"/>
@@ -35580,7 +38048,7 @@
     </row>
     <row r="42" spans="1:10" ht="16" customHeight="1">
       <c r="A42" s="6" t="str">
-        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B42" s="16"/>
@@ -35598,7 +38066,7 @@
     </row>
     <row r="43" spans="1:10" ht="16" customHeight="1">
       <c r="A43" s="6" t="str">
-        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B43" s="16"/>
@@ -35616,7 +38084,7 @@
     </row>
     <row r="44" spans="1:10" ht="16" customHeight="1">
       <c r="A44" s="6" t="str">
-        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B44" s="16"/>
@@ -35634,7 +38102,7 @@
     </row>
     <row r="45" spans="1:10" ht="16" hidden="1" customHeight="1">
       <c r="A45" s="6" t="str">
-        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B45" s="16"/>
@@ -35652,7 +38120,7 @@
     </row>
     <row r="46" spans="1:10" ht="16" hidden="1" customHeight="1">
       <c r="A46" s="6" t="str">
-        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B46" s="16"/>
@@ -35670,7 +38138,7 @@
     </row>
     <row r="47" spans="1:10" ht="15" hidden="1">
       <c r="A47" s="6" t="str">
-        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B47" s="16"/>
@@ -35688,7 +38156,7 @@
     </row>
     <row r="48" spans="1:10" ht="15" hidden="1">
       <c r="A48" s="6" t="str">
-        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B48" s="16"/>
@@ -35706,7 +38174,7 @@
     </row>
     <row r="49" spans="1:10" ht="15" hidden="1">
       <c r="A49" s="6" t="str">
-        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B49" s="16"/>
@@ -35724,7 +38192,7 @@
     </row>
     <row r="50" spans="1:10" ht="15">
       <c r="A50" s="6" t="str">
-        <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B50" s="16"/>
@@ -35742,7 +38210,7 @@
     </row>
     <row r="51" spans="1:10" ht="15">
       <c r="A51" s="6" t="str">
-        <f>IF(B51="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B51,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B51="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B51,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B51" s="16"/>
@@ -35760,7 +38228,7 @@
     </row>
     <row r="52" spans="1:10" ht="15">
       <c r="A52" s="6" t="str">
-        <f>IF(B52="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B52,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B52="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B52,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B52" s="16"/>
@@ -35778,7 +38246,7 @@
     </row>
     <row r="53" spans="1:10" ht="15">
       <c r="A53" s="6" t="str">
-        <f>IF(B53="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B53,'Lookup Net Position'!$B$2:$B$522,'Lookup Net Position'!$C$2:$C$522))</f>
+        <f>IF(B53="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B53,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$395,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$395))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B53" s="16"/>
@@ -35936,31 +38404,31 @@
         <v>0</v>
       </c>
       <c r="D60" s="22">
-        <f ca="1">D64-D63</f>
+        <f t="shared" ref="D60:J60" ca="1" si="8">D64-D63</f>
         <v>0</v>
       </c>
       <c r="E60" s="22">
-        <f ca="1">E64-E63</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="F60" s="22">
-        <f ca="1">F64-F63</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G60" s="22">
-        <f ca="1">G64-G63</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="H60" s="22">
-        <f ca="1">H64-H63</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="I60" s="22">
-        <f ca="1">I64-I63</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="J60" s="22">
-        <f ca="1">J64-J63</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -36005,7 +38473,7 @@
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
       <c r="J63" s="51">
-        <f t="shared" ref="J63:J69" si="8">SUM(C63:I63)</f>
+        <f t="shared" ref="J63:J69" si="9">SUM(C63:I63)</f>
         <v>0</v>
       </c>
     </row>
@@ -36021,31 +38489,31 @@
         <v>0</v>
       </c>
       <c r="D64" s="229">
-        <f t="shared" ref="D64:I64" ca="1" si="9">D60+D63</f>
+        <f t="shared" ref="D64:I64" ca="1" si="10">D60+D63</f>
         <v>0</v>
       </c>
       <c r="E64" s="229">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="229">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="229">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="229">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="229">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="51">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F64" s="229">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="229">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="229">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="229">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="51">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -36063,7 +38531,7 @@
       <c r="H65" s="18"/>
       <c r="I65" s="18"/>
       <c r="J65" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -36081,7 +38549,7 @@
       <c r="H66" s="18"/>
       <c r="I66" s="18"/>
       <c r="J66" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -36099,7 +38567,7 @@
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
       <c r="J67" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -36117,7 +38585,7 @@
       <c r="H68" s="18"/>
       <c r="I68" s="18"/>
       <c r="J68" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -36135,7 +38603,7 @@
       <c r="H69" s="18"/>
       <c r="I69" s="18"/>
       <c r="J69" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -36154,23 +38622,14 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="D7:I7 D8:J23 C23 D25:J35 C35 C36:J36 C59:J60 D71:J71 D37:J63 D65:J69 J64">
+  <conditionalFormatting sqref="D7:I7 D8:J23 C23 D25:J35 C35 C36:J36 D37:J63 C59:J60 J64 D65:J69 D71:J71">
     <cfRule type="expression" dxfId="31" priority="17" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B22" xr:uid="{01544FF9-537B-8F47-BAD2-6BA555B7160B}">
-      <formula1>current_assets</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50:B58" xr:uid="{25D64AF8-C7A3-8141-9C6A-2B0B8C26B31A}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54:B58" xr:uid="{25D64AF8-C7A3-8141-9C6A-2B0B8C26B31A}">
       <formula1>noncurrent_liabilities</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39:B49" xr:uid="{3B440D9A-91E0-2247-B270-4B96A0905DFE}">
-      <formula1>current_liabilities</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26:B34" xr:uid="{D4D1AB10-08C4-B544-9EDE-7CF75EB31E07}">
-      <formula1>deferred_outflows</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{6A429986-25B6-4244-AD8C-D62A4DC205CC}">
       <formula1>"General Fund, Special Revenue Fund, Capital Project, Debt Service, Other"</formula1>
@@ -36184,10 +38643,6381 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{01544FF9-537B-8F47-BAD2-6BA555B7160B}">
+          <x14:formula1>
+            <xm:f>'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$160</xm:f>
+          </x14:formula1>
+          <xm:sqref>B9:B22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D4D1AB10-08C4-B544-9EDE-7CF75EB31E07}">
+          <x14:formula1>
+            <xm:f>'Lookup GovFund Stmt Rev Exp Ch'!$B$172:$B$355</xm:f>
+          </x14:formula1>
+          <xm:sqref>B26:B34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C93DFAB6-EE30-6F40-B82C-3A9FB7CAB85D}">
+          <x14:formula1>
+            <xm:f>'Lookup GovFund Stmt Rev Exp Ch'!$B$161:$B$171</xm:f>
+          </x14:formula1>
+          <xm:sqref>B39:B53</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459D93E4-E99B-404D-A52D-B8F2C31B2BF2}">
+  <sheetPr>
+    <tabColor theme="6"/>
+  </sheetPr>
+  <dimension ref="A1:E395"/>
+  <sheetViews>
+    <sheetView topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="H408" sqref="H408"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" customWidth="1"/>
+    <col min="3" max="3" width="61.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="131" customFormat="1">
+      <c r="A1" s="130" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B1" s="130" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C1" s="130" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D1" s="130" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="130"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="230" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B2" s="230" t="s">
+        <v>2903</v>
+      </c>
+      <c r="C2" s="231" t="str">
+        <f>"acfr:"&amp;A2</f>
+        <v>acfr:TaxesNationalForestReserveModifiedAccrual</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>IF(RIGHT(A2, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="230" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B3" s="230" t="s">
+        <v>2904</v>
+      </c>
+      <c r="C3" s="231" t="str">
+        <f>"acfr:"&amp;A3</f>
+        <v>acfr:RevenueFromCommercialFacilitiesTaxModifiedAccrual</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>IF(RIGHT(A3, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="230" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B4" s="230" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C4" s="231" t="str">
+        <f>"acfr:"&amp;A4</f>
+        <v>acfr:RevenueFromTrailerTaxModifiedAccrual</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>IF(RIGHT(A4, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="230" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B5" s="230" t="s">
+        <v>2906</v>
+      </c>
+      <c r="C5" s="231" t="str">
+        <f>"acfr:"&amp;A5</f>
+        <v>acfr:RevenueFromAccomodationsTaxModifiedAccrual</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>IF(RIGHT(A5, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="230" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B6" s="230" t="s">
+        <v>2907</v>
+      </c>
+      <c r="C6" s="231" t="str">
+        <f>"acfr:"&amp;A6</f>
+        <v>acfr:RevenueFromParkingOccupancyTaxModifiedAccrual</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>IF(RIGHT(A6, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="230" t="s">
+        <v>3079</v>
+      </c>
+      <c r="B7" s="230" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C7" s="231" t="str">
+        <f>"acfr:"&amp;A7</f>
+        <v>acfr:RevenueFromMealsTaxModifiedAccrual</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>IF(RIGHT(A7, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="230" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B8" s="230" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C8" s="231" t="str">
+        <f>"acfr:"&amp;A8</f>
+        <v>acfr:RevenueFromIndustrialFacilitiesTaxModifiedAccrual</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>IF(RIGHT(A8, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="230" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B9" s="230" t="s">
+        <v>2910</v>
+      </c>
+      <c r="C9" s="231" t="str">
+        <f>"acfr:"&amp;A9</f>
+        <v>acfr:RevenueFromIncomeTaxModifiedAccrual</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>IF(RIGHT(A9, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="230" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B10" s="230" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C10" s="231" t="str">
+        <f>"acfr:"&amp;A10</f>
+        <v>acfr:RevenueFromPropertyTaxModifiedAccrual</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>IF(RIGHT(A10, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="230" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B11" s="230" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C11" s="231" t="str">
+        <f>"acfr:"&amp;A11</f>
+        <v>acfr:RevenueFromCurrentPropertyTaxesExtraOrSpecialVotedModifiedAccrual</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>IF(RIGHT(A11, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="230" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B12" s="230" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C12" s="231" t="str">
+        <f>"acfr:"&amp;A12</f>
+        <v>acfr:RevenueFromCurrentPersonalPropertyTaxModifiedAccrual</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>IF(RIGHT(A12, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="230" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B13" s="230" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C13" s="231" t="str">
+        <f>"acfr:"&amp;A13</f>
+        <v>acfr:RevenueFromDelinquentPersonalPropertyTaxModifiedAccrual</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>IF(RIGHT(A13, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="230" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B14" s="230" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C14" s="231" t="str">
+        <f>"acfr:"&amp;A14</f>
+        <v>acfr:RevenueFromDelinquentRealPropertyTaxModifiedAccrual</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>IF(RIGHT(A14, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="230" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B15" s="230" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C15" s="231" t="str">
+        <f>"acfr:"&amp;A15</f>
+        <v>acfr:RevenueFromSalesTaxModifiedAccrual</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f>IF(RIGHT(A15, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="230" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B16" s="230" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C16" s="231" t="str">
+        <f>"acfr:"&amp;A16</f>
+        <v>acfr:RevenueFromCityUtilityUsersTaxModifiedAccrual</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>IF(RIGHT(A16, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="230" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B17" s="230" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C17" s="231" t="str">
+        <f>"acfr:"&amp;A17</f>
+        <v>acfr:RevenueFromSalesAndUseTaxModifiedAccrual</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f>IF(RIGHT(A17, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="230" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B18" s="230" t="s">
+        <v>2919</v>
+      </c>
+      <c r="C18" s="231" t="str">
+        <f>"acfr:"&amp;A18</f>
+        <v>acfr:RevenueFromBusinessLicenseTaxModifiedAccrual</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f>IF(RIGHT(A18, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="230" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B19" s="230" t="s">
+        <v>2920</v>
+      </c>
+      <c r="C19" s="231" t="str">
+        <f>"acfr:"&amp;A19</f>
+        <v>acfr:RevenueFromPropertyTransferTaxModifiedAccrual</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f>IF(RIGHT(A19, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="230" t="s">
+        <v>3092</v>
+      </c>
+      <c r="B20" s="230" t="s">
+        <v>2921</v>
+      </c>
+      <c r="C20" s="231" t="str">
+        <f>"acfr:"&amp;A20</f>
+        <v>acfr:RevenueFromDocumentsTransferTaxModifiedAccrual</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f>IF(RIGHT(A20, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="230" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B21" s="230" t="s">
+        <v>2922</v>
+      </c>
+      <c r="C21" s="231" t="str">
+        <f>"acfr:"&amp;A21</f>
+        <v>acfr:RevenueFromTransferStampsTaxModifiedAccrual</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f>IF(RIGHT(A21, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="230" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B22" s="230" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C22" s="231" t="str">
+        <f>"acfr:"&amp;A22</f>
+        <v>acfr:RevenueFromVehiclesTaxModifiedAccrual</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f>IF(RIGHT(A22, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="230" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B23" s="230" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C23" s="231" t="str">
+        <f>"acfr:"&amp;A23</f>
+        <v>acfr:RevenueFromMarijuanaTaxModifiedAccrual</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f>IF(RIGHT(A23, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="230" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B24" s="230" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C24" s="231" t="str">
+        <f>"acfr:"&amp;A24</f>
+        <v>acfr:RevenueFromOtherTaxesModifiedAccrual</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f>IF(RIGHT(A24, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="230" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B25" s="230" t="s">
+        <v>2926</v>
+      </c>
+      <c r="C25" s="231" t="str">
+        <f>"acfr:"&amp;A25</f>
+        <v>acfr:RevenueFromTaxesModifiedAccrual</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f>IF(RIGHT(A25, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="230" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B26" s="230" t="s">
+        <v>2927</v>
+      </c>
+      <c r="C26" s="231" t="str">
+        <f>"acfr:"&amp;A26</f>
+        <v>acfr:AllowanceForChargebacksModifiedAccrual</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f>IF(RIGHT(A26, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="230" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B27" s="230" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C27" s="231" t="str">
+        <f>"acfr:"&amp;A27</f>
+        <v>acfr:AllowanceForRefundsModifiedAccrual</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f>IF(RIGHT(A27, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="230" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B28" s="230" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C28" s="231" t="str">
+        <f>"acfr:"&amp;A28</f>
+        <v>acfr:TaxCollectionFeesModifiedAccrual</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f>IF(RIGHT(A28, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="230" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B29" s="230" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C29" s="231" t="str">
+        <f>"acfr:"&amp;A29</f>
+        <v>acfr:RevenueFromCommunityWideSpecialAssessmentsModifiedAccrual</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f>IF(RIGHT(A29, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="230" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B30" s="230" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C30" s="231" t="str">
+        <f>"acfr:"&amp;A30</f>
+        <v>acfr:RedemptionsAndReconveyanceModifiedAccrual</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f>IF(RIGHT(A30, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="230" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B31" s="230" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C31" s="231" t="str">
+        <f>"acfr:"&amp;A31</f>
+        <v>acfr:RevenueFromCountyExpenseOfSaleModifiedAccrual</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f>IF(RIGHT(A31, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="230" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B32" s="230" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C32" s="231" t="str">
+        <f>"acfr:"&amp;A32</f>
+        <v>acfr:CommercialForestReserveModifiedAccrual</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f>IF(RIGHT(A32, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="230" t="s">
+        <v>3106</v>
+      </c>
+      <c r="B33" s="230" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C33" s="231" t="str">
+        <f>"acfr:"&amp;A33</f>
+        <v>acfr:SubMarginalLandActModifiedAccrual</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f>IF(RIGHT(A33, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="230" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B34" s="230" t="s">
+        <v>2936</v>
+      </c>
+      <c r="C34" s="231" t="str">
+        <f>"acfr:"&amp;A34</f>
+        <v>acfr:RevenueFromTaxRevertedPropertyModifiedAccrual</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f>IF(RIGHT(A34, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="230" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B35" s="230" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C35" s="231" t="str">
+        <f>"acfr:"&amp;A35</f>
+        <v>acfr:PaymentInLieuOfTaxesModifiedAccrual</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f>IF(RIGHT(A35, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="230" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B36" s="230" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C36" s="231" t="str">
+        <f>"acfr:"&amp;A36</f>
+        <v>acfr:PropertyTaxAdministrationFeesModifiedAccrual</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f>IF(RIGHT(A36, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="230" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B37" s="230" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C37" s="231" t="str">
+        <f>"acfr:"&amp;A37</f>
+        <v>acfr:TaxRevenuesAndTaxRelatedRevenuesModifiedAccrual</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f>IF(RIGHT(A37, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="230" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B38" s="230" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C38" s="231" t="str">
+        <f>"acfr:"&amp;A38</f>
+        <v>acfr:RevenueFromInterestAndPenaltiesOnSpecialAssessmentsModifiedAccrual</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f>IF(RIGHT(A38, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="230" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B39" s="230" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C39" s="231" t="str">
+        <f>"acfr:"&amp;A39</f>
+        <v>acfr:RevenueFromSpecialAssessmentsModifiedAccrual</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f>IF(RIGHT(A39, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="230" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B40" s="230" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C40" s="231" t="str">
+        <f>"acfr:"&amp;A40</f>
+        <v>acfr:RevenueFromBusinessLicensesAndPermitsModifiedAccrual</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f>IF(RIGHT(A40, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="230" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B41" s="230" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C41" s="231" t="str">
+        <f>"acfr:"&amp;A41</f>
+        <v>acfr:RevenueFromNonBusinessLicensesAndPermitsModifiedAccrual</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f>IF(RIGHT(A41, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="230" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B42" s="230" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C42" s="231" t="str">
+        <f>"acfr:"&amp;A42</f>
+        <v>acfr:RevenueFromCableFranchiseFeesModifiedAccrual</v>
+      </c>
+      <c r="D42" s="2" t="str">
+        <f>IF(RIGHT(A42, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="230" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B43" s="230" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C43" s="231" t="str">
+        <f>"acfr:"&amp;A43</f>
+        <v>acfr:RevenueFromLicensesAndPermitsAndFranchiseFeesModifiedAccrual</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f>IF(RIGHT(A43, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="230" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B44" s="230" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C44" s="231" t="str">
+        <f>"acfr:"&amp;A44</f>
+        <v>acfr:FederalAidGrantsAndContributionsGeneralGovernmentModifiedAccrual</v>
+      </c>
+      <c r="D44" s="2" t="str">
+        <f>IF(RIGHT(A44, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="230" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B45" s="230" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C45" s="231" t="str">
+        <f>"acfr:"&amp;A45</f>
+        <v>acfr:FederalAidGrantsAndContributionsPublicSafetyModifiedAccrual</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f>IF(RIGHT(A45, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="230" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B46" s="230" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C46" s="231" t="str">
+        <f>"acfr:"&amp;A46</f>
+        <v>acfr:FederalAidGrantsAndContributionsSanitationModifiedAccrual</v>
+      </c>
+      <c r="D46" s="2" t="str">
+        <f>IF(RIGHT(A46, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="230" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B47" s="230" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C47" s="231" t="str">
+        <f>"acfr:"&amp;A47</f>
+        <v>acfr:FederalAidGrantsAndContributionsHealthAndHospitalModifiedAccrual</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <f>IF(RIGHT(A47, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="230" t="s">
+        <v>3122</v>
+      </c>
+      <c r="B48" s="230" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C48" s="231" t="str">
+        <f>"acfr:"&amp;A48</f>
+        <v>acfr:FederalAidGrantsAndContributionsWelfareModifiedAccrual</v>
+      </c>
+      <c r="D48" s="2" t="str">
+        <f>IF(RIGHT(A48, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="230" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B49" s="230" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C49" s="231" t="str">
+        <f>"acfr:"&amp;A49</f>
+        <v>acfr:FederalAidGrantsAndContributionsCultureAndRecreationModifiedAccrual</v>
+      </c>
+      <c r="D49" s="2" t="str">
+        <f>IF(RIGHT(A49, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="230" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B50" s="230" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C50" s="231" t="str">
+        <f>"acfr:"&amp;A50</f>
+        <v>acfr:FederalAidGrantsAndContributionsCDBGModifiedAccrual</v>
+      </c>
+      <c r="D50" s="2" t="str">
+        <f>IF(RIGHT(A50, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="230" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B51" s="230" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C51" s="231" t="str">
+        <f>"acfr:"&amp;A51</f>
+        <v>acfr:FederalCapitalGrantsModifiedAccrual</v>
+      </c>
+      <c r="D51" s="2" t="str">
+        <f>IF(RIGHT(A51, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="230" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B52" s="230" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C52" s="231" t="str">
+        <f>"acfr:"&amp;A52</f>
+        <v>acfr:GrantsContributionsAndDonationsFromFederalGovernmentalEntitiesModifiedAccrual</v>
+      </c>
+      <c r="D52" s="2" t="str">
+        <f>IF(RIGHT(A52, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="230" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B53" s="230" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C53" s="231" t="str">
+        <f>"acfr:"&amp;A53</f>
+        <v>acfr:IntergovernmentalRevenueFromStatePublicSafetyModifiedAccrual</v>
+      </c>
+      <c r="D53" s="2" t="str">
+        <f>IF(RIGHT(A53, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="230" t="s">
+        <v>3128</v>
+      </c>
+      <c r="B54" s="230" t="s">
+        <v>2957</v>
+      </c>
+      <c r="C54" s="231" t="str">
+        <f>"acfr:"&amp;A54</f>
+        <v>acfr:IntergovernmentalRevenueFromStateDrunkDrivingCaseFlowAssistanceModifiedAccrual</v>
+      </c>
+      <c r="D54" s="2" t="str">
+        <f>IF(RIGHT(A54, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="230" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B55" s="230" t="s">
+        <v>2958</v>
+      </c>
+      <c r="C55" s="231" t="str">
+        <f>"acfr:"&amp;A55</f>
+        <v>acfr:IntergovernmentalRevenueFromStateDrugCaseInformationManagementModifiedAccrual</v>
+      </c>
+      <c r="D55" s="2" t="str">
+        <f>IF(RIGHT(A55, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="230" t="s">
+        <v>3130</v>
+      </c>
+      <c r="B56" s="230" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C56" s="231" t="str">
+        <f>"acfr:"&amp;A56</f>
+        <v>acfr:IntergovernmentalRevenueFromStateStreetsAndHighwaysModifiedAccrual</v>
+      </c>
+      <c r="D56" s="2" t="str">
+        <f>IF(RIGHT(A56, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="230" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B57" s="230" t="s">
+        <v>2960</v>
+      </c>
+      <c r="C57" s="231" t="str">
+        <f>"acfr:"&amp;A57</f>
+        <v>acfr:IntergovernmentalRevenueFromStateCourtOfEquityModifiedAccrual</v>
+      </c>
+      <c r="D57" s="2" t="str">
+        <f>IF(RIGHT(A57, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="230" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B58" s="230" t="s">
+        <v>2961</v>
+      </c>
+      <c r="C58" s="231" t="str">
+        <f>"acfr:"&amp;A58</f>
+        <v>acfr:IntergovernmentalRevenueFromStateSanitationModifiedAccrual</v>
+      </c>
+      <c r="D58" s="2" t="str">
+        <f>IF(RIGHT(A58, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="230" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B59" s="230" t="s">
+        <v>2962</v>
+      </c>
+      <c r="C59" s="231" t="str">
+        <f>"acfr:"&amp;A59</f>
+        <v>acfr:IntergovernmentalRevenueFromStateHealthAndHospitalsModifiedAccrual</v>
+      </c>
+      <c r="D59" s="2" t="str">
+        <f>IF(RIGHT(A59, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="230" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B60" s="230" t="s">
+        <v>2963</v>
+      </c>
+      <c r="C60" s="231" t="str">
+        <f>"acfr:"&amp;A60</f>
+        <v>acfr:IntergovernmentalRevenueFromStateWelfareModifiedAccrual</v>
+      </c>
+      <c r="D60" s="2" t="str">
+        <f>IF(RIGHT(A60, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="230" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B61" s="230" t="s">
+        <v>2964</v>
+      </c>
+      <c r="C61" s="231" t="str">
+        <f>"acfr:"&amp;A61</f>
+        <v>acfr:IntergovernmentalRevenueFromStateCultureAndRecreationModifiedAccrual</v>
+      </c>
+      <c r="D61" s="2" t="str">
+        <f>IF(RIGHT(A61, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="230" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B62" s="230" t="s">
+        <v>2965</v>
+      </c>
+      <c r="C62" s="231" t="str">
+        <f>"acfr:"&amp;A62</f>
+        <v>acfr:IntergovernmentalRevenueFromStateCrimeVictimsRightsModifiedAccrual</v>
+      </c>
+      <c r="D62" s="2" t="str">
+        <f>IF(RIGHT(A62, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="230" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B63" s="230" t="s">
+        <v>2966</v>
+      </c>
+      <c r="C63" s="231" t="str">
+        <f>"acfr:"&amp;A63</f>
+        <v>acfr:IntergovernmentalRevenueFromStateIndigentDefenseModifiedAccrual</v>
+      </c>
+      <c r="D63" s="2" t="str">
+        <f>IF(RIGHT(A63, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="230" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B64" s="230" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C64" s="231" t="str">
+        <f>"acfr:"&amp;A64</f>
+        <v>acfr:IntergovernmentalRevenueFromStateStateRevenueSharingModifiedAccrual</v>
+      </c>
+      <c r="D64" s="2" t="str">
+        <f>IF(RIGHT(A64, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="230" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B65" s="230" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C65" s="231" t="str">
+        <f>"acfr:"&amp;A65</f>
+        <v>acfr:StateGrantsLocalCommunityStabilizationShareModifiedAccrual</v>
+      </c>
+      <c r="D65" s="2" t="str">
+        <f>IF(RIGHT(A65, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="230" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B66" s="230" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C66" s="231" t="str">
+        <f>"acfr:"&amp;A66</f>
+        <v>acfr:IntergovernmentalRevenueFromStateSurveyAndRemonumentationModifiedAccrual</v>
+      </c>
+      <c r="D66" s="2" t="str">
+        <f>IF(RIGHT(A66, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="230" t="s">
+        <v>3141</v>
+      </c>
+      <c r="B67" s="230" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C67" s="231" t="str">
+        <f>"acfr:"&amp;A67</f>
+        <v>acfr:IntergovernmentalRevenueFromStateSpecialElectionReimbursementModifiedAccrual</v>
+      </c>
+      <c r="D67" s="2" t="str">
+        <f>IF(RIGHT(A67, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="230" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B68" s="230" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C68" s="231" t="str">
+        <f>"acfr:"&amp;A68</f>
+        <v>acfr:StateCapitalGrantsModifiedAccrual</v>
+      </c>
+      <c r="D68" s="2" t="str">
+        <f>IF(RIGHT(A68, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="230" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B69" s="230" t="s">
+        <v>2972</v>
+      </c>
+      <c r="C69" s="231" t="str">
+        <f>"acfr:"&amp;A69</f>
+        <v>acfr:GrantsContributionsAndDonationsFromStateGovernmentalEntitiesModifiedAccrual</v>
+      </c>
+      <c r="D69" s="2" t="str">
+        <f>IF(RIGHT(A69, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="230" t="s">
+        <v>3144</v>
+      </c>
+      <c r="B70" s="230" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C70" s="231" t="str">
+        <f>"acfr:"&amp;A70</f>
+        <v>acfr:ContributionsFromLocalUnitsModifiedAccrual</v>
+      </c>
+      <c r="D70" s="2" t="str">
+        <f>IF(RIGHT(A70, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="230" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B71" s="230" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C71" s="231" t="str">
+        <f>"acfr:"&amp;A71</f>
+        <v>acfr:CourtRelatedChargesModifiedAccrual</v>
+      </c>
+      <c r="D71" s="2" t="str">
+        <f>IF(RIGHT(A71, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="230" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B72" s="230" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C72" s="231" t="str">
+        <f>"acfr:"&amp;A72</f>
+        <v>acfr:FeesModifiedAccrual</v>
+      </c>
+      <c r="D72" s="2" t="str">
+        <f>IF(RIGHT(A72, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="230" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B73" s="230" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C73" s="231" t="str">
+        <f>"acfr:"&amp;A73</f>
+        <v>acfr:CourtFilingFeesModifiedAccrual</v>
+      </c>
+      <c r="D73" s="2" t="str">
+        <f>IF(RIGHT(A73, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="230" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B74" s="230" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C74" s="231" t="str">
+        <f>"acfr:"&amp;A74</f>
+        <v>acfr:JuryDemandFeesModifiedAccrual</v>
+      </c>
+      <c r="D74" s="2" t="str">
+        <f>IF(RIGHT(A74, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="230" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B75" s="230" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C75" s="231" t="str">
+        <f>"acfr:"&amp;A75</f>
+        <v>acfr:WritOfGarnishmentRestitutionAttachmentOrExecutionModifiedAccrual</v>
+      </c>
+      <c r="D75" s="2" t="str">
+        <f>IF(RIGHT(A75, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="230" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B76" s="230" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C76" s="231" t="str">
+        <f>"acfr:"&amp;A76</f>
+        <v>acfr:AttorneyFeeReimbursementModifiedAccrual</v>
+      </c>
+      <c r="D76" s="2" t="str">
+        <f>IF(RIGHT(A76, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="230" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B77" s="230" t="s">
+        <v>2980</v>
+      </c>
+      <c r="C77" s="231" t="str">
+        <f>"acfr:"&amp;A77</f>
+        <v>acfr:GuardianAdLitemReimbursementModifiedAccrual</v>
+      </c>
+      <c r="D77" s="2" t="str">
+        <f>IF(RIGHT(A77, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="230" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B78" s="230" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C78" s="231" t="str">
+        <f>"acfr:"&amp;A78</f>
+        <v>acfr:ProbationOversightFeeModifiedAccrual</v>
+      </c>
+      <c r="D78" s="2" t="str">
+        <f>IF(RIGHT(A78, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="230" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B79" s="230" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C79" s="231" t="str">
+        <f>"acfr:"&amp;A79</f>
+        <v>acfr:EstateInventoryFeeModifiedAccrual</v>
+      </c>
+      <c r="D79" s="2" t="str">
+        <f>IF(RIGHT(A79, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="230" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B80" s="230" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C80" s="231" t="str">
+        <f>"acfr:"&amp;A80</f>
+        <v>acfr:FriendOfTheCourtStatutoryHandlingFeeModifiedAccrual</v>
+      </c>
+      <c r="D80" s="2" t="str">
+        <f>IF(RIGHT(A80, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="230" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B81" s="230" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C81" s="231" t="str">
+        <f>"acfr:"&amp;A81</f>
+        <v>acfr:FriendOfTheCourtServiceFeeModifiedAccrual</v>
+      </c>
+      <c r="D81" s="2" t="str">
+        <f>IF(RIGHT(A81, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="230" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B82" s="230" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C82" s="231" t="str">
+        <f>"acfr:"&amp;A82</f>
+        <v>acfr:MiscellaneousCourtCostsAndFeesModifiedAccrual</v>
+      </c>
+      <c r="D82" s="2" t="str">
+        <f>IF(RIGHT(A82, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="230" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B83" s="230" t="s">
+        <v>2986</v>
+      </c>
+      <c r="C83" s="231" t="str">
+        <f>"acfr:"&amp;A83</f>
+        <v>acfr:ServicesRenderedModifiedAccrual</v>
+      </c>
+      <c r="D83" s="2" t="str">
+        <f>IF(RIGHT(A83, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="230" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B84" s="230" t="s">
+        <v>2987</v>
+      </c>
+      <c r="C84" s="231" t="str">
+        <f>"acfr:"&amp;A84</f>
+        <v>acfr:BuildingInspectionFeesModifiedAccrual</v>
+      </c>
+      <c r="D84" s="2" t="str">
+        <f>IF(RIGHT(A84, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="230" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B85" s="230" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C85" s="231" t="str">
+        <f>"acfr:"&amp;A85</f>
+        <v>acfr:AmbulanceTransportFeesModifiedAccrual</v>
+      </c>
+      <c r="D85" s="2" t="str">
+        <f>IF(RIGHT(A85, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="230" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B86" s="230" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C86" s="231" t="str">
+        <f>"acfr:"&amp;A86</f>
+        <v>acfr:TitleSearchFeeModifiedAccrual</v>
+      </c>
+      <c r="D86" s="2" t="str">
+        <f>IF(RIGHT(A86, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="230" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B87" s="230" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C87" s="231" t="str">
+        <f>"acfr:"&amp;A87</f>
+        <v>acfr:PreForfeitureMailingNoticeCostModifiedAccrual</v>
+      </c>
+      <c r="D87" s="2" t="str">
+        <f>IF(RIGHT(A87, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="230" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B88" s="230" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C88" s="231" t="str">
+        <f>"acfr:"&amp;A88</f>
+        <v>acfr:SalesModifiedAccrual</v>
+      </c>
+      <c r="D88" s="2" t="str">
+        <f>IF(RIGHT(A88, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="230" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B89" s="230" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C89" s="231" t="str">
+        <f>"acfr:"&amp;A89</f>
+        <v>acfr:UseAndAdmissionFeesModifiedAccrual</v>
+      </c>
+      <c r="D89" s="2" t="str">
+        <f>IF(RIGHT(A89, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="230" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B90" s="230" t="s">
+        <v>2993</v>
+      </c>
+      <c r="C90" s="231" t="str">
+        <f>"acfr:"&amp;A90</f>
+        <v>acfr:ParkingFeesModifiedAccrual</v>
+      </c>
+      <c r="D90" s="2" t="str">
+        <f>IF(RIGHT(A90, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="230" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B91" s="230" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C91" s="231" t="str">
+        <f>"acfr:"&amp;A91</f>
+        <v>acfr:ChargesForServicesAndSalesModifiedAccrual</v>
+      </c>
+      <c r="D91" s="2" t="str">
+        <f>IF(RIGHT(A91, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="230" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B92" s="230" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C92" s="231" t="str">
+        <f>"acfr:"&amp;A92</f>
+        <v>acfr:RevenueFromFinesAndForfeituresTrafficViolationsModifiedAccrual</v>
+      </c>
+      <c r="D92" s="2" t="str">
+        <f>IF(RIGHT(A92, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="230" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B93" s="230" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C93" s="231" t="str">
+        <f>"acfr:"&amp;A93</f>
+        <v>acfr:RevenueFromFinesAndForfeituresOrdinanceFinesAndCostsModifiedAccrual</v>
+      </c>
+      <c r="D93" s="2" t="str">
+        <f>IF(RIGHT(A93, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="230" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B94" s="230" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C94" s="231" t="str">
+        <f>"acfr:"&amp;A94</f>
+        <v>acfr:RevenueFromFinesAndForfeituresStatuteCostsModifiedAccrual</v>
+      </c>
+      <c r="D94" s="2" t="str">
+        <f>IF(RIGHT(A94, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="230" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B95" s="230" t="s">
+        <v>2999</v>
+      </c>
+      <c r="C95" s="231" t="str">
+        <f>"acfr:"&amp;A95</f>
+        <v>acfr:RevenueFromFinesAndForfeituresBondForfeituresAndBondCostsModifiedAccrual</v>
+      </c>
+      <c r="D95" s="2" t="str">
+        <f>IF(RIGHT(A95, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="230" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B96" s="230" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C96" s="231" t="str">
+        <f>"acfr:"&amp;A96</f>
+        <v>acfr:RevenueFromFinesAndForfeituresAndPenaltiesModifiedAccrual</v>
+      </c>
+      <c r="D96" s="2" t="str">
+        <f>IF(RIGHT(A96, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="230" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B97" s="230" t="s">
+        <v>3001</v>
+      </c>
+      <c r="C97" s="231" t="str">
+        <f>"acfr:"&amp;A97</f>
+        <v>acfr:RevenuesFromDividendsModifiedAccrual</v>
+      </c>
+      <c r="D97" s="2" t="str">
+        <f>IF(RIGHT(A97, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="230" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B98" s="230" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C98" s="231" t="str">
+        <f>"acfr:"&amp;A98</f>
+        <v>acfr:RevenuesFromInterestModifiedAccrual</v>
+      </c>
+      <c r="D98" s="2" t="str">
+        <f>IF(RIGHT(A98, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="230" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B99" s="230" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C99" s="231" t="str">
+        <f>"acfr:"&amp;A99</f>
+        <v>acfr:RevenueFromInterestAndDividendsModifiedAccrual</v>
+      </c>
+      <c r="D99" s="2" t="str">
+        <f>IF(RIGHT(A99, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="230" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B100" s="230" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C100" s="231" t="str">
+        <f>"acfr:"&amp;A100</f>
+        <v>acfr:RevenueFromUseOfMoneyAndPropertyModifiedAccrual</v>
+      </c>
+      <c r="D100" s="2" t="str">
+        <f>IF(RIGHT(A100, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="230" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B101" s="230" t="s">
+        <v>3005</v>
+      </c>
+      <c r="C101" s="231" t="str">
+        <f>"acfr:"&amp;A101</f>
+        <v>acfr:RevenueFromInterestAndRentsModifiedAccrual</v>
+      </c>
+      <c r="D101" s="2" t="str">
+        <f>IF(RIGHT(A101, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="230" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B102" s="230" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C102" s="231" t="str">
+        <f>"acfr:"&amp;A102</f>
+        <v>acfr:InvestmentGainsLossesModifiedAccrual</v>
+      </c>
+      <c r="D102" s="2" t="str">
+        <f>IF(RIGHT(A102, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="230" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B103" s="230" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C103" s="231" t="str">
+        <f>"acfr:"&amp;A103</f>
+        <v>acfr:LeaseInvestmentIncomeModifiedAccrual</v>
+      </c>
+      <c r="D103" s="2" t="str">
+        <f>IF(RIGHT(A103, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="230" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B104" s="230" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C104" s="231" t="str">
+        <f>"acfr:"&amp;A104</f>
+        <v>acfr:InvestmentIncomeAndRentalsModifiedAccrual</v>
+      </c>
+      <c r="D104" s="2" t="str">
+        <f>IF(RIGHT(A104, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="230" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B105" s="230" t="s">
+        <v>3009</v>
+      </c>
+      <c r="C105" s="231" t="str">
+        <f>"acfr:"&amp;A105</f>
+        <v>acfr:RevenuesFromRoyaltiesModifiedAccrual</v>
+      </c>
+      <c r="D105" s="2" t="str">
+        <f>IF(RIGHT(A105, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="230" t="s">
+        <v>3182</v>
+      </c>
+      <c r="B106" s="230" t="s">
+        <v>3010</v>
+      </c>
+      <c r="C106" s="231" t="str">
+        <f>"acfr:"&amp;A106</f>
+        <v>acfr:RevenueFromRentsModifiedAccrual</v>
+      </c>
+      <c r="D106" s="2" t="str">
+        <f>IF(RIGHT(A106, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="230" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B107" s="230" t="s">
+        <v>3011</v>
+      </c>
+      <c r="C107" s="231" t="str">
+        <f>"acfr:"&amp;A107</f>
+        <v>acfr:RevenueFromRentsAndRoyaltiesModifiedAccrual</v>
+      </c>
+      <c r="D107" s="2" t="str">
+        <f>IF(RIGHT(A107, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="230" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B108" s="230" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C108" s="231" t="str">
+        <f>"acfr:"&amp;A108</f>
+        <v>acfr:RevenuesFromJudicialCircuitCourtModifiedAccrual</v>
+      </c>
+      <c r="D108" s="2" t="str">
+        <f>IF(RIGHT(A108, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="230" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B109" s="230" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C109" s="231" t="str">
+        <f>"acfr:"&amp;A109</f>
+        <v>acfr:RevenuesFromJudicialDistrictAndMunicipalCourtModifiedAccrual</v>
+      </c>
+      <c r="D109" s="2" t="str">
+        <f>IF(RIGHT(A109, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="230" t="s">
+        <v>3187</v>
+      </c>
+      <c r="B110" s="230" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C110" s="231" t="str">
+        <f>"acfr:"&amp;A110</f>
+        <v>acfr:RevenuesFromJudicialFriendOfTheCourtModifiedAccrual</v>
+      </c>
+      <c r="D110" s="2" t="str">
+        <f>IF(RIGHT(A110, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="230" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B111" s="230" t="s">
+        <v>3016</v>
+      </c>
+      <c r="C111" s="231" t="str">
+        <f>"acfr:"&amp;A111</f>
+        <v>acfr:RevenuesFromJudicialLawLibraryModifiedAccrual</v>
+      </c>
+      <c r="D111" s="2" t="str">
+        <f>IF(RIGHT(A111, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="230" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B112" s="230" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C112" s="231" t="str">
+        <f>"acfr:"&amp;A112</f>
+        <v>acfr:RevenuesFromJudicialProbateCourtModifiedAccrual</v>
+      </c>
+      <c r="D112" s="2" t="str">
+        <f>IF(RIGHT(A112, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="230" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B113" s="230" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C113" s="231" t="str">
+        <f>"acfr:"&amp;A113</f>
+        <v>acfr:RevenuesFromJudicialProbationModifiedAccrual</v>
+      </c>
+      <c r="D113" s="2" t="str">
+        <f>IF(RIGHT(A113, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="230" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B114" s="230" t="s">
+        <v>3019</v>
+      </c>
+      <c r="C114" s="231" t="str">
+        <f>"acfr:"&amp;A114</f>
+        <v>acfr:RevenuesFromJudicialActivitiesModifiedAccrual</v>
+      </c>
+      <c r="D114" s="2" t="str">
+        <f>IF(RIGHT(A114, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="230" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B115" s="230" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C115" s="231" t="str">
+        <f>"acfr:"&amp;A115</f>
+        <v>acfr:RevenuesFromFinancialAndTaxAdministrationClerkModifiedAccrual</v>
+      </c>
+      <c r="D115" s="2" t="str">
+        <f>IF(RIGHT(A115, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="230" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B116" s="230" t="s">
+        <v>3022</v>
+      </c>
+      <c r="C116" s="231" t="str">
+        <f>"acfr:"&amp;A116</f>
+        <v>acfr:RevenuesFromFinancialAndTaxAdministrationInformationTechnologyModifiedAccrual</v>
+      </c>
+      <c r="D116" s="2" t="str">
+        <f>IF(RIGHT(A116, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="230" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B117" s="230" t="s">
+        <v>3023</v>
+      </c>
+      <c r="C117" s="231" t="str">
+        <f>"acfr:"&amp;A117</f>
+        <v>acfr:RevenuesFromFinancialAndTaxAdministrationPropertyDescriptionModifiedAccrual</v>
+      </c>
+      <c r="D117" s="2" t="str">
+        <f>IF(RIGHT(A117, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="230" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B118" s="230" t="s">
+        <v>3024</v>
+      </c>
+      <c r="C118" s="231" t="str">
+        <f>"acfr:"&amp;A118</f>
+        <v>acfr:RevenuesFromFinancialAndTaxAdministrationTreasurerModifiedAccrual</v>
+      </c>
+      <c r="D118" s="2" t="str">
+        <f>IF(RIGHT(A118, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="230" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B119" s="230" t="s">
+        <v>3025</v>
+      </c>
+      <c r="C119" s="231" t="str">
+        <f>"acfr:"&amp;A119</f>
+        <v>acfr:RevenuesFromFinancialAndTaxAdministrationDelinquentTaxPropertySalesModifiedAccrual</v>
+      </c>
+      <c r="D119" s="2" t="str">
+        <f>IF(RIGHT(A119, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="230" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B120" s="230" t="s">
+        <v>3026</v>
+      </c>
+      <c r="C120" s="231" t="str">
+        <f>"acfr:"&amp;A120</f>
+        <v>acfr:RevenuesFromFinancialAndTaxAdministrationModifiedAccrual</v>
+      </c>
+      <c r="D120" s="2" t="str">
+        <f>IF(RIGHT(A120, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="230" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B121" s="230" t="s">
+        <v>3028</v>
+      </c>
+      <c r="C121" s="231" t="str">
+        <f>"acfr:"&amp;A121</f>
+        <v>acfr:RevenuesFromOtherGeneralGovernmentRetirementBoardModifiedAccrual</v>
+      </c>
+      <c r="D121" s="2" t="str">
+        <f>IF(RIGHT(A121, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="230" t="s">
+        <v>3201</v>
+      </c>
+      <c r="B122" s="230" t="s">
+        <v>3029</v>
+      </c>
+      <c r="C122" s="231" t="str">
+        <f>"acfr:"&amp;A122</f>
+        <v>acfr:RevenuesFromOtherGeneralGovernmentBuildingAuthorityModifiedAccrual</v>
+      </c>
+      <c r="D122" s="2" t="str">
+        <f>IF(RIGHT(A122, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="230" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B123" s="230" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C123" s="231" t="str">
+        <f>"acfr:"&amp;A123</f>
+        <v>acfr:RevenuesFromOtherGeneralGovernmentModifiedAccrual</v>
+      </c>
+      <c r="D123" s="2" t="str">
+        <f>IF(RIGHT(A123, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="230" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B124" s="230" t="s">
+        <v>3032</v>
+      </c>
+      <c r="C124" s="231" t="str">
+        <f>"acfr:"&amp;A124</f>
+        <v>acfr:RevenuesFromDepartmentOfPublicWorksModifiedAccrual</v>
+      </c>
+      <c r="D124" s="2" t="str">
+        <f>IF(RIGHT(A124, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="230" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B125" s="230" t="s">
+        <v>3033</v>
+      </c>
+      <c r="C125" s="231" t="str">
+        <f>"acfr:"&amp;A125</f>
+        <v>acfr:RevenuesFromPublicWorksWaterAndSewerSystemsModifiedAccrual</v>
+      </c>
+      <c r="D125" s="2" t="str">
+        <f>IF(RIGHT(A125, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="230" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B126" s="230" t="s">
+        <v>3034</v>
+      </c>
+      <c r="C126" s="231" t="str">
+        <f>"acfr:"&amp;A126</f>
+        <v>acfr:RevenuesFromPublicWorksAirportServicesModifiedAccrual</v>
+      </c>
+      <c r="D126" s="2" t="str">
+        <f>IF(RIGHT(A126, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="230" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B127" s="230" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C127" s="231" t="str">
+        <f>"acfr:"&amp;A127</f>
+        <v>acfr:RevenuesFromPublicWorksTransportationServicesModifiedAccrual</v>
+      </c>
+      <c r="D127" s="2" t="str">
+        <f>IF(RIGHT(A127, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="230" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B128" s="230" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C128" s="231" t="str">
+        <f>"acfr:"&amp;A128</f>
+        <v>acfr:RevenuesFromPublicWorksServicesModifiedAccrual</v>
+      </c>
+      <c r="D128" s="2" t="str">
+        <f>IF(RIGHT(A128, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="230" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B129" s="230" t="s">
+        <v>3038</v>
+      </c>
+      <c r="C129" s="231" t="str">
+        <f>"acfr:"&amp;A129</f>
+        <v>acfr:RevenuesFromHealthAndWelfareHealthDepartmentModifiedAccrual</v>
+      </c>
+      <c r="D129" s="2" t="str">
+        <f>IF(RIGHT(A129, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="230" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B130" s="230" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C130" s="231" t="str">
+        <f>"acfr:"&amp;A130</f>
+        <v>acfr:RevenuesFromHealthAndWelfareMosquitoControlModifiedAccrual</v>
+      </c>
+      <c r="D130" s="2" t="str">
+        <f>IF(RIGHT(A130, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="230" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B131" s="230" t="s">
+        <v>3040</v>
+      </c>
+      <c r="C131" s="231" t="str">
+        <f>"acfr:"&amp;A131</f>
+        <v>acfr:RevenuesFromStateInstitutionsModifiedAccrual</v>
+      </c>
+      <c r="D131" s="2" t="str">
+        <f>IF(RIGHT(A131, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="230" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B132" s="230" t="s">
+        <v>3041</v>
+      </c>
+      <c r="C132" s="231" t="str">
+        <f>"acfr:"&amp;A132</f>
+        <v>acfr:RevenuesForAmbulanceAndEmergencyModifiedAccrual</v>
+      </c>
+      <c r="D132" s="2" t="str">
+        <f>IF(RIGHT(A132, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="230" t="s">
+        <v>3214</v>
+      </c>
+      <c r="B133" s="230" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C133" s="231" t="str">
+        <f>"acfr:"&amp;A133</f>
+        <v>acfr:RevenuesFromHealthAndWelfareChildCareFamilyDivisionOfCircuitCourtModifiedAccrual</v>
+      </c>
+      <c r="D133" s="2" t="str">
+        <f>IF(RIGHT(A133, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="230" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B134" s="230" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C134" s="231" t="str">
+        <f>"acfr:"&amp;A134</f>
+        <v>acfr:RevenuesFromHealthAndWelfareChildCareDepartmentOfHumanServicesModifiedAccrual</v>
+      </c>
+      <c r="D134" s="2" t="str">
+        <f>IF(RIGHT(A134, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="230" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B135" s="230" t="s">
+        <v>3044</v>
+      </c>
+      <c r="C135" s="231" t="str">
+        <f>"acfr:"&amp;A135</f>
+        <v>acfr:RevenueFromHealthAndWelfareDepartmentOfHumanServicesModifiedAccrual</v>
+      </c>
+      <c r="D135" s="2" t="str">
+        <f>IF(RIGHT(A135, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="230" t="s">
+        <v>3217</v>
+      </c>
+      <c r="B136" s="230" t="s">
+        <v>3045</v>
+      </c>
+      <c r="C136" s="231" t="str">
+        <f>"acfr:"&amp;A136</f>
+        <v>acfr:RevenueFromHealthAndWelfareAgencyOnAgingModifiedAccrual</v>
+      </c>
+      <c r="D136" s="2" t="str">
+        <f>IF(RIGHT(A136, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="230" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B137" s="230" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C137" s="231" t="str">
+        <f>"acfr:"&amp;A137</f>
+        <v>acfr:RevenuesFromHealthAndWelfareModifiedAccrual</v>
+      </c>
+      <c r="D137" s="2" t="str">
+        <f>IF(RIGHT(A137, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="230" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B138" s="230" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C138" s="231" t="str">
+        <f>"acfr:"&amp;A138</f>
+        <v>acfr:RevenueFromPublicSafetyPoliceSheriffAndConstableModifiedAccrual</v>
+      </c>
+      <c r="D138" s="2" t="str">
+        <f>IF(RIGHT(A138, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="230" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B139" s="230" t="s">
+        <v>3049</v>
+      </c>
+      <c r="C139" s="231" t="str">
+        <f>"acfr:"&amp;A139</f>
+        <v>acfr:RevenuesFromPublicSafetyFireDepartmentModifiedAccrual</v>
+      </c>
+      <c r="D139" s="2" t="str">
+        <f>IF(RIGHT(A139, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="230" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B140" s="230" t="s">
+        <v>3050</v>
+      </c>
+      <c r="C140" s="231" t="str">
+        <f>"acfr:"&amp;A140</f>
+        <v>acfr:RevenuesFromPublicSafetyAnimalShelterDogWardenModifiedAccrual</v>
+      </c>
+      <c r="D140" s="2" t="str">
+        <f>IF(RIGHT(A140, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="230" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B141" s="230" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C141" s="231" t="str">
+        <f>"acfr:"&amp;A141</f>
+        <v>acfr:RevenuesFromPublicSafetyServicesModifiedAccrual</v>
+      </c>
+      <c r="D141" s="2" t="str">
+        <f>IF(RIGHT(A141, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="230" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B142" s="230" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C142" s="231" t="str">
+        <f>"acfr:"&amp;A142</f>
+        <v>acfr:RevenuesFromCommunityEconomicDevelopmentAbstractDepartmentModifiedAccrual</v>
+      </c>
+      <c r="D142" s="2" t="str">
+        <f>IF(RIGHT(A142, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="230" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B143" s="230" t="s">
+        <v>3054</v>
+      </c>
+      <c r="C143" s="231" t="str">
+        <f>"acfr:"&amp;A143</f>
+        <v>acfr:RevenuesFromCommunityAndEconomicDevelopmentServicesModifiedAccrual</v>
+      </c>
+      <c r="D143" s="2" t="str">
+        <f>IF(RIGHT(A143, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="230" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B144" s="230" t="s">
+        <v>3056</v>
+      </c>
+      <c r="C144" s="231" t="str">
+        <f>"acfr:"&amp;A144</f>
+        <v>acfr:RevenuesFromRecreationAndCultureParksAndRecreationDepartmentModifiedAccrual</v>
+      </c>
+      <c r="D144" s="2" t="str">
+        <f>IF(RIGHT(A144, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="230" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B145" s="230" t="s">
+        <v>3057</v>
+      </c>
+      <c r="C145" s="231" t="str">
+        <f>"acfr:"&amp;A145</f>
+        <v>acfr:RevenuesFromRecreationAndCultureLibraryModifiedAccrual</v>
+      </c>
+      <c r="D145" s="2" t="str">
+        <f>IF(RIGHT(A145, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="230" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B146" s="230" t="s">
+        <v>3058</v>
+      </c>
+      <c r="C146" s="231" t="str">
+        <f>"acfr:"&amp;A146</f>
+        <v>acfr:RevenuesFromRecreationAndCultureModifiedAccrual</v>
+      </c>
+      <c r="D146" s="2" t="str">
+        <f>IF(RIGHT(A146, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="230" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B147" s="230" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C147" s="231" t="str">
+        <f>"acfr:"&amp;A147</f>
+        <v>acfr:GrantsContributionsAndDonationsFromOthersModifiedAccrual</v>
+      </c>
+      <c r="D147" s="2" t="str">
+        <f>IF(RIGHT(A147, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="230" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B148" s="230" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C148" s="231" t="str">
+        <f>"acfr:"&amp;A148</f>
+        <v>acfr:RevenueFromGrantsAndEntitlementsRestrictedForSpecificProgramsModifiedAccrual</v>
+      </c>
+      <c r="D148" s="2" t="str">
+        <f>IF(RIGHT(A148, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="230" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B149" s="230" t="s">
+        <v>3062</v>
+      </c>
+      <c r="C149" s="231" t="str">
+        <f>"acfr:"&amp;A149</f>
+        <v>acfr:RevenueFromGrantsAndEntitlementsNotRestrictedForSpecificProgramsModifiedAccrual</v>
+      </c>
+      <c r="D149" s="2" t="str">
+        <f>IF(RIGHT(A149, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="230" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B150" s="230" t="s">
+        <v>3063</v>
+      </c>
+      <c r="C150" s="231" t="str">
+        <f>"acfr:"&amp;A150</f>
+        <v>acfr:RevenueFromSharedRevenueModifiedAccrual</v>
+      </c>
+      <c r="D150" s="2" t="str">
+        <f>IF(RIGHT(A150, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="230" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B151" s="230" t="s">
+        <v>3064</v>
+      </c>
+      <c r="C151" s="231" t="str">
+        <f>"acfr:"&amp;A151</f>
+        <v>acfr:PublicAndPrivateContributionsModifiedAccrual</v>
+      </c>
+      <c r="D151" s="2" t="str">
+        <f>IF(RIGHT(A151, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="230" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B152" s="230" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C152" s="231" t="str">
+        <f>"acfr:"&amp;A152</f>
+        <v>acfr:CashOverOrShortModifiedAccrual</v>
+      </c>
+      <c r="D152" s="2" t="str">
+        <f>IF(RIGHT(A152, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="230" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B153" s="230" t="s">
+        <v>3066</v>
+      </c>
+      <c r="C153" s="231" t="str">
+        <f>"acfr:"&amp;A153</f>
+        <v>acfr:RefundsAndRebatesModifiedAccrual</v>
+      </c>
+      <c r="D153" s="2" t="str">
+        <f>IF(RIGHT(A153, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="230" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B154" s="230" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C154" s="231" t="str">
+        <f>"acfr:"&amp;A154</f>
+        <v>acfr:ReimbursementsModifiedAccrual</v>
+      </c>
+      <c r="D154" s="2" t="str">
+        <f>IF(RIGHT(A154, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="230" t="s">
+        <v>3240</v>
+      </c>
+      <c r="B155" s="230" t="s">
+        <v>3068</v>
+      </c>
+      <c r="C155" s="231" t="str">
+        <f>"acfr:"&amp;A155</f>
+        <v>acfr:ContributionsFromPrimaryGovernmentModifiedAccrual</v>
+      </c>
+      <c r="D155" s="2" t="str">
+        <f>IF(RIGHT(A155, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="230" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B156" s="230" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C156" s="231" t="str">
+        <f>"acfr:"&amp;A156</f>
+        <v>acfr:ContributionsToPermanentFundModifiedAccrual</v>
+      </c>
+      <c r="D156" s="2" t="str">
+        <f>IF(RIGHT(A156, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="230" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B157" s="230" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C157" s="231" t="str">
+        <f>"acfr:"&amp;A157</f>
+        <v>acfr:ChangesInFairValueOfInvestmentsModifiedAccrual</v>
+      </c>
+      <c r="D157" s="2" t="str">
+        <f>IF(RIGHT(A157, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="230" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B158" s="230" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C158" s="231" t="str">
+        <f>"acfr:"&amp;A158</f>
+        <v>acfr:RecoveryOfCostIncurredModifiedAccrual</v>
+      </c>
+      <c r="D158" s="2" t="str">
+        <f>IF(RIGHT(A158, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="230" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B159" s="230" t="s">
+        <v>3072</v>
+      </c>
+      <c r="C159" s="231" t="str">
+        <f>"acfr:"&amp;A159</f>
+        <v>acfr:OtherRevenuesModifiedAccrual</v>
+      </c>
+      <c r="D159" s="2" t="str">
+        <f>IF(RIGHT(A159, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="230" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B160" s="230" t="s">
+        <v>3073</v>
+      </c>
+      <c r="C160" s="231" t="str">
+        <f>"acfr:"&amp;A160</f>
+        <v>acfr:RevenuesModifiedAccrual</v>
+      </c>
+      <c r="D160" s="2" t="str">
+        <f>IF(RIGHT(A160, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Revenues</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="230" t="s">
+        <v>3644</v>
+      </c>
+      <c r="B161" s="230" t="s">
+        <v>3656</v>
+      </c>
+      <c r="C161" s="231" t="str">
+        <f>"acfr:"&amp;A161</f>
+        <v>acfr:ProceedsFromBondAndNoteIssuanceModifiedAccrual</v>
+      </c>
+      <c r="D161" s="2" t="str">
+        <f>IF(RIGHT(A161, 8)="Abstract", "Abstract", "Other Financing Sources")</f>
+        <v>Other Financing Sources</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="230" t="s">
+        <v>3645</v>
+      </c>
+      <c r="B162" s="230" t="s">
+        <v>3657</v>
+      </c>
+      <c r="C162" s="231" t="str">
+        <f>"acfr:"&amp;A162</f>
+        <v>acfr:PremiumOnIssuanceOfLongTermDebtModifiedAccrual</v>
+      </c>
+      <c r="D162" s="2" t="str">
+        <f>IF(RIGHT(A162, 8)="Abstract", "Abstract", "Other Financing Sources")</f>
+        <v>Other Financing Sources</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="230" t="s">
+        <v>3646</v>
+      </c>
+      <c r="B163" s="230" t="s">
+        <v>3658</v>
+      </c>
+      <c r="C163" s="231" t="str">
+        <f>"acfr:"&amp;A163</f>
+        <v>acfr:BondOrInsuranceRecoveriesModifiedAccrual</v>
+      </c>
+      <c r="D163" s="2" t="str">
+        <f>IF(RIGHT(A163, 8)="Abstract", "Abstract", "Other Financing Sources")</f>
+        <v>Other Financing Sources</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="230" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B164" s="230" t="s">
+        <v>3659</v>
+      </c>
+      <c r="C164" s="231" t="str">
+        <f>"acfr:"&amp;A164</f>
+        <v>acfr:PaymentsToRefundedBondEscrowAgentModifiedAccrual</v>
+      </c>
+      <c r="D164" s="2" t="str">
+        <f>IF(RIGHT(A164, 8)="Abstract", "Abstract", "Other Financing Sources")</f>
+        <v>Other Financing Sources</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="230" t="s">
+        <v>3648</v>
+      </c>
+      <c r="B165" s="230" t="s">
+        <v>3660</v>
+      </c>
+      <c r="C165" s="231" t="str">
+        <f>"acfr:"&amp;A165</f>
+        <v>acfr:DiscountsOnBondsOrNotesModifiedAccrual</v>
+      </c>
+      <c r="D165" s="2" t="str">
+        <f>IF(RIGHT(A165, 8)="Abstract", "Abstract", "Other Financing Sources")</f>
+        <v>Other Financing Sources</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="230" t="s">
+        <v>3649</v>
+      </c>
+      <c r="B166" s="230" t="s">
+        <v>3661</v>
+      </c>
+      <c r="C166" s="231" t="str">
+        <f>"acfr:"&amp;A166</f>
+        <v>acfr:SaleOfCapitalAssetsModifiedAccrual</v>
+      </c>
+      <c r="D166" s="2" t="str">
+        <f>IF(RIGHT(A166, 8)="Abstract", "Abstract", "Other Financing Sources")</f>
+        <v>Other Financing Sources</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="230" t="s">
+        <v>3650</v>
+      </c>
+      <c r="B167" s="230" t="s">
+        <v>3662</v>
+      </c>
+      <c r="C167" s="231" t="str">
+        <f>"acfr:"&amp;A167</f>
+        <v>acfr:TransfersOutModifiedAccrual</v>
+      </c>
+      <c r="D167" s="2" t="str">
+        <f>IF(RIGHT(A167, 8)="Abstract", "Abstract", "Other Financing Sources")</f>
+        <v>Other Financing Sources</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="230" t="s">
+        <v>3651</v>
+      </c>
+      <c r="B168" s="230" t="s">
+        <v>3663</v>
+      </c>
+      <c r="C168" s="231" t="str">
+        <f>"acfr:"&amp;A168</f>
+        <v>acfr:TransfersInModifiedAccrual</v>
+      </c>
+      <c r="D168" s="2" t="str">
+        <f>IF(RIGHT(A168, 8)="Abstract", "Abstract", "Other Financing Sources")</f>
+        <v>Other Financing Sources</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="230" t="s">
+        <v>3652</v>
+      </c>
+      <c r="B169" s="230" t="s">
+        <v>3664</v>
+      </c>
+      <c r="C169" s="231" t="str">
+        <f>"acfr:"&amp;A169</f>
+        <v>acfr:OtherFinancingSourcesLeaseFinancingModifiedAccrual</v>
+      </c>
+      <c r="D169" s="2" t="str">
+        <f>IF(RIGHT(A169, 8)="Abstract", "Abstract", "Other Financing Sources")</f>
+        <v>Other Financing Sources</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="230" t="s">
+        <v>3653</v>
+      </c>
+      <c r="B170" s="230" t="s">
+        <v>3665</v>
+      </c>
+      <c r="C170" s="231" t="str">
+        <f>"acfr:"&amp;A170</f>
+        <v>acfr:AdditionalOtherFinancingSourcesUses</v>
+      </c>
+      <c r="D170" s="2" t="str">
+        <f>IF(RIGHT(A170, 8)="Abstract", "Abstract", "Other Financing Sources")</f>
+        <v>Other Financing Sources</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="230" t="s">
+        <v>3654</v>
+      </c>
+      <c r="B171" s="230" t="s">
+        <v>3666</v>
+      </c>
+      <c r="C171" s="231" t="str">
+        <f>"acfr:"&amp;A171</f>
+        <v>acfr:OtherFinancingSourcesUses</v>
+      </c>
+      <c r="D171" s="2" t="str">
+        <f>IF(RIGHT(A171, 8)="Abstract", "Abstract", "Other Financing Sources")</f>
+        <v>Other Financing Sources</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="230" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B172" s="230" t="s">
+        <v>3247</v>
+      </c>
+      <c r="C172" s="231" t="str">
+        <f>"acfr:"&amp;A172</f>
+        <v>acfr:ExpendituresForGeneralGovernmentServicesAdministrationModifiedAccrual</v>
+      </c>
+      <c r="D172" s="2" t="str">
+        <f>IF(RIGHT(A172, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="230" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B173" s="230" t="s">
+        <v>3249</v>
+      </c>
+      <c r="C173" s="231" t="str">
+        <f>"acfr:"&amp;A173</f>
+        <v>acfr:ExpendituresForLegislativeGoverningBodyModifiedAccrual</v>
+      </c>
+      <c r="D173" s="2" t="str">
+        <f>IF(RIGHT(A173, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="230" t="s">
+        <v>3446</v>
+      </c>
+      <c r="B174" s="230" t="s">
+        <v>3250</v>
+      </c>
+      <c r="C174" s="231" t="str">
+        <f>"acfr:"&amp;A174</f>
+        <v>acfr:ExpendituresForLegislativeCommitteeModifiedAccrual</v>
+      </c>
+      <c r="D174" s="2" t="str">
+        <f>IF(RIGHT(A174, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="230" t="s">
+        <v>3447</v>
+      </c>
+      <c r="B175" s="230" t="s">
+        <v>3251</v>
+      </c>
+      <c r="C175" s="231" t="str">
+        <f>"acfr:"&amp;A175</f>
+        <v>acfr:ExpendituresForGeneralGovernmentServicesLegislativeAndExecutiveModifiedAccrual</v>
+      </c>
+      <c r="D175" s="2" t="str">
+        <f>IF(RIGHT(A175, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="230" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B176" s="230" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C176" s="231" t="str">
+        <f>"acfr:"&amp;A176</f>
+        <v>acfr:ExpendituresForGeneralGovernmentServicesChiefExecutiveModifiedAccrual</v>
+      </c>
+      <c r="D176" s="2" t="str">
+        <f>IF(RIGHT(A176, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="230" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B177" s="230" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C177" s="231" t="str">
+        <f>"acfr:"&amp;A177</f>
+        <v>acfr:ExpendituresForChiefExecutiveAdministratorManagerSuperintendentControllerModifiedAccrual</v>
+      </c>
+      <c r="D177" s="2" t="str">
+        <f>IF(RIGHT(A177, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="230" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B178" s="230" t="s">
+        <v>3255</v>
+      </c>
+      <c r="C178" s="231" t="str">
+        <f>"acfr:"&amp;A178</f>
+        <v>acfr:ExpensesForChiefExecutiveOrganizationUnit</v>
+      </c>
+      <c r="D178" s="2" t="str">
+        <f>IF(RIGHT(A178, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="230" t="s">
+        <v>3453</v>
+      </c>
+      <c r="B179" s="230" t="s">
+        <v>3257</v>
+      </c>
+      <c r="C179" s="231" t="str">
+        <f>"acfr:"&amp;A179</f>
+        <v>acfr:ExpendituresForFinancialAndTaxAdministrationAccountingDepartmentModifiedAccrual</v>
+      </c>
+      <c r="D179" s="2" t="str">
+        <f>IF(RIGHT(A179, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="230" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B180" s="230" t="s">
+        <v>3258</v>
+      </c>
+      <c r="C180" s="231" t="str">
+        <f>"acfr:"&amp;A180</f>
+        <v>acfr:ExpendituresForFinancialAndTaxAdministrationBudgetDepartmentDirectorModifiedAccrual</v>
+      </c>
+      <c r="D180" s="2" t="str">
+        <f>IF(RIGHT(A180, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="230" t="s">
+        <v>3455</v>
+      </c>
+      <c r="B181" s="230" t="s">
+        <v>3259</v>
+      </c>
+      <c r="C181" s="231" t="str">
+        <f>"acfr:"&amp;A181</f>
+        <v>acfr:ExpendituresForClerkModifiedAccrual</v>
+      </c>
+      <c r="D181" s="2" t="str">
+        <f>IF(RIGHT(A181, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="230" t="s">
+        <v>3456</v>
+      </c>
+      <c r="B182" s="230" t="s">
+        <v>3260</v>
+      </c>
+      <c r="C182" s="231" t="str">
+        <f>"acfr:"&amp;A182</f>
+        <v>acfr:ExpendituresForFinancialAndTaxAdministrationInternalAuditExternalAuditBoardOfAuditorsModifiedAccrual</v>
+      </c>
+      <c r="D182" s="2" t="str">
+        <f>IF(RIGHT(A182, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="230" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B183" s="230" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C183" s="231" t="str">
+        <f>"acfr:"&amp;A183</f>
+        <v>acfr:ExpendituresForFinancialAndTaxAdministrationInformationTechnologyModifiedAccrual</v>
+      </c>
+      <c r="D183" s="2" t="str">
+        <f>IF(RIGHT(A183, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="230" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B184" s="230" t="s">
+        <v>3262</v>
+      </c>
+      <c r="C184" s="231" t="str">
+        <f>"acfr:"&amp;A184</f>
+        <v>acfr:ExpendituresForFinancialAndTaxAdministrationPurchasingModifiedAccrual</v>
+      </c>
+      <c r="D184" s="2" t="str">
+        <f>IF(RIGHT(A184, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="230" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B185" s="230" t="s">
+        <v>3263</v>
+      </c>
+      <c r="C185" s="231" t="str">
+        <f>"acfr:"&amp;A185</f>
+        <v>acfr:ExpendituresForFinancialAndTaxAdministrationPropertyDescriptionModifiedAccrual</v>
+      </c>
+      <c r="D185" s="2" t="str">
+        <f>IF(RIGHT(A185, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="230" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B186" s="230" t="s">
+        <v>3264</v>
+      </c>
+      <c r="C186" s="231" t="str">
+        <f>"acfr:"&amp;A186</f>
+        <v>acfr:ExpendituresForFinancialAndTaxAdministrationCountySurveyAndRemonumentationModifiedAccrual</v>
+      </c>
+      <c r="D186" s="2" t="str">
+        <f>IF(RIGHT(A186, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="230" t="s">
+        <v>3461</v>
+      </c>
+      <c r="B187" s="230" t="s">
+        <v>3265</v>
+      </c>
+      <c r="C187" s="231" t="str">
+        <f>"acfr:"&amp;A187</f>
+        <v>acfr:ExpendituresForFinancialAndTaxAdministrationBoardOfReviewModifiedAccrual</v>
+      </c>
+      <c r="D187" s="2" t="str">
+        <f>IF(RIGHT(A187, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="230" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B188" s="230" t="s">
+        <v>3266</v>
+      </c>
+      <c r="C188" s="231" t="str">
+        <f>"acfr:"&amp;A188</f>
+        <v>acfr:ExpendituresForGeneralGovernmentServicesTreasurerModifiedAccrual</v>
+      </c>
+      <c r="D188" s="2" t="str">
+        <f>IF(RIGHT(A188, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="230" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B189" s="230" t="s">
+        <v>3267</v>
+      </c>
+      <c r="C189" s="231" t="str">
+        <f>"acfr:"&amp;A189</f>
+        <v>acfr:ExpendituresForFinancialAndTaxAdministrationDelinquentTaxPropertySalesModifiedAccrual</v>
+      </c>
+      <c r="D189" s="2" t="str">
+        <f>IF(RIGHT(A189, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="230" t="s">
+        <v>3464</v>
+      </c>
+      <c r="B190" s="230" t="s">
+        <v>3268</v>
+      </c>
+      <c r="C190" s="231" t="str">
+        <f>"acfr:"&amp;A190</f>
+        <v>acfr:ExpendituresForGeneralGovernmentServicesAssessingEqualizationModifiedAccrual</v>
+      </c>
+      <c r="D190" s="2" t="str">
+        <f>IF(RIGHT(A190, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="230" t="s">
+        <v>3465</v>
+      </c>
+      <c r="B191" s="230" t="s">
+        <v>3269</v>
+      </c>
+      <c r="C191" s="231" t="str">
+        <f>"acfr:"&amp;A191</f>
+        <v>acfr:ExpendituresForGeneralGovernmentServicesFinanceAndTaxAdministrationModifiedAccrual</v>
+      </c>
+      <c r="D191" s="2" t="str">
+        <f>IF(RIGHT(A191, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="230" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B192" s="230" t="s">
+        <v>3271</v>
+      </c>
+      <c r="C192" s="231" t="str">
+        <f>"acfr:"&amp;A192</f>
+        <v>acfr:ExpendituresForOtherGeneralGovernmentElectionsModifiedAccrual</v>
+      </c>
+      <c r="D192" s="2" t="str">
+        <f>IF(RIGHT(A192, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="230" t="s">
+        <v>3468</v>
+      </c>
+      <c r="B193" s="230" t="s">
+        <v>3272</v>
+      </c>
+      <c r="C193" s="231" t="str">
+        <f>"acfr:"&amp;A193</f>
+        <v>acfr:ExpendituresForOtherGeneralGovernmentBuildingAndGroundsModifiedAccrual</v>
+      </c>
+      <c r="D193" s="2" t="str">
+        <f>IF(RIGHT(A193, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="230" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B194" s="230" t="s">
+        <v>3273</v>
+      </c>
+      <c r="C194" s="231" t="str">
+        <f>"acfr:"&amp;A194</f>
+        <v>acfr:ExpendituresForOtherGeneralGovernmentAttorneyCorporationCounselModifiedAccrual</v>
+      </c>
+      <c r="D194" s="2" t="str">
+        <f>IF(RIGHT(A194, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="230" t="s">
+        <v>3470</v>
+      </c>
+      <c r="B195" s="230" t="s">
+        <v>3274</v>
+      </c>
+      <c r="C195" s="231" t="str">
+        <f>"acfr:"&amp;A195</f>
+        <v>acfr:ExpendituresForOtherGeneralGovernmentCivilServiceMeritSystemModifiedAccrual</v>
+      </c>
+      <c r="D195" s="2" t="str">
+        <f>IF(RIGHT(A195, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="230" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B196" s="230" t="s">
+        <v>3275</v>
+      </c>
+      <c r="C196" s="231" t="str">
+        <f>"acfr:"&amp;A196</f>
+        <v>acfr:ExpendituresForOtherGeneralGovernmentHumanResourcesDepartmentModifiedAccrual</v>
+      </c>
+      <c r="D196" s="2" t="str">
+        <f>IF(RIGHT(A196, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="230" t="s">
+        <v>3472</v>
+      </c>
+      <c r="B197" s="230" t="s">
+        <v>3276</v>
+      </c>
+      <c r="C197" s="231" t="str">
+        <f>"acfr:"&amp;A197</f>
+        <v>acfr:ExpendituresForOtherGeneralGovernmentBuildingAuthorityModifiedAccrual</v>
+      </c>
+      <c r="D197" s="2" t="str">
+        <f>IF(RIGHT(A197, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="230" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B198" s="230" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C198" s="231" t="str">
+        <f>"acfr:"&amp;A198</f>
+        <v>acfr:ExpendituresForOtherGeneralGovernmentRetirementBoardModifiedAccrual</v>
+      </c>
+      <c r="D198" s="2" t="str">
+        <f>IF(RIGHT(A198, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="230" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B199" s="230" t="s">
+        <v>3278</v>
+      </c>
+      <c r="C199" s="231" t="str">
+        <f>"acfr:"&amp;A199</f>
+        <v>acfr:ExpendituresForGeneralGovernmentServicesOthersModifiedAccrual</v>
+      </c>
+      <c r="D199" s="2" t="str">
+        <f>IF(RIGHT(A199, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="230" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B200" s="230" t="s">
+        <v>3279</v>
+      </c>
+      <c r="C200" s="231" t="str">
+        <f>"acfr:"&amp;A200</f>
+        <v>acfr:ExpendituresForGeneralGovernmentServicesModifiedAccrual</v>
+      </c>
+      <c r="D200" s="2" t="str">
+        <f>IF(RIGHT(A200, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="230" t="s">
+        <v>3477</v>
+      </c>
+      <c r="B201" s="230" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C201" s="231" t="str">
+        <f>"acfr:"&amp;A201</f>
+        <v>acfr:ExpendituresForJudicialTrialCourtModifiedAccrual</v>
+      </c>
+      <c r="D201" s="2" t="str">
+        <f>IF(RIGHT(A201, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="230" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B202" s="230" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C202" s="231" t="str">
+        <f>"acfr:"&amp;A202</f>
+        <v>acfr:ExpendituresForJudicialCircuitCourtModifiedAccrual</v>
+      </c>
+      <c r="D202" s="2" t="str">
+        <f>IF(RIGHT(A202, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="230" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B203" s="230" t="s">
+        <v>3283</v>
+      </c>
+      <c r="C203" s="231" t="str">
+        <f>"acfr:"&amp;A203</f>
+        <v>acfr:ExpendituresForJudicialDistrictAndMunicipalCourtModifiedAccrual</v>
+      </c>
+      <c r="D203" s="2" t="str">
+        <f>IF(RIGHT(A203, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="230" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B204" s="230" t="s">
+        <v>3284</v>
+      </c>
+      <c r="C204" s="231" t="str">
+        <f>"acfr:"&amp;A204</f>
+        <v>acfr:ExpendituresForJudicialFriendOfTheCourtModifiedAccrual</v>
+      </c>
+      <c r="D204" s="2" t="str">
+        <f>IF(RIGHT(A204, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="230" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B205" s="230" t="s">
+        <v>3285</v>
+      </c>
+      <c r="C205" s="231" t="str">
+        <f>"acfr:"&amp;A205</f>
+        <v>acfr:ExpendituresForJudicialFriendOfTheCourtCooperativeReimbursementProgramModifiedAccrual</v>
+      </c>
+      <c r="D205" s="2" t="str">
+        <f>IF(RIGHT(A205, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="230" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B206" s="230" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C206" s="231" t="str">
+        <f>"acfr:"&amp;A206</f>
+        <v>acfr:ExpendituresForJudicialLawLibraryModifiedAccrual</v>
+      </c>
+      <c r="D206" s="2" t="str">
+        <f>IF(RIGHT(A206, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="230" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B207" s="230" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C207" s="231" t="str">
+        <f>"acfr:"&amp;A207</f>
+        <v>acfr:ExpendituresForJudicialProbateCourtModifiedAccrual</v>
+      </c>
+      <c r="D207" s="2" t="str">
+        <f>IF(RIGHT(A207, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="230" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B208" s="230" t="s">
+        <v>3288</v>
+      </c>
+      <c r="C208" s="231" t="str">
+        <f>"acfr:"&amp;A208</f>
+        <v>acfr:ExpendituresForJudicialProbationModifiedAccrual</v>
+      </c>
+      <c r="D208" s="2" t="str">
+        <f>IF(RIGHT(A208, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="230" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B209" s="230" t="s">
+        <v>3289</v>
+      </c>
+      <c r="C209" s="231" t="str">
+        <f>"acfr:"&amp;A209</f>
+        <v>acfr:ExpendituresForJudicialProsecutingAttorneyModifiedAccrual</v>
+      </c>
+      <c r="D209" s="2" t="str">
+        <f>IF(RIGHT(A209, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="230" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B210" s="230" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C210" s="231" t="str">
+        <f>"acfr:"&amp;A210</f>
+        <v>acfr:ExpendituresForJudicialGrandJuryModifiedAccrual</v>
+      </c>
+      <c r="D210" s="2" t="str">
+        <f>IF(RIGHT(A210, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="230" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B211" s="230" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C211" s="231" t="str">
+        <f>"acfr:"&amp;A211</f>
+        <v>acfr:ExpendituresForJudicialFamilyCounselingServicesModifiedAccrual</v>
+      </c>
+      <c r="D211" s="2" t="str">
+        <f>IF(RIGHT(A211, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="230" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B212" s="230" t="s">
+        <v>3292</v>
+      </c>
+      <c r="C212" s="231" t="str">
+        <f>"acfr:"&amp;A212</f>
+        <v>acfr:ExpendituresForJudicialActivitiesModifiedAccrual</v>
+      </c>
+      <c r="D212" s="2" t="str">
+        <f>IF(RIGHT(A212, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="230" t="s">
+        <v>3490</v>
+      </c>
+      <c r="B213" s="230" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C213" s="231" t="str">
+        <f>"acfr:"&amp;A213</f>
+        <v>acfr:ExpendituresForPublicSafetyPoliceSheriffAndConstableModifiedAccrual</v>
+      </c>
+      <c r="D213" s="2" t="str">
+        <f>IF(RIGHT(A213, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="230" t="s">
+        <v>3491</v>
+      </c>
+      <c r="B214" s="230" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C214" s="231" t="str">
+        <f>"acfr:"&amp;A214</f>
+        <v>acfr:ExpendituresForPublicSafetyAdministrationModifiedAccrual</v>
+      </c>
+      <c r="D214" s="2" t="str">
+        <f>IF(RIGHT(A214, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="230" t="s">
+        <v>3492</v>
+      </c>
+      <c r="B215" s="230" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C215" s="231" t="str">
+        <f>"acfr:"&amp;A215</f>
+        <v>acfr:ExpendituresForCrimeControlAndInvestigationModifiedAccrual</v>
+      </c>
+      <c r="D215" s="2" t="str">
+        <f>IF(RIGHT(A215, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="230" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B216" s="230" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C216" s="231" t="str">
+        <f>"acfr:"&amp;A216</f>
+        <v>acfr:ExpendituresForTrafficAndSafetyProgramModifiedAccrual</v>
+      </c>
+      <c r="D216" s="2" t="str">
+        <f>IF(RIGHT(A216, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="230" t="s">
+        <v>3494</v>
+      </c>
+      <c r="B217" s="230" t="s">
+        <v>3298</v>
+      </c>
+      <c r="C217" s="231" t="str">
+        <f>"acfr:"&amp;A217</f>
+        <v>acfr:ExpendituresForTrainingModifiedAccrual</v>
+      </c>
+      <c r="D217" s="2" t="str">
+        <f>IF(RIGHT(A217, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="230" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B218" s="230" t="s">
+        <v>3299</v>
+      </c>
+      <c r="C218" s="231" t="str">
+        <f>"acfr:"&amp;A218</f>
+        <v>acfr:ExpendituresForCommunicationsDispatchModifiedAccrual</v>
+      </c>
+      <c r="D218" s="2" t="str">
+        <f>IF(RIGHT(A218, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="230" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B219" s="230" t="s">
+        <v>3300</v>
+      </c>
+      <c r="C219" s="231" t="str">
+        <f>"acfr:"&amp;A219</f>
+        <v>acfr:ExpendituresForLiquorLawEnforcementModifiedAccrual</v>
+      </c>
+      <c r="D219" s="2" t="str">
+        <f>IF(RIGHT(A219, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="230" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B220" s="230" t="s">
+        <v>3301</v>
+      </c>
+      <c r="C220" s="231" t="str">
+        <f>"acfr:"&amp;A220</f>
+        <v>acfr:ExpendituresForMarineLawEnforcementModifiedAccrual</v>
+      </c>
+      <c r="D220" s="2" t="str">
+        <f>IF(RIGHT(A220, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="230" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B221" s="230" t="s">
+        <v>3302</v>
+      </c>
+      <c r="C221" s="231" t="str">
+        <f>"acfr:"&amp;A221</f>
+        <v>acfr:ExpendituresForSnowmobileLawEnforcementModifiedAccrual</v>
+      </c>
+      <c r="D221" s="2" t="str">
+        <f>IF(RIGHT(A221, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="230" t="s">
+        <v>3500</v>
+      </c>
+      <c r="B222" s="230" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C222" s="231" t="str">
+        <f>"acfr:"&amp;A222</f>
+        <v>acfr:ExpendituresForPublicSafetyFireDepartmentAdministrationModifiedAccrual</v>
+      </c>
+      <c r="D222" s="2" t="str">
+        <f>IF(RIGHT(A222, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="230" t="s">
+        <v>3501</v>
+      </c>
+      <c r="B223" s="230" t="s">
+        <v>3305</v>
+      </c>
+      <c r="C223" s="231" t="str">
+        <f>"acfr:"&amp;A223</f>
+        <v>acfr:ExpendituresForPublicSafetyFireFightingModifiedAccrual</v>
+      </c>
+      <c r="D223" s="2" t="str">
+        <f>IF(RIGHT(A223, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="230" t="s">
+        <v>3502</v>
+      </c>
+      <c r="B224" s="230" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C224" s="231" t="str">
+        <f>"acfr:"&amp;A224</f>
+        <v>acfr:ExpendituresForPublicSafetyFirePreventionModifiedAccrual</v>
+      </c>
+      <c r="D224" s="2" t="str">
+        <f>IF(RIGHT(A224, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="230" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B225" s="230" t="s">
+        <v>3307</v>
+      </c>
+      <c r="C225" s="231" t="str">
+        <f>"acfr:"&amp;A225</f>
+        <v>acfr:ExpendituresForPublicSafetyFireTrainingModifiedAccrual</v>
+      </c>
+      <c r="D225" s="2" t="str">
+        <f>IF(RIGHT(A225, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="230" t="s">
+        <v>3504</v>
+      </c>
+      <c r="B226" s="230" t="s">
+        <v>3308</v>
+      </c>
+      <c r="C226" s="231" t="str">
+        <f>"acfr:"&amp;A226</f>
+        <v>acfr:ExpendituresForPublicSafetyFireDepartmentCommunicationModifiedAccrual</v>
+      </c>
+      <c r="D226" s="2" t="str">
+        <f>IF(RIGHT(A226, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="230" t="s">
+        <v>3505</v>
+      </c>
+      <c r="B227" s="230" t="s">
+        <v>3309</v>
+      </c>
+      <c r="C227" s="231" t="str">
+        <f>"acfr:"&amp;A227</f>
+        <v>acfr:ExpendituresForPublicSafetyFireDepartmentModifiedAccrual</v>
+      </c>
+      <c r="D227" s="2" t="str">
+        <f>IF(RIGHT(A227, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="230" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B228" s="230" t="s">
+        <v>3310</v>
+      </c>
+      <c r="C228" s="231" t="str">
+        <f>"acfr:"&amp;A228</f>
+        <v>acfr:ExpendituresForPublicSafetyCombinedPublicSafetyDepartmentModifiedAccrual</v>
+      </c>
+      <c r="D228" s="2" t="str">
+        <f>IF(RIGHT(A228, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="230" t="s">
+        <v>3507</v>
+      </c>
+      <c r="B229" s="230" t="s">
+        <v>3311</v>
+      </c>
+      <c r="C229" s="231" t="str">
+        <f>"acfr:"&amp;A229</f>
+        <v>acfr:ExpendituresForPublicSafetyCorrectionsJailModifiedAccrual</v>
+      </c>
+      <c r="D229" s="2" t="str">
+        <f>IF(RIGHT(A229, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="230" t="s">
+        <v>3508</v>
+      </c>
+      <c r="B230" s="230" t="s">
+        <v>3312</v>
+      </c>
+      <c r="C230" s="231" t="str">
+        <f>"acfr:"&amp;A230</f>
+        <v>acfr:ExpendituresForPublicSafetyJuvenileCorrectionalInstituteModifiedAccrual</v>
+      </c>
+      <c r="D230" s="2" t="str">
+        <f>IF(RIGHT(A230, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="230" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B231" s="230" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C231" s="231" t="str">
+        <f>"acfr:"&amp;A231</f>
+        <v>acfr:ExpendituresForCorrectionsTrainingModifiedAccrual</v>
+      </c>
+      <c r="D231" s="2" t="str">
+        <f>IF(RIGHT(A231, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="230" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B232" s="230" t="s">
+        <v>3314</v>
+      </c>
+      <c r="C232" s="231" t="str">
+        <f>"acfr:"&amp;A232</f>
+        <v>acfr:ExpendituresForPublicSafetyParoleModifiedAccrual</v>
+      </c>
+      <c r="D232" s="2" t="str">
+        <f>IF(RIGHT(A232, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="230" t="s">
+        <v>3511</v>
+      </c>
+      <c r="B233" s="230" t="s">
+        <v>3315</v>
+      </c>
+      <c r="C233" s="231" t="str">
+        <f>"acfr:"&amp;A233</f>
+        <v>acfr:ExpendituresForPublicSafetyBuildingInspectionsActivitiesModifiedAccrual</v>
+      </c>
+      <c r="D233" s="2" t="str">
+        <f>IF(RIGHT(A233, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="230" t="s">
+        <v>3512</v>
+      </c>
+      <c r="B234" s="230" t="s">
+        <v>3316</v>
+      </c>
+      <c r="C234" s="231" t="str">
+        <f>"acfr:"&amp;A234</f>
+        <v>acfr:ExpendituresForPublicSafetyEmergencyManagementHomelandSecurityModifiedAccrual</v>
+      </c>
+      <c r="D234" s="2" t="str">
+        <f>IF(RIGHT(A234, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="230" t="s">
+        <v>3513</v>
+      </c>
+      <c r="B235" s="230" t="s">
+        <v>3317</v>
+      </c>
+      <c r="C235" s="231" t="str">
+        <f>"acfr:"&amp;A235</f>
+        <v>acfr:ExpendituresForPublicSafetyWaterSafetyCouncilModifiedAccrual</v>
+      </c>
+      <c r="D235" s="2" t="str">
+        <f>IF(RIGHT(A235, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="230" t="s">
+        <v>3514</v>
+      </c>
+      <c r="B236" s="230" t="s">
+        <v>3318</v>
+      </c>
+      <c r="C236" s="231" t="str">
+        <f>"acfr:"&amp;A236</f>
+        <v>acfr:ExpendituresForPublicSafetyAnimalShelterDogWardenModifiedAccrual</v>
+      </c>
+      <c r="D236" s="2" t="str">
+        <f>IF(RIGHT(A236, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="230" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B237" s="230" t="s">
+        <v>3319</v>
+      </c>
+      <c r="C237" s="231" t="str">
+        <f>"acfr:"&amp;A237</f>
+        <v>acfr:ExpendituresForSecurityOfPersonsAndPropertyServicesModifiedAccrual</v>
+      </c>
+      <c r="D237" s="2" t="str">
+        <f>IF(RIGHT(A237, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="230" t="s">
+        <v>3516</v>
+      </c>
+      <c r="B238" s="230" t="s">
+        <v>3320</v>
+      </c>
+      <c r="C238" s="231" t="str">
+        <f>"acfr:"&amp;A238</f>
+        <v>acfr:ExpendituresForPublicSafetyServicesModifiedAccrual</v>
+      </c>
+      <c r="D238" s="2" t="str">
+        <f>IF(RIGHT(A238, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="230" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B239" s="230" t="s">
+        <v>3322</v>
+      </c>
+      <c r="C239" s="231" t="str">
+        <f>"acfr:"&amp;A239</f>
+        <v>acfr:ExpendituresForPublicWorksInfrastructureModifiedAccrual</v>
+      </c>
+      <c r="D239" s="2" t="str">
+        <f>IF(RIGHT(A239, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="230" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B240" s="230" t="s">
+        <v>3323</v>
+      </c>
+      <c r="C240" s="231" t="str">
+        <f>"acfr:"&amp;A240</f>
+        <v>acfr:ExpendituresForPublicWorksDepartmentOfPublicWorksModifiedAccrual</v>
+      </c>
+      <c r="D240" s="2" t="str">
+        <f>IF(RIGHT(A240, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="230" t="s">
+        <v>3520</v>
+      </c>
+      <c r="B241" s="230" t="s">
+        <v>3324</v>
+      </c>
+      <c r="C241" s="231" t="str">
+        <f>"acfr:"&amp;A241</f>
+        <v>acfr:ExpendituresForPublicWorksDrainCommissionerWaterResourceCommissionerModifiedAccrual</v>
+      </c>
+      <c r="D241" s="2" t="str">
+        <f>IF(RIGHT(A241, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="230" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B242" s="230" t="s">
+        <v>3325</v>
+      </c>
+      <c r="C242" s="231" t="str">
+        <f>"acfr:"&amp;A242</f>
+        <v>acfr:ExpendituresForPublicWorksSidewalksModifiedAccrual</v>
+      </c>
+      <c r="D242" s="2" t="str">
+        <f>IF(RIGHT(A242, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="230" t="s">
+        <v>3522</v>
+      </c>
+      <c r="B243" s="230" t="s">
+        <v>3326</v>
+      </c>
+      <c r="C243" s="231" t="str">
+        <f>"acfr:"&amp;A243</f>
+        <v>acfr:ExpendituresForPublicWorksDrainsPublicBenefitModifiedAccrual</v>
+      </c>
+      <c r="D243" s="2" t="str">
+        <f>IF(RIGHT(A243, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="230" t="s">
+        <v>3523</v>
+      </c>
+      <c r="B244" s="230" t="s">
+        <v>3327</v>
+      </c>
+      <c r="C244" s="231" t="str">
+        <f>"acfr:"&amp;A244</f>
+        <v>acfr:ExpendituresForPublicWorksRoadsStreetsBridgesModifiedAccrual</v>
+      </c>
+      <c r="D244" s="2" t="str">
+        <f>IF(RIGHT(A244, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="230" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B245" s="230" t="s">
+        <v>3328</v>
+      </c>
+      <c r="C245" s="231" t="str">
+        <f>"acfr:"&amp;A245</f>
+        <v>acfr:ExpendituresForPublicWorksEngineeringModifiedAccrual</v>
+      </c>
+      <c r="D245" s="2" t="str">
+        <f>IF(RIGHT(A245, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="230" t="s">
+        <v>3525</v>
+      </c>
+      <c r="B246" s="230" t="s">
+        <v>3329</v>
+      </c>
+      <c r="C246" s="231" t="str">
+        <f>"acfr:"&amp;A246</f>
+        <v>acfr:ExpendituresForPublicWorksStreetLightingModifiedAccrual</v>
+      </c>
+      <c r="D246" s="2" t="str">
+        <f>IF(RIGHT(A246, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="230" t="s">
+        <v>3526</v>
+      </c>
+      <c r="B247" s="230" t="s">
+        <v>3330</v>
+      </c>
+      <c r="C247" s="231" t="str">
+        <f>"acfr:"&amp;A247</f>
+        <v>acfr:ExpendituresForPublicWorksRoadCommissionStreetDepartmentModifiedAccrual</v>
+      </c>
+      <c r="D247" s="2" t="str">
+        <f>IF(RIGHT(A247, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="230" t="s">
+        <v>3527</v>
+      </c>
+      <c r="B248" s="230" t="s">
+        <v>3331</v>
+      </c>
+      <c r="C248" s="231" t="str">
+        <f>"acfr:"&amp;A248</f>
+        <v>acfr:ExpendituresForPublicWorksSanitationDepartmentModifiedAccrual</v>
+      </c>
+      <c r="D248" s="2" t="str">
+        <f>IF(RIGHT(A248, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="230" t="s">
+        <v>3528</v>
+      </c>
+      <c r="B249" s="230" t="s">
+        <v>3332</v>
+      </c>
+      <c r="C249" s="231" t="str">
+        <f>"acfr:"&amp;A249</f>
+        <v>acfr:ExpendituresForPublicWorksStreetCleaningModifiedAccrual</v>
+      </c>
+      <c r="D249" s="2" t="str">
+        <f>IF(RIGHT(A249, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="230" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B250" s="230" t="s">
+        <v>3333</v>
+      </c>
+      <c r="C250" s="231" t="str">
+        <f>"acfr:"&amp;A250</f>
+        <v>acfr:ExpendituresForPublicWorksSanitaryLandfillModifiedAccrual</v>
+      </c>
+      <c r="D250" s="2" t="str">
+        <f>IF(RIGHT(A250, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="230" t="s">
+        <v>3530</v>
+      </c>
+      <c r="B251" s="230" t="s">
+        <v>3334</v>
+      </c>
+      <c r="C251" s="231" t="str">
+        <f>"acfr:"&amp;A251</f>
+        <v>acfr:ExpendituresForPublicWorksSewageDisposalModifiedAccrual</v>
+      </c>
+      <c r="D251" s="2" t="str">
+        <f>IF(RIGHT(A251, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="230" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B252" s="230" t="s">
+        <v>3335</v>
+      </c>
+      <c r="C252" s="231" t="str">
+        <f>"acfr:"&amp;A252</f>
+        <v>acfr:ExpendituresForPublicWorksRubbishCollectionDisposalModifiedAccrual</v>
+      </c>
+      <c r="D252" s="2" t="str">
+        <f>IF(RIGHT(A252, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="230" t="s">
+        <v>3532</v>
+      </c>
+      <c r="B253" s="230" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C253" s="231" t="str">
+        <f>"acfr:"&amp;A253</f>
+        <v>acfr:ExpendituresForPublicWorksWaterAndSewerSystemsModifiedAccrual</v>
+      </c>
+      <c r="D253" s="2" t="str">
+        <f>IF(RIGHT(A253, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="230" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B254" s="230" t="s">
+        <v>3337</v>
+      </c>
+      <c r="C254" s="231" t="str">
+        <f>"acfr:"&amp;A254</f>
+        <v>acfr:ExpendituresForPublicWorksCemeteryModifiedAccrual</v>
+      </c>
+      <c r="D254" s="2" t="str">
+        <f>IF(RIGHT(A254, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="230" t="s">
+        <v>3534</v>
+      </c>
+      <c r="B255" s="230" t="s">
+        <v>3338</v>
+      </c>
+      <c r="C255" s="231" t="str">
+        <f>"acfr:"&amp;A255</f>
+        <v>acfr:ExpendituresForPublicWorksSoilConservationModifiedAccrual</v>
+      </c>
+      <c r="D255" s="2" t="str">
+        <f>IF(RIGHT(A255, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="230" t="s">
+        <v>3535</v>
+      </c>
+      <c r="B256" s="230" t="s">
+        <v>3339</v>
+      </c>
+      <c r="C256" s="231" t="str">
+        <f>"acfr:"&amp;A256</f>
+        <v>acfr:ExpendituresForPublicWorksWatershedCouncilModifiedAccrual</v>
+      </c>
+      <c r="D256" s="2" t="str">
+        <f>IF(RIGHT(A256, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="230" t="s">
+        <v>3536</v>
+      </c>
+      <c r="B257" s="230" t="s">
+        <v>3340</v>
+      </c>
+      <c r="C257" s="231" t="str">
+        <f>"acfr:"&amp;A257</f>
+        <v>acfr:ExpendituresForPublicWorksLakeImprovementsModifiedAccrual</v>
+      </c>
+      <c r="D257" s="2" t="str">
+        <f>IF(RIGHT(A257, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="230" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B258" s="230" t="s">
+        <v>3341</v>
+      </c>
+      <c r="C258" s="231" t="str">
+        <f>"acfr:"&amp;A258</f>
+        <v>acfr:ExpendituresForSanitarySewerServicesModifiedAccrual</v>
+      </c>
+      <c r="D258" s="2" t="str">
+        <f>IF(RIGHT(A258, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="230" t="s">
+        <v>3538</v>
+      </c>
+      <c r="B259" s="230" t="s">
+        <v>3342</v>
+      </c>
+      <c r="C259" s="231" t="str">
+        <f>"acfr:"&amp;A259</f>
+        <v>acfr:ExpendituresForStormSewerServicesModifiedAccrual</v>
+      </c>
+      <c r="D259" s="2" t="str">
+        <f>IF(RIGHT(A259, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="230" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B260" s="230" t="s">
+        <v>3343</v>
+      </c>
+      <c r="C260" s="231" t="str">
+        <f>"acfr:"&amp;A260</f>
+        <v>acfr:ExpendituresForElectricityAndPowerServicesModifiedAccrual</v>
+      </c>
+      <c r="D260" s="2" t="str">
+        <f>IF(RIGHT(A260, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="230" t="s">
+        <v>3540</v>
+      </c>
+      <c r="B261" s="230" t="s">
+        <v>3344</v>
+      </c>
+      <c r="C261" s="231" t="str">
+        <f>"acfr:"&amp;A261</f>
+        <v>acfr:ExpendituresForAirportServicesModifiedAccrual</v>
+      </c>
+      <c r="D261" s="2" t="str">
+        <f>IF(RIGHT(A261, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="230" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B262" s="230" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C262" s="231" t="str">
+        <f>"acfr:"&amp;A262</f>
+        <v>acfr:ExpendituresForTransportationServicesModifiedAccrual</v>
+      </c>
+      <c r="D262" s="2" t="str">
+        <f>IF(RIGHT(A262, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="230" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B263" s="230" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C263" s="231" t="str">
+        <f>"acfr:"&amp;A263</f>
+        <v>acfr:ExpendituresForHarborMarinaModifiedAccrual</v>
+      </c>
+      <c r="D263" s="2" t="str">
+        <f>IF(RIGHT(A263, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="230" t="s">
+        <v>3543</v>
+      </c>
+      <c r="B264" s="230" t="s">
+        <v>3347</v>
+      </c>
+      <c r="C264" s="231" t="str">
+        <f>"acfr:"&amp;A264</f>
+        <v>acfr:ExpendituresForPublicWorksServicesModifiedAccrual</v>
+      </c>
+      <c r="D264" s="2" t="str">
+        <f>IF(RIGHT(A264, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="230" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B265" s="230" t="s">
+        <v>3349</v>
+      </c>
+      <c r="C265" s="231" t="str">
+        <f>"acfr:"&amp;A265</f>
+        <v>acfr:ExpendituresForHealthAndWelfareHealthDepartmentModifiedAccrual</v>
+      </c>
+      <c r="D265" s="2" t="str">
+        <f>IF(RIGHT(A265, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="230" t="s">
+        <v>3546</v>
+      </c>
+      <c r="B266" s="230" t="s">
+        <v>3350</v>
+      </c>
+      <c r="C266" s="231" t="str">
+        <f>"acfr:"&amp;A266</f>
+        <v>acfr:ExpendituresForHealthAndWelfareContagiousDiseasesModifiedAccrual</v>
+      </c>
+      <c r="D266" s="2" t="str">
+        <f>IF(RIGHT(A266, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="230" t="s">
+        <v>3547</v>
+      </c>
+      <c r="B267" s="230" t="s">
+        <v>3351</v>
+      </c>
+      <c r="C267" s="231" t="str">
+        <f>"acfr:"&amp;A267</f>
+        <v>acfr:ExpendituresForHealthAndWelfareHealthBoardModifiedAccrual</v>
+      </c>
+      <c r="D267" s="2" t="str">
+        <f>IF(RIGHT(A267, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="230" t="s">
+        <v>3548</v>
+      </c>
+      <c r="B268" s="230" t="s">
+        <v>3352</v>
+      </c>
+      <c r="C268" s="231" t="str">
+        <f>"acfr:"&amp;A268</f>
+        <v>acfr:ExpendituresForHealthAndWelfareHealthClinicsModifiedAccrual</v>
+      </c>
+      <c r="D268" s="2" t="str">
+        <f>IF(RIGHT(A268, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="230" t="s">
+        <v>3549</v>
+      </c>
+      <c r="B269" s="230" t="s">
+        <v>3353</v>
+      </c>
+      <c r="C269" s="231" t="str">
+        <f>"acfr:"&amp;A269</f>
+        <v>acfr:ExpendituresForHealthAndWelfareMosquitoControlModifiedAccrual</v>
+      </c>
+      <c r="D269" s="2" t="str">
+        <f>IF(RIGHT(A269, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="230" t="s">
+        <v>3550</v>
+      </c>
+      <c r="B270" s="230" t="s">
+        <v>3354</v>
+      </c>
+      <c r="C270" s="231" t="str">
+        <f>"acfr:"&amp;A270</f>
+        <v>acfr:ExpendituresForHealthAndWelfarePollutionControlModifiedAccrual</v>
+      </c>
+      <c r="D270" s="2" t="str">
+        <f>IF(RIGHT(A270, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="230" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B271" s="230" t="s">
+        <v>3355</v>
+      </c>
+      <c r="C271" s="231" t="str">
+        <f>"acfr:"&amp;A271</f>
+        <v>acfr:ExpendituresForHealthAndWelfareAlcoholismAndSubstanceAbuseModifiedAccrual</v>
+      </c>
+      <c r="D271" s="2" t="str">
+        <f>IF(RIGHT(A271, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="230" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B272" s="230" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C272" s="231" t="str">
+        <f>"acfr:"&amp;A272</f>
+        <v>acfr:ExpendituresForHealthAndWelfareHospitalModifiedAccrual</v>
+      </c>
+      <c r="D272" s="2" t="str">
+        <f>IF(RIGHT(A272, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="230" t="s">
+        <v>3553</v>
+      </c>
+      <c r="B273" s="230" t="s">
+        <v>3357</v>
+      </c>
+      <c r="C273" s="231" t="str">
+        <f>"acfr:"&amp;A273</f>
+        <v>acfr:ExpendituresForHealthAndWelfareMedicalExaminerModifiedAccrual</v>
+      </c>
+      <c r="D273" s="2" t="str">
+        <f>IF(RIGHT(A273, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="230" t="s">
+        <v>3554</v>
+      </c>
+      <c r="B274" s="230" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C274" s="231" t="str">
+        <f>"acfr:"&amp;A274</f>
+        <v>acfr:ExpendituresForHealthAndWelfareMentalHealthModifiedAccrual</v>
+      </c>
+      <c r="D274" s="2" t="str">
+        <f>IF(RIGHT(A274, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="230" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B275" s="230" t="s">
+        <v>3359</v>
+      </c>
+      <c r="C275" s="231" t="str">
+        <f>"acfr:"&amp;A275</f>
+        <v>acfr:ExpendituresForHealthAndWelfareStateInstitutionsModifiedAccrual</v>
+      </c>
+      <c r="D275" s="2" t="str">
+        <f>IF(RIGHT(A275, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="230" t="s">
+        <v>3556</v>
+      </c>
+      <c r="B276" s="230" t="s">
+        <v>3360</v>
+      </c>
+      <c r="C276" s="231" t="str">
+        <f>"acfr:"&amp;A276</f>
+        <v>acfr:ExpendituresForHealthAndWelfareEmergencyServicesModifiedAccrual</v>
+      </c>
+      <c r="D276" s="2" t="str">
+        <f>IF(RIGHT(A276, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="230" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B277" s="230" t="s">
+        <v>3361</v>
+      </c>
+      <c r="C277" s="231" t="str">
+        <f>"acfr:"&amp;A277</f>
+        <v>acfr:ExpendituresForHealthAndWelfareChildCareModifiedAccrual</v>
+      </c>
+      <c r="D277" s="2" t="str">
+        <f>IF(RIGHT(A277, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="230" t="s">
+        <v>3558</v>
+      </c>
+      <c r="B278" s="230" t="s">
+        <v>3362</v>
+      </c>
+      <c r="C278" s="231" t="str">
+        <f>"acfr:"&amp;A278</f>
+        <v>acfr:ExpendituresForHealthAndWelfareChildCareDepartmentOfHumanServicesModifiedAccrual</v>
+      </c>
+      <c r="D278" s="2" t="str">
+        <f>IF(RIGHT(A278, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="230" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B279" s="230" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C279" s="231" t="str">
+        <f>"acfr:"&amp;A279</f>
+        <v>acfr:ExpendituresForHealthAndWelfareHumanServicesMedicalCareModifiedAccrual</v>
+      </c>
+      <c r="D279" s="2" t="str">
+        <f>IF(RIGHT(A279, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="230" t="s">
+        <v>3560</v>
+      </c>
+      <c r="B280" s="230" t="s">
+        <v>3364</v>
+      </c>
+      <c r="C280" s="231" t="str">
+        <f>"acfr:"&amp;A280</f>
+        <v>acfr:ExpendituresForHealthAndWelfareMedicalCareFacilityModifiedAccrual</v>
+      </c>
+      <c r="D280" s="2" t="str">
+        <f>IF(RIGHT(A280, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="230" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B281" s="230" t="s">
+        <v>3365</v>
+      </c>
+      <c r="C281" s="231" t="str">
+        <f>"acfr:"&amp;A281</f>
+        <v>acfr:ExpendituresForHealthAndWelfareAreaAgencyOnAgingModifiedAccrual</v>
+      </c>
+      <c r="D281" s="2" t="str">
+        <f>IF(RIGHT(A281, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="230" t="s">
+        <v>3562</v>
+      </c>
+      <c r="B282" s="230" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C282" s="231" t="str">
+        <f>"acfr:"&amp;A282</f>
+        <v>acfr:ExpendituresForHealthAndWelfareVeteransBurialsModifiedAccrual</v>
+      </c>
+      <c r="D282" s="2" t="str">
+        <f>IF(RIGHT(A282, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="230" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B283" s="230" t="s">
+        <v>3367</v>
+      </c>
+      <c r="C283" s="231" t="str">
+        <f>"acfr:"&amp;A283</f>
+        <v>acfr:ExpendituresForHealthAndWelfareVeteransCounselorModifiedAccrual</v>
+      </c>
+      <c r="D283" s="2" t="str">
+        <f>IF(RIGHT(A283, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="230" t="s">
+        <v>3564</v>
+      </c>
+      <c r="B284" s="230" t="s">
+        <v>3368</v>
+      </c>
+      <c r="C284" s="231" t="str">
+        <f>"acfr:"&amp;A284</f>
+        <v>acfr:ExpendituresForHealthAndWelfareVeteransTrustBoardModifiedAccrual</v>
+      </c>
+      <c r="D284" s="2" t="str">
+        <f>IF(RIGHT(A284, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="230" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B285" s="230" t="s">
+        <v>3369</v>
+      </c>
+      <c r="C285" s="231" t="str">
+        <f>"acfr:"&amp;A285</f>
+        <v>acfr:ExpendituresForHealthAndWelfareVeteransReliefModifiedAccrual</v>
+      </c>
+      <c r="D285" s="2" t="str">
+        <f>IF(RIGHT(A285, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="230" t="s">
+        <v>3566</v>
+      </c>
+      <c r="B286" s="230" t="s">
+        <v>3370</v>
+      </c>
+      <c r="C286" s="231" t="str">
+        <f>"acfr:"&amp;A286</f>
+        <v>acfr:ExpendituresForHealthAndWelfareRedevelopmentAndHousingModifiedAccrual</v>
+      </c>
+      <c r="D286" s="2" t="str">
+        <f>IF(RIGHT(A286, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="230" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B287" s="230" t="s">
+        <v>3371</v>
+      </c>
+      <c r="C287" s="231" t="str">
+        <f>"acfr:"&amp;A287</f>
+        <v>acfr:ExpendituresForHealthAndWelfarePublicHousingModifiedAccrual</v>
+      </c>
+      <c r="D287" s="2" t="str">
+        <f>IF(RIGHT(A287, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="230" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B288" s="230" t="s">
+        <v>3372</v>
+      </c>
+      <c r="C288" s="231" t="str">
+        <f>"acfr:"&amp;A288</f>
+        <v>acfr:ExpendituresForHealthAndWelfareCommunityActionProgramModifiedAccrual</v>
+      </c>
+      <c r="D288" s="2" t="str">
+        <f>IF(RIGHT(A288, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="230" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B289" s="230" t="s">
+        <v>3373</v>
+      </c>
+      <c r="C289" s="231" t="str">
+        <f>"acfr:"&amp;A289</f>
+        <v>acfr:ExpendituresForHealthAndWelfareCommunityDevelopmentBlockGrantModifiedAccrual</v>
+      </c>
+      <c r="D289" s="2" t="str">
+        <f>IF(RIGHT(A289, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="230" t="s">
+        <v>3570</v>
+      </c>
+      <c r="B290" s="230" t="s">
+        <v>3374</v>
+      </c>
+      <c r="C290" s="231" t="str">
+        <f>"acfr:"&amp;A290</f>
+        <v>acfr:ExpendituresForHealthAndWelfareModifiedAccrual</v>
+      </c>
+      <c r="D290" s="2" t="str">
+        <f>IF(RIGHT(A290, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="230" t="s">
+        <v>3571</v>
+      </c>
+      <c r="B291" s="230" t="s">
+        <v>3375</v>
+      </c>
+      <c r="C291" s="231" t="str">
+        <f>"acfr:"&amp;A291</f>
+        <v>acfr:ExpendituresForPublicHealthAndSanitationServicesModifiedAccrual</v>
+      </c>
+      <c r="D291" s="2" t="str">
+        <f>IF(RIGHT(A291, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="230" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B292" s="230" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C292" s="231" t="str">
+        <f>"acfr:"&amp;A292</f>
+        <v>acfr:ExpendituresForCommunityEconomicDevelopmentPlanningModifiedAccrual</v>
+      </c>
+      <c r="D292" s="2" t="str">
+        <f>IF(RIGHT(A292, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="230" t="s">
+        <v>3574</v>
+      </c>
+      <c r="B293" s="230" t="s">
+        <v>3378</v>
+      </c>
+      <c r="C293" s="231" t="str">
+        <f>"acfr:"&amp;A293</f>
+        <v>acfr:ExpendituresForCommunityEconomicDevelopmentZoningModifiedAccrual</v>
+      </c>
+      <c r="D293" s="2" t="str">
+        <f>IF(RIGHT(A293, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="230" t="s">
+        <v>3575</v>
+      </c>
+      <c r="B294" s="230" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C294" s="231" t="str">
+        <f>"acfr:"&amp;A294</f>
+        <v>acfr:ExpendituresForCommunityEconomicDevelopmentCooperativeExtensionModifiedAccrual</v>
+      </c>
+      <c r="D294" s="2" t="str">
+        <f>IF(RIGHT(A294, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="230" t="s">
+        <v>3576</v>
+      </c>
+      <c r="B295" s="230" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C295" s="231" t="str">
+        <f>"acfr:"&amp;A295</f>
+        <v>acfr:ExpendituresForCommunityEconomicDevelopmentRegisterOfDeedsModifiedAccrual</v>
+      </c>
+      <c r="D295" s="2" t="str">
+        <f>IF(RIGHT(A295, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="230" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B296" s="230" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C296" s="231" t="str">
+        <f>"acfr:"&amp;A296</f>
+        <v>acfr:ExpendituresForCommunityEconomicDevelopmentAbstractDepartmentModifiedAccrual</v>
+      </c>
+      <c r="D296" s="2" t="str">
+        <f>IF(RIGHT(A296, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="230" t="s">
+        <v>3578</v>
+      </c>
+      <c r="B297" s="230" t="s">
+        <v>3382</v>
+      </c>
+      <c r="C297" s="231" t="str">
+        <f>"acfr:"&amp;A297</f>
+        <v>acfr:ExpendituresForCommunityEconomicDevelopmentSurveyorModifiedAccrual</v>
+      </c>
+      <c r="D297" s="2" t="str">
+        <f>IF(RIGHT(A297, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="230" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B298" s="230" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C298" s="231" t="str">
+        <f>"acfr:"&amp;A298</f>
+        <v>acfr:ExpendituresForEconomicDevelopmentServicesModifiedAccrual</v>
+      </c>
+      <c r="D298" s="2" t="str">
+        <f>IF(RIGHT(A298, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="230" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B299" s="230" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C299" s="231" t="str">
+        <f>"acfr:"&amp;A299</f>
+        <v>acfr:ExpendituresForCommunityEconomicDevelopmentHomeDemolitionModifiedAccrual</v>
+      </c>
+      <c r="D299" s="2" t="str">
+        <f>IF(RIGHT(A299, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="230" t="s">
+        <v>3581</v>
+      </c>
+      <c r="B300" s="230" t="s">
+        <v>3385</v>
+      </c>
+      <c r="C300" s="231" t="str">
+        <f>"acfr:"&amp;A300</f>
+        <v>acfr:ExpendituresForCommunityEconomicDevelopmentHomeRenovationModifiedAccrual</v>
+      </c>
+      <c r="D300" s="2" t="str">
+        <f>IF(RIGHT(A300, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="230" t="s">
+        <v>3582</v>
+      </c>
+      <c r="B301" s="230" t="s">
+        <v>3386</v>
+      </c>
+      <c r="C301" s="231" t="str">
+        <f>"acfr:"&amp;A301</f>
+        <v>acfr:ExpendituresForCommunityEconomicDevelopmentBlightRemovalModifiedAccrual</v>
+      </c>
+      <c r="D301" s="2" t="str">
+        <f>IF(RIGHT(A301, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="230" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B302" s="230" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C302" s="231" t="str">
+        <f>"acfr:"&amp;A302</f>
+        <v>acfr:ExpendituresForOtherDevelopmentServicesModifiedAccrual</v>
+      </c>
+      <c r="D302" s="2" t="str">
+        <f>IF(RIGHT(A302, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="230" t="s">
+        <v>3584</v>
+      </c>
+      <c r="B303" s="230" t="s">
+        <v>3388</v>
+      </c>
+      <c r="C303" s="231" t="str">
+        <f>"acfr:"&amp;A303</f>
+        <v>acfr:ExpendituresForCommunityServicesModifiedAccrual</v>
+      </c>
+      <c r="D303" s="2" t="str">
+        <f>IF(RIGHT(A303, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="230" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B304" s="230" t="s">
+        <v>3389</v>
+      </c>
+      <c r="C304" s="231" t="str">
+        <f>"acfr:"&amp;A304</f>
+        <v>acfr:ExpendituresForCommunityAndEconomicDevelopmentServicesModifiedAccrual</v>
+      </c>
+      <c r="D304" s="2" t="str">
+        <f>IF(RIGHT(A304, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="230" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B305" s="230" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C305" s="231" t="str">
+        <f>"acfr:"&amp;A305</f>
+        <v>acfr:ExpendituresForRecreationAndCultureParksAndRecreationModifiedAccrual</v>
+      </c>
+      <c r="D305" s="2" t="str">
+        <f>IF(RIGHT(A305, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="230" t="s">
+        <v>3588</v>
+      </c>
+      <c r="B306" s="230" t="s">
+        <v>3392</v>
+      </c>
+      <c r="C306" s="231" t="str">
+        <f>"acfr:"&amp;A306</f>
+        <v>acfr:ExpendituresForRecreationAndCultureParksAdministrationModifiedAccrual</v>
+      </c>
+      <c r="D306" s="2" t="str">
+        <f>IF(RIGHT(A306, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="230" t="s">
+        <v>3589</v>
+      </c>
+      <c r="B307" s="230" t="s">
+        <v>3393</v>
+      </c>
+      <c r="C307" s="231" t="str">
+        <f>"acfr:"&amp;A307</f>
+        <v>acfr:ExpendituresForRecreationAndCultureParksFacilitiesModifiedAccrual</v>
+      </c>
+      <c r="D307" s="2" t="str">
+        <f>IF(RIGHT(A307, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="230" t="s">
+        <v>3590</v>
+      </c>
+      <c r="B308" s="230" t="s">
+        <v>3394</v>
+      </c>
+      <c r="C308" s="231" t="str">
+        <f>"acfr:"&amp;A308</f>
+        <v>acfr:ExpendituresForRecreationAndCultureParksSupervisionModifiedAccrual</v>
+      </c>
+      <c r="D308" s="2" t="str">
+        <f>IF(RIGHT(A308, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="230" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B309" s="230" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C309" s="231" t="str">
+        <f>"acfr:"&amp;A309</f>
+        <v>acfr:ExpendituresForRecreationAndCultureParksPolicingModifiedAccrual</v>
+      </c>
+      <c r="D309" s="2" t="str">
+        <f>IF(RIGHT(A309, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="230" t="s">
+        <v>3592</v>
+      </c>
+      <c r="B310" s="230" t="s">
+        <v>3396</v>
+      </c>
+      <c r="C310" s="231" t="str">
+        <f>"acfr:"&amp;A310</f>
+        <v>acfr:ExpendituresForRecreationAndCultureParksLightingModifiedAccrual</v>
+      </c>
+      <c r="D310" s="2" t="str">
+        <f>IF(RIGHT(A310, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="230" t="s">
+        <v>3593</v>
+      </c>
+      <c r="B311" s="230" t="s">
+        <v>3397</v>
+      </c>
+      <c r="C311" s="231" t="str">
+        <f>"acfr:"&amp;A311</f>
+        <v>acfr:ExpendituresForRecreationAndCultureParksMaintenanceModifiedAccrual</v>
+      </c>
+      <c r="D311" s="2" t="str">
+        <f>IF(RIGHT(A311, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="230" t="s">
+        <v>3594</v>
+      </c>
+      <c r="B312" s="230" t="s">
+        <v>3398</v>
+      </c>
+      <c r="C312" s="231" t="str">
+        <f>"acfr:"&amp;A312</f>
+        <v>acfr:ExpendituresForLibraryServicesModifiedAccrual</v>
+      </c>
+      <c r="D312" s="2" t="str">
+        <f>IF(RIGHT(A312, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="230" t="s">
+        <v>3595</v>
+      </c>
+      <c r="B313" s="230" t="s">
+        <v>3399</v>
+      </c>
+      <c r="C313" s="231" t="str">
+        <f>"acfr:"&amp;A313</f>
+        <v>acfr:ExpendituresForRecreationAndCultureLibraryBoardModifiedAccrual</v>
+      </c>
+      <c r="D313" s="2" t="str">
+        <f>IF(RIGHT(A313, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="230" t="s">
+        <v>3596</v>
+      </c>
+      <c r="B314" s="230" t="s">
+        <v>3400</v>
+      </c>
+      <c r="C314" s="231" t="str">
+        <f>"acfr:"&amp;A314</f>
+        <v>acfr:ExpendituresForRecreationAndCultureHistoricalSocietyCommissionOrProgramModifiedAccrual</v>
+      </c>
+      <c r="D314" s="2" t="str">
+        <f>IF(RIGHT(A314, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="230" t="s">
+        <v>3597</v>
+      </c>
+      <c r="B315" s="230" t="s">
+        <v>3401</v>
+      </c>
+      <c r="C315" s="231" t="str">
+        <f>"acfr:"&amp;A315</f>
+        <v>acfr:ExpendituresForRecreationAndCultureMuseumModifiedAccrual</v>
+      </c>
+      <c r="D315" s="2" t="str">
+        <f>IF(RIGHT(A315, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="230" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B316" s="230" t="s">
+        <v>3402</v>
+      </c>
+      <c r="C316" s="231" t="str">
+        <f>"acfr:"&amp;A316</f>
+        <v>acfr:ExpendituresForRecreationAndCultureCulturalActivitiesModifiedAccrual</v>
+      </c>
+      <c r="D316" s="2" t="str">
+        <f>IF(RIGHT(A316, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="230" t="s">
+        <v>3599</v>
+      </c>
+      <c r="B317" s="230" t="s">
+        <v>3403</v>
+      </c>
+      <c r="C317" s="231" t="str">
+        <f>"acfr:"&amp;A317</f>
+        <v>acfr:ExpendituresForRecreationAndCultureAuditoriumCivicCenterModifiedAccrual</v>
+      </c>
+      <c r="D317" s="2" t="str">
+        <f>IF(RIGHT(A317, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="230" t="s">
+        <v>3600</v>
+      </c>
+      <c r="B318" s="230" t="s">
+        <v>3404</v>
+      </c>
+      <c r="C318" s="231" t="str">
+        <f>"acfr:"&amp;A318</f>
+        <v>acfr:ExpendituresForConventionCenterServicesModifiedAccrual</v>
+      </c>
+      <c r="D318" s="2" t="str">
+        <f>IF(RIGHT(A318, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="230" t="s">
+        <v>3601</v>
+      </c>
+      <c r="B319" s="230" t="s">
+        <v>3405</v>
+      </c>
+      <c r="C319" s="231" t="str">
+        <f>"acfr:"&amp;A319</f>
+        <v>acfr:ExpendituresForConservationServicesModifiedAccrual</v>
+      </c>
+      <c r="D319" s="2" t="str">
+        <f>IF(RIGHT(A319, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="230" t="s">
+        <v>3602</v>
+      </c>
+      <c r="B320" s="230" t="s">
+        <v>3406</v>
+      </c>
+      <c r="C320" s="231" t="str">
+        <f>"acfr:"&amp;A320</f>
+        <v>acfr:ExpendituresForConservationRecreationParksAndCulturalServicesModifiedAccrual</v>
+      </c>
+      <c r="D320" s="2" t="str">
+        <f>IF(RIGHT(A320, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="230" t="s">
+        <v>3603</v>
+      </c>
+      <c r="B321" s="230" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C321" s="231" t="str">
+        <f>"acfr:"&amp;A321</f>
+        <v>acfr:ExpendituresForRecreationAndCultureModifiedAccrual</v>
+      </c>
+      <c r="D321" s="2" t="str">
+        <f>IF(RIGHT(A321, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="230" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B322" s="230" t="s">
+        <v>3409</v>
+      </c>
+      <c r="C322" s="231" t="str">
+        <f>"acfr:"&amp;A322</f>
+        <v>acfr:CostOfIssueOfBondsAndSecuritiesModifiedAccrual</v>
+      </c>
+      <c r="D322" s="2" t="str">
+        <f>IF(RIGHT(A322, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="230" t="s">
+        <v>3606</v>
+      </c>
+      <c r="B323" s="230" t="s">
+        <v>3410</v>
+      </c>
+      <c r="C323" s="231" t="str">
+        <f>"acfr:"&amp;A323</f>
+        <v>acfr:ExpendituresForPublicSchoolsServicesModifiedAccrual</v>
+      </c>
+      <c r="D323" s="2" t="str">
+        <f>IF(RIGHT(A323, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="230" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B324" s="230" t="s">
+        <v>3411</v>
+      </c>
+      <c r="C324" s="231" t="str">
+        <f>"acfr:"&amp;A324</f>
+        <v>acfr:ExpendituresForPublicWaysAndFacilitiesServicesModifiedAccrual</v>
+      </c>
+      <c r="D324" s="2" t="str">
+        <f>IF(RIGHT(A324, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="230" t="s">
+        <v>3608</v>
+      </c>
+      <c r="B325" s="230" t="s">
+        <v>3412</v>
+      </c>
+      <c r="C325" s="231" t="str">
+        <f>"acfr:"&amp;A325</f>
+        <v>acfr:ExpendituresForPublicAssistanceServicesModifiedAccrual</v>
+      </c>
+      <c r="D325" s="2" t="str">
+        <f>IF(RIGHT(A325, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="230" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B326" s="230" t="s">
+        <v>3413</v>
+      </c>
+      <c r="C326" s="231" t="str">
+        <f>"acfr:"&amp;A326</f>
+        <v>acfr:ExpendituresForProfessionalAndContractualServicesModifiedAccrual</v>
+      </c>
+      <c r="D326" s="2" t="str">
+        <f>IF(RIGHT(A326, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="230" t="s">
+        <v>3610</v>
+      </c>
+      <c r="B327" s="230" t="s">
+        <v>3414</v>
+      </c>
+      <c r="C327" s="231" t="str">
+        <f>"acfr:"&amp;A327</f>
+        <v>acfr:ExpendituresForCommunicationsModifiedAccrual</v>
+      </c>
+      <c r="D327" s="2" t="str">
+        <f>IF(RIGHT(A327, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="230" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B328" s="230" t="s">
+        <v>3415</v>
+      </c>
+      <c r="C328" s="231" t="str">
+        <f>"acfr:"&amp;A328</f>
+        <v>acfr:ExpendituresForCommunityPromotionModifiedAccrual</v>
+      </c>
+      <c r="D328" s="2" t="str">
+        <f>IF(RIGHT(A328, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="230" t="s">
+        <v>3612</v>
+      </c>
+      <c r="B329" s="230" t="s">
+        <v>3416</v>
+      </c>
+      <c r="C329" s="231" t="str">
+        <f>"acfr:"&amp;A329</f>
+        <v>acfr:ExpendituresForRepairsModifiedAccrual</v>
+      </c>
+      <c r="D329" s="2" t="str">
+        <f>IF(RIGHT(A329, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="230" t="s">
+        <v>3613</v>
+      </c>
+      <c r="B330" s="230" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C330" s="231" t="str">
+        <f>"acfr:"&amp;A330</f>
+        <v>acfr:ExpendituresForRefundsAndRebatesModifiedAccrual</v>
+      </c>
+      <c r="D330" s="2" t="str">
+        <f>IF(RIGHT(A330, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="230" t="s">
+        <v>3614</v>
+      </c>
+      <c r="B331" s="230" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C331" s="231" t="str">
+        <f>"acfr:"&amp;A331</f>
+        <v>acfr:ExpendituresForFacilitiesMaintenanceModifiedAccrual</v>
+      </c>
+      <c r="D331" s="2" t="str">
+        <f>IF(RIGHT(A331, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="230" t="s">
+        <v>3615</v>
+      </c>
+      <c r="B332" s="230" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C332" s="231" t="str">
+        <f>"acfr:"&amp;A332</f>
+        <v>acfr:ExpendituresForProjectCostsModifiedAccrual</v>
+      </c>
+      <c r="D332" s="2" t="str">
+        <f>IF(RIGHT(A332, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="230" t="s">
+        <v>3616</v>
+      </c>
+      <c r="B333" s="230" t="s">
+        <v>3420</v>
+      </c>
+      <c r="C333" s="231" t="str">
+        <f>"acfr:"&amp;A333</f>
+        <v>acfr:ExpendituresForUtilitiesModifiedAccrual</v>
+      </c>
+      <c r="D333" s="2" t="str">
+        <f>IF(RIGHT(A333, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="230" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B334" s="230" t="s">
+        <v>3421</v>
+      </c>
+      <c r="C334" s="231" t="str">
+        <f>"acfr:"&amp;A334</f>
+        <v>acfr:ExpendituresForPrintingAndPublishingModifiedAccrual</v>
+      </c>
+      <c r="D334" s="2" t="str">
+        <f>IF(RIGHT(A334, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="230" t="s">
+        <v>3618</v>
+      </c>
+      <c r="B335" s="230" t="s">
+        <v>3422</v>
+      </c>
+      <c r="C335" s="231" t="str">
+        <f>"acfr:"&amp;A335</f>
+        <v>acfr:ExpendituresForRentalsModifiedAccrual</v>
+      </c>
+      <c r="D335" s="2" t="str">
+        <f>IF(RIGHT(A335, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="230" t="s">
+        <v>3619</v>
+      </c>
+      <c r="B336" s="230" t="s">
+        <v>3423</v>
+      </c>
+      <c r="C336" s="231" t="str">
+        <f>"acfr:"&amp;A336</f>
+        <v>acfr:ExpendituresForOtherWelfareServicesModifiedAccrual</v>
+      </c>
+      <c r="D336" s="2" t="str">
+        <f>IF(RIGHT(A336, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="230" t="s">
+        <v>3620</v>
+      </c>
+      <c r="B337" s="230" t="s">
+        <v>3424</v>
+      </c>
+      <c r="C337" s="231" t="str">
+        <f>"acfr:"&amp;A337</f>
+        <v>acfr:ExpendituresForRetirementBenefitsToRetireesModifiedAccrual</v>
+      </c>
+      <c r="D337" s="2" t="str">
+        <f>IF(RIGHT(A337, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="230" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B338" s="230" t="s">
+        <v>3425</v>
+      </c>
+      <c r="C338" s="231" t="str">
+        <f>"acfr:"&amp;A338</f>
+        <v>acfr:ExpendituresForStateTrunklineOverheadModifiedAccrual</v>
+      </c>
+      <c r="D338" s="2" t="str">
+        <f>IF(RIGHT(A338, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="230" t="s">
+        <v>3622</v>
+      </c>
+      <c r="B339" s="230" t="s">
+        <v>3426</v>
+      </c>
+      <c r="C339" s="231" t="str">
+        <f>"acfr:"&amp;A339</f>
+        <v>acfr:ExpendituresForContributionsToOtherGovernmentsModifiedAccrual</v>
+      </c>
+      <c r="D339" s="2" t="str">
+        <f>IF(RIGHT(A339, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="230" t="s">
+        <v>3623</v>
+      </c>
+      <c r="B340" s="230" t="s">
+        <v>3427</v>
+      </c>
+      <c r="C340" s="231" t="str">
+        <f>"acfr:"&amp;A340</f>
+        <v>acfr:ExpendituresForHealthServicesModifiedAccrual</v>
+      </c>
+      <c r="D340" s="2" t="str">
+        <f>IF(RIGHT(A340, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="230" t="s">
+        <v>3624</v>
+      </c>
+      <c r="B341" s="230" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C341" s="231" t="str">
+        <f>"acfr:"&amp;A341</f>
+        <v>acfr:ExpendituresForHospitalizationModifiedAccrual</v>
+      </c>
+      <c r="D341" s="2" t="str">
+        <f>IF(RIGHT(A341, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="230" t="s">
+        <v>3625</v>
+      </c>
+      <c r="B342" s="230" t="s">
+        <v>3429</v>
+      </c>
+      <c r="C342" s="231" t="str">
+        <f>"acfr:"&amp;A342</f>
+        <v>acfr:ExpendituresForEducationServicesModifiedAccrual</v>
+      </c>
+      <c r="D342" s="2" t="str">
+        <f>IF(RIGHT(A342, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="230" t="s">
+        <v>3626</v>
+      </c>
+      <c r="B343" s="230" t="s">
+        <v>3430</v>
+      </c>
+      <c r="C343" s="231" t="str">
+        <f>"acfr:"&amp;A343</f>
+        <v>acfr:ExpendituresForGarageServicesModifiedAccrual</v>
+      </c>
+      <c r="D343" s="2" t="str">
+        <f>IF(RIGHT(A343, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="230" t="s">
+        <v>3627</v>
+      </c>
+      <c r="B344" s="230" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C344" s="231" t="str">
+        <f>"acfr:"&amp;A344</f>
+        <v>acfr:ExpendituresForJailStoresCommissaryServicesModifiedAccrual</v>
+      </c>
+      <c r="D344" s="2" t="str">
+        <f>IF(RIGHT(A344, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="230" t="s">
+        <v>3628</v>
+      </c>
+      <c r="B345" s="230" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C345" s="231" t="str">
+        <f>"acfr:"&amp;A345</f>
+        <v>acfr:ExpendituresForContingencyServicesModifiedAccrual</v>
+      </c>
+      <c r="D345" s="2" t="str">
+        <f>IF(RIGHT(A345, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="230" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B346" s="230" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C346" s="231" t="str">
+        <f>"acfr:"&amp;A346</f>
+        <v>acfr:ExpendituresForInterGovernmentalActivitiesModifiedAccrual</v>
+      </c>
+      <c r="D346" s="2" t="str">
+        <f>IF(RIGHT(A346, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="230" t="s">
+        <v>3630</v>
+      </c>
+      <c r="B347" s="230" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C347" s="231" t="str">
+        <f>"acfr:"&amp;A347</f>
+        <v>acfr:ExpendituresForCapitalOutlayModifiedAccrual</v>
+      </c>
+      <c r="D347" s="2" t="str">
+        <f>IF(RIGHT(A347, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="230" t="s">
+        <v>3631</v>
+      </c>
+      <c r="B348" s="230" t="s">
+        <v>3435</v>
+      </c>
+      <c r="C348" s="231" t="str">
+        <f>"acfr:"&amp;A348</f>
+        <v>acfr:DebtServicePrincipalRepaymentModifiedAccrual</v>
+      </c>
+      <c r="D348" s="2" t="str">
+        <f>IF(RIGHT(A348, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="230" t="s">
+        <v>3632</v>
+      </c>
+      <c r="B349" s="230" t="s">
+        <v>3436</v>
+      </c>
+      <c r="C349" s="231" t="str">
+        <f>"acfr:"&amp;A349</f>
+        <v>acfr:DebtServiceInterestAndFiscalChargesModifiedAccrual</v>
+      </c>
+      <c r="D349" s="2" t="str">
+        <f>IF(RIGHT(A349, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="230" t="s">
+        <v>3633</v>
+      </c>
+      <c r="B350" s="230" t="s">
+        <v>3437</v>
+      </c>
+      <c r="C350" s="231" t="str">
+        <f>"acfr:"&amp;A350</f>
+        <v>acfr:DebtServiceModifiedAccrual</v>
+      </c>
+      <c r="D350" s="2" t="str">
+        <f>IF(RIGHT(A350, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="230" t="s">
+        <v>3634</v>
+      </c>
+      <c r="B351" s="230" t="s">
+        <v>3438</v>
+      </c>
+      <c r="C351" s="231" t="str">
+        <f>"acfr:"&amp;A351</f>
+        <v>acfr:DepreciationExpenseModifiedAccrual</v>
+      </c>
+      <c r="D351" s="2" t="str">
+        <f>IF(RIGHT(A351, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="230" t="s">
+        <v>3635</v>
+      </c>
+      <c r="B352" s="230" t="s">
+        <v>3439</v>
+      </c>
+      <c r="C352" s="231" t="str">
+        <f>"acfr:"&amp;A352</f>
+        <v>acfr:DepreciationDepletionAndAmortizationExpenseModifiedAccrual</v>
+      </c>
+      <c r="D352" s="2" t="str">
+        <f>IF(RIGHT(A352, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="230" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B353" s="230" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C353" s="231" t="str">
+        <f>"acfr:"&amp;A353</f>
+        <v>acfr:OtherExpendituresModifiedAccrual</v>
+      </c>
+      <c r="D353" s="2" t="str">
+        <f>IF(RIGHT(A353, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="230" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B354" s="230" t="s">
+        <v>3441</v>
+      </c>
+      <c r="C354" s="231" t="str">
+        <f>"acfr:"&amp;A354</f>
+        <v>acfr:ExpendituresModifiedAccrual</v>
+      </c>
+      <c r="D354" s="2" t="str">
+        <f>IF(RIGHT(A354, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="230" t="s">
+        <v>3638</v>
+      </c>
+      <c r="B355" s="230" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C355" s="231" t="str">
+        <f>"acfr:"&amp;A355</f>
+        <v>acfr:ExcessDeficiencyOfRevenuesOverUnderExpenditures</v>
+      </c>
+      <c r="D355" s="2" t="str">
+        <f>IF(RIGHT(A355, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Expenditures</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="230" t="s">
+        <v>3640</v>
+      </c>
+      <c r="B356" s="230" t="s">
+        <v>3639</v>
+      </c>
+      <c r="C356" s="231" t="str">
+        <f>"acfr:"&amp;A356</f>
+        <v>acfr:RevenuesAbstract</v>
+      </c>
+      <c r="D356" s="2" t="str">
+        <f>IF(RIGHT(A356, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="230" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B357" s="230" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C357" s="231" t="str">
+        <f>"acfr:"&amp;A357</f>
+        <v>acfr:TaxAndTaxRelatedRevenuesAbstract</v>
+      </c>
+      <c r="D357" s="2" t="str">
+        <f>IF(RIGHT(A357, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="230" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B358" s="230" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C358" s="231" t="str">
+        <f>"acfr:"&amp;A358</f>
+        <v>acfr:TaxRevenuesAbstract</v>
+      </c>
+      <c r="D358" s="2" t="str">
+        <f>IF(RIGHT(A358, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="230" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B359" s="230" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C359" s="231" t="str">
+        <f>"acfr:"&amp;A359</f>
+        <v>acfr:RevenueFromAllowanceForTaxesAbstract</v>
+      </c>
+      <c r="D359" s="2" t="str">
+        <f>IF(RIGHT(A359, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="230" t="s">
+        <v>3100</v>
+      </c>
+      <c r="B360" s="230" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C360" s="231" t="str">
+        <f>"acfr:"&amp;A360</f>
+        <v>acfr:TaxRelatedRevenuesAbstract</v>
+      </c>
+      <c r="D360" s="2" t="str">
+        <f>IF(RIGHT(A360, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="230" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B361" s="230" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C361" s="231" t="str">
+        <f>"acfr:"&amp;A361</f>
+        <v>acfr:SpecialAssessmentsRevenuesAbstract</v>
+      </c>
+      <c r="D361" s="2" t="str">
+        <f>IF(RIGHT(A361, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="230" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B362" s="230" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C362" s="231" t="str">
+        <f>"acfr:"&amp;A362</f>
+        <v>acfr:ChargesForServicesLicensesAndPermitsRevenuesAbstract</v>
+      </c>
+      <c r="D362" s="2" t="str">
+        <f>IF(RIGHT(A362, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="230" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B363" s="230" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C363" s="231" t="str">
+        <f>"acfr:"&amp;A363</f>
+        <v>acfr:IntergovernmentalRevenueAbstract</v>
+      </c>
+      <c r="D363" s="2" t="str">
+        <f>IF(RIGHT(A363, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="230" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B364" s="230" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C364" s="231" t="str">
+        <f>"acfr:"&amp;A364</f>
+        <v>acfr:IntergovernmentalRevenueFromFederalGovernmentAbstract</v>
+      </c>
+      <c r="D364" s="2" t="str">
+        <f>IF(RIGHT(A364, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="230" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B365" s="230" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C365" s="231" t="str">
+        <f>"acfr:"&amp;A365</f>
+        <v>acfr:IntergovernmentalRevenueFromStateGovernmentAbstract</v>
+      </c>
+      <c r="D365" s="2" t="str">
+        <f>IF(RIGHT(A365, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="230" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B366" s="230" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C366" s="231" t="str">
+        <f>"acfr:"&amp;A366</f>
+        <v>acfr:ContributionsFromLocalUnitsAbstract</v>
+      </c>
+      <c r="D366" s="2" t="str">
+        <f>IF(RIGHT(A366, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="230" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B367" s="230" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C367" s="231" t="str">
+        <f>"acfr:"&amp;A367</f>
+        <v>acfr:ChargesForServicesAbstract</v>
+      </c>
+      <c r="D367" s="2" t="str">
+        <f>IF(RIGHT(A367, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="230" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B368" s="230" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C368" s="231" t="str">
+        <f>"acfr:"&amp;A368</f>
+        <v>acfr:FinesForfeituresAndPenaltiesAbstract</v>
+      </c>
+      <c r="D368" s="2" t="str">
+        <f>IF(RIGHT(A368, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="230" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B369" s="230" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C369" s="231" t="str">
+        <f>"acfr:"&amp;A369</f>
+        <v>acfr:InvestmentIncomeAndRentalsAbstract</v>
+      </c>
+      <c r="D369" s="2" t="str">
+        <f>IF(RIGHT(A369, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="230" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B370" s="230" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C370" s="231" t="str">
+        <f>"acfr:"&amp;A370</f>
+        <v>acfr:RevenueFromInterestAndDividendsAbstract</v>
+      </c>
+      <c r="D370" s="2" t="str">
+        <f>IF(RIGHT(A370, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="230" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B371" s="230" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C371" s="231" t="str">
+        <f>"acfr:"&amp;A371</f>
+        <v>acfr:RevenuesFromRentsAndRoyaltiesAbstract</v>
+      </c>
+      <c r="D371" s="2" t="str">
+        <f>IF(RIGHT(A371, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="230" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B372" s="230" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C372" s="231" t="str">
+        <f>"acfr:"&amp;A372</f>
+        <v>acfr:RevenuesFromJudicialAbstract</v>
+      </c>
+      <c r="D372" s="2" t="str">
+        <f>IF(RIGHT(A372, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="230" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B373" s="230" t="s">
+        <v>3020</v>
+      </c>
+      <c r="C373" s="231" t="str">
+        <f>"acfr:"&amp;A373</f>
+        <v>acfr:RevenuesFromFinancialAndTaxAdministrationAbstract</v>
+      </c>
+      <c r="D373" s="2" t="str">
+        <f>IF(RIGHT(A373, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="230" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B374" s="230" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C374" s="231" t="str">
+        <f>"acfr:"&amp;A374</f>
+        <v>acfr:RevenuesFromOtherGeneralGovernmentAbstract</v>
+      </c>
+      <c r="D374" s="2" t="str">
+        <f>IF(RIGHT(A374, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="230" t="s">
+        <v>3203</v>
+      </c>
+      <c r="B375" s="230" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C375" s="231" t="str">
+        <f>"acfr:"&amp;A375</f>
+        <v>acfr:RevenuesFromPublicWorksAbstract</v>
+      </c>
+      <c r="D375" s="2" t="str">
+        <f>IF(RIGHT(A375, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="230" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B376" s="230" t="s">
+        <v>3037</v>
+      </c>
+      <c r="C376" s="231" t="str">
+        <f>"acfr:"&amp;A376</f>
+        <v>acfr:RevenuesFromHealthAndWelfareAbstract</v>
+      </c>
+      <c r="D376" s="2" t="str">
+        <f>IF(RIGHT(A376, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="230" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B377" s="230" t="s">
+        <v>3047</v>
+      </c>
+      <c r="C377" s="231" t="str">
+        <f>"acfr:"&amp;A377</f>
+        <v>acfr:RevenuesFromPublicSafetyAbstract</v>
+      </c>
+      <c r="D377" s="2" t="str">
+        <f>IF(RIGHT(A377, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="230" t="s">
+        <v>3224</v>
+      </c>
+      <c r="B378" s="230" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C378" s="231" t="str">
+        <f>"acfr:"&amp;A378</f>
+        <v>acfr:RevenuesFromCommunityAndEconomicDevelopmentAbstract</v>
+      </c>
+      <c r="D378" s="2" t="str">
+        <f>IF(RIGHT(A378, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="230" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B379" s="230" t="s">
+        <v>3055</v>
+      </c>
+      <c r="C379" s="231" t="str">
+        <f>"acfr:"&amp;A379</f>
+        <v>acfr:RevenuesFromRecreationAndCultureAbstract</v>
+      </c>
+      <c r="D379" s="2" t="str">
+        <f>IF(RIGHT(A379, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="230" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B380" s="230" t="s">
+        <v>3059</v>
+      </c>
+      <c r="C380" s="231" t="str">
+        <f>"acfr:"&amp;A380</f>
+        <v>acfr:OtherRevenuesAbstract</v>
+      </c>
+      <c r="D380" s="2" t="str">
+        <f>IF(RIGHT(A380, 8)="Abstract", "Abstract", "Revenues")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="230" t="s">
+        <v>3642</v>
+      </c>
+      <c r="B381" s="230" t="s">
+        <v>3641</v>
+      </c>
+      <c r="C381" s="231" t="str">
+        <f>"acfr:"&amp;A381</f>
+        <v>acfr:ExpendituresAbstract</v>
+      </c>
+      <c r="D381" s="2" t="str">
+        <f>IF(RIGHT(A381, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="230" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B382" s="230" t="s">
+        <v>3246</v>
+      </c>
+      <c r="C382" s="231" t="str">
+        <f>"acfr:"&amp;A382</f>
+        <v>acfr:ExpendituresForGeneralGovernmentAbstract</v>
+      </c>
+      <c r="D382" s="2" t="str">
+        <f>IF(RIGHT(A382, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="230" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B383" s="230" t="s">
+        <v>3248</v>
+      </c>
+      <c r="C383" s="231" t="str">
+        <f>"acfr:"&amp;A383</f>
+        <v>acfr:ExpendituresForLegislativeAbstract</v>
+      </c>
+      <c r="D383" s="2" t="str">
+        <f>IF(RIGHT(A383, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="230" t="s">
+        <v>3448</v>
+      </c>
+      <c r="B384" s="230" t="s">
+        <v>3252</v>
+      </c>
+      <c r="C384" s="231" t="str">
+        <f>"acfr:"&amp;A384</f>
+        <v>acfr:ExpendituresForChiefExecutiveAbstract</v>
+      </c>
+      <c r="D384" s="2" t="str">
+        <f>IF(RIGHT(A384, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="230" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B385" s="230" t="s">
+        <v>3256</v>
+      </c>
+      <c r="C385" s="231" t="str">
+        <f>"acfr:"&amp;A385</f>
+        <v>acfr:ExpendituresForFinancialAndTaxAdministrationAbstract</v>
+      </c>
+      <c r="D385" s="2" t="str">
+        <f>IF(RIGHT(A385, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="230" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B386" s="230" t="s">
+        <v>3270</v>
+      </c>
+      <c r="C386" s="231" t="str">
+        <f>"acfr:"&amp;A386</f>
+        <v>acfr:ExpendituresForOtherGeneralGovernmentAbstract</v>
+      </c>
+      <c r="D386" s="2" t="str">
+        <f>IF(RIGHT(A386, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="230" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B387" s="230" t="s">
+        <v>3280</v>
+      </c>
+      <c r="C387" s="231" t="str">
+        <f>"acfr:"&amp;A387</f>
+        <v>acfr:ExpendituresForJudicialAbstract</v>
+      </c>
+      <c r="D387" s="2" t="str">
+        <f>IF(RIGHT(A387, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="230" t="s">
+        <v>3489</v>
+      </c>
+      <c r="B388" s="230" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C388" s="231" t="str">
+        <f>"acfr:"&amp;A388</f>
+        <v>acfr:ExpendituresForPublicSafetyAbstract</v>
+      </c>
+      <c r="D388" s="2" t="str">
+        <f>IF(RIGHT(A388, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="230" t="s">
+        <v>3499</v>
+      </c>
+      <c r="B389" s="230" t="s">
+        <v>3303</v>
+      </c>
+      <c r="C389" s="231" t="str">
+        <f>"acfr:"&amp;A389</f>
+        <v>acfr:ExpendituresForFireDepartmentAbstract</v>
+      </c>
+      <c r="D389" s="2" t="str">
+        <f>IF(RIGHT(A389, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="230" t="s">
+        <v>3517</v>
+      </c>
+      <c r="B390" s="230" t="s">
+        <v>3321</v>
+      </c>
+      <c r="C390" s="231" t="str">
+        <f>"acfr:"&amp;A390</f>
+        <v>acfr:ExpendituresForPublicWorksAbstract</v>
+      </c>
+      <c r="D390" s="2" t="str">
+        <f>IF(RIGHT(A390, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="230" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B391" s="230" t="s">
+        <v>3348</v>
+      </c>
+      <c r="C391" s="231" t="str">
+        <f>"acfr:"&amp;A391</f>
+        <v>acfr:ExpendituresForHealthAndWelfareAbstract</v>
+      </c>
+      <c r="D391" s="2" t="str">
+        <f>IF(RIGHT(A391, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="230" t="s">
+        <v>3572</v>
+      </c>
+      <c r="B392" s="230" t="s">
+        <v>3376</v>
+      </c>
+      <c r="C392" s="231" t="str">
+        <f>"acfr:"&amp;A392</f>
+        <v>acfr:ExpendituresForCommunityAndEconomicDevelopmentAbstract</v>
+      </c>
+      <c r="D392" s="2" t="str">
+        <f>IF(RIGHT(A392, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="230" t="s">
+        <v>3586</v>
+      </c>
+      <c r="B393" s="230" t="s">
+        <v>3390</v>
+      </c>
+      <c r="C393" s="231" t="str">
+        <f>"acfr:"&amp;A393</f>
+        <v>acfr:ExpendituresForRecreationAndCultureAbstract</v>
+      </c>
+      <c r="D393" s="2" t="str">
+        <f>IF(RIGHT(A393, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="230" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B394" s="230" t="s">
+        <v>3408</v>
+      </c>
+      <c r="C394" s="231" t="str">
+        <f>"acfr:"&amp;A394</f>
+        <v>acfr:ExpendituresForOtherAbstract</v>
+      </c>
+      <c r="D394" s="2" t="str">
+        <f>IF(RIGHT(A394, 8)="Abstract", "Abstract", "Expenditures")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="230" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B395" s="230" t="s">
+        <v>3655</v>
+      </c>
+      <c r="C395" s="231" t="str">
+        <f>"acfr:"&amp;A395</f>
+        <v>acfr:OtherFinancingSourcesUsesAbstract</v>
+      </c>
+      <c r="D395" s="2" t="str">
+        <f>IF(RIGHT(A395, 8)="Abstract", "Abstract", "Other Financing Sources")</f>
+        <v>Abstract</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D395">
+    <sortCondition descending="1" ref="D2:D395"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA739A8-4FAE-F64F-B086-A6B9C4373AEE}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -37854,7 +46684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C151E89D-FF0D-4A4E-9F8C-46951421D998}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -39397,7 +48227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B35C6D-551A-0F4A-B61A-AFA59EEE0779}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -44684,7 +53514,7 @@
   <dimension ref="A1:E305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B616" sqref="B616"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -50497,7 +59327,7 @@
   <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B616" sqref="B616"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -54847,7 +63677,7 @@
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
       <c r="I76" s="15">
-        <f t="shared" ref="I76:I77" si="20">IF(I$6="","",SUM(G76:H76))</f>
+        <f t="shared" ref="I76" si="20">IF(I$6="","",SUM(G76:H76))</f>
         <v>0</v>
       </c>
       <c r="J76" s="18"/>
@@ -54948,7 +63778,7 @@
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
-  <conditionalFormatting sqref="C23 C37 C50 D53:G63 D74:H76 J74:J76 D77:J77">
+  <conditionalFormatting sqref="C23 C37 C50 D53:G63">
     <cfRule type="expression" dxfId="46" priority="49" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
@@ -54978,29 +63808,29 @@
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D74:J77 I78:I99">
+    <cfRule type="expression" dxfId="40" priority="1" stopIfTrue="1">
+      <formula>D$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H39:H50">
-    <cfRule type="expression" dxfId="40" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="5" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:I38">
-    <cfRule type="expression" dxfId="39" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="43" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:J6 I39:I51 D7:I37">
-    <cfRule type="expression" dxfId="38" priority="39" stopIfTrue="1">
+  <conditionalFormatting sqref="H5:J6 D7:I37 I39:I51">
+    <cfRule type="expression" dxfId="37" priority="39" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:J63">
-    <cfRule type="expression" dxfId="37" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="3" stopIfTrue="1">
       <formula>H$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I74:I76 I78:I99">
-    <cfRule type="expression" dxfId="36" priority="1" stopIfTrue="1">
-      <formula>I$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J50">
@@ -55031,8 +63861,8 @@
   </sheetPr>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -56229,7 +65059,7 @@
   </sheetPr>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>

--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EB14E6-B5AD-304C-945E-21424B028E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D140FFCC-AFDC-3B4A-A42B-1B5CD5809106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="834" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Net Position" sheetId="8" r:id="rId1"/>
@@ -19174,8 +19174,8 @@
   </sheetPr>
   <dimension ref="A1:G616"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -34792,7 +34792,7 @@
   </sheetPr>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>

--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75F179A-79FC-6148-8D27-7E43C4D9389C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A6FF87-9465-7141-895B-527429ACEF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="28800" windowHeight="17280" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Net Position" sheetId="8" r:id="rId1"/>
@@ -12874,8 +12874,8 @@
   </sheetPr>
   <dimension ref="A1:G614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -28623,8 +28623,8 @@
   </sheetPr>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="88" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView zoomScale="88" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -31862,8 +31862,8 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD63"/>
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -38681,8 +38681,8 @@
   </sheetPr>
   <dimension ref="A1:E305"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -45735,8 +45735,8 @@
   </sheetPr>
   <dimension ref="A1:E395"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="D162" sqref="D162"/>
+    <sheetView topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="B365" sqref="B365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -55380,7 +55380,7 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarrahahmed/Desktop/CLOSUP/process-xbrl/app/static/input_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960699EA-5401-5B4D-86CB-16D8D15D30B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F82A9C-9FFF-7348-B6BC-6076A774A843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" tabRatio="834" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="834" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Net Position" sheetId="8" r:id="rId1"/>
@@ -12097,12 +12097,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12114,18 +12112,12 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12146,6 +12138,14 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12771,8 +12771,8 @@
   </sheetPr>
   <dimension ref="A1:C514"/>
   <sheetViews>
-    <sheetView topLeftCell="A300" zoomScale="56" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A256" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -26105,31 +26105,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:J65">
-    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
-      <formula>D$7=""</formula>
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
+      <formula>#REF!=""</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+      <formula>D$7=""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="notEqual">
       <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
-      <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:J69">
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
-      <formula>D$7=""</formula>
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+      <formula>D$7=""</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="11" operator="notEqual">
       <formula>#REF!</formula>
@@ -26205,8 +26205,8 @@
   </sheetPr>
   <dimension ref="A1:C358"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" zoomScale="56" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -46030,7 +46030,7 @@
   </sheetPr>
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>

--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/app/static/input_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarrahahmed/Desktop/CLOSUP/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F82A9C-9FFF-7348-B6BC-6076A774A843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F151A140-A923-2E4C-9F3B-1095D449F58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="834" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="17280" tabRatio="834" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Net Position" sheetId="8" r:id="rId1"/>
@@ -12097,10 +12097,12 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12112,12 +12114,18 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12138,14 +12146,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12771,7 +12771,7 @@
   </sheetPr>
   <dimension ref="A1:C514"/>
   <sheetViews>
-    <sheetView topLeftCell="A256" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A90" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -26105,31 +26105,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:J65">
-    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
-      <formula>#REF!=""</formula>
+    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
+      <formula>D$7=""</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
-      <formula>D$7=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="notEqual">
       <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+      <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:J69">
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+      <formula>D$7=""</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
-      <formula>D$7=""</formula>
+    <cfRule type="cellIs" dxfId="6" priority="10" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="11" operator="notEqual">
       <formula>#REF!</formula>
@@ -26205,7 +26205,7 @@
   </sheetPr>
   <dimension ref="A1:C358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A196" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
@@ -46030,8 +46030,8 @@
   </sheetPr>
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="116" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -46138,7 +46138,7 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="6" t="str">
-        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B9="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B9)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B9,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B9" s="15"/>
@@ -46152,7 +46152,7 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="6" t="str">
-        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B10="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B10)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B10,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B10" s="15"/>
@@ -46166,7 +46166,7 @@
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="6" t="str">
-        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B11="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B11)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B11,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B11" s="15"/>
@@ -46180,7 +46180,7 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="6" t="str">
-        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B12="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B12)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B12,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B12" s="15"/>
@@ -46194,7 +46194,7 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="6" t="str">
-        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B13="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B13)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B13,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B13" s="15"/>
@@ -46205,7 +46205,7 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="6" t="str">
-        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B14="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B14)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B14,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B14" s="15"/>
@@ -46216,7 +46216,7 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="6" t="str">
-        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B15="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B15)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B15,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B15" s="15"/>
@@ -46227,7 +46227,7 @@
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="6" t="str">
-        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B16="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B16)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B16,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B16" s="15"/>
@@ -46241,7 +46241,7 @@
     </row>
     <row r="17" spans="1:6" ht="15">
       <c r="A17" s="6" t="str">
-        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B17="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B17)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B17,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B17" s="15"/>
@@ -46255,7 +46255,7 @@
     </row>
     <row r="18" spans="1:6" ht="15" hidden="1">
       <c r="A18" s="6" t="str">
-        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B18="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B18)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B18,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B18" s="15"/>
@@ -46269,7 +46269,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" hidden="1">
       <c r="A19" s="6" t="str">
-        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B19="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B19)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B19,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B19" s="15"/>
@@ -46283,7 +46283,7 @@
     </row>
     <row r="20" spans="1:6" ht="15" hidden="1">
       <c r="A20" s="6" t="str">
-        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B20="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B20)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B20,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B20" s="15"/>
@@ -46297,7 +46297,7 @@
     </row>
     <row r="21" spans="1:6" ht="15" hidden="1">
       <c r="A21" s="6" t="str">
-        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B21="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B21)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B21,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B21" s="15"/>
@@ -46311,7 +46311,7 @@
     </row>
     <row r="22" spans="1:6" ht="15">
       <c r="A22" s="6" t="str">
-        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B22="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B22)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B22,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B22" s="15"/>
@@ -46358,7 +46358,7 @@
     </row>
     <row r="25" spans="1:6" ht="15">
       <c r="A25" s="6" t="str">
-        <f>IF(B25="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B25,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B25="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B25)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B25,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B25" s="15"/>
@@ -46372,7 +46372,7 @@
     </row>
     <row r="26" spans="1:6" ht="15">
       <c r="A26" s="6" t="str">
-        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B26="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B26)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B26,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B26" s="15"/>
@@ -46383,7 +46383,7 @@
     </row>
     <row r="27" spans="1:6" ht="15">
       <c r="A27" s="6" t="str">
-        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B27="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B27)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B27,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B27" s="16"/>
@@ -46394,7 +46394,7 @@
     </row>
     <row r="28" spans="1:6" ht="15">
       <c r="A28" s="6" t="str">
-        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B28="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B28)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B28,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B28" s="16"/>
@@ -46405,7 +46405,7 @@
     </row>
     <row r="29" spans="1:6" ht="15">
       <c r="A29" s="6" t="str">
-        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B29="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B29)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B29,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B29" s="16"/>
@@ -46416,7 +46416,7 @@
     </row>
     <row r="30" spans="1:6" ht="15">
       <c r="A30" s="6" t="str">
-        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B30="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B30)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B30,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B30" s="15"/>
@@ -46427,7 +46427,7 @@
     </row>
     <row r="31" spans="1:6" ht="15">
       <c r="A31" s="6" t="str">
-        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B31="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B31)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B31,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B31" s="15"/>
@@ -46576,7 +46576,7 @@
     </row>
     <row r="41" spans="1:6" ht="15">
       <c r="A41" s="6" t="str">
-        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B41,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B41="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B41)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B41,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B41" s="15"/>
@@ -46590,7 +46590,7 @@
     </row>
     <row r="42" spans="1:6" ht="15">
       <c r="A42" s="6" t="str">
-        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B42="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B42)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B42,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B42" s="15"/>
@@ -46604,7 +46604,7 @@
     </row>
     <row r="43" spans="1:6" ht="15">
       <c r="A43" s="6" t="str">
-        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B43="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B43)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B43,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B43" s="15"/>
@@ -46618,7 +46618,7 @@
     </row>
     <row r="44" spans="1:6" ht="15">
       <c r="A44" s="6" t="str">
-        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B44="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B44)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B44,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B44" s="15"/>
@@ -46632,7 +46632,7 @@
     </row>
     <row r="45" spans="1:6" ht="15">
       <c r="A45" s="6" t="str">
-        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B45="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B45)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B45,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B45" s="15"/>
@@ -46753,7 +46753,7 @@
     </row>
     <row r="54" spans="1:6" ht="15">
       <c r="A54" s="6" t="str">
-        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B54="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B54)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B54,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B54" s="15"/>
@@ -46767,7 +46767,7 @@
     </row>
     <row r="55" spans="1:6" ht="15">
       <c r="A55" s="6" t="str">
-        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B55="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B55)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B55,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B55" s="15"/>
@@ -46781,7 +46781,7 @@
     </row>
     <row r="56" spans="1:6" ht="15">
       <c r="A56" s="6" t="str">
-        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B56="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B56)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B56,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B56" s="15"/>
@@ -46795,7 +46795,7 @@
     </row>
     <row r="57" spans="1:6" ht="16" customHeight="1">
       <c r="A57" s="6" t="str">
-        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B57="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B57)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B57,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B57" s="15"/>
@@ -46809,7 +46809,7 @@
     </row>
     <row r="58" spans="1:6" ht="16" customHeight="1">
       <c r="A58" s="6" t="str">
-        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B58="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B58)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B58,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B58" s="15"/>
@@ -46823,7 +46823,7 @@
     </row>
     <row r="59" spans="1:6" ht="16" customHeight="1">
       <c r="A59" s="6" t="str">
-        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B59="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B59)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B59,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B59" s="15"/>
@@ -46940,7 +46940,7 @@
     </row>
     <row r="67" spans="1:6" ht="15">
       <c r="A67" s="6" t="str">
-        <f>IF(B67="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B67,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B67="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B67)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B67,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B67" s="15"/>
@@ -46951,7 +46951,7 @@
     </row>
     <row r="68" spans="1:6" ht="15">
       <c r="A68" s="6" t="str">
-        <f>IF(B68="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B68,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B68="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B68)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B68,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B68" s="15"/>
@@ -46962,7 +46962,7 @@
     </row>
     <row r="69" spans="1:6" ht="15">
       <c r="A69" s="6" t="str">
-        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B69="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B69)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B69,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B69" s="15"/>
@@ -46973,7 +46973,7 @@
     </row>
     <row r="70" spans="1:6" ht="15">
       <c r="A70" s="6" t="str">
-        <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B70="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B70)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B70,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B70" s="15"/>
@@ -47122,7 +47122,7 @@
     </row>
     <row r="80" spans="1:6" ht="15">
       <c r="A80" s="6" t="str">
-        <f>IF(B80="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B80,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B80="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B80)=0,"acfr:DeferredInflowsOfResourcesCustom",_xlfn.XLOOKUP(B80,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B80" s="15"/>
@@ -47136,7 +47136,7 @@
     </row>
     <row r="81" spans="1:6" ht="15">
       <c r="A81" s="6" t="str">
-        <f>IF(B81="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B81,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B81="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B81)=0,"acfr:DeferredInflowsOfResourcesCustom",_xlfn.XLOOKUP(B81,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B81" s="15"/>
@@ -47150,7 +47150,7 @@
     </row>
     <row r="82" spans="1:6" ht="15">
       <c r="A82" s="6" t="str">
-        <f>IF(B82="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B82,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B82="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B82)=0,"acfr:DeferredInflowsOfResourcesCustom",_xlfn.XLOOKUP(B82,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B82" s="15"/>
@@ -47164,7 +47164,7 @@
     </row>
     <row r="83" spans="1:6" ht="15">
       <c r="A83" s="6" t="str">
-        <f>IF(B83="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B83,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B83="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B83)=0,"acfr:DeferredInflowsOfResourcesCustom",_xlfn.XLOOKUP(B83,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B83" s="15"/>
@@ -47289,7 +47289,7 @@
     </row>
     <row r="92" spans="1:6" ht="15">
       <c r="A92" s="6" t="str">
-        <f>IF(B92="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B92,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B92="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B92)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B92,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B92" s="15"/>
@@ -47300,7 +47300,7 @@
     </row>
     <row r="93" spans="1:6" ht="15">
       <c r="A93" s="6" t="str">
-        <f>IF(B93="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B93,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B93="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B93)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B93,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B93" s="15"/>
@@ -47311,7 +47311,7 @@
     </row>
     <row r="94" spans="1:6" ht="15">
       <c r="A94" s="6" t="str">
-        <f>IF(B94="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B94,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B94="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B94)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B94,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B94" s="15"/>
@@ -47322,7 +47322,7 @@
     </row>
     <row r="95" spans="1:6" ht="15">
       <c r="A95" s="6" t="str">
-        <f>IF(B95="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B95,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B95="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B95)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B95,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B95" s="15"/>
@@ -47475,43 +47475,43 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{17CB63B2-6582-4D03-B5CB-EC836B51979D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{17CB63B2-6582-4D03-B5CB-EC836B51979D}">
           <x14:formula1>
             <xm:f>'Lookup Net Position'!$B$2:$B$201</xm:f>
           </x14:formula1>
           <xm:sqref>B9:B22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DD168EE-A03C-8F4C-872A-75D1E96C9387}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{2DD168EE-A03C-8F4C-872A-75D1E96C9387}">
           <x14:formula1>
             <xm:f>'Lookup Net Position'!$B$376:$B$468</xm:f>
           </x14:formula1>
           <xm:sqref>B25:B31</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4FFB8072-34D5-0E4C-AD99-305AB4DE3537}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{4FFB8072-34D5-0E4C-AD99-305AB4DE3537}">
           <x14:formula1>
             <xm:f>'Lookup Net Position'!$B$338:$B$354</xm:f>
           </x14:formula1>
           <xm:sqref>B41:B45</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5E57702C-3DA0-0A46-8890-D2C20B8F1A6A}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{5E57702C-3DA0-0A46-8890-D2C20B8F1A6A}">
           <x14:formula1>
             <xm:f>'Lookup Net Position'!$B$202:$B$315</xm:f>
           </x14:formula1>
           <xm:sqref>B54:B59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{89640B5B-A8EB-F245-8EA4-3FEF01E0F642}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{89640B5B-A8EB-F245-8EA4-3FEF01E0F642}">
           <x14:formula1>
             <xm:f>'Lookup Net Position'!$B$469:$B$514</xm:f>
           </x14:formula1>
           <xm:sqref>B67:B70</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AC956507-5236-0F49-901C-44C6F0615B5B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{AC956507-5236-0F49-901C-44C6F0615B5B}">
           <x14:formula1>
             <xm:f>'Lookup Net Position'!$B$316:$B$337</xm:f>
           </x14:formula1>
           <xm:sqref>B80:B83</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{70A74EAE-D4A3-124D-8A1A-56BFB96B62AC}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{70A74EAE-D4A3-124D-8A1A-56BFB96B62AC}">
           <x14:formula1>
             <xm:f>'Lookup Net Position'!$B$355:$B$375</xm:f>
           </x14:formula1>
@@ -47530,8 +47530,8 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView topLeftCell="A5" zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>

--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarrahahmed/Desktop/CLOSUP/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F151A140-A923-2E4C-9F3B-1095D449F58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596403B2-A9BA-524B-A087-856E21D06BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="17280" tabRatio="834" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="17280" tabRatio="834" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Net Position" sheetId="8" r:id="rId1"/>
@@ -46030,8 +46030,8 @@
   </sheetPr>
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="116" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A3" zoomScale="116" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -47530,13 +47530,13 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="68.6640625" style="33" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="33" customWidth="1"/>
     <col min="3" max="3" width="15" style="33" customWidth="1"/>
     <col min="4" max="4" width="17" style="33" customWidth="1"/>
@@ -47663,7 +47663,7 @@
     </row>
     <row r="9" spans="1:10" ht="17" customHeight="1">
       <c r="A9" s="50" t="str">
-        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B9,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B9,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B9,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B9="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B9) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B9, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B9, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B9, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B9" s="15"/>
@@ -47682,9 +47682,9 @@
       </c>
       <c r="J9" s="244"/>
     </row>
-    <row r="10" spans="1:10" ht="15">
-      <c r="A10" s="6" t="str">
-        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B10,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B10,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B10,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="10" spans="1:10" ht="16">
+      <c r="A10" s="50" t="str">
+        <f>IF(B10="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B10) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B10, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B10, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B10, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B10" s="15"/>
@@ -47703,9 +47703,9 @@
       </c>
       <c r="J10" s="244"/>
     </row>
-    <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="6" t="str">
-        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B11,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B11,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B11,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="11" spans="1:10" ht="16">
+      <c r="A11" s="50" t="str">
+        <f>IF(B11="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B11) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B11, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B11, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B11, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B11" s="15"/>
@@ -47724,9 +47724,9 @@
       </c>
       <c r="J11" s="244"/>
     </row>
-    <row r="12" spans="1:10" ht="15">
-      <c r="A12" s="6" t="str">
-        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B12,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B12,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B12,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="12" spans="1:10" ht="16">
+      <c r="A12" s="50" t="str">
+        <f>IF(B12="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B12) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B12, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B12, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B12, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B12" s="15"/>
@@ -47745,9 +47745,9 @@
       </c>
       <c r="J12" s="244"/>
     </row>
-    <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="6" t="str">
-        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B13,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B13,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B13,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="13" spans="1:10" ht="16">
+      <c r="A13" s="50" t="str">
+        <f>IF(B13="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B13) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B13, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B13, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B13, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B13" s="15"/>
@@ -47766,9 +47766,9 @@
       </c>
       <c r="J13" s="244"/>
     </row>
-    <row r="14" spans="1:10" ht="15">
-      <c r="A14" s="6" t="str">
-        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B14,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B14,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B14,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="14" spans="1:10" ht="16">
+      <c r="A14" s="50" t="str">
+        <f>IF(B14="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B14) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B14, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B14, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B14, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B14" s="15"/>
@@ -47787,9 +47787,9 @@
       </c>
       <c r="J14" s="244"/>
     </row>
-    <row r="15" spans="1:10" ht="15">
-      <c r="A15" s="6" t="str">
-        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B15,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B15,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B15,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="15" spans="1:10" ht="16">
+      <c r="A15" s="50" t="str">
+        <f>IF(B15="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B15) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B15, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B15, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B15, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B15" s="15"/>
@@ -47808,9 +47808,9 @@
       </c>
       <c r="J15" s="244"/>
     </row>
-    <row r="16" spans="1:10" ht="15">
-      <c r="A16" s="6" t="str">
-        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B16,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B16,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B16,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="16" spans="1:10" ht="16">
+      <c r="A16" s="50" t="str">
+        <f>IF(B16="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B16) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B16, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B16, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B16, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B16" s="15"/>
@@ -47829,9 +47829,9 @@
       </c>
       <c r="J16" s="244"/>
     </row>
-    <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="6" t="str">
-        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B17,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B17,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B17,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="17" spans="1:10" ht="16">
+      <c r="A17" s="50" t="str">
+        <f>IF(B17="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B17) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B17, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B17, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B17, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B17" s="15"/>
@@ -47850,9 +47850,9 @@
       </c>
       <c r="J17" s="244"/>
     </row>
-    <row r="18" spans="1:10" ht="15" hidden="1">
-      <c r="A18" s="6" t="str">
-        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B18,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B18,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B18,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="18" spans="1:10" ht="16" hidden="1">
+      <c r="A18" s="50" t="str">
+        <f>IF(B18="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B18) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B18, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B18, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B18, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B18" s="15"/>
@@ -47871,9 +47871,9 @@
       </c>
       <c r="J18" s="244"/>
     </row>
-    <row r="19" spans="1:10" ht="15" hidden="1">
-      <c r="A19" s="6" t="str">
-        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B19,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B19,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B19,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="19" spans="1:10" ht="16" hidden="1">
+      <c r="A19" s="50" t="str">
+        <f>IF(B19="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B19) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B19, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B19, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B19, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B19" s="15"/>
@@ -47892,9 +47892,9 @@
       </c>
       <c r="J19" s="244"/>
     </row>
-    <row r="20" spans="1:10" ht="15" hidden="1">
-      <c r="A20" s="6" t="str">
-        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B20,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B20,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B20,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="20" spans="1:10" ht="16" hidden="1">
+      <c r="A20" s="50" t="str">
+        <f>IF(B20="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B20) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B20, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B20, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B20, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B20" s="15"/>
@@ -47913,9 +47913,9 @@
       </c>
       <c r="J20" s="244"/>
     </row>
-    <row r="21" spans="1:10" ht="15" hidden="1">
-      <c r="A21" s="6" t="str">
-        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B21,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B21,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B21,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="21" spans="1:10" ht="16" hidden="1">
+      <c r="A21" s="50" t="str">
+        <f>IF(B21="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B21) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B21, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B21, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B21, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B21" s="15"/>
@@ -47934,9 +47934,9 @@
       </c>
       <c r="J21" s="244"/>
     </row>
-    <row r="22" spans="1:10" ht="15">
-      <c r="A22" s="6" t="str">
-        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B22,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B22,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B22,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="22" spans="1:10" ht="16">
+      <c r="A22" s="50" t="str">
+        <f>IF(B22="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B22) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B22, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B22, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B22, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B22" s="15"/>
@@ -48000,7 +48000,7 @@
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="6" t="str">
-        <f>IF(B25="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B25,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B25,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B25,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B25="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B25) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B25, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B25, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B25, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B25" s="15"/>
@@ -48021,7 +48021,7 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="6" t="str">
-        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B26,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B26,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B26,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B26="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B26) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B26, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B26, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B26, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B26" s="15"/>
@@ -48042,7 +48042,7 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="6" t="str">
-        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B27,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B27,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B27,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B27="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B27) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B27, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B27, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B27, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B27" s="15"/>
@@ -48063,7 +48063,7 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="6" t="str">
-        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B28,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B28,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B28,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B28="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B28) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B28, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B28, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B28, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B28" s="15"/>
@@ -48084,7 +48084,7 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="6" t="str">
-        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B29,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B29,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B29,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B29="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B29) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B29, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B29, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B29, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B29" s="15"/>
@@ -48102,7 +48102,7 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="6" t="str">
-        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B30,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B30,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B30,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B30="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B30) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B30, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B30, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B30, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B30" s="15"/>
@@ -48123,7 +48123,7 @@
     </row>
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="6" t="str">
-        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B31,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B31,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B31,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B31="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B31) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B31, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B31, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B31, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B31" s="15"/>
@@ -48144,7 +48144,7 @@
     </row>
     <row r="32" spans="1:10" ht="15" hidden="1">
       <c r="A32" s="6" t="str">
-        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B32,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B32,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B32,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B32="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B32) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B32, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B32, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B32, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B32" s="15"/>
@@ -48165,7 +48165,7 @@
     </row>
     <row r="33" spans="1:10" ht="15" hidden="1">
       <c r="A33" s="6" t="str">
-        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B33,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B33,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B33,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B33="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B33) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B33, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B33, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B33, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B33" s="15"/>
@@ -48186,7 +48186,7 @@
     </row>
     <row r="34" spans="1:10" ht="15" hidden="1">
       <c r="A34" s="6" t="str">
-        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B34,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B34,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B34,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B34="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B34) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B34, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B34, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B34, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B34" s="15"/>
@@ -48207,7 +48207,7 @@
     </row>
     <row r="35" spans="1:10" ht="15" hidden="1">
       <c r="A35" s="6" t="str">
-        <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B35,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B35,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B35,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B35="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B35) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B35, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B35, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B35, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B35" s="15"/>
@@ -48228,7 +48228,7 @@
     </row>
     <row r="36" spans="1:10" ht="15">
       <c r="A36" s="6" t="str">
-        <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B36,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B36,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B36,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B36="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B36) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B36, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B36, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B36, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B36" s="15"/>
@@ -48341,7 +48341,7 @@
     </row>
     <row r="41" spans="1:10" ht="15">
       <c r="A41" s="6" t="str">
-        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B41,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B41,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B41,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B41="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B41) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B41, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B41, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B41, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B41" s="15"/>
@@ -48368,7 +48368,7 @@
     </row>
     <row r="42" spans="1:10" ht="15">
       <c r="A42" s="6" t="str">
-        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B42,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B42,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B42,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B42="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B42) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B42, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B42, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B42, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B42" s="15"/>
@@ -48395,7 +48395,7 @@
     </row>
     <row r="43" spans="1:10" ht="15">
       <c r="A43" s="6" t="str">
-        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B43,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B43,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B43,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B43="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B43) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B43, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B43, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B43, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B43" s="15"/>
@@ -48422,7 +48422,7 @@
     </row>
     <row r="44" spans="1:10" ht="15">
       <c r="A44" s="6" t="str">
-        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B44,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B44,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B44,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B44="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B44) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B44, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B44, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B44, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B44" s="15"/>
@@ -48449,7 +48449,7 @@
     </row>
     <row r="45" spans="1:10" ht="15">
       <c r="A45" s="6" t="str">
-        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B45,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B45,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B45,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B45="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B45) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B45, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B45, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B45, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B45" s="15"/>
@@ -48476,7 +48476,7 @@
     </row>
     <row r="46" spans="1:10" ht="15" hidden="1">
       <c r="A46" s="6" t="str">
-        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B46,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B46,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B46,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B46="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B46) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B46, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B46, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B46, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B46" s="15"/>
@@ -48503,7 +48503,7 @@
     </row>
     <row r="47" spans="1:10" ht="15" hidden="1">
       <c r="A47" s="6" t="str">
-        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B47,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B47,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B47,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B47="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B47) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B47, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B47, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B47, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B47" s="15"/>
@@ -48530,7 +48530,7 @@
     </row>
     <row r="48" spans="1:10" ht="15" hidden="1">
       <c r="A48" s="6" t="str">
-        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B48,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B48,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B48,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B48="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B48) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B48, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B48, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B48, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B48" s="15"/>
@@ -48557,7 +48557,7 @@
     </row>
     <row r="49" spans="1:10" ht="15">
       <c r="A49" s="6" t="str">
-        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B49,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B49,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B49,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B49="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B49) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B49, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B49, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B49, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B49" s="15"/>
@@ -48654,7 +48654,7 @@
     </row>
     <row r="54" spans="1:10" ht="15">
       <c r="A54" s="6" t="str">
-        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54,'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B54="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B54) = 0, "acfr:GeneralRevenuesCustom", _xlfn.XLOOKUP(B54, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B54" s="15"/>
@@ -48672,7 +48672,7 @@
     </row>
     <row r="55" spans="1:10" ht="15">
       <c r="A55" s="6" t="str">
-        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B55="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B55) = 0, "acfr:GeneralRevenuesCustom", _xlfn.XLOOKUP(B55, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B55" s="15"/>
@@ -48690,7 +48690,7 @@
     </row>
     <row r="56" spans="1:10" ht="15">
       <c r="A56" s="6" t="str">
-        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B56="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B56) = 0, "acfr:GeneralRevenuesCustom", _xlfn.XLOOKUP(B56, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B56" s="15"/>
@@ -48708,7 +48708,7 @@
     </row>
     <row r="57" spans="1:10" ht="15">
       <c r="A57" s="6" t="str">
-        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B57="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B57) = 0, "acfr:GeneralRevenuesCustom", _xlfn.XLOOKUP(B57, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B57" s="15"/>
@@ -48726,7 +48726,7 @@
     </row>
     <row r="58" spans="1:10" ht="15">
       <c r="A58" s="6" t="str">
-        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B58="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B58) = 0, "acfr:GeneralRevenuesCustom", _xlfn.XLOOKUP(B58, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B58" s="15"/>
@@ -48744,7 +48744,7 @@
     </row>
     <row r="59" spans="1:10" ht="15">
       <c r="A59" s="6" t="str">
-        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B59="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B59) = 0, "acfr:GeneralRevenuesCustom", _xlfn.XLOOKUP(B59, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B59" s="15"/>
@@ -48762,7 +48762,7 @@
     </row>
     <row r="60" spans="1:10" ht="15">
       <c r="A60" s="6" t="str">
-        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B60="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B60) = 0, "acfr:GeneralRevenuesCustom", _xlfn.XLOOKUP(B60, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B60" s="15"/>
@@ -48780,7 +48780,7 @@
     </row>
     <row r="61" spans="1:10" ht="15">
       <c r="A61" s="6" t="str">
-        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B61="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B61) = 0, "acfr:GeneralRevenuesCustom", _xlfn.XLOOKUP(B61, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B61" s="15"/>
@@ -48798,7 +48798,7 @@
     </row>
     <row r="62" spans="1:10" ht="15">
       <c r="A62" s="6" t="str">
-        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B62="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B62) = 0, "acfr:GeneralRevenuesCustom", _xlfn.XLOOKUP(B62, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B62" s="15"/>
@@ -48816,7 +48816,7 @@
     </row>
     <row r="63" spans="1:10" ht="15">
       <c r="A63" s="6" t="str">
-        <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B63="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B63) = 0, "acfr:GeneralRevenuesCustom", _xlfn.XLOOKUP(B63, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B63" s="15"/>
@@ -48871,7 +48871,7 @@
     </row>
     <row r="66" spans="1:10" ht="15">
       <c r="A66" s="6" t="str">
-        <f>IF(B66="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B66,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B66="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B66) = 0, "acfr:AdjustmentsForTransferOfRevenuesWithinActivitiesCustom", _xlfn.XLOOKUP(B66, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B66" s="15"/>
@@ -48889,7 +48889,7 @@
     </row>
     <row r="67" spans="1:10" ht="15">
       <c r="A67" s="6" t="str">
-        <f>IF(B67="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B67,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B67="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B67) = 0, "acfr:AdjustmentsForTransferOfRevenuesWithinActivitiesCustom", _xlfn.XLOOKUP(B67, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B67" s="15"/>
@@ -48907,7 +48907,7 @@
     </row>
     <row r="68" spans="1:10" ht="15">
       <c r="A68" s="6" t="str">
-        <f>IF(B68="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B68,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B68="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B68) = 0, "acfr:AdjustmentsForTransferOfRevenuesWithinActivitiesCustom", _xlfn.XLOOKUP(B68, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B68" s="15"/>
@@ -48925,7 +48925,7 @@
     </row>
     <row r="69" spans="1:10" ht="15">
       <c r="A69" s="6" t="str">
-        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B69="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B69) = 0, "acfr:AdjustmentsForTransferOfRevenuesWithinActivitiesCustom", _xlfn.XLOOKUP(B69, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B69" s="15"/>
@@ -48943,7 +48943,7 @@
     </row>
     <row r="70" spans="1:10" ht="15">
       <c r="A70" s="6" t="str">
-        <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B70="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B70) = 0, "acfr:AdjustmentsForTransferOfRevenuesWithinActivitiesCustom", _xlfn.XLOOKUP(B70, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B70" s="15"/>
@@ -49226,15 +49226,18 @@
       <formula>J$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B22 B25:B36 B41:B49" xr:uid="{F3C11D5E-2141-5546-AF1F-2279D6DA74D8}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B41:B49" xr:uid="{F3C11D5E-2141-5546-AF1F-2279D6DA74D8}">
       <formula1>program_revenues</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54:B63" xr:uid="{96AC2388-DB7C-8442-BE26-CB837586D707}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B54:B63" xr:uid="{96AC2388-DB7C-8442-BE26-CB837586D707}">
       <formula1>general_revenues</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66:B70" xr:uid="{A7A9E828-3622-4441-839C-4C8E5DABEB87}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B66:B70" xr:uid="{A7A9E828-3622-4441-839C-4C8E5DABEB87}">
       <formula1>transfers</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B9:B22 B25:B36" xr:uid="{5B081783-9278-9542-AB7A-E156D9F5E750}">
+      <formula1>program_revenues</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarrahahmed/Desktop/CLOSUP/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596403B2-A9BA-524B-A087-856E21D06BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D70992D-F977-1A45-A28C-CD9D8F6EBF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="17280" tabRatio="834" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="17280" tabRatio="834" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Net Position" sheetId="8" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5346" uniqueCount="3615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5349" uniqueCount="3618">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -10938,6 +10938,15 @@
   </si>
   <si>
     <t>Label (without Spaces)</t>
+  </si>
+  <si>
+    <t>acfr:FundBalanceAssignedCustom</t>
+  </si>
+  <si>
+    <t>acfr:FundBalanceCommittedCustom</t>
+  </si>
+  <si>
+    <t>acfr:FundBalanceRestrictedCustom</t>
   </si>
 </sst>
 </file>
@@ -11558,7 +11567,7 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12041,6 +12050,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="27" fillId="18" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -12771,7 +12781,7 @@
   </sheetPr>
   <dimension ref="A1:C514"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A202" zoomScale="75" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -18451,15 +18461,15 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="75" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView topLeftCell="A59" zoomScale="96" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="120" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="120" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="171" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" style="120" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" style="120" customWidth="1"/>
@@ -18593,7 +18603,7 @@
     </row>
     <row r="9" spans="1:10" ht="15">
       <c r="A9" s="108" t="str">
-        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,#REF!,#REF!))</f>
+        <f>IF(B9="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B9) = 0, "acfr:AssetsCustomModifiedAccrual", _xlfn.XLOOKUP(B9, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B9" s="166"/>
@@ -18611,7 +18621,7 @@
     </row>
     <row r="10" spans="1:10" ht="15">
       <c r="A10" s="108" t="str">
-        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,#REF!,#REF!))</f>
+        <f>IF(B10="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B10) = 0, "acfr:AssetsCustomModifiedAccrual", _xlfn.XLOOKUP(B10, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B10" s="166"/>
@@ -18629,7 +18639,7 @@
     </row>
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="108" t="str">
-        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,#REF!,#REF!))</f>
+        <f>IF(B11="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B11) = 0, "acfr:AssetsCustomModifiedAccrual", _xlfn.XLOOKUP(B11, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B11" s="166"/>
@@ -18647,7 +18657,7 @@
     </row>
     <row r="12" spans="1:10" ht="15">
       <c r="A12" s="108" t="str">
-        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,#REF!,#REF!))</f>
+        <f>IF(B12="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B12) = 0, "acfr:AssetsCustomModifiedAccrual", _xlfn.XLOOKUP(B12, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B12" s="166"/>
@@ -18665,7 +18675,7 @@
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="108" t="str">
-        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,#REF!,#REF!))</f>
+        <f>IF(B13="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B13) = 0, "acfr:AssetsCustomModifiedAccrual", _xlfn.XLOOKUP(B13, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B13" s="166"/>
@@ -18683,7 +18693,7 @@
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="108" t="str">
-        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,#REF!,#REF!))</f>
+        <f>IF(B14="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B14) = 0, "acfr:AssetsCustomModifiedAccrual", _xlfn.XLOOKUP(B14, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B14" s="166"/>
@@ -18701,7 +18711,7 @@
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="108" t="str">
-        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,#REF!,#REF!))</f>
+        <f>IF(B15="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B15) = 0, "acfr:AssetsCustomModifiedAccrual", _xlfn.XLOOKUP(B15, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B15" s="166"/>
@@ -18719,7 +18729,7 @@
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="108" t="str">
-        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,#REF!,#REF!))</f>
+        <f>IF(B16="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B16) = 0, "acfr:AssetsCustomModifiedAccrual", _xlfn.XLOOKUP(B16, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B16" s="166"/>
@@ -18737,7 +18747,7 @@
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="108" t="str">
-        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,#REF!,#REF!))</f>
+        <f>IF(B17="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B17) = 0, "acfr:AssetsCustomModifiedAccrual", _xlfn.XLOOKUP(B17, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B17" s="166"/>
@@ -18755,7 +18765,7 @@
     </row>
     <row r="18" spans="1:10" ht="15">
       <c r="A18" s="108" t="str">
-        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,#REF!,#REF!))</f>
+        <f>IF(B18="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B18) = 0, "acfr:AssetsCustomModifiedAccrual", _xlfn.XLOOKUP(B18, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B18" s="166"/>
@@ -18838,7 +18848,7 @@
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="108" t="str">
-        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,#REF!,#REF!))</f>
+        <f>IF(B22="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B22) = 0, "acfr:LiabilitiesCustomModifiedAccrual", _xlfn.XLOOKUP(B22, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B22" s="166"/>
@@ -18856,7 +18866,7 @@
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="108" t="str">
-        <f>IF(B23="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B23,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B23="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B23) = 0, "acfr:LiabilitiesCustomModifiedAccrual", _xlfn.XLOOKUP(B23, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B23" s="166"/>
@@ -18874,7 +18884,7 @@
     </row>
     <row r="24" spans="1:10" ht="15">
       <c r="A24" s="108" t="str">
-        <f>IF(B24="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B24,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B24="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B24) = 0, "acfr:LiabilitiesCustomModifiedAccrual", _xlfn.XLOOKUP(B24, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B24" s="166"/>
@@ -18892,7 +18902,7 @@
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="108" t="str">
-        <f>IF(B25="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B25,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B25="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B25) = 0, "acfr:LiabilitiesCustomModifiedAccrual", _xlfn.XLOOKUP(B25, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B25" s="166"/>
@@ -18910,7 +18920,7 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="108" t="str">
-        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B26="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B26) = 0, "acfr:LiabilitiesCustomModifiedAccrual", _xlfn.XLOOKUP(B26, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B26" s="166"/>
@@ -18928,7 +18938,7 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="108" t="str">
-        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B27="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B27) = 0, "acfr:LiabilitiesCustomModifiedAccrual", _xlfn.XLOOKUP(B27, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B27" s="166"/>
@@ -18946,7 +18956,7 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="108" t="str">
-        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B28="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B28) = 0, "acfr:LiabilitiesCustomModifiedAccrual", _xlfn.XLOOKUP(B28, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B28" s="166"/>
@@ -18964,7 +18974,7 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="108" t="str">
-        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B29="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B29) = 0, "acfr:LiabilitiesCustomModifiedAccrual", _xlfn.XLOOKUP(B29, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B29" s="166"/>
@@ -18982,7 +18992,7 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="108" t="str">
-        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B30="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B30) = 0, "acfr:LiabilitiesCustomModifiedAccrual", _xlfn.XLOOKUP(B30, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B30" s="166"/>
@@ -19000,7 +19010,7 @@
     </row>
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="108" t="str">
-        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B31="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B31) = 0, "acfr:LiabilitiesCustomModifiedAccrual", _xlfn.XLOOKUP(B31, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B31" s="166"/>
@@ -19083,7 +19093,7 @@
     </row>
     <row r="35" spans="1:10" ht="15">
       <c r="A35" s="108" t="str">
-        <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B35,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B35="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B35) = 0, "acfr:DeferredInflowsOfResourcesCustomModifiedAccrual", _xlfn.XLOOKUP(B35, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B35" s="166"/>
@@ -19101,7 +19111,7 @@
     </row>
     <row r="36" spans="1:10" ht="15">
       <c r="A36" s="108" t="str">
-        <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B36,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B36="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B36) = 0, "acfr:DeferredInflowsOfResourcesCustomModifiedAccrual", _xlfn.XLOOKUP(B36, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B36" s="166"/>
@@ -19119,7 +19129,7 @@
     </row>
     <row r="37" spans="1:10" ht="15">
       <c r="A37" s="108" t="str">
-        <f>IF(B37="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B37,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B37="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B37) = 0, "acfr:DeferredInflowsOfResourcesCustomModifiedAccrual", _xlfn.XLOOKUP(B37, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B37" s="166"/>
@@ -19137,7 +19147,7 @@
     </row>
     <row r="38" spans="1:10" ht="15">
       <c r="A38" s="108" t="str">
-        <f>IF(B38="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B38,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B38="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B38) = 0, "acfr:DeferredInflowsOfResourcesCustomModifiedAccrual", _xlfn.XLOOKUP(B38, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B38" s="166"/>
@@ -19155,7 +19165,7 @@
     </row>
     <row r="39" spans="1:10" ht="15">
       <c r="A39" s="108" t="str">
-        <f>IF(B39="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B39,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B39="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B39) = 0, "acfr:DeferredInflowsOfResourcesCustomModifiedAccrual", _xlfn.XLOOKUP(B39, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B39" s="166"/>
@@ -19173,7 +19183,7 @@
     </row>
     <row r="40" spans="1:10" ht="15">
       <c r="A40" s="108" t="str">
-        <f>IF(B40="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B40,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B40="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B40) = 0, "acfr:DeferredInflowsOfResourcesCustomModifiedAccrual", _xlfn.XLOOKUP(B40, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B40" s="166"/>
@@ -19191,7 +19201,7 @@
     </row>
     <row r="41" spans="1:10" ht="15">
       <c r="A41" s="108" t="str">
-        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B41,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B41="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B41) = 0, "acfr:DeferredInflowsOfResourcesCustomModifiedAccrual", _xlfn.XLOOKUP(B41, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B41" s="166"/>
@@ -19209,7 +19219,7 @@
     </row>
     <row r="42" spans="1:10" ht="15">
       <c r="A42" s="108" t="str">
-        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B42="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B42) = 0, "acfr:DeferredInflowsOfResourcesCustomModifiedAccrual", _xlfn.XLOOKUP(B42, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B42" s="166"/>
@@ -19227,7 +19237,7 @@
     </row>
     <row r="43" spans="1:10" ht="15">
       <c r="A43" s="108" t="str">
-        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B43="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B43) = 0, "acfr:DeferredInflowsOfResourcesCustomModifiedAccrual", _xlfn.XLOOKUP(B43, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B43" s="166"/>
@@ -19245,7 +19255,7 @@
     </row>
     <row r="44" spans="1:10" ht="15">
       <c r="A44" s="108" t="str">
-        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B44="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B44) = 0, "acfr:DeferredInflowsOfResourcesCustomModifiedAccrual", _xlfn.XLOOKUP(B44, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B44" s="166"/>
@@ -19328,7 +19338,7 @@
     </row>
     <row r="48" spans="1:10" ht="15">
       <c r="A48" s="108" t="str">
-        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B48" s="166"/>
@@ -19346,7 +19356,7 @@
     </row>
     <row r="49" spans="1:10" ht="15">
       <c r="A49" s="108" t="str">
-        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B49" s="166"/>
@@ -19364,7 +19374,7 @@
     </row>
     <row r="50" spans="1:10" ht="15">
       <c r="A50" s="108" t="str">
-        <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B50" s="166"/>
@@ -19382,7 +19392,7 @@
     </row>
     <row r="51" spans="1:10" ht="15">
       <c r="A51" s="108" t="str">
-        <f>IF(B51="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B51,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B51="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B51, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B51" s="166"/>
@@ -19400,7 +19410,7 @@
     </row>
     <row r="52" spans="1:10" ht="15">
       <c r="A52" s="108" t="str">
-        <f>IF(B52="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B52,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B52="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B52, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B52" s="166"/>
@@ -19418,7 +19428,7 @@
     </row>
     <row r="53" spans="1:10" ht="15">
       <c r="A53" s="108" t="str">
-        <f>IF(B53="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B53,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B53="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B53, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B53" s="166"/>
@@ -19436,7 +19446,7 @@
     </row>
     <row r="54" spans="1:10" ht="15">
       <c r="A54" s="108" t="str">
-        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B54" s="166"/>
@@ -19454,7 +19464,7 @@
     </row>
     <row r="55" spans="1:10" ht="15">
       <c r="A55" s="108" t="str">
-        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B55" s="166"/>
@@ -19472,7 +19482,7 @@
     </row>
     <row r="56" spans="1:10" ht="15">
       <c r="A56" s="108" t="str">
-        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B56" s="166"/>
@@ -19490,7 +19500,7 @@
     </row>
     <row r="57" spans="1:10" ht="15">
       <c r="A57" s="108" t="str">
-        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B57" s="166"/>
@@ -19508,7 +19518,7 @@
     </row>
     <row r="58" spans="1:10" ht="15">
       <c r="A58" s="108" t="str">
-        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B58" s="166"/>
@@ -19524,85 +19534,127 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="16">
+    <row r="59" spans="1:10" ht="15">
       <c r="A59" s="108" t="s">
+        <v>3615</v>
+      </c>
+      <c r="B59" s="166"/>
+      <c r="C59" s="208"/>
+      <c r="D59" s="209"/>
+      <c r="E59" s="209"/>
+      <c r="F59" s="209"/>
+      <c r="G59" s="209"/>
+      <c r="H59" s="210"/>
+      <c r="I59" s="210"/>
+      <c r="J59" s="249"/>
+    </row>
+    <row r="60" spans="1:10" ht="15">
+      <c r="A60" s="108" t="s">
+        <v>3616</v>
+      </c>
+      <c r="B60" s="166"/>
+      <c r="C60" s="208"/>
+      <c r="D60" s="209"/>
+      <c r="E60" s="209"/>
+      <c r="F60" s="209"/>
+      <c r="G60" s="209"/>
+      <c r="H60" s="210"/>
+      <c r="I60" s="210"/>
+      <c r="J60" s="249"/>
+    </row>
+    <row r="61" spans="1:10" ht="16">
+      <c r="A61" s="131" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B61" s="166"/>
+      <c r="C61" s="208"/>
+      <c r="D61" s="209"/>
+      <c r="E61" s="209"/>
+      <c r="F61" s="209"/>
+      <c r="G61" s="209"/>
+      <c r="H61" s="210"/>
+      <c r="I61" s="210"/>
+      <c r="J61" s="249"/>
+    </row>
+    <row r="62" spans="1:10" ht="16">
+      <c r="A62" s="108" t="s">
         <v>1084</v>
       </c>
-      <c r="B59" s="169" t="s">
+      <c r="B62" s="169" t="s">
         <v>2475</v>
       </c>
-      <c r="C59" s="217">
-        <f t="shared" ref="C59:H59" si="7">SUM(C48:C58)</f>
+      <c r="C62" s="217">
+        <f>SUM(C48:C58)</f>
         <v>0</v>
       </c>
-      <c r="D59" s="217">
-        <f t="shared" si="7"/>
+      <c r="D62" s="217">
+        <f>SUM(D48:D58)</f>
         <v>0</v>
       </c>
-      <c r="E59" s="217">
-        <f t="shared" si="7"/>
+      <c r="E62" s="217">
+        <f>SUM(E48:E58)</f>
         <v>0</v>
       </c>
-      <c r="F59" s="217">
-        <f t="shared" si="7"/>
+      <c r="F62" s="217">
+        <f>SUM(F48:F58)</f>
         <v>0</v>
       </c>
-      <c r="G59" s="217">
-        <f t="shared" si="7"/>
+      <c r="G62" s="217">
+        <f>SUM(G48:G58)</f>
         <v>0</v>
       </c>
-      <c r="H59" s="218">
-        <f t="shared" si="7"/>
+      <c r="H62" s="218">
+        <f>SUM(H48:H58)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="218">
-        <f t="shared" ref="I59" si="8">SUM(I48:I58)</f>
+      <c r="I62" s="218">
+        <f>SUM(I48:I58)</f>
         <v>0</v>
       </c>
-      <c r="J59" s="218">
-        <f>SUM(C59:I59)</f>
+      <c r="J62" s="218">
+        <f>SUM(C62:I62)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="32">
-      <c r="A60" s="114" t="s">
+    <row r="63" spans="1:10" ht="32">
+      <c r="A63" s="114" t="s">
         <v>2476</v>
       </c>
-      <c r="B60" s="170" t="s">
+      <c r="B63" s="170" t="s">
         <v>2477</v>
       </c>
-      <c r="C60" s="219">
-        <f>SUM(C59, C45, C32)</f>
+      <c r="C63" s="219">
+        <f>SUM(C62, C45, C32)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="219">
-        <f t="shared" ref="D60:J60" si="9">SUM(D59, D45, D32)</f>
+      <c r="D63" s="219">
+        <f>SUM(D62, D45, D32)</f>
         <v>0</v>
       </c>
-      <c r="E60" s="219">
-        <f t="shared" si="9"/>
+      <c r="E63" s="219">
+        <f>SUM(E62, E45, E32)</f>
         <v>0</v>
       </c>
-      <c r="F60" s="219"/>
-      <c r="G60" s="219">
-        <f t="shared" si="9"/>
+      <c r="F63" s="219"/>
+      <c r="G63" s="219">
+        <f>SUM(G62, G45, G32)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="219">
-        <f t="shared" si="9"/>
+      <c r="H63" s="219">
+        <f>SUM(H62, H45, H32)</f>
         <v>0</v>
       </c>
-      <c r="I60" s="219">
-        <f t="shared" si="9"/>
+      <c r="I63" s="219">
+        <f>SUM(I62, I45, I32)</f>
         <v>0</v>
       </c>
-      <c r="J60" s="219">
-        <f t="shared" si="9"/>
+      <c r="J63" s="219">
+        <f>SUM(J62, J45, J32)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D8:G18 D21:G31 C32:I33 D35:G44 C45:I46 D48:G58 C59:G59">
+  <conditionalFormatting sqref="D8:G18 D21:G31 C32:I33 D35:G44 C45:I46 D48:G61 C62:G62">
     <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
@@ -19624,25 +19676,35 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:J6" xr:uid="{0D7B8D02-DC8C-0B46-ABA0-A3421D2F5523}">
       <formula1>"Select fund type or delete column, General Fund, Special Revenue Fund, Capital Project, Debt Service, Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48:B58" xr:uid="{51E25186-1EB2-CD4B-B4A7-8C43F9322904}">
-      <formula1>fund_balance</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="B59:B61" xr:uid="{0725135B-1ABA-044F-ABE3-FFE608A89DA3}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{24181F37-3456-9247-9E1E-6FECB2D9D2BE}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{51E25186-1EB2-CD4B-B4A7-8C43F9322904}">
+          <x14:formula1>
+            <xm:f>'Lookup GovFund Balance'!$B$176:$B$189</xm:f>
+          </x14:formula1>
+          <xm:sqref>B48:B58</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{24181F37-3456-9247-9E1E-6FECB2D9D2BE}">
           <x14:formula1>
             <xm:f>'Lookup GovFund Balance'!$B$190:$B$276</xm:f>
           </x14:formula1>
           <xm:sqref>B22:B31</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B2665086-3AD7-4E48-B875-3BE4D2879C8C}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{B2665086-3AD7-4E48-B875-3BE4D2879C8C}">
           <x14:formula1>
-            <xm:f>'Lookup GovFund Balance'!$B$2:$B$163</xm:f>
+            <xm:f>'Lookup GovFund Balance'!$B$2:$B$164</xm:f>
           </x14:formula1>
           <xm:sqref>B9:B18</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{F4479D55-EB5C-EE45-B5CD-6F72ECE895E0}">
+          <x14:formula1>
+            <xm:f>'Lookup GovFund Balance'!$B$165:$B$173</xm:f>
+          </x14:formula1>
+          <xm:sqref>B35:B44</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -19837,13 +19899,13 @@
   </sheetPr>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="28" style="33" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="33" customWidth="1"/>
     <col min="3" max="3" width="15" style="33" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" style="33" customWidth="1"/>
@@ -19998,7 +20060,7 @@
     </row>
     <row r="9" spans="1:10" ht="15">
       <c r="A9" s="6" t="str">
-        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B9="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B9) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B9, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B9" s="15"/>
@@ -20016,7 +20078,7 @@
     </row>
     <row r="10" spans="1:10" ht="15">
       <c r="A10" s="6" t="str">
-        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B10="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B10) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B10, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B10" s="15"/>
@@ -20034,7 +20096,7 @@
     </row>
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="6" t="str">
-        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B11="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B11) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B11, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B11" s="15"/>
@@ -20052,7 +20114,7 @@
     </row>
     <row r="12" spans="1:10" ht="15">
       <c r="A12" s="6" t="str">
-        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B12="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B12) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B12, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B12" s="15"/>
@@ -20070,7 +20132,7 @@
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="6" t="str">
-        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B13="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B13) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B13, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B13" s="15"/>
@@ -20088,7 +20150,7 @@
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="6" t="str">
-        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B14="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B14) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B14, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B14" s="15"/>
@@ -20106,7 +20168,7 @@
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="6" t="str">
-        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B15="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B15) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B15, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B15" s="15"/>
@@ -20124,7 +20186,7 @@
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="6" t="str">
-        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B16="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B16) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B16, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B16" s="15"/>
@@ -20142,7 +20204,7 @@
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="6" t="str">
-        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B17="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B17) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B17, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B17" s="15"/>
@@ -20160,7 +20222,7 @@
     </row>
     <row r="18" spans="1:10" ht="15" hidden="1">
       <c r="A18" s="6" t="str">
-        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B18="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B18) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B18, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B18" s="15"/>
@@ -20178,7 +20240,7 @@
     </row>
     <row r="19" spans="1:10" ht="15" hidden="1">
       <c r="A19" s="6" t="str">
-        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B19="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B19) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B19, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B19" s="15"/>
@@ -20196,7 +20258,7 @@
     </row>
     <row r="20" spans="1:10" ht="15" hidden="1">
       <c r="A20" s="6" t="str">
-        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B20="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B20) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B20, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B20" s="15"/>
@@ -20214,7 +20276,7 @@
     </row>
     <row r="21" spans="1:10" ht="15" hidden="1">
       <c r="A21" s="6" t="str">
-        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B21="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B21) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B21, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B21" s="15"/>
@@ -20232,7 +20294,7 @@
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="6" t="str">
-        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B22="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B22) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B22, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B22" s="15"/>
@@ -20304,7 +20366,7 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="6" t="str">
-        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B26="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B26) = 0, "acfr:ExpendituresCustomModifiedAccrual", _xlfn.XLOOKUP(B26, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B26" s="15"/>
@@ -20322,7 +20384,7 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="6" t="str">
-        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B27="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B27) = 0, "acfr:ExpendituresCustomModifiedAccrual", _xlfn.XLOOKUP(B27, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B27" s="15"/>
@@ -20340,7 +20402,7 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="6" t="str">
-        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B28="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B28) = 0, "acfr:ExpendituresCustomModifiedAccrual", _xlfn.XLOOKUP(B28, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B28" s="15"/>
@@ -20358,7 +20420,7 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="6" t="str">
-        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B29="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B29) = 0, "acfr:ExpendituresCustomModifiedAccrual", _xlfn.XLOOKUP(B29, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B29" s="15"/>
@@ -20376,7 +20438,7 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="6" t="str">
-        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B30="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B30) = 0, "acfr:ExpendituresCustomModifiedAccrual", _xlfn.XLOOKUP(B30, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B30" s="15"/>
@@ -20394,7 +20456,7 @@
     </row>
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="6" t="str">
-        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B31="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B31) = 0, "acfr:ExpendituresCustomModifiedAccrual", _xlfn.XLOOKUP(B31, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B31" s="15"/>
@@ -20412,7 +20474,7 @@
     </row>
     <row r="32" spans="1:10" ht="15">
       <c r="A32" s="6" t="str">
-        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B32="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B32) = 0, "acfr:ExpendituresCustomModifiedAccrual", _xlfn.XLOOKUP(B32, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B32" s="15"/>
@@ -20430,7 +20492,7 @@
     </row>
     <row r="33" spans="1:10" ht="15">
       <c r="A33" s="6" t="str">
-        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B33="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B33) = 0, "acfr:ExpendituresCustomModifiedAccrual", _xlfn.XLOOKUP(B33, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B33" s="15"/>
@@ -20448,7 +20510,7 @@
     </row>
     <row r="34" spans="1:10" ht="15">
       <c r="A34" s="6" t="str">
-        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B34="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B34) = 0, "acfr:ExpendituresCustomModifiedAccrual", _xlfn.XLOOKUP(B34, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B34" s="15"/>
@@ -20572,7 +20634,7 @@
     </row>
     <row r="39" spans="1:10" ht="15">
       <c r="A39" s="6" t="str">
-        <f>IF(B39="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B39,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B39="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B39) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B39, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B39" s="15"/>
@@ -20590,7 +20652,7 @@
     </row>
     <row r="40" spans="1:10" ht="15">
       <c r="A40" s="6" t="str">
-        <f>IF(B40="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B40,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B40="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B40) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B40, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B40" s="15"/>
@@ -20608,7 +20670,7 @@
     </row>
     <row r="41" spans="1:10" ht="15">
       <c r="A41" s="6" t="str">
-        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B41,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B41="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B41) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B41, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B41" s="15"/>
@@ -20626,7 +20688,7 @@
     </row>
     <row r="42" spans="1:10" ht="16" customHeight="1">
       <c r="A42" s="6" t="str">
-        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B42="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B42) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B42, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B42" s="15"/>
@@ -20644,7 +20706,7 @@
     </row>
     <row r="43" spans="1:10" ht="16" customHeight="1">
       <c r="A43" s="6" t="str">
-        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B43="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B43) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B43, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B43" s="15"/>
@@ -20662,7 +20724,7 @@
     </row>
     <row r="44" spans="1:10" ht="16" customHeight="1">
       <c r="A44" s="6" t="str">
-        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B44="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B44) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B44, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B44" s="15"/>
@@ -20680,7 +20742,7 @@
     </row>
     <row r="45" spans="1:10" ht="16" hidden="1" customHeight="1">
       <c r="A45" s="6" t="str">
-        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B45="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B45) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B45, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B45" s="15"/>
@@ -20698,7 +20760,7 @@
     </row>
     <row r="46" spans="1:10" ht="16" hidden="1" customHeight="1">
       <c r="A46" s="6" t="str">
-        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B46="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B46) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B46, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B46" s="15"/>
@@ -20716,7 +20778,7 @@
     </row>
     <row r="47" spans="1:10" ht="15" hidden="1">
       <c r="A47" s="6" t="str">
-        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B47="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B47) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B47, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B47" s="15"/>
@@ -20734,7 +20796,7 @@
     </row>
     <row r="48" spans="1:10" ht="15" hidden="1">
       <c r="A48" s="6" t="str">
-        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B48="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B48) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B48, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B48" s="15"/>
@@ -20752,7 +20814,7 @@
     </row>
     <row r="49" spans="1:10" ht="15" hidden="1">
       <c r="A49" s="6" t="str">
-        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B49="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B49) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B49, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B49" s="15"/>
@@ -20770,7 +20832,7 @@
     </row>
     <row r="50" spans="1:10" ht="15">
       <c r="A50" s="6" t="str">
-        <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B50="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B50) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B50, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B50" s="15"/>
@@ -20788,7 +20850,7 @@
     </row>
     <row r="51" spans="1:10" ht="15">
       <c r="A51" s="6" t="str">
-        <f>IF(B51="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B51,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B51="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B51) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B51, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B51" s="15"/>
@@ -20806,7 +20868,7 @@
     </row>
     <row r="52" spans="1:10" ht="15">
       <c r="A52" s="6" t="str">
-        <f>IF(B52="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B52,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B52="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B52) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B52, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B52" s="15"/>
@@ -20824,7 +20886,7 @@
     </row>
     <row r="53" spans="1:10" ht="15">
       <c r="A53" s="6" t="str">
-        <f>IF(B53="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B53,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B53="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B53) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B53, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B53" s="15"/>
@@ -21224,19 +21286,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C93DFAB6-EE30-6F40-B82C-3A9FB7CAB85D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{C93DFAB6-EE30-6F40-B82C-3A9FB7CAB85D}">
           <x14:formula1>
             <xm:f>'Lookup GovFund Stmt Rev Exp Ch'!$B$160:$B$170</xm:f>
           </x14:formula1>
           <xm:sqref>B39:B53</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D4D1AB10-08C4-B544-9EDE-7CF75EB31E07}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{D4D1AB10-08C4-B544-9EDE-7CF75EB31E07}">
           <x14:formula1>
             <xm:f>'Lookup GovFund Stmt Rev Exp Ch'!$B$171:$B$352</xm:f>
           </x14:formula1>
           <xm:sqref>B26:B34</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{01544FF9-537B-8F47-BAD2-6BA555B7160B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{01544FF9-537B-8F47-BAD2-6BA555B7160B}">
           <x14:formula1>
             <xm:f>'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$159</xm:f>
           </x14:formula1>
@@ -21305,7 +21367,7 @@
         <v>2852</v>
       </c>
       <c r="B6" s="174">
-        <f>'GovFund Balance Sheet'!J59</f>
+        <f>'GovFund Balance Sheet'!J62</f>
         <v>0</v>
       </c>
     </row>
@@ -21407,10 +21469,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A15" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -21577,7 +21639,7 @@
     </row>
     <row r="10" spans="1:11" ht="15">
       <c r="A10" s="108" t="str">
-        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B10="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B10)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B10,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B10" s="15"/>
@@ -21595,7 +21657,7 @@
     </row>
     <row r="11" spans="1:11" ht="15">
       <c r="A11" s="108" t="str">
-        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B11="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B11)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B11,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B11" s="15"/>
@@ -21613,7 +21675,7 @@
     </row>
     <row r="12" spans="1:11" ht="15">
       <c r="A12" s="108" t="str">
-        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B12="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B12)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B12,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B12" s="15"/>
@@ -21631,7 +21693,7 @@
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="A13" s="108" t="str">
-        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B13="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B13)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B13,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B13" s="15"/>
@@ -21649,7 +21711,7 @@
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="A14" s="108" t="str">
-        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B14="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B14)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B14,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B14" s="15"/>
@@ -21667,7 +21729,7 @@
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="108" t="str">
-        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B15="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B15)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B15,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B15" s="15"/>
@@ -21685,7 +21747,7 @@
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="A16" s="108" t="str">
-        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B16="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B16)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B16,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B16" s="15"/>
@@ -21703,7 +21765,7 @@
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="108" t="str">
-        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B17="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B17)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B17,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B17" s="15"/>
@@ -21721,7 +21783,7 @@
     </row>
     <row r="18" spans="1:10" ht="15">
       <c r="A18" s="108" t="str">
-        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B18="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B18)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B18,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B18" s="15"/>
@@ -21739,7 +21801,7 @@
     </row>
     <row r="19" spans="1:10" ht="15" hidden="1">
       <c r="A19" s="108" t="str">
-        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B19="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B19)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B19,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B19" s="15"/>
@@ -21757,7 +21819,7 @@
     </row>
     <row r="20" spans="1:10" ht="15" hidden="1">
       <c r="A20" s="108" t="str">
-        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B20="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B20)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B20,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B20" s="15"/>
@@ -21775,7 +21837,7 @@
     </row>
     <row r="21" spans="1:10" ht="15" hidden="1">
       <c r="A21" s="108" t="str">
-        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B21="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B21)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B21,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B21" s="15"/>
@@ -21793,7 +21855,7 @@
     </row>
     <row r="22" spans="1:10" ht="15" hidden="1">
       <c r="A22" s="108" t="str">
-        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B22="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B22)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B22,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B22" s="15"/>
@@ -21811,7 +21873,7 @@
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="108" t="str">
-        <f>IF(B23="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B23,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B23="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B23)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B23,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B23" s="15"/>
@@ -21883,7 +21945,7 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="108" t="str">
-        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B26="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B26)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B26,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B26" s="109"/>
@@ -21901,7 +21963,7 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="108" t="str">
-        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B27="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B27)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B27,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B27" s="109"/>
@@ -21919,7 +21981,7 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="108" t="str">
-        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B28="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B28)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B28,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B28" s="110"/>
@@ -21937,7 +21999,7 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="108" t="str">
-        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B29="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B29)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B29,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B29" s="110"/>
@@ -21955,7 +22017,7 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="108" t="str">
-        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B30="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B30)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B30,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B30" s="110"/>
@@ -21973,7 +22035,7 @@
     </row>
     <row r="31" spans="1:10" ht="15" hidden="1">
       <c r="A31" s="108" t="str">
-        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B31="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B31)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B31,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B31" s="109"/>
@@ -21991,7 +22053,7 @@
     </row>
     <row r="32" spans="1:10" ht="15" hidden="1">
       <c r="A32" s="108" t="str">
-        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B32="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B32)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B32,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B32" s="109"/>
@@ -22009,7 +22071,7 @@
     </row>
     <row r="33" spans="1:10" ht="15" hidden="1">
       <c r="A33" s="108" t="str">
-        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B33="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B33)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B33,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B33" s="109"/>
@@ -22027,7 +22089,7 @@
     </row>
     <row r="34" spans="1:10" ht="15" hidden="1">
       <c r="A34" s="108" t="str">
-        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B34="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B34)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B34,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B34" s="109"/>
@@ -22045,7 +22107,7 @@
     </row>
     <row r="35" spans="1:10" ht="15" hidden="1">
       <c r="A35" s="108" t="str">
-        <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B35,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B35="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B35)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B35,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B35" s="109"/>
@@ -22063,7 +22125,7 @@
     </row>
     <row r="36" spans="1:10" ht="15" hidden="1">
       <c r="A36" s="108" t="str">
-        <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B36,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B36="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B36)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B36,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B36" s="109"/>
@@ -22081,7 +22143,7 @@
     </row>
     <row r="37" spans="1:10" ht="15">
       <c r="A37" s="108" t="str">
-        <f>IF(B37="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B37,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B37="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B37)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B37,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B37" s="109"/>
@@ -22219,7 +22281,7 @@
     </row>
     <row r="43" spans="1:10" ht="15">
       <c r="A43" s="108" t="str">
-        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B43="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B43)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B43,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B43" s="109"/>
@@ -22237,7 +22299,7 @@
     </row>
     <row r="44" spans="1:10" ht="15">
       <c r="A44" s="108" t="str">
-        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B44="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B44)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B44,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B44" s="109"/>
@@ -22255,7 +22317,7 @@
     </row>
     <row r="45" spans="1:10" ht="15">
       <c r="A45" s="108" t="str">
-        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B45="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B45)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B45,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B45" s="109"/>
@@ -22273,7 +22335,7 @@
     </row>
     <row r="46" spans="1:10" ht="16" customHeight="1">
       <c r="A46" s="108" t="str">
-        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B46="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B46)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B46,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B46" s="109"/>
@@ -22291,7 +22353,7 @@
     </row>
     <row r="47" spans="1:10" ht="16" customHeight="1">
       <c r="A47" s="108" t="str">
-        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B47="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B47)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B47,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B47" s="109"/>
@@ -22309,7 +22371,7 @@
     </row>
     <row r="48" spans="1:10" ht="16" hidden="1" customHeight="1">
       <c r="A48" s="108" t="str">
-        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B48="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B48)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B48,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B48" s="109"/>
@@ -22327,7 +22389,7 @@
     </row>
     <row r="49" spans="1:10" ht="16" hidden="1" customHeight="1">
       <c r="A49" s="108" t="str">
-        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B49="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B49)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B49,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B49" s="109"/>
@@ -22345,7 +22407,7 @@
     </row>
     <row r="50" spans="1:10" ht="16" hidden="1" customHeight="1">
       <c r="A50" s="108" t="str">
-        <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B50="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B50)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B50,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B50" s="109"/>
@@ -22363,7 +22425,7 @@
     </row>
     <row r="51" spans="1:10" ht="15" hidden="1">
       <c r="A51" s="108" t="str">
-        <f>IF(B51="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B51,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B51="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B51)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B51,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B51" s="109"/>
@@ -22381,7 +22443,7 @@
     </row>
     <row r="52" spans="1:10" ht="15" hidden="1">
       <c r="A52" s="108" t="str">
-        <f>IF(B52="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B52,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B52="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B52)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B52,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B52" s="109"/>
@@ -22399,7 +22461,7 @@
     </row>
     <row r="53" spans="1:10" ht="15">
       <c r="A53" s="108" t="str">
-        <f>IF(B53="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B53,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B53="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B53)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B53,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B53" s="109"/>
@@ -22471,7 +22533,7 @@
     </row>
     <row r="56" spans="1:10" ht="15">
       <c r="A56" s="108" t="str">
-        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B56="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B56)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B56,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B56" s="109"/>
@@ -22483,13 +22545,13 @@
       <c r="H56" s="208"/>
       <c r="I56" s="208"/>
       <c r="J56" s="231">
-        <f t="shared" ref="J56:J66" si="9">IF(J$7="","",SUM(D56:I56))</f>
+        <f t="shared" ref="J56:J69" si="9">IF(J$7="","",SUM(D56:I56))</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15">
       <c r="A57" s="108" t="str">
-        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B57="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B57)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B57,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B57" s="109"/>
@@ -22507,7 +22569,7 @@
     </row>
     <row r="58" spans="1:10" ht="15">
       <c r="A58" s="108" t="str">
-        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B58="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B58)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B58,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B58" s="109"/>
@@ -22525,7 +22587,7 @@
     </row>
     <row r="59" spans="1:10" ht="15" hidden="1">
       <c r="A59" s="108" t="str">
-        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B59="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B59)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B59,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B59" s="109"/>
@@ -22543,7 +22605,7 @@
     </row>
     <row r="60" spans="1:10" ht="15" hidden="1">
       <c r="A60" s="108" t="str">
-        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B60="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B60)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B60,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B60" s="109"/>
@@ -22561,7 +22623,7 @@
     </row>
     <row r="61" spans="1:10" ht="15" hidden="1">
       <c r="A61" s="108" t="str">
-        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B61="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B61)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B61,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B61" s="109"/>
@@ -22579,7 +22641,7 @@
     </row>
     <row r="62" spans="1:10" ht="15" hidden="1">
       <c r="A62" s="108" t="str">
-        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B62="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B62)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B62,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B62" s="109"/>
@@ -22597,7 +22659,7 @@
     </row>
     <row r="63" spans="1:10" ht="15" hidden="1">
       <c r="A63" s="108" t="str">
-        <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B63="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B63)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B63,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B63" s="109"/>
@@ -22615,7 +22677,7 @@
     </row>
     <row r="64" spans="1:10" ht="15">
       <c r="A64" s="108" t="str">
-        <f>IF(B64="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B64,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B64="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B64)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B64,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B64" s="109"/>
@@ -22632,168 +22694,159 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="15">
-      <c r="A65" s="108" t="s">
+      <c r="A65" s="108" t="str">
+        <f>IF(B65="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B65)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B65,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B65" s="109"/>
+      <c r="C65" s="208"/>
+      <c r="D65" s="208"/>
+      <c r="E65" s="208"/>
+      <c r="F65" s="208"/>
+      <c r="G65" s="208"/>
+      <c r="H65" s="208"/>
+      <c r="I65" s="208"/>
+      <c r="J65" s="231"/>
+    </row>
+    <row r="66" spans="1:10" ht="15">
+      <c r="A66" s="108" t="str">
+        <f>IF(B66="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B66)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B66,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B66" s="109"/>
+      <c r="C66" s="208"/>
+      <c r="D66" s="208"/>
+      <c r="E66" s="208"/>
+      <c r="F66" s="208"/>
+      <c r="G66" s="208"/>
+      <c r="H66" s="208"/>
+      <c r="I66" s="208"/>
+      <c r="J66" s="231"/>
+    </row>
+    <row r="67" spans="1:10" ht="15">
+      <c r="A67" s="108" t="str">
+        <f>IF(B67="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B67)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B67,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B67" s="109"/>
+      <c r="C67" s="208"/>
+      <c r="D67" s="208"/>
+      <c r="E67" s="208"/>
+      <c r="F67" s="208"/>
+      <c r="G67" s="208"/>
+      <c r="H67" s="208"/>
+      <c r="I67" s="208"/>
+      <c r="J67" s="231"/>
+    </row>
+    <row r="68" spans="1:10" ht="15">
+      <c r="A68" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="108" t="s">
+      <c r="B68" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="231">
+      <c r="C68" s="231">
         <f>SUM(C56:C64)</f>
         <v>0</v>
       </c>
-      <c r="D65" s="231" t="str">
-        <f t="shared" ref="D65:I65" si="11">IF(D$7="Type fund name","",SUM(D56:D64))</f>
+      <c r="D68" s="231" t="str">
+        <f t="shared" ref="D68:I68" si="11">IF(D$7="Type fund name","",SUM(D56:D64))</f>
         <v/>
       </c>
-      <c r="E65" s="231" t="str">
+      <c r="E68" s="231" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F65" s="231" t="str">
+      <c r="F68" s="231" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="G65" s="231" t="str">
+      <c r="G68" s="231" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="H65" s="231" t="str">
+      <c r="H68" s="231" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="I65" s="231" t="str">
+      <c r="I68" s="231" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J65" s="231">
+      <c r="J68" s="231">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15">
-      <c r="A66" s="114" t="s">
+    <row r="69" spans="1:10" ht="15">
+      <c r="A69" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="111" t="s">
+      <c r="B69" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="219">
-        <f>C54+C65</f>
+      <c r="C69" s="219">
+        <f>C54+C68</f>
         <v>0</v>
       </c>
-      <c r="D66" s="219" t="str">
-        <f t="shared" ref="D66:I66" si="12">IF(D$7 = "Type fund name", "", D54+D65)</f>
+      <c r="D69" s="219" t="str">
+        <f t="shared" ref="D69:I69" si="12">IF(D$7 = "Type fund name", "", D54+D68)</f>
         <v/>
       </c>
-      <c r="E66" s="219" t="str">
+      <c r="E69" s="219" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="F66" s="219" t="str">
+      <c r="F69" s="219" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="G66" s="219" t="str">
+      <c r="G69" s="219" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H66" s="219" t="str">
+      <c r="H69" s="219" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="I66" s="219" t="str">
+      <c r="I69" s="219" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="J66" s="233">
+      <c r="J69" s="233">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15">
-      <c r="A67" s="104"/>
-      <c r="B67" s="104"/>
-      <c r="C67" s="112"/>
-      <c r="D67" s="112"/>
-      <c r="E67" s="112"/>
-      <c r="F67" s="112"/>
-      <c r="G67" s="112"/>
-      <c r="H67" s="112"/>
-      <c r="I67" s="112"/>
-      <c r="J67" s="107"/>
-    </row>
-    <row r="68" spans="1:10" ht="15">
-      <c r="A68" s="104"/>
-      <c r="B68" s="105" t="s">
+    <row r="70" spans="1:10" ht="15">
+      <c r="A70" s="104"/>
+      <c r="B70" s="104"/>
+      <c r="C70" s="112"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="112"/>
+      <c r="F70" s="112"/>
+      <c r="G70" s="112"/>
+      <c r="H70" s="112"/>
+      <c r="I70" s="112"/>
+      <c r="J70" s="107"/>
+    </row>
+    <row r="71" spans="1:10" ht="15">
+      <c r="A71" s="104"/>
+      <c r="B71" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="105"/>
-      <c r="D68" s="105"/>
-      <c r="E68" s="105"/>
-      <c r="F68" s="105"/>
-      <c r="G68" s="105"/>
-      <c r="H68" s="105"/>
-      <c r="I68" s="105"/>
-      <c r="J68" s="115"/>
-    </row>
-    <row r="69" spans="1:10" ht="15">
-      <c r="A69" s="108" t="str">
-        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B69" s="109"/>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="208"/>
-      <c r="F69" s="208"/>
-      <c r="G69" s="208"/>
-      <c r="H69" s="208"/>
-      <c r="I69" s="208"/>
-      <c r="J69" s="231">
-        <f t="shared" ref="J69:J78" si="13">IF(J$7="","",SUM(D69:I69))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="15">
-      <c r="A70" s="108" t="str">
-        <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B70" s="109"/>
-      <c r="C70" s="208"/>
-      <c r="D70" s="208"/>
-      <c r="E70" s="208"/>
-      <c r="F70" s="208"/>
-      <c r="G70" s="208"/>
-      <c r="H70" s="208"/>
-      <c r="I70" s="208"/>
-      <c r="J70" s="231">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="15">
-      <c r="A71" s="108" t="str">
-        <f>IF(B71="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B71,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B71" s="109"/>
-      <c r="C71" s="208"/>
-      <c r="D71" s="208"/>
-      <c r="E71" s="208"/>
-      <c r="F71" s="208"/>
-      <c r="G71" s="208"/>
-      <c r="H71" s="208"/>
-      <c r="I71" s="208"/>
-      <c r="J71" s="231">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="15" hidden="1">
+      <c r="C71" s="105"/>
+      <c r="D71" s="105"/>
+      <c r="E71" s="105"/>
+      <c r="F71" s="105"/>
+      <c r="G71" s="105"/>
+      <c r="H71" s="105"/>
+      <c r="I71" s="105"/>
+      <c r="J71" s="115"/>
+    </row>
+    <row r="72" spans="1:10" ht="15">
       <c r="A72" s="108" t="str">
-        <f>IF(B72="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B72,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B72="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B72)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B72,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B72" s="109"/>
@@ -22805,13 +22858,13 @@
       <c r="H72" s="208"/>
       <c r="I72" s="208"/>
       <c r="J72" s="231">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="J72:J81" si="13">IF(J$7="","",SUM(D72:I72))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" hidden="1">
+    <row r="73" spans="1:10" ht="15">
       <c r="A73" s="108" t="str">
-        <f>IF(B73="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B73,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B73="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B73)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B73,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B73" s="109"/>
@@ -22827,9 +22880,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15" hidden="1">
+    <row r="74" spans="1:10" ht="15">
       <c r="A74" s="108" t="str">
-        <f>IF(B74="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B74,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B74="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B74)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B74,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B74" s="109"/>
@@ -22847,7 +22900,7 @@
     </row>
     <row r="75" spans="1:10" ht="15" hidden="1">
       <c r="A75" s="108" t="str">
-        <f>IF(B75="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B75,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B75="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B75)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B75,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B75" s="109"/>
@@ -22865,7 +22918,7 @@
     </row>
     <row r="76" spans="1:10" ht="15" hidden="1">
       <c r="A76" s="108" t="str">
-        <f>IF(B76="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B76,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B76="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B76)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B76,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B76" s="109"/>
@@ -22881,9 +22934,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15">
+    <row r="77" spans="1:10" ht="15" hidden="1">
       <c r="A77" s="108" t="str">
-        <f>IF(B77="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B77,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B77="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B77)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B77,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B77" s="109"/>
@@ -22899,105 +22952,150 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15">
-      <c r="A78" s="111" t="s">
+    <row r="78" spans="1:10" ht="15" hidden="1">
+      <c r="A78" s="108" t="str">
+        <f>IF(B78="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B78)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B78,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B78" s="109"/>
+      <c r="C78" s="208"/>
+      <c r="D78" s="208"/>
+      <c r="E78" s="208"/>
+      <c r="F78" s="208"/>
+      <c r="G78" s="208"/>
+      <c r="H78" s="208"/>
+      <c r="I78" s="208"/>
+      <c r="J78" s="231">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15" hidden="1">
+      <c r="A79" s="108" t="str">
+        <f>IF(B79="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B79)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B79,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B79" s="109"/>
+      <c r="C79" s="208"/>
+      <c r="D79" s="208"/>
+      <c r="E79" s="208"/>
+      <c r="F79" s="208"/>
+      <c r="G79" s="208"/>
+      <c r="H79" s="208"/>
+      <c r="I79" s="208"/>
+      <c r="J79" s="231">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15">
+      <c r="A80" s="108" t="str">
+        <f>IF(B80="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B80)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B80,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B80" s="109"/>
+      <c r="C80" s="208"/>
+      <c r="D80" s="208"/>
+      <c r="E80" s="208"/>
+      <c r="F80" s="208"/>
+      <c r="G80" s="208"/>
+      <c r="H80" s="208"/>
+      <c r="I80" s="208"/>
+      <c r="J80" s="231">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15">
+      <c r="A81" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B78" s="111" t="s">
+      <c r="B81" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="219">
-        <f>IF(C7="","",SUM(C69:C77))</f>
+      <c r="C81" s="219">
+        <f>IF(C7="","",SUM(C72:C80))</f>
         <v>0</v>
       </c>
-      <c r="D78" s="219" t="str">
-        <f t="shared" ref="D78:I78" si="14">IF(D7="Type fund name","",SUM(D69:D77))</f>
+      <c r="D81" s="219" t="str">
+        <f t="shared" ref="D81:I81" si="14">IF(D7="Type fund name","",SUM(D72:D80))</f>
         <v/>
       </c>
-      <c r="E78" s="219" t="str">
+      <c r="E81" s="219" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="F78" s="219" t="str">
+      <c r="F81" s="219" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="G78" s="219" t="str">
+      <c r="G81" s="219" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="H78" s="219" t="str">
+      <c r="H81" s="219" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="I78" s="219" t="str">
+      <c r="I81" s="219" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="J78" s="232">
+      <c r="J81" s="232">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="16">
-      <c r="C79" s="116"/>
-      <c r="D79" s="116"/>
-      <c r="E79" s="116"/>
-      <c r="F79" s="116"/>
-      <c r="G79" s="116"/>
-      <c r="H79" s="116"/>
-      <c r="I79" s="116"/>
-      <c r="J79" s="112"/>
-    </row>
-    <row r="80" spans="1:10" ht="15">
-      <c r="J80" s="112"/>
-    </row>
-    <row r="81" spans="10:10" ht="15">
-      <c r="J81" s="112"/>
-    </row>
-    <row r="82" spans="10:10" ht="15">
+    <row r="82" spans="1:10" ht="16">
+      <c r="C82" s="116"/>
+      <c r="D82" s="116"/>
+      <c r="E82" s="116"/>
+      <c r="F82" s="116"/>
+      <c r="G82" s="116"/>
+      <c r="H82" s="116"/>
+      <c r="I82" s="116"/>
       <c r="J82" s="112"/>
     </row>
-    <row r="83" spans="10:10" ht="15">
+    <row r="83" spans="1:10" ht="15">
       <c r="J83" s="112"/>
     </row>
-    <row r="84" spans="10:10" ht="15">
+    <row r="84" spans="1:10" ht="15">
       <c r="J84" s="112"/>
     </row>
-    <row r="85" spans="10:10" ht="15">
+    <row r="85" spans="1:10" ht="15">
       <c r="J85" s="112"/>
     </row>
-    <row r="86" spans="10:10" ht="15">
+    <row r="86" spans="1:10" ht="15">
       <c r="J86" s="112"/>
     </row>
-    <row r="87" spans="10:10" ht="15">
+    <row r="87" spans="1:10" ht="15">
       <c r="J87" s="112"/>
     </row>
-    <row r="88" spans="10:10" ht="15">
+    <row r="88" spans="1:10" ht="15">
       <c r="J88" s="112"/>
     </row>
-    <row r="89" spans="10:10" ht="15">
+    <row r="89" spans="1:10" ht="15">
       <c r="J89" s="112"/>
     </row>
-    <row r="90" spans="10:10" ht="15">
+    <row r="90" spans="1:10" ht="15">
       <c r="J90" s="112"/>
     </row>
-    <row r="91" spans="10:10" ht="15">
+    <row r="91" spans="1:10" ht="15">
       <c r="J91" s="112"/>
     </row>
-    <row r="92" spans="10:10" ht="15">
+    <row r="92" spans="1:10" ht="15">
       <c r="J92" s="112"/>
     </row>
-    <row r="93" spans="10:10" ht="15">
+    <row r="93" spans="1:10" ht="15">
       <c r="J93" s="112"/>
     </row>
-    <row r="94" spans="10:10" ht="15">
+    <row r="94" spans="1:10" ht="15">
       <c r="J94" s="112"/>
     </row>
-    <row r="95" spans="10:10" ht="15">
+    <row r="95" spans="1:10" ht="15">
       <c r="J95" s="112"/>
     </row>
-    <row r="96" spans="10:10" ht="15">
+    <row r="96" spans="1:10" ht="15">
       <c r="J96" s="112"/>
     </row>
     <row r="97" spans="10:10" ht="15">
@@ -23030,14 +23128,23 @@
     <row r="106" spans="10:10" ht="15">
       <c r="J106" s="112"/>
     </row>
+    <row r="107" spans="10:10" ht="15">
+      <c r="J107" s="112"/>
+    </row>
+    <row r="108" spans="10:10" ht="15">
+      <c r="J108" s="112"/>
+    </row>
+    <row r="109" spans="10:10" ht="15">
+      <c r="J109" s="112"/>
+    </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
-  <conditionalFormatting sqref="C24 C38 C54:I54 C65:C66 C78:I78">
+  <conditionalFormatting sqref="C24 C38 C54:I54 C68:C69 C81:I81">
     <cfRule type="expression" dxfId="30" priority="6" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65:I65">
+  <conditionalFormatting sqref="D68:I68">
     <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
       <formula>D$7=""</formula>
     </cfRule>
@@ -23047,25 +23154,44 @@
       <formula>K$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:B53" xr:uid="{3020B3D5-A2C3-4F4B-8EFD-A19414110BEC}">
-      <formula1>current_liabilities</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56:B64" xr:uid="{0AF5B33B-114A-5D47-AC98-0EF208D28A50}">
-      <formula1>noncurrent_liabilities</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69:B77" xr:uid="{62718926-C752-384A-817F-8A854F7BD996}">
-      <formula1>net_position</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26:B37" xr:uid="{E796ED53-BB10-BA41-A5DA-36CA177F44A2}">
-      <formula1>noncurrent_assets</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B23" xr:uid="{BEF100DB-73F2-E445-82C4-2C8C8EBF4AB4}">
-      <formula1>current_assets</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{3020B3D5-A2C3-4F4B-8EFD-A19414110BEC}">
+          <x14:formula1>
+            <xm:f>'Lookup Net Position'!$B$202:$B$315</xm:f>
+          </x14:formula1>
+          <xm:sqref>B43:B53</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{0AF5B33B-114A-5D47-AC98-0EF208D28A50}">
+          <x14:formula1>
+            <xm:f>'Lookup Net Position'!$B$469:$B$514</xm:f>
+          </x14:formula1>
+          <xm:sqref>B56:B67</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{62718926-C752-384A-817F-8A854F7BD996}">
+          <x14:formula1>
+            <xm:f>'Lookup Net Position'!$B$355:$B$375</xm:f>
+          </x14:formula1>
+          <xm:sqref>B72:B80</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{E796ED53-BB10-BA41-A5DA-36CA177F44A2}">
+          <x14:formula1>
+            <xm:f>'Lookup Net Position'!$B$376:$B$468</xm:f>
+          </x14:formula1>
+          <xm:sqref>B26:B37</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{BEF100DB-73F2-E445-82C4-2C8C8EBF4AB4}">
+          <x14:formula1>
+            <xm:f>'Lookup Net Position'!$B$2:$B$201</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10:B23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -23076,13 +23202,13 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="84" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="84" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="84" customWidth="1"/>
     <col min="3" max="10" width="18.6640625" style="84" customWidth="1"/>
     <col min="11" max="16384" width="9" style="84"/>
@@ -23229,7 +23355,7 @@
     </row>
     <row r="9" spans="1:10" ht="15">
       <c r="A9" s="108" t="str">
-        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B9="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B9) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B9, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B9" s="133"/>
@@ -23247,7 +23373,7 @@
     </row>
     <row r="10" spans="1:10" ht="15">
       <c r="A10" s="108" t="str">
-        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B10="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B10) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B10, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B10" s="133"/>
@@ -23265,7 +23391,7 @@
     </row>
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="108" t="str">
-        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B11="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B11) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B11, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B11" s="133"/>
@@ -23283,7 +23409,7 @@
     </row>
     <row r="12" spans="1:10" ht="15">
       <c r="A12" s="108" t="str">
-        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B12="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B12) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B12, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B12" s="133"/>
@@ -23301,7 +23427,7 @@
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="108" t="str">
-        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B13="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B13) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B13, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B13" s="133"/>
@@ -23319,7 +23445,7 @@
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="108" t="str">
-        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B14="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B14) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B14, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B14" s="133"/>
@@ -23337,7 +23463,7 @@
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="108" t="str">
-        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B15="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B15) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B15, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B15" s="133"/>
@@ -23355,7 +23481,7 @@
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="108" t="str">
-        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B16="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B16) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B16, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B16" s="133"/>
@@ -23373,7 +23499,7 @@
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="108" t="str">
-        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B17="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B17) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B17, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B17" s="133"/>
@@ -23391,7 +23517,7 @@
     </row>
     <row r="18" spans="1:10" ht="15" hidden="1">
       <c r="A18" s="108" t="str">
-        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B18="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B18) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B18, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B18" s="133"/>
@@ -23409,7 +23535,7 @@
     </row>
     <row r="19" spans="1:10" ht="15" hidden="1">
       <c r="A19" s="108" t="str">
-        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B19="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B19) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B19, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B19" s="133"/>
@@ -23427,7 +23553,7 @@
     </row>
     <row r="20" spans="1:10" ht="15" hidden="1">
       <c r="A20" s="108" t="str">
-        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B20="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B20) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B20, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B20" s="133"/>
@@ -23445,7 +23571,7 @@
     </row>
     <row r="21" spans="1:10" ht="15" hidden="1">
       <c r="A21" s="108" t="str">
-        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B21="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B21) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B21, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B21" s="133"/>
@@ -23463,7 +23589,7 @@
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="108" t="str">
-        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B22="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B22) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B22, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B22" s="133"/>
@@ -23547,7 +23673,7 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="108" t="str">
-        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B26="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B26) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B26, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B26" s="133"/>
@@ -23565,7 +23691,7 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="108" t="str">
-        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B27="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B27) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B27, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B27" s="133"/>
@@ -23583,7 +23709,7 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="108" t="str">
-        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B28="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B28) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B28, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B28" s="133"/>
@@ -23601,7 +23727,7 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="108" t="str">
-        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B29="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B29) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B29, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B29" s="133"/>
@@ -23619,7 +23745,7 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="108" t="str">
-        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B30="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B30) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B30, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B30" s="133"/>
@@ -23637,7 +23763,7 @@
     </row>
     <row r="31" spans="1:10" ht="15" hidden="1">
       <c r="A31" s="108" t="str">
-        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B31="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B31) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B31, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B31" s="133"/>
@@ -23655,7 +23781,7 @@
     </row>
     <row r="32" spans="1:10" ht="15" hidden="1">
       <c r="A32" s="108" t="str">
-        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B32="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B32) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B32, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B32" s="133"/>
@@ -23673,7 +23799,7 @@
     </row>
     <row r="33" spans="1:10" ht="15" hidden="1">
       <c r="A33" s="108" t="str">
-        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B33="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B33) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B33, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B33" s="133"/>
@@ -23691,7 +23817,7 @@
     </row>
     <row r="34" spans="1:10" ht="15" hidden="1">
       <c r="A34" s="108" t="str">
-        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B34="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B34) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B34, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B34" s="133"/>
@@ -23709,7 +23835,7 @@
     </row>
     <row r="35" spans="1:10" ht="15" hidden="1">
       <c r="A35" s="108" t="str">
-        <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B35,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B35="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B35) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B35, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B35" s="133"/>
@@ -23727,7 +23853,7 @@
     </row>
     <row r="36" spans="1:10" ht="15" hidden="1">
       <c r="A36" s="108" t="str">
-        <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B36,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B36="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B36) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B36, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B36" s="133"/>
@@ -23745,7 +23871,7 @@
     </row>
     <row r="37" spans="1:10" ht="15">
       <c r="A37" s="108" t="str">
-        <f>IF(B37="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B37,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B37="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B37) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B37, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B37" s="133"/>
@@ -23829,7 +23955,7 @@
     </row>
     <row r="41" spans="1:10" ht="15">
       <c r="A41" s="108" t="str">
-        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B41,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B41="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B41) = 0, "acfr:NonoperatingRevenuesExpensesCustom", _xlfn.XLOOKUP(B41, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B41" s="109"/>
@@ -23844,7 +23970,7 @@
     </row>
     <row r="42" spans="1:10" ht="15">
       <c r="A42" s="108" t="str">
-        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B42="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B42) = 0, "acfr:NonoperatingRevenuesExpensesCustom", _xlfn.XLOOKUP(B42, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B42" s="109"/>
@@ -23862,7 +23988,7 @@
     </row>
     <row r="43" spans="1:10" ht="15">
       <c r="A43" s="108" t="str">
-        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B43="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B43) = 0, "acfr:NonoperatingRevenuesExpensesCustom", _xlfn.XLOOKUP(B43, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B43" s="109"/>
@@ -23880,7 +24006,7 @@
     </row>
     <row r="44" spans="1:10" ht="16" customHeight="1">
       <c r="A44" s="108" t="str">
-        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B44="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B44) = 0, "acfr:NonoperatingRevenuesExpensesCustom", _xlfn.XLOOKUP(B44, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B44" s="109"/>
@@ -23898,7 +24024,7 @@
     </row>
     <row r="45" spans="1:10" ht="16" customHeight="1">
       <c r="A45" s="108" t="str">
-        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B45="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B45) = 0, "acfr:NonoperatingRevenuesExpensesCustom", _xlfn.XLOOKUP(B45, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B45" s="109"/>
@@ -23916,7 +24042,7 @@
     </row>
     <row r="46" spans="1:10" ht="16" hidden="1" customHeight="1">
       <c r="A46" s="108" t="str">
-        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B46="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B46) = 0, "acfr:NonoperatingRevenuesExpensesCustom", _xlfn.XLOOKUP(B46, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B46" s="109"/>
@@ -23934,7 +24060,7 @@
     </row>
     <row r="47" spans="1:10" ht="16" hidden="1" customHeight="1">
       <c r="A47" s="108" t="str">
-        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B47="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B47) = 0, "acfr:NonoperatingRevenuesExpensesCustom", _xlfn.XLOOKUP(B47, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B47" s="109"/>
@@ -23952,7 +24078,7 @@
     </row>
     <row r="48" spans="1:10" ht="16" hidden="1" customHeight="1">
       <c r="A48" s="108" t="str">
-        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B48="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B48) = 0, "acfr:NonoperatingRevenuesExpensesCustom", _xlfn.XLOOKUP(B48, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B48" s="109"/>
@@ -23970,7 +24096,7 @@
     </row>
     <row r="49" spans="1:10" ht="15" hidden="1">
       <c r="A49" s="108" t="str">
-        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B49="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B49) = 0, "acfr:NonoperatingRevenuesExpensesCustom", _xlfn.XLOOKUP(B49, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B49" s="109"/>
@@ -23988,7 +24114,7 @@
     </row>
     <row r="50" spans="1:10" ht="15" hidden="1">
       <c r="A50" s="108" t="str">
-        <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B50="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B50) = 0, "acfr:NonoperatingRevenuesExpensesCustom", _xlfn.XLOOKUP(B50, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B50" s="109"/>
@@ -24006,7 +24132,7 @@
     </row>
     <row r="51" spans="1:10" ht="15">
       <c r="A51" s="108" t="str">
-        <f>IF(B51="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B51,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B51="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B51) = 0, "acfr:NonoperatingRevenuesExpensesCustom", _xlfn.XLOOKUP(B51, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B51" s="109"/>
@@ -24130,7 +24256,7 @@
     </row>
     <row r="56" spans="1:10" ht="15">
       <c r="A56" s="108" t="str">
-        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B56="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B56) = 0, "acfr:ContributionsCustom", _xlfn.XLOOKUP(B56, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B56" s="109"/>
@@ -24148,7 +24274,7 @@
     </row>
     <row r="57" spans="1:10" ht="15">
       <c r="A57" s="108" t="str">
-        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B57="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B57) = 0, "acfr:ContributionsCustom", _xlfn.XLOOKUP(B57, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B57" s="109"/>
@@ -24166,7 +24292,7 @@
     </row>
     <row r="58" spans="1:10" ht="15">
       <c r="A58" s="108" t="str">
-        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B58="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B58) = 0, "acfr:ContributionsCustom", _xlfn.XLOOKUP(B58, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B58" s="109"/>
@@ -24184,7 +24310,7 @@
     </row>
     <row r="59" spans="1:10" ht="15">
       <c r="A59" s="108" t="str">
-        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B59="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B59) = 0, "acfr:ContributionsCustom", _xlfn.XLOOKUP(B59, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B59" s="109"/>
@@ -24202,7 +24328,7 @@
     </row>
     <row r="60" spans="1:10" ht="15" hidden="1">
       <c r="A60" s="108" t="str">
-        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B60="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B60) = 0, "acfr:ContributionsCustom", _xlfn.XLOOKUP(B60, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B60" s="109"/>
@@ -24220,7 +24346,7 @@
     </row>
     <row r="61" spans="1:10" ht="15" hidden="1">
       <c r="A61" s="108" t="str">
-        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B61="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B61) = 0, "acfr:ContributionsCustom", _xlfn.XLOOKUP(B61, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B61" s="109"/>
@@ -24238,7 +24364,7 @@
     </row>
     <row r="62" spans="1:10" ht="15" hidden="1">
       <c r="A62" s="108" t="str">
-        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B62="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B62) = 0, "acfr:ContributionsCustom", _xlfn.XLOOKUP(B62, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B62" s="109"/>
@@ -24256,7 +24382,7 @@
     </row>
     <row r="63" spans="1:10" ht="15" hidden="1">
       <c r="A63" s="108" t="str">
-        <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B63="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B63) = 0, "acfr:ContributionsCustom", _xlfn.XLOOKUP(B63, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B63" s="109"/>
@@ -24274,7 +24400,7 @@
     </row>
     <row r="64" spans="1:10" ht="15">
       <c r="A64" s="108" t="str">
-        <f>IF(B64="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B64,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B64="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B64) = 0, "acfr:ContributionsCustom", _xlfn.XLOOKUP(B64, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B64" s="109"/>
@@ -24589,25 +24715,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6FA5A616-5FB2-FA40-81D3-2AC8DD3447E2}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{6FA5A616-5FB2-FA40-81D3-2AC8DD3447E2}">
           <x14:formula1>
             <xm:f>'Lookup PropFunds'!$A$134:$A$246</xm:f>
           </x14:formula1>
           <xm:sqref>B41:B51</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{17875760-A80E-4E45-89DB-9E8399277505}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{17875760-A80E-4E45-89DB-9E8399277505}">
           <x14:formula1>
             <xm:f>'Lookup PropFunds'!$A$249:$A$262</xm:f>
           </x14:formula1>
           <xm:sqref>B56:B64</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EA644A82-E899-114D-AFE5-A9991B6DEBD7}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{EA644A82-E899-114D-AFE5-A9991B6DEBD7}">
           <x14:formula1>
             <xm:f>'Lookup PropFunds'!$A$59:$A$133</xm:f>
           </x14:formula1>
           <xm:sqref>B26:B37</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5D627255-0A0A-CF49-9F1C-1F96236A1988}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{5D627255-0A0A-CF49-9F1C-1F96236A1988}">
           <x14:formula1>
             <xm:f>'Lookup PropFunds'!$A$2:$A$57</xm:f>
           </x14:formula1>
@@ -24626,13 +24752,13 @@
   </sheetPr>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="84" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" style="84" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="84" customWidth="1"/>
     <col min="3" max="10" width="18.6640625" style="84" customWidth="1"/>
     <col min="11" max="16384" width="9" style="84"/>
@@ -24768,7 +24894,7 @@
     </row>
     <row r="9" spans="1:10" ht="15">
       <c r="A9" s="108" t="str">
-        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B9="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B9) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B9, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B9" s="109"/>
@@ -24786,7 +24912,7 @@
     </row>
     <row r="10" spans="1:10" ht="15">
       <c r="A10" s="108" t="str">
-        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B10="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B10) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B10, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B10" s="109"/>
@@ -24804,7 +24930,7 @@
     </row>
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="108" t="str">
-        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B11="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B11) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B11, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B11" s="109"/>
@@ -24822,7 +24948,7 @@
     </row>
     <row r="12" spans="1:10" ht="15">
       <c r="A12" s="108" t="str">
-        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B12="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B12) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B12, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B12" s="109"/>
@@ -24840,7 +24966,7 @@
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="108" t="str">
-        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B13="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B13) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B13, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B13" s="109"/>
@@ -24858,7 +24984,7 @@
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="108" t="str">
-        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B14="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B14) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B14, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B14" s="109"/>
@@ -24876,7 +25002,7 @@
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="108" t="str">
-        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B15="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B15) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B15, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B15" s="109"/>
@@ -24894,7 +25020,7 @@
     </row>
     <row r="16" spans="1:10" ht="15" hidden="1">
       <c r="A16" s="108" t="str">
-        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B16="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B16) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B16, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B16" s="109"/>
@@ -24912,7 +25038,7 @@
     </row>
     <row r="17" spans="1:10" ht="15" hidden="1">
       <c r="A17" s="108" t="str">
-        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B17="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B17) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B17, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B17" s="109"/>
@@ -24930,7 +25056,7 @@
     </row>
     <row r="18" spans="1:10" ht="15" hidden="1">
       <c r="A18" s="108" t="str">
-        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B18="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B18) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B18, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B18" s="109"/>
@@ -24948,7 +25074,7 @@
     </row>
     <row r="19" spans="1:10" ht="15" hidden="1">
       <c r="A19" s="108" t="str">
-        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B19="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B19) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B19, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B19" s="109"/>
@@ -24966,7 +25092,7 @@
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="108" t="str">
-        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B20="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B20) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B20, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B20" s="109"/>
@@ -24984,7 +25110,7 @@
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="108" t="str">
-        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B21="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B21) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B21, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B21" s="109"/>
@@ -25002,7 +25128,7 @@
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="108" t="str">
-        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B22="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B22) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B22, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B22" s="109"/>
@@ -25086,7 +25212,8 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="108" t="str">
-        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B26="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B26) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B26, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B26" s="109"/>
@@ -25104,7 +25231,8 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="108" t="str">
-        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B27="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B27) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B27, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B27" s="109"/>
@@ -25122,7 +25250,8 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="108" t="str">
-        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B28="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B28) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B28, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B28" s="109"/>
@@ -25140,7 +25269,8 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="108" t="str">
-        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B29="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B29) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B29, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B29" s="109"/>
@@ -25158,7 +25288,8 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="108" t="str">
-        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B30="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B30) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B30, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B30" s="109"/>
@@ -25176,7 +25307,8 @@
     </row>
     <row r="31" spans="1:10" ht="15" hidden="1">
       <c r="A31" s="108" t="str">
-        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B31="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B31) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B31, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B31" s="109"/>
@@ -25194,7 +25326,8 @@
     </row>
     <row r="32" spans="1:10" ht="15" hidden="1">
       <c r="A32" s="108" t="str">
-        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B32="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B32) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B32, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B32" s="109"/>
@@ -25212,7 +25345,8 @@
     </row>
     <row r="33" spans="1:10" ht="15" hidden="1">
       <c r="A33" s="108" t="str">
-        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B33="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B33) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B33, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B33" s="109"/>
@@ -25230,7 +25364,8 @@
     </row>
     <row r="34" spans="1:10" ht="15" hidden="1">
       <c r="A34" s="108" t="str">
-        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B34="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B34) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B34, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B34" s="109"/>
@@ -25248,7 +25383,8 @@
     </row>
     <row r="35" spans="1:10" ht="15" hidden="1">
       <c r="A35" s="108" t="str">
-        <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B35,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B35="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B35) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B35, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B35" s="109"/>
@@ -25266,7 +25402,8 @@
     </row>
     <row r="36" spans="1:10" s="97" customFormat="1" ht="15">
       <c r="A36" s="108" t="str">
-        <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B36,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B36="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B36) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B36, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B36" s="109"/>
@@ -25284,7 +25421,8 @@
     </row>
     <row r="37" spans="1:10" ht="15">
       <c r="A37" s="108" t="str">
-        <f>IF(B37="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B37,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B37="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B37) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B37, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B37" s="109"/>
@@ -25368,7 +25506,8 @@
     </row>
     <row r="41" spans="1:10" ht="15">
       <c r="A41" s="108" t="str">
-        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B41,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B41="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B41) = 0,
+"acfr:ProceedsFromPaymentsForOtherCapitalAndFinancingRelatedActivitiesCustom", _xlfn.XLOOKUP(B41, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B41" s="109"/>
@@ -25386,7 +25525,8 @@
     </row>
     <row r="42" spans="1:10" ht="16" customHeight="1">
       <c r="A42" s="108" t="str">
-        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B42="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B42) = 0,
+"acfr:ProceedsFromPaymentsForOtherCapitalAndFinancingRelatedActivitiesCustom", _xlfn.XLOOKUP(B42, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B42" s="109"/>
@@ -25404,7 +25544,8 @@
     </row>
     <row r="43" spans="1:10" ht="16" customHeight="1">
       <c r="A43" s="108" t="str">
-        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B43="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B43) = 0,
+"acfr:ProceedsFromPaymentsForOtherCapitalAndFinancingRelatedActivitiesCustom", _xlfn.XLOOKUP(B43, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B43" s="109"/>
@@ -25422,7 +25563,8 @@
     </row>
     <row r="44" spans="1:10" ht="16" customHeight="1">
       <c r="A44" s="108" t="str">
-        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B44="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B44) = 0,
+"acfr:ProceedsFromPaymentsForOtherCapitalAndFinancingRelatedActivitiesCustom", _xlfn.XLOOKUP(B44, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B44" s="109"/>
@@ -25440,7 +25582,8 @@
     </row>
     <row r="45" spans="1:10" ht="16" hidden="1" customHeight="1">
       <c r="A45" s="108" t="str">
-        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B45="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B45) = 0,
+"acfr:ProceedsFromPaymentsForOtherCapitalAndFinancingRelatedActivitiesCustom", _xlfn.XLOOKUP(B45, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B45" s="109"/>
@@ -25458,7 +25601,8 @@
     </row>
     <row r="46" spans="1:10" ht="16" hidden="1" customHeight="1">
       <c r="A46" s="108" t="str">
-        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B46="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B46) = 0,
+"acfr:ProceedsFromPaymentsForOtherCapitalAndFinancingRelatedActivitiesCustom", _xlfn.XLOOKUP(B46, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B46" s="109"/>
@@ -25476,7 +25620,8 @@
     </row>
     <row r="47" spans="1:10" ht="15" hidden="1">
       <c r="A47" s="108" t="str">
-        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B47="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B47) = 0,
+"acfr:ProceedsFromPaymentsForOtherCapitalAndFinancingRelatedActivitiesCustom", _xlfn.XLOOKUP(B47, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B47" s="109"/>
@@ -25494,7 +25639,8 @@
     </row>
     <row r="48" spans="1:10" ht="15" hidden="1">
       <c r="A48" s="108" t="str">
-        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B48="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B48) = 0,
+"acfr:ProceedsFromPaymentsForOtherCapitalAndFinancingRelatedActivitiesCustom", _xlfn.XLOOKUP(B48, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B48" s="109"/>
@@ -25512,7 +25658,8 @@
     </row>
     <row r="49" spans="1:10" ht="15" hidden="1">
       <c r="A49" s="108" t="str">
-        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B49="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B49) = 0,
+"acfr:ProceedsFromPaymentsForOtherCapitalAndFinancingRelatedActivitiesCustom", _xlfn.XLOOKUP(B49, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B49" s="109"/>
@@ -25530,7 +25677,8 @@
     </row>
     <row r="50" spans="1:10" ht="15">
       <c r="A50" s="108" t="str">
-        <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B50="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B50) = 0,
+"acfr:ProceedsFromPaymentsForOtherCapitalAndFinancingRelatedActivitiesCustom", _xlfn.XLOOKUP(B50, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B50" s="109"/>
@@ -25548,7 +25696,8 @@
     </row>
     <row r="51" spans="1:10" ht="15">
       <c r="A51" s="108" t="str">
-        <f>IF(B51="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B51,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B51="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B51) = 0,
+"acfr:ProceedsFromPaymentsForOtherCapitalAndFinancingRelatedActivitiesCustom", _xlfn.XLOOKUP(B51, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B51" s="109"/>
@@ -25632,7 +25781,8 @@
     </row>
     <row r="55" spans="1:10" ht="15">
       <c r="A55" s="108" t="str">
-        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B55="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B55) = 0,
+"acfr:ProceedsFromPaymentsForOtherInvestingActivitiesCustom", _xlfn.XLOOKUP(B55, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B55" s="109"/>
@@ -25650,7 +25800,8 @@
     </row>
     <row r="56" spans="1:10" ht="15">
       <c r="A56" s="108" t="str">
-        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B56="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B56) = 0,
+"acfr:ProceedsFromPaymentsForOtherInvestingActivitiesCustom", _xlfn.XLOOKUP(B56, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B56" s="109"/>
@@ -25668,7 +25819,8 @@
     </row>
     <row r="57" spans="1:10" ht="15" hidden="1">
       <c r="A57" s="108" t="str">
-        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B57="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B57) = 0,
+"acfr:ProceedsFromPaymentsForOtherInvestingActivitiesCustom", _xlfn.XLOOKUP(B57, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B57" s="109"/>
@@ -25686,7 +25838,8 @@
     </row>
     <row r="58" spans="1:10" ht="15" hidden="1">
       <c r="A58" s="108" t="str">
-        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B58="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B58) = 0,
+"acfr:ProceedsFromPaymentsForOtherInvestingActivitiesCustom", _xlfn.XLOOKUP(B58, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B58" s="109"/>
@@ -25704,7 +25857,8 @@
     </row>
     <row r="59" spans="1:10" ht="15" hidden="1">
       <c r="A59" s="108" t="str">
-        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B59="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B59) = 0,
+"acfr:ProceedsFromPaymentsForOtherInvestingActivitiesCustom", _xlfn.XLOOKUP(B59, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B59" s="109"/>
@@ -25722,7 +25876,8 @@
     </row>
     <row r="60" spans="1:10" ht="15" hidden="1">
       <c r="A60" s="108" t="str">
-        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B60="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B60) = 0,
+"acfr:ProceedsFromPaymentsForOtherInvestingActivitiesCustom", _xlfn.XLOOKUP(B60, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B60" s="109"/>
@@ -25740,7 +25895,8 @@
     </row>
     <row r="61" spans="1:10" ht="15" hidden="1">
       <c r="A61" s="108" t="str">
-        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B61="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B61) = 0,
+"acfr:ProceedsFromPaymentsForOtherInvestingActivitiesCustom", _xlfn.XLOOKUP(B61, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B61" s="109"/>
@@ -25758,7 +25914,8 @@
     </row>
     <row r="62" spans="1:10" ht="15">
       <c r="A62" s="108" t="str">
-        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B62="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B62) = 0,
+"acfr:ProceedsFromPaymentsForOtherInvestingActivitiesCustom", _xlfn.XLOOKUP(B62, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B62" s="109"/>
@@ -25776,7 +25933,8 @@
     </row>
     <row r="63" spans="1:10" ht="15">
       <c r="A63" s="108" t="str">
-        <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B63="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B63) = 0,
+"acfr:ProceedsFromPaymentsForOtherInvestingActivitiesCustom", _xlfn.XLOOKUP(B63, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B63" s="109"/>
@@ -26168,25 +26326,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EF3CE8D3-824D-D342-8991-B399369E5D1F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{EF3CE8D3-824D-D342-8991-B399369E5D1F}">
           <x14:formula1>
             <xm:f>'Lookup PropFunds CashFlows'!$B$40:$B$74</xm:f>
           </x14:formula1>
           <xm:sqref>B9:B22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8C60F6D6-E0D1-B44C-A6F7-DED0D3730BFE}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{8C60F6D6-E0D1-B44C-A6F7-DED0D3730BFE}">
           <x14:formula1>
             <xm:f>'Lookup PropFunds CashFlows'!$B$21:$B$39</xm:f>
           </x14:formula1>
           <xm:sqref>B26:B37</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2E348E09-9902-2B41-B16D-37E2F8DE3135}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{2E348E09-9902-2B41-B16D-37E2F8DE3135}">
           <x14:formula1>
             <xm:f>'Lookup PropFunds CashFlows'!$B$2:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>B41:B51</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9F9EA262-D7F4-214A-AA87-6EFB9500F700}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{9F9EA262-D7F4-214A-AA87-6EFB9500F700}">
           <x14:formula1>
             <xm:f>'Lookup PropFunds CashFlows'!$B$16:$B$20</xm:f>
           </x14:formula1>
@@ -26205,8 +26363,8 @@
   </sheetPr>
   <dimension ref="A1:C358"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135:D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -33186,8 +33344,8 @@
   </sheetPr>
   <dimension ref="A1:E311"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="D262" sqref="D262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -39539,7 +39697,7 @@
   </sheetPr>
   <dimension ref="A1:E442"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A146" zoomScale="125" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -46030,8 +46188,8 @@
   </sheetPr>
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="116" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A28" zoomScale="81" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -46138,7 +46296,7 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="6" t="str">
-        <f>IF(B9="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B9)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B9,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B9="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B9)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B9,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B9" s="15"/>
@@ -46152,7 +46310,7 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="6" t="str">
-        <f>IF(B10="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B10)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B10,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B10="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B10)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B10,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B10" s="15"/>
@@ -46166,7 +46324,7 @@
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="6" t="str">
-        <f>IF(B11="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B11)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B11,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B11="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B11)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B11,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B11" s="15"/>
@@ -46180,7 +46338,7 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="6" t="str">
-        <f>IF(B12="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B12)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B12,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B12="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B12)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B12,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B12" s="15"/>
@@ -46194,7 +46352,7 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="6" t="str">
-        <f>IF(B13="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B13)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B13,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B13="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B13)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B13,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B13" s="15"/>
@@ -46205,7 +46363,7 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="6" t="str">
-        <f>IF(B14="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B14)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B14,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B14="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B14)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B14,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B14" s="15"/>
@@ -46216,7 +46374,7 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="6" t="str">
-        <f>IF(B15="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B15)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B15,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B15="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B15)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B15,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B15" s="15"/>
@@ -46227,7 +46385,7 @@
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="6" t="str">
-        <f>IF(B16="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B16)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B16,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B16="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B16)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B16,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B16" s="15"/>
@@ -46241,7 +46399,7 @@
     </row>
     <row r="17" spans="1:6" ht="15">
       <c r="A17" s="6" t="str">
-        <f>IF(B17="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B17)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B17,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B17="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B17)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B17,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B17" s="15"/>
@@ -46255,7 +46413,7 @@
     </row>
     <row r="18" spans="1:6" ht="15" hidden="1">
       <c r="A18" s="6" t="str">
-        <f>IF(B18="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B18)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B18,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B18="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B18)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B18,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B18" s="15"/>
@@ -46269,7 +46427,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" hidden="1">
       <c r="A19" s="6" t="str">
-        <f>IF(B19="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B19)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B19,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B19="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B19)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B19,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B19" s="15"/>
@@ -46283,7 +46441,7 @@
     </row>
     <row r="20" spans="1:6" ht="15" hidden="1">
       <c r="A20" s="6" t="str">
-        <f>IF(B20="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B20)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B20,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B20="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B20)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B20,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B20" s="15"/>
@@ -46297,7 +46455,7 @@
     </row>
     <row r="21" spans="1:6" ht="15" hidden="1">
       <c r="A21" s="6" t="str">
-        <f>IF(B21="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B21)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B21,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B21="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B21)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B21,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B21" s="15"/>
@@ -46311,7 +46469,7 @@
     </row>
     <row r="22" spans="1:6" ht="15">
       <c r="A22" s="6" t="str">
-        <f>IF(B22="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B22)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B22,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B22="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B22)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B22,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B22" s="15"/>
@@ -46358,7 +46516,7 @@
     </row>
     <row r="25" spans="1:6" ht="15">
       <c r="A25" s="6" t="str">
-        <f>IF(B25="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B25)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B25,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B25="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B25)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B25,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B25" s="15"/>
@@ -46372,7 +46530,7 @@
     </row>
     <row r="26" spans="1:6" ht="15">
       <c r="A26" s="6" t="str">
-        <f>IF(B26="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B26)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B26,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B26="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B26)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B26,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B26" s="15"/>
@@ -46383,7 +46541,7 @@
     </row>
     <row r="27" spans="1:6" ht="15">
       <c r="A27" s="6" t="str">
-        <f>IF(B27="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B27)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B27,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B27="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B27)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B27,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B27" s="16"/>
@@ -46394,7 +46552,7 @@
     </row>
     <row r="28" spans="1:6" ht="15">
       <c r="A28" s="6" t="str">
-        <f>IF(B28="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B28)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B28,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B28="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B28)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B28,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B28" s="16"/>
@@ -46405,7 +46563,7 @@
     </row>
     <row r="29" spans="1:6" ht="15">
       <c r="A29" s="6" t="str">
-        <f>IF(B29="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B29)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B29,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B29="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B29)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B29,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B29" s="16"/>
@@ -46416,7 +46574,7 @@
     </row>
     <row r="30" spans="1:6" ht="15">
       <c r="A30" s="6" t="str">
-        <f>IF(B30="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B30)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B30,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B30="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B30)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B30,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B30" s="15"/>
@@ -46427,7 +46585,7 @@
     </row>
     <row r="31" spans="1:6" ht="15">
       <c r="A31" s="6" t="str">
-        <f>IF(B31="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B31)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B31,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B31="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B31)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B31,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B31" s="15"/>
@@ -46576,7 +46734,7 @@
     </row>
     <row r="41" spans="1:6" ht="15">
       <c r="A41" s="6" t="str">
-        <f>IF(B41="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B41)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B41,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B41="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B41)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B41,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B41" s="15"/>
@@ -46590,7 +46748,7 @@
     </row>
     <row r="42" spans="1:6" ht="15">
       <c r="A42" s="6" t="str">
-        <f>IF(B42="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B42)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B42,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B42="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B42)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B42,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B42" s="15"/>
@@ -46604,7 +46762,7 @@
     </row>
     <row r="43" spans="1:6" ht="15">
       <c r="A43" s="6" t="str">
-        <f>IF(B43="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B43)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B43,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B43="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B43)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B43,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B43" s="15"/>
@@ -46618,7 +46776,7 @@
     </row>
     <row r="44" spans="1:6" ht="15">
       <c r="A44" s="6" t="str">
-        <f>IF(B44="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B44)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B44,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B44="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B44)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B44,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B44" s="15"/>
@@ -46632,7 +46790,7 @@
     </row>
     <row r="45" spans="1:6" ht="15">
       <c r="A45" s="6" t="str">
-        <f>IF(B45="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B45)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B45,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B45="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B45)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B45,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B45" s="15"/>
@@ -46753,7 +46911,7 @@
     </row>
     <row r="54" spans="1:6" ht="15">
       <c r="A54" s="6" t="str">
-        <f>IF(B54="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B54)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B54,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B54="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B54)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B54,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B54" s="15"/>
@@ -46940,7 +47098,7 @@
     </row>
     <row r="67" spans="1:6" ht="15">
       <c r="A67" s="6" t="str">
-        <f>IF(B67="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B67)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B67,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B67="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B67)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B67,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B67" s="15"/>
@@ -46951,7 +47109,7 @@
     </row>
     <row r="68" spans="1:6" ht="15">
       <c r="A68" s="6" t="str">
-        <f>IF(B68="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B68)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B68,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B68="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B68)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B68,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B68" s="15"/>
@@ -46962,7 +47120,7 @@
     </row>
     <row r="69" spans="1:6" ht="15">
       <c r="A69" s="6" t="str">
-        <f>IF(B69="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B69)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B69,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B69="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B69)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B69,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B69" s="15"/>
@@ -46973,7 +47131,7 @@
     </row>
     <row r="70" spans="1:6" ht="15">
       <c r="A70" s="6" t="str">
-        <f>IF(B70="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B70)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B70,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B70="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B70)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B70,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B70" s="15"/>
@@ -47122,7 +47280,7 @@
     </row>
     <row r="80" spans="1:6" ht="15">
       <c r="A80" s="6" t="str">
-        <f>IF(B80="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B80)=0,"acfr:DeferredInflowsOfResourcesCustom",_xlfn.XLOOKUP(B80,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B80="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B80)=0,"acfr:DeferredInflowsOfResourcesCustom",_xlfn.XLOOKUP(B80,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B80" s="15"/>
@@ -47136,7 +47294,7 @@
     </row>
     <row r="81" spans="1:6" ht="15">
       <c r="A81" s="6" t="str">
-        <f>IF(B81="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B81)=0,"acfr:DeferredInflowsOfResourcesCustom",_xlfn.XLOOKUP(B81,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B81="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B81)=0,"acfr:DeferredInflowsOfResourcesCustom",_xlfn.XLOOKUP(B81,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B81" s="15"/>
@@ -47150,7 +47308,7 @@
     </row>
     <row r="82" spans="1:6" ht="15">
       <c r="A82" s="6" t="str">
-        <f>IF(B82="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B82)=0,"acfr:DeferredInflowsOfResourcesCustom",_xlfn.XLOOKUP(B82,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B82="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B82)=0,"acfr:DeferredInflowsOfResourcesCustom",_xlfn.XLOOKUP(B82,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B82" s="15"/>
@@ -47164,7 +47322,7 @@
     </row>
     <row r="83" spans="1:6" ht="15">
       <c r="A83" s="6" t="str">
-        <f>IF(B83="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B83)=0,"acfr:DeferredInflowsOfResourcesCustom",_xlfn.XLOOKUP(B83,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B83="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B83)=0,"acfr:DeferredInflowsOfResourcesCustom",_xlfn.XLOOKUP(B83,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B83" s="15"/>
@@ -47289,7 +47447,7 @@
     </row>
     <row r="92" spans="1:6" ht="15">
       <c r="A92" s="6" t="str">
-        <f>IF(B92="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B92)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B92,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B92="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B92)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B92,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B92" s="15"/>
@@ -47300,7 +47458,7 @@
     </row>
     <row r="93" spans="1:6" ht="15">
       <c r="A93" s="6" t="str">
-        <f>IF(B93="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B93)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B93,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B93="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B93)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B93,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B93" s="15"/>
@@ -47311,7 +47469,7 @@
     </row>
     <row r="94" spans="1:6" ht="15">
       <c r="A94" s="6" t="str">
-        <f>IF(B94="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B94)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B94,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B94="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B94)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B94,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B94" s="15"/>
@@ -47322,7 +47480,7 @@
     </row>
     <row r="95" spans="1:6" ht="15">
       <c r="A95" s="6" t="str">
-        <f>IF(B95="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B95)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B95,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
+        <f>IF(B95="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B95)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B95,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B95" s="15"/>
@@ -47530,8 +47688,8 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="A23" zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -49226,8 +49384,8 @@
       <formula>J$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B41:B49" xr:uid="{F3C11D5E-2141-5546-AF1F-2279D6DA74D8}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B41:B49 B9:B22 B25:B36" xr:uid="{F3C11D5E-2141-5546-AF1F-2279D6DA74D8}">
       <formula1>program_revenues</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B54:B63" xr:uid="{96AC2388-DB7C-8442-BE26-CB837586D707}">
@@ -49236,9 +49394,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B66:B70" xr:uid="{A7A9E828-3622-4441-839C-4C8E5DABEB87}">
       <formula1>transfers</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B9:B22 B25:B36" xr:uid="{5B081783-9278-9542-AB7A-E156D9F5E750}">
-      <formula1>program_revenues</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarrahahmed/Desktop/CLOSUP/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D70992D-F977-1A45-A28C-CD9D8F6EBF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB83A5A1-7C18-6946-999B-4A0C4DE4E06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="17280" tabRatio="834" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" tabRatio="834" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Net Position" sheetId="8" r:id="rId1"/>
@@ -10940,13 +10940,13 @@
     <t>Label (without Spaces)</t>
   </si>
   <si>
-    <t>acfr:FundBalanceAssignedCustom</t>
-  </si>
-  <si>
-    <t>acfr:FundBalanceCommittedCustom</t>
-  </si>
-  <si>
-    <t>acfr:FundBalanceRestrictedCustom</t>
+    <t>Custom Assigned Fund Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom Committed Fund Balance </t>
+  </si>
+  <si>
+    <t>Custom Restricted Fund Balance</t>
   </si>
 </sst>
 </file>
@@ -10958,7 +10958,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -11151,6 +11151,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -11561,13 +11568,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12051,14 +12059,855 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="27" fillId="18" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="27" fillId="18" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Currency 2" xfId="3" xr:uid="{8E32DCCE-912B-2345-802E-1F34AAFD7463}"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="151">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -12441,41 +13290,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -18461,10 +19275,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="96" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A40" zoomScale="119" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -19535,22 +20349,23 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="15">
-      <c r="A59" s="108" t="s">
+      <c r="A59" s="250" t="s">
         <v>3615</v>
       </c>
-      <c r="B59" s="166"/>
-      <c r="C59" s="208"/>
-      <c r="D59" s="209"/>
-      <c r="E59" s="209"/>
-      <c r="F59" s="209"/>
-      <c r="G59" s="209"/>
-      <c r="H59" s="210"/>
-      <c r="I59" s="210"/>
-      <c r="J59" s="249"/>
+      <c r="B59" s="251"/>
+      <c r="C59" s="251"/>
+      <c r="D59" s="251"/>
+      <c r="E59" s="251"/>
+      <c r="F59" s="251"/>
+      <c r="G59" s="251"/>
+      <c r="H59" s="251"/>
+      <c r="I59" s="251"/>
+      <c r="J59" s="252"/>
     </row>
     <row r="60" spans="1:10" ht="15">
-      <c r="A60" s="108" t="s">
-        <v>3616</v>
+      <c r="A60" s="108" t="str">
+        <f>IF(B60="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B60) = 0, "acfr:FundBalanceAssignedCustom", _xlfn.XLOOKUP(B60, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
+        <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B60" s="166"/>
       <c r="C60" s="208"/>
@@ -19560,11 +20375,14 @@
       <c r="G60" s="209"/>
       <c r="H60" s="210"/>
       <c r="I60" s="210"/>
-      <c r="J60" s="249"/>
-    </row>
-    <row r="61" spans="1:10" ht="16">
-      <c r="A61" s="131" t="s">
-        <v>3617</v>
+      <c r="J60" s="253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15">
+      <c r="A61" s="108" t="str">
+        <f>IF(B61="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B61) = 0, "acfr:FundBalanceAssignedCustom", _xlfn.XLOOKUP(B61, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
+        <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B61" s="166"/>
       <c r="C61" s="208"/>
@@ -19574,114 +20392,257 @@
       <c r="G61" s="209"/>
       <c r="H61" s="210"/>
       <c r="I61" s="210"/>
-      <c r="J61" s="249"/>
-    </row>
-    <row r="62" spans="1:10" ht="16">
-      <c r="A62" s="108" t="s">
+      <c r="J61" s="253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15">
+      <c r="A62" s="250" t="s">
+        <v>3616</v>
+      </c>
+      <c r="B62" s="251"/>
+      <c r="C62" s="251"/>
+      <c r="D62" s="251"/>
+      <c r="E62" s="251"/>
+      <c r="F62" s="251"/>
+      <c r="G62" s="251"/>
+      <c r="H62" s="251"/>
+      <c r="I62" s="251"/>
+      <c r="J62" s="252"/>
+    </row>
+    <row r="63" spans="1:10" ht="15">
+      <c r="A63" s="108" t="str">
+        <f>IF(B63="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B63) = 0, "acfr:FundBalanceCommittedCustom", _xlfn.XLOOKUP(B63, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B63" s="166"/>
+      <c r="C63" s="208"/>
+      <c r="D63" s="209"/>
+      <c r="E63" s="209"/>
+      <c r="F63" s="209"/>
+      <c r="G63" s="209"/>
+      <c r="H63" s="210"/>
+      <c r="I63" s="210"/>
+      <c r="J63" s="249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15">
+      <c r="A64" s="108" t="str">
+        <f>IF(B64="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B64) = 0, "acfr:FundBalanceCommittedCustom", _xlfn.XLOOKUP(B64, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B64" s="166"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="209"/>
+      <c r="E64" s="209"/>
+      <c r="F64" s="209"/>
+      <c r="G64" s="209"/>
+      <c r="H64" s="210"/>
+      <c r="I64" s="210"/>
+      <c r="J64" s="249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15">
+      <c r="A65" s="250" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B65" s="251"/>
+      <c r="C65" s="251"/>
+      <c r="D65" s="251"/>
+      <c r="E65" s="251"/>
+      <c r="F65" s="251"/>
+      <c r="G65" s="251"/>
+      <c r="H65" s="251"/>
+      <c r="I65" s="251"/>
+      <c r="J65" s="252"/>
+    </row>
+    <row r="66" spans="1:10" ht="16">
+      <c r="A66" s="131" t="str">
+        <f>IF(B66="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B66) = 0, "acfr:FundBalanceRestrictedCustom", _xlfn.XLOOKUP(B66, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B66" s="166"/>
+      <c r="C66" s="208"/>
+      <c r="D66" s="209"/>
+      <c r="E66" s="209"/>
+      <c r="F66" s="209"/>
+      <c r="G66" s="209"/>
+      <c r="H66" s="210"/>
+      <c r="I66" s="210"/>
+      <c r="J66" s="249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="16">
+      <c r="A67" s="131" t="str">
+        <f>IF(B67="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B67) = 0, "acfr:FundBalanceRestrictedCustom", _xlfn.XLOOKUP(B67, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B67" s="166"/>
+      <c r="C67" s="208"/>
+      <c r="D67" s="209"/>
+      <c r="E67" s="209"/>
+      <c r="F67" s="209"/>
+      <c r="G67" s="209"/>
+      <c r="H67" s="210"/>
+      <c r="I67" s="210"/>
+      <c r="J67" s="249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="16">
+      <c r="A68" s="108" t="s">
         <v>1084</v>
       </c>
-      <c r="B62" s="169" t="s">
+      <c r="B68" s="169" t="s">
         <v>2475</v>
       </c>
-      <c r="C62" s="217">
+      <c r="C68" s="217">
         <f>SUM(C48:C58)</f>
         <v>0</v>
       </c>
-      <c r="D62" s="217">
+      <c r="D68" s="217">
         <f>SUM(D48:D58)</f>
         <v>0</v>
       </c>
-      <c r="E62" s="217">
+      <c r="E68" s="217">
         <f>SUM(E48:E58)</f>
         <v>0</v>
       </c>
-      <c r="F62" s="217">
+      <c r="F68" s="217">
         <f>SUM(F48:F58)</f>
         <v>0</v>
       </c>
-      <c r="G62" s="217">
+      <c r="G68" s="217">
         <f>SUM(G48:G58)</f>
         <v>0</v>
       </c>
-      <c r="H62" s="218">
+      <c r="H68" s="218">
         <f>SUM(H48:H58)</f>
         <v>0</v>
       </c>
-      <c r="I62" s="218">
+      <c r="I68" s="218">
         <f>SUM(I48:I58)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="218">
-        <f>SUM(C62:I62)</f>
+      <c r="J68" s="218">
+        <f>SUM(C68:I68)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="32">
-      <c r="A63" s="114" t="s">
+    <row r="69" spans="1:10" ht="32">
+      <c r="A69" s="114" t="s">
         <v>2476</v>
       </c>
-      <c r="B63" s="170" t="s">
+      <c r="B69" s="170" t="s">
         <v>2477</v>
       </c>
-      <c r="C63" s="219">
-        <f>SUM(C62, C45, C32)</f>
+      <c r="C69" s="219">
+        <f>SUM(C68, C45, C32)</f>
         <v>0</v>
       </c>
-      <c r="D63" s="219">
-        <f>SUM(D62, D45, D32)</f>
+      <c r="D69" s="219">
+        <f>SUM(D68, D45, D32)</f>
         <v>0</v>
       </c>
-      <c r="E63" s="219">
-        <f>SUM(E62, E45, E32)</f>
+      <c r="E69" s="219">
+        <f>SUM(E68, E45, E32)</f>
         <v>0</v>
       </c>
-      <c r="F63" s="219"/>
-      <c r="G63" s="219">
-        <f>SUM(G62, G45, G32)</f>
+      <c r="F69" s="219"/>
+      <c r="G69" s="219">
+        <f>SUM(G68, G45, G32)</f>
         <v>0</v>
       </c>
-      <c r="H63" s="219">
-        <f>SUM(H62, H45, H32)</f>
+      <c r="H69" s="219">
+        <f>SUM(H68, H45, H32)</f>
         <v>0</v>
       </c>
-      <c r="I63" s="219">
-        <f>SUM(I62, I45, I32)</f>
+      <c r="I69" s="219">
+        <f>SUM(I68, I45, I32)</f>
         <v>0</v>
       </c>
-      <c r="J63" s="219">
-        <f>SUM(J62, J45, J32)</f>
+      <c r="J69" s="219">
+        <f>SUM(J68, J45, J32)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D8:G18 D21:G31 C32:I33 D35:G44 C45:I46 D48:G61 C62:G62">
-    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
+  <mergeCells count="3">
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A65:J65"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D8:G18 D21:G31 C32:I33 D35:G44 C45:I46 D48:G58 C68:G68 D67:G67 D60:G61 D63:G64">
+    <cfRule type="expression" dxfId="138" priority="10" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:I7">
-    <cfRule type="expression" dxfId="33" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="9" stopIfTrue="1">
       <formula>D$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:J46">
-    <cfRule type="expression" dxfId="32" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="11" stopIfTrue="1">
       <formula>I$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <conditionalFormatting sqref="D66:G66">
+    <cfRule type="expression" dxfId="103" priority="8" stopIfTrue="1">
+      <formula>D$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A18">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:A31">
+    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:A44">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:A58">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:A61">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:A64">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:A67">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{6093D518-EE2C-8F4C-A028-BF71F269D00B}">
       <formula1>"General Fund, Special Revenue Fund, Capital Project, Debt Service, Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:J6" xr:uid="{0D7B8D02-DC8C-0B46-ABA0-A3421D2F5523}">
       <formula1>"Select fund type or delete column, General Fund, Special Revenue Fund, Capital Project, Debt Service, Other"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="B59:B61" xr:uid="{0725135B-1ABA-044F-ABE3-FFE608A89DA3}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{51E25186-1EB2-CD4B-B4A7-8C43F9322904}">
           <x14:formula1>
             <xm:f>'Lookup GovFund Balance'!$B$176:$B$189</xm:f>
@@ -19705,6 +20666,12 @@
             <xm:f>'Lookup GovFund Balance'!$B$165:$B$173</xm:f>
           </x14:formula1>
           <xm:sqref>B35:B44</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{B69521F8-AB11-3B42-A927-1BE302653BAF}">
+          <x14:formula1>
+            <xm:f>'Lookup GovFund Balance'!$B$176:$B$189</xm:f>
+          </x14:formula1>
+          <xm:sqref>B60:B61 B63:B64 B66:B67</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -19899,8 +20866,8 @@
   </sheetPr>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A7" zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -21263,8 +22230,23 @@
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="D7:I7 D8:J23 C23 D25:J35 C35 C36:J36 D37:J63 C59:J60 J64 D65:J69 D71:J71">
-    <cfRule type="expression" dxfId="31" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="20" stopIfTrue="1">
       <formula>C$7=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A22">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:A34">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:A53">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -21367,7 +22349,7 @@
         <v>2852</v>
       </c>
       <c r="B6" s="174">
-        <f>'GovFund Balance Sheet'!J62</f>
+        <f>'GovFund Balance Sheet'!J68</f>
         <v>0</v>
       </c>
     </row>
@@ -21471,8 +22453,8 @@
   </sheetPr>
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -23140,18 +24122,43 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <conditionalFormatting sqref="C24 C38 C54:I54 C68:C69 C81:I81">
-    <cfRule type="expression" dxfId="30" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="11" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:I68">
-    <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="9" stopIfTrue="1">
       <formula>D$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="28" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="8" stopIfTrue="1">
       <formula>K$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:A23">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:A37">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:A53">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:A67">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:A80">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23202,8 +24209,8 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -24675,39 +25682,59 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <conditionalFormatting sqref="C23:C24 C38:C39 C70:J70">
-    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="15" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="26" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="7" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:I54">
-    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="6" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:I66">
-    <cfRule type="expression" dxfId="24" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="5" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:J70">
-    <cfRule type="cellIs" dxfId="23" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="16" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="125" priority="18" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:I70">
-    <cfRule type="expression" dxfId="20" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="19" stopIfTrue="1">
       <formula>#REF!=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A22">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:A37">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:A51">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:A64">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24752,8 +25779,8 @@
   </sheetPr>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L87" sqref="L87"/>
+    <sheetView topLeftCell="A28" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -26233,87 +27260,107 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="19" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="22" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="18" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="21" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:I24 C53:I53">
-    <cfRule type="expression" dxfId="17" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="28" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:I52">
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="19" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:I64">
-    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="17" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:I69">
-    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="16" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:J65">
-    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="7" stopIfTrue="1">
       <formula>D$7=""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="8" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="114" priority="10" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="11" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:J69">
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="12" stopIfTrue="1">
       <formula>D$7=""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="13" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="14" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="109" priority="15" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J4 J8:J22 J24:J64 J70:J1048574">
-    <cfRule type="expression" dxfId="4" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="23" stopIfTrue="1">
       <formula>COUNTA(D2:I2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J22 J24:J64 J70:J78">
-    <cfRule type="expression" dxfId="3" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="84" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="5" stopIfTrue="1">
       <formula>COUNTA(D69:I69)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="6" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1048575:J1048576">
-    <cfRule type="expression" dxfId="0" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="86" stopIfTrue="1">
       <formula>COUNTA(D1:I3)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A22">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:A37">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:A51">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:A63">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -26363,7 +27410,7 @@
   </sheetPr>
   <dimension ref="A1:C358"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A149" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D135" sqref="D135:D136"/>
     </sheetView>
   </sheetViews>
@@ -46188,8 +47235,8 @@
   </sheetPr>
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="81" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView topLeftCell="A6" zoomScale="81" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -46388,7 +47435,7 @@
         <f>IF(B16="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B16)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B16,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="254"/>
       <c r="C16" s="202"/>
       <c r="D16" s="203"/>
       <c r="E16" s="200" t="str">
@@ -47590,19 +48637,70 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <conditionalFormatting sqref="C101:F101">
-    <cfRule type="cellIs" dxfId="50" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="34" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="20" operator="notEqual">
+    <cfRule type="cellIs" dxfId="99" priority="36" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F37 C23:F23 C37:F37 D39:F101 C50 C65:F65 C76:C77 C89 C101">
-    <cfRule type="expression" dxfId="47" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="18" stopIfTrue="1">
       <formula>C$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A22">
+    <cfRule type="expression" dxfId="97" priority="16">
+      <formula>A9="acfr:CurrentAssetsCustom"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="containsText" dxfId="96" priority="15" operator="containsText" text="acfr:CurrentAssetsCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:CurrentAssetsCustom",B15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:A45">
+    <cfRule type="containsText" dxfId="76" priority="13" operator="containsText" text="acfr:DeferredOutflowsOfResourcesCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:DeferredOutflowsOfResourcesCustom",A41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="2" operator="containsText" text="acfr:DeferredOutflowsOfResourcesCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:DeferredOutflowsOfResourcesCustom",A41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:A59">
+    <cfRule type="containsText" dxfId="73" priority="12" operator="containsText" text="acfr:CurrentLiabilitiesCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:CurrentLiabilitiesCustom",A54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="1" operator="containsText" text="acfr:CurrentLiabilitiesCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:CurrentLiabilitiesCustom",A54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:A70">
+    <cfRule type="containsText" dxfId="95" priority="11" operator="containsText" text="acfr:NoncurrentLiabilitiesCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:NoncurrentLiabilitiesCustom",A67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80:A83">
+    <cfRule type="containsText" dxfId="94" priority="10" operator="containsText" text="acfr:DeferredInflowsOfResourcesCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:DeferredInflowsOfResourcesCustom",A80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:A95">
+    <cfRule type="containsText" dxfId="93" priority="9" operator="containsText" text="acfr:RestrictedComponentsOfNetPositionCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:RestrictedComponentsOfNetPositionCustom",A92)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M68">
+    <cfRule type="expression" dxfId="92" priority="8">
+      <formula>$A$9:$A$22="acfr:CurrentAssetsCustom"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:A31">
+    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="acfr:NonCurrentAssetsCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:NonCurrentAssetsCustom",A25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
@@ -47688,13 +48786,13 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView topLeftCell="A27" zoomScale="84" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="68.6640625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="33" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="33" customWidth="1"/>
     <col min="3" max="3" width="15" style="33" customWidth="1"/>
     <col min="4" max="4" width="17" style="33" customWidth="1"/>
@@ -49325,63 +50423,93 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <conditionalFormatting sqref="C23 C37 C50 D53:G63">
-    <cfRule type="expression" dxfId="46" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="58" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:J64">
-    <cfRule type="expression" dxfId="45" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="43" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:J72">
-    <cfRule type="expression" dxfId="44" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="19" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F6 D52:F52">
-    <cfRule type="expression" dxfId="43" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="55" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:G51">
-    <cfRule type="expression" dxfId="42" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="15" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:J70">
-    <cfRule type="expression" dxfId="41" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="11" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74:J77 I78:I99">
-    <cfRule type="expression" dxfId="40" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="10" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H50">
-    <cfRule type="expression" dxfId="39" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="14" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:I38">
-    <cfRule type="expression" dxfId="38" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="52" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:J6 D7:I37 I39:I51">
-    <cfRule type="expression" dxfId="37" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="48" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:J63">
-    <cfRule type="expression" dxfId="36" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="12" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J50">
-    <cfRule type="expression" dxfId="35" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="13" stopIfTrue="1">
       <formula>J$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A22">
+    <cfRule type="containsText" dxfId="70" priority="9" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:A36">
+    <cfRule type="containsText" dxfId="69" priority="8" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:B49">
+    <cfRule type="containsText" dxfId="68" priority="7" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",B41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:A63">
+    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:A49">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:A70">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarrahahmed/Desktop/CLOSUP/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB83A5A1-7C18-6946-999B-4A0C4DE4E06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F55631-3268-B742-933A-242379D4950A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" tabRatio="834" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17280" tabRatio="834" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Net Position" sheetId="8" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5349" uniqueCount="3618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5367" uniqueCount="3636">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -10947,6 +10947,60 @@
   </si>
   <si>
     <t>Custom Restricted Fund Balance</t>
+  </si>
+  <si>
+    <t>This template is designed to help you prepare your financial statements for submission and convert them into XBRL format.</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>1. Enter Financial Statements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Fill in the financial data in the corresponding cells. Ensure all required fields are completed.</t>
+  </si>
+  <si>
+    <t>2. Verify Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Double-check all entries for accuracy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Ensure that all calculations and formulas are correct.</t>
+  </si>
+  <si>
+    <t>3. Save the File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Once all data is entered and verified, save the Excel file with an appropriate name indicating its contents and date.</t>
+  </si>
+  <si>
+    <t>4. Upload for XBRL Conversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Navigate to the XBRL conversion tool provided by your organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Upload the saved Excel file to the converter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Follow the instructions provided by the conversion tool to complete the process.</t>
+  </si>
+  <si>
+    <t>5. Review XBRL Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - After conversion, review the XBRL output to ensure it accurately reflects the entered financial statements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Make any necessary adjustments in the original Excel file and repeat the upload process if needed.</t>
+  </si>
+  <si>
+    <t>READ ME:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Open the relevant sheets in this Excel file (e.g.,Net Position, PropFunds, Statement of Activities).</t>
   </si>
 </sst>
 </file>
@@ -11575,7 +11629,7 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12059,6 +12113,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="27" fillId="18" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="27" fillId="18" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -12068,9 +12126,8 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="27" fillId="18" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -12080,11 +12137,314 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
-  <dxfs count="151">
+  <dxfs count="91">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12124,9 +12484,10 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12152,9 +12513,34 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12180,107 +12566,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -12433,9 +12718,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -12445,109 +12727,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12570,115 +12750,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12750,9 +12834,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -12767,526 +12848,9 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -20349,18 +19913,18 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="15">
-      <c r="A59" s="250" t="s">
+      <c r="A59" s="252" t="s">
         <v>3615</v>
       </c>
-      <c r="B59" s="251"/>
-      <c r="C59" s="251"/>
-      <c r="D59" s="251"/>
-      <c r="E59" s="251"/>
-      <c r="F59" s="251"/>
-      <c r="G59" s="251"/>
-      <c r="H59" s="251"/>
-      <c r="I59" s="251"/>
-      <c r="J59" s="252"/>
+      <c r="B59" s="253"/>
+      <c r="C59" s="253"/>
+      <c r="D59" s="253"/>
+      <c r="E59" s="253"/>
+      <c r="F59" s="253"/>
+      <c r="G59" s="253"/>
+      <c r="H59" s="253"/>
+      <c r="I59" s="253"/>
+      <c r="J59" s="254"/>
     </row>
     <row r="60" spans="1:10" ht="15">
       <c r="A60" s="108" t="str">
@@ -20375,7 +19939,7 @@
       <c r="G60" s="209"/>
       <c r="H60" s="210"/>
       <c r="I60" s="210"/>
-      <c r="J60" s="253">
+      <c r="J60" s="250">
         <v>0</v>
       </c>
     </row>
@@ -20392,23 +19956,23 @@
       <c r="G61" s="209"/>
       <c r="H61" s="210"/>
       <c r="I61" s="210"/>
-      <c r="J61" s="253">
+      <c r="J61" s="250">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15">
-      <c r="A62" s="250" t="s">
+      <c r="A62" s="252" t="s">
         <v>3616</v>
       </c>
-      <c r="B62" s="251"/>
-      <c r="C62" s="251"/>
-      <c r="D62" s="251"/>
-      <c r="E62" s="251"/>
-      <c r="F62" s="251"/>
-      <c r="G62" s="251"/>
-      <c r="H62" s="251"/>
-      <c r="I62" s="251"/>
-      <c r="J62" s="252"/>
+      <c r="B62" s="253"/>
+      <c r="C62" s="253"/>
+      <c r="D62" s="253"/>
+      <c r="E62" s="253"/>
+      <c r="F62" s="253"/>
+      <c r="G62" s="253"/>
+      <c r="H62" s="253"/>
+      <c r="I62" s="253"/>
+      <c r="J62" s="254"/>
     </row>
     <row r="63" spans="1:10" ht="15">
       <c r="A63" s="108" t="str">
@@ -20445,18 +20009,18 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="15">
-      <c r="A65" s="250" t="s">
+      <c r="A65" s="252" t="s">
         <v>3617</v>
       </c>
-      <c r="B65" s="251"/>
-      <c r="C65" s="251"/>
-      <c r="D65" s="251"/>
-      <c r="E65" s="251"/>
-      <c r="F65" s="251"/>
-      <c r="G65" s="251"/>
-      <c r="H65" s="251"/>
-      <c r="I65" s="251"/>
-      <c r="J65" s="252"/>
+      <c r="B65" s="253"/>
+      <c r="C65" s="253"/>
+      <c r="D65" s="253"/>
+      <c r="E65" s="253"/>
+      <c r="F65" s="253"/>
+      <c r="G65" s="253"/>
+      <c r="H65" s="253"/>
+      <c r="I65" s="253"/>
+      <c r="J65" s="254"/>
     </row>
     <row r="66" spans="1:10" ht="16">
       <c r="A66" s="131" t="str">
@@ -20500,31 +20064,31 @@
         <v>2475</v>
       </c>
       <c r="C68" s="217">
-        <f>SUM(C48:C58)</f>
+        <f t="shared" ref="C68:I68" si="7">SUM(C48:C58)</f>
         <v>0</v>
       </c>
       <c r="D68" s="217">
-        <f>SUM(D48:D58)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E68" s="217">
-        <f>SUM(E48:E58)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F68" s="217">
-        <f>SUM(F48:F58)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G68" s="217">
-        <f>SUM(G48:G58)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H68" s="218">
-        <f>SUM(H48:H58)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I68" s="218">
-        <f>SUM(I48:I58)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J68" s="218">
@@ -20575,59 +20139,59 @@
     <mergeCell ref="A62:J62"/>
     <mergeCell ref="A65:J65"/>
   </mergeCells>
-  <conditionalFormatting sqref="D8:G18 D21:G31 C32:I33 D35:G44 C45:I46 D48:G58 C68:G68 D67:G67 D60:G61 D63:G64">
-    <cfRule type="expression" dxfId="138" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="A9:A18">
+    <cfRule type="containsText" dxfId="58" priority="7" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:A31">
+    <cfRule type="containsText" dxfId="57" priority="6" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:A44">
+    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:A58">
+    <cfRule type="containsText" dxfId="55" priority="4" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:A61">
+    <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:A64">
+    <cfRule type="containsText" dxfId="53" priority="2" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:A67">
+    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:G18 D21:G31 C32:I33 D35:G44 C45:I46 D48:G58 D60:G61 D63:G64 C68:G68">
+    <cfRule type="expression" dxfId="51" priority="10" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D66:G67">
+    <cfRule type="expression" dxfId="50" priority="8" stopIfTrue="1">
+      <formula>D$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D7:I7">
-    <cfRule type="expression" dxfId="137" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="9" stopIfTrue="1">
       <formula>D$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:J46">
-    <cfRule type="expression" dxfId="136" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="11" stopIfTrue="1">
       <formula>I$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66:G66">
-    <cfRule type="expression" dxfId="103" priority="8" stopIfTrue="1">
-      <formula>D$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A18">
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:A31">
-    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A44">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:A58">
-    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:A61">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:A64">
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:A67">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -20867,7 +20431,7 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -22229,24 +21793,24 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="D7:I7 D8:J23 C23 D25:J35 C35 C36:J36 D37:J63 C59:J60 J64 D65:J69 D71:J71">
-    <cfRule type="expression" dxfId="135" priority="20" stopIfTrue="1">
-      <formula>C$7=""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A9:A22">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:A34">
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A53">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:I7 D8:J23 C23 D25:J35 C35 C36:J36 D37:J63 C59:J60 J64 D65:J69 D71:J71">
+    <cfRule type="expression" dxfId="44" priority="20" stopIfTrue="1">
+      <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -22454,7 +22018,7 @@
   <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -24121,44 +23685,44 @@
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A10:A23">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:A37">
+    <cfRule type="containsText" dxfId="42" priority="4" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:A53">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:A67">
+    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:A80">
+    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C24 C38 C54:I54 C68:C69 C81:I81">
-    <cfRule type="expression" dxfId="134" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="11" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:I68">
-    <cfRule type="expression" dxfId="133" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="9" stopIfTrue="1">
       <formula>D$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="132" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="8" stopIfTrue="1">
       <formula>K$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:A23">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:A37">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:A53">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:A67">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A80">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24209,8 +23773,8 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -25681,60 +25245,60 @@
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A9:A22">
+    <cfRule type="containsText" dxfId="35" priority="4" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:A37">
+    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:A51">
+    <cfRule type="containsText" dxfId="33" priority="2" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:A64">
+    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C23:C24 C38:C39 C70:J70">
-    <cfRule type="expression" dxfId="131" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="15" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="130" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="7" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:I54">
-    <cfRule type="expression" dxfId="129" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="6" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:I66">
-    <cfRule type="expression" dxfId="128" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="5" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:J70">
-    <cfRule type="cellIs" dxfId="127" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="16" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:I70">
-    <cfRule type="expression" dxfId="124" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="19" stopIfTrue="1">
       <formula>#REF!=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A22">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:A37">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:A51">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:A64">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27259,108 +26823,108 @@
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A9:A22">
+    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:A37">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:A51">
+    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:A63">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="123" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="122" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:I24 C53:I53">
-    <cfRule type="expression" dxfId="121" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="28" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:I52">
-    <cfRule type="expression" dxfId="120" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:I64">
-    <cfRule type="expression" dxfId="119" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:I69">
-    <cfRule type="expression" dxfId="118" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:J65">
-    <cfRule type="expression" dxfId="117" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
       <formula>D$7=""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="10" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:J69">
-    <cfRule type="expression" dxfId="112" priority="12" stopIfTrue="1">
-      <formula>D$7=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="14" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="12" stopIfTrue="1">
+      <formula>D$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J4 J8:J22 J24:J64 J70:J1048574">
-    <cfRule type="expression" dxfId="108" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="23" stopIfTrue="1">
       <formula>COUNTA(D2:I2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J22 J24:J64 J70:J78">
-    <cfRule type="expression" dxfId="107" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="84" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68">
-    <cfRule type="expression" dxfId="106" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+      <formula>#REF!=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>COUNTA(D69:I69)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="6" stopIfTrue="1">
-      <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1048575:J1048576">
-    <cfRule type="expression" dxfId="104" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="86" stopIfTrue="1">
       <formula>COUNTA(D1:I3)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A22">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:A37">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:A51">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:A63">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -47162,10 +46726,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8474313-8EAC-0141-BA8E-861AF31ED060}">
-  <dimension ref="B1:E6"/>
+  <dimension ref="B1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -47217,6 +46781,96 @@
         <v>1092</v>
       </c>
       <c r="E6" s="2"/>
+    </row>
+    <row r="10" spans="2:5" ht="14">
+      <c r="B10" s="255" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="60" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>3633</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -47435,7 +47089,7 @@
         <f>IF(B16="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B16)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B16,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B16" s="254"/>
+      <c r="B16" s="251"/>
       <c r="C16" s="202"/>
       <c r="D16" s="203"/>
       <c r="E16" s="200" t="str">
@@ -48636,71 +48290,71 @@
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A9:A22">
+    <cfRule type="expression" dxfId="90" priority="16">
+      <formula>A9="acfr:CurrentAssetsCustom"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:A31">
+    <cfRule type="containsText" dxfId="89" priority="3" operator="containsText" text="acfr:NonCurrentAssetsCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:NonCurrentAssetsCustom",A25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:A45">
+    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="acfr:DeferredOutflowsOfResourcesCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:DeferredOutflowsOfResourcesCustom",A41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="13" operator="containsText" text="acfr:DeferredOutflowsOfResourcesCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:DeferredOutflowsOfResourcesCustom",A41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:A59">
+    <cfRule type="containsText" dxfId="86" priority="1" operator="containsText" text="acfr:CurrentLiabilitiesCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:CurrentLiabilitiesCustom",A54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="12" operator="containsText" text="acfr:CurrentLiabilitiesCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:CurrentLiabilitiesCustom",A54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:A70">
+    <cfRule type="containsText" dxfId="84" priority="11" operator="containsText" text="acfr:NoncurrentLiabilitiesCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:NoncurrentLiabilitiesCustom",A67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80:A83">
+    <cfRule type="containsText" dxfId="83" priority="10" operator="containsText" text="acfr:DeferredInflowsOfResourcesCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:DeferredInflowsOfResourcesCustom",A80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:A95">
+    <cfRule type="containsText" dxfId="82" priority="9" operator="containsText" text="acfr:RestrictedComponentsOfNetPositionCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:RestrictedComponentsOfNetPositionCustom",A92)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="containsText" dxfId="81" priority="15" operator="containsText" text="acfr:CurrentAssetsCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:CurrentAssetsCustom",B15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C101:F101">
-    <cfRule type="cellIs" dxfId="101" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="34" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="36" operator="notEqual">
+    <cfRule type="cellIs" dxfId="78" priority="36" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F37 C23:F23 C37:F37 D39:F101 C50 C65:F65 C76:C77 C89 C101">
-    <cfRule type="expression" dxfId="98" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="18" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A22">
-    <cfRule type="expression" dxfId="97" priority="16">
-      <formula>A9="acfr:CurrentAssetsCustom"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="96" priority="15" operator="containsText" text="acfr:CurrentAssetsCustom">
-      <formula>NOT(ISERROR(SEARCH("acfr:CurrentAssetsCustom",B15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:A45">
-    <cfRule type="containsText" dxfId="76" priority="13" operator="containsText" text="acfr:DeferredOutflowsOfResourcesCustom">
-      <formula>NOT(ISERROR(SEARCH("acfr:DeferredOutflowsOfResourcesCustom",A41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="2" operator="containsText" text="acfr:DeferredOutflowsOfResourcesCustom">
-      <formula>NOT(ISERROR(SEARCH("acfr:DeferredOutflowsOfResourcesCustom",A41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:A59">
-    <cfRule type="containsText" dxfId="73" priority="12" operator="containsText" text="acfr:CurrentLiabilitiesCustom">
-      <formula>NOT(ISERROR(SEARCH("acfr:CurrentLiabilitiesCustom",A54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="1" operator="containsText" text="acfr:CurrentLiabilitiesCustom">
-      <formula>NOT(ISERROR(SEARCH("acfr:CurrentLiabilitiesCustom",A54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:A70">
-    <cfRule type="containsText" dxfId="95" priority="11" operator="containsText" text="acfr:NoncurrentLiabilitiesCustom">
-      <formula>NOT(ISERROR(SEARCH("acfr:NoncurrentLiabilitiesCustom",A67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80:A83">
-    <cfRule type="containsText" dxfId="94" priority="10" operator="containsText" text="acfr:DeferredInflowsOfResourcesCustom">
-      <formula>NOT(ISERROR(SEARCH("acfr:DeferredInflowsOfResourcesCustom",A80)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92:A95">
-    <cfRule type="containsText" dxfId="93" priority="9" operator="containsText" text="acfr:RestrictedComponentsOfNetPositionCustom">
-      <formula>NOT(ISERROR(SEARCH("acfr:RestrictedComponentsOfNetPositionCustom",A92)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M68">
-    <cfRule type="expression" dxfId="92" priority="8">
+    <cfRule type="expression" dxfId="76" priority="8">
       <formula>$A$9:$A$22="acfr:CurrentAssetsCustom"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A31">
-    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="acfr:NonCurrentAssetsCustom">
-      <formula>NOT(ISERROR(SEARCH("acfr:NonCurrentAssetsCustom",A25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
@@ -50422,94 +50076,89 @@
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A9:A22">
+    <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:A36">
+    <cfRule type="containsText" dxfId="74" priority="8" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:A63">
+    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:A70">
+    <cfRule type="containsText" dxfId="72" priority="1" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:B49">
+    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C23 C37 C50 D53:G63">
-    <cfRule type="expression" dxfId="150" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="58" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:J64">
-    <cfRule type="expression" dxfId="149" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="43" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:J72">
-    <cfRule type="expression" dxfId="148" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="19" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F6 D52:F52">
-    <cfRule type="expression" dxfId="147" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="55" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:G51">
-    <cfRule type="expression" dxfId="146" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="15" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:J70">
-    <cfRule type="expression" dxfId="145" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="11" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74:J77 I78:I99">
-    <cfRule type="expression" dxfId="144" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="10" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H50">
-    <cfRule type="expression" dxfId="143" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="14" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:I38">
-    <cfRule type="expression" dxfId="142" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="52" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:J6 D7:I37 I39:I51">
-    <cfRule type="expression" dxfId="141" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="48" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:J63">
-    <cfRule type="expression" dxfId="140" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="12" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J50">
-    <cfRule type="expression" dxfId="139" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="13" stopIfTrue="1">
       <formula>J$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A22">
-    <cfRule type="containsText" dxfId="70" priority="9" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A36">
-    <cfRule type="containsText" dxfId="69" priority="8" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41:B49">
-    <cfRule type="containsText" dxfId="68" priority="7" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",B41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:A63">
-    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:A49">
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:A70">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarrahahmed/Desktop/CLOSUP/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F55631-3268-B742-933A-242379D4950A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D5C3B0-7AEE-9B4D-92E4-8C882D27E900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17280" tabRatio="834" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17280" tabRatio="834" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Net Position" sheetId="8" r:id="rId1"/>
@@ -12117,6 +12117,9 @@
     <xf numFmtId="0" fontId="32" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -12125,9 +12128,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -12142,21 +12142,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12184,12 +12169,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12204,9 +12186,27 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -19913,18 +19913,18 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="15">
-      <c r="A59" s="252" t="s">
+      <c r="A59" s="253" t="s">
         <v>3615</v>
       </c>
-      <c r="B59" s="253"/>
-      <c r="C59" s="253"/>
-      <c r="D59" s="253"/>
-      <c r="E59" s="253"/>
-      <c r="F59" s="253"/>
-      <c r="G59" s="253"/>
-      <c r="H59" s="253"/>
-      <c r="I59" s="253"/>
-      <c r="J59" s="254"/>
+      <c r="B59" s="254"/>
+      <c r="C59" s="254"/>
+      <c r="D59" s="254"/>
+      <c r="E59" s="254"/>
+      <c r="F59" s="254"/>
+      <c r="G59" s="254"/>
+      <c r="H59" s="254"/>
+      <c r="I59" s="254"/>
+      <c r="J59" s="255"/>
     </row>
     <row r="60" spans="1:10" ht="15">
       <c r="A60" s="108" t="str">
@@ -19961,18 +19961,18 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15">
-      <c r="A62" s="252" t="s">
+      <c r="A62" s="253" t="s">
         <v>3616</v>
       </c>
-      <c r="B62" s="253"/>
-      <c r="C62" s="253"/>
-      <c r="D62" s="253"/>
-      <c r="E62" s="253"/>
-      <c r="F62" s="253"/>
-      <c r="G62" s="253"/>
-      <c r="H62" s="253"/>
-      <c r="I62" s="253"/>
-      <c r="J62" s="254"/>
+      <c r="B62" s="254"/>
+      <c r="C62" s="254"/>
+      <c r="D62" s="254"/>
+      <c r="E62" s="254"/>
+      <c r="F62" s="254"/>
+      <c r="G62" s="254"/>
+      <c r="H62" s="254"/>
+      <c r="I62" s="254"/>
+      <c r="J62" s="255"/>
     </row>
     <row r="63" spans="1:10" ht="15">
       <c r="A63" s="108" t="str">
@@ -20009,18 +20009,18 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="15">
-      <c r="A65" s="252" t="s">
+      <c r="A65" s="253" t="s">
         <v>3617</v>
       </c>
-      <c r="B65" s="253"/>
-      <c r="C65" s="253"/>
-      <c r="D65" s="253"/>
-      <c r="E65" s="253"/>
-      <c r="F65" s="253"/>
-      <c r="G65" s="253"/>
-      <c r="H65" s="253"/>
-      <c r="I65" s="253"/>
-      <c r="J65" s="254"/>
+      <c r="B65" s="254"/>
+      <c r="C65" s="254"/>
+      <c r="D65" s="254"/>
+      <c r="E65" s="254"/>
+      <c r="F65" s="254"/>
+      <c r="G65" s="254"/>
+      <c r="H65" s="254"/>
+      <c r="I65" s="254"/>
+      <c r="J65" s="255"/>
     </row>
     <row r="66" spans="1:10" ht="16">
       <c r="A66" s="131" t="str">
@@ -20430,8 +20430,8 @@
   </sheetPr>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A4" zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -23773,8 +23773,8 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -26891,17 +26891,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:J69">
-    <cfRule type="cellIs" dxfId="8" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
+      <formula>D$7=""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="13" stopIfTrue="1" operator="equal">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="notEqual">
-      <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="14" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="12" stopIfTrue="1">
-      <formula>D$7=""</formula>
+    <cfRule type="cellIs" dxfId="5" priority="15" operator="notEqual">
+      <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J4 J8:J22 J24:J64 J70:J1048574">
@@ -26915,11 +26915,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68">
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+      <formula>COUNTA(D69:I69)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>#REF!=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>COUNTA(D69:I69)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1048575:J1048576">
@@ -46728,7 +46728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8474313-8EAC-0141-BA8E-861AF31ED060}">
   <dimension ref="B1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -46783,7 +46783,7 @@
       <c r="E6" s="2"/>
     </row>
     <row r="10" spans="2:5" ht="14">
-      <c r="B10" s="255" t="s">
+      <c r="B10" s="252" t="s">
         <v>3634</v>
       </c>
     </row>

--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarrahahmed/Desktop/CLOSUP/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D5C3B0-7AEE-9B4D-92E4-8C882D27E900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934C8AF1-DD68-4144-8232-20177E39C8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17280" tabRatio="834" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" tabRatio="834" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Net Position" sheetId="8" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5367" uniqueCount="3636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5376" uniqueCount="3637">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -11001,6 +11001,9 @@
   </si>
   <si>
     <t xml:space="preserve">   - Open the relevant sheets in this Excel file (e.g.,Net Position, PropFunds, Statement of Activities).</t>
+  </si>
+  <si>
+    <t>Note:</t>
   </si>
 </sst>
 </file>
@@ -11326,7 +11329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -11621,6 +11624,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -11629,7 +11654,7 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12128,6 +12153,18 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -18839,10 +18876,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="119" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="119" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -20133,11 +20170,22 @@
         <v>0</v>
       </c>
     </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="256" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B72" s="257"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="258"/>
+      <c r="B73" s="259"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A59:J59"/>
     <mergeCell ref="A62:J62"/>
     <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A72:B73"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:A18">
     <cfRule type="containsText" dxfId="58" priority="7" operator="containsText" text="custom">
@@ -20248,10 +20296,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A3" zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -20418,7 +20466,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="256" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B35" s="257"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="258"/>
+      <c r="B36" s="259"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A35:B36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20428,10 +20489,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A17" zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -21790,8 +21851,21 @@
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
     </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="256" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B72" s="257"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="258"/>
+      <c r="B73" s="259"/>
+    </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="A72:B73"/>
+  </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="A9:A22">
     <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="custom">
@@ -21861,10 +21935,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="A29" sqref="A29:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -22005,7 +22079,20 @@
       </c>
       <c r="B26" s="175"/>
     </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="256" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B29" s="257"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="258"/>
+      <c r="B30" s="259"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A29:B30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22017,8 +22104,8 @@
   </sheetPr>
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A9" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -23606,9 +23693,15 @@
       <c r="J83" s="112"/>
     </row>
     <row r="84" spans="1:10" ht="15">
+      <c r="A84" s="256" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B84" s="257"/>
       <c r="J84" s="112"/>
     </row>
     <row r="85" spans="1:10" ht="15">
+      <c r="A85" s="258"/>
+      <c r="B85" s="259"/>
       <c r="J85" s="112"/>
     </row>
     <row r="86" spans="1:10" ht="15">
@@ -23685,6 +23778,9 @@
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="A84:B85"/>
+  </mergeCells>
   <conditionalFormatting sqref="A10:A23">
     <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A10)))</formula>
@@ -23773,8 +23869,8 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView topLeftCell="A6" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -25163,9 +25259,15 @@
       <c r="J72" s="112"/>
     </row>
     <row r="73" spans="1:10" ht="15">
+      <c r="A73" s="256" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B73" s="257"/>
       <c r="J73" s="112"/>
     </row>
     <row r="74" spans="1:10" ht="15">
+      <c r="A74" s="258"/>
+      <c r="B74" s="259"/>
       <c r="J74" s="112"/>
     </row>
     <row r="75" spans="1:10" ht="15">
@@ -25245,6 +25347,9 @@
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="A73:B74"/>
+  </mergeCells>
   <conditionalFormatting sqref="A9:A22">
     <cfRule type="containsText" dxfId="35" priority="4" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
@@ -25343,8 +25448,8 @@
   </sheetPr>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView topLeftCell="A23" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -26788,8 +26893,10 @@
       <c r="J76" s="138"/>
     </row>
     <row r="77" spans="1:10" ht="15">
-      <c r="A77" s="104"/>
-      <c r="B77" s="154"/>
+      <c r="A77" s="256" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B77" s="257"/>
       <c r="C77" s="155"/>
       <c r="D77" s="155"/>
       <c r="E77" s="155"/>
@@ -26800,8 +26907,8 @@
       <c r="J77" s="138"/>
     </row>
     <row r="78" spans="1:10" ht="15">
-      <c r="A78" s="104"/>
-      <c r="B78" s="154"/>
+      <c r="A78" s="258"/>
+      <c r="B78" s="259"/>
       <c r="C78" s="155"/>
       <c r="D78" s="155"/>
       <c r="E78" s="155"/>
@@ -26823,6 +26930,9 @@
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="A77:B78"/>
+  </mergeCells>
   <conditionalFormatting sqref="A9:A22">
     <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
@@ -26928,7 +27038,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:B78" xr:uid="{98ECD2C2-C0B9-E74C-B5D0-14A316D496F4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:B76" xr:uid="{98ECD2C2-C0B9-E74C-B5D0-14A316D496F4}">
       <formula1>net_position</formula1>
     </dataValidation>
   </dataValidations>
@@ -46887,10 +46997,10 @@
   <sheetPr codeName="Sheet8">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="81" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="A68" zoomScale="81" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -48288,8 +48398,21 @@
       <c r="C102" s="36"/>
       <c r="D102" s="37"/>
     </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="256" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B104" s="257"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="258"/>
+      <c r="B105" s="259"/>
+    </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="A104:B105"/>
+  </mergeCells>
   <conditionalFormatting sqref="A9:A22">
     <cfRule type="expression" dxfId="90" priority="16">
       <formula>A9="acfr:CurrentAssetsCustom"</formula>
@@ -48440,8 +48563,8 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="84" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A39" zoomScale="84" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -50015,54 +50138,60 @@
       <c r="I79" s="54"/>
     </row>
     <row r="80" spans="1:10" ht="15">
+      <c r="A80" s="256" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B80" s="257"/>
       <c r="I80" s="54"/>
     </row>
-    <row r="81" spans="9:9" ht="15">
+    <row r="81" spans="1:9" ht="15">
+      <c r="A81" s="258"/>
+      <c r="B81" s="259"/>
       <c r="I81" s="54"/>
     </row>
-    <row r="82" spans="9:9" ht="15">
+    <row r="82" spans="1:9" ht="15">
       <c r="I82" s="54"/>
     </row>
-    <row r="83" spans="9:9" ht="15">
+    <row r="83" spans="1:9" ht="15">
       <c r="I83" s="54"/>
     </row>
-    <row r="84" spans="9:9" ht="15">
+    <row r="84" spans="1:9" ht="15">
       <c r="I84" s="54"/>
     </row>
-    <row r="85" spans="9:9" ht="15">
+    <row r="85" spans="1:9" ht="15">
       <c r="I85" s="54"/>
     </row>
-    <row r="86" spans="9:9" ht="15">
+    <row r="86" spans="1:9" ht="15">
       <c r="I86" s="54"/>
     </row>
-    <row r="87" spans="9:9" ht="15">
+    <row r="87" spans="1:9" ht="15">
       <c r="I87" s="54"/>
     </row>
-    <row r="88" spans="9:9" ht="15">
+    <row r="88" spans="1:9" ht="15">
       <c r="I88" s="54"/>
     </row>
-    <row r="89" spans="9:9" ht="14">
+    <row r="89" spans="1:9" ht="14">
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="9:9" ht="15">
+    <row r="90" spans="1:9" ht="15">
       <c r="I90" s="53"/>
     </row>
-    <row r="91" spans="9:9" ht="15">
+    <row r="91" spans="1:9" ht="15">
       <c r="I91" s="54"/>
     </row>
-    <row r="92" spans="9:9" ht="15">
+    <row r="92" spans="1:9" ht="15">
       <c r="I92" s="54"/>
     </row>
-    <row r="93" spans="9:9" ht="15">
+    <row r="93" spans="1:9" ht="15">
       <c r="I93" s="54"/>
     </row>
-    <row r="94" spans="9:9" ht="15">
+    <row r="94" spans="1:9" ht="15">
       <c r="I94" s="54"/>
     </row>
-    <row r="95" spans="9:9" ht="15">
+    <row r="95" spans="1:9" ht="15">
       <c r="I95" s="54"/>
     </row>
-    <row r="96" spans="9:9" ht="15">
+    <row r="96" spans="1:9" ht="15">
       <c r="I96" s="54"/>
     </row>
     <row r="97" spans="9:9" ht="15">
@@ -50076,6 +50205,9 @@
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="A80:B81"/>
+  </mergeCells>
   <conditionalFormatting sqref="A9:A22">
     <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>

--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/app/static/input_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarrahahmed/Desktop/CLOSUP/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F82A9C-9FFF-7348-B6BC-6076A774A843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F63CED0-37A6-DE43-B209-0B12063A4F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="834" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17260" tabRatio="834" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Net Position" sheetId="8" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5346" uniqueCount="3615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5378" uniqueCount="3638">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -10938,6 +10938,75 @@
   </si>
   <si>
     <t>Label (without Spaces)</t>
+  </si>
+  <si>
+    <t>Custom Assigned Fund Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom Committed Fund Balance </t>
+  </si>
+  <si>
+    <t>Custom Restricted Fund Balance</t>
+  </si>
+  <si>
+    <t>This template is designed to help you prepare your financial statements for submission and convert them into XBRL format.</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>1. Enter Financial Statements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Fill in the financial data in the corresponding cells. Ensure all required fields are completed.</t>
+  </si>
+  <si>
+    <t>2. Verify Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Double-check all entries for accuracy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Ensure that all calculations and formulas are correct.</t>
+  </si>
+  <si>
+    <t>3. Save the File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Once all data is entered and verified, save the Excel file with an appropriate name indicating its contents and date.</t>
+  </si>
+  <si>
+    <t>4. Upload for XBRL Conversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Navigate to the XBRL conversion tool provided by your organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Upload the saved Excel file to the converter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Follow the instructions provided by the conversion tool to complete the process.</t>
+  </si>
+  <si>
+    <t>5. Review XBRL Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - After conversion, review the XBRL output to ensure it accurately reflects the entered financial statements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Make any necessary adjustments in the original Excel file and repeat the upload process if needed.</t>
+  </si>
+  <si>
+    <t>READ ME:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Open the relevant sheets in this Excel file (e.g.,Net Position, PropFunds, Statement of Activities).</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -Select "Choose file(s))" on the Inline XBRL Conversion Tool Website. You will select the excel sheet, and can also upload 0-5 word documents which may include content such as auditors letters, notes, or other text. Once you have selected files, you can adjust their ordering. Then, simply select "combine and convert files". Please be patient, the conversion may take up to one minute or possibly more, depending on the number of files being uploaded. </t>
   </si>
 </sst>
 </file>
@@ -10949,7 +11018,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -11145,6 +11214,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -11256,7 +11338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -11551,14 +11633,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12041,18 +12159,98 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="27" fillId="18" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="27" fillId="18" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Currency 2" xfId="3" xr:uid="{8E32DCCE-912B-2345-802E-1F34AAFD7463}"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="91">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12080,38 +12278,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -12132,12 +12298,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12146,6 +12309,26 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12213,6 +12396,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill>
@@ -12244,6 +12455,235 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12344,90 +12784,44 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12463,6 +12857,94 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12771,7 +13253,7 @@
   </sheetPr>
   <dimension ref="A1:C514"/>
   <sheetViews>
-    <sheetView topLeftCell="A256" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A202" zoomScale="75" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -18451,15 +18933,15 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="75" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView topLeftCell="A47" zoomScale="119" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="120" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="120" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="171" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" style="120" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" style="120" customWidth="1"/>
@@ -18593,7 +19075,7 @@
     </row>
     <row r="9" spans="1:10" ht="15">
       <c r="A9" s="108" t="str">
-        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,#REF!,#REF!))</f>
+        <f>IF(B9="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B9) = 0, "acfr:AssetsCustomModifiedAccrual", _xlfn.XLOOKUP(B9, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B9" s="166"/>
@@ -18611,7 +19093,7 @@
     </row>
     <row r="10" spans="1:10" ht="15">
       <c r="A10" s="108" t="str">
-        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,#REF!,#REF!))</f>
+        <f>IF(B10="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B10) = 0, "acfr:AssetsCustomModifiedAccrual", _xlfn.XLOOKUP(B10, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B10" s="166"/>
@@ -18629,7 +19111,7 @@
     </row>
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="108" t="str">
-        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,#REF!,#REF!))</f>
+        <f>IF(B11="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B11) = 0, "acfr:AssetsCustomModifiedAccrual", _xlfn.XLOOKUP(B11, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B11" s="166"/>
@@ -18647,7 +19129,7 @@
     </row>
     <row r="12" spans="1:10" ht="15">
       <c r="A12" s="108" t="str">
-        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,#REF!,#REF!))</f>
+        <f>IF(B12="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B12) = 0, "acfr:AssetsCustomModifiedAccrual", _xlfn.XLOOKUP(B12, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B12" s="166"/>
@@ -18665,7 +19147,7 @@
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="108" t="str">
-        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,#REF!,#REF!))</f>
+        <f>IF(B13="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B13) = 0, "acfr:AssetsCustomModifiedAccrual", _xlfn.XLOOKUP(B13, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B13" s="166"/>
@@ -18683,7 +19165,7 @@
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="108" t="str">
-        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,#REF!,#REF!))</f>
+        <f>IF(B14="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B14) = 0, "acfr:AssetsCustomModifiedAccrual", _xlfn.XLOOKUP(B14, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B14" s="166"/>
@@ -18701,7 +19183,7 @@
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="108" t="str">
-        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,#REF!,#REF!))</f>
+        <f>IF(B15="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B15) = 0, "acfr:AssetsCustomModifiedAccrual", _xlfn.XLOOKUP(B15, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B15" s="166"/>
@@ -18719,7 +19201,7 @@
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="108" t="str">
-        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,#REF!,#REF!))</f>
+        <f>IF(B16="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B16) = 0, "acfr:AssetsCustomModifiedAccrual", _xlfn.XLOOKUP(B16, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B16" s="166"/>
@@ -18737,7 +19219,7 @@
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="108" t="str">
-        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,#REF!,#REF!))</f>
+        <f>IF(B17="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B17) = 0, "acfr:AssetsCustomModifiedAccrual", _xlfn.XLOOKUP(B17, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B17" s="166"/>
@@ -18755,7 +19237,7 @@
     </row>
     <row r="18" spans="1:10" ht="15">
       <c r="A18" s="108" t="str">
-        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,#REF!,#REF!))</f>
+        <f>IF(B18="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B18) = 0, "acfr:AssetsCustomModifiedAccrual", _xlfn.XLOOKUP(B18, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B18" s="166"/>
@@ -18838,7 +19320,7 @@
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="108" t="str">
-        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,#REF!,#REF!))</f>
+        <f>IF(B22="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B22) = 0, "acfr:LiabilitiesCustomModifiedAccrual", _xlfn.XLOOKUP(B22, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B22" s="166"/>
@@ -18856,7 +19338,7 @@
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="108" t="str">
-        <f>IF(B23="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B23,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B23="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B23) = 0, "acfr:LiabilitiesCustomModifiedAccrual", _xlfn.XLOOKUP(B23, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B23" s="166"/>
@@ -18874,7 +19356,7 @@
     </row>
     <row r="24" spans="1:10" ht="15">
       <c r="A24" s="108" t="str">
-        <f>IF(B24="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B24,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B24="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B24) = 0, "acfr:LiabilitiesCustomModifiedAccrual", _xlfn.XLOOKUP(B24, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B24" s="166"/>
@@ -18892,7 +19374,7 @@
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="108" t="str">
-        <f>IF(B25="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B25,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B25="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B25) = 0, "acfr:LiabilitiesCustomModifiedAccrual", _xlfn.XLOOKUP(B25, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B25" s="166"/>
@@ -18910,7 +19392,7 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="108" t="str">
-        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B26="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B26) = 0, "acfr:LiabilitiesCustomModifiedAccrual", _xlfn.XLOOKUP(B26, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B26" s="166"/>
@@ -18928,7 +19410,7 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="108" t="str">
-        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B27="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B27) = 0, "acfr:LiabilitiesCustomModifiedAccrual", _xlfn.XLOOKUP(B27, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B27" s="166"/>
@@ -18946,7 +19428,7 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="108" t="str">
-        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B28="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B28) = 0, "acfr:LiabilitiesCustomModifiedAccrual", _xlfn.XLOOKUP(B28, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B28" s="166"/>
@@ -18964,7 +19446,7 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="108" t="str">
-        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B29="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B29) = 0, "acfr:LiabilitiesCustomModifiedAccrual", _xlfn.XLOOKUP(B29, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B29" s="166"/>
@@ -18982,7 +19464,7 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="108" t="str">
-        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B30="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B30) = 0, "acfr:LiabilitiesCustomModifiedAccrual", _xlfn.XLOOKUP(B30, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B30" s="166"/>
@@ -19000,7 +19482,7 @@
     </row>
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="108" t="str">
-        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B31="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B31) = 0, "acfr:LiabilitiesCustomModifiedAccrual", _xlfn.XLOOKUP(B31, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B31" s="166"/>
@@ -19083,7 +19565,7 @@
     </row>
     <row r="35" spans="1:10" ht="15">
       <c r="A35" s="108" t="str">
-        <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B35,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B35="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B35) = 0, "acfr:DeferredInflowsOfResourcesCustomModifiedAccrual", _xlfn.XLOOKUP(B35, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B35" s="166"/>
@@ -19101,7 +19583,7 @@
     </row>
     <row r="36" spans="1:10" ht="15">
       <c r="A36" s="108" t="str">
-        <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B36,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B36="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B36) = 0, "acfr:DeferredInflowsOfResourcesCustomModifiedAccrual", _xlfn.XLOOKUP(B36, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B36" s="166"/>
@@ -19119,7 +19601,7 @@
     </row>
     <row r="37" spans="1:10" ht="15">
       <c r="A37" s="108" t="str">
-        <f>IF(B37="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B37,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B37="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B37) = 0, "acfr:DeferredInflowsOfResourcesCustomModifiedAccrual", _xlfn.XLOOKUP(B37, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B37" s="166"/>
@@ -19137,7 +19619,7 @@
     </row>
     <row r="38" spans="1:10" ht="15">
       <c r="A38" s="108" t="str">
-        <f>IF(B38="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B38,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B38="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B38) = 0, "acfr:DeferredInflowsOfResourcesCustomModifiedAccrual", _xlfn.XLOOKUP(B38, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B38" s="166"/>
@@ -19155,7 +19637,7 @@
     </row>
     <row r="39" spans="1:10" ht="15">
       <c r="A39" s="108" t="str">
-        <f>IF(B39="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B39,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B39="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B39) = 0, "acfr:DeferredInflowsOfResourcesCustomModifiedAccrual", _xlfn.XLOOKUP(B39, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B39" s="166"/>
@@ -19173,7 +19655,7 @@
     </row>
     <row r="40" spans="1:10" ht="15">
       <c r="A40" s="108" t="str">
-        <f>IF(B40="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B40,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B40="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B40) = 0, "acfr:DeferredInflowsOfResourcesCustomModifiedAccrual", _xlfn.XLOOKUP(B40, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B40" s="166"/>
@@ -19191,7 +19673,7 @@
     </row>
     <row r="41" spans="1:10" ht="15">
       <c r="A41" s="108" t="str">
-        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B41,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B41="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B41) = 0, "acfr:DeferredInflowsOfResourcesCustomModifiedAccrual", _xlfn.XLOOKUP(B41, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B41" s="166"/>
@@ -19209,7 +19691,7 @@
     </row>
     <row r="42" spans="1:10" ht="15">
       <c r="A42" s="108" t="str">
-        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B42="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B42) = 0, "acfr:DeferredInflowsOfResourcesCustomModifiedAccrual", _xlfn.XLOOKUP(B42, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B42" s="166"/>
@@ -19227,7 +19709,7 @@
     </row>
     <row r="43" spans="1:10" ht="15">
       <c r="A43" s="108" t="str">
-        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B43="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B43) = 0, "acfr:DeferredInflowsOfResourcesCustomModifiedAccrual", _xlfn.XLOOKUP(B43, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B43" s="166"/>
@@ -19245,7 +19727,7 @@
     </row>
     <row r="44" spans="1:10" ht="15">
       <c r="A44" s="108" t="str">
-        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Lookup Net Position'!$B$2:$B$500,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B44="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B44) = 0, "acfr:DeferredInflowsOfResourcesCustomModifiedAccrual", _xlfn.XLOOKUP(B44, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B44" s="166"/>
@@ -19328,7 +19810,7 @@
     </row>
     <row r="48" spans="1:10" ht="15">
       <c r="A48" s="108" t="str">
-        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B48" s="166"/>
@@ -19346,7 +19828,7 @@
     </row>
     <row r="49" spans="1:10" ht="15">
       <c r="A49" s="108" t="str">
-        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B49" s="166"/>
@@ -19364,7 +19846,7 @@
     </row>
     <row r="50" spans="1:10" ht="15">
       <c r="A50" s="108" t="str">
-        <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B50" s="166"/>
@@ -19382,7 +19864,7 @@
     </row>
     <row r="51" spans="1:10" ht="15">
       <c r="A51" s="108" t="str">
-        <f>IF(B51="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B51,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B51="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B51, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B51" s="166"/>
@@ -19400,7 +19882,7 @@
     </row>
     <row r="52" spans="1:10" ht="15">
       <c r="A52" s="108" t="str">
-        <f>IF(B52="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B52,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B52="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B52, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B52" s="166"/>
@@ -19418,7 +19900,7 @@
     </row>
     <row r="53" spans="1:10" ht="15">
       <c r="A53" s="108" t="str">
-        <f>IF(B53="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B53,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B53="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B53, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B53" s="166"/>
@@ -19436,7 +19918,7 @@
     </row>
     <row r="54" spans="1:10" ht="15">
       <c r="A54" s="108" t="str">
-        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B54" s="166"/>
@@ -19454,7 +19936,7 @@
     </row>
     <row r="55" spans="1:10" ht="15">
       <c r="A55" s="108" t="str">
-        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B55" s="166"/>
@@ -19472,7 +19954,7 @@
     </row>
     <row r="56" spans="1:10" ht="15">
       <c r="A56" s="108" t="str">
-        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B56" s="166"/>
@@ -19490,7 +19972,7 @@
     </row>
     <row r="57" spans="1:10" ht="15">
       <c r="A57" s="108" t="str">
-        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B57" s="166"/>
@@ -19508,7 +19990,7 @@
     </row>
     <row r="58" spans="1:10" ht="15">
       <c r="A58" s="108" t="str">
-        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!#REF!))</f>
+        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B58" s="166"/>
@@ -19524,125 +20006,341 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="16">
-      <c r="A59" s="108" t="s">
+    <row r="59" spans="1:10" ht="15">
+      <c r="A59" s="266" t="s">
+        <v>3615</v>
+      </c>
+      <c r="B59" s="267"/>
+      <c r="C59" s="267"/>
+      <c r="D59" s="267"/>
+      <c r="E59" s="267"/>
+      <c r="F59" s="267"/>
+      <c r="G59" s="267"/>
+      <c r="H59" s="267"/>
+      <c r="I59" s="267"/>
+      <c r="J59" s="268"/>
+    </row>
+    <row r="60" spans="1:10" ht="15">
+      <c r="A60" s="108" t="str">
+        <f>IF(B60="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B60) = 0, "acfr:FundBalanceAssignedCustom", _xlfn.XLOOKUP(B60, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B60" s="166"/>
+      <c r="C60" s="208"/>
+      <c r="D60" s="209"/>
+      <c r="E60" s="209"/>
+      <c r="F60" s="209"/>
+      <c r="G60" s="209"/>
+      <c r="H60" s="210"/>
+      <c r="I60" s="210"/>
+      <c r="J60" s="250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15">
+      <c r="A61" s="108" t="str">
+        <f>IF(B61="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B61) = 0, "acfr:FundBalanceAssignedCustom", _xlfn.XLOOKUP(B61, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B61" s="166"/>
+      <c r="C61" s="208"/>
+      <c r="D61" s="209"/>
+      <c r="E61" s="209"/>
+      <c r="F61" s="209"/>
+      <c r="G61" s="209"/>
+      <c r="H61" s="210"/>
+      <c r="I61" s="210"/>
+      <c r="J61" s="250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15">
+      <c r="A62" s="266" t="s">
+        <v>3616</v>
+      </c>
+      <c r="B62" s="267"/>
+      <c r="C62" s="267"/>
+      <c r="D62" s="267"/>
+      <c r="E62" s="267"/>
+      <c r="F62" s="267"/>
+      <c r="G62" s="267"/>
+      <c r="H62" s="267"/>
+      <c r="I62" s="267"/>
+      <c r="J62" s="268"/>
+    </row>
+    <row r="63" spans="1:10" ht="15">
+      <c r="A63" s="108" t="str">
+        <f>IF(B63="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B63) = 0, "acfr:FundBalanceCommittedCustom", _xlfn.XLOOKUP(B63, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B63" s="166"/>
+      <c r="C63" s="208"/>
+      <c r="D63" s="209"/>
+      <c r="E63" s="209"/>
+      <c r="F63" s="209"/>
+      <c r="G63" s="209"/>
+      <c r="H63" s="210"/>
+      <c r="I63" s="210"/>
+      <c r="J63" s="249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15">
+      <c r="A64" s="108" t="str">
+        <f>IF(B64="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B64) = 0, "acfr:FundBalanceCommittedCustom", _xlfn.XLOOKUP(B64, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B64" s="166"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="209"/>
+      <c r="E64" s="209"/>
+      <c r="F64" s="209"/>
+      <c r="G64" s="209"/>
+      <c r="H64" s="210"/>
+      <c r="I64" s="210"/>
+      <c r="J64" s="249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15">
+      <c r="A65" s="266" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B65" s="267"/>
+      <c r="C65" s="267"/>
+      <c r="D65" s="267"/>
+      <c r="E65" s="267"/>
+      <c r="F65" s="267"/>
+      <c r="G65" s="267"/>
+      <c r="H65" s="267"/>
+      <c r="I65" s="267"/>
+      <c r="J65" s="268"/>
+    </row>
+    <row r="66" spans="1:10" ht="16">
+      <c r="A66" s="131" t="str">
+        <f>IF(B66="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B66) = 0, "acfr:FundBalanceRestrictedCustom", _xlfn.XLOOKUP(B66, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B66" s="166"/>
+      <c r="C66" s="208"/>
+      <c r="D66" s="209"/>
+      <c r="E66" s="209"/>
+      <c r="F66" s="209"/>
+      <c r="G66" s="209"/>
+      <c r="H66" s="210"/>
+      <c r="I66" s="210"/>
+      <c r="J66" s="249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="16">
+      <c r="A67" s="131" t="str">
+        <f>IF(B67="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Balance'!$B$2:$B$276, B67) = 0, "acfr:FundBalanceRestrictedCustom", _xlfn.XLOOKUP(B67, 'Lookup GovFund Balance'!$B$2:$B$276, 'Lookup GovFund Balance'!$C$2:$C$276)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B67" s="166"/>
+      <c r="C67" s="208"/>
+      <c r="D67" s="209"/>
+      <c r="E67" s="209"/>
+      <c r="F67" s="209"/>
+      <c r="G67" s="209"/>
+      <c r="H67" s="210"/>
+      <c r="I67" s="210"/>
+      <c r="J67" s="249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="16">
+      <c r="A68" s="108" t="s">
         <v>1084</v>
       </c>
-      <c r="B59" s="169" t="s">
+      <c r="B68" s="169" t="s">
         <v>2475</v>
       </c>
-      <c r="C59" s="217">
-        <f t="shared" ref="C59:H59" si="7">SUM(C48:C58)</f>
+      <c r="C68" s="217">
+        <f t="shared" ref="C68:I68" si="7">SUM(C48:C58)</f>
         <v>0</v>
       </c>
-      <c r="D59" s="217">
+      <c r="D68" s="217">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E59" s="217">
+      <c r="E68" s="217">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F59" s="217">
+      <c r="F68" s="217">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G59" s="217">
+      <c r="G68" s="217">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H59" s="218">
+      <c r="H68" s="218">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I59" s="218">
-        <f t="shared" ref="I59" si="8">SUM(I48:I58)</f>
+      <c r="I68" s="218">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J59" s="218">
-        <f>SUM(C59:I59)</f>
+      <c r="J68" s="218">
+        <f>SUM(C68:I68)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="32">
-      <c r="A60" s="114" t="s">
+    <row r="69" spans="1:10" ht="32">
+      <c r="A69" s="114" t="s">
         <v>2476</v>
       </c>
-      <c r="B60" s="170" t="s">
+      <c r="B69" s="170" t="s">
         <v>2477</v>
       </c>
-      <c r="C60" s="219">
-        <f>SUM(C59, C45, C32)</f>
+      <c r="C69" s="219">
+        <f>SUM(C68, C45, C32)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="219">
-        <f t="shared" ref="D60:J60" si="9">SUM(D59, D45, D32)</f>
+      <c r="D69" s="219">
+        <f>SUM(D68, D45, D32)</f>
         <v>0</v>
       </c>
-      <c r="E60" s="219">
-        <f t="shared" si="9"/>
+      <c r="E69" s="219">
+        <f>SUM(E68, E45, E32)</f>
         <v>0</v>
       </c>
-      <c r="F60" s="219"/>
-      <c r="G60" s="219">
-        <f t="shared" si="9"/>
+      <c r="F69" s="219"/>
+      <c r="G69" s="219">
+        <f>SUM(G68, G45, G32)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="219">
-        <f t="shared" si="9"/>
+      <c r="H69" s="219">
+        <f>SUM(H68, H45, H32)</f>
         <v>0</v>
       </c>
-      <c r="I60" s="219">
-        <f t="shared" si="9"/>
+      <c r="I69" s="219">
+        <f>SUM(I68, I45, I32)</f>
         <v>0</v>
       </c>
-      <c r="J60" s="219">
-        <f t="shared" si="9"/>
+      <c r="J69" s="219">
+        <f>SUM(J68, J45, J32)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="258"/>
+      <c r="B72" s="264" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="258"/>
+      <c r="B73" s="265"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D8:G18 D21:G31 C32:I33 D35:G44 C45:I46 D48:G58 C59:G59">
-    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
+  <mergeCells count="4">
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="B72:B73"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A9:A18">
+    <cfRule type="containsText" dxfId="58" priority="7" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:A31">
+    <cfRule type="containsText" dxfId="57" priority="6" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:A44">
+    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:A58">
+    <cfRule type="containsText" dxfId="55" priority="4" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:A61">
+    <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:A64">
+    <cfRule type="containsText" dxfId="53" priority="2" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:A67">
+    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:G18 D21:G31 C32:I33 D35:G44 C45:I46 D48:G58 D60:G61 D63:G64 C68:G68">
+    <cfRule type="expression" dxfId="51" priority="10" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D66:G67">
+    <cfRule type="expression" dxfId="50" priority="8" stopIfTrue="1">
+      <formula>D$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D7:I7">
-    <cfRule type="expression" dxfId="33" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="9" stopIfTrue="1">
       <formula>D$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:J46">
-    <cfRule type="expression" dxfId="32" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="11" stopIfTrue="1">
       <formula>I$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{6093D518-EE2C-8F4C-A028-BF71F269D00B}">
       <formula1>"General Fund, Special Revenue Fund, Capital Project, Debt Service, Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:J6" xr:uid="{0D7B8D02-DC8C-0B46-ABA0-A3421D2F5523}">
       <formula1>"Select fund type or delete column, General Fund, Special Revenue Fund, Capital Project, Debt Service, Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48:B58" xr:uid="{51E25186-1EB2-CD4B-B4A7-8C43F9322904}">
-      <formula1>fund_balance</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{24181F37-3456-9247-9E1E-6FECB2D9D2BE}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{51E25186-1EB2-CD4B-B4A7-8C43F9322904}">
+          <x14:formula1>
+            <xm:f>'Lookup GovFund Balance'!$B$176:$B$189</xm:f>
+          </x14:formula1>
+          <xm:sqref>B48:B58</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{24181F37-3456-9247-9E1E-6FECB2D9D2BE}">
           <x14:formula1>
             <xm:f>'Lookup GovFund Balance'!$B$190:$B$276</xm:f>
           </x14:formula1>
           <xm:sqref>B22:B31</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B2665086-3AD7-4E48-B875-3BE4D2879C8C}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{B2665086-3AD7-4E48-B875-3BE4D2879C8C}">
           <x14:formula1>
-            <xm:f>'Lookup GovFund Balance'!$B$2:$B$163</xm:f>
+            <xm:f>'Lookup GovFund Balance'!$B$2:$B$164</xm:f>
           </x14:formula1>
           <xm:sqref>B9:B18</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{F4479D55-EB5C-EE45-B5CD-6F72ECE895E0}">
+          <x14:formula1>
+            <xm:f>'Lookup GovFund Balance'!$B$165:$B$173</xm:f>
+          </x14:formula1>
+          <xm:sqref>B35:B44</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{B69521F8-AB11-3B42-A927-1BE302653BAF}">
+          <x14:formula1>
+            <xm:f>'Lookup GovFund Balance'!$B$176:$B$189</xm:f>
+          </x14:formula1>
+          <xm:sqref>B60:B61 B63:B64 B66:B67</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -19655,10 +20353,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A3" zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -19825,7 +20523,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="269" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B35" s="264"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="270"/>
+      <c r="B36" s="265"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A35:B36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19835,15 +20546,15 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A23" zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="28" style="33" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="33" customWidth="1"/>
     <col min="3" max="3" width="15" style="33" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" style="33" customWidth="1"/>
@@ -19998,7 +20709,7 @@
     </row>
     <row r="9" spans="1:10" ht="15">
       <c r="A9" s="6" t="str">
-        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B9="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B9) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B9, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B9" s="15"/>
@@ -20016,7 +20727,7 @@
     </row>
     <row r="10" spans="1:10" ht="15">
       <c r="A10" s="6" t="str">
-        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B10="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B10) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B10, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B10" s="15"/>
@@ -20034,7 +20745,7 @@
     </row>
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="6" t="str">
-        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B11="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B11) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B11, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B11" s="15"/>
@@ -20052,7 +20763,7 @@
     </row>
     <row r="12" spans="1:10" ht="15">
       <c r="A12" s="6" t="str">
-        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B12="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B12) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B12, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B12" s="15"/>
@@ -20070,7 +20781,7 @@
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="6" t="str">
-        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B13="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B13) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B13, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B13" s="15"/>
@@ -20088,7 +20799,7 @@
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="6" t="str">
-        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B14="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B14) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B14, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B14" s="15"/>
@@ -20106,7 +20817,7 @@
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="6" t="str">
-        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B15="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B15) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B15, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B15" s="15"/>
@@ -20124,7 +20835,7 @@
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="6" t="str">
-        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B16="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B16) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B16, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B16" s="15"/>
@@ -20142,7 +20853,7 @@
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="6" t="str">
-        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B17="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B17) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B17, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B17" s="15"/>
@@ -20160,7 +20871,7 @@
     </row>
     <row r="18" spans="1:10" ht="15" hidden="1">
       <c r="A18" s="6" t="str">
-        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B18="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B18) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B18, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B18" s="15"/>
@@ -20178,7 +20889,7 @@
     </row>
     <row r="19" spans="1:10" ht="15" hidden="1">
       <c r="A19" s="6" t="str">
-        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B19="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B19) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B19, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B19" s="15"/>
@@ -20196,7 +20907,7 @@
     </row>
     <row r="20" spans="1:10" ht="15" hidden="1">
       <c r="A20" s="6" t="str">
-        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B20="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B20) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B20, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B20" s="15"/>
@@ -20214,7 +20925,7 @@
     </row>
     <row r="21" spans="1:10" ht="15" hidden="1">
       <c r="A21" s="6" t="str">
-        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B21="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B21) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B21, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B21" s="15"/>
@@ -20232,7 +20943,7 @@
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="6" t="str">
-        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B22="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B22) = 0, "acfr:RevenuesCustomModifiedAccrual", _xlfn.XLOOKUP(B22, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B22" s="15"/>
@@ -20304,7 +21015,7 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="6" t="str">
-        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B26="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B26) = 0, "acfr:ExpendituresCustomModifiedAccrual", _xlfn.XLOOKUP(B26, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B26" s="15"/>
@@ -20322,7 +21033,7 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="6" t="str">
-        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B27="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B27) = 0, "acfr:ExpendituresCustomModifiedAccrual", _xlfn.XLOOKUP(B27, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B27" s="15"/>
@@ -20340,7 +21051,7 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="6" t="str">
-        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B28="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B28) = 0, "acfr:ExpendituresCustomModifiedAccrual", _xlfn.XLOOKUP(B28, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B28" s="15"/>
@@ -20358,7 +21069,7 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="6" t="str">
-        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B29="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B29) = 0, "acfr:ExpendituresCustomModifiedAccrual", _xlfn.XLOOKUP(B29, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B29" s="15"/>
@@ -20376,7 +21087,7 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="6" t="str">
-        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B30="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B30) = 0, "acfr:ExpendituresCustomModifiedAccrual", _xlfn.XLOOKUP(B30, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B30" s="15"/>
@@ -20394,7 +21105,7 @@
     </row>
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="6" t="str">
-        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B31="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B31) = 0, "acfr:ExpendituresCustomModifiedAccrual", _xlfn.XLOOKUP(B31, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B31" s="15"/>
@@ -20412,7 +21123,7 @@
     </row>
     <row r="32" spans="1:10" ht="15">
       <c r="A32" s="6" t="str">
-        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B32="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B32) = 0, "acfr:ExpendituresCustomModifiedAccrual", _xlfn.XLOOKUP(B32, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B32" s="15"/>
@@ -20430,7 +21141,7 @@
     </row>
     <row r="33" spans="1:10" ht="15">
       <c r="A33" s="6" t="str">
-        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B33="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B33) = 0, "acfr:ExpendituresCustomModifiedAccrual", _xlfn.XLOOKUP(B33, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B33" s="15"/>
@@ -20448,7 +21159,7 @@
     </row>
     <row r="34" spans="1:10" ht="15">
       <c r="A34" s="6" t="str">
-        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B34="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B34) = 0, "acfr:ExpendituresCustomModifiedAccrual", _xlfn.XLOOKUP(B34, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B34" s="15"/>
@@ -20572,7 +21283,7 @@
     </row>
     <row r="39" spans="1:10" ht="15">
       <c r="A39" s="6" t="str">
-        <f>IF(B39="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B39,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B39="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B39) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B39, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B39" s="15"/>
@@ -20590,7 +21301,7 @@
     </row>
     <row r="40" spans="1:10" ht="15">
       <c r="A40" s="6" t="str">
-        <f>IF(B40="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B40,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B40="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B40) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B40, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B40" s="15"/>
@@ -20608,7 +21319,7 @@
     </row>
     <row r="41" spans="1:10" ht="15">
       <c r="A41" s="6" t="str">
-        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B41,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B41="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B41) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B41, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B41" s="15"/>
@@ -20626,7 +21337,7 @@
     </row>
     <row r="42" spans="1:10" ht="16" customHeight="1">
       <c r="A42" s="6" t="str">
-        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B42="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B42) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B42, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B42" s="15"/>
@@ -20644,7 +21355,7 @@
     </row>
     <row r="43" spans="1:10" ht="16" customHeight="1">
       <c r="A43" s="6" t="str">
-        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B43="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B43) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B43, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B43" s="15"/>
@@ -20662,7 +21373,7 @@
     </row>
     <row r="44" spans="1:10" ht="16" customHeight="1">
       <c r="A44" s="6" t="str">
-        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B44="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B44) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B44, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B44" s="15"/>
@@ -20680,7 +21391,7 @@
     </row>
     <row r="45" spans="1:10" ht="16" hidden="1" customHeight="1">
       <c r="A45" s="6" t="str">
-        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B45="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B45) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B45, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B45" s="15"/>
@@ -20698,7 +21409,7 @@
     </row>
     <row r="46" spans="1:10" ht="16" hidden="1" customHeight="1">
       <c r="A46" s="6" t="str">
-        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B46="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B46) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B46, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B46" s="15"/>
@@ -20716,7 +21427,7 @@
     </row>
     <row r="47" spans="1:10" ht="15" hidden="1">
       <c r="A47" s="6" t="str">
-        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B47="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B47) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B47, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B47" s="15"/>
@@ -20734,7 +21445,7 @@
     </row>
     <row r="48" spans="1:10" ht="15" hidden="1">
       <c r="A48" s="6" t="str">
-        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B48="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B48) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B48, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B48" s="15"/>
@@ -20752,7 +21463,7 @@
     </row>
     <row r="49" spans="1:10" ht="15" hidden="1">
       <c r="A49" s="6" t="str">
-        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B49="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B49) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B49, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B49" s="15"/>
@@ -20770,7 +21481,7 @@
     </row>
     <row r="50" spans="1:10" ht="15">
       <c r="A50" s="6" t="str">
-        <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B50="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B50) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B50, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B50" s="15"/>
@@ -20788,7 +21499,7 @@
     </row>
     <row r="51" spans="1:10" ht="15">
       <c r="A51" s="6" t="str">
-        <f>IF(B51="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B51,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B51="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B51) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B51, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B51" s="15"/>
@@ -20806,7 +21517,7 @@
     </row>
     <row r="52" spans="1:10" ht="15">
       <c r="A52" s="6" t="str">
-        <f>IF(B52="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B52,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B52="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B52) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B52, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B52" s="15"/>
@@ -20824,7 +21535,7 @@
     </row>
     <row r="53" spans="1:10" ht="15">
       <c r="A53" s="6" t="str">
-        <f>IF(B53="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B53,'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392,'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392))</f>
+        <f>IF(B53="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, B53) = 0, "acfr:OtherFinancingSourcesUsesCustom", _xlfn.XLOOKUP(B53, 'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$392, 'Lookup GovFund Stmt Rev Exp Ch'!$C$2:$C$392)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B53" s="15"/>
@@ -21197,11 +21908,36 @@
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
     </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="255"/>
+      <c r="B72" s="253" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="255"/>
+      <c r="B73" s="254"/>
+    </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <phoneticPr fontId="14" type="noConversion"/>
+  <conditionalFormatting sqref="A9:A22">
+    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:A34">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:A53">
+    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D7:I7 D8:J23 C23 D25:J35 C35 C36:J36 D37:J63 C59:J60 J64 D65:J69 D71:J71">
-    <cfRule type="expression" dxfId="31" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="20" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21224,19 +21960,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C93DFAB6-EE30-6F40-B82C-3A9FB7CAB85D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{C93DFAB6-EE30-6F40-B82C-3A9FB7CAB85D}">
           <x14:formula1>
             <xm:f>'Lookup GovFund Stmt Rev Exp Ch'!$B$160:$B$170</xm:f>
           </x14:formula1>
           <xm:sqref>B39:B53</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D4D1AB10-08C4-B544-9EDE-7CF75EB31E07}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{D4D1AB10-08C4-B544-9EDE-7CF75EB31E07}">
           <x14:formula1>
             <xm:f>'Lookup GovFund Stmt Rev Exp Ch'!$B$171:$B$352</xm:f>
           </x14:formula1>
           <xm:sqref>B26:B34</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{01544FF9-537B-8F47-BAD2-6BA555B7160B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{01544FF9-537B-8F47-BAD2-6BA555B7160B}">
           <x14:formula1>
             <xm:f>'Lookup GovFund Stmt Rev Exp Ch'!$B$2:$B$159</xm:f>
           </x14:formula1>
@@ -21253,10 +21989,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -21305,7 +22041,7 @@
         <v>2852</v>
       </c>
       <c r="B6" s="174">
-        <f>'GovFund Balance Sheet'!J59</f>
+        <f>'GovFund Balance Sheet'!J68</f>
         <v>0</v>
       </c>
     </row>
@@ -21397,7 +22133,20 @@
       </c>
       <c r="B26" s="175"/>
     </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="269" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B29" s="264"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="270"/>
+      <c r="B30" s="265"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A29:B30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21407,10 +22156,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A83" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -21577,7 +22326,7 @@
     </row>
     <row r="10" spans="1:11" ht="15">
       <c r="A10" s="108" t="str">
-        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B10="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B10)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B10,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B10" s="15"/>
@@ -21595,7 +22344,7 @@
     </row>
     <row r="11" spans="1:11" ht="15">
       <c r="A11" s="108" t="str">
-        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B11="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B11)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B11,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B11" s="15"/>
@@ -21613,7 +22362,7 @@
     </row>
     <row r="12" spans="1:11" ht="15">
       <c r="A12" s="108" t="str">
-        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B12="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B12)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B12,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B12" s="15"/>
@@ -21631,7 +22380,7 @@
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="A13" s="108" t="str">
-        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B13="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B13)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B13,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B13" s="15"/>
@@ -21649,7 +22398,7 @@
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="A14" s="108" t="str">
-        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B14="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B14)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B14,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B14" s="15"/>
@@ -21667,7 +22416,7 @@
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="108" t="str">
-        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B15="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B15)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B15,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B15" s="15"/>
@@ -21685,7 +22434,7 @@
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="A16" s="108" t="str">
-        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B16="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B16)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B16,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B16" s="15"/>
@@ -21703,7 +22452,7 @@
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="108" t="str">
-        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B17="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B17)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B17,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B17" s="15"/>
@@ -21721,7 +22470,7 @@
     </row>
     <row r="18" spans="1:10" ht="15">
       <c r="A18" s="108" t="str">
-        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B18="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B18)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B18,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B18" s="15"/>
@@ -21739,7 +22488,7 @@
     </row>
     <row r="19" spans="1:10" ht="15" hidden="1">
       <c r="A19" s="108" t="str">
-        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B19="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B19)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B19,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B19" s="15"/>
@@ -21757,7 +22506,7 @@
     </row>
     <row r="20" spans="1:10" ht="15" hidden="1">
       <c r="A20" s="108" t="str">
-        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B20="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B20)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B20,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B20" s="15"/>
@@ -21775,7 +22524,7 @@
     </row>
     <row r="21" spans="1:10" ht="15" hidden="1">
       <c r="A21" s="108" t="str">
-        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B21="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B21)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B21,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B21" s="15"/>
@@ -21793,7 +22542,7 @@
     </row>
     <row r="22" spans="1:10" ht="15" hidden="1">
       <c r="A22" s="108" t="str">
-        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B22="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B22)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B22,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B22" s="15"/>
@@ -21811,7 +22560,7 @@
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="108" t="str">
-        <f>IF(B23="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B23,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B23="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B23)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B23,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B23" s="15"/>
@@ -21883,7 +22632,7 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="108" t="str">
-        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B26="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B26)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B26,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B26" s="109"/>
@@ -21901,7 +22650,7 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="108" t="str">
-        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B27="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B27)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B27,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B27" s="109"/>
@@ -21919,7 +22668,7 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="108" t="str">
-        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B28="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B28)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B28,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B28" s="110"/>
@@ -21937,7 +22686,7 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="108" t="str">
-        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B29="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B29)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B29,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B29" s="110"/>
@@ -21955,7 +22704,7 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="108" t="str">
-        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B30="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B30)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B30,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B30" s="110"/>
@@ -21973,7 +22722,7 @@
     </row>
     <row r="31" spans="1:10" ht="15" hidden="1">
       <c r="A31" s="108" t="str">
-        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B31="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B31)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B31,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B31" s="109"/>
@@ -21991,7 +22740,7 @@
     </row>
     <row r="32" spans="1:10" ht="15" hidden="1">
       <c r="A32" s="108" t="str">
-        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B32="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B32)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B32,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B32" s="109"/>
@@ -22009,7 +22758,7 @@
     </row>
     <row r="33" spans="1:10" ht="15" hidden="1">
       <c r="A33" s="108" t="str">
-        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B33="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B33)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B33,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B33" s="109"/>
@@ -22027,7 +22776,7 @@
     </row>
     <row r="34" spans="1:10" ht="15" hidden="1">
       <c r="A34" s="108" t="str">
-        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B34="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B34)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B34,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B34" s="109"/>
@@ -22045,7 +22794,7 @@
     </row>
     <row r="35" spans="1:10" ht="15" hidden="1">
       <c r="A35" s="108" t="str">
-        <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B35,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B35="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B35)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B35,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B35" s="109"/>
@@ -22063,7 +22812,7 @@
     </row>
     <row r="36" spans="1:10" ht="15" hidden="1">
       <c r="A36" s="108" t="str">
-        <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B36,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B36="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B36)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B36,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B36" s="109"/>
@@ -22081,7 +22830,7 @@
     </row>
     <row r="37" spans="1:10" ht="15">
       <c r="A37" s="108" t="str">
-        <f>IF(B37="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B37,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B37="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B37)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B37,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B37" s="109"/>
@@ -22219,7 +22968,7 @@
     </row>
     <row r="43" spans="1:10" ht="15">
       <c r="A43" s="108" t="str">
-        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B43="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B43)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B43,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B43" s="109"/>
@@ -22237,7 +22986,7 @@
     </row>
     <row r="44" spans="1:10" ht="15">
       <c r="A44" s="108" t="str">
-        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B44="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B44)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B44,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B44" s="109"/>
@@ -22255,10 +23004,12 @@
     </row>
     <row r="45" spans="1:10" ht="15">
       <c r="A45" s="108" t="str">
-        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B45" s="109"/>
+        <f>IF(B45="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B45)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B45,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>acfr:DueToComponentUnit</v>
+      </c>
+      <c r="B45" s="109" t="s">
+        <v>281</v>
+      </c>
       <c r="C45" s="208"/>
       <c r="D45" s="208"/>
       <c r="E45" s="208"/>
@@ -22273,7 +23024,7 @@
     </row>
     <row r="46" spans="1:10" ht="16" customHeight="1">
       <c r="A46" s="108" t="str">
-        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B46="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B46)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B46,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B46" s="109"/>
@@ -22291,7 +23042,7 @@
     </row>
     <row r="47" spans="1:10" ht="16" customHeight="1">
       <c r="A47" s="108" t="str">
-        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B47="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B47)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B47,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B47" s="109"/>
@@ -22309,7 +23060,7 @@
     </row>
     <row r="48" spans="1:10" ht="16" hidden="1" customHeight="1">
       <c r="A48" s="108" t="str">
-        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B48="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B48)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B48,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B48" s="109"/>
@@ -22327,7 +23078,7 @@
     </row>
     <row r="49" spans="1:10" ht="16" hidden="1" customHeight="1">
       <c r="A49" s="108" t="str">
-        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B49="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B49)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B49,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B49" s="109"/>
@@ -22345,7 +23096,7 @@
     </row>
     <row r="50" spans="1:10" ht="16" hidden="1" customHeight="1">
       <c r="A50" s="108" t="str">
-        <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B50="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B50)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B50,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B50" s="109"/>
@@ -22363,7 +23114,7 @@
     </row>
     <row r="51" spans="1:10" ht="15" hidden="1">
       <c r="A51" s="108" t="str">
-        <f>IF(B51="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B51,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B51="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B51)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B51,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B51" s="109"/>
@@ -22381,7 +23132,7 @@
     </row>
     <row r="52" spans="1:10" ht="15" hidden="1">
       <c r="A52" s="108" t="str">
-        <f>IF(B52="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B52,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B52="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B52)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B52,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B52" s="109"/>
@@ -22399,7 +23150,7 @@
     </row>
     <row r="53" spans="1:10" ht="15">
       <c r="A53" s="108" t="str">
-        <f>IF(B53="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B53,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B53="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B53)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B53,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B53" s="109"/>
@@ -22471,7 +23222,7 @@
     </row>
     <row r="56" spans="1:10" ht="15">
       <c r="A56" s="108" t="str">
-        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B56="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B56)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B56,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B56" s="109"/>
@@ -22483,13 +23234,13 @@
       <c r="H56" s="208"/>
       <c r="I56" s="208"/>
       <c r="J56" s="231">
-        <f t="shared" ref="J56:J66" si="9">IF(J$7="","",SUM(D56:I56))</f>
+        <f t="shared" ref="J56:J69" si="9">IF(J$7="","",SUM(D56:I56))</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15">
       <c r="A57" s="108" t="str">
-        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B57="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B57)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B57,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B57" s="109"/>
@@ -22507,7 +23258,7 @@
     </row>
     <row r="58" spans="1:10" ht="15">
       <c r="A58" s="108" t="str">
-        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B58="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B58)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B58,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B58" s="109"/>
@@ -22525,7 +23276,7 @@
     </row>
     <row r="59" spans="1:10" ht="15" hidden="1">
       <c r="A59" s="108" t="str">
-        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B59="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B59)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B59,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B59" s="109"/>
@@ -22543,7 +23294,7 @@
     </row>
     <row r="60" spans="1:10" ht="15" hidden="1">
       <c r="A60" s="108" t="str">
-        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B60="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B60)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B60,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B60" s="109"/>
@@ -22561,7 +23312,7 @@
     </row>
     <row r="61" spans="1:10" ht="15" hidden="1">
       <c r="A61" s="108" t="str">
-        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B61="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B61)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B61,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B61" s="109"/>
@@ -22579,7 +23330,7 @@
     </row>
     <row r="62" spans="1:10" ht="15" hidden="1">
       <c r="A62" s="108" t="str">
-        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B62="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B62)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B62,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B62" s="109"/>
@@ -22597,7 +23348,7 @@
     </row>
     <row r="63" spans="1:10" ht="15" hidden="1">
       <c r="A63" s="108" t="str">
-        <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B63="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B63)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B63,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B63" s="109"/>
@@ -22615,7 +23366,7 @@
     </row>
     <row r="64" spans="1:10" ht="15">
       <c r="A64" s="108" t="str">
-        <f>IF(B64="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B64,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B64="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B64)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B64,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B64" s="109"/>
@@ -22632,168 +23383,159 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="15">
-      <c r="A65" s="108" t="s">
+      <c r="A65" s="108" t="str">
+        <f>IF(B65="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B65)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B65,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B65" s="109"/>
+      <c r="C65" s="208"/>
+      <c r="D65" s="208"/>
+      <c r="E65" s="208"/>
+      <c r="F65" s="208"/>
+      <c r="G65" s="208"/>
+      <c r="H65" s="208"/>
+      <c r="I65" s="208"/>
+      <c r="J65" s="231"/>
+    </row>
+    <row r="66" spans="1:10" ht="15">
+      <c r="A66" s="108" t="str">
+        <f>IF(B66="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B66)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B66,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B66" s="109"/>
+      <c r="C66" s="208"/>
+      <c r="D66" s="208"/>
+      <c r="E66" s="208"/>
+      <c r="F66" s="208"/>
+      <c r="G66" s="208"/>
+      <c r="H66" s="208"/>
+      <c r="I66" s="208"/>
+      <c r="J66" s="231"/>
+    </row>
+    <row r="67" spans="1:10" ht="15">
+      <c r="A67" s="108" t="str">
+        <f>IF(B67="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B67)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B67,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B67" s="109"/>
+      <c r="C67" s="208"/>
+      <c r="D67" s="208"/>
+      <c r="E67" s="208"/>
+      <c r="F67" s="208"/>
+      <c r="G67" s="208"/>
+      <c r="H67" s="208"/>
+      <c r="I67" s="208"/>
+      <c r="J67" s="231"/>
+    </row>
+    <row r="68" spans="1:10" ht="15">
+      <c r="A68" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="108" t="s">
+      <c r="B68" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="231">
+      <c r="C68" s="231">
         <f>SUM(C56:C64)</f>
         <v>0</v>
       </c>
-      <c r="D65" s="231" t="str">
-        <f t="shared" ref="D65:I65" si="11">IF(D$7="Type fund name","",SUM(D56:D64))</f>
+      <c r="D68" s="231" t="str">
+        <f t="shared" ref="D68:I68" si="11">IF(D$7="Type fund name","",SUM(D56:D64))</f>
         <v/>
       </c>
-      <c r="E65" s="231" t="str">
+      <c r="E68" s="231" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F65" s="231" t="str">
+      <c r="F68" s="231" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="G65" s="231" t="str">
+      <c r="G68" s="231" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="H65" s="231" t="str">
+      <c r="H68" s="231" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="I65" s="231" t="str">
+      <c r="I68" s="231" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J65" s="231">
+      <c r="J68" s="231">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15">
-      <c r="A66" s="114" t="s">
+    <row r="69" spans="1:10" ht="15">
+      <c r="A69" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="111" t="s">
+      <c r="B69" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="219">
-        <f>C54+C65</f>
+      <c r="C69" s="219">
+        <f>C54+C68</f>
         <v>0</v>
       </c>
-      <c r="D66" s="219" t="str">
-        <f t="shared" ref="D66:I66" si="12">IF(D$7 = "Type fund name", "", D54+D65)</f>
+      <c r="D69" s="219" t="str">
+        <f t="shared" ref="D69:I69" si="12">IF(D$7 = "Type fund name", "", D54+D68)</f>
         <v/>
       </c>
-      <c r="E66" s="219" t="str">
+      <c r="E69" s="219" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="F66" s="219" t="str">
+      <c r="F69" s="219" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="G66" s="219" t="str">
+      <c r="G69" s="219" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H66" s="219" t="str">
+      <c r="H69" s="219" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="I66" s="219" t="str">
+      <c r="I69" s="219" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="J66" s="233">
+      <c r="J69" s="233">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15">
-      <c r="A67" s="104"/>
-      <c r="B67" s="104"/>
-      <c r="C67" s="112"/>
-      <c r="D67" s="112"/>
-      <c r="E67" s="112"/>
-      <c r="F67" s="112"/>
-      <c r="G67" s="112"/>
-      <c r="H67" s="112"/>
-      <c r="I67" s="112"/>
-      <c r="J67" s="107"/>
-    </row>
-    <row r="68" spans="1:10" ht="15">
-      <c r="A68" s="104"/>
-      <c r="B68" s="105" t="s">
+    <row r="70" spans="1:10" ht="15">
+      <c r="A70" s="104"/>
+      <c r="B70" s="104"/>
+      <c r="C70" s="112"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="112"/>
+      <c r="F70" s="112"/>
+      <c r="G70" s="112"/>
+      <c r="H70" s="112"/>
+      <c r="I70" s="112"/>
+      <c r="J70" s="107"/>
+    </row>
+    <row r="71" spans="1:10" ht="15">
+      <c r="A71" s="104"/>
+      <c r="B71" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="105"/>
-      <c r="D68" s="105"/>
-      <c r="E68" s="105"/>
-      <c r="F68" s="105"/>
-      <c r="G68" s="105"/>
-      <c r="H68" s="105"/>
-      <c r="I68" s="105"/>
-      <c r="J68" s="115"/>
-    </row>
-    <row r="69" spans="1:10" ht="15">
-      <c r="A69" s="108" t="str">
-        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B69" s="109"/>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="208"/>
-      <c r="F69" s="208"/>
-      <c r="G69" s="208"/>
-      <c r="H69" s="208"/>
-      <c r="I69" s="208"/>
-      <c r="J69" s="231">
-        <f t="shared" ref="J69:J78" si="13">IF(J$7="","",SUM(D69:I69))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="15">
-      <c r="A70" s="108" t="str">
-        <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B70" s="109"/>
-      <c r="C70" s="208"/>
-      <c r="D70" s="208"/>
-      <c r="E70" s="208"/>
-      <c r="F70" s="208"/>
-      <c r="G70" s="208"/>
-      <c r="H70" s="208"/>
-      <c r="I70" s="208"/>
-      <c r="J70" s="231">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="15">
-      <c r="A71" s="108" t="str">
-        <f>IF(B71="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B71,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B71" s="109"/>
-      <c r="C71" s="208"/>
-      <c r="D71" s="208"/>
-      <c r="E71" s="208"/>
-      <c r="F71" s="208"/>
-      <c r="G71" s="208"/>
-      <c r="H71" s="208"/>
-      <c r="I71" s="208"/>
-      <c r="J71" s="231">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="15" hidden="1">
+      <c r="C71" s="105"/>
+      <c r="D71" s="105"/>
+      <c r="E71" s="105"/>
+      <c r="F71" s="105"/>
+      <c r="G71" s="105"/>
+      <c r="H71" s="105"/>
+      <c r="I71" s="105"/>
+      <c r="J71" s="115"/>
+    </row>
+    <row r="72" spans="1:10" ht="15">
       <c r="A72" s="108" t="str">
-        <f>IF(B72="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B72,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B72="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B72)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B72,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B72" s="109"/>
@@ -22805,13 +23547,13 @@
       <c r="H72" s="208"/>
       <c r="I72" s="208"/>
       <c r="J72" s="231">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="J72:J81" si="13">IF(J$7="","",SUM(D72:I72))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" hidden="1">
+    <row r="73" spans="1:10" ht="15">
       <c r="A73" s="108" t="str">
-        <f>IF(B73="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B73,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B73="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B73)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B73,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B73" s="109"/>
@@ -22827,9 +23569,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15" hidden="1">
+    <row r="74" spans="1:10" ht="15">
       <c r="A74" s="108" t="str">
-        <f>IF(B74="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B74,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B74="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B74)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B74,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B74" s="109"/>
@@ -22847,7 +23589,7 @@
     </row>
     <row r="75" spans="1:10" ht="15" hidden="1">
       <c r="A75" s="108" t="str">
-        <f>IF(B75="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B75,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B75="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B75)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B75,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B75" s="109"/>
@@ -22865,7 +23607,7 @@
     </row>
     <row r="76" spans="1:10" ht="15" hidden="1">
       <c r="A76" s="108" t="str">
-        <f>IF(B76="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B76,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B76="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B76)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B76,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B76" s="109"/>
@@ -22881,9 +23623,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15">
+    <row r="77" spans="1:10" ht="15" hidden="1">
       <c r="A77" s="108" t="str">
-        <f>IF(B77="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B77,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B77="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B77)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B77,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B77" s="109"/>
@@ -22899,105 +23641,156 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15">
-      <c r="A78" s="111" t="s">
+    <row r="78" spans="1:10" ht="15" hidden="1">
+      <c r="A78" s="108" t="str">
+        <f>IF(B78="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B78)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B78,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B78" s="109"/>
+      <c r="C78" s="208"/>
+      <c r="D78" s="208"/>
+      <c r="E78" s="208"/>
+      <c r="F78" s="208"/>
+      <c r="G78" s="208"/>
+      <c r="H78" s="208"/>
+      <c r="I78" s="208"/>
+      <c r="J78" s="231">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15" hidden="1">
+      <c r="A79" s="108" t="str">
+        <f>IF(B79="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B79)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B79,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B79" s="109"/>
+      <c r="C79" s="208"/>
+      <c r="D79" s="208"/>
+      <c r="E79" s="208"/>
+      <c r="F79" s="208"/>
+      <c r="G79" s="208"/>
+      <c r="H79" s="208"/>
+      <c r="I79" s="208"/>
+      <c r="J79" s="231">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15">
+      <c r="A80" s="108" t="str">
+        <f>IF(B80="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B80)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B80,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B80" s="109"/>
+      <c r="C80" s="208"/>
+      <c r="D80" s="208"/>
+      <c r="E80" s="208"/>
+      <c r="F80" s="208"/>
+      <c r="G80" s="208"/>
+      <c r="H80" s="208"/>
+      <c r="I80" s="208"/>
+      <c r="J80" s="231">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15">
+      <c r="A81" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B78" s="111" t="s">
+      <c r="B81" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="219">
-        <f>IF(C7="","",SUM(C69:C77))</f>
+      <c r="C81" s="219">
+        <f>IF(C7="","",SUM(C72:C80))</f>
         <v>0</v>
       </c>
-      <c r="D78" s="219" t="str">
-        <f t="shared" ref="D78:I78" si="14">IF(D7="Type fund name","",SUM(D69:D77))</f>
+      <c r="D81" s="219" t="str">
+        <f t="shared" ref="D81:I81" si="14">IF(D7="Type fund name","",SUM(D72:D80))</f>
         <v/>
       </c>
-      <c r="E78" s="219" t="str">
+      <c r="E81" s="219" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="F78" s="219" t="str">
+      <c r="F81" s="219" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="G78" s="219" t="str">
+      <c r="G81" s="219" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="H78" s="219" t="str">
+      <c r="H81" s="219" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="I78" s="219" t="str">
+      <c r="I81" s="219" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="J78" s="232">
+      <c r="J81" s="232">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="16">
-      <c r="C79" s="116"/>
-      <c r="D79" s="116"/>
-      <c r="E79" s="116"/>
-      <c r="F79" s="116"/>
-      <c r="G79" s="116"/>
-      <c r="H79" s="116"/>
-      <c r="I79" s="116"/>
-      <c r="J79" s="112"/>
-    </row>
-    <row r="80" spans="1:10" ht="15">
-      <c r="J80" s="112"/>
-    </row>
-    <row r="81" spans="10:10" ht="15">
-      <c r="J81" s="112"/>
-    </row>
-    <row r="82" spans="10:10" ht="15">
+    <row r="82" spans="1:10" ht="16">
+      <c r="C82" s="116"/>
+      <c r="D82" s="116"/>
+      <c r="E82" s="116"/>
+      <c r="F82" s="116"/>
+      <c r="G82" s="116"/>
+      <c r="H82" s="116"/>
+      <c r="I82" s="116"/>
       <c r="J82" s="112"/>
     </row>
-    <row r="83" spans="10:10" ht="15">
+    <row r="83" spans="1:10" ht="15">
       <c r="J83" s="112"/>
     </row>
-    <row r="84" spans="10:10" ht="15">
+    <row r="84" spans="1:10" ht="15">
+      <c r="A84" s="257"/>
+      <c r="B84" s="262" t="s">
+        <v>3636</v>
+      </c>
       <c r="J84" s="112"/>
     </row>
-    <row r="85" spans="10:10" ht="15">
+    <row r="85" spans="1:10" ht="15">
+      <c r="A85" s="257"/>
+      <c r="B85" s="263"/>
       <c r="J85" s="112"/>
     </row>
-    <row r="86" spans="10:10" ht="15">
+    <row r="86" spans="1:10" ht="15">
       <c r="J86" s="112"/>
     </row>
-    <row r="87" spans="10:10" ht="15">
+    <row r="87" spans="1:10" ht="15">
       <c r="J87" s="112"/>
     </row>
-    <row r="88" spans="10:10" ht="15">
+    <row r="88" spans="1:10" ht="15">
       <c r="J88" s="112"/>
     </row>
-    <row r="89" spans="10:10" ht="15">
+    <row r="89" spans="1:10" ht="15">
       <c r="J89" s="112"/>
     </row>
-    <row r="90" spans="10:10" ht="15">
+    <row r="90" spans="1:10" ht="15">
       <c r="J90" s="112"/>
     </row>
-    <row r="91" spans="10:10" ht="15">
+    <row r="91" spans="1:10" ht="15">
       <c r="J91" s="112"/>
     </row>
-    <row r="92" spans="10:10" ht="15">
+    <row r="92" spans="1:10" ht="15">
       <c r="J92" s="112"/>
     </row>
-    <row r="93" spans="10:10" ht="15">
+    <row r="93" spans="1:10" ht="15">
       <c r="J93" s="112"/>
     </row>
-    <row r="94" spans="10:10" ht="15">
+    <row r="94" spans="1:10" ht="15">
       <c r="J94" s="112"/>
     </row>
-    <row r="95" spans="10:10" ht="15">
+    <row r="95" spans="1:10" ht="15">
       <c r="J95" s="112"/>
     </row>
-    <row r="96" spans="10:10" ht="15">
+    <row r="96" spans="1:10" ht="15">
       <c r="J96" s="112"/>
     </row>
     <row r="97" spans="10:10" ht="15">
@@ -23030,42 +23823,98 @@
     <row r="106" spans="10:10" ht="15">
       <c r="J106" s="112"/>
     </row>
+    <row r="107" spans="10:10" ht="15">
+      <c r="J107" s="112"/>
+    </row>
+    <row r="108" spans="10:10" ht="15">
+      <c r="J108" s="112"/>
+    </row>
+    <row r="109" spans="10:10" ht="15">
+      <c r="J109" s="112"/>
+    </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
-  <conditionalFormatting sqref="C24 C38 C54:I54 C65:C66 C78:I78">
-    <cfRule type="expression" dxfId="30" priority="6" stopIfTrue="1">
+  <mergeCells count="1">
+    <mergeCell ref="B84:B85"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A10:A23">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:A37">
+    <cfRule type="containsText" dxfId="42" priority="4" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:A53">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:A67">
+    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:A80">
+    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24 C38 C54:I54 C68:C69 C81:I81">
+    <cfRule type="expression" dxfId="38" priority="11" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65:I65">
-    <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="D68:I68">
+    <cfRule type="expression" dxfId="37" priority="9" stopIfTrue="1">
       <formula>D$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="28" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="8" stopIfTrue="1">
       <formula>K$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:B53" xr:uid="{3020B3D5-A2C3-4F4B-8EFD-A19414110BEC}">
-      <formula1>current_liabilities</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56:B64" xr:uid="{0AF5B33B-114A-5D47-AC98-0EF208D28A50}">
-      <formula1>noncurrent_liabilities</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69:B77" xr:uid="{62718926-C752-384A-817F-8A854F7BD996}">
-      <formula1>net_position</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26:B37" xr:uid="{E796ED53-BB10-BA41-A5DA-36CA177F44A2}">
-      <formula1>noncurrent_assets</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B23" xr:uid="{BEF100DB-73F2-E445-82C4-2C8C8EBF4AB4}">
-      <formula1>current_assets</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{3020B3D5-A2C3-4F4B-8EFD-A19414110BEC}">
+          <x14:formula1>
+            <xm:f>'Lookup Net Position'!$B$202:$B$315</xm:f>
+          </x14:formula1>
+          <xm:sqref>B43:B53</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{0AF5B33B-114A-5D47-AC98-0EF208D28A50}">
+          <x14:formula1>
+            <xm:f>'Lookup Net Position'!$B$469:$B$514</xm:f>
+          </x14:formula1>
+          <xm:sqref>B56:B67</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{62718926-C752-384A-817F-8A854F7BD996}">
+          <x14:formula1>
+            <xm:f>'Lookup Net Position'!$B$355:$B$375</xm:f>
+          </x14:formula1>
+          <xm:sqref>B72:B80</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{E796ED53-BB10-BA41-A5DA-36CA177F44A2}">
+          <x14:formula1>
+            <xm:f>'Lookup Net Position'!$B$376:$B$468</xm:f>
+          </x14:formula1>
+          <xm:sqref>B26:B37</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{BEF100DB-73F2-E445-82C4-2C8C8EBF4AB4}">
+          <x14:formula1>
+            <xm:f>'Lookup Net Position'!$B$2:$B$201</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10:B23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -23076,13 +23925,13 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A14" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="84" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="84" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="84" customWidth="1"/>
     <col min="3" max="10" width="18.6640625" style="84" customWidth="1"/>
     <col min="11" max="16384" width="9" style="84"/>
@@ -23229,7 +24078,7 @@
     </row>
     <row r="9" spans="1:10" ht="15">
       <c r="A9" s="108" t="str">
-        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B9="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B9) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B9, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B9" s="133"/>
@@ -23247,7 +24096,7 @@
     </row>
     <row r="10" spans="1:10" ht="15">
       <c r="A10" s="108" t="str">
-        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B10="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B10) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B10, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B10" s="133"/>
@@ -23265,7 +24114,7 @@
     </row>
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="108" t="str">
-        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B11="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B11) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B11, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B11" s="133"/>
@@ -23283,7 +24132,7 @@
     </row>
     <row r="12" spans="1:10" ht="15">
       <c r="A12" s="108" t="str">
-        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B12="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B12) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B12, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B12" s="133"/>
@@ -23301,7 +24150,7 @@
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="108" t="str">
-        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B13="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B13) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B13, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B13" s="133"/>
@@ -23319,7 +24168,7 @@
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="108" t="str">
-        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B14="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B14) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B14, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B14" s="133"/>
@@ -23337,7 +24186,7 @@
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="108" t="str">
-        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B15="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B15) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B15, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B15" s="133"/>
@@ -23355,7 +24204,7 @@
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="108" t="str">
-        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B16="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B16) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B16, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B16" s="133"/>
@@ -23373,7 +24222,7 @@
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="108" t="str">
-        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B17="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B17) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B17, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B17" s="133"/>
@@ -23391,7 +24240,7 @@
     </row>
     <row r="18" spans="1:10" ht="15" hidden="1">
       <c r="A18" s="108" t="str">
-        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B18="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B18) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B18, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B18" s="133"/>
@@ -23409,7 +24258,7 @@
     </row>
     <row r="19" spans="1:10" ht="15" hidden="1">
       <c r="A19" s="108" t="str">
-        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B19="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B19) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B19, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B19" s="133"/>
@@ -23427,7 +24276,7 @@
     </row>
     <row r="20" spans="1:10" ht="15" hidden="1">
       <c r="A20" s="108" t="str">
-        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B20="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B20) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B20, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B20" s="133"/>
@@ -23445,7 +24294,7 @@
     </row>
     <row r="21" spans="1:10" ht="15" hidden="1">
       <c r="A21" s="108" t="str">
-        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B21="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B21) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B21, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B21" s="133"/>
@@ -23463,7 +24312,7 @@
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="108" t="str">
-        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B22="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B22) = 0, "acfr:OperatingRevenueCustom", _xlfn.XLOOKUP(B22, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B22" s="133"/>
@@ -23547,7 +24396,7 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="108" t="str">
-        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B26="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B26) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B26, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B26" s="133"/>
@@ -23565,7 +24414,7 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="108" t="str">
-        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B27="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B27) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B27, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B27" s="133"/>
@@ -23583,7 +24432,7 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="108" t="str">
-        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B28="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B28) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B28, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B28" s="133"/>
@@ -23601,7 +24450,7 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="108" t="str">
-        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B29="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B29) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B29, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B29" s="133"/>
@@ -23619,7 +24468,7 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="108" t="str">
-        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B30="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B30) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B30, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B30" s="133"/>
@@ -23637,7 +24486,7 @@
     </row>
     <row r="31" spans="1:10" ht="15" hidden="1">
       <c r="A31" s="108" t="str">
-        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B31="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B31) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B31, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B31" s="133"/>
@@ -23655,7 +24504,7 @@
     </row>
     <row r="32" spans="1:10" ht="15" hidden="1">
       <c r="A32" s="108" t="str">
-        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B32="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B32) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B32, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B32" s="133"/>
@@ -23673,7 +24522,7 @@
     </row>
     <row r="33" spans="1:10" ht="15" hidden="1">
       <c r="A33" s="108" t="str">
-        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B33="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B33) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B33, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B33" s="133"/>
@@ -23691,7 +24540,7 @@
     </row>
     <row r="34" spans="1:10" ht="15" hidden="1">
       <c r="A34" s="108" t="str">
-        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B34="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B34) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B34, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B34" s="133"/>
@@ -23709,7 +24558,7 @@
     </row>
     <row r="35" spans="1:10" ht="15" hidden="1">
       <c r="A35" s="108" t="str">
-        <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B35,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B35="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B35) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B35, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B35" s="133"/>
@@ -23727,7 +24576,7 @@
     </row>
     <row r="36" spans="1:10" ht="15" hidden="1">
       <c r="A36" s="108" t="str">
-        <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B36,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B36="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B36) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B36, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B36" s="133"/>
@@ -23745,7 +24594,7 @@
     </row>
     <row r="37" spans="1:10" ht="15">
       <c r="A37" s="108" t="str">
-        <f>IF(B37="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B37,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B37="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B37) = 0, "acfr:OperatingExpensesCustom", _xlfn.XLOOKUP(B37, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B37" s="133"/>
@@ -23829,7 +24678,7 @@
     </row>
     <row r="41" spans="1:10" ht="15">
       <c r="A41" s="108" t="str">
-        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B41,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B41="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B41) = 0, "acfr:NonoperatingRevenuesExpensesCustom", _xlfn.XLOOKUP(B41, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B41" s="109"/>
@@ -23844,7 +24693,7 @@
     </row>
     <row r="42" spans="1:10" ht="15">
       <c r="A42" s="108" t="str">
-        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B42="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B42) = 0, "acfr:NonoperatingRevenuesExpensesCustom", _xlfn.XLOOKUP(B42, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B42" s="109"/>
@@ -23862,7 +24711,7 @@
     </row>
     <row r="43" spans="1:10" ht="15">
       <c r="A43" s="108" t="str">
-        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B43="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B43) = 0, "acfr:NonoperatingRevenuesExpensesCustom", _xlfn.XLOOKUP(B43, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B43" s="109"/>
@@ -23880,7 +24729,7 @@
     </row>
     <row r="44" spans="1:10" ht="16" customHeight="1">
       <c r="A44" s="108" t="str">
-        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B44="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B44) = 0, "acfr:NonoperatingRevenuesExpensesCustom", _xlfn.XLOOKUP(B44, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B44" s="109"/>
@@ -23898,7 +24747,7 @@
     </row>
     <row r="45" spans="1:10" ht="16" customHeight="1">
       <c r="A45" s="108" t="str">
-        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B45="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B45) = 0, "acfr:NonoperatingRevenuesExpensesCustom", _xlfn.XLOOKUP(B45, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B45" s="109"/>
@@ -23916,7 +24765,7 @@
     </row>
     <row r="46" spans="1:10" ht="16" hidden="1" customHeight="1">
       <c r="A46" s="108" t="str">
-        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B46="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B46) = 0, "acfr:NonoperatingRevenuesExpensesCustom", _xlfn.XLOOKUP(B46, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B46" s="109"/>
@@ -23934,7 +24783,7 @@
     </row>
     <row r="47" spans="1:10" ht="16" hidden="1" customHeight="1">
       <c r="A47" s="108" t="str">
-        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B47="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B47) = 0, "acfr:NonoperatingRevenuesExpensesCustom", _xlfn.XLOOKUP(B47, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B47" s="109"/>
@@ -23952,7 +24801,7 @@
     </row>
     <row r="48" spans="1:10" ht="16" hidden="1" customHeight="1">
       <c r="A48" s="108" t="str">
-        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B48="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B48) = 0, "acfr:NonoperatingRevenuesExpensesCustom", _xlfn.XLOOKUP(B48, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B48" s="109"/>
@@ -23970,7 +24819,7 @@
     </row>
     <row r="49" spans="1:10" ht="15" hidden="1">
       <c r="A49" s="108" t="str">
-        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B49="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B49) = 0, "acfr:NonoperatingRevenuesExpensesCustom", _xlfn.XLOOKUP(B49, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B49" s="109"/>
@@ -23988,7 +24837,7 @@
     </row>
     <row r="50" spans="1:10" ht="15" hidden="1">
       <c r="A50" s="108" t="str">
-        <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B50="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B50) = 0, "acfr:NonoperatingRevenuesExpensesCustom", _xlfn.XLOOKUP(B50, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B50" s="109"/>
@@ -24006,7 +24855,7 @@
     </row>
     <row r="51" spans="1:10" ht="15">
       <c r="A51" s="108" t="str">
-        <f>IF(B51="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B51,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B51="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B51) = 0, "acfr:NonoperatingRevenuesExpensesCustom", _xlfn.XLOOKUP(B51, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B51" s="109"/>
@@ -24130,7 +24979,7 @@
     </row>
     <row r="56" spans="1:10" ht="15">
       <c r="A56" s="108" t="str">
-        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B56="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B56) = 0, "acfr:ContributionsCustom", _xlfn.XLOOKUP(B56, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B56" s="109"/>
@@ -24148,7 +24997,7 @@
     </row>
     <row r="57" spans="1:10" ht="15">
       <c r="A57" s="108" t="str">
-        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B57="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B57) = 0, "acfr:ContributionsCustom", _xlfn.XLOOKUP(B57, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B57" s="109"/>
@@ -24166,7 +25015,7 @@
     </row>
     <row r="58" spans="1:10" ht="15">
       <c r="A58" s="108" t="str">
-        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B58="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B58) = 0, "acfr:ContributionsCustom", _xlfn.XLOOKUP(B58, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B58" s="109"/>
@@ -24184,7 +25033,7 @@
     </row>
     <row r="59" spans="1:10" ht="15">
       <c r="A59" s="108" t="str">
-        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B59="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B59) = 0, "acfr:ContributionsCustom", _xlfn.XLOOKUP(B59, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B59" s="109"/>
@@ -24202,7 +25051,7 @@
     </row>
     <row r="60" spans="1:10" ht="15" hidden="1">
       <c r="A60" s="108" t="str">
-        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B60="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B60) = 0, "acfr:ContributionsCustom", _xlfn.XLOOKUP(B60, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B60" s="109"/>
@@ -24220,7 +25069,7 @@
     </row>
     <row r="61" spans="1:10" ht="15" hidden="1">
       <c r="A61" s="108" t="str">
-        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B61="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B61) = 0, "acfr:ContributionsCustom", _xlfn.XLOOKUP(B61, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B61" s="109"/>
@@ -24238,7 +25087,7 @@
     </row>
     <row r="62" spans="1:10" ht="15" hidden="1">
       <c r="A62" s="108" t="str">
-        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B62="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B62) = 0, "acfr:ContributionsCustom", _xlfn.XLOOKUP(B62, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B62" s="109"/>
@@ -24256,7 +25105,7 @@
     </row>
     <row r="63" spans="1:10" ht="15" hidden="1">
       <c r="A63" s="108" t="str">
-        <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B63="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B63) = 0, "acfr:ContributionsCustom", _xlfn.XLOOKUP(B63, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B63" s="109"/>
@@ -24274,7 +25123,7 @@
     </row>
     <row r="64" spans="1:10" ht="15">
       <c r="A64" s="108" t="str">
-        <f>IF(B64="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B64,'Lookup PropFunds'!$A$2:$A$296,'Lookup PropFunds'!$C$2:$C$296))</f>
+        <f>IF(B64="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds'!$A$2:$A$296, B64) = 0, "acfr:ContributionsCustom", _xlfn.XLOOKUP(B64, 'Lookup PropFunds'!$A$2:$A$296, 'Lookup PropFunds'!$C$2:$C$296)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B64" s="109"/>
@@ -24466,9 +25315,15 @@
       <c r="J72" s="112"/>
     </row>
     <row r="73" spans="1:10" ht="15">
+      <c r="A73" s="259"/>
+      <c r="B73" s="271" t="s">
+        <v>3636</v>
+      </c>
       <c r="J73" s="112"/>
     </row>
     <row r="74" spans="1:10" ht="15">
+      <c r="A74" s="259"/>
+      <c r="B74" s="272"/>
       <c r="J74" s="112"/>
     </row>
     <row r="75" spans="1:10" ht="15">
@@ -24548,39 +25403,62 @@
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="B73:B74"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A9:A22">
+    <cfRule type="containsText" dxfId="35" priority="4" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:A37">
+    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:A51">
+    <cfRule type="containsText" dxfId="33" priority="2" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:A64">
+    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C23:C24 C38:C39 C70:J70">
-    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="15" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="26" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="7" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:I54">
-    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="6" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:I66">
-    <cfRule type="expression" dxfId="24" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="5" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:J70">
-    <cfRule type="cellIs" dxfId="23" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="16" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:I70">
-    <cfRule type="expression" dxfId="20" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="19" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24589,25 +25467,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6FA5A616-5FB2-FA40-81D3-2AC8DD3447E2}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{6FA5A616-5FB2-FA40-81D3-2AC8DD3447E2}">
           <x14:formula1>
             <xm:f>'Lookup PropFunds'!$A$134:$A$246</xm:f>
           </x14:formula1>
           <xm:sqref>B41:B51</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{17875760-A80E-4E45-89DB-9E8399277505}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{17875760-A80E-4E45-89DB-9E8399277505}">
           <x14:formula1>
             <xm:f>'Lookup PropFunds'!$A$249:$A$262</xm:f>
           </x14:formula1>
           <xm:sqref>B56:B64</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EA644A82-E899-114D-AFE5-A9991B6DEBD7}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{EA644A82-E899-114D-AFE5-A9991B6DEBD7}">
           <x14:formula1>
             <xm:f>'Lookup PropFunds'!$A$59:$A$133</xm:f>
           </x14:formula1>
           <xm:sqref>B26:B37</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5D627255-0A0A-CF49-9F1C-1F96236A1988}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{5D627255-0A0A-CF49-9F1C-1F96236A1988}">
           <x14:formula1>
             <xm:f>'Lookup PropFunds'!$A$2:$A$57</xm:f>
           </x14:formula1>
@@ -24626,13 +25504,13 @@
   </sheetPr>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="84" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" style="84" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="84" customWidth="1"/>
     <col min="3" max="10" width="18.6640625" style="84" customWidth="1"/>
     <col min="11" max="16384" width="9" style="84"/>
@@ -24768,7 +25646,7 @@
     </row>
     <row r="9" spans="1:10" ht="15">
       <c r="A9" s="108" t="str">
-        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B9="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B9) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B9, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B9" s="109"/>
@@ -24786,7 +25664,7 @@
     </row>
     <row r="10" spans="1:10" ht="15">
       <c r="A10" s="108" t="str">
-        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B10="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B10) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B10, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B10" s="109"/>
@@ -24804,7 +25682,7 @@
     </row>
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="108" t="str">
-        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B11="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B11) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B11, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B11" s="109"/>
@@ -24822,7 +25700,7 @@
     </row>
     <row r="12" spans="1:10" ht="15">
       <c r="A12" s="108" t="str">
-        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B12="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B12) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B12, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B12" s="109"/>
@@ -24840,7 +25718,7 @@
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="108" t="str">
-        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B13="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B13) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B13, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B13" s="109"/>
@@ -24858,7 +25736,7 @@
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="108" t="str">
-        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B14="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B14) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B14, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B14" s="109"/>
@@ -24876,7 +25754,7 @@
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="108" t="str">
-        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B15="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B15) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B15, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B15" s="109"/>
@@ -24894,7 +25772,7 @@
     </row>
     <row r="16" spans="1:10" ht="15" hidden="1">
       <c r="A16" s="108" t="str">
-        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B16="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B16) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B16, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B16" s="109"/>
@@ -24912,7 +25790,7 @@
     </row>
     <row r="17" spans="1:10" ht="15" hidden="1">
       <c r="A17" s="108" t="str">
-        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B17="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B17) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B17, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B17" s="109"/>
@@ -24930,7 +25808,7 @@
     </row>
     <row r="18" spans="1:10" ht="15" hidden="1">
       <c r="A18" s="108" t="str">
-        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B18="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B18) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B18, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B18" s="109"/>
@@ -24948,7 +25826,7 @@
     </row>
     <row r="19" spans="1:10" ht="15" hidden="1">
       <c r="A19" s="108" t="str">
-        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B19="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B19) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B19, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B19" s="109"/>
@@ -24966,7 +25844,7 @@
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="108" t="str">
-        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B20="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B20) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B20, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B20" s="109"/>
@@ -24984,7 +25862,7 @@
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="108" t="str">
-        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B21="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B21) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B21, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B21" s="109"/>
@@ -25002,7 +25880,7 @@
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="108" t="str">
-        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B22="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B22) = 0, "acfr:CashFlowsFromOperatingActivitiesCustom", _xlfn.XLOOKUP(B22, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B22" s="109"/>
@@ -25086,7 +25964,8 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="108" t="str">
-        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B26="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B26) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B26, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B26" s="109"/>
@@ -25104,7 +25983,8 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="108" t="str">
-        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B27="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B27) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B27, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B27" s="109"/>
@@ -25122,7 +26002,8 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="108" t="str">
-        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B28="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B28) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B28, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B28" s="109"/>
@@ -25140,7 +26021,8 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="108" t="str">
-        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B29="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B29) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B29, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B29" s="109"/>
@@ -25158,7 +26040,8 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="108" t="str">
-        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B30="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B30) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B30, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B30" s="109"/>
@@ -25176,7 +26059,8 @@
     </row>
     <row r="31" spans="1:10" ht="15" hidden="1">
       <c r="A31" s="108" t="str">
-        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B31="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B31) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B31, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B31" s="109"/>
@@ -25194,7 +26078,8 @@
     </row>
     <row r="32" spans="1:10" ht="15" hidden="1">
       <c r="A32" s="108" t="str">
-        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B32="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B32) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B32, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B32" s="109"/>
@@ -25212,7 +26097,8 @@
     </row>
     <row r="33" spans="1:10" ht="15" hidden="1">
       <c r="A33" s="108" t="str">
-        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B33="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B33) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B33, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B33" s="109"/>
@@ -25230,7 +26116,8 @@
     </row>
     <row r="34" spans="1:10" ht="15" hidden="1">
       <c r="A34" s="108" t="str">
-        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B34="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B34) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B34, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B34" s="109"/>
@@ -25248,7 +26135,8 @@
     </row>
     <row r="35" spans="1:10" ht="15" hidden="1">
       <c r="A35" s="108" t="str">
-        <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B35,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B35="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B35) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B35, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B35" s="109"/>
@@ -25266,7 +26154,8 @@
     </row>
     <row r="36" spans="1:10" s="97" customFormat="1" ht="15">
       <c r="A36" s="108" t="str">
-        <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B36,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B36="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B36) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B36, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B36" s="109"/>
@@ -25284,7 +26173,8 @@
     </row>
     <row r="37" spans="1:10" ht="15">
       <c r="A37" s="108" t="str">
-        <f>IF(B37="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B37,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B37="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B37) = 0,
+"acfr:ProceedsFromPaymentsForOtherNonCapitalFinancingActivitiesCustom", _xlfn.XLOOKUP(B37, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B37" s="109"/>
@@ -25368,7 +26258,8 @@
     </row>
     <row r="41" spans="1:10" ht="15">
       <c r="A41" s="108" t="str">
-        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B41,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B41="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B41) = 0,
+"acfr:ProceedsFromPaymentsForOtherCapitalAndFinancingRelatedActivitiesCustom", _xlfn.XLOOKUP(B41, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B41" s="109"/>
@@ -25386,7 +26277,8 @@
     </row>
     <row r="42" spans="1:10" ht="16" customHeight="1">
       <c r="A42" s="108" t="str">
-        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B42="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B42) = 0,
+"acfr:ProceedsFromPaymentsForOtherCapitalAndFinancingRelatedActivitiesCustom", _xlfn.XLOOKUP(B42, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B42" s="109"/>
@@ -25404,7 +26296,8 @@
     </row>
     <row r="43" spans="1:10" ht="16" customHeight="1">
       <c r="A43" s="108" t="str">
-        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B43="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B43) = 0,
+"acfr:ProceedsFromPaymentsForOtherCapitalAndFinancingRelatedActivitiesCustom", _xlfn.XLOOKUP(B43, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B43" s="109"/>
@@ -25422,7 +26315,8 @@
     </row>
     <row r="44" spans="1:10" ht="16" customHeight="1">
       <c r="A44" s="108" t="str">
-        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B44="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B44) = 0,
+"acfr:ProceedsFromPaymentsForOtherCapitalAndFinancingRelatedActivitiesCustom", _xlfn.XLOOKUP(B44, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B44" s="109"/>
@@ -25440,7 +26334,8 @@
     </row>
     <row r="45" spans="1:10" ht="16" hidden="1" customHeight="1">
       <c r="A45" s="108" t="str">
-        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B45="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B45) = 0,
+"acfr:ProceedsFromPaymentsForOtherCapitalAndFinancingRelatedActivitiesCustom", _xlfn.XLOOKUP(B45, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B45" s="109"/>
@@ -25458,7 +26353,8 @@
     </row>
     <row r="46" spans="1:10" ht="16" hidden="1" customHeight="1">
       <c r="A46" s="108" t="str">
-        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B46="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B46) = 0,
+"acfr:ProceedsFromPaymentsForOtherCapitalAndFinancingRelatedActivitiesCustom", _xlfn.XLOOKUP(B46, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B46" s="109"/>
@@ -25476,7 +26372,8 @@
     </row>
     <row r="47" spans="1:10" ht="15" hidden="1">
       <c r="A47" s="108" t="str">
-        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B47="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B47) = 0,
+"acfr:ProceedsFromPaymentsForOtherCapitalAndFinancingRelatedActivitiesCustom", _xlfn.XLOOKUP(B47, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B47" s="109"/>
@@ -25494,7 +26391,8 @@
     </row>
     <row r="48" spans="1:10" ht="15" hidden="1">
       <c r="A48" s="108" t="str">
-        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B48="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B48) = 0,
+"acfr:ProceedsFromPaymentsForOtherCapitalAndFinancingRelatedActivitiesCustom", _xlfn.XLOOKUP(B48, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B48" s="109"/>
@@ -25512,7 +26410,8 @@
     </row>
     <row r="49" spans="1:10" ht="15" hidden="1">
       <c r="A49" s="108" t="str">
-        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B49="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B49) = 0,
+"acfr:ProceedsFromPaymentsForOtherCapitalAndFinancingRelatedActivitiesCustom", _xlfn.XLOOKUP(B49, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B49" s="109"/>
@@ -25530,7 +26429,8 @@
     </row>
     <row r="50" spans="1:10" ht="15">
       <c r="A50" s="108" t="str">
-        <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B50="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B50) = 0,
+"acfr:ProceedsFromPaymentsForOtherCapitalAndFinancingRelatedActivitiesCustom", _xlfn.XLOOKUP(B50, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B50" s="109"/>
@@ -25548,7 +26448,8 @@
     </row>
     <row r="51" spans="1:10" ht="15">
       <c r="A51" s="108" t="str">
-        <f>IF(B51="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B51,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B51="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B51) = 0,
+"acfr:ProceedsFromPaymentsForOtherCapitalAndFinancingRelatedActivitiesCustom", _xlfn.XLOOKUP(B51, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B51" s="109"/>
@@ -25632,7 +26533,8 @@
     </row>
     <row r="55" spans="1:10" ht="15">
       <c r="A55" s="108" t="str">
-        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B55="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B55) = 0,
+"acfr:ProceedsFromPaymentsForOtherInvestingActivitiesCustom", _xlfn.XLOOKUP(B55, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B55" s="109"/>
@@ -25650,7 +26552,8 @@
     </row>
     <row r="56" spans="1:10" ht="15">
       <c r="A56" s="108" t="str">
-        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B56="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B56) = 0,
+"acfr:ProceedsFromPaymentsForOtherInvestingActivitiesCustom", _xlfn.XLOOKUP(B56, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B56" s="109"/>
@@ -25668,7 +26571,8 @@
     </row>
     <row r="57" spans="1:10" ht="15" hidden="1">
       <c r="A57" s="108" t="str">
-        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B57="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B57) = 0,
+"acfr:ProceedsFromPaymentsForOtherInvestingActivitiesCustom", _xlfn.XLOOKUP(B57, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B57" s="109"/>
@@ -25686,7 +26590,8 @@
     </row>
     <row r="58" spans="1:10" ht="15" hidden="1">
       <c r="A58" s="108" t="str">
-        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B58="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B58) = 0,
+"acfr:ProceedsFromPaymentsForOtherInvestingActivitiesCustom", _xlfn.XLOOKUP(B58, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B58" s="109"/>
@@ -25704,7 +26609,8 @@
     </row>
     <row r="59" spans="1:10" ht="15" hidden="1">
       <c r="A59" s="108" t="str">
-        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B59="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B59) = 0,
+"acfr:ProceedsFromPaymentsForOtherInvestingActivitiesCustom", _xlfn.XLOOKUP(B59, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B59" s="109"/>
@@ -25722,7 +26628,8 @@
     </row>
     <row r="60" spans="1:10" ht="15" hidden="1">
       <c r="A60" s="108" t="str">
-        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B60="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B60) = 0,
+"acfr:ProceedsFromPaymentsForOtherInvestingActivitiesCustom", _xlfn.XLOOKUP(B60, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B60" s="109"/>
@@ -25740,7 +26647,8 @@
     </row>
     <row r="61" spans="1:10" ht="15" hidden="1">
       <c r="A61" s="108" t="str">
-        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B61="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B61) = 0,
+"acfr:ProceedsFromPaymentsForOtherInvestingActivitiesCustom", _xlfn.XLOOKUP(B61, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B61" s="109"/>
@@ -25758,7 +26666,8 @@
     </row>
     <row r="62" spans="1:10" ht="15">
       <c r="A62" s="108" t="str">
-        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B62="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B62) = 0,
+"acfr:ProceedsFromPaymentsForOtherInvestingActivitiesCustom", _xlfn.XLOOKUP(B62, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B62" s="109"/>
@@ -25776,7 +26685,8 @@
     </row>
     <row r="63" spans="1:10" ht="15">
       <c r="A63" s="108" t="str">
-        <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'Lookup PropFunds CashFlows'!$B$2:$B$74,'Lookup PropFunds CashFlows'!$C$2:$C$74))</f>
+        <f>IF(B63="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup PropFunds CashFlows'!$B$2:$B$74, B63) = 0,
+"acfr:ProceedsFromPaymentsForOtherInvestingActivitiesCustom", _xlfn.XLOOKUP(B63, 'Lookup PropFunds CashFlows'!$B$2:$B$74, 'Lookup PropFunds CashFlows'!$C$2:$C$74)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B63" s="109"/>
@@ -26039,8 +26949,10 @@
       <c r="J76" s="138"/>
     </row>
     <row r="77" spans="1:10" ht="15">
-      <c r="A77" s="104"/>
-      <c r="B77" s="154"/>
+      <c r="A77" s="257"/>
+      <c r="B77" s="262" t="s">
+        <v>3636</v>
+      </c>
       <c r="C77" s="155"/>
       <c r="D77" s="155"/>
       <c r="E77" s="155"/>
@@ -26051,8 +26963,8 @@
       <c r="J77" s="138"/>
     </row>
     <row r="78" spans="1:10" ht="15">
-      <c r="A78" s="104"/>
-      <c r="B78" s="154"/>
+      <c r="A78" s="257"/>
+      <c r="B78" s="263"/>
       <c r="C78" s="155"/>
       <c r="D78" s="155"/>
       <c r="E78" s="155"/>
@@ -26074,92 +26986,115 @@
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="B77:B78"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A9:A22">
+    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:A37">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:A51">
+    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:A63">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="19" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="18" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:I24 C53:I53">
-    <cfRule type="expression" dxfId="17" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="28" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:I52">
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:I64">
-    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:I69">
-    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:J65">
     <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
-      <formula>#REF!=""</formula>
+      <formula>D$7=""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
-      <formula>D$7=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="notEqual">
       <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+      <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:J69">
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="6" priority="14" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="12" stopIfTrue="1">
       <formula>D$7=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="notEqual">
-      <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J4 J8:J22 J24:J64 J70:J1048574">
-    <cfRule type="expression" dxfId="4" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="23" stopIfTrue="1">
       <formula>COUNTA(D2:I2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J22 J24:J64 J70:J78">
-    <cfRule type="expression" dxfId="3" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="84" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+      <formula>#REF!=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>COUNTA(D69:I69)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1048575:J1048576">
-    <cfRule type="expression" dxfId="0" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="86" stopIfTrue="1">
       <formula>COUNTA(D1:I3)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:B78" xr:uid="{98ECD2C2-C0B9-E74C-B5D0-14A316D496F4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:B76" xr:uid="{98ECD2C2-C0B9-E74C-B5D0-14A316D496F4}">
       <formula1>net_position</formula1>
     </dataValidation>
   </dataValidations>
@@ -26168,25 +27103,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EF3CE8D3-824D-D342-8991-B399369E5D1F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{EF3CE8D3-824D-D342-8991-B399369E5D1F}">
           <x14:formula1>
             <xm:f>'Lookup PropFunds CashFlows'!$B$40:$B$74</xm:f>
           </x14:formula1>
           <xm:sqref>B9:B22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8C60F6D6-E0D1-B44C-A6F7-DED0D3730BFE}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{8C60F6D6-E0D1-B44C-A6F7-DED0D3730BFE}">
           <x14:formula1>
             <xm:f>'Lookup PropFunds CashFlows'!$B$21:$B$39</xm:f>
           </x14:formula1>
           <xm:sqref>B26:B37</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2E348E09-9902-2B41-B16D-37E2F8DE3135}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{2E348E09-9902-2B41-B16D-37E2F8DE3135}">
           <x14:formula1>
             <xm:f>'Lookup PropFunds CashFlows'!$B$2:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>B41:B51</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9F9EA262-D7F4-214A-AA87-6EFB9500F700}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{9F9EA262-D7F4-214A-AA87-6EFB9500F700}">
           <x14:formula1>
             <xm:f>'Lookup PropFunds CashFlows'!$B$16:$B$20</xm:f>
           </x14:formula1>
@@ -26205,8 +27140,8 @@
   </sheetPr>
   <dimension ref="A1:C358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView topLeftCell="A149" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135:D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -33186,8 +34121,8 @@
   </sheetPr>
   <dimension ref="A1:E311"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="D262" sqref="D262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -39539,7 +40474,7 @@
   </sheetPr>
   <dimension ref="A1:E442"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A146" zoomScale="125" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -45957,10 +46892,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8474313-8EAC-0141-BA8E-861AF31ED060}">
-  <dimension ref="B1:E6"/>
+  <dimension ref="B1:E40"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="92" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -46012,6 +46947,104 @@
         <v>1092</v>
       </c>
       <c r="E6" s="2"/>
+    </row>
+    <row r="10" spans="2:5" ht="14">
+      <c r="B10" s="252" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="60" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="261" t="s">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="260"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -46028,10 +47061,10 @@
   <sheetPr codeName="Sheet8">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView topLeftCell="A59" zoomScale="81" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -46138,7 +47171,7 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="6" t="str">
-        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B9="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B9)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B9,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B9" s="15"/>
@@ -46152,7 +47185,7 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="6" t="str">
-        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B10="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B10)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B10,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B10" s="15"/>
@@ -46166,7 +47199,7 @@
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="6" t="str">
-        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B11="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B11)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B11,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B11" s="15"/>
@@ -46180,7 +47213,7 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="6" t="str">
-        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B12="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B12)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B12,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B12" s="15"/>
@@ -46194,7 +47227,7 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="6" t="str">
-        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B13="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B13)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B13,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B13" s="15"/>
@@ -46205,7 +47238,7 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="6" t="str">
-        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B14="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B14)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B14,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B14" s="15"/>
@@ -46216,7 +47249,7 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="6" t="str">
-        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B15="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B15)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B15,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B15" s="15"/>
@@ -46227,10 +47260,10 @@
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="6" t="str">
-        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B16="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B16)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B16,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="251"/>
       <c r="C16" s="202"/>
       <c r="D16" s="203"/>
       <c r="E16" s="200" t="str">
@@ -46241,7 +47274,7 @@
     </row>
     <row r="17" spans="1:6" ht="15">
       <c r="A17" s="6" t="str">
-        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B17="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B17)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B17,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B17" s="15"/>
@@ -46255,7 +47288,7 @@
     </row>
     <row r="18" spans="1:6" ht="15" hidden="1">
       <c r="A18" s="6" t="str">
-        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B18="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B18)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B18,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B18" s="15"/>
@@ -46269,7 +47302,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" hidden="1">
       <c r="A19" s="6" t="str">
-        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B19="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B19)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B19,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B19" s="15"/>
@@ -46283,7 +47316,7 @@
     </row>
     <row r="20" spans="1:6" ht="15" hidden="1">
       <c r="A20" s="6" t="str">
-        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B20="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B20)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B20,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B20" s="15"/>
@@ -46297,7 +47330,7 @@
     </row>
     <row r="21" spans="1:6" ht="15" hidden="1">
       <c r="A21" s="6" t="str">
-        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B21="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B21)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B21,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B21" s="15"/>
@@ -46311,7 +47344,7 @@
     </row>
     <row r="22" spans="1:6" ht="15">
       <c r="A22" s="6" t="str">
-        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B22="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B22)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B22,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B22" s="15"/>
@@ -46358,7 +47391,7 @@
     </row>
     <row r="25" spans="1:6" ht="15">
       <c r="A25" s="6" t="str">
-        <f>IF(B25="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B25,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B25="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B25)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B25,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B25" s="15"/>
@@ -46372,7 +47405,7 @@
     </row>
     <row r="26" spans="1:6" ht="15">
       <c r="A26" s="6" t="str">
-        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B26="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B26)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B26,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B26" s="15"/>
@@ -46383,7 +47416,7 @@
     </row>
     <row r="27" spans="1:6" ht="15">
       <c r="A27" s="6" t="str">
-        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B27="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B27)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B27,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B27" s="16"/>
@@ -46394,7 +47427,7 @@
     </row>
     <row r="28" spans="1:6" ht="15">
       <c r="A28" s="6" t="str">
-        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B28="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B28)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B28,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B28" s="16"/>
@@ -46405,7 +47438,7 @@
     </row>
     <row r="29" spans="1:6" ht="15">
       <c r="A29" s="6" t="str">
-        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B29="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B29)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B29,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B29" s="16"/>
@@ -46416,7 +47449,7 @@
     </row>
     <row r="30" spans="1:6" ht="15">
       <c r="A30" s="6" t="str">
-        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B30="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B30)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B30,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B30" s="15"/>
@@ -46427,7 +47460,7 @@
     </row>
     <row r="31" spans="1:6" ht="15">
       <c r="A31" s="6" t="str">
-        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B31="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B31)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B31,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B31" s="15"/>
@@ -46576,7 +47609,7 @@
     </row>
     <row r="41" spans="1:6" ht="15">
       <c r="A41" s="6" t="str">
-        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B41,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B41="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B41)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B41,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B41" s="15"/>
@@ -46590,7 +47623,7 @@
     </row>
     <row r="42" spans="1:6" ht="15">
       <c r="A42" s="6" t="str">
-        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B42="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B42)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B42,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B42" s="15"/>
@@ -46604,7 +47637,7 @@
     </row>
     <row r="43" spans="1:6" ht="15">
       <c r="A43" s="6" t="str">
-        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B43="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B43)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B43,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B43" s="15"/>
@@ -46618,7 +47651,7 @@
     </row>
     <row r="44" spans="1:6" ht="15">
       <c r="A44" s="6" t="str">
-        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B44="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B44)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B44,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B44" s="15"/>
@@ -46632,7 +47665,7 @@
     </row>
     <row r="45" spans="1:6" ht="15">
       <c r="A45" s="6" t="str">
-        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B45="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B45)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B45,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B45" s="15"/>
@@ -46753,7 +47786,7 @@
     </row>
     <row r="54" spans="1:6" ht="15">
       <c r="A54" s="6" t="str">
-        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B54="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B54)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B54,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B54" s="15"/>
@@ -46767,7 +47800,7 @@
     </row>
     <row r="55" spans="1:6" ht="15">
       <c r="A55" s="6" t="str">
-        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B55="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B55)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B55,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B55" s="15"/>
@@ -46781,7 +47814,7 @@
     </row>
     <row r="56" spans="1:6" ht="15">
       <c r="A56" s="6" t="str">
-        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B56="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B56)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B56,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B56" s="15"/>
@@ -46795,7 +47828,7 @@
     </row>
     <row r="57" spans="1:6" ht="16" customHeight="1">
       <c r="A57" s="6" t="str">
-        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B57="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B57)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B57,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B57" s="15"/>
@@ -46809,7 +47842,7 @@
     </row>
     <row r="58" spans="1:6" ht="16" customHeight="1">
       <c r="A58" s="6" t="str">
-        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B58="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B58)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B58,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B58" s="15"/>
@@ -46823,7 +47856,7 @@
     </row>
     <row r="59" spans="1:6" ht="16" customHeight="1">
       <c r="A59" s="6" t="str">
-        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B59="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$420,B59)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B59,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B59" s="15"/>
@@ -46940,7 +47973,7 @@
     </row>
     <row r="67" spans="1:6" ht="15">
       <c r="A67" s="6" t="str">
-        <f>IF(B67="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B67,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B67="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B67)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B67,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B67" s="15"/>
@@ -46951,7 +47984,7 @@
     </row>
     <row r="68" spans="1:6" ht="15">
       <c r="A68" s="6" t="str">
-        <f>IF(B68="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B68,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B68="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B68)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B68,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B68" s="15"/>
@@ -46962,7 +47995,7 @@
     </row>
     <row r="69" spans="1:6" ht="15">
       <c r="A69" s="6" t="str">
-        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B69="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B69)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B69,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B69" s="15"/>
@@ -46973,7 +48006,7 @@
     </row>
     <row r="70" spans="1:6" ht="15">
       <c r="A70" s="6" t="str">
-        <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B70="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B70)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B70,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B70" s="15"/>
@@ -47122,7 +48155,7 @@
     </row>
     <row r="80" spans="1:6" ht="15">
       <c r="A80" s="6" t="str">
-        <f>IF(B80="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B80,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B80="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B80)=0,"acfr:DeferredInflowsOfResourcesCustom",_xlfn.XLOOKUP(B80,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B80" s="15"/>
@@ -47136,7 +48169,7 @@
     </row>
     <row r="81" spans="1:6" ht="15">
       <c r="A81" s="6" t="str">
-        <f>IF(B81="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B81,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B81="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B81)=0,"acfr:DeferredInflowsOfResourcesCustom",_xlfn.XLOOKUP(B81,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B81" s="15"/>
@@ -47150,7 +48183,7 @@
     </row>
     <row r="82" spans="1:6" ht="15">
       <c r="A82" s="6" t="str">
-        <f>IF(B82="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B82,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B82="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B82)=0,"acfr:DeferredInflowsOfResourcesCustom",_xlfn.XLOOKUP(B82,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B82" s="15"/>
@@ -47164,7 +48197,7 @@
     </row>
     <row r="83" spans="1:6" ht="15">
       <c r="A83" s="6" t="str">
-        <f>IF(B83="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B83,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B83="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B83)=0,"acfr:DeferredInflowsOfResourcesCustom",_xlfn.XLOOKUP(B83,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B83" s="15"/>
@@ -47289,7 +48322,7 @@
     </row>
     <row r="92" spans="1:6" ht="15">
       <c r="A92" s="6" t="str">
-        <f>IF(B92="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B92,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B92="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B92)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B92,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B92" s="15"/>
@@ -47300,7 +48333,7 @@
     </row>
     <row r="93" spans="1:6" ht="15">
       <c r="A93" s="6" t="str">
-        <f>IF(B93="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B93,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B93="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B93)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B93,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B93" s="15"/>
@@ -47311,7 +48344,7 @@
     </row>
     <row r="94" spans="1:6" ht="15">
       <c r="A94" s="6" t="str">
-        <f>IF(B94="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B94,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B94="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B94)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B94,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B94" s="15"/>
@@ -47322,7 +48355,7 @@
     </row>
     <row r="95" spans="1:6" ht="15">
       <c r="A95" s="6" t="str">
-        <f>IF(B95="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B95,'Lookup Net Position'!$B$2:$B$420,'Lookup Net Position'!$C$2:$C$420))</f>
+        <f>IF(B95="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B95)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B95,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B95" s="15"/>
@@ -47429,22 +48462,89 @@
       <c r="C102" s="36"/>
       <c r="D102" s="37"/>
     </row>
+    <row r="103" spans="1:6">
+      <c r="B103" s="256"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="257"/>
+      <c r="B104" s="262" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="257"/>
+      <c r="B105" s="263"/>
+    </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="B104:B105"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A9:A22">
+    <cfRule type="expression" dxfId="90" priority="16">
+      <formula>A9="acfr:CurrentAssetsCustom"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:A31">
+    <cfRule type="containsText" dxfId="89" priority="3" operator="containsText" text="acfr:NonCurrentAssetsCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:NonCurrentAssetsCustom",A25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:A45">
+    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="acfr:DeferredOutflowsOfResourcesCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:DeferredOutflowsOfResourcesCustom",A41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="13" operator="containsText" text="acfr:DeferredOutflowsOfResourcesCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:DeferredOutflowsOfResourcesCustom",A41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:A59">
+    <cfRule type="containsText" dxfId="86" priority="1" operator="containsText" text="acfr:CurrentLiabilitiesCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:CurrentLiabilitiesCustom",A54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="12" operator="containsText" text="acfr:CurrentLiabilitiesCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:CurrentLiabilitiesCustom",A54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:A70">
+    <cfRule type="containsText" dxfId="84" priority="11" operator="containsText" text="acfr:NoncurrentLiabilitiesCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:NoncurrentLiabilitiesCustom",A67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80:A83">
+    <cfRule type="containsText" dxfId="83" priority="10" operator="containsText" text="acfr:DeferredInflowsOfResourcesCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:DeferredInflowsOfResourcesCustom",A80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:A95">
+    <cfRule type="containsText" dxfId="82" priority="9" operator="containsText" text="acfr:RestrictedComponentsOfNetPositionCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:RestrictedComponentsOfNetPositionCustom",A92)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="containsText" dxfId="81" priority="15" operator="containsText" text="acfr:CurrentAssetsCustom">
+      <formula>NOT(ISERROR(SEARCH("acfr:CurrentAssetsCustom",B15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C101:F101">
-    <cfRule type="cellIs" dxfId="50" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="34" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="20" operator="notEqual">
+    <cfRule type="cellIs" dxfId="78" priority="36" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F37 C23:F23 C37:F37 D39:F101 C50 C65:F65 C76:C77 C89 C101">
-    <cfRule type="expression" dxfId="47" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="18" stopIfTrue="1">
       <formula>C$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M68">
+    <cfRule type="expression" dxfId="76" priority="8">
+      <formula>$A$9:$A$22="acfr:CurrentAssetsCustom"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
@@ -47475,43 +48575,43 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{17CB63B2-6582-4D03-B5CB-EC836B51979D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{17CB63B2-6582-4D03-B5CB-EC836B51979D}">
           <x14:formula1>
             <xm:f>'Lookup Net Position'!$B$2:$B$201</xm:f>
           </x14:formula1>
           <xm:sqref>B9:B22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DD168EE-A03C-8F4C-872A-75D1E96C9387}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{2DD168EE-A03C-8F4C-872A-75D1E96C9387}">
           <x14:formula1>
             <xm:f>'Lookup Net Position'!$B$376:$B$468</xm:f>
           </x14:formula1>
           <xm:sqref>B25:B31</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4FFB8072-34D5-0E4C-AD99-305AB4DE3537}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{4FFB8072-34D5-0E4C-AD99-305AB4DE3537}">
           <x14:formula1>
             <xm:f>'Lookup Net Position'!$B$338:$B$354</xm:f>
           </x14:formula1>
           <xm:sqref>B41:B45</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5E57702C-3DA0-0A46-8890-D2C20B8F1A6A}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{5E57702C-3DA0-0A46-8890-D2C20B8F1A6A}">
           <x14:formula1>
             <xm:f>'Lookup Net Position'!$B$202:$B$315</xm:f>
           </x14:formula1>
           <xm:sqref>B54:B59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{89640B5B-A8EB-F245-8EA4-3FEF01E0F642}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{89640B5B-A8EB-F245-8EA4-3FEF01E0F642}">
           <x14:formula1>
             <xm:f>'Lookup Net Position'!$B$469:$B$514</xm:f>
           </x14:formula1>
           <xm:sqref>B67:B70</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AC956507-5236-0F49-901C-44C6F0615B5B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{AC956507-5236-0F49-901C-44C6F0615B5B}">
           <x14:formula1>
             <xm:f>'Lookup Net Position'!$B$316:$B$337</xm:f>
           </x14:formula1>
           <xm:sqref>B80:B83</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{70A74EAE-D4A3-124D-8A1A-56BFB96B62AC}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{70A74EAE-D4A3-124D-8A1A-56BFB96B62AC}">
           <x14:formula1>
             <xm:f>'Lookup Net Position'!$B$355:$B$375</xm:f>
           </x14:formula1>
@@ -47530,13 +48630,13 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView topLeftCell="A44" zoomScale="84" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="33" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="33" customWidth="1"/>
     <col min="3" max="3" width="15" style="33" customWidth="1"/>
     <col min="4" max="4" width="17" style="33" customWidth="1"/>
@@ -47663,7 +48763,7 @@
     </row>
     <row r="9" spans="1:10" ht="17" customHeight="1">
       <c r="A9" s="50" t="str">
-        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B9,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B9,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B9,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B9="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B9) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B9, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B9, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B9, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B9" s="15"/>
@@ -47682,9 +48782,9 @@
       </c>
       <c r="J9" s="244"/>
     </row>
-    <row r="10" spans="1:10" ht="15">
-      <c r="A10" s="6" t="str">
-        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B10,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B10,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B10,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="10" spans="1:10" ht="16">
+      <c r="A10" s="50" t="str">
+        <f>IF(B10="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B10) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B10, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B10, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B10, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B10" s="15"/>
@@ -47703,9 +48803,9 @@
       </c>
       <c r="J10" s="244"/>
     </row>
-    <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="6" t="str">
-        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B11,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B11,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B11,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="11" spans="1:10" ht="16">
+      <c r="A11" s="50" t="str">
+        <f>IF(B11="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B11) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B11, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B11, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B11, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B11" s="15"/>
@@ -47724,9 +48824,9 @@
       </c>
       <c r="J11" s="244"/>
     </row>
-    <row r="12" spans="1:10" ht="15">
-      <c r="A12" s="6" t="str">
-        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B12,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B12,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B12,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="12" spans="1:10" ht="16">
+      <c r="A12" s="50" t="str">
+        <f>IF(B12="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B12) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B12, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B12, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B12, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B12" s="15"/>
@@ -47745,9 +48845,9 @@
       </c>
       <c r="J12" s="244"/>
     </row>
-    <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="6" t="str">
-        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B13,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B13,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B13,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="13" spans="1:10" ht="16">
+      <c r="A13" s="50" t="str">
+        <f>IF(B13="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B13) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B13, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B13, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B13, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B13" s="15"/>
@@ -47766,9 +48866,9 @@
       </c>
       <c r="J13" s="244"/>
     </row>
-    <row r="14" spans="1:10" ht="15">
-      <c r="A14" s="6" t="str">
-        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B14,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B14,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B14,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="14" spans="1:10" ht="16">
+      <c r="A14" s="50" t="str">
+        <f>IF(B14="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B14) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B14, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B14, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B14, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B14" s="15"/>
@@ -47787,9 +48887,9 @@
       </c>
       <c r="J14" s="244"/>
     </row>
-    <row r="15" spans="1:10" ht="15">
-      <c r="A15" s="6" t="str">
-        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B15,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B15,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B15,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="15" spans="1:10" ht="16">
+      <c r="A15" s="50" t="str">
+        <f>IF(B15="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B15) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B15, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B15, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B15, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B15" s="15"/>
@@ -47808,9 +48908,9 @@
       </c>
       <c r="J15" s="244"/>
     </row>
-    <row r="16" spans="1:10" ht="15">
-      <c r="A16" s="6" t="str">
-        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B16,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B16,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B16,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="16" spans="1:10" ht="16">
+      <c r="A16" s="50" t="str">
+        <f>IF(B16="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B16) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B16, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B16, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B16, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B16" s="15"/>
@@ -47829,9 +48929,9 @@
       </c>
       <c r="J16" s="244"/>
     </row>
-    <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="6" t="str">
-        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B17,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B17,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B17,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="17" spans="1:10" ht="16">
+      <c r="A17" s="50" t="str">
+        <f>IF(B17="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B17) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B17, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B17, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B17, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B17" s="15"/>
@@ -47850,9 +48950,9 @@
       </c>
       <c r="J17" s="244"/>
     </row>
-    <row r="18" spans="1:10" ht="15" hidden="1">
-      <c r="A18" s="6" t="str">
-        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B18,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B18,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B18,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="18" spans="1:10" ht="16" hidden="1">
+      <c r="A18" s="50" t="str">
+        <f>IF(B18="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B18) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B18, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B18, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B18, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B18" s="15"/>
@@ -47871,9 +48971,9 @@
       </c>
       <c r="J18" s="244"/>
     </row>
-    <row r="19" spans="1:10" ht="15" hidden="1">
-      <c r="A19" s="6" t="str">
-        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B19,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B19,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B19,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="19" spans="1:10" ht="16" hidden="1">
+      <c r="A19" s="50" t="str">
+        <f>IF(B19="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B19) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B19, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B19, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B19, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B19" s="15"/>
@@ -47892,9 +48992,9 @@
       </c>
       <c r="J19" s="244"/>
     </row>
-    <row r="20" spans="1:10" ht="15" hidden="1">
-      <c r="A20" s="6" t="str">
-        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B20,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B20,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B20,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="20" spans="1:10" ht="16" hidden="1">
+      <c r="A20" s="50" t="str">
+        <f>IF(B20="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B20) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B20, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B20, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B20, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B20" s="15"/>
@@ -47913,9 +49013,9 @@
       </c>
       <c r="J20" s="244"/>
     </row>
-    <row r="21" spans="1:10" ht="15" hidden="1">
-      <c r="A21" s="6" t="str">
-        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B21,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B21,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B21,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="21" spans="1:10" ht="16" hidden="1">
+      <c r="A21" s="50" t="str">
+        <f>IF(B21="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B21) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B21, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B21, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B21, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B21" s="15"/>
@@ -47934,9 +49034,9 @@
       </c>
       <c r="J21" s="244"/>
     </row>
-    <row r="22" spans="1:10" ht="15">
-      <c r="A22" s="6" t="str">
-        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B22,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B22,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B22,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+    <row r="22" spans="1:10" ht="16">
+      <c r="A22" s="50" t="str">
+        <f>IF(B22="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B22) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B22, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B22, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B22, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B22" s="15"/>
@@ -48000,7 +49100,7 @@
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="6" t="str">
-        <f>IF(B25="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B25,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B25,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B25,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B25="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B25) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B25, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B25, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B25, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B25" s="15"/>
@@ -48021,7 +49121,7 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="6" t="str">
-        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B26,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B26,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B26,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B26="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B26) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B26, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B26, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B26, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B26" s="15"/>
@@ -48042,7 +49142,7 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="6" t="str">
-        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B27,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B27,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B27,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B27="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B27) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B27, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B27, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B27, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B27" s="15"/>
@@ -48063,7 +49163,7 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="6" t="str">
-        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B28,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B28,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B28,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B28="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B28) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B28, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B28, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B28, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B28" s="15"/>
@@ -48084,7 +49184,7 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="6" t="str">
-        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B29,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B29,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B29,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B29="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B29) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B29, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B29, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B29, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B29" s="15"/>
@@ -48102,7 +49202,7 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="6" t="str">
-        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B30,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B30,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B30,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B30="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B30) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B30, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B30, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B30, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B30" s="15"/>
@@ -48123,7 +49223,7 @@
     </row>
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="6" t="str">
-        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B31,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B31,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B31,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B31="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B31) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B31, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B31, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B31, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B31" s="15"/>
@@ -48144,7 +49244,7 @@
     </row>
     <row r="32" spans="1:10" ht="15" hidden="1">
       <c r="A32" s="6" t="str">
-        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B32,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B32,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B32,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B32="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B32) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B32, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B32, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B32, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B32" s="15"/>
@@ -48165,7 +49265,7 @@
     </row>
     <row r="33" spans="1:10" ht="15" hidden="1">
       <c r="A33" s="6" t="str">
-        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B33,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B33,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B33,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B33="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B33) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B33, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B33, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B33, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B33" s="15"/>
@@ -48186,7 +49286,7 @@
     </row>
     <row r="34" spans="1:10" ht="15" hidden="1">
       <c r="A34" s="6" t="str">
-        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B34,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B34,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B34,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B34="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B34) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B34, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B34, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B34, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B34" s="15"/>
@@ -48207,7 +49307,7 @@
     </row>
     <row r="35" spans="1:10" ht="15" hidden="1">
       <c r="A35" s="6" t="str">
-        <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B35,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B35,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B35,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B35="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B35) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B35, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B35, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B35, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B35" s="15"/>
@@ -48228,7 +49328,7 @@
     </row>
     <row r="36" spans="1:10" ht="15">
       <c r="A36" s="6" t="str">
-        <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B36,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B36,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B36,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B36="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B36) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B36, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B36, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B36, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B36" s="15"/>
@@ -48341,7 +49441,7 @@
     </row>
     <row r="41" spans="1:10" ht="15">
       <c r="A41" s="6" t="str">
-        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B41,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B41,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B41,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B41="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B41) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B41, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B41, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B41, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B41" s="15"/>
@@ -48368,7 +49468,7 @@
     </row>
     <row r="42" spans="1:10" ht="15">
       <c r="A42" s="6" t="str">
-        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B42,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B42,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B42,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B42="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B42) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B42, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B42, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B42, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B42" s="15"/>
@@ -48395,7 +49495,7 @@
     </row>
     <row r="43" spans="1:10" ht="15">
       <c r="A43" s="6" t="str">
-        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B43,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B43,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B43,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B43="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B43) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B43, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B43, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B43, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B43" s="15"/>
@@ -48422,7 +49522,7 @@
     </row>
     <row r="44" spans="1:10" ht="15">
       <c r="A44" s="6" t="str">
-        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B44,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B44,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B44,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B44="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B44) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B44, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B44, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B44, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B44" s="15"/>
@@ -48449,7 +49549,7 @@
     </row>
     <row r="45" spans="1:10" ht="15">
       <c r="A45" s="6" t="str">
-        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B45,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B45,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B45,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B45="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B45) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B45, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B45, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B45, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B45" s="15"/>
@@ -48476,7 +49576,7 @@
     </row>
     <row r="46" spans="1:10" ht="15" hidden="1">
       <c r="A46" s="6" t="str">
-        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B46,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B46,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B46,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B46="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B46) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B46, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B46, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B46, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B46" s="15"/>
@@ -48503,7 +49603,7 @@
     </row>
     <row r="47" spans="1:10" ht="15" hidden="1">
       <c r="A47" s="6" t="str">
-        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B47,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B47,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B47,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B47="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B47) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B47, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B47, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B47, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B47" s="15"/>
@@ -48530,7 +49630,7 @@
     </row>
     <row r="48" spans="1:10" ht="15" hidden="1">
       <c r="A48" s="6" t="str">
-        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B48,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B48,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B48,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B48="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B48) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B48, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B48, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B48, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B48" s="15"/>
@@ -48557,7 +49657,7 @@
     </row>
     <row r="49" spans="1:10" ht="15">
       <c r="A49" s="6" t="str">
-        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B49,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D),",",_xlfn.XLOOKUP(B49,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$C:$C), ",",_xlfn.XLOOKUP(B49,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$E:$E)))</f>
+        <f>IF(B49="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B49) = 0, "acfr:ExpensesCustom, acfr:RevenueForOtherProgramsCustom, acfr:NetExpenseRevenueCustom", _xlfn.CONCAT(_xlfn.XLOOKUP(B49, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D), ",", _xlfn.XLOOKUP(B49, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$C:$C), ",", _xlfn.XLOOKUP(B49, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$E:$E))))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B49" s="15"/>
@@ -48654,7 +49754,7 @@
     </row>
     <row r="54" spans="1:10" ht="15">
       <c r="A54" s="6" t="str">
-        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54,'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B54="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B54) = 0, "acfr:GeneralRevenuesCustom", _xlfn.XLOOKUP(B54, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B54" s="15"/>
@@ -48672,7 +49772,7 @@
     </row>
     <row r="55" spans="1:10" ht="15">
       <c r="A55" s="6" t="str">
-        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B55="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B55) = 0, "acfr:GeneralRevenuesCustom", _xlfn.XLOOKUP(B55, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B55" s="15"/>
@@ -48690,7 +49790,7 @@
     </row>
     <row r="56" spans="1:10" ht="15">
       <c r="A56" s="6" t="str">
-        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B56="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B56) = 0, "acfr:GeneralRevenuesCustom", _xlfn.XLOOKUP(B56, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B56" s="15"/>
@@ -48708,7 +49808,7 @@
     </row>
     <row r="57" spans="1:10" ht="15">
       <c r="A57" s="6" t="str">
-        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B57="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B57) = 0, "acfr:GeneralRevenuesCustom", _xlfn.XLOOKUP(B57, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B57" s="15"/>
@@ -48726,7 +49826,7 @@
     </row>
     <row r="58" spans="1:10" ht="15">
       <c r="A58" s="6" t="str">
-        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B58="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B58) = 0, "acfr:GeneralRevenuesCustom", _xlfn.XLOOKUP(B58, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B58" s="15"/>
@@ -48744,7 +49844,7 @@
     </row>
     <row r="59" spans="1:10" ht="15">
       <c r="A59" s="6" t="str">
-        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B59="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B59) = 0, "acfr:GeneralRevenuesCustom", _xlfn.XLOOKUP(B59, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B59" s="15"/>
@@ -48762,7 +49862,7 @@
     </row>
     <row r="60" spans="1:10" ht="15">
       <c r="A60" s="6" t="str">
-        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B60="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B60) = 0, "acfr:GeneralRevenuesCustom", _xlfn.XLOOKUP(B60, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B60" s="15"/>
@@ -48780,7 +49880,7 @@
     </row>
     <row r="61" spans="1:10" ht="15">
       <c r="A61" s="6" t="str">
-        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B61="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B61) = 0, "acfr:GeneralRevenuesCustom", _xlfn.XLOOKUP(B61, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B61" s="15"/>
@@ -48798,7 +49898,7 @@
     </row>
     <row r="62" spans="1:10" ht="15">
       <c r="A62" s="6" t="str">
-        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B62="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B62) = 0, "acfr:GeneralRevenuesCustom", _xlfn.XLOOKUP(B62, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B62" s="15"/>
@@ -48816,7 +49916,7 @@
     </row>
     <row r="63" spans="1:10" ht="15">
       <c r="A63" s="6" t="str">
-        <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B63="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B63) = 0, "acfr:GeneralRevenuesCustom", _xlfn.XLOOKUP(B63, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B63" s="15"/>
@@ -48871,7 +49971,7 @@
     </row>
     <row r="66" spans="1:10" ht="15">
       <c r="A66" s="6" t="str">
-        <f>IF(B66="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B66,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B66="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B66) = 0, "acfr:AdjustmentsForTransferOfRevenuesWithinActivitiesCustom", _xlfn.XLOOKUP(B66, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B66" s="15"/>
@@ -48889,7 +49989,7 @@
     </row>
     <row r="67" spans="1:10" ht="15">
       <c r="A67" s="6" t="str">
-        <f>IF(B67="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B67,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B67="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B67) = 0, "acfr:AdjustmentsForTransferOfRevenuesWithinActivitiesCustom", _xlfn.XLOOKUP(B67, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B67" s="15"/>
@@ -48907,7 +50007,7 @@
     </row>
     <row r="68" spans="1:10" ht="15">
       <c r="A68" s="6" t="str">
-        <f>IF(B68="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B68,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B68="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B68) = 0, "acfr:AdjustmentsForTransferOfRevenuesWithinActivitiesCustom", _xlfn.XLOOKUP(B68, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B68" s="15"/>
@@ -48925,7 +50025,7 @@
     </row>
     <row r="69" spans="1:10" ht="15">
       <c r="A69" s="6" t="str">
-        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B69="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B69) = 0, "acfr:AdjustmentsForTransferOfRevenuesWithinActivitiesCustom", _xlfn.XLOOKUP(B69, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B69" s="15"/>
@@ -48943,7 +50043,7 @@
     </row>
     <row r="70" spans="1:10" ht="15">
       <c r="A70" s="6" t="str">
-        <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'Lookup GovWide Stmt Activities'!$B:$B,'Lookup GovWide Stmt Activities'!$D:$D))</f>
+        <f>IF(B70="", "Choose from drop-down --&gt;", IF(COUNTIF('Lookup GovWide Stmt Activities'!$B:$B, B70) = 0, "acfr:AdjustmentsForTransferOfRevenuesWithinActivitiesCustom", _xlfn.XLOOKUP(B70, 'Lookup GovWide Stmt Activities'!$B:$B, 'Lookup GovWide Stmt Activities'!$D:$D)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B70" s="15"/>
@@ -49105,54 +50205,60 @@
       <c r="I79" s="54"/>
     </row>
     <row r="80" spans="1:10" ht="15">
+      <c r="A80" s="257"/>
+      <c r="B80" s="264" t="s">
+        <v>3636</v>
+      </c>
       <c r="I80" s="54"/>
     </row>
-    <row r="81" spans="9:9" ht="15">
+    <row r="81" spans="1:9" ht="15">
+      <c r="A81" s="257"/>
+      <c r="B81" s="265"/>
       <c r="I81" s="54"/>
     </row>
-    <row r="82" spans="9:9" ht="15">
+    <row r="82" spans="1:9" ht="15">
       <c r="I82" s="54"/>
     </row>
-    <row r="83" spans="9:9" ht="15">
+    <row r="83" spans="1:9" ht="15">
       <c r="I83" s="54"/>
     </row>
-    <row r="84" spans="9:9" ht="15">
+    <row r="84" spans="1:9" ht="15">
       <c r="I84" s="54"/>
     </row>
-    <row r="85" spans="9:9" ht="15">
+    <row r="85" spans="1:9" ht="15">
       <c r="I85" s="54"/>
     </row>
-    <row r="86" spans="9:9" ht="15">
+    <row r="86" spans="1:9" ht="15">
       <c r="I86" s="54"/>
     </row>
-    <row r="87" spans="9:9" ht="15">
+    <row r="87" spans="1:9" ht="15">
       <c r="I87" s="54"/>
     </row>
-    <row r="88" spans="9:9" ht="15">
+    <row r="88" spans="1:9" ht="15">
       <c r="I88" s="54"/>
     </row>
-    <row r="89" spans="9:9" ht="14">
+    <row r="89" spans="1:9" ht="14">
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="9:9" ht="15">
+    <row r="90" spans="1:9" ht="15">
       <c r="I90" s="53"/>
     </row>
-    <row r="91" spans="9:9" ht="15">
+    <row r="91" spans="1:9" ht="15">
       <c r="I91" s="54"/>
     </row>
-    <row r="92" spans="9:9" ht="15">
+    <row r="92" spans="1:9" ht="15">
       <c r="I92" s="54"/>
     </row>
-    <row r="93" spans="9:9" ht="15">
+    <row r="93" spans="1:9" ht="15">
       <c r="I93" s="54"/>
     </row>
-    <row r="94" spans="9:9" ht="15">
+    <row r="94" spans="1:9" ht="15">
       <c r="I94" s="54"/>
     </row>
-    <row r="95" spans="9:9" ht="15">
+    <row r="95" spans="1:9" ht="15">
       <c r="I95" s="54"/>
     </row>
-    <row r="96" spans="9:9" ht="15">
+    <row r="96" spans="1:9" ht="15">
       <c r="I96" s="54"/>
     </row>
     <row r="97" spans="9:9" ht="15">
@@ -49166,74 +50272,102 @@
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="B80:B81"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A9:A22">
+    <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:A36">
+    <cfRule type="containsText" dxfId="74" priority="8" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:A63">
+    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:A70">
+    <cfRule type="containsText" dxfId="72" priority="1" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:B49">
+    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C23 C37 C50 D53:G63">
-    <cfRule type="expression" dxfId="46" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="58" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:J64">
-    <cfRule type="expression" dxfId="45" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="43" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:J72">
-    <cfRule type="expression" dxfId="44" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="19" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F6 D52:F52">
-    <cfRule type="expression" dxfId="43" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="55" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:G51">
-    <cfRule type="expression" dxfId="42" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="15" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:J70">
-    <cfRule type="expression" dxfId="41" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="11" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74:J77 I78:I99">
-    <cfRule type="expression" dxfId="40" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="10" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H50">
-    <cfRule type="expression" dxfId="39" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="14" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:I38">
-    <cfRule type="expression" dxfId="38" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="52" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:J6 D7:I37 I39:I51">
-    <cfRule type="expression" dxfId="37" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="48" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:J63">
-    <cfRule type="expression" dxfId="36" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="12" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J50">
-    <cfRule type="expression" dxfId="35" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="13" stopIfTrue="1">
       <formula>J$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B22 B25:B36 B41:B49" xr:uid="{F3C11D5E-2141-5546-AF1F-2279D6DA74D8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B41:B49 B9:B22 B25:B36" xr:uid="{F3C11D5E-2141-5546-AF1F-2279D6DA74D8}">
       <formula1>program_revenues</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54:B63" xr:uid="{96AC2388-DB7C-8442-BE26-CB837586D707}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B54:B63" xr:uid="{96AC2388-DB7C-8442-BE26-CB837586D707}">
       <formula1>general_revenues</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66:B70" xr:uid="{A7A9E828-3622-4441-839C-4C8E5DABEB87}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B66:B70" xr:uid="{A7A9E828-3622-4441-839C-4C8E5DABEB87}">
       <formula1>transfers</formula1>
     </dataValidation>
   </dataValidations>

--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarrahahmed/Desktop/CLOSUP/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D5C3B0-7AEE-9B4D-92E4-8C882D27E900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F63CED0-37A6-DE43-B209-0B12063A4F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17280" tabRatio="834" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17260" tabRatio="834" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Net Position" sheetId="8" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5367" uniqueCount="3636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5378" uniqueCount="3638">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -11001,6 +11001,12 @@
   </si>
   <si>
     <t xml:space="preserve">   - Open the relevant sheets in this Excel file (e.g.,Net Position, PropFunds, Statement of Activities).</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -Select "Choose file(s))" on the Inline XBRL Conversion Tool Website. You will select the excel sheet, and can also upload 0-5 word documents which may include content such as auditors letters, notes, or other text. Once you have selected files, you can adjust their ordering. Then, simply select "combine and convert files". Please be patient, the conversion may take up to one minute or possibly more, depending on the number of files being uploaded. </t>
   </si>
 </sst>
 </file>
@@ -11012,7 +11018,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -11215,6 +11221,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -11326,7 +11338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -11621,6 +11633,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -11629,7 +11676,7 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12120,6 +12167,41 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -12128,6 +12210,18 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -12142,6 +12236,21 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12169,9 +12278,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12186,27 +12298,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -18839,10 +18933,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="119" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="A47" zoomScale="119" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -19913,18 +20007,18 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="15">
-      <c r="A59" s="253" t="s">
+      <c r="A59" s="266" t="s">
         <v>3615</v>
       </c>
-      <c r="B59" s="254"/>
-      <c r="C59" s="254"/>
-      <c r="D59" s="254"/>
-      <c r="E59" s="254"/>
-      <c r="F59" s="254"/>
-      <c r="G59" s="254"/>
-      <c r="H59" s="254"/>
-      <c r="I59" s="254"/>
-      <c r="J59" s="255"/>
+      <c r="B59" s="267"/>
+      <c r="C59" s="267"/>
+      <c r="D59" s="267"/>
+      <c r="E59" s="267"/>
+      <c r="F59" s="267"/>
+      <c r="G59" s="267"/>
+      <c r="H59" s="267"/>
+      <c r="I59" s="267"/>
+      <c r="J59" s="268"/>
     </row>
     <row r="60" spans="1:10" ht="15">
       <c r="A60" s="108" t="str">
@@ -19961,18 +20055,18 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15">
-      <c r="A62" s="253" t="s">
+      <c r="A62" s="266" t="s">
         <v>3616</v>
       </c>
-      <c r="B62" s="254"/>
-      <c r="C62" s="254"/>
-      <c r="D62" s="254"/>
-      <c r="E62" s="254"/>
-      <c r="F62" s="254"/>
-      <c r="G62" s="254"/>
-      <c r="H62" s="254"/>
-      <c r="I62" s="254"/>
-      <c r="J62" s="255"/>
+      <c r="B62" s="267"/>
+      <c r="C62" s="267"/>
+      <c r="D62" s="267"/>
+      <c r="E62" s="267"/>
+      <c r="F62" s="267"/>
+      <c r="G62" s="267"/>
+      <c r="H62" s="267"/>
+      <c r="I62" s="267"/>
+      <c r="J62" s="268"/>
     </row>
     <row r="63" spans="1:10" ht="15">
       <c r="A63" s="108" t="str">
@@ -20009,18 +20103,18 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="15">
-      <c r="A65" s="253" t="s">
+      <c r="A65" s="266" t="s">
         <v>3617</v>
       </c>
-      <c r="B65" s="254"/>
-      <c r="C65" s="254"/>
-      <c r="D65" s="254"/>
-      <c r="E65" s="254"/>
-      <c r="F65" s="254"/>
-      <c r="G65" s="254"/>
-      <c r="H65" s="254"/>
-      <c r="I65" s="254"/>
-      <c r="J65" s="255"/>
+      <c r="B65" s="267"/>
+      <c r="C65" s="267"/>
+      <c r="D65" s="267"/>
+      <c r="E65" s="267"/>
+      <c r="F65" s="267"/>
+      <c r="G65" s="267"/>
+      <c r="H65" s="267"/>
+      <c r="I65" s="267"/>
+      <c r="J65" s="268"/>
     </row>
     <row r="66" spans="1:10" ht="16">
       <c r="A66" s="131" t="str">
@@ -20133,11 +20227,22 @@
         <v>0</v>
       </c>
     </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="258"/>
+      <c r="B72" s="264" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="258"/>
+      <c r="B73" s="265"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A59:J59"/>
     <mergeCell ref="A62:J62"/>
     <mergeCell ref="A65:J65"/>
+    <mergeCell ref="B72:B73"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:A18">
     <cfRule type="containsText" dxfId="58" priority="7" operator="containsText" text="custom">
@@ -20248,10 +20353,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A3" zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -20418,7 +20523,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="269" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B35" s="264"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="270"/>
+      <c r="B36" s="265"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A35:B36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20428,10 +20546,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A23" zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -21789,6 +21907,16 @@
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="255"/>
+      <c r="B72" s="253" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="255"/>
+      <c r="B73" s="254"/>
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
@@ -21861,10 +21989,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -22005,7 +22133,20 @@
       </c>
       <c r="B26" s="175"/>
     </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="269" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B29" s="264"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="270"/>
+      <c r="B30" s="265"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A29:B30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22017,8 +22158,8 @@
   </sheetPr>
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A83" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -22864,9 +23005,11 @@
     <row r="45" spans="1:10" ht="15">
       <c r="A45" s="108" t="str">
         <f>IF(B45="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B45)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B45,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B45" s="109"/>
+        <v>acfr:DueToComponentUnit</v>
+      </c>
+      <c r="B45" s="109" t="s">
+        <v>281</v>
+      </c>
       <c r="C45" s="208"/>
       <c r="D45" s="208"/>
       <c r="E45" s="208"/>
@@ -23606,9 +23749,15 @@
       <c r="J83" s="112"/>
     </row>
     <row r="84" spans="1:10" ht="15">
+      <c r="A84" s="257"/>
+      <c r="B84" s="262" t="s">
+        <v>3636</v>
+      </c>
       <c r="J84" s="112"/>
     </row>
     <row r="85" spans="1:10" ht="15">
+      <c r="A85" s="257"/>
+      <c r="B85" s="263"/>
       <c r="J85" s="112"/>
     </row>
     <row r="86" spans="1:10" ht="15">
@@ -23685,6 +23834,9 @@
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="B84:B85"/>
+  </mergeCells>
   <conditionalFormatting sqref="A10:A23">
     <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A10)))</formula>
@@ -23773,8 +23925,8 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView topLeftCell="A14" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -25163,9 +25315,15 @@
       <c r="J72" s="112"/>
     </row>
     <row r="73" spans="1:10" ht="15">
+      <c r="A73" s="259"/>
+      <c r="B73" s="271" t="s">
+        <v>3636</v>
+      </c>
       <c r="J73" s="112"/>
     </row>
     <row r="74" spans="1:10" ht="15">
+      <c r="A74" s="259"/>
+      <c r="B74" s="272"/>
       <c r="J74" s="112"/>
     </row>
     <row r="75" spans="1:10" ht="15">
@@ -25245,6 +25403,9 @@
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="B73:B74"/>
+  </mergeCells>
   <conditionalFormatting sqref="A9:A22">
     <cfRule type="containsText" dxfId="35" priority="4" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
@@ -25343,8 +25504,8 @@
   </sheetPr>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -26788,8 +26949,10 @@
       <c r="J76" s="138"/>
     </row>
     <row r="77" spans="1:10" ht="15">
-      <c r="A77" s="104"/>
-      <c r="B77" s="154"/>
+      <c r="A77" s="257"/>
+      <c r="B77" s="262" t="s">
+        <v>3636</v>
+      </c>
       <c r="C77" s="155"/>
       <c r="D77" s="155"/>
       <c r="E77" s="155"/>
@@ -26800,8 +26963,8 @@
       <c r="J77" s="138"/>
     </row>
     <row r="78" spans="1:10" ht="15">
-      <c r="A78" s="104"/>
-      <c r="B78" s="154"/>
+      <c r="A78" s="257"/>
+      <c r="B78" s="263"/>
       <c r="C78" s="155"/>
       <c r="D78" s="155"/>
       <c r="E78" s="155"/>
@@ -26823,6 +26986,9 @@
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="B77:B78"/>
+  </mergeCells>
   <conditionalFormatting sqref="A9:A22">
     <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
@@ -26891,17 +27057,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:J69">
-    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
-      <formula>D$7=""</formula>
+    <cfRule type="cellIs" dxfId="8" priority="13" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="notEqual">
+      <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="14" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="notEqual">
-      <formula>#REF!</formula>
+    <cfRule type="expression" dxfId="5" priority="12" stopIfTrue="1">
+      <formula>D$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J4 J8:J22 J24:J64 J70:J1048574">
@@ -26915,11 +27081,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68">
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+      <formula>#REF!=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>COUNTA(D69:I69)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1048575:J1048576">
@@ -26928,7 +27094,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:B78" xr:uid="{98ECD2C2-C0B9-E74C-B5D0-14A316D496F4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:B76" xr:uid="{98ECD2C2-C0B9-E74C-B5D0-14A316D496F4}">
       <formula1>net_position</formula1>
     </dataValidation>
   </dataValidations>
@@ -46726,10 +46892,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8474313-8EAC-0141-BA8E-861AF31ED060}">
-  <dimension ref="B1:E32"/>
+  <dimension ref="B1:E40"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -46857,20 +47023,28 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>3631</v>
+    <row r="29" spans="2:2">
+      <c r="B29" s="261" t="s">
+        <v>3637</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
         <v>3633</v>
       </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="260"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -46887,10 +47061,10 @@
   <sheetPr codeName="Sheet8">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="81" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="A59" zoomScale="81" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -48288,8 +48462,24 @@
       <c r="C102" s="36"/>
       <c r="D102" s="37"/>
     </row>
+    <row r="103" spans="1:6">
+      <c r="B103" s="256"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="257"/>
+      <c r="B104" s="262" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="257"/>
+      <c r="B105" s="263"/>
+    </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="B104:B105"/>
+  </mergeCells>
   <conditionalFormatting sqref="A9:A22">
     <cfRule type="expression" dxfId="90" priority="16">
       <formula>A9="acfr:CurrentAssetsCustom"</formula>
@@ -48440,8 +48630,8 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="84" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A44" zoomScale="84" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -50015,54 +50205,60 @@
       <c r="I79" s="54"/>
     </row>
     <row r="80" spans="1:10" ht="15">
+      <c r="A80" s="257"/>
+      <c r="B80" s="264" t="s">
+        <v>3636</v>
+      </c>
       <c r="I80" s="54"/>
     </row>
-    <row r="81" spans="9:9" ht="15">
+    <row r="81" spans="1:9" ht="15">
+      <c r="A81" s="257"/>
+      <c r="B81" s="265"/>
       <c r="I81" s="54"/>
     </row>
-    <row r="82" spans="9:9" ht="15">
+    <row r="82" spans="1:9" ht="15">
       <c r="I82" s="54"/>
     </row>
-    <row r="83" spans="9:9" ht="15">
+    <row r="83" spans="1:9" ht="15">
       <c r="I83" s="54"/>
     </row>
-    <row r="84" spans="9:9" ht="15">
+    <row r="84" spans="1:9" ht="15">
       <c r="I84" s="54"/>
     </row>
-    <row r="85" spans="9:9" ht="15">
+    <row r="85" spans="1:9" ht="15">
       <c r="I85" s="54"/>
     </row>
-    <row r="86" spans="9:9" ht="15">
+    <row r="86" spans="1:9" ht="15">
       <c r="I86" s="54"/>
     </row>
-    <row r="87" spans="9:9" ht="15">
+    <row r="87" spans="1:9" ht="15">
       <c r="I87" s="54"/>
     </row>
-    <row r="88" spans="9:9" ht="15">
+    <row r="88" spans="1:9" ht="15">
       <c r="I88" s="54"/>
     </row>
-    <row r="89" spans="9:9" ht="14">
+    <row r="89" spans="1:9" ht="14">
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="9:9" ht="15">
+    <row r="90" spans="1:9" ht="15">
       <c r="I90" s="53"/>
     </row>
-    <row r="91" spans="9:9" ht="15">
+    <row r="91" spans="1:9" ht="15">
       <c r="I91" s="54"/>
     </row>
-    <row r="92" spans="9:9" ht="15">
+    <row r="92" spans="1:9" ht="15">
       <c r="I92" s="54"/>
     </row>
-    <row r="93" spans="9:9" ht="15">
+    <row r="93" spans="1:9" ht="15">
       <c r="I93" s="54"/>
     </row>
-    <row r="94" spans="9:9" ht="15">
+    <row r="94" spans="1:9" ht="15">
       <c r="I94" s="54"/>
     </row>
-    <row r="95" spans="9:9" ht="15">
+    <row r="95" spans="1:9" ht="15">
       <c r="I95" s="54"/>
     </row>
-    <row r="96" spans="9:9" ht="15">
+    <row r="96" spans="1:9" ht="15">
       <c r="I96" s="54"/>
     </row>
     <row r="97" spans="9:9" ht="15">
@@ -50076,6 +50272,9 @@
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="B80:B81"/>
+  </mergeCells>
   <conditionalFormatting sqref="A9:A22">
     <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>

--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarrahahmed/Desktop/CLOSUP/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D5C3B0-7AEE-9B4D-92E4-8C882D27E900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4EB1D5-2CFE-5745-8763-EB70F93AE294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17280" tabRatio="834" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17260" tabRatio="834" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Net Position" sheetId="8" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5367" uniqueCount="3636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5383" uniqueCount="3638">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -11001,6 +11001,12 @@
   </si>
   <si>
     <t xml:space="preserve">   - Open the relevant sheets in this Excel file (e.g.,Net Position, PropFunds, Statement of Activities).</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -Select "Choose file(s))" on the Inline XBRL Conversion Tool Website. You will select the excel sheet, and can also upload 0-5 word documents which may include content such as auditors letters, notes, or other text. Once you have selected files, you can adjust their ordering. Then, simply select "combine and convert files". Please be patient, the conversion may take up to one minute or possibly more, depending on the number of files being uploaded. </t>
   </si>
 </sst>
 </file>
@@ -11012,7 +11018,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -11215,6 +11221,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -11326,7 +11338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -11621,6 +11633,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -11629,7 +11676,7 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12120,6 +12167,41 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -12129,6 +12211,18 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -12137,7 +12231,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
-  <dxfs count="91">
+  <dxfs count="95">
     <dxf>
       <fill>
         <patternFill>
@@ -12414,6 +12508,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13159,8 +13283,8 @@
   </sheetPr>
   <dimension ref="A1:C514"/>
   <sheetViews>
-    <sheetView topLeftCell="A202" zoomScale="75" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A295" zoomScale="75" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A316" sqref="A316:C354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -18839,10 +18963,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="119" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="A47" zoomScale="119" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -19913,18 +20037,18 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="15">
-      <c r="A59" s="253" t="s">
+      <c r="A59" s="266" t="s">
         <v>3615</v>
       </c>
-      <c r="B59" s="254"/>
-      <c r="C59" s="254"/>
-      <c r="D59" s="254"/>
-      <c r="E59" s="254"/>
-      <c r="F59" s="254"/>
-      <c r="G59" s="254"/>
-      <c r="H59" s="254"/>
-      <c r="I59" s="254"/>
-      <c r="J59" s="255"/>
+      <c r="B59" s="267"/>
+      <c r="C59" s="267"/>
+      <c r="D59" s="267"/>
+      <c r="E59" s="267"/>
+      <c r="F59" s="267"/>
+      <c r="G59" s="267"/>
+      <c r="H59" s="267"/>
+      <c r="I59" s="267"/>
+      <c r="J59" s="268"/>
     </row>
     <row r="60" spans="1:10" ht="15">
       <c r="A60" s="108" t="str">
@@ -19961,18 +20085,18 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15">
-      <c r="A62" s="253" t="s">
+      <c r="A62" s="266" t="s">
         <v>3616</v>
       </c>
-      <c r="B62" s="254"/>
-      <c r="C62" s="254"/>
-      <c r="D62" s="254"/>
-      <c r="E62" s="254"/>
-      <c r="F62" s="254"/>
-      <c r="G62" s="254"/>
-      <c r="H62" s="254"/>
-      <c r="I62" s="254"/>
-      <c r="J62" s="255"/>
+      <c r="B62" s="267"/>
+      <c r="C62" s="267"/>
+      <c r="D62" s="267"/>
+      <c r="E62" s="267"/>
+      <c r="F62" s="267"/>
+      <c r="G62" s="267"/>
+      <c r="H62" s="267"/>
+      <c r="I62" s="267"/>
+      <c r="J62" s="268"/>
     </row>
     <row r="63" spans="1:10" ht="15">
       <c r="A63" s="108" t="str">
@@ -20009,18 +20133,18 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="15">
-      <c r="A65" s="253" t="s">
+      <c r="A65" s="266" t="s">
         <v>3617</v>
       </c>
-      <c r="B65" s="254"/>
-      <c r="C65" s="254"/>
-      <c r="D65" s="254"/>
-      <c r="E65" s="254"/>
-      <c r="F65" s="254"/>
-      <c r="G65" s="254"/>
-      <c r="H65" s="254"/>
-      <c r="I65" s="254"/>
-      <c r="J65" s="255"/>
+      <c r="B65" s="267"/>
+      <c r="C65" s="267"/>
+      <c r="D65" s="267"/>
+      <c r="E65" s="267"/>
+      <c r="F65" s="267"/>
+      <c r="G65" s="267"/>
+      <c r="H65" s="267"/>
+      <c r="I65" s="267"/>
+      <c r="J65" s="268"/>
     </row>
     <row r="66" spans="1:10" ht="16">
       <c r="A66" s="131" t="str">
@@ -20133,64 +20257,75 @@
         <v>0</v>
       </c>
     </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="258"/>
+      <c r="B72" s="264" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="258"/>
+      <c r="B73" s="265"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A59:J59"/>
     <mergeCell ref="A62:J62"/>
     <mergeCell ref="A65:J65"/>
+    <mergeCell ref="B72:B73"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:A18">
-    <cfRule type="containsText" dxfId="58" priority="7" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="62" priority="7" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A31">
-    <cfRule type="containsText" dxfId="57" priority="6" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="61" priority="6" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A44">
-    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A58">
-    <cfRule type="containsText" dxfId="55" priority="4" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="59" priority="4" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:A61">
-    <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A64">
-    <cfRule type="containsText" dxfId="53" priority="2" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="57" priority="2" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:A67">
-    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="56" priority="1" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:G18 D21:G31 C32:I33 D35:G44 C45:I46 D48:G58 D60:G61 D63:G64 C68:G68">
-    <cfRule type="expression" dxfId="51" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="10" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66:G67">
-    <cfRule type="expression" dxfId="50" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="8" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:I7">
-    <cfRule type="expression" dxfId="49" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="9" stopIfTrue="1">
       <formula>D$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:J46">
-    <cfRule type="expression" dxfId="48" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="11" stopIfTrue="1">
       <formula>I$6=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20248,10 +20383,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A3" zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -20418,7 +20553,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="269" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B35" s="264"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="270"/>
+      <c r="B36" s="265"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A35:B36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20428,10 +20576,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A23" zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -21790,26 +21938,36 @@
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
     </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="255"/>
+      <c r="B72" s="253" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="255"/>
+      <c r="B73" s="254"/>
+    </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="A9:A22">
-    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:A34">
-    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="50" priority="2" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A53">
-    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:I7 D8:J23 C23 D25:J35 C35 C36:J36 D37:J63 C59:J60 J64 D65:J69 D71:J71">
-    <cfRule type="expression" dxfId="44" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="20" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21861,10 +22019,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -22005,7 +22163,20 @@
       </c>
       <c r="B26" s="175"/>
     </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="269" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B29" s="264"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="270"/>
+      <c r="B30" s="265"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A29:B30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22015,15 +22186,15 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="84" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" style="84" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="84" customWidth="1"/>
     <col min="3" max="10" width="18.6640625" style="84" customWidth="1"/>
     <col min="11" max="16384" width="9" style="84"/>
@@ -22399,7 +22570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" hidden="1">
+    <row r="22" spans="1:10" ht="16" hidden="1">
       <c r="A22" s="108" t="str">
         <f>IF(B22="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B22)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B22,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -22669,7 +22840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" hidden="1">
+    <row r="36" spans="1:10" ht="36" hidden="1">
       <c r="A36" s="108" t="str">
         <f>IF(B36="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B36)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B36,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -22757,27 +22928,27 @@
         <v>0</v>
       </c>
       <c r="D39" s="232" t="str">
-        <f t="shared" ref="D39:I39" si="5">IF(D$7="Type fund name","",D24+D38)</f>
+        <f>IF(D$7="Type fund name","",D24+D38)</f>
         <v/>
       </c>
       <c r="E39" s="232" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(E$7="Type fund name","",E24+E38)</f>
         <v/>
       </c>
       <c r="F39" s="232" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(F$7="Type fund name","",F24+F38)</f>
         <v/>
       </c>
       <c r="G39" s="232" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(G$7="Type fund name","",G24+G38)</f>
         <v/>
       </c>
       <c r="H39" s="232" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H$7="Type fund name","",H24+H38)</f>
         <v/>
       </c>
       <c r="I39" s="232" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(I$7="Type fund name","",I24+I38)</f>
         <v/>
       </c>
       <c r="J39" s="219">
@@ -22799,8 +22970,8 @@
     </row>
     <row r="41" spans="1:10" ht="15">
       <c r="A41" s="104"/>
-      <c r="B41" s="105" t="s">
-        <v>25</v>
+      <c r="B41" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C41" s="105"/>
       <c r="D41" s="105"/>
@@ -22812,58 +22983,62 @@
       <c r="J41" s="105"/>
     </row>
     <row r="42" spans="1:10" ht="15">
-      <c r="A42" s="104"/>
-      <c r="B42" s="107" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="113"/>
+      <c r="A42" s="108" t="str">
+        <f>IF(B42="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B42)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B42,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B42" s="109"/>
+      <c r="C42" s="208"/>
+      <c r="D42" s="208"/>
+      <c r="E42" s="208"/>
+      <c r="F42" s="208"/>
+      <c r="G42" s="208"/>
+      <c r="H42" s="208"/>
+      <c r="I42" s="208"/>
+      <c r="J42" s="231">
+        <f t="shared" ref="J42:J53" si="5">IF(J$7="","",SUM(D42:I42))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:10" ht="15">
       <c r="A43" s="108" t="str">
-        <f>IF(B43="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B43)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B43,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B43="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B43)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B43,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B43" s="109"/>
-      <c r="C43" s="208"/>
-      <c r="D43" s="208"/>
-      <c r="E43" s="208"/>
-      <c r="F43" s="208"/>
-      <c r="G43" s="208"/>
-      <c r="H43" s="208"/>
-      <c r="I43" s="208"/>
+      <c r="C43" s="209"/>
+      <c r="D43" s="209"/>
+      <c r="E43" s="209"/>
+      <c r="F43" s="209"/>
+      <c r="G43" s="209"/>
+      <c r="H43" s="209"/>
+      <c r="I43" s="209"/>
       <c r="J43" s="231">
-        <f t="shared" ref="J43:J54" si="6">IF(J$7="","",SUM(D43:I43))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15">
       <c r="A44" s="108" t="str">
-        <f>IF(B44="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B44)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B44,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B44="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B44)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B44,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B44" s="109"/>
-      <c r="C44" s="209"/>
-      <c r="D44" s="209"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="209"/>
-      <c r="G44" s="209"/>
-      <c r="H44" s="209"/>
-      <c r="I44" s="209"/>
+      <c r="C44" s="208"/>
+      <c r="D44" s="208"/>
+      <c r="E44" s="208"/>
+      <c r="F44" s="208"/>
+      <c r="G44" s="208"/>
+      <c r="H44" s="208"/>
+      <c r="I44" s="208"/>
       <c r="J44" s="231">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15">
       <c r="A45" s="108" t="str">
-        <f>IF(B45="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B45)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B45,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B45="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B45)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B45,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B45" s="109"/>
@@ -22875,13 +23050,13 @@
       <c r="H45" s="208"/>
       <c r="I45" s="208"/>
       <c r="J45" s="231">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16" customHeight="1">
       <c r="A46" s="108" t="str">
-        <f>IF(B46="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B46)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B46,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B46="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B46)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B46,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B46" s="109"/>
@@ -22893,13 +23068,13 @@
       <c r="H46" s="208"/>
       <c r="I46" s="208"/>
       <c r="J46" s="231">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16" customHeight="1">
       <c r="A47" s="108" t="str">
-        <f>IF(B47="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B47)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B47,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B47="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B47)=0,"acfr:DeferredOutflowsOfResourcesCustom",_xlfn.XLOOKUP(B47,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B47" s="109"/>
@@ -22911,7 +23086,7 @@
       <c r="H47" s="208"/>
       <c r="I47" s="208"/>
       <c r="J47" s="231">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -22929,7 +23104,7 @@
       <c r="H48" s="208"/>
       <c r="I48" s="208"/>
       <c r="J48" s="231">
-        <f t="shared" ref="J48:J53" si="7">IF(J$7="","",SUM(D48:I48))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -22947,7 +23122,7 @@
       <c r="H49" s="208"/>
       <c r="I49" s="208"/>
       <c r="J49" s="231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -22965,7 +23140,7 @@
       <c r="H50" s="208"/>
       <c r="I50" s="208"/>
       <c r="J50" s="231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -22983,7 +23158,7 @@
       <c r="H51" s="208"/>
       <c r="I51" s="208"/>
       <c r="J51" s="231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -23001,103 +23176,93 @@
       <c r="H52" s="208"/>
       <c r="I52" s="208"/>
       <c r="J52" s="231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15">
-      <c r="A53" s="108" t="str">
-        <f>IF(B53="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B53)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B53,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B53" s="109"/>
-      <c r="C53" s="208"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="208"/>
-      <c r="F53" s="208"/>
-      <c r="G53" s="208"/>
-      <c r="H53" s="208"/>
-      <c r="I53" s="208"/>
+      <c r="A53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="231">
+        <f>IF(C$7="","",SUM(C42:C52))</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="231" t="str">
+        <f t="shared" ref="D53:I53" si="6">IF(D$7="Type fund name","",SUM(D42:D52))</f>
+        <v/>
+      </c>
+      <c r="E53" s="231" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F53" s="231" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G53" s="231" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H53" s="231" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I53" s="231" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="J53" s="231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15">
-      <c r="A54" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="108" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="231">
-        <f>IF(C$7="","",SUM(C43:C53))</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="231" t="str">
-        <f t="shared" ref="D54:I54" si="8">IF(D$7="Type fund name","",SUM(D43:D53))</f>
-        <v/>
-      </c>
-      <c r="E54" s="231" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F54" s="231" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G54" s="231" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H54" s="231" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I54" s="231" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J54" s="231">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="A54" s="104"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="112"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="112"/>
+      <c r="J54" s="112"/>
     </row>
     <row r="55" spans="1:10" ht="15">
       <c r="A55" s="104"/>
-      <c r="B55" s="107" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C55" s="107"/>
-      <c r="D55" s="107"/>
-      <c r="E55" s="107"/>
-      <c r="F55" s="107"/>
-      <c r="G55" s="107"/>
-      <c r="H55" s="107"/>
-      <c r="I55" s="107"/>
-      <c r="J55" s="96"/>
+      <c r="B55" s="105" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="105"/>
     </row>
     <row r="56" spans="1:10" ht="15">
-      <c r="A56" s="108" t="str">
-        <f>IF(B56="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B56)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B56,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B56" s="109"/>
-      <c r="C56" s="208"/>
-      <c r="D56" s="208"/>
-      <c r="E56" s="208"/>
-      <c r="F56" s="208"/>
-      <c r="G56" s="208"/>
-      <c r="H56" s="208"/>
-      <c r="I56" s="208"/>
-      <c r="J56" s="231">
-        <f t="shared" ref="J56:J69" si="9">IF(J$7="","",SUM(D56:I56))</f>
-        <v>0</v>
-      </c>
+      <c r="A56" s="104"/>
+      <c r="B56" s="107" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C56" s="96"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="113"/>
     </row>
     <row r="57" spans="1:10" ht="15">
       <c r="A57" s="108" t="str">
-        <f>IF(B57="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B57)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B57,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B57="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B57)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B57,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B57" s="109"/>
@@ -23109,31 +23274,31 @@
       <c r="H57" s="208"/>
       <c r="I57" s="208"/>
       <c r="J57" s="231">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="J57:J68" si="7">IF(J$7="","",SUM(D57:I57))</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15">
       <c r="A58" s="108" t="str">
-        <f>IF(B58="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B58)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B58,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B58="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B58)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B58,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B58" s="109"/>
-      <c r="C58" s="208"/>
-      <c r="D58" s="208"/>
-      <c r="E58" s="208"/>
-      <c r="F58" s="208"/>
-      <c r="G58" s="208"/>
-      <c r="H58" s="208"/>
-      <c r="I58" s="208"/>
+      <c r="C58" s="209"/>
+      <c r="D58" s="209"/>
+      <c r="E58" s="209"/>
+      <c r="F58" s="209"/>
+      <c r="G58" s="209"/>
+      <c r="H58" s="209"/>
+      <c r="I58" s="209"/>
       <c r="J58" s="231">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15" hidden="1">
       <c r="A59" s="108" t="str">
-        <f>IF(B59="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B59)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B59,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B59="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B59)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B59,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B59" s="109"/>
@@ -23145,13 +23310,13 @@
       <c r="H59" s="208"/>
       <c r="I59" s="208"/>
       <c r="J59" s="231">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" hidden="1">
       <c r="A60" s="108" t="str">
-        <f>IF(B60="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B60)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B60,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B60="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B60)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B60,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B60" s="109"/>
@@ -23163,13 +23328,13 @@
       <c r="H60" s="208"/>
       <c r="I60" s="208"/>
       <c r="J60" s="231">
-        <f t="shared" ref="J60:J64" si="10">IF(J$7="","",SUM(D60:I60))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" hidden="1">
       <c r="A61" s="108" t="str">
-        <f>IF(B61="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B61)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B61,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B61="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B61)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B61,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B61" s="109"/>
@@ -23181,13 +23346,13 @@
       <c r="H61" s="208"/>
       <c r="I61" s="208"/>
       <c r="J61" s="231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" hidden="1">
       <c r="A62" s="108" t="str">
-        <f>IF(B62="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B62)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B62,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B62="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B62)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B62,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B62" s="109"/>
@@ -23199,13 +23364,13 @@
       <c r="H62" s="208"/>
       <c r="I62" s="208"/>
       <c r="J62" s="231">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="J62:J67" si="8">IF(J$7="","",SUM(D62:I62))</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" hidden="1">
       <c r="A63" s="108" t="str">
-        <f>IF(B63="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B63)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B63,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B63="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B63)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B63,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B63" s="109"/>
@@ -23217,13 +23382,13 @@
       <c r="H63" s="208"/>
       <c r="I63" s="208"/>
       <c r="J63" s="231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15">
       <c r="A64" s="108" t="str">
-        <f>IF(B64="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B64)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B64,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B64="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B64)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B64,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B64" s="109"/>
@@ -23235,13 +23400,13 @@
       <c r="H64" s="208"/>
       <c r="I64" s="208"/>
       <c r="J64" s="231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15">
       <c r="A65" s="108" t="str">
-        <f>IF(B65="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B65)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B65,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B65="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B65)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B65,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B65" s="109"/>
@@ -23252,11 +23417,14 @@
       <c r="G65" s="208"/>
       <c r="H65" s="208"/>
       <c r="I65" s="208"/>
-      <c r="J65" s="231"/>
+      <c r="J65" s="231">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:10" ht="15">
       <c r="A66" s="108" t="str">
-        <f>IF(B66="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B66)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B66,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B66="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B66)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B66,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B66" s="109"/>
@@ -23267,11 +23435,14 @@
       <c r="G66" s="208"/>
       <c r="H66" s="208"/>
       <c r="I66" s="208"/>
-      <c r="J66" s="231"/>
+      <c r="J66" s="231">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:10" ht="15">
       <c r="A67" s="108" t="str">
-        <f>IF(B67="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B67)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B67,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B67="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B67)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B67,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B67" s="109"/>
@@ -23282,117 +23453,104 @@
       <c r="G67" s="208"/>
       <c r="H67" s="208"/>
       <c r="I67" s="208"/>
-      <c r="J67" s="231"/>
+      <c r="J67" s="231">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:10" ht="15">
       <c r="A68" s="108" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B68" s="108" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C68" s="231">
-        <f>SUM(C56:C64)</f>
+        <f>IF(C$7="","",SUM(C57:C67))</f>
         <v>0</v>
       </c>
       <c r="D68" s="231" t="str">
-        <f t="shared" ref="D68:I68" si="11">IF(D$7="Type fund name","",SUM(D56:D64))</f>
+        <f t="shared" ref="D68:I68" si="9">IF(D$7="Type fund name","",SUM(D57:D67))</f>
         <v/>
       </c>
       <c r="E68" s="231" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F68" s="231" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G68" s="231" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H68" s="231" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I68" s="231" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J68" s="231">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15">
-      <c r="A69" s="114" t="s">
-        <v>39</v>
-      </c>
-      <c r="B69" s="111" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" s="219">
-        <f>C54+C68</f>
-        <v>0</v>
-      </c>
-      <c r="D69" s="219" t="str">
-        <f t="shared" ref="D69:I69" si="12">IF(D$7 = "Type fund name", "", D54+D68)</f>
-        <v/>
-      </c>
-      <c r="E69" s="219" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F69" s="219" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G69" s="219" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H69" s="219" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I69" s="219" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J69" s="233">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="A69" s="104"/>
+      <c r="B69" s="107" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C69" s="107"/>
+      <c r="D69" s="107"/>
+      <c r="E69" s="107"/>
+      <c r="F69" s="107"/>
+      <c r="G69" s="107"/>
+      <c r="H69" s="107"/>
+      <c r="I69" s="107"/>
+      <c r="J69" s="96"/>
     </row>
     <row r="70" spans="1:10" ht="15">
-      <c r="A70" s="104"/>
-      <c r="B70" s="104"/>
-      <c r="C70" s="112"/>
-      <c r="D70" s="112"/>
-      <c r="E70" s="112"/>
-      <c r="F70" s="112"/>
-      <c r="G70" s="112"/>
-      <c r="H70" s="112"/>
-      <c r="I70" s="112"/>
-      <c r="J70" s="107"/>
+      <c r="A70" s="108" t="str">
+        <f>IF(B70="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B70)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B70,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B70" s="109"/>
+      <c r="C70" s="208"/>
+      <c r="D70" s="208"/>
+      <c r="E70" s="208"/>
+      <c r="F70" s="208"/>
+      <c r="G70" s="208"/>
+      <c r="H70" s="208"/>
+      <c r="I70" s="208"/>
+      <c r="J70" s="231">
+        <f t="shared" ref="J70:J83" si="10">IF(J$7="","",SUM(D70:I70))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:10" ht="15">
-      <c r="A71" s="104"/>
-      <c r="B71" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="C71" s="105"/>
-      <c r="D71" s="105"/>
-      <c r="E71" s="105"/>
-      <c r="F71" s="105"/>
-      <c r="G71" s="105"/>
-      <c r="H71" s="105"/>
-      <c r="I71" s="105"/>
-      <c r="J71" s="115"/>
+      <c r="A71" s="108" t="str">
+        <f>IF(B71="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B71)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B71,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B71" s="109"/>
+      <c r="C71" s="208"/>
+      <c r="D71" s="208"/>
+      <c r="E71" s="208"/>
+      <c r="F71" s="208"/>
+      <c r="G71" s="208"/>
+      <c r="H71" s="208"/>
+      <c r="I71" s="208"/>
+      <c r="J71" s="231">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:10" ht="15">
       <c r="A72" s="108" t="str">
-        <f>IF(B72="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B72)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B72,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B72="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B72)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B72,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B72" s="109"/>
@@ -23404,13 +23562,13 @@
       <c r="H72" s="208"/>
       <c r="I72" s="208"/>
       <c r="J72" s="231">
-        <f t="shared" ref="J72:J81" si="13">IF(J$7="","",SUM(D72:I72))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15">
       <c r="A73" s="108" t="str">
-        <f>IF(B73="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B73)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B73,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B73="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B73)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B73,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B73" s="109"/>
@@ -23422,13 +23580,13 @@
       <c r="H73" s="208"/>
       <c r="I73" s="208"/>
       <c r="J73" s="231">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15">
       <c r="A74" s="108" t="str">
-        <f>IF(B74="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B74)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B74,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B74="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B74)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B74,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B74" s="109"/>
@@ -23440,13 +23598,13 @@
       <c r="H74" s="208"/>
       <c r="I74" s="208"/>
       <c r="J74" s="231">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="J74:J78" si="11">IF(J$7="","",SUM(D74:I74))</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" hidden="1">
       <c r="A75" s="108" t="str">
-        <f>IF(B75="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B75)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B75,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B75="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B75)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B75,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B75" s="109"/>
@@ -23458,13 +23616,13 @@
       <c r="H75" s="208"/>
       <c r="I75" s="208"/>
       <c r="J75" s="231">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15" hidden="1">
       <c r="A76" s="108" t="str">
-        <f>IF(B76="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B76)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B76,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B76="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B76)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B76,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B76" s="109"/>
@@ -23476,13 +23634,13 @@
       <c r="H76" s="208"/>
       <c r="I76" s="208"/>
       <c r="J76" s="231">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15" hidden="1">
       <c r="A77" s="108" t="str">
-        <f>IF(B77="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B77)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B77,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B77="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B77)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B77,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B77" s="109"/>
@@ -23494,13 +23652,13 @@
       <c r="H77" s="208"/>
       <c r="I77" s="208"/>
       <c r="J77" s="231">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15" hidden="1">
       <c r="A78" s="108" t="str">
-        <f>IF(B78="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B78)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B78,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B78="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B78)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B78,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B78" s="109"/>
@@ -23512,13 +23670,13 @@
       <c r="H78" s="208"/>
       <c r="I78" s="208"/>
       <c r="J78" s="231">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15" hidden="1">
       <c r="A79" s="108" t="str">
-        <f>IF(B79="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B79)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B79,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B79="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B79)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B79,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B79" s="109"/>
@@ -23529,14 +23687,11 @@
       <c r="G79" s="208"/>
       <c r="H79" s="208"/>
       <c r="I79" s="208"/>
-      <c r="J79" s="231">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="J79" s="231"/>
     </row>
     <row r="80" spans="1:10" ht="15">
       <c r="A80" s="108" t="str">
-        <f>IF(B80="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B80)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B80,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <f>IF(B80="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B80)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B80,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B80" s="109"/>
@@ -23547,206 +23702,756 @@
       <c r="G80" s="208"/>
       <c r="H80" s="208"/>
       <c r="I80" s="208"/>
-      <c r="J80" s="231">
+      <c r="J80" s="231"/>
+    </row>
+    <row r="81" spans="1:10" ht="15">
+      <c r="A81" s="108" t="str">
+        <f>IF(B81="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B81)=0,"acfr:NoncurrentLiabilitiesCustom",_xlfn.XLOOKUP(B81,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B81" s="109"/>
+      <c r="C81" s="208"/>
+      <c r="D81" s="208"/>
+      <c r="E81" s="208"/>
+      <c r="F81" s="208"/>
+      <c r="G81" s="208"/>
+      <c r="H81" s="208"/>
+      <c r="I81" s="208"/>
+      <c r="J81" s="231"/>
+    </row>
+    <row r="82" spans="1:10" ht="15">
+      <c r="A82" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" s="231">
+        <f>SUM(C70:C78)</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="231" t="str">
+        <f t="shared" ref="D82:I82" si="12">IF(D$7="Type fund name","",SUM(D70:D78))</f>
+        <v/>
+      </c>
+      <c r="E82" s="231" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F82" s="231" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G82" s="231" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H82" s="231" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I82" s="231" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="J82" s="231">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15">
+      <c r="A83" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="111" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="219">
+        <f>C68+C82</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="219" t="str">
+        <f t="shared" ref="D83:I83" si="13">IF(D$7 = "Type fund name", "", D68+D82)</f>
+        <v/>
+      </c>
+      <c r="E83" s="219" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="15">
-      <c r="A81" s="111" t="s">
+        <v/>
+      </c>
+      <c r="F83" s="219" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G83" s="219" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H83" s="219" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I83" s="219" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J83" s="233">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15">
+      <c r="A84" s="104"/>
+      <c r="B84" s="104"/>
+      <c r="C84" s="112"/>
+      <c r="D84" s="112"/>
+      <c r="E84" s="112"/>
+      <c r="F84" s="112"/>
+      <c r="G84" s="112"/>
+      <c r="H84" s="112"/>
+      <c r="I84" s="112"/>
+      <c r="J84" s="107"/>
+    </row>
+    <row r="85" spans="1:10" ht="15">
+      <c r="A85" s="104"/>
+      <c r="B85" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="105"/>
+      <c r="D85" s="105"/>
+      <c r="E85" s="105"/>
+      <c r="F85" s="105"/>
+      <c r="G85" s="105"/>
+      <c r="H85" s="105"/>
+      <c r="I85" s="105"/>
+      <c r="J85" s="105"/>
+    </row>
+    <row r="86" spans="1:10" ht="15">
+      <c r="A86" s="108" t="str">
+        <f>IF(B86="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B86)=0,"acfr:DeferredInflowsOfResourcesCustom",_xlfn.XLOOKUP(B86,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B86" s="109"/>
+      <c r="C86" s="208"/>
+      <c r="D86" s="208"/>
+      <c r="E86" s="208"/>
+      <c r="F86" s="208"/>
+      <c r="G86" s="208"/>
+      <c r="H86" s="208"/>
+      <c r="I86" s="208"/>
+      <c r="J86" s="231">
+        <f t="shared" ref="J86:J97" si="14">IF(J$7="","",SUM(D86:I86))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15">
+      <c r="A87" s="108" t="str">
+        <f>IF(B87="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B87)=0,"acfr:DeferredInflowsOfResourcesCustom",_xlfn.XLOOKUP(B87,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B87" s="109"/>
+      <c r="C87" s="209"/>
+      <c r="D87" s="209"/>
+      <c r="E87" s="209"/>
+      <c r="F87" s="209"/>
+      <c r="G87" s="209"/>
+      <c r="H87" s="209"/>
+      <c r="I87" s="209"/>
+      <c r="J87" s="231">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15">
+      <c r="A88" s="108" t="str">
+        <f>IF(B88="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B88)=0,"acfr:DeferredInflowsOfResourcesCustom",_xlfn.XLOOKUP(B88,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B88" s="109"/>
+      <c r="C88" s="208"/>
+      <c r="D88" s="208"/>
+      <c r="E88" s="208"/>
+      <c r="F88" s="208"/>
+      <c r="G88" s="208"/>
+      <c r="H88" s="208"/>
+      <c r="I88" s="208"/>
+      <c r="J88" s="231">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15">
+      <c r="A89" s="108" t="str">
+        <f>IF(B89="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B89)=0,"acfr:DeferredInflowsOfResourcesCustom",_xlfn.XLOOKUP(B89,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B89" s="109"/>
+      <c r="C89" s="208"/>
+      <c r="D89" s="208"/>
+      <c r="E89" s="208"/>
+      <c r="F89" s="208"/>
+      <c r="G89" s="208"/>
+      <c r="H89" s="208"/>
+      <c r="I89" s="208"/>
+      <c r="J89" s="231">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="16" customHeight="1">
+      <c r="A90" s="108" t="str">
+        <f>IF(B90="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B90)=0,"acfr:DeferredInflowsOfResourcesCustom",_xlfn.XLOOKUP(B90,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B90" s="109"/>
+      <c r="C90" s="208"/>
+      <c r="D90" s="208"/>
+      <c r="E90" s="208"/>
+      <c r="F90" s="208"/>
+      <c r="G90" s="208"/>
+      <c r="H90" s="208"/>
+      <c r="I90" s="208"/>
+      <c r="J90" s="231">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="16" customHeight="1">
+      <c r="A91" s="108" t="str">
+        <f>IF(B91="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B91)=0,"acfr:DeferredInflowsOfResourcesCustom",_xlfn.XLOOKUP(B91,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B91" s="109"/>
+      <c r="C91" s="208"/>
+      <c r="D91" s="208"/>
+      <c r="E91" s="208"/>
+      <c r="F91" s="208"/>
+      <c r="G91" s="208"/>
+      <c r="H91" s="208"/>
+      <c r="I91" s="208"/>
+      <c r="J91" s="231">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="16" hidden="1" customHeight="1">
+      <c r="A92" s="108" t="str">
+        <f>IF(B92="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B92)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B92,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B92" s="109"/>
+      <c r="C92" s="208"/>
+      <c r="D92" s="208"/>
+      <c r="E92" s="208"/>
+      <c r="F92" s="208"/>
+      <c r="G92" s="208"/>
+      <c r="H92" s="208"/>
+      <c r="I92" s="208"/>
+      <c r="J92" s="231">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="16" hidden="1" customHeight="1">
+      <c r="A93" s="108" t="str">
+        <f>IF(B93="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B93)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B93,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B93" s="109"/>
+      <c r="C93" s="208"/>
+      <c r="D93" s="208"/>
+      <c r="E93" s="208"/>
+      <c r="F93" s="208"/>
+      <c r="G93" s="208"/>
+      <c r="H93" s="208"/>
+      <c r="I93" s="208"/>
+      <c r="J93" s="231">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="16" hidden="1" customHeight="1">
+      <c r="A94" s="108" t="str">
+        <f>IF(B94="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B94)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B94,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B94" s="109"/>
+      <c r="C94" s="208"/>
+      <c r="D94" s="208"/>
+      <c r="E94" s="208"/>
+      <c r="F94" s="208"/>
+      <c r="G94" s="208"/>
+      <c r="H94" s="208"/>
+      <c r="I94" s="208"/>
+      <c r="J94" s="231">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15" hidden="1">
+      <c r="A95" s="108" t="str">
+        <f>IF(B95="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B95)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B95,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B95" s="109"/>
+      <c r="C95" s="208"/>
+      <c r="D95" s="208"/>
+      <c r="E95" s="208"/>
+      <c r="F95" s="208"/>
+      <c r="G95" s="208"/>
+      <c r="H95" s="208"/>
+      <c r="I95" s="208"/>
+      <c r="J95" s="231">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15" hidden="1">
+      <c r="A96" s="108" t="str">
+        <f>IF(B96="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B96)=0,"acfr:CurrentLiabilitiesCustom",_xlfn.XLOOKUP(B96,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B96" s="109"/>
+      <c r="C96" s="208"/>
+      <c r="D96" s="208"/>
+      <c r="E96" s="208"/>
+      <c r="F96" s="208"/>
+      <c r="G96" s="208"/>
+      <c r="H96" s="208"/>
+      <c r="I96" s="208"/>
+      <c r="J96" s="231">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15">
+      <c r="A97" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" s="231">
+        <f>IF(C$7="","",SUM(C86:C96))</f>
+        <v>0</v>
+      </c>
+      <c r="D97" s="231" t="str">
+        <f t="shared" ref="D97:I97" si="15">IF(D$7="Type fund name","",SUM(D86:D96))</f>
+        <v/>
+      </c>
+      <c r="E97" s="231" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F97" s="231" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="G97" s="231" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="H97" s="231" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I97" s="231" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J97" s="231">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15">
+      <c r="A98" s="104"/>
+      <c r="B98" s="104"/>
+      <c r="C98" s="112"/>
+      <c r="D98" s="112"/>
+      <c r="E98" s="112"/>
+      <c r="F98" s="112"/>
+      <c r="G98" s="112"/>
+      <c r="H98" s="112"/>
+      <c r="I98" s="112"/>
+      <c r="J98" s="107"/>
+    </row>
+    <row r="99" spans="1:10" ht="15">
+      <c r="A99" s="104"/>
+      <c r="B99" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="C99" s="105"/>
+      <c r="D99" s="105"/>
+      <c r="E99" s="105"/>
+      <c r="F99" s="105"/>
+      <c r="G99" s="105"/>
+      <c r="H99" s="105"/>
+      <c r="I99" s="105"/>
+      <c r="J99" s="115"/>
+    </row>
+    <row r="100" spans="1:10" ht="15">
+      <c r="A100" s="108" t="str">
+        <f>IF(B100="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B100)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B100,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B100" s="109"/>
+      <c r="C100" s="208"/>
+      <c r="D100" s="208"/>
+      <c r="E100" s="208"/>
+      <c r="F100" s="208"/>
+      <c r="G100" s="208"/>
+      <c r="H100" s="208"/>
+      <c r="I100" s="208"/>
+      <c r="J100" s="231">
+        <f t="shared" ref="J100:J109" si="16">IF(J$7="","",SUM(D100:I100))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15">
+      <c r="A101" s="108" t="str">
+        <f>IF(B101="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B101)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B101,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B101" s="109"/>
+      <c r="C101" s="208"/>
+      <c r="D101" s="208"/>
+      <c r="E101" s="208"/>
+      <c r="F101" s="208"/>
+      <c r="G101" s="208"/>
+      <c r="H101" s="208"/>
+      <c r="I101" s="208"/>
+      <c r="J101" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15">
+      <c r="A102" s="108" t="str">
+        <f>IF(B102="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B102)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B102,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B102" s="109"/>
+      <c r="C102" s="208"/>
+      <c r="D102" s="208"/>
+      <c r="E102" s="208"/>
+      <c r="F102" s="208"/>
+      <c r="G102" s="208"/>
+      <c r="H102" s="208"/>
+      <c r="I102" s="208"/>
+      <c r="J102" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15">
+      <c r="A103" s="108" t="str">
+        <f>IF(B103="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B103)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B103,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B103" s="109"/>
+      <c r="C103" s="208"/>
+      <c r="D103" s="208"/>
+      <c r="E103" s="208"/>
+      <c r="F103" s="208"/>
+      <c r="G103" s="208"/>
+      <c r="H103" s="208"/>
+      <c r="I103" s="208"/>
+      <c r="J103" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="33" customFormat="1" ht="15">
+      <c r="A104" s="108" t="str">
+        <f>IF(B104="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B104)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B104,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B104" s="109"/>
+      <c r="C104" s="208"/>
+      <c r="D104" s="208"/>
+      <c r="E104" s="208"/>
+      <c r="F104" s="208"/>
+      <c r="G104" s="208"/>
+      <c r="H104" s="208"/>
+      <c r="I104" s="208"/>
+      <c r="J104" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="33" customFormat="1" ht="15">
+      <c r="A105" s="108" t="str">
+        <f>IF(B105="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B105)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B105,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B105" s="109"/>
+      <c r="C105" s="208"/>
+      <c r="D105" s="208"/>
+      <c r="E105" s="208"/>
+      <c r="F105" s="208"/>
+      <c r="G105" s="208"/>
+      <c r="H105" s="208"/>
+      <c r="I105" s="208"/>
+      <c r="J105" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="33" customFormat="1" ht="15">
+      <c r="A106" s="108" t="str">
+        <f>IF(B106="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B106)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B106,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B106" s="109"/>
+      <c r="C106" s="208"/>
+      <c r="D106" s="208"/>
+      <c r="E106" s="208"/>
+      <c r="F106" s="208"/>
+      <c r="G106" s="208"/>
+      <c r="H106" s="208"/>
+      <c r="I106" s="208"/>
+      <c r="J106" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="33" customFormat="1" ht="15">
+      <c r="A107" s="108" t="str">
+        <f>IF(B107="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B107)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B107,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B107" s="109"/>
+      <c r="C107" s="208"/>
+      <c r="D107" s="208"/>
+      <c r="E107" s="208"/>
+      <c r="F107" s="208"/>
+      <c r="G107" s="208"/>
+      <c r="H107" s="208"/>
+      <c r="I107" s="208"/>
+      <c r="J107" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="33" customFormat="1" ht="15">
+      <c r="A108" s="108" t="str">
+        <f>IF(B108="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B108)=0,"acfr:RestrictedComponentsOfNetPositionCustom",_xlfn.XLOOKUP(B108,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B108" s="109"/>
+      <c r="C108" s="208"/>
+      <c r="D108" s="208"/>
+      <c r="E108" s="208"/>
+      <c r="F108" s="208"/>
+      <c r="G108" s="208"/>
+      <c r="H108" s="208"/>
+      <c r="I108" s="208"/>
+      <c r="J108" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="33" customFormat="1" ht="15">
+      <c r="A109" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B81" s="111" t="s">
+      <c r="B109" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="219">
-        <f>IF(C7="","",SUM(C72:C80))</f>
-        <v>0</v>
-      </c>
-      <c r="D81" s="219" t="str">
-        <f t="shared" ref="D81:I81" si="14">IF(D7="Type fund name","",SUM(D72:D80))</f>
+      <c r="C109" s="219">
+        <f>IF(C7="","",SUM(C100:C108))</f>
+        <v>0</v>
+      </c>
+      <c r="D109" s="219" t="str">
+        <f>IF(D7="Type fund name","",SUM(D100:D108))</f>
         <v/>
       </c>
-      <c r="E81" s="219" t="str">
-        <f t="shared" si="14"/>
+      <c r="E109" s="219" t="str">
+        <f>IF(E7="Type fund name","",SUM(E100:E108))</f>
         <v/>
       </c>
-      <c r="F81" s="219" t="str">
-        <f t="shared" si="14"/>
+      <c r="F109" s="219" t="str">
+        <f>IF(F7="Type fund name","",SUM(F100:F108))</f>
         <v/>
       </c>
-      <c r="G81" s="219" t="str">
-        <f t="shared" si="14"/>
+      <c r="G109" s="219" t="str">
+        <f>IF(G7="Type fund name","",SUM(G100:G108))</f>
         <v/>
       </c>
-      <c r="H81" s="219" t="str">
-        <f t="shared" si="14"/>
+      <c r="H109" s="219" t="str">
+        <f>IF(H7="Type fund name","",SUM(H100:H108))</f>
         <v/>
       </c>
-      <c r="I81" s="219" t="str">
-        <f t="shared" si="14"/>
+      <c r="I109" s="219" t="str">
+        <f>IF(I7="Type fund name","",SUM(I100:I108))</f>
         <v/>
       </c>
-      <c r="J81" s="232">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="16">
-      <c r="C82" s="116"/>
-      <c r="D82" s="116"/>
-      <c r="E82" s="116"/>
-      <c r="F82" s="116"/>
-      <c r="G82" s="116"/>
-      <c r="H82" s="116"/>
-      <c r="I82" s="116"/>
-      <c r="J82" s="112"/>
-    </row>
-    <row r="83" spans="1:10" ht="15">
-      <c r="J83" s="112"/>
-    </row>
-    <row r="84" spans="1:10" ht="15">
-      <c r="J84" s="112"/>
-    </row>
-    <row r="85" spans="1:10" ht="15">
-      <c r="J85" s="112"/>
-    </row>
-    <row r="86" spans="1:10" ht="15">
-      <c r="J86" s="112"/>
-    </row>
-    <row r="87" spans="1:10" ht="15">
-      <c r="J87" s="112"/>
-    </row>
-    <row r="88" spans="1:10" ht="15">
-      <c r="J88" s="112"/>
-    </row>
-    <row r="89" spans="1:10" ht="15">
-      <c r="J89" s="112"/>
-    </row>
-    <row r="90" spans="1:10" ht="15">
-      <c r="J90" s="112"/>
-    </row>
-    <row r="91" spans="1:10" ht="15">
-      <c r="J91" s="112"/>
-    </row>
-    <row r="92" spans="1:10" ht="15">
-      <c r="J92" s="112"/>
-    </row>
-    <row r="93" spans="1:10" ht="15">
-      <c r="J93" s="112"/>
-    </row>
-    <row r="94" spans="1:10" ht="15">
-      <c r="J94" s="112"/>
-    </row>
-    <row r="95" spans="1:10" ht="15">
-      <c r="J95" s="112"/>
-    </row>
-    <row r="96" spans="1:10" ht="15">
-      <c r="J96" s="112"/>
-    </row>
-    <row r="97" spans="10:10" ht="15">
-      <c r="J97" s="112"/>
-    </row>
-    <row r="98" spans="10:10" ht="15">
-      <c r="J98" s="112"/>
-    </row>
-    <row r="99" spans="10:10" ht="15">
-      <c r="J99" s="112"/>
-    </row>
-    <row r="100" spans="10:10" ht="15">
-      <c r="J100" s="112"/>
-    </row>
-    <row r="101" spans="10:10" ht="15">
-      <c r="J101" s="112"/>
-    </row>
-    <row r="102" spans="10:10" ht="15">
-      <c r="J102" s="112"/>
-    </row>
-    <row r="103" spans="10:10" ht="15">
-      <c r="J103" s="112"/>
-    </row>
-    <row r="104" spans="10:10" ht="15">
-      <c r="J104" s="112"/>
-    </row>
-    <row r="105" spans="10:10" ht="15">
-      <c r="J105" s="112"/>
-    </row>
-    <row r="106" spans="10:10" ht="15">
-      <c r="J106" s="112"/>
-    </row>
-    <row r="107" spans="10:10" ht="15">
-      <c r="J107" s="112"/>
-    </row>
-    <row r="108" spans="10:10" ht="15">
-      <c r="J108" s="112"/>
-    </row>
-    <row r="109" spans="10:10" ht="15">
-      <c r="J109" s="112"/>
+      <c r="J109" s="232">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="33" customFormat="1" ht="16" hidden="1">
+      <c r="A110" s="84"/>
+      <c r="B110" s="84"/>
+      <c r="C110" s="116"/>
+      <c r="D110" s="116"/>
+      <c r="E110" s="116"/>
+      <c r="F110" s="116"/>
+      <c r="G110" s="116"/>
+      <c r="H110" s="116"/>
+      <c r="I110" s="116"/>
+      <c r="J110" s="112"/>
+    </row>
+    <row r="111" spans="1:10" s="33" customFormat="1" ht="15" hidden="1">
+      <c r="A111" s="84"/>
+      <c r="B111" s="84"/>
+      <c r="C111" s="84"/>
+      <c r="D111" s="84"/>
+      <c r="E111" s="84"/>
+      <c r="F111" s="84"/>
+      <c r="G111" s="84"/>
+      <c r="H111" s="84"/>
+      <c r="I111" s="84"/>
+      <c r="J111" s="112"/>
+    </row>
+    <row r="112" spans="1:10" s="33" customFormat="1" ht="15" hidden="1">
+      <c r="A112" s="257"/>
+      <c r="B112" s="262" t="s">
+        <v>3636</v>
+      </c>
+      <c r="C112" s="84"/>
+      <c r="D112" s="84"/>
+      <c r="E112" s="84"/>
+      <c r="F112" s="84"/>
+      <c r="G112" s="84"/>
+      <c r="H112" s="84"/>
+      <c r="I112" s="84"/>
+      <c r="J112" s="112"/>
+    </row>
+    <row r="113" spans="1:10" s="33" customFormat="1" ht="15" hidden="1">
+      <c r="A113" s="257"/>
+      <c r="B113" s="263"/>
+      <c r="C113" s="84"/>
+      <c r="D113" s="84"/>
+      <c r="E113" s="84"/>
+      <c r="F113" s="84"/>
+      <c r="G113" s="84"/>
+      <c r="H113" s="84"/>
+      <c r="I113" s="84"/>
+      <c r="J113" s="112"/>
+    </row>
+    <row r="114" spans="1:10" s="33" customFormat="1" ht="15">
+      <c r="A114" s="84"/>
+      <c r="B114" s="84"/>
+      <c r="C114" s="84"/>
+      <c r="D114" s="84"/>
+      <c r="E114" s="84"/>
+      <c r="F114" s="84"/>
+      <c r="G114" s="84"/>
+      <c r="H114" s="84"/>
+      <c r="I114" s="84"/>
+      <c r="J114" s="112"/>
+    </row>
+    <row r="115" spans="1:10" ht="15">
+      <c r="J115" s="112"/>
+    </row>
+    <row r="116" spans="1:10" ht="15">
+      <c r="J116" s="112"/>
+    </row>
+    <row r="117" spans="1:10" ht="15">
+      <c r="J117" s="112"/>
+    </row>
+    <row r="118" spans="1:10" ht="15">
+      <c r="J118" s="112"/>
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="B112:B113"/>
+  </mergeCells>
   <conditionalFormatting sqref="A10:A23">
-    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="47" priority="14" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:A37">
-    <cfRule type="containsText" dxfId="42" priority="4" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="46" priority="13" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43:A53">
-    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A43)))</formula>
+  <conditionalFormatting sqref="A57:A67">
+    <cfRule type="containsText" dxfId="45" priority="12" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:A67">
-    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A56)))</formula>
+  <conditionalFormatting sqref="A70:A81">
+    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A70)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A80">
-    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A72)))</formula>
+  <conditionalFormatting sqref="A100:A108">
+    <cfRule type="containsText" dxfId="43" priority="10" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A100)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24 C38 C54:I54 C68:C69 C81:I81">
-    <cfRule type="expression" dxfId="38" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="C24 C38 C68:I68 C82:C83 C109:I109">
+    <cfRule type="expression" dxfId="42" priority="20" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68:I68">
-    <cfRule type="expression" dxfId="37" priority="9" stopIfTrue="1">
+  <conditionalFormatting sqref="D82:I82">
+    <cfRule type="expression" dxfId="41" priority="18" stopIfTrue="1">
       <formula>D$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="36" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="17" stopIfTrue="1">
       <formula>K$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:A52">
+    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:I53">
+    <cfRule type="expression" dxfId="38" priority="6" stopIfTrue="1">
+      <formula>C$7=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86:A96">
+    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A86)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97:I97">
+    <cfRule type="expression" dxfId="36" priority="2" stopIfTrue="1">
+      <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{3020B3D5-A2C3-4F4B-8EFD-A19414110BEC}">
           <x14:formula1>
             <xm:f>'Lookup Net Position'!$B$202:$B$315</xm:f>
           </x14:formula1>
-          <xm:sqref>B43:B53</xm:sqref>
+          <xm:sqref>B57:B67 B48:B52 B92:B96</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{0AF5B33B-114A-5D47-AC98-0EF208D28A50}">
           <x14:formula1>
             <xm:f>'Lookup Net Position'!$B$469:$B$514</xm:f>
           </x14:formula1>
-          <xm:sqref>B56:B67</xm:sqref>
+          <xm:sqref>B70:B81</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{62718926-C752-384A-817F-8A854F7BD996}">
           <x14:formula1>
             <xm:f>'Lookup Net Position'!$B$355:$B$375</xm:f>
           </x14:formula1>
-          <xm:sqref>B72:B80</xm:sqref>
+          <xm:sqref>B100:B108</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{E796ED53-BB10-BA41-A5DA-36CA177F44A2}">
           <x14:formula1>
@@ -23759,6 +24464,18 @@
             <xm:f>'Lookup Net Position'!$B$2:$B$201</xm:f>
           </x14:formula1>
           <xm:sqref>B10:B23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{1A045BB2-96D6-734E-95FE-7E3BC4BE9B80}">
+          <x14:formula1>
+            <xm:f>'Lookup Net Position'!$B$338:$B$354</xm:f>
+          </x14:formula1>
+          <xm:sqref>B42:B47</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{9515C0BB-B0C1-8646-8A2B-B3448D36D576}">
+          <x14:formula1>
+            <xm:f>'Lookup Net Position'!$B$316:$B$337</xm:f>
+          </x14:formula1>
+          <xm:sqref>B86:B91</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -23773,8 +24490,8 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView topLeftCell="A5" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -25163,9 +25880,15 @@
       <c r="J72" s="112"/>
     </row>
     <row r="73" spans="1:10" ht="15">
+      <c r="A73" s="259"/>
+      <c r="B73" s="271" t="s">
+        <v>3636</v>
+      </c>
       <c r="J73" s="112"/>
     </row>
     <row r="74" spans="1:10" ht="15">
+      <c r="A74" s="259"/>
+      <c r="B74" s="272"/>
       <c r="J74" s="112"/>
     </row>
     <row r="75" spans="1:10" ht="15">
@@ -25245,6 +25968,9 @@
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="B73:B74"/>
+  </mergeCells>
   <conditionalFormatting sqref="A9:A22">
     <cfRule type="containsText" dxfId="35" priority="4" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
@@ -25343,8 +26069,8 @@
   </sheetPr>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView topLeftCell="A2" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -26788,8 +27514,10 @@
       <c r="J76" s="138"/>
     </row>
     <row r="77" spans="1:10" ht="15">
-      <c r="A77" s="104"/>
-      <c r="B77" s="154"/>
+      <c r="A77" s="257"/>
+      <c r="B77" s="262" t="s">
+        <v>3636</v>
+      </c>
       <c r="C77" s="155"/>
       <c r="D77" s="155"/>
       <c r="E77" s="155"/>
@@ -26800,8 +27528,8 @@
       <c r="J77" s="138"/>
     </row>
     <row r="78" spans="1:10" ht="15">
-      <c r="A78" s="104"/>
-      <c r="B78" s="154"/>
+      <c r="A78" s="257"/>
+      <c r="B78" s="263"/>
       <c r="C78" s="155"/>
       <c r="D78" s="155"/>
       <c r="E78" s="155"/>
@@ -26823,6 +27551,9 @@
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="B77:B78"/>
+  </mergeCells>
   <conditionalFormatting sqref="A9:A22">
     <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
@@ -26928,7 +27659,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:B78" xr:uid="{98ECD2C2-C0B9-E74C-B5D0-14A316D496F4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:B76" xr:uid="{98ECD2C2-C0B9-E74C-B5D0-14A316D496F4}">
       <formula1>net_position</formula1>
     </dataValidation>
   </dataValidations>
@@ -33953,10 +34684,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:E311"/>
+  <dimension ref="A1:E310"/>
   <sheetViews>
-    <sheetView topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="D262" sqref="D262"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A313" sqref="A313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -38194,7 +38925,7 @@
         <v>acfr:Bond or Insurance Recoveries</v>
       </c>
       <c r="D249" s="120" t="str">
-        <f t="shared" ref="D249:D262" si="13">IF(RIGHT(B249, 8)="Abstract", "Abstract", "Capital Contributions")</f>
+        <f t="shared" ref="D249:D261" si="13">IF(RIGHT(B249, 8)="Abstract", "Abstract", "Capital Contributions")</f>
         <v>Capital Contributions</v>
       </c>
       <c r="E249" s="119"/>
@@ -38415,7 +39146,7 @@
         <v>acfr:Transfers of Capital Assets Out</v>
       </c>
       <c r="D262" s="120" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(RIGHT(B262, 8)="Abstract", "Abstract", "Capital Contributions")</f>
         <v>Capital Contributions</v>
       </c>
       <c r="E262" s="119"/>
@@ -38998,6 +39729,9 @@
       </c>
       <c r="E296" s="119"/>
     </row>
+    <row r="306" spans="3:3" ht="15">
+      <c r="C306" s="104"/>
+    </row>
     <row r="307" spans="3:3" ht="15">
       <c r="C307" s="104"/>
     </row>
@@ -39005,13 +39739,10 @@
       <c r="C308" s="104"/>
     </row>
     <row r="309" spans="3:3" ht="15">
-      <c r="C309" s="104"/>
+      <c r="C309" s="132"/>
     </row>
     <row r="310" spans="3:3" ht="15">
-      <c r="C310" s="132"/>
-    </row>
-    <row r="311" spans="3:3" ht="15">
-      <c r="C311" s="129"/>
+      <c r="C310" s="129"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D296">
@@ -46726,10 +47457,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8474313-8EAC-0141-BA8E-861AF31ED060}">
-  <dimension ref="B1:E32"/>
+  <dimension ref="B1:E40"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -46857,20 +47588,28 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>3631</v>
+    <row r="29" spans="2:2">
+      <c r="B29" s="261" t="s">
+        <v>3637</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
         <v>3633</v>
       </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="260"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -46887,15 +47626,15 @@
   <sheetPr codeName="Sheet8">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="81" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="A41" zoomScale="88" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" style="33" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="33" customWidth="1"/>
     <col min="3" max="5" width="18.6640625" style="33" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" style="33" customWidth="1"/>
@@ -48288,72 +49027,88 @@
       <c r="C102" s="36"/>
       <c r="D102" s="37"/>
     </row>
+    <row r="103" spans="1:6">
+      <c r="B103" s="256"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="257"/>
+      <c r="B104" s="262" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="257"/>
+      <c r="B105" s="263"/>
+    </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="B104:B105"/>
+  </mergeCells>
   <conditionalFormatting sqref="A9:A22">
-    <cfRule type="expression" dxfId="90" priority="16">
+    <cfRule type="expression" dxfId="94" priority="16">
       <formula>A9="acfr:CurrentAssetsCustom"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A31">
-    <cfRule type="containsText" dxfId="89" priority="3" operator="containsText" text="acfr:NonCurrentAssetsCustom">
+    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="acfr:NonCurrentAssetsCustom">
       <formula>NOT(ISERROR(SEARCH("acfr:NonCurrentAssetsCustom",A25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A45">
-    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="acfr:DeferredOutflowsOfResourcesCustom">
+    <cfRule type="containsText" dxfId="92" priority="2" operator="containsText" text="acfr:DeferredOutflowsOfResourcesCustom">
       <formula>NOT(ISERROR(SEARCH("acfr:DeferredOutflowsOfResourcesCustom",A41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="13" operator="containsText" text="acfr:DeferredOutflowsOfResourcesCustom">
+    <cfRule type="containsText" dxfId="91" priority="13" operator="containsText" text="acfr:DeferredOutflowsOfResourcesCustom">
       <formula>NOT(ISERROR(SEARCH("acfr:DeferredOutflowsOfResourcesCustom",A41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A59">
-    <cfRule type="containsText" dxfId="86" priority="1" operator="containsText" text="acfr:CurrentLiabilitiesCustom">
+    <cfRule type="containsText" dxfId="90" priority="1" operator="containsText" text="acfr:CurrentLiabilitiesCustom">
       <formula>NOT(ISERROR(SEARCH("acfr:CurrentLiabilitiesCustom",A54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="12" operator="containsText" text="acfr:CurrentLiabilitiesCustom">
+    <cfRule type="containsText" dxfId="89" priority="12" operator="containsText" text="acfr:CurrentLiabilitiesCustom">
       <formula>NOT(ISERROR(SEARCH("acfr:CurrentLiabilitiesCustom",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:A70">
-    <cfRule type="containsText" dxfId="84" priority="11" operator="containsText" text="acfr:NoncurrentLiabilitiesCustom">
+    <cfRule type="containsText" dxfId="88" priority="11" operator="containsText" text="acfr:NoncurrentLiabilitiesCustom">
       <formula>NOT(ISERROR(SEARCH("acfr:NoncurrentLiabilitiesCustom",A67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:A83">
-    <cfRule type="containsText" dxfId="83" priority="10" operator="containsText" text="acfr:DeferredInflowsOfResourcesCustom">
+    <cfRule type="containsText" dxfId="87" priority="10" operator="containsText" text="acfr:DeferredInflowsOfResourcesCustom">
       <formula>NOT(ISERROR(SEARCH("acfr:DeferredInflowsOfResourcesCustom",A80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:A95">
-    <cfRule type="containsText" dxfId="82" priority="9" operator="containsText" text="acfr:RestrictedComponentsOfNetPositionCustom">
+    <cfRule type="containsText" dxfId="86" priority="9" operator="containsText" text="acfr:RestrictedComponentsOfNetPositionCustom">
       <formula>NOT(ISERROR(SEARCH("acfr:RestrictedComponentsOfNetPositionCustom",A92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="81" priority="15" operator="containsText" text="acfr:CurrentAssetsCustom">
+    <cfRule type="containsText" dxfId="85" priority="15" operator="containsText" text="acfr:CurrentAssetsCustom">
       <formula>NOT(ISERROR(SEARCH("acfr:CurrentAssetsCustom",B15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101:F101">
-    <cfRule type="cellIs" dxfId="80" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="34" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="36" operator="notEqual">
+    <cfRule type="cellIs" dxfId="82" priority="36" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F37 C23:F23 C37:F37 D39:F101 C50 C65:F65 C76:C77 C89 C101">
-    <cfRule type="expression" dxfId="77" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="18" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M68">
-    <cfRule type="expression" dxfId="76" priority="8">
+    <cfRule type="expression" dxfId="80" priority="8">
       <formula>$A$9:$A$22="acfr:CurrentAssetsCustom"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48440,8 +49195,8 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="84" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A44" zoomScale="84" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -50015,54 +50770,60 @@
       <c r="I79" s="54"/>
     </row>
     <row r="80" spans="1:10" ht="15">
+      <c r="A80" s="257"/>
+      <c r="B80" s="264" t="s">
+        <v>3636</v>
+      </c>
       <c r="I80" s="54"/>
     </row>
-    <row r="81" spans="9:9" ht="15">
+    <row r="81" spans="1:9" ht="15">
+      <c r="A81" s="257"/>
+      <c r="B81" s="265"/>
       <c r="I81" s="54"/>
     </row>
-    <row r="82" spans="9:9" ht="15">
+    <row r="82" spans="1:9" ht="15">
       <c r="I82" s="54"/>
     </row>
-    <row r="83" spans="9:9" ht="15">
+    <row r="83" spans="1:9" ht="15">
       <c r="I83" s="54"/>
     </row>
-    <row r="84" spans="9:9" ht="15">
+    <row r="84" spans="1:9" ht="15">
       <c r="I84" s="54"/>
     </row>
-    <row r="85" spans="9:9" ht="15">
+    <row r="85" spans="1:9" ht="15">
       <c r="I85" s="54"/>
     </row>
-    <row r="86" spans="9:9" ht="15">
+    <row r="86" spans="1:9" ht="15">
       <c r="I86" s="54"/>
     </row>
-    <row r="87" spans="9:9" ht="15">
+    <row r="87" spans="1:9" ht="15">
       <c r="I87" s="54"/>
     </row>
-    <row r="88" spans="9:9" ht="15">
+    <row r="88" spans="1:9" ht="15">
       <c r="I88" s="54"/>
     </row>
-    <row r="89" spans="9:9" ht="14">
+    <row r="89" spans="1:9" ht="14">
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="9:9" ht="15">
+    <row r="90" spans="1:9" ht="15">
       <c r="I90" s="53"/>
     </row>
-    <row r="91" spans="9:9" ht="15">
+    <row r="91" spans="1:9" ht="15">
       <c r="I91" s="54"/>
     </row>
-    <row r="92" spans="9:9" ht="15">
+    <row r="92" spans="1:9" ht="15">
       <c r="I92" s="54"/>
     </row>
-    <row r="93" spans="9:9" ht="15">
+    <row r="93" spans="1:9" ht="15">
       <c r="I93" s="54"/>
     </row>
-    <row r="94" spans="9:9" ht="15">
+    <row r="94" spans="1:9" ht="15">
       <c r="I94" s="54"/>
     </row>
-    <row r="95" spans="9:9" ht="15">
+    <row r="95" spans="1:9" ht="15">
       <c r="I95" s="54"/>
     </row>
-    <row r="96" spans="9:9" ht="15">
+    <row r="96" spans="1:9" ht="15">
       <c r="I96" s="54"/>
     </row>
     <row r="97" spans="9:9" ht="15">
@@ -50076,88 +50837,91 @@
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="B80:B81"/>
+  </mergeCells>
   <conditionalFormatting sqref="A9:A22">
-    <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="79" priority="9" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A36">
-    <cfRule type="containsText" dxfId="74" priority="8" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="78" priority="8" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A63">
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="77" priority="5" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:A70">
-    <cfRule type="containsText" dxfId="72" priority="1" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="76" priority="1" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:B49">
-    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23 C37 C50 D53:G63">
-    <cfRule type="expression" dxfId="70" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="58" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:J64">
-    <cfRule type="expression" dxfId="69" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="43" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:J72">
-    <cfRule type="expression" dxfId="68" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="19" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F6 D52:F52">
-    <cfRule type="expression" dxfId="67" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="55" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:G51">
-    <cfRule type="expression" dxfId="66" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="15" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:J70">
-    <cfRule type="expression" dxfId="65" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="11" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74:J77 I78:I99">
-    <cfRule type="expression" dxfId="64" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="10" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H50">
-    <cfRule type="expression" dxfId="63" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="14" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:I38">
-    <cfRule type="expression" dxfId="62" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="52" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:J6 D7:I37 I39:I51">
-    <cfRule type="expression" dxfId="61" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="48" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:J63">
-    <cfRule type="expression" dxfId="60" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="12" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J50">
-    <cfRule type="expression" dxfId="59" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="13" stopIfTrue="1">
       <formula>J$6=""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarrahahmed/Desktop/CLOSUP/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4EB1D5-2CFE-5745-8763-EB70F93AE294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7005A4-4327-964A-AA98-262F64B11467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17260" tabRatio="834" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" tabRatio="834" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Net Position" sheetId="8" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5383" uniqueCount="3638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5390" uniqueCount="3645">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -11007,6 +11007,27 @@
   </si>
   <si>
     <t xml:space="preserve">  -Select "Choose file(s))" on the Inline XBRL Conversion Tool Website. You will select the excel sheet, and can also upload 0-5 word documents which may include content such as auditors letters, notes, or other text. Once you have selected files, you can adjust their ordering. Then, simply select "combine and convert files". Please be patient, the conversion may take up to one minute or possibly more, depending on the number of files being uploaded. </t>
+  </si>
+  <si>
+    <t>Total Capital Assets</t>
+  </si>
+  <si>
+    <t>Total Accrual of Non-Current Revenues and Expenses</t>
+  </si>
+  <si>
+    <t>Total Deferred Inflows And Outflows</t>
+  </si>
+  <si>
+    <t>Total Allocation of Internal Service Fund Net Position</t>
+  </si>
+  <si>
+    <t>Total Accrual of Non-Current Items</t>
+  </si>
+  <si>
+    <t>Total Capital Asset Transactions</t>
+  </si>
+  <si>
+    <t>Total Allocation of Internal Service Fund Activity</t>
   </si>
 </sst>
 </file>
@@ -11676,7 +11697,7 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12223,6 +12244,14 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="44" fontId="23" fillId="13" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="13" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -12527,24 +12556,10 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12569,6 +12584,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -20383,10 +20412,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:B36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -20430,7 +20459,7 @@
         <v>44742</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16">
+    <row r="6" spans="1:2" ht="32">
       <c r="A6" s="173" t="s">
         <v>2465</v>
       </c>
@@ -20466,15 +20495,20 @@
       <c r="A13" s="158"/>
       <c r="B13" s="210"/>
     </row>
-    <row r="14" spans="1:2" ht="32">
-      <c r="A14" s="157" t="s">
+    <row r="14" spans="1:2" ht="15">
+      <c r="A14" s="273" t="s">
+        <v>3638</v>
+      </c>
+      <c r="B14" s="210">
+        <f>SUM(B9:B13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="32">
+      <c r="A15" s="157" t="s">
         <v>2467</v>
       </c>
-      <c r="B14" s="157"/>
-    </row>
-    <row r="15" spans="1:2" ht="15">
-      <c r="A15" s="158"/>
-      <c r="B15" s="210"/>
+      <c r="B15" s="157"/>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="158"/>
@@ -20492,15 +20526,20 @@
       <c r="A19" s="158"/>
       <c r="B19" s="210"/>
     </row>
-    <row r="20" spans="1:2" ht="16">
-      <c r="A20" s="157" t="s">
+    <row r="20" spans="1:2" ht="15">
+      <c r="A20" s="273" t="s">
+        <v>3639</v>
+      </c>
+      <c r="B20" s="210">
+        <f>SUM(B16:B19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16">
+      <c r="A21" s="157" t="s">
         <v>2468</v>
       </c>
-      <c r="B20" s="157"/>
-    </row>
-    <row r="21" spans="1:2" ht="15">
-      <c r="A21" s="158"/>
-      <c r="B21" s="210"/>
+      <c r="B21" s="157"/>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="158"/>
@@ -20518,15 +20557,20 @@
       <c r="A25" s="158"/>
       <c r="B25" s="210"/>
     </row>
-    <row r="26" spans="1:2" ht="32">
-      <c r="A26" s="157" t="s">
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" s="274" t="s">
+        <v>3640</v>
+      </c>
+      <c r="B26" s="210">
+        <f>SUM(B22:B25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="32">
+      <c r="A27" s="157" t="s">
         <v>2469</v>
       </c>
-      <c r="B26" s="157"/>
-    </row>
-    <row r="27" spans="1:2" ht="15">
-      <c r="A27" s="158"/>
-      <c r="B27" s="210"/>
+      <c r="B27" s="157"/>
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="158"/>
@@ -20542,30 +20586,39 @@
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="158"/>
-      <c r="B31" s="224"/>
-    </row>
-    <row r="32" spans="1:2" ht="32">
-      <c r="A32" s="176" t="s">
+      <c r="B31" s="210"/>
+    </row>
+    <row r="32" spans="1:2" ht="15">
+      <c r="A32" s="273" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B32" s="224">
+        <f>SUM(B28:B31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="32">
+      <c r="A33" s="176" t="s">
         <v>2470</v>
       </c>
-      <c r="B32" s="225">
-        <f>SUM(B27:B31, B21:B25, B15:B19, B9:B13, B7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="269" t="s">
+      <c r="B33" s="225">
+        <f>SUM(B28:B31, B22:B25, B16:B19, B9:B13, B6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="269" t="s">
         <v>3636</v>
       </c>
-      <c r="B35" s="264"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="270"/>
-      <c r="B36" s="265"/>
+      <c r="B36" s="264"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="270"/>
+      <c r="B37" s="265"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="A36:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22021,8 +22074,8 @@
   </sheetPr>
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -22102,8 +22155,13 @@
       <c r="B12" s="210"/>
     </row>
     <row r="13" spans="1:2" ht="15">
-      <c r="A13" s="158"/>
-      <c r="B13" s="210"/>
+      <c r="A13" s="273" t="s">
+        <v>3642</v>
+      </c>
+      <c r="B13" s="210">
+        <f>SUM(B9:B12)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="16">
       <c r="A14" s="157" t="s">
@@ -22128,8 +22186,13 @@
       <c r="B18" s="210"/>
     </row>
     <row r="19" spans="1:2" ht="15">
-      <c r="A19" s="158"/>
-      <c r="B19" s="210"/>
+      <c r="A19" s="273" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B19" s="210">
+        <f>SUM(B15:B18)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="32">
       <c r="A20" s="157" t="s">
@@ -22154,8 +22217,13 @@
       <c r="B24" s="210"/>
     </row>
     <row r="25" spans="1:2" ht="15">
-      <c r="A25" s="158"/>
-      <c r="B25" s="210"/>
+      <c r="A25" s="273" t="s">
+        <v>3644</v>
+      </c>
+      <c r="B25" s="210">
+        <f>SUM(B21:B24)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:2" ht="48">
       <c r="A26" s="176" t="s">
@@ -22188,7 +22256,7 @@
   </sheetPr>
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
@@ -22570,7 +22638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16" hidden="1">
+    <row r="22" spans="1:10" ht="15" hidden="1">
       <c r="A22" s="108" t="str">
         <f>IF(B22="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B22)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B22,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -22840,7 +22908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="36" hidden="1">
+    <row r="36" spans="1:10" ht="15" hidden="1">
       <c r="A36" s="108" t="str">
         <f>IF(B36="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B36)=0,"acfr:NoncurrentAssetsCustom",_xlfn.XLOOKUP(B36,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -22928,27 +22996,27 @@
         <v>0</v>
       </c>
       <c r="D39" s="232" t="str">
-        <f>IF(D$7="Type fund name","",D24+D38)</f>
+        <f t="shared" ref="D39:I39" si="5">IF(D$7="Type fund name","",D24+D38)</f>
         <v/>
       </c>
       <c r="E39" s="232" t="str">
-        <f>IF(E$7="Type fund name","",E24+E38)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F39" s="232" t="str">
-        <f>IF(F$7="Type fund name","",F24+F38)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G39" s="232" t="str">
-        <f>IF(G$7="Type fund name","",G24+G38)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H39" s="232" t="str">
-        <f>IF(H$7="Type fund name","",H24+H38)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I39" s="232" t="str">
-        <f>IF(I$7="Type fund name","",I24+I38)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J39" s="219">
@@ -22996,7 +23064,7 @@
       <c r="H42" s="208"/>
       <c r="I42" s="208"/>
       <c r="J42" s="231">
-        <f t="shared" ref="J42:J53" si="5">IF(J$7="","",SUM(D42:I42))</f>
+        <f t="shared" ref="J42:J53" si="6">IF(J$7="","",SUM(D42:I42))</f>
         <v>0</v>
       </c>
     </row>
@@ -23014,7 +23082,7 @@
       <c r="H43" s="209"/>
       <c r="I43" s="209"/>
       <c r="J43" s="231">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -23032,7 +23100,7 @@
       <c r="H44" s="208"/>
       <c r="I44" s="208"/>
       <c r="J44" s="231">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -23050,7 +23118,7 @@
       <c r="H45" s="208"/>
       <c r="I45" s="208"/>
       <c r="J45" s="231">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -23068,7 +23136,7 @@
       <c r="H46" s="208"/>
       <c r="I46" s="208"/>
       <c r="J46" s="231">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -23086,7 +23154,7 @@
       <c r="H47" s="208"/>
       <c r="I47" s="208"/>
       <c r="J47" s="231">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -23104,7 +23172,7 @@
       <c r="H48" s="208"/>
       <c r="I48" s="208"/>
       <c r="J48" s="231">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -23122,7 +23190,7 @@
       <c r="H49" s="208"/>
       <c r="I49" s="208"/>
       <c r="J49" s="231">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -23140,7 +23208,7 @@
       <c r="H50" s="208"/>
       <c r="I50" s="208"/>
       <c r="J50" s="231">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -23158,7 +23226,7 @@
       <c r="H51" s="208"/>
       <c r="I51" s="208"/>
       <c r="J51" s="231">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -23176,7 +23244,7 @@
       <c r="H52" s="208"/>
       <c r="I52" s="208"/>
       <c r="J52" s="231">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -23192,31 +23260,31 @@
         <v>0</v>
       </c>
       <c r="D53" s="231" t="str">
-        <f t="shared" ref="D53:I53" si="6">IF(D$7="Type fund name","",SUM(D42:D52))</f>
+        <f t="shared" ref="D53:I53" si="7">IF(D$7="Type fund name","",SUM(D42:D52))</f>
         <v/>
       </c>
       <c r="E53" s="231" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F53" s="231" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G53" s="231" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H53" s="231" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I53" s="231" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J53" s="231">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F53" s="231" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G53" s="231" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H53" s="231" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I53" s="231" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J53" s="231">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -23274,7 +23342,7 @@
       <c r="H57" s="208"/>
       <c r="I57" s="208"/>
       <c r="J57" s="231">
-        <f t="shared" ref="J57:J68" si="7">IF(J$7="","",SUM(D57:I57))</f>
+        <f t="shared" ref="J57:J68" si="8">IF(J$7="","",SUM(D57:I57))</f>
         <v>0</v>
       </c>
     </row>
@@ -23292,7 +23360,7 @@
       <c r="H58" s="209"/>
       <c r="I58" s="209"/>
       <c r="J58" s="231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -23310,7 +23378,7 @@
       <c r="H59" s="208"/>
       <c r="I59" s="208"/>
       <c r="J59" s="231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -23328,7 +23396,7 @@
       <c r="H60" s="208"/>
       <c r="I60" s="208"/>
       <c r="J60" s="231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -23346,7 +23414,7 @@
       <c r="H61" s="208"/>
       <c r="I61" s="208"/>
       <c r="J61" s="231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -23364,7 +23432,7 @@
       <c r="H62" s="208"/>
       <c r="I62" s="208"/>
       <c r="J62" s="231">
-        <f t="shared" ref="J62:J67" si="8">IF(J$7="","",SUM(D62:I62))</f>
+        <f t="shared" ref="J62:J67" si="9">IF(J$7="","",SUM(D62:I62))</f>
         <v>0</v>
       </c>
     </row>
@@ -23382,7 +23450,7 @@
       <c r="H63" s="208"/>
       <c r="I63" s="208"/>
       <c r="J63" s="231">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -23400,7 +23468,7 @@
       <c r="H64" s="208"/>
       <c r="I64" s="208"/>
       <c r="J64" s="231">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -23418,7 +23486,7 @@
       <c r="H65" s="208"/>
       <c r="I65" s="208"/>
       <c r="J65" s="231">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -23436,7 +23504,7 @@
       <c r="H66" s="208"/>
       <c r="I66" s="208"/>
       <c r="J66" s="231">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -23454,7 +23522,7 @@
       <c r="H67" s="208"/>
       <c r="I67" s="208"/>
       <c r="J67" s="231">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -23470,31 +23538,31 @@
         <v>0</v>
       </c>
       <c r="D68" s="231" t="str">
-        <f t="shared" ref="D68:I68" si="9">IF(D$7="Type fund name","",SUM(D57:D67))</f>
+        <f t="shared" ref="D68:I68" si="10">IF(D$7="Type fund name","",SUM(D57:D67))</f>
         <v/>
       </c>
       <c r="E68" s="231" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F68" s="231" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G68" s="231" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H68" s="231" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I68" s="231" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J68" s="231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -23526,7 +23594,7 @@
       <c r="H70" s="208"/>
       <c r="I70" s="208"/>
       <c r="J70" s="231">
-        <f t="shared" ref="J70:J83" si="10">IF(J$7="","",SUM(D70:I70))</f>
+        <f t="shared" ref="J70:J83" si="11">IF(J$7="","",SUM(D70:I70))</f>
         <v>0</v>
       </c>
     </row>
@@ -23544,7 +23612,7 @@
       <c r="H71" s="208"/>
       <c r="I71" s="208"/>
       <c r="J71" s="231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23562,7 +23630,7 @@
       <c r="H72" s="208"/>
       <c r="I72" s="208"/>
       <c r="J72" s="231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23580,7 +23648,7 @@
       <c r="H73" s="208"/>
       <c r="I73" s="208"/>
       <c r="J73" s="231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23598,7 +23666,7 @@
       <c r="H74" s="208"/>
       <c r="I74" s="208"/>
       <c r="J74" s="231">
-        <f t="shared" ref="J74:J78" si="11">IF(J$7="","",SUM(D74:I74))</f>
+        <f t="shared" ref="J74:J78" si="12">IF(J$7="","",SUM(D74:I74))</f>
         <v>0</v>
       </c>
     </row>
@@ -23616,7 +23684,7 @@
       <c r="H75" s="208"/>
       <c r="I75" s="208"/>
       <c r="J75" s="231">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -23634,7 +23702,7 @@
       <c r="H76" s="208"/>
       <c r="I76" s="208"/>
       <c r="J76" s="231">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -23652,7 +23720,7 @@
       <c r="H77" s="208"/>
       <c r="I77" s="208"/>
       <c r="J77" s="231">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -23670,7 +23738,7 @@
       <c r="H78" s="208"/>
       <c r="I78" s="208"/>
       <c r="J78" s="231">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -23731,31 +23799,31 @@
         <v>0</v>
       </c>
       <c r="D82" s="231" t="str">
-        <f t="shared" ref="D82:I82" si="12">IF(D$7="Type fund name","",SUM(D70:D78))</f>
+        <f t="shared" ref="D82:I82" si="13">IF(D$7="Type fund name","",SUM(D70:D78))</f>
         <v/>
       </c>
       <c r="E82" s="231" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F82" s="231" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G82" s="231" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H82" s="231" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I82" s="231" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J82" s="231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23771,31 +23839,31 @@
         <v>0</v>
       </c>
       <c r="D83" s="219" t="str">
-        <f t="shared" ref="D83:I83" si="13">IF(D$7 = "Type fund name", "", D68+D82)</f>
+        <f t="shared" ref="D83:I83" si="14">IF(D$7 = "Type fund name", "", D68+D82)</f>
         <v/>
       </c>
       <c r="E83" s="219" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F83" s="219" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G83" s="219" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="H83" s="219" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I83" s="219" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J83" s="233">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23839,7 +23907,7 @@
       <c r="H86" s="208"/>
       <c r="I86" s="208"/>
       <c r="J86" s="231">
-        <f t="shared" ref="J86:J97" si="14">IF(J$7="","",SUM(D86:I86))</f>
+        <f t="shared" ref="J86:J97" si="15">IF(J$7="","",SUM(D86:I86))</f>
         <v>0</v>
       </c>
     </row>
@@ -23857,7 +23925,7 @@
       <c r="H87" s="209"/>
       <c r="I87" s="209"/>
       <c r="J87" s="231">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23875,7 +23943,7 @@
       <c r="H88" s="208"/>
       <c r="I88" s="208"/>
       <c r="J88" s="231">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23893,7 +23961,7 @@
       <c r="H89" s="208"/>
       <c r="I89" s="208"/>
       <c r="J89" s="231">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23911,7 +23979,7 @@
       <c r="H90" s="208"/>
       <c r="I90" s="208"/>
       <c r="J90" s="231">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23929,7 +23997,7 @@
       <c r="H91" s="208"/>
       <c r="I91" s="208"/>
       <c r="J91" s="231">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23947,7 +24015,7 @@
       <c r="H92" s="208"/>
       <c r="I92" s="208"/>
       <c r="J92" s="231">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23965,7 +24033,7 @@
       <c r="H93" s="208"/>
       <c r="I93" s="208"/>
       <c r="J93" s="231">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23983,7 +24051,7 @@
       <c r="H94" s="208"/>
       <c r="I94" s="208"/>
       <c r="J94" s="231">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -24001,7 +24069,7 @@
       <c r="H95" s="208"/>
       <c r="I95" s="208"/>
       <c r="J95" s="231">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -24019,7 +24087,7 @@
       <c r="H96" s="208"/>
       <c r="I96" s="208"/>
       <c r="J96" s="231">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -24035,31 +24103,31 @@
         <v>0</v>
       </c>
       <c r="D97" s="231" t="str">
-        <f t="shared" ref="D97:I97" si="15">IF(D$7="Type fund name","",SUM(D86:D96))</f>
+        <f t="shared" ref="D97:I97" si="16">IF(D$7="Type fund name","",SUM(D86:D96))</f>
         <v/>
       </c>
       <c r="E97" s="231" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="F97" s="231" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="G97" s="231" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H97" s="231" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I97" s="231" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J97" s="231">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="F97" s="231" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G97" s="231" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H97" s="231" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I97" s="231" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="J97" s="231">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -24103,7 +24171,7 @@
       <c r="H100" s="208"/>
       <c r="I100" s="208"/>
       <c r="J100" s="231">
-        <f t="shared" ref="J100:J109" si="16">IF(J$7="","",SUM(D100:I100))</f>
+        <f t="shared" ref="J100:J109" si="17">IF(J$7="","",SUM(D100:I100))</f>
         <v>0</v>
       </c>
     </row>
@@ -24121,7 +24189,7 @@
       <c r="H101" s="208"/>
       <c r="I101" s="208"/>
       <c r="J101" s="231">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -24139,7 +24207,7 @@
       <c r="H102" s="208"/>
       <c r="I102" s="208"/>
       <c r="J102" s="231">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -24157,7 +24225,7 @@
       <c r="H103" s="208"/>
       <c r="I103" s="208"/>
       <c r="J103" s="231">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -24175,7 +24243,7 @@
       <c r="H104" s="208"/>
       <c r="I104" s="208"/>
       <c r="J104" s="231">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -24193,7 +24261,7 @@
       <c r="H105" s="208"/>
       <c r="I105" s="208"/>
       <c r="J105" s="231">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -24211,7 +24279,7 @@
       <c r="H106" s="208"/>
       <c r="I106" s="208"/>
       <c r="J106" s="231">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -24229,7 +24297,7 @@
       <c r="H107" s="208"/>
       <c r="I107" s="208"/>
       <c r="J107" s="231">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -24247,7 +24315,7 @@
       <c r="H108" s="208"/>
       <c r="I108" s="208"/>
       <c r="J108" s="231">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -24263,31 +24331,31 @@
         <v>0</v>
       </c>
       <c r="D109" s="219" t="str">
-        <f>IF(D7="Type fund name","",SUM(D100:D108))</f>
+        <f t="shared" ref="D109:I109" si="18">IF(D7="Type fund name","",SUM(D100:D108))</f>
         <v/>
       </c>
       <c r="E109" s="219" t="str">
-        <f>IF(E7="Type fund name","",SUM(E100:E108))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F109" s="219" t="str">
-        <f>IF(F7="Type fund name","",SUM(F100:F108))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G109" s="219" t="str">
-        <f>IF(G7="Type fund name","",SUM(G100:G108))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H109" s="219" t="str">
-        <f>IF(H7="Type fund name","",SUM(H100:H108))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I109" s="219" t="str">
-        <f>IF(I7="Type fund name","",SUM(I100:I108))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J109" s="232">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -24380,54 +24448,54 @@
       <formula>NOT(ISERROR(SEARCH("custom",A26)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A42:A52">
+    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A57:A67">
-    <cfRule type="containsText" dxfId="45" priority="12" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="44" priority="12" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A81">
-    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="43" priority="11" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A70)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A86:A96">
+    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="custom">
+      <formula>NOT(ISERROR(SEARCH("custom",A86)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A100:A108">
-    <cfRule type="containsText" dxfId="43" priority="10" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="41" priority="10" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24 C38 C68:I68 C82:C83 C109:I109">
-    <cfRule type="expression" dxfId="42" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="20" stopIfTrue="1">
+      <formula>C$7=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:I53">
+    <cfRule type="expression" dxfId="39" priority="6" stopIfTrue="1">
+      <formula>C$7=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97:I97">
+    <cfRule type="expression" dxfId="38" priority="2" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:I82">
-    <cfRule type="expression" dxfId="41" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="18" stopIfTrue="1">
       <formula>D$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="40" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="17" stopIfTrue="1">
       <formula>K$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:A52">
-    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:I53">
-    <cfRule type="expression" dxfId="38" priority="6" stopIfTrue="1">
-      <formula>C$7=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A86:A96">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="custom">
-      <formula>NOT(ISERROR(SEARCH("custom",A86)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C97:I97">
-    <cfRule type="expression" dxfId="36" priority="2" stopIfTrue="1">
-      <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarrahahmed/Desktop/CLOSUP/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7005A4-4327-964A-AA98-262F64B11467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB18F61C-1862-5741-AEA4-14EC3334C849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" tabRatio="834" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17260" tabRatio="834" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Net Position" sheetId="8" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5390" uniqueCount="3645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5391" uniqueCount="3646">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -10955,42 +10955,21 @@
     <t>Steps</t>
   </si>
   <si>
-    <t>1. Enter Financial Statements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Fill in the financial data in the corresponding cells. Ensure all required fields are completed.</t>
-  </si>
-  <si>
-    <t>2. Verify Data</t>
-  </si>
-  <si>
     <t xml:space="preserve">   - Double-check all entries for accuracy.</t>
   </si>
   <si>
     <t xml:space="preserve">   - Ensure that all calculations and formulas are correct.</t>
   </si>
   <si>
-    <t>3. Save the File</t>
-  </si>
-  <si>
     <t xml:space="preserve">   - Once all data is entered and verified, save the Excel file with an appropriate name indicating its contents and date.</t>
   </si>
   <si>
-    <t>4. Upload for XBRL Conversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Navigate to the XBRL conversion tool provided by your organization.</t>
-  </si>
-  <si>
     <t xml:space="preserve">   - Upload the saved Excel file to the converter.</t>
   </si>
   <si>
     <t xml:space="preserve">   - Follow the instructions provided by the conversion tool to complete the process.</t>
   </si>
   <si>
-    <t>5. Review XBRL Output</t>
-  </si>
-  <si>
     <t xml:space="preserve">   - After conversion, review the XBRL output to ensure it accurately reflects the entered financial statements.</t>
   </si>
   <si>
@@ -11028,6 +11007,30 @@
   </si>
   <si>
     <t>Total Allocation of Internal Service Fund Activity</t>
+  </si>
+  <si>
+    <t>1. Begin by specifying the details of your municipality at the top of this sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Fill in the financial data in the corresponding cells. Ensure all relevant fields are completed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Navigate to the XBRL conversion tool on your browser.</t>
+  </si>
+  <si>
+    <t>2. Enter financial statements</t>
+  </si>
+  <si>
+    <t>2. Verify data</t>
+  </si>
+  <si>
+    <t>3. Save the file</t>
+  </si>
+  <si>
+    <t>4. Upload for XBRL conversion</t>
+  </si>
+  <si>
+    <t>5. Review XBRL output</t>
   </si>
 </sst>
 </file>
@@ -11697,7 +11700,7 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="275">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12154,21 +12157,9 @@
     <xf numFmtId="165" fontId="23" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="1" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -12211,6 +12202,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="23" fillId="13" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="13" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -12244,14 +12243,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="23" fillId="13" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="23" fillId="13" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -12260,7 +12251,344 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
-  <dxfs count="95">
+  <dxfs count="120">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -12288,13 +12616,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12338,6 +12659,13 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12461,6 +12789,14 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -12484,14 +12820,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12544,14 +12872,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12850,136 +13170,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -18994,8 +19184,8 @@
   </sheetPr>
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="119" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView zoomScale="65" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -20066,18 +20256,18 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="15">
-      <c r="A59" s="266" t="s">
+      <c r="A59" s="263" t="s">
         <v>3615</v>
       </c>
-      <c r="B59" s="267"/>
-      <c r="C59" s="267"/>
-      <c r="D59" s="267"/>
-      <c r="E59" s="267"/>
-      <c r="F59" s="267"/>
-      <c r="G59" s="267"/>
-      <c r="H59" s="267"/>
-      <c r="I59" s="267"/>
-      <c r="J59" s="268"/>
+      <c r="B59" s="264"/>
+      <c r="C59" s="264"/>
+      <c r="D59" s="264"/>
+      <c r="E59" s="264"/>
+      <c r="F59" s="264"/>
+      <c r="G59" s="264"/>
+      <c r="H59" s="264"/>
+      <c r="I59" s="264"/>
+      <c r="J59" s="265"/>
     </row>
     <row r="60" spans="1:10" ht="15">
       <c r="A60" s="108" t="str">
@@ -20092,7 +20282,7 @@
       <c r="G60" s="209"/>
       <c r="H60" s="210"/>
       <c r="I60" s="210"/>
-      <c r="J60" s="250">
+      <c r="J60" s="245">
         <v>0</v>
       </c>
     </row>
@@ -20109,23 +20299,23 @@
       <c r="G61" s="209"/>
       <c r="H61" s="210"/>
       <c r="I61" s="210"/>
-      <c r="J61" s="250">
+      <c r="J61" s="245">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15">
-      <c r="A62" s="266" t="s">
+      <c r="A62" s="263" t="s">
         <v>3616</v>
       </c>
-      <c r="B62" s="267"/>
-      <c r="C62" s="267"/>
-      <c r="D62" s="267"/>
-      <c r="E62" s="267"/>
-      <c r="F62" s="267"/>
-      <c r="G62" s="267"/>
-      <c r="H62" s="267"/>
-      <c r="I62" s="267"/>
-      <c r="J62" s="268"/>
+      <c r="B62" s="264"/>
+      <c r="C62" s="264"/>
+      <c r="D62" s="264"/>
+      <c r="E62" s="264"/>
+      <c r="F62" s="264"/>
+      <c r="G62" s="264"/>
+      <c r="H62" s="264"/>
+      <c r="I62" s="264"/>
+      <c r="J62" s="265"/>
     </row>
     <row r="63" spans="1:10" ht="15">
       <c r="A63" s="108" t="str">
@@ -20140,7 +20330,7 @@
       <c r="G63" s="209"/>
       <c r="H63" s="210"/>
       <c r="I63" s="210"/>
-      <c r="J63" s="249">
+      <c r="J63" s="244">
         <v>0</v>
       </c>
     </row>
@@ -20157,23 +20347,23 @@
       <c r="G64" s="209"/>
       <c r="H64" s="210"/>
       <c r="I64" s="210"/>
-      <c r="J64" s="249">
+      <c r="J64" s="244">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15">
-      <c r="A65" s="266" t="s">
+      <c r="A65" s="263" t="s">
         <v>3617</v>
       </c>
-      <c r="B65" s="267"/>
-      <c r="C65" s="267"/>
-      <c r="D65" s="267"/>
-      <c r="E65" s="267"/>
-      <c r="F65" s="267"/>
-      <c r="G65" s="267"/>
-      <c r="H65" s="267"/>
-      <c r="I65" s="267"/>
-      <c r="J65" s="268"/>
+      <c r="B65" s="264"/>
+      <c r="C65" s="264"/>
+      <c r="D65" s="264"/>
+      <c r="E65" s="264"/>
+      <c r="F65" s="264"/>
+      <c r="G65" s="264"/>
+      <c r="H65" s="264"/>
+      <c r="I65" s="264"/>
+      <c r="J65" s="265"/>
     </row>
     <row r="66" spans="1:10" ht="16">
       <c r="A66" s="131" t="str">
@@ -20188,7 +20378,7 @@
       <c r="G66" s="209"/>
       <c r="H66" s="210"/>
       <c r="I66" s="210"/>
-      <c r="J66" s="249">
+      <c r="J66" s="244">
         <v>0</v>
       </c>
     </row>
@@ -20205,7 +20395,7 @@
       <c r="G67" s="209"/>
       <c r="H67" s="210"/>
       <c r="I67" s="210"/>
-      <c r="J67" s="249">
+      <c r="J67" s="244">
         <v>0</v>
       </c>
     </row>
@@ -20257,44 +20447,47 @@
         <v>2477</v>
       </c>
       <c r="C69" s="219">
-        <f>SUM(C68, C45, C32)</f>
+        <f t="shared" ref="C69:J69" si="8">SUM(C68, C45, C32)</f>
         <v>0</v>
       </c>
       <c r="D69" s="219">
-        <f>SUM(D68, D45, D32)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E69" s="219">
-        <f>SUM(E68, E45, E32)</f>
-        <v>0</v>
-      </c>
-      <c r="F69" s="219"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="219">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="G69" s="219">
-        <f>SUM(G68, G45, G32)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H69" s="219">
-        <f>SUM(H68, H45, H32)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I69" s="219">
-        <f>SUM(I68, I45, I32)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J69" s="219">
-        <f>SUM(J68, J45, J32)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="258"/>
-      <c r="B72" s="264" t="s">
-        <v>3636</v>
+      <c r="A72" s="253"/>
+      <c r="B72" s="261" t="s">
+        <v>3629</v>
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="258"/>
-      <c r="B73" s="265"/>
+      <c r="A73" s="253"/>
+      <c r="B73" s="262"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -20304,57 +20497,57 @@
     <mergeCell ref="B72:B73"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:A18">
-    <cfRule type="containsText" dxfId="62" priority="7" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="102" priority="7" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A31">
-    <cfRule type="containsText" dxfId="61" priority="6" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="101" priority="6" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A44">
-    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="100" priority="5" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A58">
-    <cfRule type="containsText" dxfId="59" priority="4" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="99" priority="4" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:A61">
-    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="98" priority="3" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A64">
-    <cfRule type="containsText" dxfId="57" priority="2" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="97" priority="2" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:A67">
-    <cfRule type="containsText" dxfId="56" priority="1" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="96" priority="1" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:G18 D21:G31 C32:I33 D35:G44 C45:I46 D48:G58 D60:G61 D63:G64 C68:G68">
-    <cfRule type="expression" dxfId="55" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="10" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66:G67">
-    <cfRule type="expression" dxfId="54" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="8" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:I7">
-    <cfRule type="expression" dxfId="53" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="9" stopIfTrue="1">
       <formula>D$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:J46">
-    <cfRule type="expression" dxfId="52" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="11" stopIfTrue="1">
       <formula>I$6=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20414,7 +20607,7 @@
   </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -20459,7 +20652,7 @@
         <v>44742</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="32">
+    <row r="6" spans="1:2" ht="16">
       <c r="A6" s="173" t="s">
         <v>2465</v>
       </c>
@@ -20496,8 +20689,8 @@
       <c r="B13" s="210"/>
     </row>
     <row r="14" spans="1:2" ht="15">
-      <c r="A14" s="273" t="s">
-        <v>3638</v>
+      <c r="A14" s="257" t="s">
+        <v>3631</v>
       </c>
       <c r="B14" s="210">
         <f>SUM(B9:B13)</f>
@@ -20527,8 +20720,8 @@
       <c r="B19" s="210"/>
     </row>
     <row r="20" spans="1:2" ht="15">
-      <c r="A20" s="273" t="s">
-        <v>3639</v>
+      <c r="A20" s="257" t="s">
+        <v>3632</v>
       </c>
       <c r="B20" s="210">
         <f>SUM(B16:B19)</f>
@@ -20558,8 +20751,8 @@
       <c r="B25" s="210"/>
     </row>
     <row r="26" spans="1:2" ht="15">
-      <c r="A26" s="274" t="s">
-        <v>3640</v>
+      <c r="A26" s="258" t="s">
+        <v>3633</v>
       </c>
       <c r="B26" s="210">
         <f>SUM(B22:B25)</f>
@@ -20589,8 +20782,8 @@
       <c r="B31" s="210"/>
     </row>
     <row r="32" spans="1:2" ht="15">
-      <c r="A32" s="273" t="s">
-        <v>3641</v>
+      <c r="A32" s="257" t="s">
+        <v>3634</v>
       </c>
       <c r="B32" s="224">
         <f>SUM(B28:B31)</f>
@@ -20607,14 +20800,14 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="269" t="s">
-        <v>3636</v>
-      </c>
-      <c r="B36" s="264"/>
+      <c r="A36" s="266" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B36" s="261"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="270"/>
-      <c r="B37" s="265"/>
+      <c r="A37" s="267"/>
+      <c r="B37" s="262"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -20631,8 +20824,8 @@
   </sheetPr>
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView topLeftCell="A5" zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -21992,35 +22185,35 @@
       <c r="J71" s="20"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="255"/>
-      <c r="B72" s="253" t="s">
-        <v>3636</v>
+      <c r="A72" s="250"/>
+      <c r="B72" s="248" t="s">
+        <v>3629</v>
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="255"/>
-      <c r="B73" s="254"/>
+      <c r="A73" s="250"/>
+      <c r="B73" s="249"/>
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="A9:A22">
-    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="91" priority="3" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:A34">
-    <cfRule type="containsText" dxfId="50" priority="2" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="90" priority="2" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A53">
-    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:I7 D8:J23 C23 D25:J35 C35 C36:J36 D37:J63 C59:J60 J64 D65:J69 D71:J71">
-    <cfRule type="expression" dxfId="48" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="20" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22075,7 +22268,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -22124,7 +22317,7 @@
         <v>2852</v>
       </c>
       <c r="B6" s="174">
-        <f>'GovFund Balance Sheet'!J68</f>
+        <f>'GovFund Balance Sheet'!J60</f>
         <v>0</v>
       </c>
     </row>
@@ -22155,8 +22348,8 @@
       <c r="B12" s="210"/>
     </row>
     <row r="13" spans="1:2" ht="15">
-      <c r="A13" s="273" t="s">
-        <v>3642</v>
+      <c r="A13" s="257" t="s">
+        <v>3635</v>
       </c>
       <c r="B13" s="210">
         <f>SUM(B9:B12)</f>
@@ -22186,8 +22379,8 @@
       <c r="B18" s="210"/>
     </row>
     <row r="19" spans="1:2" ht="15">
-      <c r="A19" s="273" t="s">
-        <v>3643</v>
+      <c r="A19" s="257" t="s">
+        <v>3636</v>
       </c>
       <c r="B19" s="210">
         <f>SUM(B15:B18)</f>
@@ -22217,8 +22410,8 @@
       <c r="B24" s="210"/>
     </row>
     <row r="25" spans="1:2" ht="15">
-      <c r="A25" s="273" t="s">
-        <v>3644</v>
+      <c r="A25" s="257" t="s">
+        <v>3637</v>
       </c>
       <c r="B25" s="210">
         <f>SUM(B21:B24)</f>
@@ -22229,17 +22422,20 @@
       <c r="A26" s="176" t="s">
         <v>2850</v>
       </c>
-      <c r="B26" s="175"/>
+      <c r="B26" s="175">
+        <f>B6+B13+B19+B25</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="269" t="s">
-        <v>3636</v>
-      </c>
-      <c r="B29" s="264"/>
+      <c r="A29" s="266" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B29" s="261"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="270"/>
-      <c r="B30" s="265"/>
+      <c r="A30" s="267"/>
+      <c r="B30" s="262"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -22256,8 +22452,8 @@
   </sheetPr>
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P101" sqref="P101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -22685,29 +22881,29 @@
         <f>SUM(C10:C23)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="231" t="str">
-        <f t="shared" ref="D24:I24" si="1">IF(D$7="Type fund name","",SUM(D10:D23))</f>
-        <v/>
-      </c>
-      <c r="E24" s="231" t="str">
+      <c r="D24" s="231">
+        <f t="shared" ref="D24:I24" si="1">SUM(D10:D23)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="231">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F24" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="F24" s="231">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G24" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="G24" s="231">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H24" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="H24" s="231">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I24" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="I24" s="231">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J24" s="231">
         <f>IF(J7="","",SUM(J10:J23))</f>
@@ -22955,29 +23151,29 @@
         <f>SUM(C26:C32)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="231" t="str">
-        <f t="shared" ref="D38:I38" si="4">IF(D$7="Type fund name","",SUM(D26:D32))</f>
-        <v/>
-      </c>
-      <c r="E38" s="231" t="str">
+      <c r="D38" s="231">
+        <f t="shared" ref="D38:I38" si="4">SUM(D26:D32)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="231">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F38" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="F38" s="231">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G38" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="G38" s="231">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H38" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="H38" s="231">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I38" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="I38" s="231">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J38" s="231">
         <f>IF(J7="","",SUM(J26:J37))</f>
@@ -22995,29 +23191,29 @@
         <f>C24+C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="232" t="str">
-        <f t="shared" ref="D39:I39" si="5">IF(D$7="Type fund name","",D24+D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="232" t="str">
+      <c r="D39" s="219">
+        <f t="shared" ref="D39:I39" si="5">D24+D38</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="219">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F39" s="232" t="str">
+        <v>0</v>
+      </c>
+      <c r="F39" s="219">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G39" s="232" t="str">
+        <v>0</v>
+      </c>
+      <c r="G39" s="219">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H39" s="232" t="str">
+        <v>0</v>
+      </c>
+      <c r="H39" s="219">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I39" s="232" t="str">
+        <v>0</v>
+      </c>
+      <c r="I39" s="219">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J39" s="219">
         <f>IF(J7="","",J24+J38)</f>
@@ -23259,29 +23455,29 @@
         <f>IF(C$7="","",SUM(C42:C52))</f>
         <v>0</v>
       </c>
-      <c r="D53" s="231" t="str">
-        <f t="shared" ref="D53:I53" si="7">IF(D$7="Type fund name","",SUM(D42:D52))</f>
-        <v/>
-      </c>
-      <c r="E53" s="231" t="str">
+      <c r="D53" s="231">
+        <f t="shared" ref="D53:I53" si="7">IF(D$7="","",SUM(D42:D52))</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="231">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F53" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="F53" s="231">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G53" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="G53" s="231">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H53" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="H53" s="231">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I53" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="I53" s="231">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J53" s="231">
         <f t="shared" si="6"/>
@@ -23537,29 +23733,29 @@
         <f>IF(C$7="","",SUM(C57:C67))</f>
         <v>0</v>
       </c>
-      <c r="D68" s="231" t="str">
-        <f t="shared" ref="D68:I68" si="10">IF(D$7="Type fund name","",SUM(D57:D67))</f>
-        <v/>
-      </c>
-      <c r="E68" s="231" t="str">
+      <c r="D68" s="231">
+        <f t="shared" ref="D68:I68" si="10">IF(D$7="","",SUM(D57:D67))</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="231">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F68" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="F68" s="231">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G68" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="G68" s="231">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="H68" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="H68" s="231">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I68" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="I68" s="231">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J68" s="231">
         <f t="shared" si="8"/>
@@ -23798,29 +23994,29 @@
         <f>SUM(C70:C78)</f>
         <v>0</v>
       </c>
-      <c r="D82" s="231" t="str">
-        <f t="shared" ref="D82:I82" si="13">IF(D$7="Type fund name","",SUM(D70:D78))</f>
-        <v/>
-      </c>
-      <c r="E82" s="231" t="str">
+      <c r="D82" s="231">
+        <f t="shared" ref="D82:I82" si="13">SUM(D70:D78)</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="231">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="F82" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="F82" s="231">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G82" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="G82" s="231">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H82" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="H82" s="231">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I82" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="I82" s="231">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J82" s="231">
         <f t="shared" si="11"/>
@@ -23838,29 +24034,29 @@
         <f>C68+C82</f>
         <v>0</v>
       </c>
-      <c r="D83" s="219" t="str">
-        <f t="shared" ref="D83:I83" si="14">IF(D$7 = "Type fund name", "", D68+D82)</f>
-        <v/>
-      </c>
-      <c r="E83" s="219" t="str">
+      <c r="D83" s="219">
+        <f t="shared" ref="D83:I83" si="14">D68+D82</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="219">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F83" s="219" t="str">
+        <v>0</v>
+      </c>
+      <c r="F83" s="219">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G83" s="219" t="str">
+        <v>0</v>
+      </c>
+      <c r="G83" s="219">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="H83" s="219" t="str">
+        <v>0</v>
+      </c>
+      <c r="H83" s="219">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I83" s="219" t="str">
+        <v>0</v>
+      </c>
+      <c r="I83" s="219">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J83" s="233">
         <f t="shared" si="11"/>
@@ -24102,29 +24298,29 @@
         <f>IF(C$7="","",SUM(C86:C96))</f>
         <v>0</v>
       </c>
-      <c r="D97" s="231" t="str">
-        <f t="shared" ref="D97:I97" si="16">IF(D$7="Type fund name","",SUM(D86:D96))</f>
-        <v/>
-      </c>
-      <c r="E97" s="231" t="str">
+      <c r="D97" s="231">
+        <f t="shared" ref="D97:I97" si="16">IF(D$7="","",SUM(D86:D96))</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="231">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="F97" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="F97" s="231">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="G97" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="G97" s="231">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="H97" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="H97" s="231">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I97" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="I97" s="231">
         <f t="shared" si="16"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J97" s="231">
         <f t="shared" si="15"/>
@@ -24330,29 +24526,29 @@
         <f>IF(C7="","",SUM(C100:C108))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="219" t="str">
-        <f t="shared" ref="D109:I109" si="18">IF(D7="Type fund name","",SUM(D100:D108))</f>
-        <v/>
-      </c>
-      <c r="E109" s="219" t="str">
+      <c r="D109" s="219">
+        <f t="shared" ref="D109:I109" si="18">IF(D7="","",SUM(D100:D108))</f>
+        <v>0</v>
+      </c>
+      <c r="E109" s="219">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F109" s="219" t="str">
+        <v>0</v>
+      </c>
+      <c r="F109" s="219">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G109" s="219" t="str">
+        <v>0</v>
+      </c>
+      <c r="G109" s="219">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="H109" s="219" t="str">
+        <v>0</v>
+      </c>
+      <c r="H109" s="219">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I109" s="219" t="str">
+        <v>0</v>
+      </c>
+      <c r="I109" s="219">
         <f t="shared" si="18"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J109" s="232">
         <f t="shared" si="17"/>
@@ -24384,9 +24580,9 @@
       <c r="J111" s="112"/>
     </row>
     <row r="112" spans="1:10" s="33" customFormat="1" ht="15" hidden="1">
-      <c r="A112" s="257"/>
-      <c r="B112" s="262" t="s">
-        <v>3636</v>
+      <c r="A112" s="252"/>
+      <c r="B112" s="259" t="s">
+        <v>3629</v>
       </c>
       <c r="C112" s="84"/>
       <c r="D112" s="84"/>
@@ -24398,8 +24594,8 @@
       <c r="J112" s="112"/>
     </row>
     <row r="113" spans="1:10" s="33" customFormat="1" ht="15" hidden="1">
-      <c r="A113" s="257"/>
-      <c r="B113" s="263"/>
+      <c r="A113" s="252"/>
+      <c r="B113" s="260"/>
       <c r="C113" s="84"/>
       <c r="D113" s="84"/>
       <c r="E113" s="84"/>
@@ -24439,62 +24635,57 @@
     <mergeCell ref="B112:B113"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:A23">
-    <cfRule type="containsText" dxfId="47" priority="14" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="87" priority="14" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:A37">
-    <cfRule type="containsText" dxfId="46" priority="13" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="86" priority="13" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A52">
-    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:A67">
-    <cfRule type="containsText" dxfId="44" priority="12" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="84" priority="12" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A81">
-    <cfRule type="containsText" dxfId="43" priority="11" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="83" priority="11" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:A96">
-    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="82" priority="1" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:A108">
-    <cfRule type="containsText" dxfId="41" priority="10" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="81" priority="10" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A100)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24 C38 C68:I68 C82:C83 C109:I109">
-    <cfRule type="expression" dxfId="40" priority="20" stopIfTrue="1">
+  <conditionalFormatting sqref="C24:I24 C38:I38 C68:I68 C82:I83 C109:I109">
+    <cfRule type="expression" dxfId="80" priority="20" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:I53">
-    <cfRule type="expression" dxfId="39" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="6" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C97:I97">
-    <cfRule type="expression" dxfId="38" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="2" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82:I82">
-    <cfRule type="expression" dxfId="37" priority="18" stopIfTrue="1">
-      <formula>D$7=""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="36" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="17" stopIfTrue="1">
       <formula>K$6=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24558,8 +24749,8 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView topLeftCell="A28" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -24972,29 +25163,29 @@
         <f>IF(C$7="","",SUM(C9:C22))</f>
         <v>0</v>
       </c>
-      <c r="D23" s="231" t="str">
-        <f t="shared" ref="D23:I23" si="1">IF(D$7="Type fund name","",SUM(D9:D22))</f>
-        <v/>
-      </c>
-      <c r="E23" s="231" t="str">
+      <c r="D23" s="231">
+        <f t="shared" ref="D23:I23" si="1">IF(D$7="","",SUM(D9:D22))</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="231">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F23" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="F23" s="231">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G23" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="G23" s="231">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H23" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="H23" s="231">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I23" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="I23" s="231">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J23" s="231">
         <f>IF(J7="","",SUM(J9:J22))</f>
@@ -25254,29 +25445,29 @@
         <f>IF(C7="","",SUM(C26:C32))</f>
         <v>0</v>
       </c>
-      <c r="D38" s="231" t="str">
-        <f t="shared" ref="D38:I38" si="3">IF(D$7="Type fund name","",SUM(D26:D32))</f>
-        <v/>
-      </c>
-      <c r="E38" s="231" t="str">
+      <c r="D38" s="231">
+        <f t="shared" ref="D38:I38" si="3">IF(D7="","",SUM(D26:D32))</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="231">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F38" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="F38" s="231">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G38" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="G38" s="231">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H38" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="H38" s="231">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I38" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="I38" s="231">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J38" s="231">
         <f>IF(J7="","",SUM(J26:J37))</f>
@@ -25515,29 +25706,29 @@
         <f>IF(C7="","",SUM(C41:C51))</f>
         <v>0</v>
       </c>
-      <c r="D52" s="231" t="str">
-        <f t="shared" ref="D52:I52" si="6">IF(D$7="Type fund name","",SUM(D41:D51))</f>
-        <v/>
-      </c>
-      <c r="E52" s="231" t="str">
+      <c r="D52" s="231">
+        <f t="shared" ref="D52:I52" si="6">IF(D7="","",SUM(D41:D51))</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="231">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F52" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="F52" s="231">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G52" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="G52" s="231">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H52" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="H52" s="231">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I52" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="I52" s="231">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J52" s="231">
         <f t="shared" si="4"/>
@@ -25556,11 +25747,11 @@
         <v>0</v>
       </c>
       <c r="D53" s="232" t="str">
-        <f t="shared" ref="D53:I53" si="7">IF(D$7="Type fund name","",D23-D38+D52)</f>
+        <f>IF(D$7="Type fund name","",D23-D38+D52)</f>
         <v/>
       </c>
       <c r="E53" s="232" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E53:I53" si="7">IF(E$7="Type fund name","",E23-E38+E52)</f>
         <v/>
       </c>
       <c r="F53" s="232" t="str">
@@ -25783,29 +25974,29 @@
         <f>IF(C7="","",SUM(C56:C64))</f>
         <v>0</v>
       </c>
-      <c r="D65" s="231" t="str">
-        <f t="shared" ref="D65:I65" si="10">IF(D$7="Type fund name","",SUM(D56:D64))</f>
-        <v/>
-      </c>
-      <c r="E65" s="231" t="str">
+      <c r="D65" s="231">
+        <f t="shared" ref="D65:I65" si="10">IF(D7="","",SUM(D56:D64))</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="231">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F65" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="F65" s="231">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G65" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="G65" s="231">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="H65" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="H65" s="231">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I65" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="I65" s="231">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J65" s="231">
         <f t="shared" si="8"/>
@@ -25824,10 +26015,13 @@
         <v>0</v>
       </c>
       <c r="D66" s="233" t="str">
-        <f t="shared" ref="D66:I66" si="11">IF(D$7="Type fund name","",D53+D65)</f>
+        <f>IF(D$7="Type fund name","",D53+D65)</f>
         <v/>
       </c>
-      <c r="E66" s="233"/>
+      <c r="E66" s="233" t="str">
+        <f t="shared" ref="E66:I66" si="11">IF(E$7="Type fund name","",E53+E65)</f>
+        <v/>
+      </c>
       <c r="F66" s="233" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -25948,15 +26142,15 @@
       <c r="J72" s="112"/>
     </row>
     <row r="73" spans="1:10" ht="15">
-      <c r="A73" s="259"/>
-      <c r="B73" s="271" t="s">
-        <v>3636</v>
+      <c r="A73" s="254"/>
+      <c r="B73" s="268" t="s">
+        <v>3629</v>
       </c>
       <c r="J73" s="112"/>
     </row>
     <row r="74" spans="1:10" ht="15">
-      <c r="A74" s="259"/>
-      <c r="B74" s="272"/>
+      <c r="A74" s="254"/>
+      <c r="B74" s="269"/>
       <c r="J74" s="112"/>
     </row>
     <row r="75" spans="1:10" ht="15">
@@ -26040,58 +26234,58 @@
     <mergeCell ref="B73:B74"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:A22">
-    <cfRule type="containsText" dxfId="35" priority="4" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="76" priority="4" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:A37">
-    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A51">
-    <cfRule type="containsText" dxfId="33" priority="2" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="74" priority="2" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:A64">
-    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="73" priority="1" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:C24 C38:C39 C70:J70">
-    <cfRule type="expression" dxfId="31" priority="15" stopIfTrue="1">
-      <formula>C$7=""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="30" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="7" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:I54">
-    <cfRule type="expression" dxfId="29" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="6" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:I66">
-    <cfRule type="expression" dxfId="28" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="5" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:J70">
-    <cfRule type="cellIs" dxfId="27" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="16" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="67" priority="18" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D23:I23 C23:C24 D38:I38 C38:C39 C70:J70">
+    <cfRule type="expression" dxfId="66" priority="15" stopIfTrue="1">
+      <formula>C$7=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D70:I70">
-    <cfRule type="expression" dxfId="24" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="19" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26137,8 +26331,8 @@
   </sheetPr>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -26540,32 +26734,32 @@
         <f>IF(C$7="","",SUM(C9:C22))</f>
         <v>0</v>
       </c>
-      <c r="D23" s="231" t="str">
-        <f t="shared" ref="D23:J23" si="1">IF(D$7="Type fund name","",SUM(D9:D22))</f>
-        <v/>
-      </c>
-      <c r="E23" s="231" t="str">
+      <c r="D23" s="231">
+        <f t="shared" ref="D23:I23" si="1">IF(D$7="","",SUM(D9:D22))</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="231">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F23" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="F23" s="231">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G23" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="G23" s="231">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H23" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="H23" s="231">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I23" s="231" t="str">
+        <v>0</v>
+      </c>
+      <c r="I23" s="231">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J23" s="231">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J23" si="2">IF(J$7="Type fund name","",SUM(J9:J22))</f>
         <v>0</v>
       </c>
     </row>
@@ -26629,7 +26823,7 @@
       <c r="H27" s="208"/>
       <c r="I27" s="208"/>
       <c r="J27" s="235">
-        <f t="shared" ref="J27:J38" si="2">SUM(D27:I27)</f>
+        <f t="shared" ref="J27:J38" si="3">SUM(D27:I27)</f>
         <v>0</v>
       </c>
     </row>
@@ -26648,7 +26842,7 @@
       <c r="H28" s="208"/>
       <c r="I28" s="208"/>
       <c r="J28" s="235">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -26667,7 +26861,7 @@
       <c r="H29" s="208"/>
       <c r="I29" s="208"/>
       <c r="J29" s="235">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -26686,7 +26880,7 @@
       <c r="H30" s="208"/>
       <c r="I30" s="208"/>
       <c r="J30" s="235">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -26705,7 +26899,7 @@
       <c r="H31" s="208"/>
       <c r="I31" s="208"/>
       <c r="J31" s="235">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -26724,7 +26918,7 @@
       <c r="H32" s="208"/>
       <c r="I32" s="208"/>
       <c r="J32" s="235">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -26743,7 +26937,7 @@
       <c r="H33" s="208"/>
       <c r="I33" s="208"/>
       <c r="J33" s="235">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -26762,7 +26956,7 @@
       <c r="H34" s="208"/>
       <c r="I34" s="208"/>
       <c r="J34" s="235">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -26781,7 +26975,7 @@
       <c r="H35" s="208"/>
       <c r="I35" s="208"/>
       <c r="J35" s="235">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -26800,7 +26994,7 @@
       <c r="H36" s="208"/>
       <c r="I36" s="208"/>
       <c r="J36" s="235">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -26819,7 +27013,7 @@
       <c r="H37" s="208"/>
       <c r="I37" s="208"/>
       <c r="J37" s="235">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -26834,32 +27028,32 @@
         <f>IF(C7="","",SUM(C26:C37))</f>
         <v>0</v>
       </c>
-      <c r="D38" s="231" t="str">
-        <f t="shared" ref="D38:I38" si="3">IF(D$7="Type fund name","",SUM(D26:D32))</f>
-        <v/>
-      </c>
-      <c r="E38" s="231" t="str">
+      <c r="D38" s="200">
+        <f t="shared" ref="D38:I38" si="4">IF(D7="","",SUM(D26:D37))</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="200">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="200">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="200">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="200">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="200">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="235">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F38" s="231" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G38" s="231" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H38" s="231" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I38" s="231" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J38" s="235">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -26923,7 +27117,7 @@
       <c r="H42" s="209"/>
       <c r="I42" s="209"/>
       <c r="J42" s="235">
-        <f t="shared" ref="J42:J64" si="4">SUM(D42:I42)</f>
+        <f t="shared" ref="J42:J64" si="5">SUM(D42:I42)</f>
         <v>0</v>
       </c>
     </row>
@@ -26942,7 +27136,7 @@
       <c r="H43" s="208"/>
       <c r="I43" s="208"/>
       <c r="J43" s="235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -26961,7 +27155,7 @@
       <c r="H44" s="208"/>
       <c r="I44" s="208"/>
       <c r="J44" s="235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -26980,7 +27174,7 @@
       <c r="H45" s="208"/>
       <c r="I45" s="208"/>
       <c r="J45" s="235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -26999,7 +27193,7 @@
       <c r="H46" s="208"/>
       <c r="I46" s="208"/>
       <c r="J46" s="235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27018,7 +27212,7 @@
       <c r="H47" s="208"/>
       <c r="I47" s="208"/>
       <c r="J47" s="235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27037,7 +27231,7 @@
       <c r="H48" s="208"/>
       <c r="I48" s="208"/>
       <c r="J48" s="235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27056,7 +27250,7 @@
       <c r="H49" s="208"/>
       <c r="I49" s="208"/>
       <c r="J49" s="235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27075,7 +27269,7 @@
       <c r="H50" s="208"/>
       <c r="I50" s="208"/>
       <c r="J50" s="235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27094,7 +27288,7 @@
       <c r="H51" s="208"/>
       <c r="I51" s="208"/>
       <c r="J51" s="235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27109,32 +27303,32 @@
         <f>IF(C7="","",SUM(C41:C51))</f>
         <v>0</v>
       </c>
-      <c r="D52" s="231" t="str">
-        <f t="shared" ref="D52:I52" si="5">IF(D$7="Type fund name","",SUM(D41:D51))</f>
-        <v/>
-      </c>
-      <c r="E52" s="231" t="str">
+      <c r="D52" s="200">
+        <f t="shared" ref="D52:I52" si="6">IF(D7="","",SUM(D41:D51))</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="235">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F52" s="231" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G52" s="231" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H52" s="231" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I52" s="231" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J52" s="235">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -27179,7 +27373,7 @@
       <c r="H55" s="208"/>
       <c r="I55" s="208"/>
       <c r="J55" s="235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27198,7 +27392,7 @@
       <c r="H56" s="208"/>
       <c r="I56" s="208"/>
       <c r="J56" s="235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27217,7 +27411,7 @@
       <c r="H57" s="208"/>
       <c r="I57" s="208"/>
       <c r="J57" s="235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27236,7 +27430,7 @@
       <c r="H58" s="208"/>
       <c r="I58" s="208"/>
       <c r="J58" s="235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27255,7 +27449,7 @@
       <c r="H59" s="208"/>
       <c r="I59" s="208"/>
       <c r="J59" s="235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27274,7 +27468,7 @@
       <c r="H60" s="208"/>
       <c r="I60" s="208"/>
       <c r="J60" s="235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27293,7 +27487,7 @@
       <c r="H61" s="208"/>
       <c r="I61" s="208"/>
       <c r="J61" s="235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27312,7 +27506,7 @@
       <c r="H62" s="208"/>
       <c r="I62" s="208"/>
       <c r="J62" s="235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27331,7 +27525,7 @@
       <c r="H63" s="208"/>
       <c r="I63" s="208"/>
       <c r="J63" s="235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27346,32 +27540,32 @@
         <f>IF(C7="","",SUM(C55:C63))</f>
         <v>0</v>
       </c>
-      <c r="D64" s="231" t="str">
-        <f t="shared" ref="D64:I64" si="6">IF(D$7="Type fund name","",SUM(D55:D63))</f>
-        <v/>
-      </c>
-      <c r="E64" s="231" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F64" s="231" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G64" s="231" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H64" s="231" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I64" s="231" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="D64" s="231">
+        <f t="shared" ref="D64:H64" si="7">IF(D7="","",SUM(D55:D63))</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="231">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="231">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="231">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="231">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="231">
+        <f>IF(I7="","",SUM(I55:I63))</f>
+        <v>0</v>
       </c>
       <c r="J64" s="235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27386,32 +27580,32 @@
         <f>C23+C38+C52+C64</f>
         <v>0</v>
       </c>
-      <c r="D65" s="219" t="str">
-        <f t="shared" ref="D65:J65" si="7">IF(D7="Type fund name","",D23+D38+D52+D64)</f>
-        <v/>
-      </c>
-      <c r="E65" s="219" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F65" s="219" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G65" s="219" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H65" s="219" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I65" s="219" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="D65" s="236">
+        <f t="shared" ref="D65:I65" si="8">D23+D38+D52+D64</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="236">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="236">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="236">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="236">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="236">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="J65" s="219">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J65" si="9">IF(J7="Type fund name","",J23+J38+J52+J64)</f>
         <v>0</v>
       </c>
     </row>
@@ -27456,7 +27650,7 @@
       <c r="H68" s="237"/>
       <c r="I68" s="237"/>
       <c r="J68" s="235">
-        <f t="shared" ref="J68" si="8">SUM(D68:I68)</f>
+        <f t="shared" ref="J68" si="10">SUM(D68:I68)</f>
         <v>0</v>
       </c>
     </row>
@@ -27467,29 +27661,32 @@
       <c r="B69" s="152" t="s">
         <v>2463</v>
       </c>
-      <c r="C69" s="238"/>
+      <c r="C69" s="219">
+        <f>IF(C7="Type fund name","",C65+C68)</f>
+        <v>0</v>
+      </c>
       <c r="D69" s="219" t="str">
-        <f t="shared" ref="D69:I69" si="9">IF(D7="Type fund name","",D65+D68)</f>
+        <f>IF(D7="Type fund name","",D65+D68)</f>
         <v/>
       </c>
       <c r="E69" s="219" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E69:I69" si="11">IF(E7="Type fund name","",E65+E68)</f>
         <v/>
       </c>
       <c r="F69" s="219" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G69" s="219" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H69" s="219" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I69" s="219" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J69" s="219">
@@ -27582,9 +27779,9 @@
       <c r="J76" s="138"/>
     </row>
     <row r="77" spans="1:10" ht="15">
-      <c r="A77" s="257"/>
-      <c r="B77" s="262" t="s">
-        <v>3636</v>
+      <c r="A77" s="252"/>
+      <c r="B77" s="259" t="s">
+        <v>3629</v>
       </c>
       <c r="C77" s="155"/>
       <c r="D77" s="155"/>
@@ -27596,8 +27793,8 @@
       <c r="J77" s="138"/>
     </row>
     <row r="78" spans="1:10" ht="15">
-      <c r="A78" s="257"/>
-      <c r="B78" s="263"/>
+      <c r="A78" s="252"/>
+      <c r="B78" s="260"/>
       <c r="C78" s="155"/>
       <c r="D78" s="155"/>
       <c r="E78" s="155"/>
@@ -27623,106 +27820,106 @@
     <mergeCell ref="B77:B78"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:A22">
-    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="64" priority="4" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:A37">
-    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A51">
-    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="62" priority="2" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:A63">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
-      <formula>C$7=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+  <conditionalFormatting sqref="C23:I23">
+    <cfRule type="expression" dxfId="60" priority="22" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:I24 C53:I53">
-    <cfRule type="expression" dxfId="17" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="28" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C38:I38">
+    <cfRule type="expression" dxfId="58" priority="21" stopIfTrue="1">
+      <formula>C$7=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C52:I52">
-    <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="19" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:I64">
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="17" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69:I69">
-    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
+  <conditionalFormatting sqref="C69:I69">
+    <cfRule type="expression" dxfId="55" priority="16" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65:J65">
-    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
-      <formula>D$7=""</formula>
+  <conditionalFormatting sqref="C69:J69">
+    <cfRule type="expression" dxfId="54" priority="12" stopIfTrue="1">
+      <formula>C$7=""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="13" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="14" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="notEqual">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
-      <formula>#REF!=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69:J69">
-    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
-      <formula>D$7=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="14" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="51" priority="15" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J4 J8:J22 J24:J64 J70:J1048574">
-    <cfRule type="expression" dxfId="4" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="23" stopIfTrue="1">
       <formula>COUNTA(D2:I2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J22 J24:J64 J70:J78">
-    <cfRule type="expression" dxfId="3" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="84" stopIfTrue="1">
+      <formula>#REF!=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J65">
+    <cfRule type="expression" dxfId="48" priority="7" stopIfTrue="1">
+      <formula>J$7=""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="8" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="9" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="10" operator="notEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="11" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68">
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="5" stopIfTrue="1">
       <formula>COUNTA(D69:I69)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="6" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1048575:J1048576">
-    <cfRule type="expression" dxfId="0" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="86" stopIfTrue="1">
       <formula>COUNTA(D1:I3)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30984,7 +31181,7 @@
       <c r="C340" s="184"/>
     </row>
     <row r="341" spans="3:3" ht="15">
-      <c r="C341" s="241"/>
+      <c r="C341" s="240"/>
     </row>
     <row r="342" spans="3:3" ht="15">
       <c r="C342" s="184"/>
@@ -41077,19 +41274,19 @@
       <c r="C121" s="184"/>
     </row>
     <row r="122" spans="3:3" ht="15">
-      <c r="C122" s="239"/>
+      <c r="C122" s="238"/>
     </row>
     <row r="123" spans="3:3" ht="15">
-      <c r="C123" s="239"/>
+      <c r="C123" s="238"/>
     </row>
     <row r="124" spans="3:3" ht="15">
-      <c r="C124" s="239"/>
+      <c r="C124" s="238"/>
     </row>
     <row r="125" spans="3:3" ht="15">
-      <c r="C125" s="239"/>
+      <c r="C125" s="238"/>
     </row>
     <row r="126" spans="3:3" ht="15">
-      <c r="C126" s="240"/>
+      <c r="C126" s="239"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D126">
@@ -47428,7 +47625,7 @@
       <c r="C413" s="21"/>
     </row>
     <row r="414" spans="3:3" ht="15">
-      <c r="C414" s="248"/>
+      <c r="C414" s="243"/>
     </row>
     <row r="415" spans="3:3" ht="15">
       <c r="C415" s="21"/>
@@ -47525,10 +47722,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8474313-8EAC-0141-BA8E-861AF31ED060}">
-  <dimension ref="B1:E40"/>
+  <dimension ref="B1:E42"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -47581,9 +47778,12 @@
       </c>
       <c r="E6" s="2"/>
     </row>
+    <row r="7" spans="2:5">
+      <c r="E7" s="2"/>
+    </row>
     <row r="10" spans="2:5" ht="14">
-      <c r="B10" s="252" t="s">
-        <v>3634</v>
+      <c r="B10" s="247" t="s">
+        <v>3627</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -47597,87 +47797,95 @@
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" t="s">
+      <c r="B14" s="60" t="s">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="60" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2" t="s">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="60" t="s">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
         <v>3620</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="2" t="s">
-        <v>3635</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" t="s">
-        <v>3621</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>3622</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>3623</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>3624</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>3625</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>3626</v>
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="60" t="s">
+        <v>3643</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>3627</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
-        <v>3628</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>3629</v>
+      <c r="B27" s="60" t="s">
+        <v>3644</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="256" t="s">
         <v>3630</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="261" t="s">
-        <v>3637</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
-        <v>3631</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
-        <v>3632</v>
-      </c>
-    </row>
     <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>3633</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="260"/>
+      <c r="B33" s="60" t="s">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="255"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -47696,8 +47904,8 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="88" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView topLeftCell="A24" zoomScale="88" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -47896,7 +48104,7 @@
         <f>IF(B16="","Choose from drop-down --&gt;",IF(COUNTIF('Lookup Net Position'!$B$2:$B$514,B16)=0,"acfr:CurrentAssetsCustom",_xlfn.XLOOKUP(B16,'Lookup Net Position'!$B$2:$B$514,'Lookup Net Position'!$C$2:$C$514)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B16" s="251"/>
+      <c r="B16" s="246"/>
       <c r="C16" s="202"/>
       <c r="D16" s="203"/>
       <c r="E16" s="200" t="str">
@@ -49096,17 +49304,17 @@
       <c r="D102" s="37"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="B103" s="256"/>
+      <c r="B103" s="251"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="257"/>
-      <c r="B104" s="262" t="s">
-        <v>3636</v>
+      <c r="A104" s="252"/>
+      <c r="B104" s="259" t="s">
+        <v>3629</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="257"/>
-      <c r="B105" s="263"/>
+      <c r="A105" s="252"/>
+      <c r="B105" s="260"/>
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
@@ -49114,69 +49322,69 @@
     <mergeCell ref="B104:B105"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:A22">
-    <cfRule type="expression" dxfId="94" priority="16">
+    <cfRule type="expression" dxfId="39" priority="21">
       <formula>A9="acfr:CurrentAssetsCustom"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A31">
-    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="acfr:NonCurrentAssetsCustom">
+    <cfRule type="containsText" dxfId="38" priority="8" operator="containsText" text="acfr:NonCurrentAssetsCustom">
       <formula>NOT(ISERROR(SEARCH("acfr:NonCurrentAssetsCustom",A25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A45">
-    <cfRule type="containsText" dxfId="92" priority="2" operator="containsText" text="acfr:DeferredOutflowsOfResourcesCustom">
+    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="acfr:DeferredOutflowsOfResourcesCustom">
       <formula>NOT(ISERROR(SEARCH("acfr:DeferredOutflowsOfResourcesCustom",A41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="13" operator="containsText" text="acfr:DeferredOutflowsOfResourcesCustom">
+    <cfRule type="containsText" dxfId="36" priority="18" operator="containsText" text="acfr:DeferredOutflowsOfResourcesCustom">
       <formula>NOT(ISERROR(SEARCH("acfr:DeferredOutflowsOfResourcesCustom",A41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A59">
-    <cfRule type="containsText" dxfId="90" priority="1" operator="containsText" text="acfr:CurrentLiabilitiesCustom">
+    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="acfr:CurrentLiabilitiesCustom">
       <formula>NOT(ISERROR(SEARCH("acfr:CurrentLiabilitiesCustom",A54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="12" operator="containsText" text="acfr:CurrentLiabilitiesCustom">
+    <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="acfr:CurrentLiabilitiesCustom">
       <formula>NOT(ISERROR(SEARCH("acfr:CurrentLiabilitiesCustom",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:A70">
-    <cfRule type="containsText" dxfId="88" priority="11" operator="containsText" text="acfr:NoncurrentLiabilitiesCustom">
+    <cfRule type="containsText" dxfId="33" priority="16" operator="containsText" text="acfr:NoncurrentLiabilitiesCustom">
       <formula>NOT(ISERROR(SEARCH("acfr:NoncurrentLiabilitiesCustom",A67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:A83">
-    <cfRule type="containsText" dxfId="87" priority="10" operator="containsText" text="acfr:DeferredInflowsOfResourcesCustom">
+    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="acfr:DeferredInflowsOfResourcesCustom">
       <formula>NOT(ISERROR(SEARCH("acfr:DeferredInflowsOfResourcesCustom",A80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:A95">
-    <cfRule type="containsText" dxfId="86" priority="9" operator="containsText" text="acfr:RestrictedComponentsOfNetPositionCustom">
+    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="acfr:RestrictedComponentsOfNetPositionCustom">
       <formula>NOT(ISERROR(SEARCH("acfr:RestrictedComponentsOfNetPositionCustom",A92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="85" priority="15" operator="containsText" text="acfr:CurrentAssetsCustom">
+    <cfRule type="containsText" dxfId="30" priority="20" operator="containsText" text="acfr:CurrentAssetsCustom">
       <formula>NOT(ISERROR(SEARCH("acfr:CurrentAssetsCustom",B15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101:F101">
-    <cfRule type="cellIs" dxfId="84" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="39" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="40" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="36" operator="notEqual">
+    <cfRule type="cellIs" dxfId="27" priority="41" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F37 C23:F23 C37:F37 D39:F101 C50 C65:F65 C76:C77 C89 C101">
-    <cfRule type="expression" dxfId="81" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="23" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M68">
-    <cfRule type="expression" dxfId="80" priority="8">
+    <cfRule type="expression" dxfId="25" priority="13">
       <formula>$A$9:$A$22="acfr:CurrentAssetsCustom"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49206,6 +49414,72 @@
     <ignoredError sqref="E76" formula="1"/>
   </ignoredErrors>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5" id="{F4230BA6-F328-4544-8648-B7D94C2E1B2A}">
+            <xm:f>'Master Info'!C5="N"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E8:F101</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="4" id="{AE130514-D2ED-854F-BBE4-3D5DA701565D}">
+            <xm:f>'Master Info'!C5="N"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E38:F38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{571FA1C0-847E-F648-A086-3F79FEE9EA5B}">
+            <xm:f>'Master Info'!C5="N"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{F0E706EC-B5FD-434C-B52F-F67351DA57EF}">
+            <xm:f>'Master Info'!C6="N"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{AC3F68F1-5F2B-BC46-8027-79F6F176A53E}">
+            <xm:f>AND('Master Info'!C5="N", 'Master Info'!C6="N")</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D38</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{17CB63B2-6582-4D03-B5CB-EC836B51979D}">
@@ -49263,8 +49537,8 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="84" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView zoomScale="84" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -49400,20 +49674,20 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="242"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="243"/>
-      <c r="G9" s="244" t="str">
+      <c r="C9" s="202"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="203"/>
+      <c r="G9" s="226" t="str">
         <f>IF(OR(G$6="", B9=""),"",SUM(D9:F9) - C9)</f>
         <v/>
       </c>
-      <c r="H9" s="244"/>
-      <c r="I9" s="245" t="str">
+      <c r="H9" s="226"/>
+      <c r="I9" s="200" t="str">
         <f>IF(OR(I$6="", B9=""),"",SUM(G9:H9))</f>
         <v/>
       </c>
-      <c r="J9" s="244"/>
+      <c r="J9" s="226"/>
     </row>
     <row r="10" spans="1:10" ht="16">
       <c r="A10" s="50" t="str">
@@ -49421,20 +49695,17 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="242"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
-      <c r="G10" s="244" t="str">
-        <f t="shared" ref="G10:G22" si="0">IF(OR(G$6="", B10=""),"",SUM(D10:F10) - C10)</f>
+      <c r="C10" s="202"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="226"/>
+      <c r="H10" s="226"/>
+      <c r="I10" s="200" t="str">
+        <f t="shared" ref="I10:I22" si="0">IF(OR(I$6="", B10=""),"",SUM(G10:H10))</f>
         <v/>
       </c>
-      <c r="H10" s="244"/>
-      <c r="I10" s="245" t="str">
-        <f t="shared" ref="I10:I22" si="1">IF(OR(I$6="", B10=""),"",SUM(G10:H10))</f>
-        <v/>
-      </c>
-      <c r="J10" s="244"/>
+      <c r="J10" s="226"/>
     </row>
     <row r="11" spans="1:10" ht="16">
       <c r="A11" s="50" t="str">
@@ -49442,20 +49713,20 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="242"/>
-      <c r="D11" s="243"/>
-      <c r="E11" s="243"/>
-      <c r="F11" s="243"/>
-      <c r="G11" s="244" t="str">
+      <c r="C11" s="202"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="203"/>
+      <c r="F11" s="203"/>
+      <c r="G11" s="226" t="str">
+        <f t="shared" ref="G11:G22" si="1">IF(OR(G$6="", B11=""),"",SUM(D11:F11) - C11)</f>
+        <v/>
+      </c>
+      <c r="H11" s="226"/>
+      <c r="I11" s="200" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H11" s="244"/>
-      <c r="I11" s="245" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J11" s="244"/>
+      <c r="J11" s="226"/>
     </row>
     <row r="12" spans="1:10" ht="16">
       <c r="A12" s="50" t="str">
@@ -49463,20 +49734,20 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="242"/>
-      <c r="D12" s="243"/>
-      <c r="E12" s="243"/>
-      <c r="F12" s="243"/>
-      <c r="G12" s="244" t="str">
+      <c r="C12" s="202"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="203"/>
+      <c r="G12" s="226" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H12" s="226"/>
+      <c r="I12" s="200" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H12" s="244"/>
-      <c r="I12" s="245" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J12" s="244"/>
+      <c r="J12" s="226"/>
     </row>
     <row r="13" spans="1:10" ht="16">
       <c r="A13" s="50" t="str">
@@ -49484,20 +49755,17 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B13" s="15"/>
-      <c r="C13" s="242"/>
-      <c r="D13" s="243"/>
-      <c r="E13" s="243"/>
-      <c r="F13" s="243"/>
-      <c r="G13" s="244" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H13" s="244"/>
-      <c r="I13" s="245" t="str">
+      <c r="C13" s="202"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="203"/>
+      <c r="F13" s="203"/>
+      <c r="G13" s="226" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J13" s="244"/>
+      <c r="H13" s="226"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="226"/>
     </row>
     <row r="14" spans="1:10" ht="16">
       <c r="A14" s="50" t="str">
@@ -49505,20 +49773,20 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="242"/>
-      <c r="D14" s="243"/>
-      <c r="E14" s="243"/>
-      <c r="F14" s="243"/>
-      <c r="G14" s="244" t="str">
+      <c r="C14" s="202"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="226" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H14" s="226"/>
+      <c r="I14" s="200" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H14" s="244"/>
-      <c r="I14" s="245" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J14" s="244"/>
+      <c r="J14" s="226"/>
     </row>
     <row r="15" spans="1:10" ht="16">
       <c r="A15" s="50" t="str">
@@ -49526,20 +49794,20 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B15" s="15"/>
-      <c r="C15" s="242"/>
-      <c r="D15" s="243"/>
-      <c r="E15" s="243"/>
-      <c r="F15" s="243"/>
-      <c r="G15" s="244" t="str">
+      <c r="C15" s="202"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="203"/>
+      <c r="G15" s="226" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H15" s="226"/>
+      <c r="I15" s="200" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H15" s="244"/>
-      <c r="I15" s="245" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J15" s="244"/>
+      <c r="J15" s="226"/>
     </row>
     <row r="16" spans="1:10" ht="16">
       <c r="A16" s="50" t="str">
@@ -49547,20 +49815,20 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="242"/>
-      <c r="D16" s="243"/>
-      <c r="E16" s="243"/>
-      <c r="F16" s="243"/>
-      <c r="G16" s="244" t="str">
+      <c r="C16" s="202"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="226" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H16" s="226"/>
+      <c r="I16" s="200" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H16" s="244"/>
-      <c r="I16" s="245" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J16" s="244"/>
+      <c r="J16" s="226"/>
     </row>
     <row r="17" spans="1:10" ht="16">
       <c r="A17" s="50" t="str">
@@ -49568,20 +49836,20 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" s="242"/>
-      <c r="D17" s="243"/>
-      <c r="E17" s="243"/>
-      <c r="F17" s="243"/>
-      <c r="G17" s="244" t="str">
+      <c r="C17" s="202"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="203"/>
+      <c r="G17" s="226" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H17" s="226"/>
+      <c r="I17" s="200" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H17" s="244"/>
-      <c r="I17" s="245" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J17" s="244"/>
+      <c r="J17" s="226"/>
     </row>
     <row r="18" spans="1:10" ht="16" hidden="1">
       <c r="A18" s="50" t="str">
@@ -49589,20 +49857,20 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B18" s="15"/>
-      <c r="C18" s="242"/>
-      <c r="D18" s="243"/>
-      <c r="E18" s="243"/>
-      <c r="F18" s="243"/>
-      <c r="G18" s="244" t="str">
+      <c r="C18" s="202"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="203"/>
+      <c r="G18" s="226" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H18" s="226"/>
+      <c r="I18" s="200" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H18" s="244"/>
-      <c r="I18" s="245" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J18" s="244"/>
+      <c r="J18" s="226"/>
     </row>
     <row r="19" spans="1:10" ht="16" hidden="1">
       <c r="A19" s="50" t="str">
@@ -49610,20 +49878,20 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="242"/>
-      <c r="D19" s="243"/>
-      <c r="E19" s="243"/>
-      <c r="F19" s="243"/>
-      <c r="G19" s="244" t="str">
+      <c r="C19" s="202"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="226" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H19" s="226"/>
+      <c r="I19" s="200" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H19" s="244"/>
-      <c r="I19" s="245" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J19" s="244"/>
+      <c r="J19" s="226"/>
     </row>
     <row r="20" spans="1:10" ht="16" hidden="1">
       <c r="A20" s="50" t="str">
@@ -49631,20 +49899,20 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B20" s="15"/>
-      <c r="C20" s="242"/>
-      <c r="D20" s="243"/>
-      <c r="E20" s="243"/>
-      <c r="F20" s="243"/>
-      <c r="G20" s="244" t="str">
+      <c r="C20" s="202"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="226" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H20" s="226"/>
+      <c r="I20" s="200" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H20" s="244"/>
-      <c r="I20" s="245" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J20" s="244"/>
+      <c r="J20" s="226"/>
     </row>
     <row r="21" spans="1:10" ht="16" hidden="1">
       <c r="A21" s="50" t="str">
@@ -49652,20 +49920,20 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B21" s="15"/>
-      <c r="C21" s="242"/>
-      <c r="D21" s="243"/>
-      <c r="E21" s="243"/>
-      <c r="F21" s="243"/>
-      <c r="G21" s="244" t="str">
+      <c r="C21" s="202"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="226" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H21" s="226"/>
+      <c r="I21" s="200" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H21" s="244"/>
-      <c r="I21" s="245" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J21" s="244"/>
+      <c r="J21" s="226"/>
     </row>
     <row r="22" spans="1:10" ht="16">
       <c r="A22" s="50" t="str">
@@ -49673,20 +49941,20 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B22" s="15"/>
-      <c r="C22" s="242"/>
-      <c r="D22" s="243"/>
-      <c r="E22" s="243"/>
-      <c r="F22" s="243"/>
-      <c r="G22" s="244" t="str">
+      <c r="C22" s="202"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="226" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H22" s="226"/>
+      <c r="I22" s="200" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H22" s="244"/>
-      <c r="I22" s="245" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J22" s="244"/>
+      <c r="J22" s="226"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="6" t="s">
@@ -49695,32 +49963,35 @@
       <c r="B23" s="6" t="s">
         <v>1100</v>
       </c>
-      <c r="C23" s="245">
-        <f t="shared" ref="C23:I23" si="2">IF(C6="","",SUM(C9:C22))</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="245">
+      <c r="C23" s="200"/>
+      <c r="D23" s="200">
+        <f t="shared" ref="D23:J23" si="2">IF(D6="","",SUM(D9:D22))</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E23" s="245">
+      <c r="F23" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F23" s="245">
+      <c r="G23" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="245">
+      <c r="H23" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H23" s="245"/>
-      <c r="I23" s="245">
+      <c r="I23" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J23" s="245"/>
+      <c r="J23" s="200">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="15">
       <c r="A24" s="5"/>
@@ -49805,10 +50076,7 @@
       <c r="E28" s="203"/>
       <c r="F28" s="203"/>
       <c r="G28" s="226"/>
-      <c r="H28" s="226" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H28" s="226"/>
       <c r="I28" s="200" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -50012,7 +50280,10 @@
         <f>IF(I$6="","",SUM(I25:I36))</f>
         <v>0</v>
       </c>
-      <c r="J37" s="200"/>
+      <c r="J37" s="200">
+        <f>IF(J$6="","",SUM(J25:J36))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="15">
       <c r="A38" s="6" t="s">
@@ -50042,14 +50313,17 @@
         <v>0</v>
       </c>
       <c r="H38" s="204">
-        <f t="shared" ref="H38:I38" si="9">IF(H$6="","",H23+H37)</f>
+        <f t="shared" ref="H38:J38" si="9">IF(H$6="","",H23+H37)</f>
         <v>0</v>
       </c>
       <c r="I38" s="204">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J38" s="204"/>
+      <c r="J38" s="204">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:10" ht="15">
       <c r="A39" s="5"/>
@@ -50109,12 +50383,9 @@
       <c r="D42" s="203"/>
       <c r="E42" s="203"/>
       <c r="F42" s="203"/>
-      <c r="G42" s="226" t="str">
-        <f t="shared" ref="G42:H49" si="11">IF(OR(G$6="", B42=""),"",0)</f>
-        <v/>
-      </c>
+      <c r="G42" s="226"/>
       <c r="H42" s="226" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G42:H49" si="11">IF(OR(H$6="", C42=""),"",0)</f>
         <v/>
       </c>
       <c r="I42" s="200" t="str">
@@ -50136,10 +50407,7 @@
       <c r="D43" s="203"/>
       <c r="E43" s="203"/>
       <c r="F43" s="203"/>
-      <c r="G43" s="226" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="G43" s="226"/>
       <c r="H43" s="226" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -50163,10 +50431,7 @@
       <c r="D44" s="203"/>
       <c r="E44" s="203"/>
       <c r="F44" s="203"/>
-      <c r="G44" s="226" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="G44" s="226"/>
       <c r="H44" s="226" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -50190,10 +50455,7 @@
       <c r="D45" s="203"/>
       <c r="E45" s="203"/>
       <c r="F45" s="203"/>
-      <c r="G45" s="226" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="G45" s="226"/>
       <c r="H45" s="226" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -50707,7 +50969,10 @@
         <f>IF($C$6="","",SUM(G64:G70))</f>
         <v>0</v>
       </c>
-      <c r="H71" s="200"/>
+      <c r="H71" s="200">
+        <f>IF($H$6="","",SUM(H64:H70))</f>
+        <v>0</v>
+      </c>
       <c r="I71" s="200">
         <f>IF(I$6="","",SUM(I64:I70))</f>
         <v>0</v>
@@ -50733,15 +50998,15 @@
         <v>0</v>
       </c>
       <c r="H72" s="204">
-        <f t="shared" ref="H72:J72" si="19">SUM(H65:H71)</f>
+        <f>IF($H$6="","",SUM(H65:H71))</f>
         <v>0</v>
       </c>
       <c r="I72" s="204">
-        <f t="shared" si="19"/>
+        <f>IF(I$6="", "", SUM(I65:I71))</f>
         <v>0</v>
       </c>
       <c r="J72" s="204">
-        <f t="shared" si="19"/>
+        <f>IF(J$6="", "", SUM(J65:J71))</f>
         <v>0</v>
       </c>
     </row>
@@ -50770,17 +51035,20 @@
       <c r="D75" s="74"/>
       <c r="E75" s="74"/>
       <c r="F75" s="74"/>
-      <c r="G75" s="246">
+      <c r="G75" s="241">
         <f>G72+G23</f>
         <v>0</v>
       </c>
-      <c r="H75" s="246"/>
+      <c r="H75" s="241">
+        <f>IF($H$6="","",SUM(H72+H23))</f>
+        <v>0</v>
+      </c>
       <c r="I75" s="200">
         <f>IF(I$6="","",SUM(G75:H75))</f>
         <v>0</v>
       </c>
-      <c r="J75" s="246">
-        <f>J72+J50</f>
+      <c r="J75" s="241">
+        <f>IF(J$6="", "", SUM(J72+J50))</f>
         <v>0</v>
       </c>
     </row>
@@ -50798,7 +51066,7 @@
       <c r="G76" s="203"/>
       <c r="H76" s="203"/>
       <c r="I76" s="200">
-        <f t="shared" ref="I76" si="20">IF(I$6="","",SUM(G76:H76))</f>
+        <f t="shared" ref="I76" si="19">IF(I$6="","",SUM(G76:H76))</f>
         <v>0</v>
       </c>
       <c r="J76" s="203"/>
@@ -50814,20 +51082,20 @@
       <c r="D77" s="74"/>
       <c r="E77" s="74"/>
       <c r="F77" s="74"/>
-      <c r="G77" s="247">
+      <c r="G77" s="242">
         <f>G75+G76</f>
         <v>0</v>
       </c>
-      <c r="H77" s="247">
-        <f t="shared" ref="H77:J77" si="21">H75+H76</f>
-        <v>0</v>
-      </c>
-      <c r="I77" s="247">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="247">
-        <f t="shared" si="21"/>
+      <c r="H77" s="242">
+        <f>IF($H$6="","",SUM(H75+H76))</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="242">
+        <f>IF(I$6="", "", SUM(I75+I76))</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="242">
+        <f>IF(J$6="", "", SUM(J75+J76))</f>
         <v>0</v>
       </c>
     </row>
@@ -50838,15 +51106,15 @@
       <c r="I79" s="54"/>
     </row>
     <row r="80" spans="1:10" ht="15">
-      <c r="A80" s="257"/>
-      <c r="B80" s="264" t="s">
-        <v>3636</v>
+      <c r="A80" s="252"/>
+      <c r="B80" s="261" t="s">
+        <v>3629</v>
       </c>
       <c r="I80" s="54"/>
     </row>
     <row r="81" spans="1:9" ht="15">
-      <c r="A81" s="257"/>
-      <c r="B81" s="265"/>
+      <c r="A81" s="252"/>
+      <c r="B81" s="262"/>
       <c r="I81" s="54"/>
     </row>
     <row r="82" spans="1:9" ht="15">
@@ -50909,88 +51177,88 @@
     <mergeCell ref="B80:B81"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:A22">
-    <cfRule type="containsText" dxfId="79" priority="9" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="119" priority="9" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A36">
-    <cfRule type="containsText" dxfId="78" priority="8" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="118" priority="8" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A63">
-    <cfRule type="containsText" dxfId="77" priority="5" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="117" priority="5" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:A70">
-    <cfRule type="containsText" dxfId="76" priority="1" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="116" priority="1" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:B49">
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="custom">
+    <cfRule type="containsText" dxfId="115" priority="3" operator="containsText" text="custom">
       <formula>NOT(ISERROR(SEARCH("custom",A41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23 C37 C50 D53:G63">
-    <cfRule type="expression" dxfId="74" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="58" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:J64">
-    <cfRule type="expression" dxfId="73" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="43" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:J72">
-    <cfRule type="expression" dxfId="72" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="19" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F6 D52:F52">
-    <cfRule type="expression" dxfId="71" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="55" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:G51">
-    <cfRule type="expression" dxfId="70" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="15" stopIfTrue="1">
+      <formula>D$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:J37 J39:J50">
+    <cfRule type="expression" dxfId="109" priority="13" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:J70">
-    <cfRule type="expression" dxfId="69" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74:J77 I78:I99">
-    <cfRule type="expression" dxfId="68" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="I78:I99 D74:J77">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H50">
-    <cfRule type="expression" dxfId="67" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="14" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:I38">
-    <cfRule type="expression" dxfId="66" priority="52" stopIfTrue="1">
+  <conditionalFormatting sqref="H5:J6 I39:I51">
+    <cfRule type="expression" dxfId="105" priority="48" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:J6 D7:I37 I39:I51">
-    <cfRule type="expression" dxfId="65" priority="48" stopIfTrue="1">
-      <formula>D$6=""</formula>
+  <conditionalFormatting sqref="H38:J38">
+    <cfRule type="expression" dxfId="104" priority="52" stopIfTrue="1">
+      <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:J63">
-    <cfRule type="expression" dxfId="64" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="12" stopIfTrue="1">
       <formula>H$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:J50">
-    <cfRule type="expression" dxfId="63" priority="13" stopIfTrue="1">
-      <formula>J$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarrahahmed/Desktop/CLOSUP/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC34DE0-2605-D04D-BFDF-12A7A3230B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CD3C2B-D8DB-CF45-9F95-E643346CE5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17240" tabRatio="834" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-8280" windowWidth="38400" windowHeight="21600" tabRatio="834" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Net Position" sheetId="8" state="hidden" r:id="rId1"/>
@@ -13587,7 +13587,7 @@
   <dimension ref="A1:C514"/>
   <sheetViews>
     <sheetView topLeftCell="A295" zoomScale="75" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A316" sqref="A316:C354"/>
+      <selection activeCell="E319" sqref="E319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -19269,7 +19269,7 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView zoomScale="119" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -20959,8 +20959,8 @@
   </sheetPr>
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -22652,7 +22652,7 @@
   <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L80" sqref="L80"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -24992,8 +24992,8 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -26606,7 +26606,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N92" sqref="N92"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -28274,7 +28274,7 @@
   </sheetPr>
   <dimension ref="A1:C358"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D135" sqref="D135:D136"/>
     </sheetView>
   </sheetViews>
@@ -31554,7 +31554,7 @@
   </sheetPr>
   <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" zoomScale="75" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -35255,8 +35255,8 @@
   </sheetPr>
   <dimension ref="A1:E310"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A313" sqref="A313"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -35291,11 +35291,11 @@
         <v>1837</v>
       </c>
       <c r="C2" s="135" t="str">
-        <f t="shared" ref="C2:C65" si="0">"acfr:"&amp;A2</f>
-        <v>acfr:Charges to Other Funds</v>
+        <f>"acfr:"&amp;B2</f>
+        <v>acfr:ChargesToOtherFunds</v>
       </c>
       <c r="D2" s="120" t="str">
-        <f t="shared" ref="D2:D33" si="1">IF(RIGHT(B2, 8)="Abstract", "Abstract", "Operating Revenues")</f>
+        <f t="shared" ref="D2:D33" si="0">IF(RIGHT(B2, 8)="Abstract", "Abstract", "Operating Revenues")</f>
         <v>Operating Revenues</v>
       </c>
       <c r="E2" s="119"/>
@@ -35308,11 +35308,11 @@
         <v>1839</v>
       </c>
       <c r="C3" s="135" t="str">
+        <f t="shared" ref="C3:C66" si="1">"acfr:"&amp;B3</f>
+        <v>acfr:RevenueFares</v>
+      </c>
+      <c r="D3" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Fare Revenue</v>
-      </c>
-      <c r="D3" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E3" s="119"/>
@@ -35325,11 +35325,11 @@
         <v>1829</v>
       </c>
       <c r="C4" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:InterestAndPenaltiesForTaxFund</v>
+      </c>
+      <c r="D4" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Interest and Penalties for Tax Fund</v>
-      </c>
-      <c r="D4" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E4" s="119"/>
@@ -35342,11 +35342,11 @@
         <v>1870</v>
       </c>
       <c r="C5" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:OperatingContributionsAndPremiums</v>
+      </c>
+      <c r="D5" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Operating Contributions and Premiums</v>
-      </c>
-      <c r="D5" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E5" s="119"/>
@@ -35359,11 +35359,11 @@
         <v>1872</v>
       </c>
       <c r="C6" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:OperatingGrants</v>
+      </c>
+      <c r="D6" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Operating Grants</v>
-      </c>
-      <c r="D6" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E6" s="119"/>
@@ -35376,11 +35376,11 @@
         <v>1876</v>
       </c>
       <c r="C7" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueOperating</v>
+      </c>
+      <c r="D7" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Operating Revenue</v>
-      </c>
-      <c r="D7" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E7" s="119"/>
@@ -35393,11 +35393,11 @@
         <v>1874</v>
       </c>
       <c r="C8" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:OtherOperatingRevenue</v>
+      </c>
+      <c r="D8" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Other Operating Revenue</v>
-      </c>
-      <c r="D8" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E8" s="119"/>
@@ -35410,11 +35410,11 @@
         <v>1841</v>
       </c>
       <c r="C9" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:RegulatedOperatingRevenueWasteWater</v>
+      </c>
+      <c r="D9" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Regulated Operating Revenue, Waste Water</v>
-      </c>
-      <c r="D9" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E9" s="119"/>
@@ -35427,11 +35427,11 @@
         <v>1843</v>
       </c>
       <c r="C10" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:RegulatedOperatingRevenueWater</v>
+      </c>
+      <c r="D10" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Regulated Operating Revenue, Water</v>
-      </c>
-      <c r="D10" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E10" s="119"/>
@@ -35444,11 +35444,11 @@
         <v>1800</v>
       </c>
       <c r="C11" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesAmbulanceTransportFees</v>
+      </c>
+      <c r="D11" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Ambulance Transport Fees</v>
-      </c>
-      <c r="D11" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E11" s="119"/>
@@ -35461,11 +35461,11 @@
         <v>1782</v>
       </c>
       <c r="C12" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesAttorneyFeeReimbursement</v>
+      </c>
+      <c r="D12" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Attorney Fee Reimbursement</v>
-      </c>
-      <c r="D12" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E12" s="119"/>
@@ -35478,11 +35478,11 @@
         <v>1817</v>
       </c>
       <c r="C13" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesBondForfeituresAndBondCosts</v>
+      </c>
+      <c r="D13" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Bond Forfeitures and Bond Costs</v>
-      </c>
-      <c r="D13" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E13" s="119"/>
@@ -35495,11 +35495,11 @@
         <v>1798</v>
       </c>
       <c r="C14" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesBuildingInspectionFees</v>
+      </c>
+      <c r="D14" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Building Inspection Fees</v>
-      </c>
-      <c r="D14" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E14" s="119"/>
@@ -35512,11 +35512,11 @@
         <v>1821</v>
       </c>
       <c r="C15" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesBusinessLicensesAndPermits</v>
+      </c>
+      <c r="D15" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Business Licenses and Permits</v>
-      </c>
-      <c r="D15" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E15" s="119"/>
@@ -35529,11 +35529,11 @@
         <v>1822</v>
       </c>
       <c r="C16" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesCableTVFranchiseFees</v>
+      </c>
+      <c r="D16" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Cable TV Franchise Fees</v>
-      </c>
-      <c r="D16" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E16" s="119"/>
@@ -35546,11 +35546,11 @@
         <v>1812</v>
       </c>
       <c r="C17" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServices</v>
+      </c>
+      <c r="D17" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Charges for Services</v>
-      </c>
-      <c r="D17" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E17" s="119"/>
@@ -35563,11 +35563,11 @@
         <v>1776</v>
       </c>
       <c r="C18" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesCourtFilingFees</v>
+      </c>
+      <c r="D18" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Court Filing Fees</v>
-      </c>
-      <c r="D18" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E18" s="119"/>
@@ -35580,11 +35580,11 @@
         <v>1772</v>
       </c>
       <c r="C19" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesCourtRelatedCharges</v>
+      </c>
+      <c r="D19" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Court Related Charges</v>
-      </c>
-      <c r="D19" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E19" s="119"/>
@@ -35597,11 +35597,11 @@
         <v>1788</v>
       </c>
       <c r="C20" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesEstateInventoryFee</v>
+      </c>
+      <c r="D20" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Estate Inventory Fee</v>
-      </c>
-      <c r="D20" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E20" s="119"/>
@@ -35614,11 +35614,11 @@
         <v>1774</v>
       </c>
       <c r="C21" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesFees</v>
+      </c>
+      <c r="D21" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Fees</v>
-      </c>
-      <c r="D21" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E21" s="119"/>
@@ -35631,11 +35631,11 @@
         <v>1792</v>
       </c>
       <c r="C22" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesFriendOfTheCourtServiceFee</v>
+      </c>
+      <c r="D22" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Friend of the Court Service Fee</v>
-      </c>
-      <c r="D22" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E22" s="119"/>
@@ -35648,11 +35648,11 @@
         <v>1790</v>
       </c>
       <c r="C23" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesFriendOfTheCourtStatutoryHandlingFee</v>
+      </c>
+      <c r="D23" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Friend of the Court Statutory Handling Fee</v>
-      </c>
-      <c r="D23" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E23" s="119"/>
@@ -35665,11 +35665,11 @@
         <v>1784</v>
       </c>
       <c r="C24" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesGuardianAdLitemReimbursement</v>
+      </c>
+      <c r="D24" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Guardian Ad Litem Reimbursement</v>
-      </c>
-      <c r="D24" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E24" s="119"/>
@@ -35682,11 +35682,11 @@
         <v>1778</v>
       </c>
       <c r="C25" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesJuryDemandFees</v>
+      </c>
+      <c r="D25" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Jury Demand Fees</v>
-      </c>
-      <c r="D25" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E25" s="119"/>
@@ -35699,11 +35699,11 @@
         <v>1824</v>
       </c>
       <c r="C26" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesLicensesAndPermitsAndFranchiseFees</v>
+      </c>
+      <c r="D26" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Licenses and Permits and Franchise Fees</v>
-      </c>
-      <c r="D26" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E26" s="119"/>
@@ -35716,11 +35716,11 @@
         <v>1794</v>
       </c>
       <c r="C27" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesMiscellaneousCourtCostsAndFees</v>
+      </c>
+      <c r="D27" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Miscellaneous Court Costs and Fees</v>
-      </c>
-      <c r="D27" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E27" s="119"/>
@@ -35733,11 +35733,11 @@
         <v>1823</v>
       </c>
       <c r="C28" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesNonBusinessLicensesAndPermits</v>
+      </c>
+      <c r="D28" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Non Business Licenses and Permits</v>
-      </c>
-      <c r="D28" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E28" s="119"/>
@@ -35750,11 +35750,11 @@
         <v>1815</v>
       </c>
       <c r="C29" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesOrdinanceFinesAndCosts</v>
+      </c>
+      <c r="D29" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Ordinance Fines and Costs</v>
-      </c>
-      <c r="D29" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E29" s="119"/>
@@ -35767,11 +35767,11 @@
         <v>1810</v>
       </c>
       <c r="C30" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesRevenueFromParkingFacilities</v>
+      </c>
+      <c r="D30" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Parking Fees</v>
-      </c>
-      <c r="D30" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E30" s="119"/>
@@ -35784,11 +35784,11 @@
         <v>1804</v>
       </c>
       <c r="C31" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesPreForfeitureMailingNoticeCost</v>
+      </c>
+      <c r="D31" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Pre Forfeiture Mailing Notice Cost</v>
-      </c>
-      <c r="D31" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E31" s="119"/>
@@ -35801,11 +35801,11 @@
         <v>1786</v>
       </c>
       <c r="C32" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesProbationOversightFee</v>
+      </c>
+      <c r="D32" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Probation Oversight Fee</v>
-      </c>
-      <c r="D32" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E32" s="119"/>
@@ -35818,11 +35818,11 @@
         <v>1806</v>
       </c>
       <c r="C33" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesSales</v>
+      </c>
+      <c r="D33" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Sales</v>
-      </c>
-      <c r="D33" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E33" s="119"/>
@@ -35835,8 +35835,8 @@
         <v>1796</v>
       </c>
       <c r="C34" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenue for Services Rendered</v>
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesServicesRendered</v>
       </c>
       <c r="D34" s="120" t="str">
         <f t="shared" ref="D34:D58" si="2">IF(RIGHT(B34, 8)="Abstract", "Abstract", "Operating Revenues")</f>
@@ -35852,8 +35852,8 @@
         <v>1816</v>
       </c>
       <c r="C35" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenue for Statute Costs</v>
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesStatuteCosts</v>
       </c>
       <c r="D35" s="120" t="str">
         <f t="shared" si="2"/>
@@ -35869,8 +35869,8 @@
         <v>1802</v>
       </c>
       <c r="C36" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenue for Title Search Fee</v>
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesTitleSearchFee</v>
       </c>
       <c r="D36" s="120" t="str">
         <f t="shared" si="2"/>
@@ -35886,8 +35886,8 @@
         <v>1814</v>
       </c>
       <c r="C37" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenue for Traffic Violations</v>
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesTrafficViolations</v>
       </c>
       <c r="D37" s="120" t="str">
         <f t="shared" si="2"/>
@@ -35903,8 +35903,8 @@
         <v>1808</v>
       </c>
       <c r="C38" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenue for Use and Admission Fees</v>
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesUseAndAdmissionFees</v>
       </c>
       <c r="D38" s="120" t="str">
         <f t="shared" si="2"/>
@@ -35920,8 +35920,8 @@
         <v>1780</v>
       </c>
       <c r="C39" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenue for Writ of Garnishment, Restitution, Attachment or Execution</v>
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesWritOfGarnishmentRestitutionAttachmentOrExecution</v>
       </c>
       <c r="D39" s="120" t="str">
         <f t="shared" si="2"/>
@@ -35937,8 +35937,8 @@
         <v>1845</v>
       </c>
       <c r="C40" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Auxiliary Enterprises</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenuefromAuxiliaryEnterprises</v>
       </c>
       <c r="D40" s="120" t="str">
         <f t="shared" si="2"/>
@@ -35954,8 +35954,8 @@
         <v>1853</v>
       </c>
       <c r="C41" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Charges for Utilities</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromChargesForUtilities</v>
       </c>
       <c r="D41" s="120" t="str">
         <f t="shared" si="2"/>
@@ -35971,8 +35971,8 @@
         <v>1847</v>
       </c>
       <c r="C42" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Connection Fees</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromConnectionFees</v>
       </c>
       <c r="D42" s="120" t="str">
         <f t="shared" si="2"/>
@@ -35988,8 +35988,8 @@
         <v>1818</v>
       </c>
       <c r="C43" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Fines and Forfeitures and Penalties</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromFinesAndForfeituresAndPenalties</v>
       </c>
       <c r="D43" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36005,8 +36005,8 @@
         <v>1851</v>
       </c>
       <c r="C44" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Installation Fees</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromInstallationFees</v>
       </c>
       <c r="D44" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36022,8 +36022,8 @@
         <v>1865</v>
       </c>
       <c r="C45" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Lottery License Application Fees</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromLotteryLicenseApplicationFees</v>
       </c>
       <c r="D45" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36039,8 +36039,8 @@
         <v>1869</v>
       </c>
       <c r="C46" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Lottery License Application Fees</v>
+        <f t="shared" si="1"/>
+        <v>acfr:ExpensesForLotteryLicenseApplicationFees</v>
       </c>
       <c r="D46" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36056,8 +36056,8 @@
         <v>1867</v>
       </c>
       <c r="C47" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Lottery Security Proceeds</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromLotterySecurityProceeds</v>
       </c>
       <c r="D47" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36073,8 +36073,8 @@
         <v>1863</v>
       </c>
       <c r="C48" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Lottery Ticket Sales</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromLotteryTicketSales</v>
       </c>
       <c r="D48" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36090,8 +36090,8 @@
         <v>1857</v>
       </c>
       <c r="C49" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Refunds and Rebates</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromRefundsAndRebates</v>
       </c>
       <c r="D49" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36107,8 +36107,8 @@
         <v>1859</v>
       </c>
       <c r="C50" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Reimbursements</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromReimbursements</v>
       </c>
       <c r="D50" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36124,8 +36124,8 @@
         <v>1849</v>
       </c>
       <c r="C51" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Rents</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromRents</v>
       </c>
       <c r="D51" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36141,8 +36141,8 @@
         <v>1855</v>
       </c>
       <c r="C52" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Sale of Fuel</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromSaleOfFuel</v>
       </c>
       <c r="D52" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36158,8 +36158,8 @@
         <v>1825</v>
       </c>
       <c r="C53" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Tuition and Fees</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromTuitionAndFees</v>
       </c>
       <c r="D53" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36175,8 +36175,8 @@
         <v>1831</v>
       </c>
       <c r="C54" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Tuition and Fees (Net of Allowances)</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromTuitionAndFeesNetOfAllowances</v>
       </c>
       <c r="D54" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36192,8 +36192,8 @@
         <v>1833</v>
       </c>
       <c r="C55" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Scholarship Allowances</v>
+        <f t="shared" si="1"/>
+        <v>acfr:ScholarshipAllowances</v>
       </c>
       <c r="D55" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36209,8 +36209,8 @@
         <v>1827</v>
       </c>
       <c r="C56" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Tax Collection Fees for Tax Fund</v>
+        <f t="shared" si="1"/>
+        <v>acfr:TaxCollectionFeesForTaxFund</v>
       </c>
       <c r="D56" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36226,8 +36226,8 @@
         <v>1835</v>
       </c>
       <c r="C57" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Tuition and Fees, Allowance</v>
+        <f t="shared" si="1"/>
+        <v>acfr:TuitionAndFeesAllowances</v>
       </c>
       <c r="D57" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36243,8 +36243,8 @@
         <v>1726</v>
       </c>
       <c r="C58" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Type of Activities Proprietary Funds [Axis]</v>
+        <f t="shared" si="1"/>
+        <v>acfr:TypeOfActivitiesProprietaryFundsAxis</v>
       </c>
       <c r="D58" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36260,8 +36260,8 @@
         <v>1981</v>
       </c>
       <c r="C59" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Amortization Expense</v>
+        <f t="shared" si="1"/>
+        <v>acfr:AmortizationExpense</v>
       </c>
       <c r="D59" s="120" t="str">
         <f t="shared" ref="D59:D90" si="3">IF(RIGHT(B59, 8)="Abstract", "Abstract", "Operating Expenses")</f>
@@ -36277,8 +36277,8 @@
         <v>1985</v>
       </c>
       <c r="C60" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Bad Debt Expense</v>
+        <f t="shared" si="1"/>
+        <v>acfr:BadDebtExpense</v>
       </c>
       <c r="D60" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36294,8 +36294,8 @@
         <v>1944</v>
       </c>
       <c r="C61" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Benefits Expense</v>
+        <f t="shared" si="1"/>
+        <v>acfr:BenefitsExpense</v>
       </c>
       <c r="D61" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36311,8 +36311,8 @@
         <v>1942</v>
       </c>
       <c r="C62" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Benefits Expense, Pension and OPEB</v>
+        <f t="shared" si="1"/>
+        <v>acfr:BenefitsExpensePensionAndOPEB</v>
       </c>
       <c r="D62" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36328,8 +36328,8 @@
         <v>1948</v>
       </c>
       <c r="C63" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Communication Expense</v>
+        <f t="shared" si="1"/>
+        <v>acfr:CommunicationExpense</v>
       </c>
       <c r="D63" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36345,8 +36345,8 @@
         <v>1950</v>
       </c>
       <c r="C64" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Community Promotion Expense</v>
+        <f t="shared" si="1"/>
+        <v>acfr:CommunityPromotionExpense</v>
       </c>
       <c r="D64" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36362,8 +36362,8 @@
         <v>1978</v>
       </c>
       <c r="C65" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Cost of Materials and Services Rendered</v>
+        <f t="shared" si="1"/>
+        <v>acfr:CostOfMaterialsAndServicesRendered</v>
       </c>
       <c r="D65" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36379,8 +36379,8 @@
         <v>1983</v>
       </c>
       <c r="C66" s="135" t="str">
-        <f t="shared" ref="C66:C129" si="4">"acfr:"&amp;A66</f>
-        <v>acfr:Depletion, Depreciation and Amortization Expense</v>
+        <f t="shared" si="1"/>
+        <v>acfr:DepletionDepreciationAndAmortizationExpense</v>
       </c>
       <c r="D66" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36396,8 +36396,8 @@
         <v>1980</v>
       </c>
       <c r="C67" s="135" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:Depreciation Expense</v>
+        <f t="shared" ref="C67:C130" si="4">"acfr:"&amp;B67</f>
+        <v>acfr:DepreciationExpense</v>
       </c>
       <c r="D67" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36414,7 +36414,7 @@
       </c>
       <c r="C68" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Academic Support</v>
+        <v>acfr:ExpensesForAcademicSupport</v>
       </c>
       <c r="D68" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36431,7 +36431,7 @@
       </c>
       <c r="C69" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Airport Services</v>
+        <v>acfr:ExpensesForAirportsServices</v>
       </c>
       <c r="D69" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36448,7 +36448,7 @@
       </c>
       <c r="C70" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Ambulance</v>
+        <v>acfr:ExpensesForAmbulance</v>
       </c>
       <c r="D70" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36465,7 +36465,7 @@
       </c>
       <c r="C71" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Auditorium, Civic Center</v>
+        <v>acfr:ExpensesForAuditoriumCivicCenter</v>
       </c>
       <c r="D71" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36482,7 +36482,7 @@
       </c>
       <c r="C72" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Auxiliary Enterprises</v>
+        <v>acfr:ExpensesForAuxiliaryEnterprises</v>
       </c>
       <c r="D72" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36499,7 +36499,7 @@
       </c>
       <c r="C73" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Claims and Judgments</v>
+        <v>acfr:ExpensesForClaimsAndJudgments</v>
       </c>
       <c r="D73" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36516,7 +36516,7 @@
       </c>
       <c r="C74" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Department of Public Works (DPW)</v>
+        <v>acfr:ExpensesForDepartmentOfPublicWorksDPW</v>
       </c>
       <c r="D74" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36533,7 +36533,7 @@
       </c>
       <c r="C75" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Engineers, Engineering</v>
+        <v>acfr:ExpensesForEngineersEngineering</v>
       </c>
       <c r="D75" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36550,7 +36550,7 @@
       </c>
       <c r="C76" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Equipment and Equipment Rental</v>
+        <v>acfr:ExpensesForEquipmentAndEquipmentRental</v>
       </c>
       <c r="D76" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36567,7 +36567,7 @@
       </c>
       <c r="C77" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for General Government Services</v>
+        <v>acfr:ExpensesForGeneralGovernmentServices</v>
       </c>
       <c r="D77" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36584,7 +36584,7 @@
       </c>
       <c r="C78" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Harbor Services</v>
+        <v>acfr:ExpensesForHarborServices</v>
       </c>
       <c r="D78" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36601,7 +36601,7 @@
       </c>
       <c r="C79" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Hospital Operations</v>
+        <v>acfr:ExpensesForHospitalOperations</v>
       </c>
       <c r="D79" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36618,7 +36618,7 @@
       </c>
       <c r="C80" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Hospitalization</v>
+        <v>acfr:ExpensesForHospitalization</v>
       </c>
       <c r="D80" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36635,7 +36635,7 @@
       </c>
       <c r="C81" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Information Technology</v>
+        <v>acfr:ExpensesForFinancialAndTaxAdministrationInformationTechnology</v>
       </c>
       <c r="D81" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36652,7 +36652,7 @@
       </c>
       <c r="C82" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Institutional Support</v>
+        <v>acfr:ExpensesForInstitutionalSupport</v>
       </c>
       <c r="D82" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36669,7 +36669,7 @@
       </c>
       <c r="C83" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Instruction</v>
+        <v>acfr:ExpensesForInstruction</v>
       </c>
       <c r="D83" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36686,7 +36686,7 @@
       </c>
       <c r="C84" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Lottery Game Costs</v>
+        <v>acfr:ExpensesForLotteryGameCosts</v>
       </c>
       <c r="D84" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36703,7 +36703,7 @@
       </c>
       <c r="C85" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Lottery Operator Fees</v>
+        <v>acfr:ExpensesForLotteryOperatorFees</v>
       </c>
       <c r="D85" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36720,7 +36720,7 @@
       </c>
       <c r="C86" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Lottery Prize Awards</v>
+        <v>acfr:ExpensesForLotteryPrizeAwards</v>
       </c>
       <c r="D86" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36737,7 +36737,7 @@
       </c>
       <c r="C87" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Lottery Promotion, Public Relations, and Point of Sale</v>
+        <v>acfr:ExpensesForLotteryPromotionPublicRelationsAndPointOfSale</v>
       </c>
       <c r="D87" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36754,7 +36754,7 @@
       </c>
       <c r="C88" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Lottery Retailer Bonuses</v>
+        <v>acfr:ExpensesForLotteryRetailerBonuses</v>
       </c>
       <c r="D88" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36771,7 +36771,7 @@
       </c>
       <c r="C89" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Lottery Retailer Commissions</v>
+        <v>acfr:ExpensesForLotteryRetailerCommissions</v>
       </c>
       <c r="D89" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36788,7 +36788,7 @@
       </c>
       <c r="C90" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Other Public Services</v>
+        <v>acfr:ExpensesForOtherPublicServices</v>
       </c>
       <c r="D90" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36805,7 +36805,7 @@
       </c>
       <c r="C91" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Parks Administration</v>
+        <v>acfr:ExpensesForParksAdministration</v>
       </c>
       <c r="D91" s="120" t="str">
         <f t="shared" ref="D91:D122" si="5">IF(RIGHT(B91, 8)="Abstract", "Abstract", "Operating Expenses")</f>
@@ -36822,7 +36822,7 @@
       </c>
       <c r="C92" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Parks and Recreation</v>
+        <v>acfr:ExpensesForParksAndRecreation</v>
       </c>
       <c r="D92" s="120" t="str">
         <f t="shared" si="5"/>
@@ -36839,7 +36839,7 @@
       </c>
       <c r="C93" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Parks and Recreation Department</v>
+        <v>acfr:ExpensesForParksAndRecreationDepartment</v>
       </c>
       <c r="D93" s="120" t="str">
         <f t="shared" si="5"/>
@@ -36856,7 +36856,7 @@
       </c>
       <c r="C94" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Parks Facilities</v>
+        <v>acfr:ExpensesForParksFacilities</v>
       </c>
       <c r="D94" s="120" t="str">
         <f t="shared" si="5"/>
@@ -36873,7 +36873,7 @@
       </c>
       <c r="C95" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Parks Lighting</v>
+        <v>acfr:ExpensesForParksLighting</v>
       </c>
       <c r="D95" s="120" t="str">
         <f t="shared" si="5"/>
@@ -36890,7 +36890,7 @@
       </c>
       <c r="C96" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Parks Maintenance</v>
+        <v>acfr:ExpensesForParksMaintenance</v>
       </c>
       <c r="D96" s="120" t="str">
         <f t="shared" si="5"/>
@@ -36907,7 +36907,7 @@
       </c>
       <c r="C97" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Parks Policing</v>
+        <v>acfr:ExpensesForParksPolicing</v>
       </c>
       <c r="D97" s="120" t="str">
         <f t="shared" si="5"/>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="C98" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Parks Supervision</v>
+        <v>acfr:ExpensesForParksSupervision</v>
       </c>
       <c r="D98" s="120" t="str">
         <f t="shared" si="5"/>
@@ -36941,7 +36941,7 @@
       </c>
       <c r="C99" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Professional and Contractual Services</v>
+        <v>acfr:ExpensesForProfessionalServices</v>
       </c>
       <c r="D99" s="120" t="str">
         <f t="shared" si="5"/>
@@ -36958,7 +36958,7 @@
       </c>
       <c r="C100" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Refunds and Rebates</v>
+        <v>acfr:ExpensesForRefundsAndRebates</v>
       </c>
       <c r="D100" s="120" t="str">
         <f t="shared" si="5"/>
@@ -36975,7 +36975,7 @@
       </c>
       <c r="C101" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Rubbish Collection</v>
+        <v>acfr:ExpensesForRubbishCollection</v>
       </c>
       <c r="D101" s="120" t="str">
         <f t="shared" si="5"/>
@@ -36992,7 +36992,7 @@
       </c>
       <c r="C102" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Salaries and Benefits</v>
+        <v>acfr:ExpensesForSalariesAndBenefits</v>
       </c>
       <c r="D102" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37009,7 +37009,7 @@
       </c>
       <c r="C103" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Sanitary Landfill</v>
+        <v>acfr:ExpensesForSanitaryLandfill</v>
       </c>
       <c r="D103" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37026,7 +37026,7 @@
       </c>
       <c r="C104" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Sanitation Department</v>
+        <v>acfr:ExpensesForSanitationDepartment</v>
       </c>
       <c r="D104" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37043,7 +37043,7 @@
       </c>
       <c r="C105" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Services and Supplies</v>
+        <v>acfr:ExpensesForServicesAndSupplies</v>
       </c>
       <c r="D105" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37060,7 +37060,7 @@
       </c>
       <c r="C106" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Sewage Disposal</v>
+        <v>acfr:ExpensesForSewageDisposal</v>
       </c>
       <c r="D106" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37077,7 +37077,7 @@
       </c>
       <c r="C107" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Special Assessments</v>
+        <v>acfr:ExpensesForSpecialAssessments</v>
       </c>
       <c r="D107" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37094,7 +37094,7 @@
       </c>
       <c r="C108" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for State Institutions</v>
+        <v>acfr:ExpensesForStateInstitutions</v>
       </c>
       <c r="D108" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37111,7 +37111,7 @@
       </c>
       <c r="C109" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Student Grants and Scholarships</v>
+        <v>acfr:ExpensesForStudentGrantsAndScholarships</v>
       </c>
       <c r="D109" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37128,7 +37128,7 @@
       </c>
       <c r="C110" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Student Services</v>
+        <v>acfr:ExpensesForStudentService</v>
       </c>
       <c r="D110" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37145,7 +37145,7 @@
       </c>
       <c r="C111" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Transportation Services</v>
+        <v>acfr:ExpensesForTransportationServices</v>
       </c>
       <c r="D111" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37162,7 +37162,7 @@
       </c>
       <c r="C112" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Water and Sewer Systems</v>
+        <v>acfr:ExpensesForWaterAndSewerSystems</v>
       </c>
       <c r="D112" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37179,7 +37179,7 @@
       </c>
       <c r="C113" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Financial Aid Expense</v>
+        <v>acfr:FinancialAidExpense</v>
       </c>
       <c r="D113" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37196,7 +37196,7 @@
       </c>
       <c r="C114" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Health Services Expense</v>
+        <v>acfr:HealthServicesExpense</v>
       </c>
       <c r="D114" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37213,7 +37213,7 @@
       </c>
       <c r="C115" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Housing Assistance Payments</v>
+        <v>acfr:HousingAssistancePaymentsExpense</v>
       </c>
       <c r="D115" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37230,7 +37230,7 @@
       </c>
       <c r="C116" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Insurance Expense</v>
+        <v>acfr:InsuranceExpense</v>
       </c>
       <c r="D116" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37247,7 +37247,7 @@
       </c>
       <c r="C117" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Interest Expense</v>
+        <v>acfr:InterestExpense</v>
       </c>
       <c r="D117" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37264,7 +37264,7 @@
       </c>
       <c r="C118" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Interest Expense Imputed on Annuitized Prize Liability</v>
+        <v>acfr:InterestExpenseImputedOnAnnuitizedPrizeLiability</v>
       </c>
       <c r="D118" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37281,7 +37281,7 @@
       </c>
       <c r="C119" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Materials and Supplies Expense</v>
+        <v>acfr:MaterialsAndSuppliesExpense</v>
       </c>
       <c r="D119" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37298,7 +37298,7 @@
       </c>
       <c r="C120" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:OPEB Expense</v>
+        <v>acfr:OPEBExpense</v>
       </c>
       <c r="D120" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37315,7 +37315,7 @@
       </c>
       <c r="C121" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Operating Expense</v>
+        <v>acfr:OperatingExpense</v>
       </c>
       <c r="D121" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37332,7 +37332,7 @@
       </c>
       <c r="C122" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Operating Income (Loss)</v>
+        <v>acfr:OperatingIncomeLoss</v>
       </c>
       <c r="D122" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37349,7 +37349,7 @@
       </c>
       <c r="C123" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Other Lottery Costs</v>
+        <v>acfr:OtherLotteryCosts</v>
       </c>
       <c r="D123" s="120" t="str">
         <f t="shared" ref="D123:D133" si="6">IF(RIGHT(B123, 8)="Abstract", "Abstract", "Operating Expenses")</f>
@@ -37366,7 +37366,7 @@
       </c>
       <c r="C124" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Other Operating Expenses</v>
+        <v>acfr:OtherOperatingExpenses</v>
       </c>
       <c r="D124" s="120" t="str">
         <f t="shared" si="6"/>
@@ -37383,7 +37383,7 @@
       </c>
       <c r="C125" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Pension Expense</v>
+        <v>acfr:PensionExpense</v>
       </c>
       <c r="D125" s="120" t="str">
         <f t="shared" si="6"/>
@@ -37400,7 +37400,7 @@
       </c>
       <c r="C126" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Printing and Publishing Expense</v>
+        <v>acfr:PrintingAndPublishingExpense</v>
       </c>
       <c r="D126" s="120" t="str">
         <f t="shared" si="6"/>
@@ -37417,7 +37417,7 @@
       </c>
       <c r="C127" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Protective Services</v>
+        <v>acfr:ExpensesForProtectiveServices</v>
       </c>
       <c r="D127" s="120" t="str">
         <f t="shared" si="6"/>
@@ -37434,7 +37434,7 @@
       </c>
       <c r="C128" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Rent Expense</v>
+        <v>acfr:RentExpense</v>
       </c>
       <c r="D128" s="120" t="str">
         <f t="shared" si="6"/>
@@ -37451,7 +37451,7 @@
       </c>
       <c r="C129" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Repair and Maintenance</v>
+        <v>acfr:RepairAndMaintenance</v>
       </c>
       <c r="D129" s="120" t="str">
         <f t="shared" si="6"/>
@@ -37467,8 +37467,8 @@
         <v>2001</v>
       </c>
       <c r="C130" s="135" t="str">
-        <f t="shared" ref="C130:C193" si="7">"acfr:"&amp;A130</f>
-        <v>acfr:Sewage Treatment Expense</v>
+        <f t="shared" si="4"/>
+        <v>acfr:SewageTreatmentExpense</v>
       </c>
       <c r="D130" s="120" t="str">
         <f t="shared" si="6"/>
@@ -37484,8 +37484,8 @@
         <v>1995</v>
       </c>
       <c r="C131" s="135" t="str">
-        <f t="shared" si="7"/>
-        <v>acfr:State Trunkline Overhead Expense</v>
+        <f t="shared" ref="C131:C194" si="7">"acfr:"&amp;B131</f>
+        <v>acfr:StateTrunklineOverheadExpense</v>
       </c>
       <c r="D131" s="120" t="str">
         <f t="shared" si="6"/>
@@ -37502,7 +37502,7 @@
       </c>
       <c r="C132" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Tenant Services Expense</v>
+        <v>acfr:TenantServicesExpenses</v>
       </c>
       <c r="D132" s="120" t="str">
         <f t="shared" si="6"/>
@@ -37519,7 +37519,7 @@
       </c>
       <c r="C133" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Utilities Expense</v>
+        <v>acfr:ExpensesForUtilities</v>
       </c>
       <c r="D133" s="120" t="str">
         <f t="shared" si="6"/>
@@ -37536,7 +37536,7 @@
       </c>
       <c r="C134" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Allowance for Chargebacks</v>
+        <v>acfr:AllowanceForChargebacks</v>
       </c>
       <c r="D134" s="120" t="str">
         <f t="shared" ref="D134:D165" si="8">IF(RIGHT(B134, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -37553,7 +37553,7 @@
       </c>
       <c r="C135" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Allowance for Refunds</v>
+        <v>acfr:AllowanceForRefunds</v>
       </c>
       <c r="D135" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37570,7 +37570,7 @@
       </c>
       <c r="C136" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Cash Over or Short</v>
+        <v>acfr:CashOverOrShort</v>
       </c>
       <c r="D136" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37587,7 +37587,7 @@
       </c>
       <c r="C137" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Contributions to Other Governments</v>
+        <v>acfr:ContributionsToOtherGovernments</v>
       </c>
       <c r="D137" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37604,7 +37604,7 @@
       </c>
       <c r="C138" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Debt Service, Interest and Fiscal Charges</v>
+        <v>acfr:DebtServiceInterestAndFiscalCharges</v>
       </c>
       <c r="D138" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37621,7 +37621,7 @@
       </c>
       <c r="C139" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Expenses for Other Welfare Services</v>
+        <v>acfr:ExpensesForOtherWelfareServices</v>
       </c>
       <c r="D139" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37638,7 +37638,7 @@
       </c>
       <c r="C140" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Federal Capital Grants</v>
+        <v>acfr:FederalCapitalGrants</v>
       </c>
       <c r="D140" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37655,7 +37655,7 @@
       </c>
       <c r="C141" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Federal Grants, Community Development Block Grants</v>
+        <v>acfr:FederalGrantsCommunityDevelopmentBlockGrants</v>
       </c>
       <c r="D141" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37672,7 +37672,7 @@
       </c>
       <c r="C142" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Federal Grants, Culture and Recreation</v>
+        <v>acfr:FederalGrantsCultureAndRecreation</v>
       </c>
       <c r="D142" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37689,7 +37689,7 @@
       </c>
       <c r="C143" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Federal Grants, General Government</v>
+        <v>acfr:FederalGrantsGeneralGovernment</v>
       </c>
       <c r="D143" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37706,7 +37706,7 @@
       </c>
       <c r="C144" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Federal Grants, Health and Hospital</v>
+        <v>acfr:FederalGrantsHealthAndHospital</v>
       </c>
       <c r="D144" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37723,7 +37723,7 @@
       </c>
       <c r="C145" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Federal Grants, Public Safety</v>
+        <v>acfr:FederalGrantsPublicSafety</v>
       </c>
       <c r="D145" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37740,7 +37740,7 @@
       </c>
       <c r="C146" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Federal Grants, Sanitation</v>
+        <v>acfr:FederalGrantsSanitation</v>
       </c>
       <c r="D146" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37757,7 +37757,7 @@
       </c>
       <c r="C147" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Federal Grants, Welfare</v>
+        <v>acfr:FederalGrantsWelfare</v>
       </c>
       <c r="D147" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37774,7 +37774,7 @@
       </c>
       <c r="C148" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Gain (Loss) on Sale of Capital Assets</v>
+        <v>acfr:GainLossOnSaleOfCapitalAssets</v>
       </c>
       <c r="D148" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37808,7 +37808,7 @@
       </c>
       <c r="C150" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Grant Related Expenses</v>
+        <v>acfr:GrantRelatedExpenses</v>
       </c>
       <c r="D150" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37825,7 +37825,7 @@
       </c>
       <c r="C151" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Grants, Contributions and Donations from Federal Governmental Entities</v>
+        <v>acfr:GrantsContributionsAndDonationsFromFederalGovernmentalEntities</v>
       </c>
       <c r="D151" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37842,7 +37842,7 @@
       </c>
       <c r="C152" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Grants, Contributions and Donations from Local Units</v>
+        <v>acfr:GrantsContributionsAndDonationsFromLocalUnits</v>
       </c>
       <c r="D152" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37859,7 +37859,7 @@
       </c>
       <c r="C153" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Grants, Contributions and Donations from Others</v>
+        <v>acfr:GrantsContributionsAndDonationsFromOthers</v>
       </c>
       <c r="D153" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37876,7 +37876,7 @@
       </c>
       <c r="C154" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Grants, Contributions and Donations from State Governmental Entities</v>
+        <v>acfr:GrantsContributionsAndDonationsFromStateGovernmentalEntities</v>
       </c>
       <c r="D154" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37893,7 +37893,7 @@
       </c>
       <c r="C155" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Investment Gains (Losses)</v>
+        <v>acfr:InvestmentGainsLosses</v>
       </c>
       <c r="D155" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37910,7 +37910,7 @@
       </c>
       <c r="C156" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Investment Income</v>
+        <v>acfr:InvestmentIncome</v>
       </c>
       <c r="D156" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37927,7 +37927,7 @@
       </c>
       <c r="C157" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Investment Income and Rentals</v>
+        <v>acfr:InvestmentIncomeAndRentals</v>
       </c>
       <c r="D157" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37944,7 +37944,7 @@
       </c>
       <c r="C158" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Issuance Cost and Amortization of Bond Discount</v>
+        <v>acfr:IssuanceCostAndAmortizationOfBondDiscount</v>
       </c>
       <c r="D158" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37961,7 +37961,7 @@
       </c>
       <c r="C159" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Lease Investment Income</v>
+        <v>acfr:LeaseInvestmentIncome</v>
       </c>
       <c r="D159" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37978,7 +37978,7 @@
       </c>
       <c r="C160" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Miscellaneous Other Revenue</v>
+        <v>acfr:MiscellaneousOtherRevenue</v>
       </c>
       <c r="D160" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37995,7 +37995,7 @@
       </c>
       <c r="C161" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Nonoperating Expenses</v>
+        <v>acfr:NonoperatingExpenses</v>
       </c>
       <c r="D161" s="120" t="str">
         <f t="shared" si="8"/>
@@ -38012,7 +38012,7 @@
       </c>
       <c r="C162" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Nonoperating Revenues</v>
+        <v>acfr:NonoperatingRevenues</v>
       </c>
       <c r="D162" s="120" t="str">
         <f t="shared" si="8"/>
@@ -38029,7 +38029,7 @@
       </c>
       <c r="C163" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Nonoperating Revenues and (Expenses)</v>
+        <v>acfr:NonoperatingRevenuesAndExpenses</v>
       </c>
       <c r="D163" s="120" t="str">
         <f t="shared" si="8"/>
@@ -38046,7 +38046,7 @@
       </c>
       <c r="C164" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Other Nonoperating Revenues (Expenses)</v>
+        <v>acfr:OtherNonoperatingRevenuesExpenses</v>
       </c>
       <c r="D164" s="120" t="str">
         <f t="shared" si="8"/>
@@ -38063,7 +38063,7 @@
       </c>
       <c r="C165" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Payment in Lieu of Taxes</v>
+        <v>acfr:PaymentInLieuOfTaxes</v>
       </c>
       <c r="D165" s="120" t="str">
         <f t="shared" si="8"/>
@@ -38080,7 +38080,7 @@
       </c>
       <c r="C166" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Private Contributions and Donations</v>
+        <v>acfr:PrivateContributionsAndDonations</v>
       </c>
       <c r="D166" s="120" t="str">
         <f t="shared" ref="D166:D197" si="9">IF(RIGHT(B166, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -38097,7 +38097,7 @@
       </c>
       <c r="C167" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Project Costs</v>
+        <v>acfr:ProjectCosts</v>
       </c>
       <c r="D167" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38114,7 +38114,7 @@
       </c>
       <c r="C168" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Public and Private Contributions</v>
+        <v>acfr:PublicAndPrivateContributions</v>
       </c>
       <c r="D168" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38131,7 +38131,7 @@
       </c>
       <c r="C169" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Redemptions and Reconveyance</v>
+        <v>acfr:RedemptionsAndReconveyance</v>
       </c>
       <c r="D169" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38148,7 +38148,7 @@
       </c>
       <c r="C170" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Accommodations Tax (PA 263 of 1974)</v>
+        <v>acfr:RevenueFromAccomodationsTax</v>
       </c>
       <c r="D170" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38165,7 +38165,7 @@
       </c>
       <c r="C171" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Business License Tax</v>
+        <v>acfr:RevenueFromBusinessLicenseTax</v>
       </c>
       <c r="D171" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38182,7 +38182,7 @@
       </c>
       <c r="C172" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from City Utility Users Tax</v>
+        <v>acfr:RevenueFromCityUtilityUsersTax</v>
       </c>
       <c r="D172" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38199,7 +38199,7 @@
       </c>
       <c r="C173" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Collection Fees</v>
+        <v>acfr:RevenueFromCollectionFees</v>
       </c>
       <c r="D173" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38216,7 +38216,7 @@
       </c>
       <c r="C174" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Commercial Facilities Tax</v>
+        <v>acfr:RevenueFromCommercialFacilitiesTax</v>
       </c>
       <c r="D174" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38233,7 +38233,7 @@
       </c>
       <c r="C175" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Commercial Forest Reserve</v>
+        <v>acfr:RevenueFromCommercialForestReserve</v>
       </c>
       <c r="D175" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38250,7 +38250,7 @@
       </c>
       <c r="C176" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Community Wide Special Assessments</v>
+        <v>acfr:RevenueFromCommunityWideSpecialAssessments</v>
       </c>
       <c r="D176" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38267,7 +38267,7 @@
       </c>
       <c r="C177" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Connection Fees, Nonoperating</v>
+        <v>acfr:RevenuesFromConnectionFeesNonoperating</v>
       </c>
       <c r="D177" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38284,7 +38284,7 @@
       </c>
       <c r="C178" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Convention Tax</v>
+        <v>acfr:RevenueFromConventionTax</v>
       </c>
       <c r="D178" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38301,7 +38301,7 @@
       </c>
       <c r="C179" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Corporate Tax</v>
+        <v>acfr:RevenueFromCorporateTax</v>
       </c>
       <c r="D179" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38318,7 +38318,7 @@
       </c>
       <c r="C180" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from County Expense of Sale</v>
+        <v>acfr:RevenueFromCountyExpenseOfSale</v>
       </c>
       <c r="D180" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38335,7 +38335,7 @@
       </c>
       <c r="C181" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Current Personal Property Tax</v>
+        <v>acfr:RevenueFromCurrentPersonalPropertyTax</v>
       </c>
       <c r="D181" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38352,7 +38352,7 @@
       </c>
       <c r="C182" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Current Property Taxes, Extra or Special Voted</v>
+        <v>acfr:RevenueFromCurrentPropertyTaxesExtraOrSpecialVoted</v>
       </c>
       <c r="D182" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38369,7 +38369,7 @@
       </c>
       <c r="C183" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Current Real Property Tax</v>
+        <v>acfr:RevenuesFromCurrentRealPropertyTax</v>
       </c>
       <c r="D183" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38386,7 +38386,7 @@
       </c>
       <c r="C184" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Delinquent Personal Property Tax</v>
+        <v>acfr:RevenueFromDelinquentPersonalPropertyTax</v>
       </c>
       <c r="D184" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38403,7 +38403,7 @@
       </c>
       <c r="C185" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Delinquent Real Property Tax</v>
+        <v>acfr:RevenueFromDelinquentRealPropertyTax</v>
       </c>
       <c r="D185" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38420,7 +38420,7 @@
       </c>
       <c r="C186" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Dividends</v>
+        <v>acfr:RevenueFromDividends</v>
       </c>
       <c r="D186" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38437,7 +38437,7 @@
       </c>
       <c r="C187" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Documents Transfer Tax</v>
+        <v>acfr:RevenueFromDocumentsTransferTax</v>
       </c>
       <c r="D187" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38454,7 +38454,7 @@
       </c>
       <c r="C188" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Franchise Income Tax</v>
+        <v>acfr:RevenueFromFranchiseIncomeTax</v>
       </c>
       <c r="D188" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38471,7 +38471,7 @@
       </c>
       <c r="C189" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Hotel and Motel Tax</v>
+        <v>acfr:RevenueFromHotelAndMotelTax</v>
       </c>
       <c r="D189" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38488,7 +38488,7 @@
       </c>
       <c r="C190" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Income Tax</v>
+        <v>acfr:RevenueFromIncomeTax</v>
       </c>
       <c r="D190" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38505,7 +38505,7 @@
       </c>
       <c r="C191" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Industrial Facilities Tax</v>
+        <v>acfr:RevenueFromIndustrialFacilitiesTax</v>
       </c>
       <c r="D191" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38522,7 +38522,7 @@
       </c>
       <c r="C192" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Interest</v>
+        <v>acfr:RevenueFromInterest</v>
       </c>
       <c r="D192" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38539,7 +38539,7 @@
       </c>
       <c r="C193" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Interest and Dividends</v>
+        <v>acfr:RevenueFromInterestAndDividends</v>
       </c>
       <c r="D193" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38555,8 +38555,8 @@
         <v>2194</v>
       </c>
       <c r="C194" s="135" t="str">
-        <f t="shared" ref="C194:C257" si="10">"acfr:"&amp;A194</f>
-        <v>acfr:Revenues from Interest and Dividends</v>
+        <f t="shared" si="7"/>
+        <v>acfr:RevenueFromInterestAndDividends</v>
       </c>
       <c r="D194" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38572,8 +38572,8 @@
         <v>2129</v>
       </c>
       <c r="C195" s="135" t="str">
-        <f t="shared" si="10"/>
-        <v>acfr:Revenues from Interest and Penalties on Special Assessments</v>
+        <f t="shared" ref="C195:C258" si="10">"acfr:"&amp;B195</f>
+        <v>acfr:RevenuesFromInterestAndPenaltiesOnSpecialAssessments</v>
       </c>
       <c r="D195" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38590,7 +38590,7 @@
       </c>
       <c r="C196" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Interest and Penalties on Taxes</v>
+        <v>acfr:RevenueFromInterestAndPenaltiesOnTaxes</v>
       </c>
       <c r="D196" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38607,7 +38607,7 @@
       </c>
       <c r="C197" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Interest and Penalties on Taxes</v>
+        <v>acfr:RevenueFromInterestAndPenaltiesOnTaxes</v>
       </c>
       <c r="D197" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38624,7 +38624,7 @@
       </c>
       <c r="C198" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Interest, Dividends, Royalties and Rent</v>
+        <v>acfr:RevenueFromInterestAndRent</v>
       </c>
       <c r="D198" s="120" t="str">
         <f t="shared" ref="D198:D229" si="11">IF(RIGHT(B198, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -38641,7 +38641,7 @@
       </c>
       <c r="C199" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Lottery for Education, Lottery Proceeds</v>
+        <v>acfr:RevenueFromLotteryForEducationLotteryProceeds</v>
       </c>
       <c r="D199" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38658,7 +38658,7 @@
       </c>
       <c r="C200" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Marijuana Tax</v>
+        <v>acfr:RevenueFromMarijuanaTax</v>
       </c>
       <c r="D200" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38675,7 +38675,7 @@
       </c>
       <c r="C201" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Meals Tax</v>
+        <v>acfr:RevenueFromMealsTax</v>
       </c>
       <c r="D201" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38692,7 +38692,7 @@
       </c>
       <c r="C202" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Motor Fuel Tax</v>
+        <v>acfr:RevenueFromMotorFuelTax</v>
       </c>
       <c r="D202" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38709,7 +38709,7 @@
       </c>
       <c r="C203" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from National Forest Reserve Taxes</v>
+        <v>acfr:RevenueFromNationalForestReserveTaxes</v>
       </c>
       <c r="D203" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38726,7 +38726,7 @@
       </c>
       <c r="C204" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Nursing Home and Hospital Provider Fees</v>
+        <v>acfr:RevenueFromNursingHomeAndHospitalProviderFees</v>
       </c>
       <c r="D204" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38743,7 +38743,7 @@
       </c>
       <c r="C205" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Other Tax for General Purpose</v>
+        <v>acfr:RevenueFromOtherTaxForGeneralPurpose</v>
       </c>
       <c r="D205" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38760,7 +38760,7 @@
       </c>
       <c r="C206" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Parking Occupancy Tax</v>
+        <v>acfr:RevenueFromParkingOccupancyTax</v>
       </c>
       <c r="D206" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38777,7 +38777,7 @@
       </c>
       <c r="C207" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Parking Occupancy Tax</v>
+        <v>acfr:RevenueFromParkingOccupancyTax</v>
       </c>
       <c r="D207" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38794,7 +38794,7 @@
       </c>
       <c r="C208" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Property Tax</v>
+        <v>acfr:RevenueFromPropertyTax</v>
       </c>
       <c r="D208" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38811,7 +38811,7 @@
       </c>
       <c r="C209" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Property Tax Administration Fee</v>
+        <v>acfr:RevenueFromPropertyTaxAdministrationFee</v>
       </c>
       <c r="D209" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38828,7 +38828,7 @@
       </c>
       <c r="C210" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Property Transfer Tax</v>
+        <v>acfr:RevenueFromPropertyTransferTax</v>
       </c>
       <c r="D210" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38845,7 +38845,7 @@
       </c>
       <c r="C211" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Rent</v>
+        <v>acfr:RevenueFromRent</v>
       </c>
       <c r="D211" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38862,7 +38862,7 @@
       </c>
       <c r="C212" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Rents and Royalties</v>
+        <v>acfr:RevenueFromRentsAndRoyalties</v>
       </c>
       <c r="D212" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38879,7 +38879,7 @@
       </c>
       <c r="C213" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Royalties</v>
+        <v>acfr:RevenueFromRoyalties</v>
       </c>
       <c r="D213" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38896,7 +38896,7 @@
       </c>
       <c r="C214" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Sales and Use Tax</v>
+        <v>acfr:RevenueFromSalesAndUseTax</v>
       </c>
       <c r="D214" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38913,7 +38913,7 @@
       </c>
       <c r="C215" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Sales Tax</v>
+        <v>acfr:RevenueFromSalesTax</v>
       </c>
       <c r="D215" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38930,7 +38930,7 @@
       </c>
       <c r="C216" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Special Assessments</v>
+        <v>acfr:RevenueFromSpecialAssessments</v>
       </c>
       <c r="D216" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38947,7 +38947,7 @@
       </c>
       <c r="C217" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Sub Marginal Land Act</v>
+        <v>acfr:RevenueFromSubMarginalLandAct</v>
       </c>
       <c r="D217" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38964,7 +38964,7 @@
       </c>
       <c r="C218" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Subsidies</v>
+        <v>acfr:RevenueFromSubsidies</v>
       </c>
       <c r="D218" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38981,7 +38981,7 @@
       </c>
       <c r="C219" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Tax Reverted Property</v>
+        <v>acfr:RevenueFromTaxRevertedProperty</v>
       </c>
       <c r="D219" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38998,7 +38998,7 @@
       </c>
       <c r="C220" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Taxes</v>
+        <v>acfr:RevenueFromTaxes</v>
       </c>
       <c r="D220" s="120" t="str">
         <f t="shared" si="11"/>
@@ -39015,7 +39015,7 @@
       </c>
       <c r="C221" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Trailer Tax</v>
+        <v>acfr:RevenueFromTrailerTax</v>
       </c>
       <c r="D221" s="120" t="str">
         <f t="shared" si="11"/>
@@ -39032,7 +39032,7 @@
       </c>
       <c r="C222" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Transaction Privilege Tax</v>
+        <v>acfr:RevenueFromTransactionPrivilegeTax</v>
       </c>
       <c r="D222" s="120" t="str">
         <f t="shared" si="11"/>
@@ -39049,7 +39049,7 @@
       </c>
       <c r="C223" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Transfer Stamps Tax</v>
+        <v>acfr:RevenueFromTransferStampsTax</v>
       </c>
       <c r="D223" s="120" t="str">
         <f t="shared" si="11"/>
@@ -39066,7 +39066,7 @@
       </c>
       <c r="C224" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Unclaimed Property</v>
+        <v>acfr:RevenueFromUnclaimedProperty</v>
       </c>
       <c r="D224" s="120" t="str">
         <f t="shared" si="11"/>
@@ -39083,7 +39083,7 @@
       </c>
       <c r="C225" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Usage of Utilities Tax</v>
+        <v>acfr:RevenueFromUsageOfUtilitiesTax</v>
       </c>
       <c r="D225" s="120" t="str">
         <f t="shared" si="11"/>
@@ -39100,7 +39100,7 @@
       </c>
       <c r="C226" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Vehicles Tax</v>
+        <v>acfr:RevenueFromVehiclesTax</v>
       </c>
       <c r="D226" s="120" t="str">
         <f t="shared" si="11"/>
@@ -39117,7 +39117,7 @@
       </c>
       <c r="C227" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Appropriations</v>
+        <v>acfr:StateAppropriations</v>
       </c>
       <c r="D227" s="120" t="str">
         <f t="shared" si="11"/>
@@ -39134,7 +39134,7 @@
       </c>
       <c r="C228" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Capital Grants</v>
+        <v>acfr:StateCapitalGrants</v>
       </c>
       <c r="D228" s="120" t="str">
         <f t="shared" si="11"/>
@@ -39151,7 +39151,7 @@
       </c>
       <c r="C229" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Court Equity</v>
+        <v>acfr:StateGrantsCourtEquity</v>
       </c>
       <c r="D229" s="120" t="str">
         <f t="shared" si="11"/>
@@ -39168,7 +39168,7 @@
       </c>
       <c r="C230" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Crime Victims Rights</v>
+        <v>acfr:StateGrantsCrimeVictimsRights</v>
       </c>
       <c r="D230" s="120" t="str">
         <f t="shared" ref="D230:D246" si="12">IF(RIGHT(B230, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -39185,7 +39185,7 @@
       </c>
       <c r="C231" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Culture and Recreation</v>
+        <v>acfr:StateGrantsCultureAndRecreation</v>
       </c>
       <c r="D231" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39202,7 +39202,7 @@
       </c>
       <c r="C232" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Drug Case Information Management Account</v>
+        <v>acfr:StateGrantsDrugCaseInformationManagementAccount</v>
       </c>
       <c r="D232" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39219,7 +39219,7 @@
       </c>
       <c r="C233" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Drunk Driving Case Flow Assistance</v>
+        <v>acfr:StateGrantsDrunkDrivingCaseFlowAssistance</v>
       </c>
       <c r="D233" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39236,7 +39236,7 @@
       </c>
       <c r="C234" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Health</v>
+        <v>acfr:StateGrantsHealth</v>
       </c>
       <c r="D234" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39253,7 +39253,7 @@
       </c>
       <c r="C235" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Highway and Streets</v>
+        <v>acfr:StateGrantsHighwaysAndStreets</v>
       </c>
       <c r="D235" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39270,7 +39270,7 @@
       </c>
       <c r="C236" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Indigent Defense Grant</v>
+        <v>acfr:StateGrantsIndigentDefenseGrant</v>
       </c>
       <c r="D236" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39287,7 +39287,7 @@
       </c>
       <c r="C237" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Local Community Stabilization Share</v>
+        <v>acfr:StateGrantsLocalCommunityStabilizationShare</v>
       </c>
       <c r="D237" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39304,7 +39304,7 @@
       </c>
       <c r="C238" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Public Safety</v>
+        <v>acfr:StateGrantsPublicSafety</v>
       </c>
       <c r="D238" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39321,7 +39321,7 @@
       </c>
       <c r="C239" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Sanitation</v>
+        <v>acfr:StateGrantsSanitation</v>
       </c>
       <c r="D239" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39338,7 +39338,7 @@
       </c>
       <c r="C240" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Special Election Reimbursement</v>
+        <v>acfr:StateGrantsSpecialElectionReimbursement</v>
       </c>
       <c r="D240" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39355,7 +39355,7 @@
       </c>
       <c r="C241" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, State Revenue Sharing</v>
+        <v>acfr:StateGrantsStateRevenueSharing</v>
       </c>
       <c r="D241" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39372,7 +39372,7 @@
       </c>
       <c r="C242" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Survey and Remonumentation</v>
+        <v>acfr:StateGrantsSurveyAndRemonumentation</v>
       </c>
       <c r="D242" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39389,7 +39389,7 @@
       </c>
       <c r="C243" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Welfare</v>
+        <v>acfr:StateGrantsWelfare</v>
       </c>
       <c r="D243" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39406,7 +39406,7 @@
       </c>
       <c r="C244" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State OPEB Contribution</v>
+        <v>acfr:StateOPEBContribution</v>
       </c>
       <c r="D244" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39423,7 +39423,7 @@
       </c>
       <c r="C245" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Retirement Plan Contributions</v>
+        <v>acfr:StateRetirementPlanContributions</v>
       </c>
       <c r="D245" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39440,7 +39440,7 @@
       </c>
       <c r="C246" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Taxes and Tax Related Revenues</v>
+        <v>acfr:TaxesAndTaxRelatedRevenues</v>
       </c>
       <c r="D246" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39457,7 +39457,7 @@
       </c>
       <c r="C247" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Change in Accounting Principle</v>
+        <v>acfr:ChangeInAccountingPrinciple</v>
       </c>
       <c r="D247" s="120" t="str">
         <f>IF(RIGHT(B247, 8)="Abstract", "Abstract", "Net Position")</f>
@@ -39474,7 +39474,7 @@
       </c>
       <c r="C248" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Net Position, Restated</v>
+        <v>acfr:NetPositionRestated</v>
       </c>
       <c r="D248" s="120" t="str">
         <f>IF(RIGHT(B248, 8)="Abstract", "Abstract", "Net Position")</f>
@@ -39491,7 +39491,7 @@
       </c>
       <c r="C249" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Bond or Insurance Recoveries</v>
+        <v>acfr:BondOrInsuranceRecoveries</v>
       </c>
       <c r="D249" s="120" t="str">
         <f t="shared" ref="D249:D261" si="13">IF(RIGHT(B249, 8)="Abstract", "Abstract", "Capital Contributions")</f>
@@ -39508,7 +39508,7 @@
       </c>
       <c r="C250" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Capital Contributions and Transfers</v>
+        <v>acfr:TotalCapitalContributionsAndTransfers</v>
       </c>
       <c r="D250" s="120" t="str">
         <f t="shared" si="13"/>
@@ -39542,7 +39542,7 @@
       </c>
       <c r="C252" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Contributions from Citizens and Developers</v>
+        <v>acfr:ContributionsfromCitizensAndDevelopers</v>
       </c>
       <c r="D252" s="120" t="str">
         <f t="shared" si="13"/>
@@ -39559,7 +39559,7 @@
       </c>
       <c r="C253" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Contributions, Capital</v>
+        <v>acfr:ContributionsCapital</v>
       </c>
       <c r="D253" s="120" t="str">
         <f t="shared" si="13"/>
@@ -39576,7 +39576,7 @@
       </c>
       <c r="C254" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Contributions, Other</v>
+        <v>acfr:ContributionsOther</v>
       </c>
       <c r="D254" s="120" t="str">
         <f t="shared" si="13"/>
@@ -39593,7 +39593,7 @@
       </c>
       <c r="C255" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Other Financing Sources</v>
+        <v>acfr:OtherFinancingSources</v>
       </c>
       <c r="D255" s="120" t="str">
         <f t="shared" si="13"/>
@@ -39610,7 +39610,7 @@
       </c>
       <c r="C256" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Other Financing Sources, Lease Financing</v>
+        <v>acfr:OtherFinancingSourcesLeaseFinancing</v>
       </c>
       <c r="D256" s="120" t="str">
         <f t="shared" si="13"/>
@@ -39627,7 +39627,7 @@
       </c>
       <c r="C257" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Premium on Bonds or Notes</v>
+        <v>acfr:PremiumOnBondsOrNotes</v>
       </c>
       <c r="D257" s="120" t="str">
         <f t="shared" si="13"/>
@@ -39643,8 +39643,8 @@
         <v>2264</v>
       </c>
       <c r="C258" s="135" t="str">
-        <f t="shared" ref="C258:C296" si="14">"acfr:"&amp;A258</f>
-        <v>acfr:Proceeds from Bond and Note Issuance</v>
+        <f t="shared" si="10"/>
+        <v>acfr:ProceedsFromBondAndNoteIssuance</v>
       </c>
       <c r="D258" s="120" t="str">
         <f t="shared" si="13"/>
@@ -39660,8 +39660,8 @@
         <v>2259</v>
       </c>
       <c r="C259" s="135" t="str">
-        <f t="shared" si="14"/>
-        <v>acfr:Proceeds from Sale of Bonds, Notes</v>
+        <f t="shared" ref="C259:C296" si="14">"acfr:"&amp;B259</f>
+        <v>acfr:ProceedsFromSaleOfBondsNotes</v>
       </c>
       <c r="D259" s="120" t="str">
         <f t="shared" si="13"/>
@@ -39678,7 +39678,7 @@
       </c>
       <c r="C260" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Transfer of Capital Assets In</v>
+        <v>acfr:TransfersIn</v>
       </c>
       <c r="D260" s="120" t="str">
         <f t="shared" si="13"/>
@@ -39695,7 +39695,7 @@
       </c>
       <c r="C261" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Transfers of Capital Assets From (To) Other Funds</v>
+        <v>acfr:TransfersofCapitalAssetsFromToOtherFunds</v>
       </c>
       <c r="D261" s="120" t="str">
         <f t="shared" si="13"/>
@@ -39712,7 +39712,7 @@
       </c>
       <c r="C262" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Transfers of Capital Assets Out</v>
+        <v>acfr:TransfersOut</v>
       </c>
       <c r="D262" s="120" t="str">
         <f>IF(RIGHT(B262, 8)="Abstract", "Abstract", "Capital Contributions")</f>
@@ -39729,7 +39729,7 @@
       </c>
       <c r="C263" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Allowances [Abstract]</v>
+        <v>acfr:RevenueFromAllowanceForTaxesAbstract</v>
       </c>
       <c r="D263" s="120" t="str">
         <f>IF(RIGHT(B263, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -39746,7 +39746,7 @@
       </c>
       <c r="C264" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Benefits Expense, Pension and OPEB [Abstract]</v>
+        <v>acfr:BenefitsExpensePensionAndOPEBAbstract</v>
       </c>
       <c r="D264" s="120" t="str">
         <f>IF(RIGHT(B264, 8)="Abstract", "Abstract", "Operating Expenses")</f>
@@ -39763,7 +39763,7 @@
       </c>
       <c r="C265" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Capital Contributions and Transfers [Abstract]</v>
+        <v>acfr:CapitalContributionsAndTransfersAbstract</v>
       </c>
       <c r="D265" s="120" t="str">
         <f>IF(RIGHT(B265, 8)="Abstract", "Abstract", "Capital Contributions")</f>
@@ -39780,7 +39780,7 @@
       </c>
       <c r="C266" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Charges for Services, Fines and Forfeitures [Abstract]</v>
+        <v>acfr:ChargesForServicesFinesAndForfeituresAbstract</v>
       </c>
       <c r="D266" s="120" t="str">
         <f>IF(RIGHT(B266, 8)="Abstract", "Abstract", "Operating Revenues")</f>
@@ -39797,7 +39797,7 @@
       </c>
       <c r="C267" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Charges for Services, General [Abstract]</v>
+        <v>acfr:ChargesForServicesAbstract</v>
       </c>
       <c r="D267" s="120" t="str">
         <f>IF(RIGHT(B267, 8)="Abstract", "Abstract", "Operating Revenues")</f>
@@ -39814,7 +39814,7 @@
       </c>
       <c r="C268" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Charges for Services, Licenses and Permits Revenues [Abstract]</v>
+        <v>acfr:ChargesForServicesLicensesAndPermitsRevenuesAbstract</v>
       </c>
       <c r="D268" s="120" t="str">
         <f>IF(RIGHT(B268, 8)="Abstract", "Abstract", "Operating Revenues")</f>
@@ -39831,7 +39831,7 @@
       </c>
       <c r="C269" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Contributions [Abstract]</v>
+        <v>acfr:ContributionsAbstract</v>
       </c>
       <c r="D269" s="120" t="str">
         <f>IF(RIGHT(B269, 8)="Abstract", "Abstract", "Capital Contributions")</f>
@@ -39848,7 +39848,7 @@
       </c>
       <c r="C270" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Contributions from Local Units [Abstract]</v>
+        <v>acfr:ContributionsFromLocalUnitsAbstract</v>
       </c>
       <c r="D270" s="120" t="str">
         <f>IF(RIGHT(B270, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -39865,7 +39865,7 @@
       </c>
       <c r="C271" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Expenses for Lottery Activities [Abstract]</v>
+        <v>acfr:ExpensesForLotteryActivitiesAbstract</v>
       </c>
       <c r="D271" s="120" t="str">
         <f>IF(RIGHT(B271, 8)="Abstract", "Abstract", "Operating Expenses")</f>
@@ -39882,7 +39882,7 @@
       </c>
       <c r="C272" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Grants, Contributions and Donations [Abstract]</v>
+        <v>acfr:GrantsContributionsAndDonationsAbstract</v>
       </c>
       <c r="D272" s="120" t="str">
         <f>IF(RIGHT(B272, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -39899,7 +39899,7 @@
       </c>
       <c r="C273" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Health Operating Expenses [Abstract]</v>
+        <v>acfr:HealthOperatingExpensesAbstract</v>
       </c>
       <c r="D273" s="120" t="str">
         <f>IF(RIGHT(B273, 8)="Abstract", "Abstract", "Operating Expenses")</f>
@@ -39916,7 +39916,7 @@
       </c>
       <c r="C274" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Intergovernmental Revenue [Abstract]</v>
+        <v>acfr:IntergovernmentalRevenueAbstract</v>
       </c>
       <c r="D274" s="120" t="str">
         <f>IF(RIGHT(B274, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -39933,7 +39933,7 @@
       </c>
       <c r="C275" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Intergovernmental Revenues from Federal Government [Abstract]</v>
+        <v>acfr:IntergovernmentalRevenueFromFederalGovernmentAbstract</v>
       </c>
       <c r="D275" s="120" t="str">
         <f>IF(RIGHT(B275, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -39950,7 +39950,7 @@
       </c>
       <c r="C276" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Intergovernmental Revenues from State Government [Abstract]</v>
+        <v>acfr:IntergovernmentalRevenueFromStateGovernmentAbstract</v>
       </c>
       <c r="D276" s="120" t="str">
         <f>IF(RIGHT(B276, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -39967,7 +39967,7 @@
       </c>
       <c r="C277" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Investment Income [Abstract]</v>
+        <v>acfr:InvestmentIncomeAbstract</v>
       </c>
       <c r="D277" s="120" t="str">
         <f>IF(RIGHT(B277, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -39984,7 +39984,7 @@
       </c>
       <c r="C278" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Investment Income and Rentals [Abstract]</v>
+        <v>acfr:InterestAndRentsRevenuesAbstract</v>
       </c>
       <c r="D278" s="120" t="str">
         <f>IF(RIGHT(B278, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -40001,7 +40001,7 @@
       </c>
       <c r="C279" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Lottery Revenues [Abstract]</v>
+        <v>acfr:LotteryRevenuesAbstract</v>
       </c>
       <c r="D279" s="120" t="str">
         <f>IF(RIGHT(B279, 8)="Abstract", "Abstract", "Operating Revenues")</f>
@@ -40018,7 +40018,7 @@
       </c>
       <c r="C280" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Net Position [Abstract]</v>
+        <v>acfr:NetPositionAbstract</v>
       </c>
       <c r="D280" s="120" t="str">
         <f>IF(RIGHT(B280, 8)="Abstract", "Abstract", "Net Position")</f>
@@ -40035,7 +40035,7 @@
       </c>
       <c r="C281" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Nonoperating Expenses [Abstract]</v>
+        <v>acfr:NonoperatingExpensesAbstract</v>
       </c>
       <c r="D281" s="120" t="str">
         <f>IF(RIGHT(B281, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -40052,7 +40052,7 @@
       </c>
       <c r="C282" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Nonoperating Revenues [Abstract]</v>
+        <v>acfr:NonoperatingRevenuesAbstract</v>
       </c>
       <c r="D282" s="120" t="str">
         <f>IF(RIGHT(B282, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -40069,7 +40069,7 @@
       </c>
       <c r="C283" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Nonoperating Revenues Expenses [Abstract]</v>
+        <v>acfr:NonoperatingRevenuesExpensesAbstract</v>
       </c>
       <c r="D283" s="120" t="str">
         <f>IF(RIGHT(B283, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -40086,7 +40086,7 @@
       </c>
       <c r="C284" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Operating Expenses [Abstract]</v>
+        <v>acfr:OperatingExpensesAbstract</v>
       </c>
       <c r="D284" s="120" t="str">
         <f>IF(RIGHT(B284, 8)="Abstract", "Abstract", "Operating Expenses")</f>
@@ -40103,7 +40103,7 @@
       </c>
       <c r="C285" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Operating Revenues [Abstract]</v>
+        <v>acfr:OperatingRevenuesAbstract</v>
       </c>
       <c r="D285" s="120" t="str">
         <f>IF(RIGHT(B285, 8)="Abstract", "Abstract", "Operating Revenues")</f>
@@ -40120,7 +40120,7 @@
       </c>
       <c r="C286" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Other Financing Sources [Abstract]</v>
+        <v>acfr:OtherFinancingSourcesAbstract</v>
       </c>
       <c r="D286" s="120" t="str">
         <f>IF(RIGHT(B286, 8)="Abstract", "Abstract", "Capital Contributions")</f>
@@ -40137,7 +40137,7 @@
       </c>
       <c r="C287" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Property Tax [Abstract]</v>
+        <v>acfr:PropertyTaxAbstract</v>
       </c>
       <c r="D287" s="120" t="str">
         <f>IF(RIGHT(B287, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -40154,7 +40154,7 @@
       </c>
       <c r="C288" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Proprietary Funds, Revenues, Expenses and Changes in Fund Net Position [Abstract]</v>
+        <v>acfr:ProprietaryFundsRevenuesExpensesAbstract</v>
       </c>
       <c r="D288" s="120" t="str">
         <f>IF(RIGHT(B288, 8)="Abstract", "Abstract", "Operating Revenues")</f>
@@ -40171,7 +40171,7 @@
       </c>
       <c r="C289" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Public Works Operating Expenses [Abstract]</v>
+        <v>acfr:PublicWorksOperatingExpensesAbstract</v>
       </c>
       <c r="D289" s="120" t="str">
         <f>IF(RIGHT(B289, 8)="Abstract", "Abstract", "Operating Expenses")</f>
@@ -40188,7 +40188,7 @@
       </c>
       <c r="C290" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Recreation and Culture Operating Expenses [Abstract]</v>
+        <v>acfr:RecreationAndCultureOperatingExpensesAbstract</v>
       </c>
       <c r="D290" s="120" t="str">
         <f>IF(RIGHT(B290, 8)="Abstract", "Abstract", "Operating Expenses")</f>
@@ -40205,7 +40205,7 @@
       </c>
       <c r="C291" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Revenue from Interest and Dividends [Abstract]</v>
+        <v>acfr:RevenueFromInterestAndDividendsAbstract</v>
       </c>
       <c r="D291" s="120" t="str">
         <f>IF(RIGHT(B291, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -40222,7 +40222,7 @@
       </c>
       <c r="C292" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Revenues from Rents and Royalties [Abstract]</v>
+        <v>acfr:RevenuesFromRentsAndRoyaltiesAbstract</v>
       </c>
       <c r="D292" s="120" t="str">
         <f>IF(RIGHT(B292, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -40239,7 +40239,7 @@
       </c>
       <c r="C293" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Special Assessments [Abstract]</v>
+        <v>acfr:SpecialAssessmentsAbstract</v>
       </c>
       <c r="D293" s="120" t="str">
         <f>IF(RIGHT(B293, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -40256,7 +40256,7 @@
       </c>
       <c r="C294" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Tax and Tax Related Revenues and Allowances [Abstract]</v>
+        <v>acfr:TaxAndTaxRelatedRevenuesAbstract</v>
       </c>
       <c r="D294" s="120" t="str">
         <f>IF(RIGHT(B294, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -40273,7 +40273,7 @@
       </c>
       <c r="C295" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Tax Revenues [Abstract]</v>
+        <v>acfr:TaxRevenuesAbstract</v>
       </c>
       <c r="D295" s="120" t="str">
         <f>IF(RIGHT(B295, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -40290,7 +40290,7 @@
       </c>
       <c r="C296" s="135" t="str">
         <f t="shared" si="14"/>
-        <v>acfr:Transfers [Abstract]</v>
+        <v>acfr:TransfersAbstract</v>
       </c>
       <c r="D296" s="120" t="str">
         <f>IF(RIGHT(B296, 8)="Abstract", "Abstract", "Capital Contributions")</f>
@@ -41608,7 +41608,7 @@
   </sheetPr>
   <dimension ref="A1:E442"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -48029,7 +48029,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -48215,8 +48215,8 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="88" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView zoomScale="88" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -49877,7 +49877,7 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>

--- a/app/static/input_files/ACFR_template.xlsx
+++ b/app/static/input_files/ACFR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarrahahmed/Desktop/CLOSUP/process-xbrl/app/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A54DE2-7738-3A42-8FBC-69789D13A085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CD3C2B-D8DB-CF45-9F95-E643346CE5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17240" tabRatio="834" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-8280" windowWidth="38400" windowHeight="21600" tabRatio="834" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Net Position" sheetId="8" state="hidden" r:id="rId1"/>
@@ -13587,7 +13587,7 @@
   <dimension ref="A1:C514"/>
   <sheetViews>
     <sheetView topLeftCell="A295" zoomScale="75" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A316" sqref="A316:C354"/>
+      <selection activeCell="E319" sqref="E319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -19269,7 +19269,7 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView zoomScale="119" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -20959,8 +20959,8 @@
   </sheetPr>
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -22652,7 +22652,7 @@
   <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L80" sqref="L80"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -24992,8 +24992,8 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -26606,7 +26606,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N92" sqref="N92"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -28274,7 +28274,7 @@
   </sheetPr>
   <dimension ref="A1:C358"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D135" sqref="D135:D136"/>
     </sheetView>
   </sheetViews>
@@ -31554,7 +31554,7 @@
   </sheetPr>
   <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" zoomScale="75" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -35255,8 +35255,8 @@
   </sheetPr>
   <dimension ref="A1:E310"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A313" sqref="A313"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -35291,11 +35291,11 @@
         <v>1837</v>
       </c>
       <c r="C2" s="135" t="str">
-        <f t="shared" ref="C2:C65" si="0">"acfr:"&amp;A2</f>
-        <v>acfr:Charges to Other Funds</v>
+        <f>"acfr:"&amp;B2</f>
+        <v>acfr:ChargesToOtherFunds</v>
       </c>
       <c r="D2" s="120" t="str">
-        <f t="shared" ref="D2:D33" si="1">IF(RIGHT(B2, 8)="Abstract", "Abstract", "Operating Revenues")</f>
+        <f t="shared" ref="D2:D33" si="0">IF(RIGHT(B2, 8)="Abstract", "Abstract", "Operating Revenues")</f>
         <v>Operating Revenues</v>
       </c>
       <c r="E2" s="119"/>
@@ -35308,11 +35308,11 @@
         <v>1839</v>
       </c>
       <c r="C3" s="135" t="str">
+        <f t="shared" ref="C3:C66" si="1">"acfr:"&amp;B3</f>
+        <v>acfr:RevenueFares</v>
+      </c>
+      <c r="D3" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Fare Revenue</v>
-      </c>
-      <c r="D3" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E3" s="119"/>
@@ -35325,11 +35325,11 @@
         <v>1829</v>
       </c>
       <c r="C4" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:InterestAndPenaltiesForTaxFund</v>
+      </c>
+      <c r="D4" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Interest and Penalties for Tax Fund</v>
-      </c>
-      <c r="D4" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E4" s="119"/>
@@ -35342,11 +35342,11 @@
         <v>1870</v>
       </c>
       <c r="C5" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:OperatingContributionsAndPremiums</v>
+      </c>
+      <c r="D5" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Operating Contributions and Premiums</v>
-      </c>
-      <c r="D5" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E5" s="119"/>
@@ -35359,11 +35359,11 @@
         <v>1872</v>
       </c>
       <c r="C6" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:OperatingGrants</v>
+      </c>
+      <c r="D6" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Operating Grants</v>
-      </c>
-      <c r="D6" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E6" s="119"/>
@@ -35376,11 +35376,11 @@
         <v>1876</v>
       </c>
       <c r="C7" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueOperating</v>
+      </c>
+      <c r="D7" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Operating Revenue</v>
-      </c>
-      <c r="D7" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E7" s="119"/>
@@ -35393,11 +35393,11 @@
         <v>1874</v>
       </c>
       <c r="C8" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:OtherOperatingRevenue</v>
+      </c>
+      <c r="D8" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Other Operating Revenue</v>
-      </c>
-      <c r="D8" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E8" s="119"/>
@@ -35410,11 +35410,11 @@
         <v>1841</v>
       </c>
       <c r="C9" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:RegulatedOperatingRevenueWasteWater</v>
+      </c>
+      <c r="D9" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Regulated Operating Revenue, Waste Water</v>
-      </c>
-      <c r="D9" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E9" s="119"/>
@@ -35427,11 +35427,11 @@
         <v>1843</v>
       </c>
       <c r="C10" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:RegulatedOperatingRevenueWater</v>
+      </c>
+      <c r="D10" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Regulated Operating Revenue, Water</v>
-      </c>
-      <c r="D10" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E10" s="119"/>
@@ -35444,11 +35444,11 @@
         <v>1800</v>
       </c>
       <c r="C11" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesAmbulanceTransportFees</v>
+      </c>
+      <c r="D11" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Ambulance Transport Fees</v>
-      </c>
-      <c r="D11" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E11" s="119"/>
@@ -35461,11 +35461,11 @@
         <v>1782</v>
       </c>
       <c r="C12" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesAttorneyFeeReimbursement</v>
+      </c>
+      <c r="D12" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Attorney Fee Reimbursement</v>
-      </c>
-      <c r="D12" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E12" s="119"/>
@@ -35478,11 +35478,11 @@
         <v>1817</v>
       </c>
       <c r="C13" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesBondForfeituresAndBondCosts</v>
+      </c>
+      <c r="D13" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Bond Forfeitures and Bond Costs</v>
-      </c>
-      <c r="D13" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E13" s="119"/>
@@ -35495,11 +35495,11 @@
         <v>1798</v>
       </c>
       <c r="C14" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesBuildingInspectionFees</v>
+      </c>
+      <c r="D14" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Building Inspection Fees</v>
-      </c>
-      <c r="D14" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E14" s="119"/>
@@ -35512,11 +35512,11 @@
         <v>1821</v>
       </c>
       <c r="C15" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesBusinessLicensesAndPermits</v>
+      </c>
+      <c r="D15" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Business Licenses and Permits</v>
-      </c>
-      <c r="D15" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E15" s="119"/>
@@ -35529,11 +35529,11 @@
         <v>1822</v>
       </c>
       <c r="C16" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesCableTVFranchiseFees</v>
+      </c>
+      <c r="D16" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Cable TV Franchise Fees</v>
-      </c>
-      <c r="D16" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E16" s="119"/>
@@ -35546,11 +35546,11 @@
         <v>1812</v>
       </c>
       <c r="C17" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServices</v>
+      </c>
+      <c r="D17" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Charges for Services</v>
-      </c>
-      <c r="D17" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E17" s="119"/>
@@ -35563,11 +35563,11 @@
         <v>1776</v>
       </c>
       <c r="C18" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesCourtFilingFees</v>
+      </c>
+      <c r="D18" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Court Filing Fees</v>
-      </c>
-      <c r="D18" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E18" s="119"/>
@@ -35580,11 +35580,11 @@
         <v>1772</v>
       </c>
       <c r="C19" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesCourtRelatedCharges</v>
+      </c>
+      <c r="D19" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Court Related Charges</v>
-      </c>
-      <c r="D19" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E19" s="119"/>
@@ -35597,11 +35597,11 @@
         <v>1788</v>
       </c>
       <c r="C20" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesEstateInventoryFee</v>
+      </c>
+      <c r="D20" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Estate Inventory Fee</v>
-      </c>
-      <c r="D20" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E20" s="119"/>
@@ -35614,11 +35614,11 @@
         <v>1774</v>
       </c>
       <c r="C21" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesFees</v>
+      </c>
+      <c r="D21" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Fees</v>
-      </c>
-      <c r="D21" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E21" s="119"/>
@@ -35631,11 +35631,11 @@
         <v>1792</v>
       </c>
       <c r="C22" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesFriendOfTheCourtServiceFee</v>
+      </c>
+      <c r="D22" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Friend of the Court Service Fee</v>
-      </c>
-      <c r="D22" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E22" s="119"/>
@@ -35648,11 +35648,11 @@
         <v>1790</v>
       </c>
       <c r="C23" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesFriendOfTheCourtStatutoryHandlingFee</v>
+      </c>
+      <c r="D23" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Friend of the Court Statutory Handling Fee</v>
-      </c>
-      <c r="D23" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E23" s="119"/>
@@ -35665,11 +35665,11 @@
         <v>1784</v>
       </c>
       <c r="C24" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesGuardianAdLitemReimbursement</v>
+      </c>
+      <c r="D24" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Guardian Ad Litem Reimbursement</v>
-      </c>
-      <c r="D24" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E24" s="119"/>
@@ -35682,11 +35682,11 @@
         <v>1778</v>
       </c>
       <c r="C25" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesJuryDemandFees</v>
+      </c>
+      <c r="D25" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Jury Demand Fees</v>
-      </c>
-      <c r="D25" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E25" s="119"/>
@@ -35699,11 +35699,11 @@
         <v>1824</v>
       </c>
       <c r="C26" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesLicensesAndPermitsAndFranchiseFees</v>
+      </c>
+      <c r="D26" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Licenses and Permits and Franchise Fees</v>
-      </c>
-      <c r="D26" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E26" s="119"/>
@@ -35716,11 +35716,11 @@
         <v>1794</v>
       </c>
       <c r="C27" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesMiscellaneousCourtCostsAndFees</v>
+      </c>
+      <c r="D27" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Miscellaneous Court Costs and Fees</v>
-      </c>
-      <c r="D27" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E27" s="119"/>
@@ -35733,11 +35733,11 @@
         <v>1823</v>
       </c>
       <c r="C28" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesNonBusinessLicensesAndPermits</v>
+      </c>
+      <c r="D28" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Non Business Licenses and Permits</v>
-      </c>
-      <c r="D28" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E28" s="119"/>
@@ -35750,11 +35750,11 @@
         <v>1815</v>
       </c>
       <c r="C29" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesOrdinanceFinesAndCosts</v>
+      </c>
+      <c r="D29" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Ordinance Fines and Costs</v>
-      </c>
-      <c r="D29" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E29" s="119"/>
@@ -35767,11 +35767,11 @@
         <v>1810</v>
       </c>
       <c r="C30" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesRevenueFromParkingFacilities</v>
+      </c>
+      <c r="D30" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Parking Fees</v>
-      </c>
-      <c r="D30" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E30" s="119"/>
@@ -35784,11 +35784,11 @@
         <v>1804</v>
       </c>
       <c r="C31" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesPreForfeitureMailingNoticeCost</v>
+      </c>
+      <c r="D31" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Pre Forfeiture Mailing Notice Cost</v>
-      </c>
-      <c r="D31" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E31" s="119"/>
@@ -35801,11 +35801,11 @@
         <v>1786</v>
       </c>
       <c r="C32" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesProbationOversightFee</v>
+      </c>
+      <c r="D32" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Probation Oversight Fee</v>
-      </c>
-      <c r="D32" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E32" s="119"/>
@@ -35818,11 +35818,11 @@
         <v>1806</v>
       </c>
       <c r="C33" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesSales</v>
+      </c>
+      <c r="D33" s="120" t="str">
         <f t="shared" si="0"/>
-        <v>acfr:Revenue for Sales</v>
-      </c>
-      <c r="D33" s="120" t="str">
-        <f t="shared" si="1"/>
         <v>Operating Revenues</v>
       </c>
       <c r="E33" s="119"/>
@@ -35835,8 +35835,8 @@
         <v>1796</v>
       </c>
       <c r="C34" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenue for Services Rendered</v>
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesServicesRendered</v>
       </c>
       <c r="D34" s="120" t="str">
         <f t="shared" ref="D34:D58" si="2">IF(RIGHT(B34, 8)="Abstract", "Abstract", "Operating Revenues")</f>
@@ -35852,8 +35852,8 @@
         <v>1816</v>
       </c>
       <c r="C35" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenue for Statute Costs</v>
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesStatuteCosts</v>
       </c>
       <c r="D35" s="120" t="str">
         <f t="shared" si="2"/>
@@ -35869,8 +35869,8 @@
         <v>1802</v>
       </c>
       <c r="C36" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenue for Title Search Fee</v>
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesTitleSearchFee</v>
       </c>
       <c r="D36" s="120" t="str">
         <f t="shared" si="2"/>
@@ -35886,8 +35886,8 @@
         <v>1814</v>
       </c>
       <c r="C37" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenue for Traffic Violations</v>
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesTrafficViolations</v>
       </c>
       <c r="D37" s="120" t="str">
         <f t="shared" si="2"/>
@@ -35903,8 +35903,8 @@
         <v>1808</v>
       </c>
       <c r="C38" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenue for Use and Admission Fees</v>
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesUseAndAdmissionFees</v>
       </c>
       <c r="D38" s="120" t="str">
         <f t="shared" si="2"/>
@@ -35920,8 +35920,8 @@
         <v>1780</v>
       </c>
       <c r="C39" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenue for Writ of Garnishment, Restitution, Attachment or Execution</v>
+        <f t="shared" si="1"/>
+        <v>acfr:ChargesForServicesWritOfGarnishmentRestitutionAttachmentOrExecution</v>
       </c>
       <c r="D39" s="120" t="str">
         <f t="shared" si="2"/>
@@ -35937,8 +35937,8 @@
         <v>1845</v>
       </c>
       <c r="C40" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Auxiliary Enterprises</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenuefromAuxiliaryEnterprises</v>
       </c>
       <c r="D40" s="120" t="str">
         <f t="shared" si="2"/>
@@ -35954,8 +35954,8 @@
         <v>1853</v>
       </c>
       <c r="C41" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Charges for Utilities</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromChargesForUtilities</v>
       </c>
       <c r="D41" s="120" t="str">
         <f t="shared" si="2"/>
@@ -35971,8 +35971,8 @@
         <v>1847</v>
       </c>
       <c r="C42" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Connection Fees</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromConnectionFees</v>
       </c>
       <c r="D42" s="120" t="str">
         <f t="shared" si="2"/>
@@ -35988,8 +35988,8 @@
         <v>1818</v>
       </c>
       <c r="C43" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Fines and Forfeitures and Penalties</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromFinesAndForfeituresAndPenalties</v>
       </c>
       <c r="D43" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36005,8 +36005,8 @@
         <v>1851</v>
       </c>
       <c r="C44" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Installation Fees</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromInstallationFees</v>
       </c>
       <c r="D44" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36022,8 +36022,8 @@
         <v>1865</v>
       </c>
       <c r="C45" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Lottery License Application Fees</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromLotteryLicenseApplicationFees</v>
       </c>
       <c r="D45" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36039,8 +36039,8 @@
         <v>1869</v>
       </c>
       <c r="C46" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Lottery License Application Fees</v>
+        <f t="shared" si="1"/>
+        <v>acfr:ExpensesForLotteryLicenseApplicationFees</v>
       </c>
       <c r="D46" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36056,8 +36056,8 @@
         <v>1867</v>
       </c>
       <c r="C47" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Lottery Security Proceeds</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromLotterySecurityProceeds</v>
       </c>
       <c r="D47" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36073,8 +36073,8 @@
         <v>1863</v>
       </c>
       <c r="C48" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Lottery Ticket Sales</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromLotteryTicketSales</v>
       </c>
       <c r="D48" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36090,8 +36090,8 @@
         <v>1857</v>
       </c>
       <c r="C49" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Refunds and Rebates</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromRefundsAndRebates</v>
       </c>
       <c r="D49" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36107,8 +36107,8 @@
         <v>1859</v>
       </c>
       <c r="C50" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Reimbursements</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromReimbursements</v>
       </c>
       <c r="D50" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36124,8 +36124,8 @@
         <v>1849</v>
       </c>
       <c r="C51" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Rents</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromRents</v>
       </c>
       <c r="D51" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36141,8 +36141,8 @@
         <v>1855</v>
       </c>
       <c r="C52" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Sale of Fuel</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromSaleOfFuel</v>
       </c>
       <c r="D52" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36158,8 +36158,8 @@
         <v>1825</v>
       </c>
       <c r="C53" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Tuition and Fees</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromTuitionAndFees</v>
       </c>
       <c r="D53" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36175,8 +36175,8 @@
         <v>1831</v>
       </c>
       <c r="C54" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Revenues from Tuition and Fees (Net of Allowances)</v>
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromTuitionAndFeesNetOfAllowances</v>
       </c>
       <c r="D54" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36192,8 +36192,8 @@
         <v>1833</v>
       </c>
       <c r="C55" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Scholarship Allowances</v>
+        <f t="shared" si="1"/>
+        <v>acfr:ScholarshipAllowances</v>
       </c>
       <c r="D55" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36209,8 +36209,8 @@
         <v>1827</v>
       </c>
       <c r="C56" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Tax Collection Fees for Tax Fund</v>
+        <f t="shared" si="1"/>
+        <v>acfr:TaxCollectionFeesForTaxFund</v>
       </c>
       <c r="D56" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36226,8 +36226,8 @@
         <v>1835</v>
       </c>
       <c r="C57" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Tuition and Fees, Allowance</v>
+        <f t="shared" si="1"/>
+        <v>acfr:TuitionAndFeesAllowances</v>
       </c>
       <c r="D57" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36243,8 +36243,8 @@
         <v>1726</v>
       </c>
       <c r="C58" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Type of Activities Proprietary Funds [Axis]</v>
+        <f t="shared" si="1"/>
+        <v>acfr:TypeOfActivitiesProprietaryFundsAxis</v>
       </c>
       <c r="D58" s="120" t="str">
         <f t="shared" si="2"/>
@@ -36260,8 +36260,8 @@
         <v>1981</v>
       </c>
       <c r="C59" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Amortization Expense</v>
+        <f t="shared" si="1"/>
+        <v>acfr:AmortizationExpense</v>
       </c>
       <c r="D59" s="120" t="str">
         <f t="shared" ref="D59:D90" si="3">IF(RIGHT(B59, 8)="Abstract", "Abstract", "Operating Expenses")</f>
@@ -36277,8 +36277,8 @@
         <v>1985</v>
       </c>
       <c r="C60" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Bad Debt Expense</v>
+        <f t="shared" si="1"/>
+        <v>acfr:BadDebtExpense</v>
       </c>
       <c r="D60" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36294,8 +36294,8 @@
         <v>1944</v>
       </c>
       <c r="C61" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Benefits Expense</v>
+        <f t="shared" si="1"/>
+        <v>acfr:BenefitsExpense</v>
       </c>
       <c r="D61" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36311,8 +36311,8 @@
         <v>1942</v>
       </c>
       <c r="C62" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Benefits Expense, Pension and OPEB</v>
+        <f t="shared" si="1"/>
+        <v>acfr:BenefitsExpensePensionAndOPEB</v>
       </c>
       <c r="D62" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36328,8 +36328,8 @@
         <v>1948</v>
       </c>
       <c r="C63" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Communication Expense</v>
+        <f t="shared" si="1"/>
+        <v>acfr:CommunicationExpense</v>
       </c>
       <c r="D63" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36345,8 +36345,8 @@
         <v>1950</v>
       </c>
       <c r="C64" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Community Promotion Expense</v>
+        <f t="shared" si="1"/>
+        <v>acfr:CommunityPromotionExpense</v>
       </c>
       <c r="D64" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36362,8 +36362,8 @@
         <v>1978</v>
       </c>
       <c r="C65" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:Cost of Materials and Services Rendered</v>
+        <f t="shared" si="1"/>
+        <v>acfr:CostOfMaterialsAndServicesRendered</v>
       </c>
       <c r="D65" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36379,8 +36379,8 @@
         <v>1983</v>
       </c>
       <c r="C66" s="135" t="str">
-        <f t="shared" ref="C66:C129" si="4">"acfr:"&amp;A66</f>
-        <v>acfr:Depletion, Depreciation and Amortization Expense</v>
+        <f t="shared" si="1"/>
+        <v>acfr:DepletionDepreciationAndAmortizationExpense</v>
       </c>
       <c r="D66" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36396,8 +36396,8 @@
         <v>1980</v>
       </c>
       <c r="C67" s="135" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:Depreciation Expense</v>
+        <f t="shared" ref="C67:C130" si="4">"acfr:"&amp;B67</f>
+        <v>acfr:DepreciationExpense</v>
       </c>
       <c r="D67" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36414,7 +36414,7 @@
       </c>
       <c r="C68" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Academic Support</v>
+        <v>acfr:ExpensesForAcademicSupport</v>
       </c>
       <c r="D68" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36431,7 +36431,7 @@
       </c>
       <c r="C69" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Airport Services</v>
+        <v>acfr:ExpensesForAirportsServices</v>
       </c>
       <c r="D69" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36448,7 +36448,7 @@
       </c>
       <c r="C70" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Ambulance</v>
+        <v>acfr:ExpensesForAmbulance</v>
       </c>
       <c r="D70" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36465,7 +36465,7 @@
       </c>
       <c r="C71" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Auditorium, Civic Center</v>
+        <v>acfr:ExpensesForAuditoriumCivicCenter</v>
       </c>
       <c r="D71" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36482,7 +36482,7 @@
       </c>
       <c r="C72" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Auxiliary Enterprises</v>
+        <v>acfr:ExpensesForAuxiliaryEnterprises</v>
       </c>
       <c r="D72" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36499,7 +36499,7 @@
       </c>
       <c r="C73" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Claims and Judgments</v>
+        <v>acfr:ExpensesForClaimsAndJudgments</v>
       </c>
       <c r="D73" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36516,7 +36516,7 @@
       </c>
       <c r="C74" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Department of Public Works (DPW)</v>
+        <v>acfr:ExpensesForDepartmentOfPublicWorksDPW</v>
       </c>
       <c r="D74" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36533,7 +36533,7 @@
       </c>
       <c r="C75" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Engineers, Engineering</v>
+        <v>acfr:ExpensesForEngineersEngineering</v>
       </c>
       <c r="D75" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36550,7 +36550,7 @@
       </c>
       <c r="C76" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Equipment and Equipment Rental</v>
+        <v>acfr:ExpensesForEquipmentAndEquipmentRental</v>
       </c>
       <c r="D76" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36567,7 +36567,7 @@
       </c>
       <c r="C77" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for General Government Services</v>
+        <v>acfr:ExpensesForGeneralGovernmentServices</v>
       </c>
       <c r="D77" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36584,7 +36584,7 @@
       </c>
       <c r="C78" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Harbor Services</v>
+        <v>acfr:ExpensesForHarborServices</v>
       </c>
       <c r="D78" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36601,7 +36601,7 @@
       </c>
       <c r="C79" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Hospital Operations</v>
+        <v>acfr:ExpensesForHospitalOperations</v>
       </c>
       <c r="D79" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36618,7 +36618,7 @@
       </c>
       <c r="C80" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Hospitalization</v>
+        <v>acfr:ExpensesForHospitalization</v>
       </c>
       <c r="D80" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36635,7 +36635,7 @@
       </c>
       <c r="C81" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Information Technology</v>
+        <v>acfr:ExpensesForFinancialAndTaxAdministrationInformationTechnology</v>
       </c>
       <c r="D81" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36652,7 +36652,7 @@
       </c>
       <c r="C82" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Institutional Support</v>
+        <v>acfr:ExpensesForInstitutionalSupport</v>
       </c>
       <c r="D82" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36669,7 +36669,7 @@
       </c>
       <c r="C83" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Instruction</v>
+        <v>acfr:ExpensesForInstruction</v>
       </c>
       <c r="D83" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36686,7 +36686,7 @@
       </c>
       <c r="C84" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Lottery Game Costs</v>
+        <v>acfr:ExpensesForLotteryGameCosts</v>
       </c>
       <c r="D84" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36703,7 +36703,7 @@
       </c>
       <c r="C85" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Lottery Operator Fees</v>
+        <v>acfr:ExpensesForLotteryOperatorFees</v>
       </c>
       <c r="D85" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36720,7 +36720,7 @@
       </c>
       <c r="C86" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Lottery Prize Awards</v>
+        <v>acfr:ExpensesForLotteryPrizeAwards</v>
       </c>
       <c r="D86" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36737,7 +36737,7 @@
       </c>
       <c r="C87" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Lottery Promotion, Public Relations, and Point of Sale</v>
+        <v>acfr:ExpensesForLotteryPromotionPublicRelationsAndPointOfSale</v>
       </c>
       <c r="D87" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36754,7 +36754,7 @@
       </c>
       <c r="C88" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Lottery Retailer Bonuses</v>
+        <v>acfr:ExpensesForLotteryRetailerBonuses</v>
       </c>
       <c r="D88" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36771,7 +36771,7 @@
       </c>
       <c r="C89" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Lottery Retailer Commissions</v>
+        <v>acfr:ExpensesForLotteryRetailerCommissions</v>
       </c>
       <c r="D89" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36788,7 +36788,7 @@
       </c>
       <c r="C90" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Other Public Services</v>
+        <v>acfr:ExpensesForOtherPublicServices</v>
       </c>
       <c r="D90" s="120" t="str">
         <f t="shared" si="3"/>
@@ -36805,7 +36805,7 @@
       </c>
       <c r="C91" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Parks Administration</v>
+        <v>acfr:ExpensesForParksAdministration</v>
       </c>
       <c r="D91" s="120" t="str">
         <f t="shared" ref="D91:D122" si="5">IF(RIGHT(B91, 8)="Abstract", "Abstract", "Operating Expenses")</f>
@@ -36822,7 +36822,7 @@
       </c>
       <c r="C92" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Parks and Recreation</v>
+        <v>acfr:ExpensesForParksAndRecreation</v>
       </c>
       <c r="D92" s="120" t="str">
         <f t="shared" si="5"/>
@@ -36839,7 +36839,7 @@
       </c>
       <c r="C93" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Parks and Recreation Department</v>
+        <v>acfr:ExpensesForParksAndRecreationDepartment</v>
       </c>
       <c r="D93" s="120" t="str">
         <f t="shared" si="5"/>
@@ -36856,7 +36856,7 @@
       </c>
       <c r="C94" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Parks Facilities</v>
+        <v>acfr:ExpensesForParksFacilities</v>
       </c>
       <c r="D94" s="120" t="str">
         <f t="shared" si="5"/>
@@ -36873,7 +36873,7 @@
       </c>
       <c r="C95" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Parks Lighting</v>
+        <v>acfr:ExpensesForParksLighting</v>
       </c>
       <c r="D95" s="120" t="str">
         <f t="shared" si="5"/>
@@ -36890,7 +36890,7 @@
       </c>
       <c r="C96" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Parks Maintenance</v>
+        <v>acfr:ExpensesForParksMaintenance</v>
       </c>
       <c r="D96" s="120" t="str">
         <f t="shared" si="5"/>
@@ -36907,7 +36907,7 @@
       </c>
       <c r="C97" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Parks Policing</v>
+        <v>acfr:ExpensesForParksPolicing</v>
       </c>
       <c r="D97" s="120" t="str">
         <f t="shared" si="5"/>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="C98" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Parks Supervision</v>
+        <v>acfr:ExpensesForParksSupervision</v>
       </c>
       <c r="D98" s="120" t="str">
         <f t="shared" si="5"/>
@@ -36941,7 +36941,7 @@
       </c>
       <c r="C99" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Professional and Contractual Services</v>
+        <v>acfr:ExpensesForProfessionalServices</v>
       </c>
       <c r="D99" s="120" t="str">
         <f t="shared" si="5"/>
@@ -36958,7 +36958,7 @@
       </c>
       <c r="C100" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Refunds and Rebates</v>
+        <v>acfr:ExpensesForRefundsAndRebates</v>
       </c>
       <c r="D100" s="120" t="str">
         <f t="shared" si="5"/>
@@ -36975,7 +36975,7 @@
       </c>
       <c r="C101" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Rubbish Collection</v>
+        <v>acfr:ExpensesForRubbishCollection</v>
       </c>
       <c r="D101" s="120" t="str">
         <f t="shared" si="5"/>
@@ -36992,7 +36992,7 @@
       </c>
       <c r="C102" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Salaries and Benefits</v>
+        <v>acfr:ExpensesForSalariesAndBenefits</v>
       </c>
       <c r="D102" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37009,7 +37009,7 @@
       </c>
       <c r="C103" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Sanitary Landfill</v>
+        <v>acfr:ExpensesForSanitaryLandfill</v>
       </c>
       <c r="D103" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37026,7 +37026,7 @@
       </c>
       <c r="C104" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Sanitation Department</v>
+        <v>acfr:ExpensesForSanitationDepartment</v>
       </c>
       <c r="D104" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37043,7 +37043,7 @@
       </c>
       <c r="C105" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Services and Supplies</v>
+        <v>acfr:ExpensesForServicesAndSupplies</v>
       </c>
       <c r="D105" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37060,7 +37060,7 @@
       </c>
       <c r="C106" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Sewage Disposal</v>
+        <v>acfr:ExpensesForSewageDisposal</v>
       </c>
       <c r="D106" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37077,7 +37077,7 @@
       </c>
       <c r="C107" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Special Assessments</v>
+        <v>acfr:ExpensesForSpecialAssessments</v>
       </c>
       <c r="D107" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37094,7 +37094,7 @@
       </c>
       <c r="C108" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for State Institutions</v>
+        <v>acfr:ExpensesForStateInstitutions</v>
       </c>
       <c r="D108" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37111,7 +37111,7 @@
       </c>
       <c r="C109" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Student Grants and Scholarships</v>
+        <v>acfr:ExpensesForStudentGrantsAndScholarships</v>
       </c>
       <c r="D109" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37128,7 +37128,7 @@
       </c>
       <c r="C110" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Student Services</v>
+        <v>acfr:ExpensesForStudentService</v>
       </c>
       <c r="D110" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37145,7 +37145,7 @@
       </c>
       <c r="C111" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Transportation Services</v>
+        <v>acfr:ExpensesForTransportationServices</v>
       </c>
       <c r="D111" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37162,7 +37162,7 @@
       </c>
       <c r="C112" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Expenses for Water and Sewer Systems</v>
+        <v>acfr:ExpensesForWaterAndSewerSystems</v>
       </c>
       <c r="D112" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37179,7 +37179,7 @@
       </c>
       <c r="C113" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Financial Aid Expense</v>
+        <v>acfr:FinancialAidExpense</v>
       </c>
       <c r="D113" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37196,7 +37196,7 @@
       </c>
       <c r="C114" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Health Services Expense</v>
+        <v>acfr:HealthServicesExpense</v>
       </c>
       <c r="D114" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37213,7 +37213,7 @@
       </c>
       <c r="C115" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Housing Assistance Payments</v>
+        <v>acfr:HousingAssistancePaymentsExpense</v>
       </c>
       <c r="D115" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37230,7 +37230,7 @@
       </c>
       <c r="C116" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Insurance Expense</v>
+        <v>acfr:InsuranceExpense</v>
       </c>
       <c r="D116" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37247,7 +37247,7 @@
       </c>
       <c r="C117" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Interest Expense</v>
+        <v>acfr:InterestExpense</v>
       </c>
       <c r="D117" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37264,7 +37264,7 @@
       </c>
       <c r="C118" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Interest Expense Imputed on Annuitized Prize Liability</v>
+        <v>acfr:InterestExpenseImputedOnAnnuitizedPrizeLiability</v>
       </c>
       <c r="D118" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37281,7 +37281,7 @@
       </c>
       <c r="C119" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Materials and Supplies Expense</v>
+        <v>acfr:MaterialsAndSuppliesExpense</v>
       </c>
       <c r="D119" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37298,7 +37298,7 @@
       </c>
       <c r="C120" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:OPEB Expense</v>
+        <v>acfr:OPEBExpense</v>
       </c>
       <c r="D120" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37315,7 +37315,7 @@
       </c>
       <c r="C121" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Operating Expense</v>
+        <v>acfr:OperatingExpense</v>
       </c>
       <c r="D121" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37332,7 +37332,7 @@
       </c>
       <c r="C122" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Operating Income (Loss)</v>
+        <v>acfr:OperatingIncomeLoss</v>
       </c>
       <c r="D122" s="120" t="str">
         <f t="shared" si="5"/>
@@ -37349,7 +37349,7 @@
       </c>
       <c r="C123" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Other Lottery Costs</v>
+        <v>acfr:OtherLotteryCosts</v>
       </c>
       <c r="D123" s="120" t="str">
         <f t="shared" ref="D123:D133" si="6">IF(RIGHT(B123, 8)="Abstract", "Abstract", "Operating Expenses")</f>
@@ -37366,7 +37366,7 @@
       </c>
       <c r="C124" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Other Operating Expenses</v>
+        <v>acfr:OtherOperatingExpenses</v>
       </c>
       <c r="D124" s="120" t="str">
         <f t="shared" si="6"/>
@@ -37383,7 +37383,7 @@
       </c>
       <c r="C125" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Pension Expense</v>
+        <v>acfr:PensionExpense</v>
       </c>
       <c r="D125" s="120" t="str">
         <f t="shared" si="6"/>
@@ -37400,7 +37400,7 @@
       </c>
       <c r="C126" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Printing and Publishing Expense</v>
+        <v>acfr:PrintingAndPublishingExpense</v>
       </c>
       <c r="D126" s="120" t="str">
         <f t="shared" si="6"/>
@@ -37417,7 +37417,7 @@
       </c>
       <c r="C127" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Protective Services</v>
+        <v>acfr:ExpensesForProtectiveServices</v>
       </c>
       <c r="D127" s="120" t="str">
         <f t="shared" si="6"/>
@@ -37434,7 +37434,7 @@
       </c>
       <c r="C128" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Rent Expense</v>
+        <v>acfr:RentExpense</v>
       </c>
       <c r="D128" s="120" t="str">
         <f t="shared" si="6"/>
@@ -37451,7 +37451,7 @@
       </c>
       <c r="C129" s="135" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:Repair and Maintenance</v>
+        <v>acfr:RepairAndMaintenance</v>
       </c>
       <c r="D129" s="120" t="str">
         <f t="shared" si="6"/>
@@ -37467,8 +37467,8 @@
         <v>2001</v>
       </c>
       <c r="C130" s="135" t="str">
-        <f t="shared" ref="C130:C193" si="7">"acfr:"&amp;A130</f>
-        <v>acfr:Sewage Treatment Expense</v>
+        <f t="shared" si="4"/>
+        <v>acfr:SewageTreatmentExpense</v>
       </c>
       <c r="D130" s="120" t="str">
         <f t="shared" si="6"/>
@@ -37484,8 +37484,8 @@
         <v>1995</v>
       </c>
       <c r="C131" s="135" t="str">
-        <f t="shared" si="7"/>
-        <v>acfr:State Trunkline Overhead Expense</v>
+        <f t="shared" ref="C131:C194" si="7">"acfr:"&amp;B131</f>
+        <v>acfr:StateTrunklineOverheadExpense</v>
       </c>
       <c r="D131" s="120" t="str">
         <f t="shared" si="6"/>
@@ -37502,7 +37502,7 @@
       </c>
       <c r="C132" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Tenant Services Expense</v>
+        <v>acfr:TenantServicesExpenses</v>
       </c>
       <c r="D132" s="120" t="str">
         <f t="shared" si="6"/>
@@ -37519,7 +37519,7 @@
       </c>
       <c r="C133" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Utilities Expense</v>
+        <v>acfr:ExpensesForUtilities</v>
       </c>
       <c r="D133" s="120" t="str">
         <f t="shared" si="6"/>
@@ -37536,7 +37536,7 @@
       </c>
       <c r="C134" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Allowance for Chargebacks</v>
+        <v>acfr:AllowanceForChargebacks</v>
       </c>
       <c r="D134" s="120" t="str">
         <f t="shared" ref="D134:D165" si="8">IF(RIGHT(B134, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -37553,7 +37553,7 @@
       </c>
       <c r="C135" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Allowance for Refunds</v>
+        <v>acfr:AllowanceForRefunds</v>
       </c>
       <c r="D135" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37570,7 +37570,7 @@
       </c>
       <c r="C136" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Cash Over or Short</v>
+        <v>acfr:CashOverOrShort</v>
       </c>
       <c r="D136" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37587,7 +37587,7 @@
       </c>
       <c r="C137" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Contributions to Other Governments</v>
+        <v>acfr:ContributionsToOtherGovernments</v>
       </c>
       <c r="D137" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37604,7 +37604,7 @@
       </c>
       <c r="C138" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Debt Service, Interest and Fiscal Charges</v>
+        <v>acfr:DebtServiceInterestAndFiscalCharges</v>
       </c>
       <c r="D138" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37621,7 +37621,7 @@
       </c>
       <c r="C139" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Expenses for Other Welfare Services</v>
+        <v>acfr:ExpensesForOtherWelfareServices</v>
       </c>
       <c r="D139" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37638,7 +37638,7 @@
       </c>
       <c r="C140" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Federal Capital Grants</v>
+        <v>acfr:FederalCapitalGrants</v>
       </c>
       <c r="D140" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37655,7 +37655,7 @@
       </c>
       <c r="C141" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Federal Grants, Community Development Block Grants</v>
+        <v>acfr:FederalGrantsCommunityDevelopmentBlockGrants</v>
       </c>
       <c r="D141" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37672,7 +37672,7 @@
       </c>
       <c r="C142" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Federal Grants, Culture and Recreation</v>
+        <v>acfr:FederalGrantsCultureAndRecreation</v>
       </c>
       <c r="D142" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37689,7 +37689,7 @@
       </c>
       <c r="C143" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Federal Grants, General Government</v>
+        <v>acfr:FederalGrantsGeneralGovernment</v>
       </c>
       <c r="D143" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37706,7 +37706,7 @@
       </c>
       <c r="C144" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Federal Grants, Health and Hospital</v>
+        <v>acfr:FederalGrantsHealthAndHospital</v>
       </c>
       <c r="D144" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37723,7 +37723,7 @@
       </c>
       <c r="C145" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Federal Grants, Public Safety</v>
+        <v>acfr:FederalGrantsPublicSafety</v>
       </c>
       <c r="D145" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37740,7 +37740,7 @@
       </c>
       <c r="C146" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Federal Grants, Sanitation</v>
+        <v>acfr:FederalGrantsSanitation</v>
       </c>
       <c r="D146" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37757,7 +37757,7 @@
       </c>
       <c r="C147" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Federal Grants, Welfare</v>
+        <v>acfr:FederalGrantsWelfare</v>
       </c>
       <c r="D147" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37774,7 +37774,7 @@
       </c>
       <c r="C148" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Gain (Loss) on Sale of Capital Assets</v>
+        <v>acfr:GainLossOnSaleOfCapitalAssets</v>
       </c>
       <c r="D148" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37808,7 +37808,7 @@
       </c>
       <c r="C150" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Grant Related Expenses</v>
+        <v>acfr:GrantRelatedExpenses</v>
       </c>
       <c r="D150" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37825,7 +37825,7 @@
       </c>
       <c r="C151" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Grants, Contributions and Donations from Federal Governmental Entities</v>
+        <v>acfr:GrantsContributionsAndDonationsFromFederalGovernmentalEntities</v>
       </c>
       <c r="D151" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37842,7 +37842,7 @@
       </c>
       <c r="C152" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Grants, Contributions and Donations from Local Units</v>
+        <v>acfr:GrantsContributionsAndDonationsFromLocalUnits</v>
       </c>
       <c r="D152" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37859,7 +37859,7 @@
       </c>
       <c r="C153" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Grants, Contributions and Donations from Others</v>
+        <v>acfr:GrantsContributionsAndDonationsFromOthers</v>
       </c>
       <c r="D153" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37876,7 +37876,7 @@
       </c>
       <c r="C154" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Grants, Contributions and Donations from State Governmental Entities</v>
+        <v>acfr:GrantsContributionsAndDonationsFromStateGovernmentalEntities</v>
       </c>
       <c r="D154" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37893,7 +37893,7 @@
       </c>
       <c r="C155" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Investment Gains (Losses)</v>
+        <v>acfr:InvestmentGainsLosses</v>
       </c>
       <c r="D155" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37910,7 +37910,7 @@
       </c>
       <c r="C156" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Investment Income</v>
+        <v>acfr:InvestmentIncome</v>
       </c>
       <c r="D156" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37927,7 +37927,7 @@
       </c>
       <c r="C157" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Investment Income and Rentals</v>
+        <v>acfr:InvestmentIncomeAndRentals</v>
       </c>
       <c r="D157" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37944,7 +37944,7 @@
       </c>
       <c r="C158" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Issuance Cost and Amortization of Bond Discount</v>
+        <v>acfr:IssuanceCostAndAmortizationOfBondDiscount</v>
       </c>
       <c r="D158" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37961,7 +37961,7 @@
       </c>
       <c r="C159" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Lease Investment Income</v>
+        <v>acfr:LeaseInvestmentIncome</v>
       </c>
       <c r="D159" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37978,7 +37978,7 @@
       </c>
       <c r="C160" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Miscellaneous Other Revenue</v>
+        <v>acfr:MiscellaneousOtherRevenue</v>
       </c>
       <c r="D160" s="120" t="str">
         <f t="shared" si="8"/>
@@ -37995,7 +37995,7 @@
       </c>
       <c r="C161" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Nonoperating Expenses</v>
+        <v>acfr:NonoperatingExpenses</v>
       </c>
       <c r="D161" s="120" t="str">
         <f t="shared" si="8"/>
@@ -38012,7 +38012,7 @@
       </c>
       <c r="C162" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Nonoperating Revenues</v>
+        <v>acfr:NonoperatingRevenues</v>
       </c>
       <c r="D162" s="120" t="str">
         <f t="shared" si="8"/>
@@ -38029,7 +38029,7 @@
       </c>
       <c r="C163" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Nonoperating Revenues and (Expenses)</v>
+        <v>acfr:NonoperatingRevenuesAndExpenses</v>
       </c>
       <c r="D163" s="120" t="str">
         <f t="shared" si="8"/>
@@ -38046,7 +38046,7 @@
       </c>
       <c r="C164" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Other Nonoperating Revenues (Expenses)</v>
+        <v>acfr:OtherNonoperatingRevenuesExpenses</v>
       </c>
       <c r="D164" s="120" t="str">
         <f t="shared" si="8"/>
@@ -38063,7 +38063,7 @@
       </c>
       <c r="C165" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Payment in Lieu of Taxes</v>
+        <v>acfr:PaymentInLieuOfTaxes</v>
       </c>
       <c r="D165" s="120" t="str">
         <f t="shared" si="8"/>
@@ -38080,7 +38080,7 @@
       </c>
       <c r="C166" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Private Contributions and Donations</v>
+        <v>acfr:PrivateContributionsAndDonations</v>
       </c>
       <c r="D166" s="120" t="str">
         <f t="shared" ref="D166:D197" si="9">IF(RIGHT(B166, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -38097,7 +38097,7 @@
       </c>
       <c r="C167" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Project Costs</v>
+        <v>acfr:ProjectCosts</v>
       </c>
       <c r="D167" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38114,7 +38114,7 @@
       </c>
       <c r="C168" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Public and Private Contributions</v>
+        <v>acfr:PublicAndPrivateContributions</v>
       </c>
       <c r="D168" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38131,7 +38131,7 @@
       </c>
       <c r="C169" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Redemptions and Reconveyance</v>
+        <v>acfr:RedemptionsAndReconveyance</v>
       </c>
       <c r="D169" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38148,7 +38148,7 @@
       </c>
       <c r="C170" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Accommodations Tax (PA 263 of 1974)</v>
+        <v>acfr:RevenueFromAccomodationsTax</v>
       </c>
       <c r="D170" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38165,7 +38165,7 @@
       </c>
       <c r="C171" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Business License Tax</v>
+        <v>acfr:RevenueFromBusinessLicenseTax</v>
       </c>
       <c r="D171" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38182,7 +38182,7 @@
       </c>
       <c r="C172" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from City Utility Users Tax</v>
+        <v>acfr:RevenueFromCityUtilityUsersTax</v>
       </c>
       <c r="D172" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38199,7 +38199,7 @@
       </c>
       <c r="C173" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Collection Fees</v>
+        <v>acfr:RevenueFromCollectionFees</v>
       </c>
       <c r="D173" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38216,7 +38216,7 @@
       </c>
       <c r="C174" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Commercial Facilities Tax</v>
+        <v>acfr:RevenueFromCommercialFacilitiesTax</v>
       </c>
       <c r="D174" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38233,7 +38233,7 @@
       </c>
       <c r="C175" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Commercial Forest Reserve</v>
+        <v>acfr:RevenueFromCommercialForestReserve</v>
       </c>
       <c r="D175" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38250,7 +38250,7 @@
       </c>
       <c r="C176" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Community Wide Special Assessments</v>
+        <v>acfr:RevenueFromCommunityWideSpecialAssessments</v>
       </c>
       <c r="D176" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38267,7 +38267,7 @@
       </c>
       <c r="C177" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Connection Fees, Nonoperating</v>
+        <v>acfr:RevenuesFromConnectionFeesNonoperating</v>
       </c>
       <c r="D177" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38284,7 +38284,7 @@
       </c>
       <c r="C178" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Convention Tax</v>
+        <v>acfr:RevenueFromConventionTax</v>
       </c>
       <c r="D178" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38301,7 +38301,7 @@
       </c>
       <c r="C179" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Corporate Tax</v>
+        <v>acfr:RevenueFromCorporateTax</v>
       </c>
       <c r="D179" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38318,7 +38318,7 @@
       </c>
       <c r="C180" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from County Expense of Sale</v>
+        <v>acfr:RevenueFromCountyExpenseOfSale</v>
       </c>
       <c r="D180" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38335,7 +38335,7 @@
       </c>
       <c r="C181" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Current Personal Property Tax</v>
+        <v>acfr:RevenueFromCurrentPersonalPropertyTax</v>
       </c>
       <c r="D181" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38352,7 +38352,7 @@
       </c>
       <c r="C182" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Current Property Taxes, Extra or Special Voted</v>
+        <v>acfr:RevenueFromCurrentPropertyTaxesExtraOrSpecialVoted</v>
       </c>
       <c r="D182" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38369,7 +38369,7 @@
       </c>
       <c r="C183" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Current Real Property Tax</v>
+        <v>acfr:RevenuesFromCurrentRealPropertyTax</v>
       </c>
       <c r="D183" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38386,7 +38386,7 @@
       </c>
       <c r="C184" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Delinquent Personal Property Tax</v>
+        <v>acfr:RevenueFromDelinquentPersonalPropertyTax</v>
       </c>
       <c r="D184" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38403,7 +38403,7 @@
       </c>
       <c r="C185" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Delinquent Real Property Tax</v>
+        <v>acfr:RevenueFromDelinquentRealPropertyTax</v>
       </c>
       <c r="D185" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38420,7 +38420,7 @@
       </c>
       <c r="C186" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Dividends</v>
+        <v>acfr:RevenueFromDividends</v>
       </c>
       <c r="D186" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38437,7 +38437,7 @@
       </c>
       <c r="C187" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Documents Transfer Tax</v>
+        <v>acfr:RevenueFromDocumentsTransferTax</v>
       </c>
       <c r="D187" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38454,7 +38454,7 @@
       </c>
       <c r="C188" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Franchise Income Tax</v>
+        <v>acfr:RevenueFromFranchiseIncomeTax</v>
       </c>
       <c r="D188" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38471,7 +38471,7 @@
       </c>
       <c r="C189" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Hotel and Motel Tax</v>
+        <v>acfr:RevenueFromHotelAndMotelTax</v>
       </c>
       <c r="D189" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38488,7 +38488,7 @@
       </c>
       <c r="C190" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Income Tax</v>
+        <v>acfr:RevenueFromIncomeTax</v>
       </c>
       <c r="D190" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38505,7 +38505,7 @@
       </c>
       <c r="C191" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Industrial Facilities Tax</v>
+        <v>acfr:RevenueFromIndustrialFacilitiesTax</v>
       </c>
       <c r="D191" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38522,7 +38522,7 @@
       </c>
       <c r="C192" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Interest</v>
+        <v>acfr:RevenueFromInterest</v>
       </c>
       <c r="D192" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38539,7 +38539,7 @@
       </c>
       <c r="C193" s="135" t="str">
         <f t="shared" si="7"/>
-        <v>acfr:Revenues from Interest and Dividends</v>
+        <v>acfr:RevenueFromInterestAndDividends</v>
       </c>
       <c r="D193" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38555,8 +38555,8 @@
         <v>2194</v>
       </c>
       <c r="C194" s="135" t="str">
-        <f t="shared" ref="C194:C257" si="10">"acfr:"&amp;A194</f>
-        <v>acfr:Revenues from Interest and Dividends</v>
+        <f t="shared" si="7"/>
+        <v>acfr:RevenueFromInterestAndDividends</v>
       </c>
       <c r="D194" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38572,8 +38572,8 @@
         <v>2129</v>
       </c>
       <c r="C195" s="135" t="str">
-        <f t="shared" si="10"/>
-        <v>acfr:Revenues from Interest and Penalties on Special Assessments</v>
+        <f t="shared" ref="C195:C258" si="10">"acfr:"&amp;B195</f>
+        <v>acfr:RevenuesFromInterestAndPenaltiesOnSpecialAssessments</v>
       </c>
       <c r="D195" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38590,7 +38590,7 @@
       </c>
       <c r="C196" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Interest and Penalties on Taxes</v>
+        <v>acfr:RevenueFromInterestAndPenaltiesOnTaxes</v>
       </c>
       <c r="D196" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38607,7 +38607,7 @@
       </c>
       <c r="C197" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Interest and Penalties on Taxes</v>
+        <v>acfr:RevenueFromInterestAndPenaltiesOnTaxes</v>
       </c>
       <c r="D197" s="120" t="str">
         <f t="shared" si="9"/>
@@ -38624,7 +38624,7 @@
       </c>
       <c r="C198" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Interest, Dividends, Royalties and Rent</v>
+        <v>acfr:RevenueFromInterestAndRent</v>
       </c>
       <c r="D198" s="120" t="str">
         <f t="shared" ref="D198:D229" si="11">IF(RIGHT(B198, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -38641,7 +38641,7 @@
       </c>
       <c r="C199" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Lottery for Education, Lottery Proceeds</v>
+        <v>acfr:RevenueFromLotteryForEducationLotteryProceeds</v>
       </c>
       <c r="D199" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38658,7 +38658,7 @@
       </c>
       <c r="C200" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Marijuana Tax</v>
+        <v>acfr:RevenueFromMarijuanaTax</v>
       </c>
       <c r="D200" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38675,7 +38675,7 @@
       </c>
       <c r="C201" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Meals Tax</v>
+        <v>acfr:RevenueFromMealsTax</v>
       </c>
       <c r="D201" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38692,7 +38692,7 @@
       </c>
       <c r="C202" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Motor Fuel Tax</v>
+        <v>acfr:RevenueFromMotorFuelTax</v>
       </c>
       <c r="D202" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38709,7 +38709,7 @@
       </c>
       <c r="C203" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from National Forest Reserve Taxes</v>
+        <v>acfr:RevenueFromNationalForestReserveTaxes</v>
       </c>
       <c r="D203" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38726,7 +38726,7 @@
       </c>
       <c r="C204" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Nursing Home and Hospital Provider Fees</v>
+        <v>acfr:RevenueFromNursingHomeAndHospitalProviderFees</v>
       </c>
       <c r="D204" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38743,7 +38743,7 @@
       </c>
       <c r="C205" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Other Tax for General Purpose</v>
+        <v>acfr:RevenueFromOtherTaxForGeneralPurpose</v>
       </c>
       <c r="D205" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38760,7 +38760,7 @@
       </c>
       <c r="C206" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Parking Occupancy Tax</v>
+        <v>acfr:RevenueFromParkingOccupancyTax</v>
       </c>
       <c r="D206" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38777,7 +38777,7 @@
       </c>
       <c r="C207" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Parking Occupancy Tax</v>
+        <v>acfr:RevenueFromParkingOccupancyTax</v>
       </c>
       <c r="D207" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38794,7 +38794,7 @@
       </c>
       <c r="C208" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Property Tax</v>
+        <v>acfr:RevenueFromPropertyTax</v>
       </c>
       <c r="D208" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38811,7 +38811,7 @@
       </c>
       <c r="C209" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Property Tax Administration Fee</v>
+        <v>acfr:RevenueFromPropertyTaxAdministrationFee</v>
       </c>
       <c r="D209" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38828,7 +38828,7 @@
       </c>
       <c r="C210" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Property Transfer Tax</v>
+        <v>acfr:RevenueFromPropertyTransferTax</v>
       </c>
       <c r="D210" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38845,7 +38845,7 @@
       </c>
       <c r="C211" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Rent</v>
+        <v>acfr:RevenueFromRent</v>
       </c>
       <c r="D211" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38862,7 +38862,7 @@
       </c>
       <c r="C212" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Rents and Royalties</v>
+        <v>acfr:RevenueFromRentsAndRoyalties</v>
       </c>
       <c r="D212" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38879,7 +38879,7 @@
       </c>
       <c r="C213" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Royalties</v>
+        <v>acfr:RevenueFromRoyalties</v>
       </c>
       <c r="D213" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38896,7 +38896,7 @@
       </c>
       <c r="C214" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Sales and Use Tax</v>
+        <v>acfr:RevenueFromSalesAndUseTax</v>
       </c>
       <c r="D214" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38913,7 +38913,7 @@
       </c>
       <c r="C215" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Sales Tax</v>
+        <v>acfr:RevenueFromSalesTax</v>
       </c>
       <c r="D215" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38930,7 +38930,7 @@
       </c>
       <c r="C216" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Special Assessments</v>
+        <v>acfr:RevenueFromSpecialAssessments</v>
       </c>
       <c r="D216" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38947,7 +38947,7 @@
       </c>
       <c r="C217" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Sub Marginal Land Act</v>
+        <v>acfr:RevenueFromSubMarginalLandAct</v>
       </c>
       <c r="D217" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38964,7 +38964,7 @@
       </c>
       <c r="C218" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Subsidies</v>
+        <v>acfr:RevenueFromSubsidies</v>
       </c>
       <c r="D218" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38981,7 +38981,7 @@
       </c>
       <c r="C219" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Tax Reverted Property</v>
+        <v>acfr:RevenueFromTaxRevertedProperty</v>
       </c>
       <c r="D219" s="120" t="str">
         <f t="shared" si="11"/>
@@ -38998,7 +38998,7 @@
       </c>
       <c r="C220" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Taxes</v>
+        <v>acfr:RevenueFromTaxes</v>
       </c>
       <c r="D220" s="120" t="str">
         <f t="shared" si="11"/>
@@ -39015,7 +39015,7 @@
       </c>
       <c r="C221" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Trailer Tax</v>
+        <v>acfr:RevenueFromTrailerTax</v>
       </c>
       <c r="D221" s="120" t="str">
         <f t="shared" si="11"/>
@@ -39032,7 +39032,7 @@
       </c>
       <c r="C222" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Transaction Privilege Tax</v>
+        <v>acfr:RevenueFromTransactionPrivilegeTax</v>
       </c>
       <c r="D222" s="120" t="str">
         <f t="shared" si="11"/>
@@ -39049,7 +39049,7 @@
       </c>
       <c r="C223" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Transfer Stamps Tax</v>
+        <v>acfr:RevenueFromTransferStampsTax</v>
       </c>
       <c r="D223" s="120" t="str">
         <f t="shared" si="11"/>
@@ -39066,7 +39066,7 @@
       </c>
       <c r="C224" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Unclaimed Property</v>
+        <v>acfr:RevenueFromUnclaimedProperty</v>
       </c>
       <c r="D224" s="120" t="str">
         <f t="shared" si="11"/>
@@ -39083,7 +39083,7 @@
       </c>
       <c r="C225" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Usage of Utilities Tax</v>
+        <v>acfr:RevenueFromUsageOfUtilitiesTax</v>
       </c>
       <c r="D225" s="120" t="str">
         <f t="shared" si="11"/>
@@ -39100,7 +39100,7 @@
       </c>
       <c r="C226" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Revenues from Vehicles Tax</v>
+        <v>acfr:RevenueFromVehiclesTax</v>
       </c>
       <c r="D226" s="120" t="str">
         <f t="shared" si="11"/>
@@ -39117,7 +39117,7 @@
       </c>
       <c r="C227" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Appropriations</v>
+        <v>acfr:StateAppropriations</v>
       </c>
       <c r="D227" s="120" t="str">
         <f t="shared" si="11"/>
@@ -39134,7 +39134,7 @@
       </c>
       <c r="C228" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Capital Grants</v>
+        <v>acfr:StateCapitalGrants</v>
       </c>
       <c r="D228" s="120" t="str">
         <f t="shared" si="11"/>
@@ -39151,7 +39151,7 @@
       </c>
       <c r="C229" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Court Equity</v>
+        <v>acfr:StateGrantsCourtEquity</v>
       </c>
       <c r="D229" s="120" t="str">
         <f t="shared" si="11"/>
@@ -39168,7 +39168,7 @@
       </c>
       <c r="C230" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Crime Victims Rights</v>
+        <v>acfr:StateGrantsCrimeVictimsRights</v>
       </c>
       <c r="D230" s="120" t="str">
         <f t="shared" ref="D230:D246" si="12">IF(RIGHT(B230, 8)="Abstract", "Abstract", "Nonoperating Revenues Expenses")</f>
@@ -39185,7 +39185,7 @@
       </c>
       <c r="C231" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Culture and Recreation</v>
+        <v>acfr:StateGrantsCultureAndRecreation</v>
       </c>
       <c r="D231" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39202,7 +39202,7 @@
       </c>
       <c r="C232" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Drug Case Information Management Account</v>
+        <v>acfr:StateGrantsDrugCaseInformationManagementAccount</v>
       </c>
       <c r="D232" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39219,7 +39219,7 @@
       </c>
       <c r="C233" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Drunk Driving Case Flow Assistance</v>
+        <v>acfr:StateGrantsDrunkDrivingCaseFlowAssistance</v>
       </c>
       <c r="D233" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39236,7 +39236,7 @@
       </c>
       <c r="C234" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Health</v>
+        <v>acfr:StateGrantsHealth</v>
       </c>
       <c r="D234" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39253,7 +39253,7 @@
       </c>
       <c r="C235" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Highway and Streets</v>
+        <v>acfr:StateGrantsHighwaysAndStreets</v>
       </c>
       <c r="D235" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39270,7 +39270,7 @@
       </c>
       <c r="C236" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Indigent Defense Grant</v>
+        <v>acfr:StateGrantsIndigentDefenseGrant</v>
       </c>
       <c r="D236" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39287,7 +39287,7 @@
       </c>
       <c r="C237" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Local Community Stabilization Share</v>
+        <v>acfr:StateGrantsLocalCommunityStabilizationShare</v>
       </c>
       <c r="D237" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39304,7 +39304,7 @@
       </c>
       <c r="C238" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Public Safety</v>
+        <v>acfr:StateGrantsPublicSafety</v>
       </c>
       <c r="D238" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39321,7 +39321,7 @@
       </c>
       <c r="C239" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Sanitation</v>
+        <v>acfr:StateGrantsSanitation</v>
       </c>
       <c r="D239" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39338,7 +39338,7 @@
       </c>
       <c r="C240" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Special Election Reimbursement</v>
+        <v>acfr:StateGrantsSpecialElectionReimbursement</v>
       </c>
       <c r="D240" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39355,7 +39355,7 @@
       </c>
       <c r="C241" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, State Revenue Sharing</v>
+        <v>acfr:StateGrantsStateRevenueSharing</v>
       </c>
       <c r="D241" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39372,7 +39372,7 @@
       </c>
       <c r="C242" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Survey and Remonumentation</v>
+        <v>acfr:StateGrantsSurveyAndRemonumentation</v>
       </c>
       <c r="D242" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39389,7 +39389,7 @@
       </c>
       <c r="C243" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Grants, Welfare</v>
+        <v>acfr:StateGrantsWelfare</v>
       </c>
       <c r="D243" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39406,7 +39406,7 @@
       </c>
       <c r="C244" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State OPEB Contribution</v>
+        <v>acfr:StateOPEBContribution</v>
       </c>
       <c r="D244" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39423,7 +39423,7 @@
       </c>
       <c r="C245" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:State Retirement Plan Contributions</v>
+        <v>acfr:StateRetirementPlanContributions</v>
       </c>
       <c r="D245" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39440,7 +39440,7 @@
       </c>
       <c r="C246" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Taxes and Tax Related Revenues</v>
+        <v>acfr:TaxesAndTaxRelatedRevenues</v>
       </c>
       <c r="D246" s="120" t="str">
         <f t="shared" si="12"/>
@@ -39457,7 +39457,7 @@
       </c>
       <c r="C247" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Change in Accounting Principle</v>
+        <v>acfr:ChangeInAccountingPrinciple</v>
       </c>
       <c r="D247" s="120" t="str">
         <f>IF(RIGHT(B247, 8)="Abstract", "Abstract", "Net Position")</f>
@@ -39474,7 +39474,7 @@
       </c>
       <c r="C248" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Net Position, Restated</v>
+        <v>acfr:NetPositionRestated</v>
       </c>
       <c r="D248" s="120" t="str">
         <f>IF(RIGHT(B248, 8)="Abstract", "Abstract", "Net Position")</f>
@@ -39491,7 +39491,7 @@
       </c>
       <c r="C249" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Bond or Insurance Recoveries</v>
+        <v>acfr:BondOrInsuranceRecoveries</v>
       </c>
       <c r="D249" s="120" t="str">
         <f t="shared" ref="D249:D261" si="13">IF(RIGHT(B249, 8)="Abstract", "Abstract", "Capital Contributions")</f>
@@ -39508,7 +39508,7 @@
       </c>
       <c r="C250" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Capital Contributions and Transfers</v>
+        <v>acfr:TotalCapitalContributionsAndTransfers</v>
       </c>
       <c r="D250" s="120" t="str">
         <f t="shared" si="13"/>
@@ -39542,7 +39542,7 @@
       </c>
       <c r="C252" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Contributions from Citizens and Developers</v>
+        <v>acfr:ContributionsfromCitizensAndDevelopers</v>
       </c>
       <c r="D252" s="120" t="str">
         <f t="shared" si="13"/>
@@ -39559,7 +39559,7 @@
       </c>
       <c r="C253" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Contributions, Capital</v>
+        <v>acfr:ContributionsCapital</v>
       </c>
       <c r="D253" s="120" t="str">
         <f t="shared" si="13"/>
@@ -39576,7 +39576,7 @@
       </c>
       <c r="C254" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Contributions, Other</v>
+        <v>acfr:ContributionsOther</v>
       </c>
       <c r="D254" s="120" t="str">
         <f t="shared" si="13"/>
@@ -39593,7 +39593,7 @@
       </c>
       <c r="C255" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Other Financing Sources</v>
+        <v>acfr:OtherFinancingSources</v>
       </c>
       <c r="D255" s="120" t="str">
         <f t="shared" si="13"/>
@@ -39610,7 +39610,7 @@
       </c>
       <c r="C256" s="135" t="str">
         <f t="shared" si="10"/>
-        <v>acfr:Other Financing Sources, Lease Financing</v>
+        <v>acfr:OtherFinancingSourcesLeaseFinancing</v>
       </c>
       <c r="D256" s="